--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17640" windowWidth="29040" xWindow="28680" yWindow="-120"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Agenda-1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Agenda-2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Agenda-3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Chinese Agenda-1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Chinese Agenda-2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Roles" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agenda-1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agenda-2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agenda-3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chinese Agenda-1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chinese Agenda-2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Roles" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'Agenda-1'!$A$1:$H$40</definedName>
-    <definedName localSheetId="1" name="_xlnm.Print_Area">'Agenda-2'!$A$1:$H$43</definedName>
-    <definedName localSheetId="2" name="_xlnm.Print_Area">'Agenda-3'!$A$1:$H$46</definedName>
-    <definedName localSheetId="3" name="_xlnm.Print_Area">'Chinese Agenda-1'!$A$1:$H$40</definedName>
-    <definedName localSheetId="4" name="_xlnm.Print_Area">'Chinese Agenda-2'!$A$1:$H$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agenda-1'!$A$1:$H$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Agenda-2'!$A$1:$H$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Agenda-3'!$A$1:$H$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Chinese Agenda-1'!$A$1:$H$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Chinese Agenda-2'!$A$1:$H$43</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -27,11 +27,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt formatCode="[$-409]h:mm\ AM/PM;@" numFmtId="164"/>
-    <numFmt formatCode="0;\-0;;@" numFmtId="165"/>
-    <numFmt formatCode="h:mm;@" numFmtId="166"/>
-    <numFmt formatCode="m/d;@" numFmtId="167"/>
-    <numFmt formatCode="0.00_)" numFmtId="168"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="0;\-0;;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="m/d;@"/>
+    <numFmt numFmtId="168" formatCode="0.00_)"/>
   </numFmts>
   <fonts count="64">
     <font>
@@ -1966,1333 +1966,1333 @@
     </border>
   </borders>
   <cellStyleXfs count="349">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="27" numFmtId="164"/>
-    <xf borderId="17" fillId="2" fontId="28" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="164"/>
-    <xf borderId="23" fillId="0" fontId="38" numFmtId="164"/>
-    <xf borderId="24" fillId="2" fontId="39" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="17" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="18" fontId="27" numFmtId="164"/>
-    <xf borderId="23" fillId="0" fontId="38" numFmtId="164"/>
-    <xf borderId="20" fillId="0" fontId="33" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="19" fillId="11" fontId="31" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="45" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="20" fillId="0" fontId="33" numFmtId="164"/>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="164"/>
-    <xf borderId="24" fillId="2" fontId="39" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="43" numFmtId="168"/>
-    <xf borderId="0" fillId="18" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="13" fontId="34" numFmtId="164"/>
-    <xf borderId="0" fillId="15" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="24" fillId="9" fontId="41" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="40" numFmtId="164"/>
-    <xf borderId="21" fillId="0" fontId="37" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="24" fillId="9" fontId="41" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="24" fillId="9" fontId="41" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="20" fillId="0" fontId="33" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="20" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="22" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="22" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="22" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="22" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="20" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="20" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="20" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="20" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="20" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="20" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="20" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="24" fillId="2" fontId="39" numFmtId="164"/>
-    <xf borderId="19" fillId="11" fontId="31" numFmtId="164"/>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="24" fillId="2" fontId="39" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="18" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="17" fillId="2" fontId="28" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="15" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="21" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="21" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="21" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="21" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="21" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="21" fontId="29" numFmtId="164"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="21" fontId="29" numFmtId="164"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="13" fontId="34" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="13" fontId="34" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="13" fontId="34" numFmtId="164"/>
-    <xf borderId="23" fillId="0" fontId="38" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="13" fontId="34" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="20" fillId="0" fontId="33" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="20" fillId="0" fontId="33" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="15" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="15" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="15" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="15" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="19" fontId="42" numFmtId="164"/>
-    <xf borderId="0" fillId="15" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="19" fontId="42" numFmtId="164"/>
-    <xf borderId="0" fillId="15" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="19" fontId="42" numFmtId="164"/>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="18" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="17" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="18" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="17" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="0" fillId="18" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="17" fontId="27" numFmtId="164"/>
-    <xf borderId="17" fillId="2" fontId="28" numFmtId="164"/>
-    <xf borderId="0" fillId="18" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="18" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="8" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="17" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="0" fillId="17" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="17" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="17" fontId="27" numFmtId="164"/>
-    <xf borderId="0" fillId="13" fontId="34" numFmtId="164"/>
-    <xf borderId="0" fillId="13" fontId="34" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="40" numFmtId="164"/>
-    <xf borderId="0" fillId="13" fontId="34" numFmtId="164"/>
-    <xf borderId="24" fillId="2" fontId="39" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="164"/>
-    <xf borderId="24" fillId="2" fontId="39" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="164"/>
-    <xf borderId="24" fillId="2" fontId="39" numFmtId="164"/>
-    <xf borderId="24" fillId="2" fontId="39" numFmtId="164"/>
-    <xf borderId="19" fillId="11" fontId="31" numFmtId="164"/>
-    <xf borderId="17" fillId="2" fontId="28" numFmtId="164"/>
-    <xf borderId="19" fillId="11" fontId="31" numFmtId="164"/>
-    <xf borderId="19" fillId="11" fontId="31" numFmtId="164"/>
-    <xf borderId="19" fillId="11" fontId="31" numFmtId="164"/>
-    <xf borderId="19" fillId="11" fontId="31" numFmtId="164"/>
-    <xf borderId="19" fillId="11" fontId="31" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="44" numFmtId="164"/>
-    <xf borderId="18" fillId="0" fontId="30" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="44" numFmtId="164"/>
-    <xf borderId="18" fillId="0" fontId="30" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="44" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="44" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="44" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="44" numFmtId="164"/>
-    <xf borderId="18" fillId="0" fontId="30" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="44" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="44" numFmtId="164"/>
-    <xf borderId="21" fillId="0" fontId="37" numFmtId="164"/>
-    <xf borderId="0" fillId="19" fontId="42" numFmtId="164"/>
-    <xf borderId="23" fillId="0" fontId="38" numFmtId="164"/>
-    <xf borderId="0" fillId="19" fontId="42" numFmtId="164"/>
-    <xf borderId="0" fillId="19" fontId="42" numFmtId="164"/>
-    <xf borderId="0" fillId="19" fontId="42" numFmtId="164"/>
-    <xf borderId="0" fillId="19" fontId="42" numFmtId="164"/>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="0"/>
-    <xf borderId="18" fillId="0" fontId="30" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="18" fillId="0" fontId="30" numFmtId="164"/>
-    <xf borderId="18" fillId="0" fontId="30" numFmtId="164"/>
-    <xf borderId="18" fillId="0" fontId="30" numFmtId="164"/>
-    <xf borderId="18" fillId="0" fontId="30" numFmtId="164"/>
-    <xf borderId="20" fillId="0" fontId="33" numFmtId="164"/>
-    <xf borderId="20" fillId="0" fontId="33" numFmtId="164"/>
-    <xf borderId="20" fillId="0" fontId="33" numFmtId="164"/>
-    <xf borderId="22" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="22" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="22" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="22" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="40" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="164"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0"/>
-    <xf borderId="24" fillId="9" fontId="41" numFmtId="164"/>
-    <xf borderId="24" fillId="9" fontId="41" numFmtId="164"/>
-    <xf borderId="24" fillId="9" fontId="41" numFmtId="164"/>
-    <xf borderId="24" fillId="9" fontId="41" numFmtId="164"/>
-    <xf borderId="24" fillId="9" fontId="41" numFmtId="164"/>
-    <xf borderId="23" fillId="0" fontId="38" numFmtId="164"/>
-    <xf borderId="23" fillId="0" fontId="38" numFmtId="164"/>
-    <xf borderId="17" fillId="2" fontId="28" numFmtId="164"/>
-    <xf borderId="23" fillId="0" fontId="38" numFmtId="164"/>
-    <xf borderId="23" fillId="0" fontId="38" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="40" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="40" numFmtId="164"/>
-    <xf borderId="21" fillId="0" fontId="37" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="40" numFmtId="164"/>
-    <xf borderId="21" fillId="0" fontId="37" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="40" numFmtId="164"/>
-    <xf borderId="0" fillId="9" fontId="40" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="45" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="164"/>
-    <xf borderId="17" fillId="2" fontId="28" numFmtId="164"/>
-    <xf borderId="17" fillId="2" fontId="28" numFmtId="164"/>
-    <xf borderId="17" fillId="2" fontId="28" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="45" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="164"/>
-    <xf borderId="21" fillId="0" fontId="37" numFmtId="164"/>
-    <xf borderId="21" fillId="0" fontId="37" numFmtId="164"/>
-    <xf borderId="21" fillId="0" fontId="37" numFmtId="164"/>
-    <xf borderId="21" fillId="0" fontId="37" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="17"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="23"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="24"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="17" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="18" borderId="0"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="23"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="20"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="31" fillId="11" borderId="19"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="20"/>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="24"/>
+    <xf numFmtId="168" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="18" borderId="0"/>
+    <xf numFmtId="164" fontId="34" fillId="13" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="15" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="41" fillId="9" borderId="24"/>
+    <xf numFmtId="164" fontId="40" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="21"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="41" fillId="9" borderId="24"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="41" fillId="9" borderId="24"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="20"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="20" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="22"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="22"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="22"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="22"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="16" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="20" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="20" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="20" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="20" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="20" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="20" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="20" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="24"/>
+    <xf numFmtId="164" fontId="31" fillId="11" borderId="19"/>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="24"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="18" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="17"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="15" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="21" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="21" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="21" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="21" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="21" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
+    <xf numFmtId="164" fontId="29" fillId="21" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="21" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="34" fillId="13" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="34" fillId="13" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="34" fillId="13" borderId="0"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="23"/>
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="34" fillId="13" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="20"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="20"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="15" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="15" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="15" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="15" borderId="0"/>
+    <xf numFmtId="164" fontId="42" fillId="19" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="15" borderId="0"/>
+    <xf numFmtId="164" fontId="42" fillId="19" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="15" borderId="0"/>
+    <xf numFmtId="164" fontId="42" fillId="19" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="18" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="17" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="18" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="17" borderId="0"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="18" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="17" borderId="0"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="17"/>
+    <xf numFmtId="164" fontId="27" fillId="18" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="18" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="17" borderId="0"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="17" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="17" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="17" borderId="0"/>
+    <xf numFmtId="164" fontId="34" fillId="13" borderId="0"/>
+    <xf numFmtId="164" fontId="34" fillId="13" borderId="0"/>
+    <xf numFmtId="164" fontId="40" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="34" fillId="13" borderId="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="24"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="24"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="24"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="24"/>
+    <xf numFmtId="164" fontId="31" fillId="11" borderId="19"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="17"/>
+    <xf numFmtId="164" fontId="31" fillId="11" borderId="19"/>
+    <xf numFmtId="164" fontId="31" fillId="11" borderId="19"/>
+    <xf numFmtId="164" fontId="31" fillId="11" borderId="19"/>
+    <xf numFmtId="164" fontId="31" fillId="11" borderId="19"/>
+    <xf numFmtId="164" fontId="31" fillId="11" borderId="19"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="21"/>
+    <xf numFmtId="164" fontId="42" fillId="19" borderId="0"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="23"/>
+    <xf numFmtId="164" fontId="42" fillId="19" borderId="0"/>
+    <xf numFmtId="164" fontId="42" fillId="19" borderId="0"/>
+    <xf numFmtId="164" fontId="42" fillId="19" borderId="0"/>
+    <xf numFmtId="164" fontId="42" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="20"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="20"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="20"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="22"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="22"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="22"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="22"/>
+    <xf numFmtId="164" fontId="40" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
+    <xf numFmtId="164" fontId="41" fillId="9" borderId="24"/>
+    <xf numFmtId="164" fontId="41" fillId="9" borderId="24"/>
+    <xf numFmtId="164" fontId="41" fillId="9" borderId="24"/>
+    <xf numFmtId="164" fontId="41" fillId="9" borderId="24"/>
+    <xf numFmtId="164" fontId="41" fillId="9" borderId="24"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="23"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="23"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="17"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="23"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="23"/>
+    <xf numFmtId="164" fontId="40" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="40" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="21"/>
+    <xf numFmtId="164" fontId="40" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="21"/>
+    <xf numFmtId="164" fontId="40" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="40" fillId="9" borderId="0"/>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="17"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="17"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="17"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="21"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="21"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="21"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="21"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="399">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="20" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="18" fontId="20" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="18" fontId="17" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="18" fontId="20" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="53" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="53" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="18" fontId="20" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="18" fontId="20" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="58" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="53" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="58" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="25" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="7" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="25" fillId="22" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="59" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="5" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="25" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="25" fillId="0" fontId="53" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="58" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="4" fillId="22" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="57" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="57" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="25" fillId="23" fontId="5" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="25" fillId="23" fontId="53" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="23" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="23" fontId="53" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="23" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="23" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="23" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="23" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="23" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="23" fontId="58" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="52" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="166" fontId="5" fillId="23" borderId="25" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="53" fillId="23" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="23" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="53" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="165" fontId="4" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="58" fillId="23" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="52" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="38" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="43" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="54" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="34" fillId="0" fontId="55" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="55" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="56" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="56" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="34" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="58" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="29" fillId="0" fontId="21" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="22" fontId="58" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="22" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="22" fontId="58" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="22" fontId="58" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="63" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="23" fontId="63" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="22" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="58" fillId="22" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="58" fillId="22" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="58" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="63" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="63" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="22" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="18" fontId="20" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="1" fontId="20" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="47" fillId="3" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="40" fillId="3" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="41" fillId="3" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="49" fillId="3" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="51" fillId="3" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="51" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="52" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="53" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="54" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="55" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="56" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="58" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="57" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="59" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="18" fontId="17" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="54" fillId="0" fontId="54" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="55" fillId="0" fontId="55" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="55" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="56" fillId="0" fontId="56" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="56" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="18" fontId="17" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="46" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="12" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="12" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="52" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="60" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="62" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="60" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="165" fontId="62" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="49" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="61" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="61" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="61" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="60" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="61" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="61" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="165" fontId="60" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="67" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="68" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="69" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="18" fontId="17" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="76" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="73" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="77" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="78" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="79" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="80" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="75" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="75" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="81" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="87" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="82" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="83" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="73" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="77" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="88" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="95" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="93" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="94" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="93" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="95" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="18" fontId="17" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="93" fillId="0" fontId="21" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="29" fillId="0" fontId="21" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="108" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="18" fontId="20" fillId="0" borderId="103" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="18" fontId="20" fillId="0" borderId="103" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="104" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="103" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="105" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="105" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="106" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="106" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="107" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="107" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="71" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="52" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="52" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="49" fillId="3" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="51" fillId="3" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="51" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="52" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="62" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf numFmtId="165" fontId="62" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="25" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="53" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="63" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="58" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="53" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="58" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="25" fillId="0" fontId="53" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="58" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="0" fontId="53" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="23" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="23" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="23" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="23" fontId="63" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="23" fontId="58" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="23" fontId="53" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="23" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="0" fillId="23" fontId="53" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="23" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="25" fillId="23" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="7" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="25" fillId="22" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="28" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
-    <xf borderId="25" fillId="0" fontId="59" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="22" fontId="58" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="22" fontId="58" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="22" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="22" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="22" fontId="58" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="63" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="165" fontId="58" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="23" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="63" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="58" fillId="23" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="53" fillId="23" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="53" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="4" fillId="22" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="58" fillId="22" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="58" fillId="22" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="22" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="58" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="349">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="20% - Accent1 2 2 2" xfId="1"/>
     <cellStyle name="Accent1 2 3 2" xfId="2"/>
     <cellStyle name="60% - Accent3 2 3" xfId="3"/>
@@ -3642,12 +3642,12 @@
     <cellStyle name="常规_Future Role Assignment_1 2" xfId="347"/>
     <cellStyle name="常规 3" xfId="348"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -3658,17 +3658,17 @@
     <ext cx="1390650" cy="1362075"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -3683,17 +3683,17 @@
     <ext cx="1447800" cy="1419225"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="2" name="Image 2"/>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -3708,17 +3708,17 @@
     <ext cx="2057400" cy="2057400"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="3" name="Image 3"/>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -4078,29 +4078,29 @@
   </sheetPr>
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="229" width="13.5703125"/>
-    <col customWidth="1" max="2" min="2" style="230" width="30.7109375"/>
-    <col customWidth="1" max="3" min="3" style="230" width="77.7109375"/>
-    <col customWidth="1" max="4" min="4" style="231" width="24"/>
-    <col customWidth="1" max="5" min="5" style="232" width="21.140625"/>
-    <col customWidth="1" max="6" min="6" style="233" width="10.7109375"/>
-    <col customWidth="1" max="7" min="7" style="234" width="10.7109375"/>
-    <col customWidth="1" max="8" min="8" style="235" width="10.7109375"/>
-    <col customWidth="1" max="9" min="9" style="179" width="5.85546875"/>
-    <col customWidth="1" max="10" min="10" style="179" width="12.7109375"/>
-    <col customWidth="1" max="11" min="11" style="179" width="20"/>
-    <col customWidth="1" max="12" min="12" style="230" width="21"/>
-    <col customWidth="1" max="13" min="13" style="236" width="9.140625"/>
-    <col customWidth="1" max="16384" min="14" style="236" width="9.140625"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="229" min="1" max="1"/>
+    <col width="30.7109375" customWidth="1" style="230" min="2" max="2"/>
+    <col width="77.7109375" customWidth="1" style="230" min="3" max="3"/>
+    <col width="24" customWidth="1" style="231" min="4" max="4"/>
+    <col width="21.140625" customWidth="1" style="232" min="5" max="5"/>
+    <col width="10.7109375" customWidth="1" style="233" min="6" max="6"/>
+    <col width="10.7109375" customWidth="1" style="234" min="7" max="7"/>
+    <col width="10.7109375" customWidth="1" style="235" min="8" max="8"/>
+    <col width="5.85546875" customWidth="1" style="179" min="9" max="9"/>
+    <col width="12.7109375" customWidth="1" style="179" min="10" max="10"/>
+    <col width="20" customWidth="1" style="179" min="11" max="11"/>
+    <col width="21" customWidth="1" style="230" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="236" min="13" max="13"/>
+    <col width="9.140625" customWidth="1" style="236" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="71.25" r="1" s="237">
+    <row r="1" ht="71.25" customHeight="1" s="237">
       <c r="A1" s="238" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
@@ -4114,7 +4114,7 @@
       <c r="G1" s="239" t="n"/>
       <c r="H1" s="239" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="2" s="237">
+    <row r="2" ht="22.5" customHeight="1" s="237">
       <c r="A2" s="240" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
@@ -4123,7 +4123,7 @@
       <c r="I2" s="241" t="n"/>
       <c r="J2" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="3" s="237">
+    <row r="3" ht="22.5" customHeight="1" s="237">
       <c r="A3" s="242" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
@@ -4132,7 +4132,7 @@
       <c r="I3" s="243" t="n"/>
       <c r="J3" s="243" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="4" s="237">
+    <row r="4" ht="22.5" customHeight="1" s="237">
       <c r="A4" s="244" t="inlineStr">
         <is>
           <t>Mission</t>
@@ -4152,21 +4152,21 @@
       <c r="I4" s="241" t="n"/>
       <c r="J4" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
+    <row r="5" ht="22.5" customHeight="1" s="237" thickBot="1">
       <c r="A5" s="248" t="n"/>
       <c r="B5" s="249" t="n"/>
       <c r="H5" s="250" t="n"/>
       <c r="I5" s="243" t="n"/>
       <c r="J5" s="243" t="n"/>
     </row>
-    <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
+    <row r="6" hidden="1" ht="22.5" customHeight="1" s="237">
       <c r="A6" s="248" t="n"/>
       <c r="B6" s="249" t="n"/>
       <c r="H6" s="250" t="n"/>
       <c r="I6" s="243" t="n"/>
       <c r="J6" s="243" t="n"/>
     </row>
-    <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
+    <row r="7" hidden="1" ht="10.5" customHeight="1" s="237">
       <c r="A7" s="251" t="n"/>
       <c r="B7" s="252" t="n"/>
       <c r="C7" s="253" t="n"/>
@@ -4178,7 +4178,7 @@
       <c r="I7" s="243" t="n"/>
       <c r="J7" s="243" t="n"/>
     </row>
-    <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
+    <row r="8" ht="33.75" customHeight="1" s="237" thickBot="1">
       <c r="A8" s="255" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
@@ -4194,7 +4194,7 @@
       <c r="I8" s="243" t="n"/>
       <c r="J8" s="243" t="n"/>
     </row>
-    <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
+    <row r="9" ht="42.75" customHeight="1" s="237" thickBot="1">
       <c r="A9" s="258" t="inlineStr">
         <is>
           <t>Time</t>
@@ -4243,7 +4243,7 @@
         <v>0.7777777777777778</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="10" s="237">
+    <row r="10" ht="24" customHeight="1" s="237">
       <c r="A10" s="266">
         <f>J9</f>
         <v/>
@@ -4276,7 +4276,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="11" s="237">
+    <row r="11" ht="24" customHeight="1" s="237">
       <c r="A11" s="266">
         <f>J10</f>
         <v/>
@@ -4317,7 +4317,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="12" s="237">
+    <row r="12" ht="24" customHeight="1" s="237">
       <c r="A12" s="266">
         <f>J11</f>
         <v/>
@@ -4362,7 +4362,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="13" s="237">
+    <row r="13" ht="24" customHeight="1" s="237">
       <c r="A13" s="266">
         <f>J12</f>
         <v/>
@@ -4401,7 +4401,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="14" s="237">
+    <row r="14" ht="24" customHeight="1" s="237">
       <c r="A14" s="266">
         <f>J13</f>
         <v/>
@@ -4440,7 +4440,7 @@
       <c r="K14" s="36" t="n"/>
       <c r="L14" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24.75" r="15" s="237">
+    <row r="15" ht="24.75" customHeight="1" s="237">
       <c r="A15" s="266">
         <f>J14</f>
         <v/>
@@ -4477,7 +4477,7 @@
       <c r="K15" s="36" t="n"/>
       <c r="L15" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="16" s="237">
+    <row r="16" ht="24" customHeight="1" s="237">
       <c r="A16" s="266">
         <f>J15</f>
         <v/>
@@ -4514,7 +4514,7 @@
       <c r="K16" s="36" t="n"/>
       <c r="L16" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="17" s="237">
+    <row r="17" ht="24" customHeight="1" s="237">
       <c r="A17" s="266">
         <f>J16</f>
         <v/>
@@ -4555,7 +4555,7 @@
       <c r="K17" s="36" t="n"/>
       <c r="L17" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="18" s="237">
+    <row r="18" ht="24" customHeight="1" s="237">
       <c r="A18" s="266">
         <f>J17</f>
         <v/>
@@ -4590,7 +4590,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
+    <row r="19" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A19" s="273">
         <f>J18</f>
         <v/>
@@ -4625,7 +4625,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
+    <row r="20" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A20" s="275" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
@@ -4646,7 +4646,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="21" s="237">
+    <row r="21" ht="24" customHeight="1" s="237">
       <c r="A21" s="266">
         <f>J20</f>
         <v/>
@@ -4685,7 +4685,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="22" s="237">
+    <row r="22" ht="24" customHeight="1" s="237">
       <c r="A22" s="266">
         <f>J21</f>
         <v/>
@@ -4732,7 +4732,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="23" s="237">
+    <row r="23" ht="24" customHeight="1" s="237">
       <c r="A23" s="266">
         <f>J22</f>
         <v/>
@@ -4769,7 +4769,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
+    <row r="24" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A24" s="277">
         <f>J23</f>
         <v/>
@@ -4802,7 +4802,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
+    <row r="25" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A25" s="275" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
@@ -4825,7 +4825,7 @@
       <c r="K25" s="36" t="n"/>
       <c r="L25" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="26" s="237">
+    <row r="26" ht="24" customHeight="1" s="237">
       <c r="A26" s="266">
         <f>J25</f>
         <v/>
@@ -4864,7 +4864,7 @@
       <c r="K26" s="36" t="n"/>
       <c r="L26" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="47.25" r="27" s="237" thickBot="1">
+    <row r="27" ht="47.25" customHeight="1" s="237" thickBot="1">
       <c r="A27" s="266">
         <f>J26</f>
         <v/>
@@ -4913,7 +4913,7 @@
       <c r="K27" s="36" t="n"/>
       <c r="L27" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="28" s="237" thickBot="1">
+    <row r="28" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A28" s="275" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
@@ -4934,7 +4934,7 @@
       <c r="K28" s="36" t="n"/>
       <c r="L28" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="29" s="237">
+    <row r="29" ht="24" customHeight="1" s="237">
       <c r="A29" s="266">
         <f>J28</f>
         <v/>
@@ -4973,7 +4973,7 @@
       <c r="K29" s="36" t="n"/>
       <c r="L29" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="30" s="237">
+    <row r="30" ht="24" customHeight="1" s="237">
       <c r="A30" s="266">
         <f>J29</f>
         <v/>
@@ -5016,7 +5016,7 @@
       <c r="K30" s="36" t="n"/>
       <c r="L30" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="31" s="237">
+    <row r="31" ht="24" customHeight="1" s="237">
       <c r="A31" s="266">
         <f>J30</f>
         <v/>
@@ -5057,7 +5057,7 @@
       <c r="K31" s="36" t="n"/>
       <c r="L31" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="32" s="237">
+    <row r="32" ht="24" customHeight="1" s="237">
       <c r="A32" s="266">
         <f>J31</f>
         <v/>
@@ -5100,7 +5100,7 @@
       <c r="K32" s="36" t="n"/>
       <c r="L32" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="33" s="237">
+    <row r="33" ht="24" customHeight="1" s="237">
       <c r="A33" s="266">
         <f>J32</f>
         <v/>
@@ -5141,7 +5141,7 @@
       <c r="K33" s="36" t="n"/>
       <c r="L33" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="34" s="237">
+    <row r="34" ht="24" customHeight="1" s="237">
       <c r="A34" s="266">
         <f>J33</f>
         <v/>
@@ -5178,7 +5178,7 @@
       <c r="K34" s="36" t="n"/>
       <c r="L34" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="35" s="237">
+    <row r="35" ht="24" customHeight="1" s="237">
       <c r="A35" s="266">
         <f>J34</f>
         <v/>
@@ -5227,7 +5227,7 @@
       <c r="K35" s="36" t="n"/>
       <c r="L35" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="36" s="237" thickBot="1">
+    <row r="36" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A36" s="284">
         <f>J35</f>
         <v/>
@@ -5276,7 +5276,7 @@
       <c r="K36" s="36" t="n"/>
       <c r="L36" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="37" s="237" thickBot="1">
+    <row r="37" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A37" s="284">
         <f>J36</f>
         <v/>
@@ -5315,7 +5315,7 @@
       <c r="K37" s="39" t="n"/>
       <c r="L37" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="38" s="237">
+    <row r="38" ht="21" customHeight="1" s="237">
       <c r="A38" s="287" t="n"/>
       <c r="B38" s="239" t="n"/>
       <c r="C38" s="239" t="n"/>
@@ -5329,7 +5329,7 @@
       <c r="K38" s="39" t="n"/>
       <c r="L38" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="101.25" r="39" s="237">
+    <row r="39" ht="101.25" customHeight="1" s="237">
       <c r="A39" s="291" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
@@ -5350,7 +5350,7 @@
       <c r="K39" s="294" t="n"/>
       <c r="L39" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="145.5" r="40" s="237">
+    <row r="40" ht="145.5" customHeight="1" s="237">
       <c r="A40" s="295" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
@@ -5364,7 +5364,7 @@
       <c r="I40" s="39" t="n"/>
       <c r="J40" s="293" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="41" s="237">
+    <row r="41" ht="12.75" customHeight="1" s="237">
       <c r="A41" s="296" t="n"/>
       <c r="B41" s="236" t="n"/>
       <c r="D41" s="297" t="n"/>
@@ -5373,7 +5373,7 @@
       <c r="G41" s="298" t="n"/>
       <c r="H41" s="298" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="42" s="237">
+    <row r="42" ht="12.75" customHeight="1" s="237">
       <c r="A42" s="296" t="n"/>
       <c r="B42" s="236" t="n"/>
       <c r="C42" s="236" t="n"/>
@@ -5382,7 +5382,7 @@
       <c r="G42" s="298" t="n"/>
       <c r="H42" s="298" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="43" s="237">
+    <row r="43" ht="12.75" customHeight="1" s="237">
       <c r="A43" s="296" t="n"/>
       <c r="B43" s="236" t="n"/>
       <c r="C43" s="236" t="n"/>
@@ -5391,14 +5391,14 @@
       <c r="F43" s="301" t="n"/>
       <c r="G43" s="302" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="44" s="237">
+    <row r="44" ht="12.75" customHeight="1" s="237">
       <c r="A44" s="296" t="n"/>
       <c r="B44" s="236" t="n"/>
       <c r="D44" s="303" t="n"/>
       <c r="E44" s="304" t="n"/>
       <c r="L44" s="179" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="45" s="237">
+    <row r="45" ht="12.75" customHeight="1" s="237">
       <c r="A45" s="296" t="n"/>
       <c r="B45" s="236" t="n"/>
       <c r="D45" s="303" t="n"/>
@@ -5441,7 +5441,7 @@
       <c r="D50" s="303" t="n"/>
       <c r="E50" s="304" t="n"/>
     </row>
-    <row customFormat="1" r="51" s="233">
+    <row r="51" customFormat="1" s="233">
       <c r="A51" s="296" t="n"/>
       <c r="B51" s="236" t="n"/>
       <c r="C51" s="236" t="n"/>
@@ -5455,7 +5455,7 @@
       <c r="L51" s="230" t="n"/>
       <c r="M51" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="52" s="233">
+    <row r="52" customFormat="1" s="233">
       <c r="A52" s="296" t="n"/>
       <c r="B52" s="236" t="n"/>
       <c r="C52" s="230" t="n"/>
@@ -5469,7 +5469,7 @@
       <c r="L52" s="230" t="n"/>
       <c r="M52" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="53" s="233">
+    <row r="53" customFormat="1" s="233">
       <c r="A53" s="296" t="n"/>
       <c r="B53" s="236" t="n"/>
       <c r="C53" s="236" t="n"/>
@@ -5483,7 +5483,7 @@
       <c r="L53" s="230" t="n"/>
       <c r="M53" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="54" s="233">
+    <row r="54" customFormat="1" s="233">
       <c r="A54" s="296" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
@@ -5497,7 +5497,7 @@
       <c r="L54" s="230" t="n"/>
       <c r="M54" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="55" s="233">
+    <row r="55" customFormat="1" s="233">
       <c r="A55" s="296" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="236" t="n"/>
@@ -5511,7 +5511,7 @@
       <c r="L55" s="230" t="n"/>
       <c r="M55" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="56" s="233">
+    <row r="56" customFormat="1" s="233">
       <c r="A56" s="296" t="n"/>
       <c r="B56" s="236" t="n"/>
       <c r="C56" s="236" t="n"/>
@@ -5525,7 +5525,7 @@
       <c r="L56" s="230" t="n"/>
       <c r="M56" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="57" s="233">
+    <row r="57" customFormat="1" s="233">
       <c r="A57" s="296" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
@@ -5539,7 +5539,7 @@
       <c r="L57" s="230" t="n"/>
       <c r="M57" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="58" s="233">
+    <row r="58" customFormat="1" s="233">
       <c r="A58" s="296" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="236" t="n"/>
@@ -5553,7 +5553,7 @@
       <c r="L58" s="230" t="n"/>
       <c r="M58" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="59" s="233">
+    <row r="59" customFormat="1" s="233">
       <c r="A59" s="296" t="n"/>
       <c r="B59" s="230" t="n"/>
       <c r="C59" s="230" t="n"/>
@@ -5567,7 +5567,7 @@
       <c r="L59" s="230" t="n"/>
       <c r="M59" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="60" s="233">
+    <row r="60" customFormat="1" s="233">
       <c r="A60" s="296" t="n"/>
       <c r="B60" s="230" t="n"/>
       <c r="C60" s="230" t="n"/>
@@ -5581,7 +5581,7 @@
       <c r="L60" s="230" t="n"/>
       <c r="M60" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="61" s="233">
+    <row r="61" customFormat="1" s="233">
       <c r="A61" s="296" t="n"/>
       <c r="B61" s="230" t="n"/>
       <c r="C61" s="230" t="n"/>
@@ -5595,7 +5595,7 @@
       <c r="L61" s="230" t="n"/>
       <c r="M61" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="62" s="233">
+    <row r="62" customFormat="1" s="233">
       <c r="A62" s="296" t="n"/>
       <c r="B62" s="230" t="n"/>
       <c r="C62" s="230" t="n"/>
@@ -5609,7 +5609,7 @@
       <c r="L62" s="230" t="n"/>
       <c r="M62" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="63" s="233">
+    <row r="63" customFormat="1" s="233">
       <c r="A63" s="296" t="n"/>
       <c r="B63" s="230" t="n"/>
       <c r="C63" s="230" t="n"/>
@@ -5623,7 +5623,7 @@
       <c r="L63" s="230" t="n"/>
       <c r="M63" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="64" s="233">
+    <row r="64" customFormat="1" s="233">
       <c r="A64" s="296" t="n"/>
       <c r="B64" s="230" t="n"/>
       <c r="C64" s="230" t="n"/>
@@ -5637,7 +5637,7 @@
       <c r="L64" s="230" t="n"/>
       <c r="M64" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="65" s="233">
+    <row r="65" customFormat="1" s="233">
       <c r="A65" s="296" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
@@ -5651,7 +5651,7 @@
       <c r="L65" s="230" t="n"/>
       <c r="M65" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="66" s="233">
+    <row r="66" customFormat="1" s="233">
       <c r="A66" s="296" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
@@ -5665,7 +5665,7 @@
       <c r="L66" s="230" t="n"/>
       <c r="M66" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="67" s="230">
+    <row r="67" customFormat="1" s="230">
       <c r="A67" s="296" t="n"/>
       <c r="D67" s="231" t="n"/>
       <c r="E67" s="232" t="n"/>
@@ -5677,7 +5677,7 @@
       <c r="K67" s="179" t="n"/>
       <c r="M67" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="68" s="230">
+    <row r="68" customFormat="1" s="230">
       <c r="A68" s="296" t="n"/>
       <c r="D68" s="231" t="n"/>
       <c r="E68" s="232" t="n"/>
@@ -5689,7 +5689,7 @@
       <c r="K68" s="179" t="n"/>
       <c r="M68" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="69" s="230">
+    <row r="69" customFormat="1" s="230">
       <c r="A69" s="296" t="n"/>
       <c r="D69" s="231" t="n"/>
       <c r="E69" s="232" t="n"/>
@@ -5719,42 +5719,42 @@
     <mergeCell ref="D39:H40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="229" width="13.5703125"/>
-    <col customWidth="1" max="2" min="2" style="230" width="30.7109375"/>
-    <col customWidth="1" max="3" min="3" style="230" width="77.7109375"/>
-    <col customWidth="1" max="4" min="4" style="231" width="24.140625"/>
-    <col customWidth="1" max="5" min="5" style="232" width="21.140625"/>
-    <col customWidth="1" max="6" min="6" style="233" width="10.7109375"/>
-    <col customWidth="1" max="7" min="7" style="234" width="10.7109375"/>
-    <col customWidth="1" max="8" min="8" style="235" width="10.7109375"/>
-    <col customWidth="1" max="9" min="9" style="179" width="5.85546875"/>
-    <col customWidth="1" max="10" min="10" style="179" width="12.7109375"/>
-    <col customWidth="1" max="11" min="11" style="179" width="20"/>
-    <col customWidth="1" max="12" min="12" style="230" width="21"/>
-    <col customWidth="1" max="13" min="13" style="236" width="9.140625"/>
-    <col customWidth="1" max="16384" min="14" style="236" width="9.140625"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="229" min="1" max="1"/>
+    <col width="30.7109375" customWidth="1" style="230" min="2" max="2"/>
+    <col width="77.7109375" customWidth="1" style="230" min="3" max="3"/>
+    <col width="24.140625" customWidth="1" style="231" min="4" max="4"/>
+    <col width="21.140625" customWidth="1" style="232" min="5" max="5"/>
+    <col width="10.7109375" customWidth="1" style="233" min="6" max="6"/>
+    <col width="10.7109375" customWidth="1" style="234" min="7" max="7"/>
+    <col width="10.7109375" customWidth="1" style="235" min="8" max="8"/>
+    <col width="5.85546875" customWidth="1" style="179" min="9" max="9"/>
+    <col width="12.7109375" customWidth="1" style="179" min="10" max="10"/>
+    <col width="20" customWidth="1" style="179" min="11" max="11"/>
+    <col width="21" customWidth="1" style="230" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="236" min="13" max="13"/>
+    <col width="9.140625" customWidth="1" style="236" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="71.25" r="1" s="237">
+    <row r="1" ht="71.25" customHeight="1" s="237">
       <c r="A1" s="305" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
@@ -5770,7 +5770,7 @@
       <c r="I1" s="306" t="n"/>
       <c r="J1" s="307" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="2" s="237">
+    <row r="2" ht="22.5" customHeight="1" s="237">
       <c r="A2" s="308" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
@@ -5779,7 +5779,7 @@
       <c r="I2" s="241" t="n"/>
       <c r="J2" s="309" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="3" s="237">
+    <row r="3" ht="22.5" customHeight="1" s="237">
       <c r="A3" s="310" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
@@ -5795,7 +5795,7 @@
       <c r="I3" s="312" t="n"/>
       <c r="J3" s="313" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="4" s="237">
+    <row r="4" ht="22.5" customHeight="1" s="237">
       <c r="A4" s="314" t="inlineStr">
         <is>
           <t>Mission</t>
@@ -5815,7 +5815,7 @@
       <c r="I4" s="317" t="n"/>
       <c r="J4" s="318" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
+    <row r="5" ht="22.5" customHeight="1" s="237" thickBot="1">
       <c r="A5" s="319" t="n"/>
       <c r="B5" s="320" t="n"/>
       <c r="C5" s="311" t="n"/>
@@ -5827,14 +5827,14 @@
       <c r="I5" s="312" t="n"/>
       <c r="J5" s="313" t="n"/>
     </row>
-    <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
+    <row r="6" hidden="1" ht="22.5" customHeight="1" s="237">
       <c r="A6" s="248" t="n"/>
       <c r="B6" s="249" t="n"/>
       <c r="H6" s="250" t="n"/>
       <c r="I6" s="243" t="n"/>
       <c r="J6" s="243" t="n"/>
     </row>
-    <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
+    <row r="7" hidden="1" ht="10.5" customHeight="1" s="237">
       <c r="A7" s="251" t="n"/>
       <c r="B7" s="252" t="n"/>
       <c r="C7" s="253" t="n"/>
@@ -5846,7 +5846,7 @@
       <c r="I7" s="243" t="n"/>
       <c r="J7" s="243" t="n"/>
     </row>
-    <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
+    <row r="8" ht="33.75" customHeight="1" s="237" thickBot="1">
       <c r="A8" s="322" t="inlineStr">
         <is>
           <t>Theme Today: Poverty</t>
@@ -5862,7 +5862,7 @@
       <c r="I8" s="325" t="n"/>
       <c r="J8" s="326" t="n"/>
     </row>
-    <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
+    <row r="9" ht="42.75" customHeight="1" s="237" thickBot="1">
       <c r="A9" s="258" t="inlineStr">
         <is>
           <t>Time</t>
@@ -5911,7 +5911,7 @@
         <v>0.7777777777777778</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="10" s="237">
+    <row r="10" ht="24" customHeight="1" s="237">
       <c r="A10" s="266">
         <f>J9</f>
         <v/>
@@ -5944,7 +5944,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="11" s="237">
+    <row r="11" ht="24" customHeight="1" s="237">
       <c r="A11" s="266">
         <f>J10</f>
         <v/>
@@ -5985,7 +5985,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="12" s="237">
+    <row r="12" ht="24" customHeight="1" s="237">
       <c r="A12" s="266">
         <f>J11</f>
         <v/>
@@ -6030,7 +6030,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="13" s="237">
+    <row r="13" ht="24" customHeight="1" s="237">
       <c r="A13" s="266">
         <f>J12</f>
         <v/>
@@ -6069,7 +6069,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="14" s="237">
+    <row r="14" ht="24" customHeight="1" s="237">
       <c r="A14" s="266">
         <f>J13</f>
         <v/>
@@ -6108,7 +6108,7 @@
       <c r="K14" s="36" t="n"/>
       <c r="L14" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24.75" r="15" s="237">
+    <row r="15" ht="24.75" customHeight="1" s="237">
       <c r="A15" s="266">
         <f>J14</f>
         <v/>
@@ -6145,7 +6145,7 @@
       <c r="K15" s="36" t="n"/>
       <c r="L15" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="16" s="237">
+    <row r="16" ht="24" customHeight="1" s="237">
       <c r="A16" s="266">
         <f>J15</f>
         <v/>
@@ -6182,7 +6182,7 @@
       <c r="K16" s="36" t="n"/>
       <c r="L16" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="17" s="237">
+    <row r="17" ht="24" customHeight="1" s="237">
       <c r="A17" s="266">
         <f>J16</f>
         <v/>
@@ -6223,7 +6223,7 @@
       <c r="K17" s="36" t="n"/>
       <c r="L17" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="18" s="237">
+    <row r="18" ht="24" customHeight="1" s="237">
       <c r="A18" s="266">
         <f>J17</f>
         <v/>
@@ -6258,7 +6258,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
+    <row r="19" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A19" s="273">
         <f>J18</f>
         <v/>
@@ -6293,7 +6293,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
+    <row r="20" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A20" s="327" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
@@ -6314,7 +6314,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="21" s="237">
+    <row r="21" ht="24" customHeight="1" s="237">
       <c r="A21" s="266">
         <f>J20</f>
         <v/>
@@ -6353,7 +6353,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="22" s="237">
+    <row r="22" ht="24" customHeight="1" s="237">
       <c r="A22" s="266">
         <f>J21</f>
         <v/>
@@ -6400,7 +6400,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="23" s="237">
+    <row r="23" ht="24" customHeight="1" s="237">
       <c r="A23" s="266">
         <f>J22</f>
         <v/>
@@ -6437,7 +6437,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
+    <row r="24" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A24" s="277">
         <f>J23</f>
         <v/>
@@ -6470,7 +6470,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
+    <row r="25" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A25" s="327" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
@@ -6493,7 +6493,7 @@
       <c r="K25" s="36" t="n"/>
       <c r="L25" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="26" s="237">
+    <row r="26" ht="24" customHeight="1" s="237">
       <c r="A26" s="266">
         <f>J25</f>
         <v/>
@@ -6532,7 +6532,7 @@
       <c r="K26" s="36" t="n"/>
       <c r="L26" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="47.25" r="27" s="237">
+    <row r="27" ht="47.25" customHeight="1" s="237">
       <c r="A27" s="266">
         <f>J26</f>
         <v/>
@@ -6577,7 +6577,7 @@
       <c r="K27" s="36" t="n"/>
       <c r="L27" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="28" s="237">
+    <row r="28" ht="24" customHeight="1" s="237">
       <c r="A28" s="266">
         <f>J27</f>
         <v/>
@@ -6616,7 +6616,7 @@
       <c r="K28" s="36" t="n"/>
       <c r="L28" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="18.75" r="29" s="237" thickBot="1">
+    <row r="29" ht="18.75" customHeight="1" s="237" thickBot="1">
       <c r="A29" s="266">
         <f>J28</f>
         <v/>
@@ -6637,21 +6637,21 @@
       </c>
       <c r="E29" s="72" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="F29" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" s="104" t="n">
         <v>5</v>
       </c>
-      <c r="G29" s="104" t="n">
+      <c r="H29" s="105" t="n">
         <v>6</v>
       </c>
-      <c r="H29" s="105" t="n">
-        <v>7</v>
-      </c>
       <c r="I29" s="37" t="inlineStr">
         <is>
-          <t>0:07</t>
+          <t>0:06</t>
         </is>
       </c>
       <c r="J29" s="36">
@@ -6661,7 +6661,7 @@
       <c r="K29" s="36" t="n"/>
       <c r="L29" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="30" s="237" thickBot="1">
+    <row r="30" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A30" s="275" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
@@ -6682,7 +6682,7 @@
       <c r="K30" s="36" t="n"/>
       <c r="L30" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="31" s="237">
+    <row r="31" ht="24" customHeight="1" s="237">
       <c r="A31" s="266">
         <f>J30</f>
         <v/>
@@ -6721,7 +6721,7 @@
       <c r="K31" s="36" t="n"/>
       <c r="L31" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="32" s="237">
+    <row r="32" ht="24" customHeight="1" s="237">
       <c r="A32" s="331">
         <f>J31</f>
         <v/>
@@ -6764,7 +6764,7 @@
       <c r="K32" s="36" t="n"/>
       <c r="L32" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="33" s="237">
+    <row r="33" ht="24" customHeight="1" s="237">
       <c r="A33" s="266">
         <f>J32</f>
         <v/>
@@ -6807,7 +6807,7 @@
       <c r="K33" s="36" t="n"/>
       <c r="L33" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="34" s="237">
+    <row r="34" ht="24" customHeight="1" s="237">
       <c r="A34" s="266">
         <f>J33</f>
         <v/>
@@ -6848,7 +6848,7 @@
       <c r="K34" s="36" t="n"/>
       <c r="L34" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="35" s="237">
+    <row r="35" ht="24" customHeight="1" s="237">
       <c r="A35" s="266">
         <f>J34</f>
         <v/>
@@ -6891,7 +6891,7 @@
       <c r="K35" s="36" t="n"/>
       <c r="L35" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="36" s="237">
+    <row r="36" ht="24" customHeight="1" s="237">
       <c r="A36" s="266">
         <f>J35</f>
         <v/>
@@ -6932,7 +6932,7 @@
       <c r="K36" s="36" t="n"/>
       <c r="L36" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="37" s="237">
+    <row r="37" ht="24" customHeight="1" s="237">
       <c r="A37" s="266">
         <f>J36</f>
         <v/>
@@ -6969,7 +6969,7 @@
       <c r="K37" s="36" t="n"/>
       <c r="L37" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="38" s="237">
+    <row r="38" ht="24" customHeight="1" s="237">
       <c r="A38" s="266">
         <f>J37</f>
         <v/>
@@ -7018,7 +7018,7 @@
       <c r="K38" s="36" t="n"/>
       <c r="L38" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="39" s="237" thickBot="1">
+    <row r="39" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A39" s="284">
         <f>J38</f>
         <v/>
@@ -7067,7 +7067,7 @@
       <c r="K39" s="36" t="n"/>
       <c r="L39" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="40" s="237" thickBot="1">
+    <row r="40" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A40" s="284">
         <f>J39</f>
         <v/>
@@ -7106,7 +7106,7 @@
       <c r="K40" s="39" t="n"/>
       <c r="L40" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="41" s="237">
+    <row r="41" ht="21" customHeight="1" s="237">
       <c r="A41" s="287" t="n"/>
       <c r="B41" s="239" t="n"/>
       <c r="C41" s="239" t="n"/>
@@ -7120,7 +7120,7 @@
       <c r="K41" s="39" t="n"/>
       <c r="L41" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="101.25" r="42" s="237">
+    <row r="42" ht="101.25" customHeight="1" s="237">
       <c r="A42" s="291" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
@@ -7141,7 +7141,7 @@
       <c r="K42" s="294" t="n"/>
       <c r="L42" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="145.5" r="43" s="237">
+    <row r="43" ht="145.5" customHeight="1" s="237">
       <c r="A43" s="295" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
@@ -7155,7 +7155,7 @@
       <c r="I43" s="39" t="n"/>
       <c r="J43" s="293" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="44" s="237">
+    <row r="44" ht="12.75" customHeight="1" s="237">
       <c r="A44" s="296" t="n"/>
       <c r="B44" s="236" t="n"/>
       <c r="D44" s="297" t="n"/>
@@ -7164,7 +7164,7 @@
       <c r="G44" s="298" t="n"/>
       <c r="H44" s="298" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="45" s="237">
+    <row r="45" ht="12.75" customHeight="1" s="237">
       <c r="A45" s="296" t="n"/>
       <c r="B45" s="236" t="n"/>
       <c r="C45" s="236" t="n"/>
@@ -7173,7 +7173,7 @@
       <c r="G45" s="298" t="n"/>
       <c r="H45" s="298" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="46" s="237">
+    <row r="46" ht="12.75" customHeight="1" s="237">
       <c r="A46" s="296" t="n"/>
       <c r="B46" s="236" t="n"/>
       <c r="C46" s="236" t="n"/>
@@ -7182,14 +7182,14 @@
       <c r="F46" s="301" t="n"/>
       <c r="G46" s="302" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="47" s="237">
+    <row r="47" ht="12.75" customHeight="1" s="237">
       <c r="A47" s="296" t="n"/>
       <c r="B47" s="236" t="n"/>
       <c r="D47" s="303" t="n"/>
       <c r="E47" s="304" t="n"/>
       <c r="L47" s="179" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="48" s="237">
+    <row r="48" ht="12.75" customHeight="1" s="237">
       <c r="A48" s="296" t="n"/>
       <c r="B48" s="236" t="n"/>
       <c r="D48" s="303" t="n"/>
@@ -7232,7 +7232,7 @@
       <c r="D53" s="303" t="n"/>
       <c r="E53" s="304" t="n"/>
     </row>
-    <row customFormat="1" r="54" s="233">
+    <row r="54" customFormat="1" s="233">
       <c r="A54" s="296" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
@@ -7246,7 +7246,7 @@
       <c r="L54" s="230" t="n"/>
       <c r="M54" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="55" s="233">
+    <row r="55" customFormat="1" s="233">
       <c r="A55" s="296" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="230" t="n"/>
@@ -7260,7 +7260,7 @@
       <c r="L55" s="230" t="n"/>
       <c r="M55" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="56" s="233">
+    <row r="56" customFormat="1" s="233">
       <c r="A56" s="296" t="n"/>
       <c r="B56" s="236" t="n"/>
       <c r="C56" s="236" t="n"/>
@@ -7274,7 +7274,7 @@
       <c r="L56" s="230" t="n"/>
       <c r="M56" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="57" s="233">
+    <row r="57" customFormat="1" s="233">
       <c r="A57" s="296" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
@@ -7288,7 +7288,7 @@
       <c r="L57" s="230" t="n"/>
       <c r="M57" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="58" s="233">
+    <row r="58" customFormat="1" s="233">
       <c r="A58" s="296" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="236" t="n"/>
@@ -7302,7 +7302,7 @@
       <c r="L58" s="230" t="n"/>
       <c r="M58" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="59" s="233">
+    <row r="59" customFormat="1" s="233">
       <c r="A59" s="296" t="n"/>
       <c r="B59" s="236" t="n"/>
       <c r="C59" s="236" t="n"/>
@@ -7316,7 +7316,7 @@
       <c r="L59" s="230" t="n"/>
       <c r="M59" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="60" s="233">
+    <row r="60" customFormat="1" s="233">
       <c r="A60" s="296" t="n"/>
       <c r="B60" s="236" t="n"/>
       <c r="C60" s="236" t="n"/>
@@ -7330,7 +7330,7 @@
       <c r="L60" s="230" t="n"/>
       <c r="M60" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="61" s="233">
+    <row r="61" customFormat="1" s="233">
       <c r="A61" s="296" t="n"/>
       <c r="B61" s="236" t="n"/>
       <c r="C61" s="236" t="n"/>
@@ -7344,7 +7344,7 @@
       <c r="L61" s="230" t="n"/>
       <c r="M61" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="62" s="233">
+    <row r="62" customFormat="1" s="233">
       <c r="A62" s="296" t="n"/>
       <c r="B62" s="230" t="n"/>
       <c r="C62" s="230" t="n"/>
@@ -7358,7 +7358,7 @@
       <c r="L62" s="230" t="n"/>
       <c r="M62" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="63" s="233">
+    <row r="63" customFormat="1" s="233">
       <c r="A63" s="296" t="n"/>
       <c r="B63" s="230" t="n"/>
       <c r="C63" s="230" t="n"/>
@@ -7372,7 +7372,7 @@
       <c r="L63" s="230" t="n"/>
       <c r="M63" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="64" s="233">
+    <row r="64" customFormat="1" s="233">
       <c r="A64" s="296" t="n"/>
       <c r="B64" s="230" t="n"/>
       <c r="C64" s="230" t="n"/>
@@ -7386,7 +7386,7 @@
       <c r="L64" s="230" t="n"/>
       <c r="M64" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="65" s="233">
+    <row r="65" customFormat="1" s="233">
       <c r="A65" s="296" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
@@ -7400,7 +7400,7 @@
       <c r="L65" s="230" t="n"/>
       <c r="M65" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="66" s="233">
+    <row r="66" customFormat="1" s="233">
       <c r="A66" s="296" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
@@ -7414,7 +7414,7 @@
       <c r="L66" s="230" t="n"/>
       <c r="M66" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="67" s="233">
+    <row r="67" customFormat="1" s="233">
       <c r="A67" s="296" t="n"/>
       <c r="B67" s="230" t="n"/>
       <c r="C67" s="230" t="n"/>
@@ -7428,7 +7428,7 @@
       <c r="L67" s="230" t="n"/>
       <c r="M67" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="68" s="233">
+    <row r="68" customFormat="1" s="233">
       <c r="A68" s="296" t="n"/>
       <c r="B68" s="230" t="n"/>
       <c r="C68" s="230" t="n"/>
@@ -7442,7 +7442,7 @@
       <c r="L68" s="230" t="n"/>
       <c r="M68" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="69" s="233">
+    <row r="69" customFormat="1" s="233">
       <c r="A69" s="296" t="n"/>
       <c r="B69" s="230" t="n"/>
       <c r="C69" s="230" t="n"/>
@@ -7456,7 +7456,7 @@
       <c r="L69" s="230" t="n"/>
       <c r="M69" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="70" s="230">
+    <row r="70" customFormat="1" s="230">
       <c r="A70" s="296" t="n"/>
       <c r="D70" s="231" t="n"/>
       <c r="E70" s="232" t="n"/>
@@ -7468,7 +7468,7 @@
       <c r="K70" s="179" t="n"/>
       <c r="M70" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="71" s="230">
+    <row r="71" customFormat="1" s="230">
       <c r="A71" s="296" t="n"/>
       <c r="D71" s="231" t="n"/>
       <c r="E71" s="232" t="n"/>
@@ -7480,7 +7480,7 @@
       <c r="K71" s="179" t="n"/>
       <c r="M71" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="72" s="230">
+    <row r="72" customFormat="1" s="230">
       <c r="A72" s="296" t="n"/>
       <c r="D72" s="231" t="n"/>
       <c r="E72" s="232" t="n"/>
@@ -7510,9 +7510,9 @@
     <mergeCell ref="D42:H43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7524,29 +7524,29 @@
   </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="229" width="13.5703125"/>
-    <col customWidth="1" max="2" min="2" style="230" width="30.7109375"/>
-    <col customWidth="1" max="3" min="3" style="230" width="77.7109375"/>
-    <col customWidth="1" max="4" min="4" style="231" width="24.140625"/>
-    <col customWidth="1" max="5" min="5" style="232" width="21.140625"/>
-    <col customWidth="1" max="6" min="6" style="233" width="10.7109375"/>
-    <col customWidth="1" max="7" min="7" style="234" width="10.7109375"/>
-    <col customWidth="1" max="8" min="8" style="235" width="10.7109375"/>
-    <col customWidth="1" max="9" min="9" style="179" width="5.85546875"/>
-    <col customWidth="1" max="10" min="10" style="179" width="12.7109375"/>
-    <col customWidth="1" max="11" min="11" style="179" width="20"/>
-    <col customWidth="1" max="12" min="12" style="230" width="21"/>
-    <col customWidth="1" max="13" min="13" style="236" width="9.140625"/>
-    <col customWidth="1" max="16384" min="14" style="236" width="9.140625"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="229" min="1" max="1"/>
+    <col width="30.7109375" customWidth="1" style="230" min="2" max="2"/>
+    <col width="77.7109375" customWidth="1" style="230" min="3" max="3"/>
+    <col width="24.140625" customWidth="1" style="231" min="4" max="4"/>
+    <col width="21.140625" customWidth="1" style="232" min="5" max="5"/>
+    <col width="10.7109375" customWidth="1" style="233" min="6" max="6"/>
+    <col width="10.7109375" customWidth="1" style="234" min="7" max="7"/>
+    <col width="10.7109375" customWidth="1" style="235" min="8" max="8"/>
+    <col width="5.85546875" customWidth="1" style="179" min="9" max="9"/>
+    <col width="12.7109375" customWidth="1" style="179" min="10" max="10"/>
+    <col width="20" customWidth="1" style="179" min="11" max="11"/>
+    <col width="21" customWidth="1" style="230" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="236" min="13" max="13"/>
+    <col width="9.140625" customWidth="1" style="236" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="71.25" r="1" s="237">
+    <row r="1" ht="71.25" customHeight="1" s="237">
       <c r="A1" s="238" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
@@ -7560,7 +7560,7 @@
       <c r="G1" s="239" t="n"/>
       <c r="H1" s="239" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="2" s="237">
+    <row r="2" ht="22.5" customHeight="1" s="237">
       <c r="A2" s="240" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
@@ -7569,7 +7569,7 @@
       <c r="I2" s="241" t="n"/>
       <c r="J2" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="3" s="237">
+    <row r="3" ht="22.5" customHeight="1" s="237">
       <c r="A3" s="242" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
@@ -7578,7 +7578,7 @@
       <c r="I3" s="243" t="n"/>
       <c r="J3" s="243" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="4" s="237">
+    <row r="4" ht="22.5" customHeight="1" s="237">
       <c r="A4" s="244" t="inlineStr">
         <is>
           <t>Mission</t>
@@ -7598,21 +7598,21 @@
       <c r="I4" s="241" t="n"/>
       <c r="J4" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
+    <row r="5" ht="22.5" customHeight="1" s="237" thickBot="1">
       <c r="A5" s="248" t="n"/>
       <c r="B5" s="249" t="n"/>
       <c r="H5" s="250" t="n"/>
       <c r="I5" s="243" t="n"/>
       <c r="J5" s="243" t="n"/>
     </row>
-    <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
+    <row r="6" hidden="1" ht="22.5" customHeight="1" s="237">
       <c r="A6" s="248" t="n"/>
       <c r="B6" s="249" t="n"/>
       <c r="H6" s="250" t="n"/>
       <c r="I6" s="243" t="n"/>
       <c r="J6" s="243" t="n"/>
     </row>
-    <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
+    <row r="7" hidden="1" ht="10.5" customHeight="1" s="237">
       <c r="A7" s="251" t="n"/>
       <c r="B7" s="252" t="n"/>
       <c r="C7" s="253" t="n"/>
@@ -7624,7 +7624,7 @@
       <c r="I7" s="243" t="n"/>
       <c r="J7" s="243" t="n"/>
     </row>
-    <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
+    <row r="8" ht="33.75" customHeight="1" s="237" thickBot="1">
       <c r="A8" s="255" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
@@ -7640,7 +7640,7 @@
       <c r="I8" s="243" t="n"/>
       <c r="J8" s="243" t="n"/>
     </row>
-    <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
+    <row r="9" ht="42.75" customHeight="1" s="237" thickBot="1">
       <c r="A9" s="258" t="inlineStr">
         <is>
           <t>Time</t>
@@ -7689,7 +7689,7 @@
         <v>0.7777777777777778</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="10" s="237">
+    <row r="10" ht="24" customHeight="1" s="237">
       <c r="A10" s="266">
         <f>J9</f>
         <v/>
@@ -7722,7 +7722,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="11" s="237">
+    <row r="11" ht="24" customHeight="1" s="237">
       <c r="A11" s="266">
         <f>J10</f>
         <v/>
@@ -7763,7 +7763,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="12" s="237">
+    <row r="12" ht="24" customHeight="1" s="237">
       <c r="A12" s="266">
         <f>J11</f>
         <v/>
@@ -7808,7 +7808,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="13" s="237">
+    <row r="13" ht="24" customHeight="1" s="237">
       <c r="A13" s="266">
         <f>J12</f>
         <v/>
@@ -7847,7 +7847,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="14" s="237">
+    <row r="14" ht="24" customHeight="1" s="237">
       <c r="A14" s="266">
         <f>J13</f>
         <v/>
@@ -7886,7 +7886,7 @@
       <c r="K14" s="36" t="n"/>
       <c r="L14" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24.75" r="15" s="237">
+    <row r="15" ht="24.75" customHeight="1" s="237">
       <c r="A15" s="266">
         <f>J14</f>
         <v/>
@@ -7923,7 +7923,7 @@
       <c r="K15" s="36" t="n"/>
       <c r="L15" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="16" s="237">
+    <row r="16" ht="24" customHeight="1" s="237">
       <c r="A16" s="266">
         <f>J15</f>
         <v/>
@@ -7960,7 +7960,7 @@
       <c r="K16" s="36" t="n"/>
       <c r="L16" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="17" s="237">
+    <row r="17" ht="24" customHeight="1" s="237">
       <c r="A17" s="266">
         <f>J16</f>
         <v/>
@@ -8001,7 +8001,7 @@
       <c r="K17" s="36" t="n"/>
       <c r="L17" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="18" s="237">
+    <row r="18" ht="24" customHeight="1" s="237">
       <c r="A18" s="266">
         <f>J17</f>
         <v/>
@@ -8036,7 +8036,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
+    <row r="19" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A19" s="273">
         <f>J18</f>
         <v/>
@@ -8071,7 +8071,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
+    <row r="20" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A20" s="275" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
@@ -8092,7 +8092,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="21" s="237">
+    <row r="21" ht="24" customHeight="1" s="237">
       <c r="A21" s="266">
         <f>J20</f>
         <v/>
@@ -8131,7 +8131,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="22" s="237">
+    <row r="22" ht="24" customHeight="1" s="237">
       <c r="A22" s="266">
         <f>J21</f>
         <v/>
@@ -8178,7 +8178,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="23" s="237">
+    <row r="23" ht="24" customHeight="1" s="237">
       <c r="A23" s="266">
         <f>J22</f>
         <v/>
@@ -8215,7 +8215,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
+    <row r="24" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A24" s="277">
         <f>J23</f>
         <v/>
@@ -8248,7 +8248,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
+    <row r="25" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A25" s="275" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
@@ -8271,7 +8271,7 @@
       <c r="K25" s="36" t="n"/>
       <c r="L25" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="26" s="237">
+    <row r="26" ht="24" customHeight="1" s="237">
       <c r="A26" s="266">
         <f>J25</f>
         <v/>
@@ -8310,7 +8310,7 @@
       <c r="K26" s="36" t="n"/>
       <c r="L26" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="47.25" r="27" s="237">
+    <row r="27" ht="47.25" customHeight="1" s="237">
       <c r="A27" s="266">
         <f>J26</f>
         <v/>
@@ -8359,7 +8359,7 @@
       <c r="K27" s="36" t="n"/>
       <c r="L27" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="28" s="237">
+    <row r="28" ht="24" customHeight="1" s="237">
       <c r="A28" s="266">
         <f>J27</f>
         <v/>
@@ -8398,7 +8398,7 @@
       <c r="K28" s="36" t="n"/>
       <c r="L28" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="29" s="237">
+    <row r="29" ht="18" customHeight="1" s="237">
       <c r="A29" s="266">
         <f>J28</f>
         <v/>
@@ -8447,7 +8447,7 @@
       <c r="K29" s="36" t="n"/>
       <c r="L29" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="30" s="237">
+    <row r="30" ht="18" customHeight="1" s="237">
       <c r="A30" s="266">
         <f>J29</f>
         <v/>
@@ -8486,7 +8486,7 @@
       <c r="K30" s="36" t="n"/>
       <c r="L30" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="18.75" r="31" s="237" thickBot="1">
+    <row r="31" ht="18.75" customHeight="1" s="237" thickBot="1">
       <c r="A31" s="266">
         <f>J30</f>
         <v/>
@@ -8535,7 +8535,7 @@
       <c r="K31" s="36" t="n"/>
       <c r="L31" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="32" s="237" thickBot="1">
+    <row r="32" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A32" s="275" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
@@ -8556,7 +8556,7 @@
       <c r="K32" s="36" t="n"/>
       <c r="L32" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="33" s="237">
+    <row r="33" ht="24" customHeight="1" s="237">
       <c r="A33" s="266">
         <f>J32</f>
         <v/>
@@ -8595,7 +8595,7 @@
       <c r="K33" s="36" t="n"/>
       <c r="L33" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="34" s="237">
+    <row r="34" ht="24" customHeight="1" s="237">
       <c r="A34" s="266">
         <f>J33</f>
         <v/>
@@ -8638,7 +8638,7 @@
       <c r="K34" s="36" t="n"/>
       <c r="L34" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="35" s="237">
+    <row r="35" ht="24" customHeight="1" s="237">
       <c r="A35" s="266">
         <f>J34</f>
         <v/>
@@ -8681,7 +8681,7 @@
       <c r="K35" s="36" t="n"/>
       <c r="L35" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="36" s="237">
+    <row r="36" ht="24" customHeight="1" s="237">
       <c r="A36" s="266">
         <f>J35</f>
         <v/>
@@ -8724,7 +8724,7 @@
       <c r="K36" s="36" t="n"/>
       <c r="L36" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="37" s="237">
+    <row r="37" ht="24" customHeight="1" s="237">
       <c r="A37" s="266">
         <f>J36</f>
         <v/>
@@ -8765,7 +8765,7 @@
       <c r="K37" s="36" t="n"/>
       <c r="L37" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="38" s="237">
+    <row r="38" ht="24" customHeight="1" s="237">
       <c r="A38" s="266">
         <f>J37</f>
         <v/>
@@ -8808,7 +8808,7 @@
       <c r="K38" s="36" t="n"/>
       <c r="L38" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="39" s="237">
+    <row r="39" ht="24" customHeight="1" s="237">
       <c r="A39" s="266">
         <f>J38</f>
         <v/>
@@ -8849,7 +8849,7 @@
       <c r="K39" s="36" t="n"/>
       <c r="L39" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="40" s="237">
+    <row r="40" ht="24" customHeight="1" s="237">
       <c r="A40" s="266">
         <f>J39</f>
         <v/>
@@ -8886,7 +8886,7 @@
       <c r="K40" s="36" t="n"/>
       <c r="L40" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="41" s="237">
+    <row r="41" ht="24" customHeight="1" s="237">
       <c r="A41" s="266">
         <f>J40</f>
         <v/>
@@ -8935,7 +8935,7 @@
       <c r="K41" s="36" t="n"/>
       <c r="L41" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="42" s="237" thickBot="1">
+    <row r="42" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A42" s="284">
         <f>J41</f>
         <v/>
@@ -8984,7 +8984,7 @@
       <c r="K42" s="36" t="n"/>
       <c r="L42" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="43" s="237" thickBot="1">
+    <row r="43" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A43" s="284">
         <f>J42</f>
         <v/>
@@ -9023,7 +9023,7 @@
       <c r="K43" s="39" t="n"/>
       <c r="L43" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="44" s="237">
+    <row r="44" ht="21" customHeight="1" s="237">
       <c r="A44" s="287" t="n"/>
       <c r="B44" s="239" t="n"/>
       <c r="C44" s="239" t="n"/>
@@ -9037,7 +9037,7 @@
       <c r="K44" s="39" t="n"/>
       <c r="L44" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="101.25" r="45" s="237">
+    <row r="45" ht="101.25" customHeight="1" s="237">
       <c r="A45" s="291" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
@@ -9058,7 +9058,7 @@
       <c r="K45" s="294" t="n"/>
       <c r="L45" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="145.5" r="46" s="237">
+    <row r="46" ht="145.5" customHeight="1" s="237">
       <c r="A46" s="295" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
@@ -9072,7 +9072,7 @@
       <c r="I46" s="39" t="n"/>
       <c r="J46" s="293" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="47" s="237">
+    <row r="47" ht="12.75" customHeight="1" s="237">
       <c r="A47" s="296" t="n"/>
       <c r="B47" s="236" t="n"/>
       <c r="D47" s="297" t="n"/>
@@ -9081,7 +9081,7 @@
       <c r="G47" s="298" t="n"/>
       <c r="H47" s="298" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="48" s="237">
+    <row r="48" ht="12.75" customHeight="1" s="237">
       <c r="A48" s="296" t="n"/>
       <c r="B48" s="236" t="n"/>
       <c r="C48" s="236" t="n"/>
@@ -9090,7 +9090,7 @@
       <c r="G48" s="298" t="n"/>
       <c r="H48" s="298" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="49" s="237">
+    <row r="49" ht="12.75" customHeight="1" s="237">
       <c r="A49" s="296" t="n"/>
       <c r="B49" s="236" t="n"/>
       <c r="C49" s="236" t="n"/>
@@ -9099,14 +9099,14 @@
       <c r="F49" s="301" t="n"/>
       <c r="G49" s="302" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="50" s="237">
+    <row r="50" ht="12.75" customHeight="1" s="237">
       <c r="A50" s="296" t="n"/>
       <c r="B50" s="236" t="n"/>
       <c r="D50" s="303" t="n"/>
       <c r="E50" s="304" t="n"/>
       <c r="L50" s="179" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="51" s="237">
+    <row r="51" ht="12.75" customHeight="1" s="237">
       <c r="A51" s="296" t="n"/>
       <c r="B51" s="236" t="n"/>
       <c r="D51" s="303" t="n"/>
@@ -9149,7 +9149,7 @@
       <c r="D56" s="303" t="n"/>
       <c r="E56" s="304" t="n"/>
     </row>
-    <row customFormat="1" r="57" s="233">
+    <row r="57" customFormat="1" s="233">
       <c r="A57" s="296" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
@@ -9163,7 +9163,7 @@
       <c r="L57" s="230" t="n"/>
       <c r="M57" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="58" s="233">
+    <row r="58" customFormat="1" s="233">
       <c r="A58" s="296" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="230" t="n"/>
@@ -9177,7 +9177,7 @@
       <c r="L58" s="230" t="n"/>
       <c r="M58" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="59" s="233">
+    <row r="59" customFormat="1" s="233">
       <c r="A59" s="296" t="n"/>
       <c r="B59" s="236" t="n"/>
       <c r="C59" s="236" t="n"/>
@@ -9191,7 +9191,7 @@
       <c r="L59" s="230" t="n"/>
       <c r="M59" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="60" s="233">
+    <row r="60" customFormat="1" s="233">
       <c r="A60" s="296" t="n"/>
       <c r="B60" s="236" t="n"/>
       <c r="C60" s="236" t="n"/>
@@ -9205,7 +9205,7 @@
       <c r="L60" s="230" t="n"/>
       <c r="M60" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="61" s="233">
+    <row r="61" customFormat="1" s="233">
       <c r="A61" s="296" t="n"/>
       <c r="B61" s="236" t="n"/>
       <c r="C61" s="236" t="n"/>
@@ -9219,7 +9219,7 @@
       <c r="L61" s="230" t="n"/>
       <c r="M61" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="62" s="233">
+    <row r="62" customFormat="1" s="233">
       <c r="A62" s="296" t="n"/>
       <c r="B62" s="236" t="n"/>
       <c r="C62" s="236" t="n"/>
@@ -9233,7 +9233,7 @@
       <c r="L62" s="230" t="n"/>
       <c r="M62" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="63" s="233">
+    <row r="63" customFormat="1" s="233">
       <c r="A63" s="296" t="n"/>
       <c r="B63" s="236" t="n"/>
       <c r="C63" s="236" t="n"/>
@@ -9247,7 +9247,7 @@
       <c r="L63" s="230" t="n"/>
       <c r="M63" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="64" s="233">
+    <row r="64" customFormat="1" s="233">
       <c r="A64" s="296" t="n"/>
       <c r="B64" s="236" t="n"/>
       <c r="C64" s="236" t="n"/>
@@ -9261,7 +9261,7 @@
       <c r="L64" s="230" t="n"/>
       <c r="M64" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="65" s="233">
+    <row r="65" customFormat="1" s="233">
       <c r="A65" s="296" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
@@ -9275,7 +9275,7 @@
       <c r="L65" s="230" t="n"/>
       <c r="M65" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="66" s="233">
+    <row r="66" customFormat="1" s="233">
       <c r="A66" s="296" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
@@ -9289,7 +9289,7 @@
       <c r="L66" s="230" t="n"/>
       <c r="M66" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="67" s="233">
+    <row r="67" customFormat="1" s="233">
       <c r="A67" s="296" t="n"/>
       <c r="B67" s="230" t="n"/>
       <c r="C67" s="230" t="n"/>
@@ -9303,7 +9303,7 @@
       <c r="L67" s="230" t="n"/>
       <c r="M67" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="68" s="233">
+    <row r="68" customFormat="1" s="233">
       <c r="A68" s="296" t="n"/>
       <c r="B68" s="230" t="n"/>
       <c r="C68" s="230" t="n"/>
@@ -9317,7 +9317,7 @@
       <c r="L68" s="230" t="n"/>
       <c r="M68" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="69" s="233">
+    <row r="69" customFormat="1" s="233">
       <c r="A69" s="296" t="n"/>
       <c r="B69" s="230" t="n"/>
       <c r="C69" s="230" t="n"/>
@@ -9331,7 +9331,7 @@
       <c r="L69" s="230" t="n"/>
       <c r="M69" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="70" s="233">
+    <row r="70" customFormat="1" s="233">
       <c r="A70" s="296" t="n"/>
       <c r="B70" s="230" t="n"/>
       <c r="C70" s="230" t="n"/>
@@ -9345,7 +9345,7 @@
       <c r="L70" s="230" t="n"/>
       <c r="M70" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="71" s="233">
+    <row r="71" customFormat="1" s="233">
       <c r="A71" s="296" t="n"/>
       <c r="B71" s="230" t="n"/>
       <c r="C71" s="230" t="n"/>
@@ -9359,7 +9359,7 @@
       <c r="L71" s="230" t="n"/>
       <c r="M71" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="72" s="233">
+    <row r="72" customFormat="1" s="233">
       <c r="A72" s="296" t="n"/>
       <c r="B72" s="230" t="n"/>
       <c r="C72" s="230" t="n"/>
@@ -9373,7 +9373,7 @@
       <c r="L72" s="230" t="n"/>
       <c r="M72" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="73" s="230">
+    <row r="73" customFormat="1" s="230">
       <c r="A73" s="296" t="n"/>
       <c r="D73" s="231" t="n"/>
       <c r="E73" s="232" t="n"/>
@@ -9385,7 +9385,7 @@
       <c r="K73" s="179" t="n"/>
       <c r="M73" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="74" s="230">
+    <row r="74" customFormat="1" s="230">
       <c r="A74" s="296" t="n"/>
       <c r="D74" s="231" t="n"/>
       <c r="E74" s="232" t="n"/>
@@ -9397,7 +9397,7 @@
       <c r="K74" s="179" t="n"/>
       <c r="M74" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="75" s="230">
+    <row r="75" customFormat="1" s="230">
       <c r="A75" s="296" t="n"/>
       <c r="D75" s="231" t="n"/>
       <c r="E75" s="232" t="n"/>
@@ -9427,7 +9427,7 @@
     <mergeCell ref="A8:H8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
 </worksheet>
 </file>
@@ -9440,29 +9440,29 @@
   </sheetPr>
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F11" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="229" width="13.5703125"/>
-    <col customWidth="1" max="2" min="2" style="230" width="30.7109375"/>
-    <col customWidth="1" max="3" min="3" style="230" width="77.7109375"/>
-    <col customWidth="1" max="4" min="4" style="231" width="24"/>
-    <col customWidth="1" max="5" min="5" style="232" width="21.140625"/>
-    <col customWidth="1" max="6" min="6" style="233" width="10.7109375"/>
-    <col customWidth="1" max="7" min="7" style="234" width="10.7109375"/>
-    <col customWidth="1" max="8" min="8" style="235" width="10.7109375"/>
-    <col customWidth="1" max="9" min="9" style="179" width="5.85546875"/>
-    <col customWidth="1" max="10" min="10" style="179" width="12.7109375"/>
-    <col customWidth="1" max="11" min="11" style="179" width="20"/>
-    <col customWidth="1" max="12" min="12" style="230" width="21"/>
-    <col customWidth="1" max="13" min="13" style="236" width="9.140625"/>
-    <col customWidth="1" max="16384" min="14" style="236" width="9.140625"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="229" min="1" max="1"/>
+    <col width="30.7109375" customWidth="1" style="230" min="2" max="2"/>
+    <col width="77.7109375" customWidth="1" style="230" min="3" max="3"/>
+    <col width="24" customWidth="1" style="231" min="4" max="4"/>
+    <col width="21.140625" customWidth="1" style="232" min="5" max="5"/>
+    <col width="10.7109375" customWidth="1" style="233" min="6" max="6"/>
+    <col width="10.7109375" customWidth="1" style="234" min="7" max="7"/>
+    <col width="10.7109375" customWidth="1" style="235" min="8" max="8"/>
+    <col width="5.85546875" customWidth="1" style="179" min="9" max="9"/>
+    <col width="12.7109375" customWidth="1" style="179" min="10" max="10"/>
+    <col width="20" customWidth="1" style="179" min="11" max="11"/>
+    <col width="21" customWidth="1" style="230" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="236" min="13" max="13"/>
+    <col width="9.140625" customWidth="1" style="236" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="71.25" r="1" s="237">
+    <row r="1" ht="71.25" customHeight="1" s="237">
       <c r="A1" s="238" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
@@ -9476,7 +9476,7 @@
       <c r="G1" s="239" t="n"/>
       <c r="H1" s="239" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="2" s="237">
+    <row r="2" ht="22.5" customHeight="1" s="237">
       <c r="A2" s="339" t="inlineStr">
         <is>
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
@@ -9485,7 +9485,7 @@
       <c r="I2" s="241" t="n"/>
       <c r="J2" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="3" s="237">
+    <row r="3" ht="22.5" customHeight="1" s="237">
       <c r="A3" s="340" t="inlineStr">
         <is>
           <t>地点：海淀区丹棱街5号微软大厦1号楼1层天安门会议室</t>
@@ -9501,7 +9501,7 @@
       <c r="I3" s="243" t="n"/>
       <c r="J3" s="243" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="4" s="237">
+    <row r="4" ht="22.5" customHeight="1" s="237">
       <c r="A4" s="342" t="inlineStr">
         <is>
           <t>目标</t>
@@ -9521,12 +9521,12 @@
       <c r="I4" s="241" t="n"/>
       <c r="J4" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
+    <row r="5" ht="22.5" customHeight="1" s="237" thickBot="1">
       <c r="A5" s="345" t="n"/>
       <c r="I5" s="243" t="n"/>
       <c r="J5" s="243" t="n"/>
     </row>
-    <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
+    <row r="6" hidden="1" ht="22.5" customHeight="1" s="237">
       <c r="A6" s="342" t="inlineStr">
         <is>
           <t>目标</t>
@@ -9546,12 +9546,12 @@
       <c r="I6" s="243" t="n"/>
       <c r="J6" s="243" t="n"/>
     </row>
-    <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
+    <row r="7" hidden="1" ht="10.5" customHeight="1" s="237">
       <c r="A7" s="345" t="n"/>
       <c r="I7" s="243" t="n"/>
       <c r="J7" s="243" t="n"/>
     </row>
-    <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
+    <row r="8" ht="33.75" customHeight="1" s="237" thickBot="1">
       <c r="A8" s="255" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
@@ -9567,7 +9567,7 @@
       <c r="I8" s="243" t="n"/>
       <c r="J8" s="243" t="n"/>
     </row>
-    <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
+    <row r="9" ht="42.75" customHeight="1" s="237" thickBot="1">
       <c r="A9" s="346" t="inlineStr">
         <is>
           <t>时间</t>
@@ -9616,7 +9616,7 @@
         <v>0.7777777777777778</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="10" s="237">
+    <row r="10" ht="24" customHeight="1" s="237">
       <c r="A10" s="266">
         <f>J9</f>
         <v/>
@@ -9649,7 +9649,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="11" s="237">
+    <row r="11" ht="24" customHeight="1" s="237">
       <c r="A11" s="266">
         <f>J10</f>
         <v/>
@@ -9690,7 +9690,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="12" s="237">
+    <row r="12" ht="24" customHeight="1" s="237">
       <c r="A12" s="266">
         <f>J11</f>
         <v/>
@@ -9735,7 +9735,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="13" s="237">
+    <row r="13" ht="24" customHeight="1" s="237">
       <c r="A13" s="266">
         <f>J12</f>
         <v/>
@@ -9774,7 +9774,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="14" s="237">
+    <row r="14" ht="24" customHeight="1" s="237">
       <c r="A14" s="266">
         <f>J13</f>
         <v/>
@@ -9813,7 +9813,7 @@
       <c r="K14" s="36" t="n"/>
       <c r="L14" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24.75" r="15" s="237">
+    <row r="15" ht="24.75" customHeight="1" s="237">
       <c r="A15" s="266">
         <f>J14</f>
         <v/>
@@ -9850,7 +9850,7 @@
       <c r="K15" s="36" t="n"/>
       <c r="L15" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="16" s="237">
+    <row r="16" ht="24" customHeight="1" s="237">
       <c r="A16" s="266">
         <f>J15</f>
         <v/>
@@ -9887,7 +9887,7 @@
       <c r="K16" s="36" t="n"/>
       <c r="L16" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="17" s="237">
+    <row r="17" ht="24" customHeight="1" s="237">
       <c r="A17" s="266">
         <f>J16</f>
         <v/>
@@ -9928,7 +9928,7 @@
       <c r="K17" s="36" t="n"/>
       <c r="L17" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="18" s="237">
+    <row r="18" ht="24" customHeight="1" s="237">
       <c r="A18" s="266">
         <f>J17</f>
         <v/>
@@ -9963,7 +9963,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
+    <row r="19" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A19" s="273">
         <f>J18</f>
         <v/>
@@ -9998,7 +9998,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
+    <row r="20" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A20" s="275" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
@@ -10019,7 +10019,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="21" s="237">
+    <row r="21" ht="24" customHeight="1" s="237">
       <c r="A21" s="266">
         <f>J20</f>
         <v/>
@@ -10058,7 +10058,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="22" s="237">
+    <row r="22" ht="24" customHeight="1" s="237">
       <c r="A22" s="266">
         <f>J21</f>
         <v/>
@@ -10105,7 +10105,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="23" s="237">
+    <row r="23" ht="24" customHeight="1" s="237">
       <c r="A23" s="266">
         <f>J22</f>
         <v/>
@@ -10142,7 +10142,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
+    <row r="24" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A24" s="277">
         <f>J23</f>
         <v/>
@@ -10179,7 +10179,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
+    <row r="25" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A25" s="275" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
@@ -10202,7 +10202,7 @@
       <c r="K25" s="36" t="n"/>
       <c r="L25" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="26" s="237">
+    <row r="26" ht="24" customHeight="1" s="237">
       <c r="A26" s="266">
         <f>J25</f>
         <v/>
@@ -10241,7 +10241,7 @@
       <c r="K26" s="36" t="n"/>
       <c r="L26" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="47.25" r="27" s="237" thickBot="1">
+    <row r="27" ht="47.25" customHeight="1" s="237" thickBot="1">
       <c r="A27" s="266">
         <f>J26</f>
         <v/>
@@ -10291,7 +10291,7 @@
       <c r="K27" s="36" t="n"/>
       <c r="L27" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="28" s="237" thickBot="1">
+    <row r="28" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A28" s="275" t="inlineStr">
         <is>
           <t>点评环境</t>
@@ -10312,7 +10312,7 @@
       <c r="K28" s="36" t="n"/>
       <c r="L28" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="29" s="237">
+    <row r="29" ht="24" customHeight="1" s="237">
       <c r="A29" s="266">
         <f>J28</f>
         <v/>
@@ -10351,7 +10351,7 @@
       <c r="K29" s="36" t="n"/>
       <c r="L29" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="30" s="237">
+    <row r="30" ht="24" customHeight="1" s="237">
       <c r="A30" s="266">
         <f>J29</f>
         <v/>
@@ -10394,7 +10394,7 @@
       <c r="K30" s="36" t="n"/>
       <c r="L30" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="31" s="237">
+    <row r="31" ht="24" customHeight="1" s="237">
       <c r="A31" s="266">
         <f>J30</f>
         <v/>
@@ -10435,7 +10435,7 @@
       <c r="K31" s="36" t="n"/>
       <c r="L31" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="32" s="237">
+    <row r="32" ht="24" customHeight="1" s="237">
       <c r="A32" s="266">
         <f>J31</f>
         <v/>
@@ -10478,7 +10478,7 @@
       <c r="K32" s="36" t="n"/>
       <c r="L32" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="33" s="237">
+    <row r="33" ht="24" customHeight="1" s="237">
       <c r="A33" s="266">
         <f>J32</f>
         <v/>
@@ -10519,7 +10519,7 @@
       <c r="K33" s="36" t="n"/>
       <c r="L33" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="34" s="237">
+    <row r="34" ht="24" customHeight="1" s="237">
       <c r="A34" s="266">
         <f>J33</f>
         <v/>
@@ -10556,7 +10556,7 @@
       <c r="K34" s="36" t="n"/>
       <c r="L34" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="35" s="237">
+    <row r="35" ht="24" customHeight="1" s="237">
       <c r="A35" s="266">
         <f>J34</f>
         <v/>
@@ -10605,7 +10605,7 @@
       <c r="K35" s="36" t="n"/>
       <c r="L35" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="36" s="237">
+    <row r="36" ht="24" customHeight="1" s="237">
       <c r="A36" s="266">
         <f>J35</f>
         <v/>
@@ -10654,7 +10654,7 @@
       <c r="K36" s="36" t="n"/>
       <c r="L36" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="37" s="237" thickBot="1">
+    <row r="37" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A37" s="284">
         <f>J36</f>
         <v/>
@@ -10693,7 +10693,7 @@
       <c r="K37" s="39" t="n"/>
       <c r="L37" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="38" s="237">
+    <row r="38" ht="21" customHeight="1" s="237">
       <c r="A38" s="287" t="n"/>
       <c r="B38" s="239" t="n"/>
       <c r="C38" s="239" t="n"/>
@@ -10707,7 +10707,7 @@
       <c r="K38" s="39" t="n"/>
       <c r="L38" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="114" r="39" s="237">
+    <row r="39" ht="114" customHeight="1" s="237">
       <c r="A39" s="358" t="inlineStr">
         <is>
           <t>注意事项：       
@@ -10726,7 +10726,7 @@
       <c r="K39" s="294" t="n"/>
       <c r="L39" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="145.5" r="40" s="237">
+    <row r="40" ht="145.5" customHeight="1" s="237">
       <c r="A40" s="359" t="inlineStr">
         <is>
           <t>如何加入俱乐部：
@@ -10739,7 +10739,7 @@
       <c r="I40" s="39" t="n"/>
       <c r="J40" s="293" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="41" s="237">
+    <row r="41" ht="12.75" customHeight="1" s="237">
       <c r="A41" s="296" t="n"/>
       <c r="B41" s="236" t="n"/>
       <c r="D41" s="297" t="n"/>
@@ -10748,7 +10748,7 @@
       <c r="G41" s="298" t="n"/>
       <c r="H41" s="298" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="42" s="237">
+    <row r="42" ht="12.75" customHeight="1" s="237">
       <c r="A42" s="296" t="n"/>
       <c r="B42" s="236" t="n"/>
       <c r="C42" s="236" t="n"/>
@@ -10757,7 +10757,7 @@
       <c r="G42" s="298" t="n"/>
       <c r="H42" s="298" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="43" s="237">
+    <row r="43" ht="12.75" customHeight="1" s="237">
       <c r="A43" s="296" t="n"/>
       <c r="B43" s="236" t="n"/>
       <c r="C43" s="236" t="n"/>
@@ -10766,14 +10766,14 @@
       <c r="F43" s="301" t="n"/>
       <c r="G43" s="302" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="44" s="237">
+    <row r="44" ht="12.75" customHeight="1" s="237">
       <c r="A44" s="296" t="n"/>
       <c r="B44" s="236" t="n"/>
       <c r="D44" s="303" t="n"/>
       <c r="E44" s="304" t="n"/>
       <c r="L44" s="179" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="45" s="237">
+    <row r="45" ht="12.75" customHeight="1" s="237">
       <c r="A45" s="296" t="n"/>
       <c r="B45" s="236" t="n"/>
       <c r="D45" s="303" t="n"/>
@@ -10816,7 +10816,7 @@
       <c r="D50" s="303" t="n"/>
       <c r="E50" s="304" t="n"/>
     </row>
-    <row customFormat="1" r="51" s="233">
+    <row r="51" customFormat="1" s="233">
       <c r="A51" s="296" t="n"/>
       <c r="B51" s="236" t="n"/>
       <c r="C51" s="236" t="n"/>
@@ -10830,7 +10830,7 @@
       <c r="L51" s="230" t="n"/>
       <c r="M51" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="52" s="233">
+    <row r="52" customFormat="1" s="233">
       <c r="A52" s="296" t="n"/>
       <c r="B52" s="236" t="n"/>
       <c r="C52" s="230" t="n"/>
@@ -10844,7 +10844,7 @@
       <c r="L52" s="230" t="n"/>
       <c r="M52" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="53" s="233">
+    <row r="53" customFormat="1" s="233">
       <c r="A53" s="296" t="n"/>
       <c r="B53" s="236" t="n"/>
       <c r="C53" s="236" t="n"/>
@@ -10858,7 +10858,7 @@
       <c r="L53" s="230" t="n"/>
       <c r="M53" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="54" s="233">
+    <row r="54" customFormat="1" s="233">
       <c r="A54" s="296" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
@@ -10872,7 +10872,7 @@
       <c r="L54" s="230" t="n"/>
       <c r="M54" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="55" s="233">
+    <row r="55" customFormat="1" s="233">
       <c r="A55" s="296" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="236" t="n"/>
@@ -10886,7 +10886,7 @@
       <c r="L55" s="230" t="n"/>
       <c r="M55" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="56" s="233">
+    <row r="56" customFormat="1" s="233">
       <c r="A56" s="296" t="n"/>
       <c r="B56" s="236" t="n"/>
       <c r="C56" s="236" t="n"/>
@@ -10900,7 +10900,7 @@
       <c r="L56" s="230" t="n"/>
       <c r="M56" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="57" s="233">
+    <row r="57" customFormat="1" s="233">
       <c r="A57" s="296" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
@@ -10914,7 +10914,7 @@
       <c r="L57" s="230" t="n"/>
       <c r="M57" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="58" s="233">
+    <row r="58" customFormat="1" s="233">
       <c r="A58" s="296" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="236" t="n"/>
@@ -10928,7 +10928,7 @@
       <c r="L58" s="230" t="n"/>
       <c r="M58" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="59" s="233">
+    <row r="59" customFormat="1" s="233">
       <c r="A59" s="296" t="n"/>
       <c r="B59" s="230" t="n"/>
       <c r="C59" s="230" t="n"/>
@@ -10942,7 +10942,7 @@
       <c r="L59" s="230" t="n"/>
       <c r="M59" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="60" s="233">
+    <row r="60" customFormat="1" s="233">
       <c r="A60" s="296" t="n"/>
       <c r="B60" s="230" t="n"/>
       <c r="C60" s="230" t="n"/>
@@ -10956,7 +10956,7 @@
       <c r="L60" s="230" t="n"/>
       <c r="M60" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="61" s="233">
+    <row r="61" customFormat="1" s="233">
       <c r="A61" s="296" t="n"/>
       <c r="B61" s="230" t="n"/>
       <c r="C61" s="230" t="n"/>
@@ -10970,7 +10970,7 @@
       <c r="L61" s="230" t="n"/>
       <c r="M61" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="62" s="233">
+    <row r="62" customFormat="1" s="233">
       <c r="A62" s="296" t="n"/>
       <c r="B62" s="230" t="n"/>
       <c r="C62" s="230" t="n"/>
@@ -10984,7 +10984,7 @@
       <c r="L62" s="230" t="n"/>
       <c r="M62" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="63" s="233">
+    <row r="63" customFormat="1" s="233">
       <c r="A63" s="296" t="n"/>
       <c r="B63" s="230" t="n"/>
       <c r="C63" s="230" t="n"/>
@@ -10998,7 +10998,7 @@
       <c r="L63" s="230" t="n"/>
       <c r="M63" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="64" s="233">
+    <row r="64" customFormat="1" s="233">
       <c r="A64" s="296" t="n"/>
       <c r="B64" s="230" t="n"/>
       <c r="C64" s="230" t="n"/>
@@ -11012,7 +11012,7 @@
       <c r="L64" s="230" t="n"/>
       <c r="M64" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="65" s="233">
+    <row r="65" customFormat="1" s="233">
       <c r="A65" s="296" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
@@ -11026,7 +11026,7 @@
       <c r="L65" s="230" t="n"/>
       <c r="M65" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="66" s="233">
+    <row r="66" customFormat="1" s="233">
       <c r="A66" s="296" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
@@ -11040,7 +11040,7 @@
       <c r="L66" s="230" t="n"/>
       <c r="M66" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="67" s="230">
+    <row r="67" customFormat="1" s="230">
       <c r="A67" s="296" t="n"/>
       <c r="D67" s="231" t="n"/>
       <c r="E67" s="232" t="n"/>
@@ -11052,7 +11052,7 @@
       <c r="K67" s="179" t="n"/>
       <c r="M67" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="68" s="230">
+    <row r="68" customFormat="1" s="230">
       <c r="A68" s="296" t="n"/>
       <c r="D68" s="231" t="n"/>
       <c r="E68" s="232" t="n"/>
@@ -11064,7 +11064,7 @@
       <c r="K68" s="179" t="n"/>
       <c r="M68" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="69" s="230">
+    <row r="69" customFormat="1" s="230">
       <c r="A69" s="296" t="n"/>
       <c r="D69" s="231" t="n"/>
       <c r="E69" s="232" t="n"/>
@@ -11096,7 +11096,7 @@
     <mergeCell ref="A38:D38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
 </worksheet>
 </file>
@@ -11109,29 +11109,29 @@
   </sheetPr>
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F9" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="229" width="13.5703125"/>
-    <col customWidth="1" max="2" min="2" style="230" width="30.7109375"/>
-    <col customWidth="1" max="3" min="3" style="230" width="77.7109375"/>
-    <col customWidth="1" max="4" min="4" style="231" width="24"/>
-    <col customWidth="1" max="5" min="5" style="232" width="21.140625"/>
-    <col customWidth="1" max="6" min="6" style="233" width="10.7109375"/>
-    <col customWidth="1" max="7" min="7" style="234" width="10.7109375"/>
-    <col customWidth="1" max="8" min="8" style="235" width="10.7109375"/>
-    <col customWidth="1" max="9" min="9" style="179" width="5.85546875"/>
-    <col customWidth="1" max="10" min="10" style="179" width="12.7109375"/>
-    <col customWidth="1" max="11" min="11" style="179" width="20"/>
-    <col customWidth="1" max="12" min="12" style="230" width="21"/>
-    <col customWidth="1" max="13" min="13" style="236" width="9.140625"/>
-    <col customWidth="1" max="16384" min="14" style="236" width="9.140625"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="229" min="1" max="1"/>
+    <col width="30.7109375" customWidth="1" style="230" min="2" max="2"/>
+    <col width="77.7109375" customWidth="1" style="230" min="3" max="3"/>
+    <col width="24" customWidth="1" style="231" min="4" max="4"/>
+    <col width="21.140625" customWidth="1" style="232" min="5" max="5"/>
+    <col width="10.7109375" customWidth="1" style="233" min="6" max="6"/>
+    <col width="10.7109375" customWidth="1" style="234" min="7" max="7"/>
+    <col width="10.7109375" customWidth="1" style="235" min="8" max="8"/>
+    <col width="5.85546875" customWidth="1" style="179" min="9" max="9"/>
+    <col width="12.7109375" customWidth="1" style="179" min="10" max="10"/>
+    <col width="20" customWidth="1" style="179" min="11" max="11"/>
+    <col width="21" customWidth="1" style="230" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="236" min="13" max="13"/>
+    <col width="9.140625" customWidth="1" style="236" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="71.25" r="1" s="237">
+    <row r="1" ht="71.25" customHeight="1" s="237">
       <c r="A1" s="238" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
@@ -11145,7 +11145,7 @@
       <c r="G1" s="239" t="n"/>
       <c r="H1" s="239" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="2" s="237">
+    <row r="2" ht="22.5" customHeight="1" s="237">
       <c r="A2" s="339" t="inlineStr">
         <is>
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
@@ -11154,7 +11154,7 @@
       <c r="I2" s="241" t="n"/>
       <c r="J2" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="3" s="237">
+    <row r="3" ht="22.5" customHeight="1" s="237">
       <c r="A3" s="340" t="inlineStr">
         <is>
           <t>地点：海淀区丹棱街5号微软大厦1号楼1层天安门会议室</t>
@@ -11170,7 +11170,7 @@
       <c r="I3" s="243" t="n"/>
       <c r="J3" s="243" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="4" s="237">
+    <row r="4" ht="22.5" customHeight="1" s="237">
       <c r="A4" s="342" t="inlineStr">
         <is>
           <t>目标</t>
@@ -11190,12 +11190,12 @@
       <c r="I4" s="241" t="n"/>
       <c r="J4" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
+    <row r="5" ht="22.5" customHeight="1" s="237" thickBot="1">
       <c r="A5" s="345" t="n"/>
       <c r="I5" s="243" t="n"/>
       <c r="J5" s="243" t="n"/>
     </row>
-    <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
+    <row r="6" hidden="1" ht="22.5" customHeight="1" s="237">
       <c r="A6" s="342" t="inlineStr">
         <is>
           <t>目标</t>
@@ -11215,12 +11215,12 @@
       <c r="I6" s="243" t="n"/>
       <c r="J6" s="243" t="n"/>
     </row>
-    <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
+    <row r="7" hidden="1" ht="10.5" customHeight="1" s="237">
       <c r="A7" s="345" t="n"/>
       <c r="I7" s="243" t="n"/>
       <c r="J7" s="243" t="n"/>
     </row>
-    <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
+    <row r="8" ht="33.75" customHeight="1" s="237" thickBot="1">
       <c r="A8" s="255" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
@@ -11236,7 +11236,7 @@
       <c r="I8" s="243" t="n"/>
       <c r="J8" s="243" t="n"/>
     </row>
-    <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
+    <row r="9" ht="42.75" customHeight="1" s="237" thickBot="1">
       <c r="A9" s="346" t="inlineStr">
         <is>
           <t>时间</t>
@@ -11285,7 +11285,7 @@
         <v>0.7777777777777778</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="10" s="237">
+    <row r="10" ht="24" customHeight="1" s="237">
       <c r="A10" s="266">
         <f>J9</f>
         <v/>
@@ -11318,7 +11318,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="11" s="237">
+    <row r="11" ht="24" customHeight="1" s="237">
       <c r="A11" s="266">
         <f>J10</f>
         <v/>
@@ -11359,7 +11359,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="12" s="237">
+    <row r="12" ht="24" customHeight="1" s="237">
       <c r="A12" s="266">
         <f>J11</f>
         <v/>
@@ -11404,7 +11404,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="13" s="237">
+    <row r="13" ht="24" customHeight="1" s="237">
       <c r="A13" s="266">
         <f>J12</f>
         <v/>
@@ -11443,7 +11443,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="14" s="237">
+    <row r="14" ht="24" customHeight="1" s="237">
       <c r="A14" s="266">
         <f>J13</f>
         <v/>
@@ -11482,7 +11482,7 @@
       <c r="K14" s="36" t="n"/>
       <c r="L14" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24.75" r="15" s="237">
+    <row r="15" ht="24.75" customHeight="1" s="237">
       <c r="A15" s="266">
         <f>J14</f>
         <v/>
@@ -11519,7 +11519,7 @@
       <c r="K15" s="36" t="n"/>
       <c r="L15" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="16" s="237">
+    <row r="16" ht="24" customHeight="1" s="237">
       <c r="A16" s="266">
         <f>J15</f>
         <v/>
@@ -11556,7 +11556,7 @@
       <c r="K16" s="36" t="n"/>
       <c r="L16" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="17" s="237">
+    <row r="17" ht="24" customHeight="1" s="237">
       <c r="A17" s="266">
         <f>J16</f>
         <v/>
@@ -11597,7 +11597,7 @@
       <c r="K17" s="36" t="n"/>
       <c r="L17" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="18" s="237">
+    <row r="18" ht="24" customHeight="1" s="237">
       <c r="A18" s="266">
         <f>J17</f>
         <v/>
@@ -11632,7 +11632,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
+    <row r="19" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A19" s="273">
         <f>J18</f>
         <v/>
@@ -11667,7 +11667,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
+    <row r="20" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A20" s="275" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
@@ -11688,7 +11688,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="21" s="237">
+    <row r="21" ht="24" customHeight="1" s="237">
       <c r="A21" s="266">
         <f>J20</f>
         <v/>
@@ -11727,7 +11727,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="22" s="237">
+    <row r="22" ht="24" customHeight="1" s="237">
       <c r="A22" s="266">
         <f>J21</f>
         <v/>
@@ -11774,7 +11774,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="23" s="237">
+    <row r="23" ht="24" customHeight="1" s="237">
       <c r="A23" s="266">
         <f>J22</f>
         <v/>
@@ -11811,7 +11811,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
+    <row r="24" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A24" s="277">
         <f>J23</f>
         <v/>
@@ -11848,7 +11848,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
+    <row r="25" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A25" s="275" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
@@ -11871,7 +11871,7 @@
       <c r="K25" s="36" t="n"/>
       <c r="L25" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="26" s="237">
+    <row r="26" ht="24" customHeight="1" s="237">
       <c r="A26" s="266">
         <f>J25</f>
         <v/>
@@ -11910,7 +11910,7 @@
       <c r="K26" s="36" t="n"/>
       <c r="L26" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="47.25" r="27" s="237" thickBot="1">
+    <row r="27" ht="47.25" customHeight="1" s="237" thickBot="1">
       <c r="A27" s="266">
         <f>J26</f>
         <v/>
@@ -11960,7 +11960,7 @@
       <c r="K27" s="36" t="n"/>
       <c r="L27" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="28" s="237">
+    <row r="28" ht="24" customHeight="1" s="237">
       <c r="A28" s="266">
         <f>J27</f>
         <v/>
@@ -11999,7 +11999,7 @@
       <c r="K28" s="36" t="n"/>
       <c r="L28" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="39.75" r="29" s="237" thickBot="1">
+    <row r="29" ht="39.75" customHeight="1" s="237" thickBot="1">
       <c r="A29" s="266">
         <f>J28</f>
         <v/>
@@ -12049,7 +12049,7 @@
       <c r="K29" s="36" t="n"/>
       <c r="L29" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="30" s="237" thickBot="1">
+    <row r="30" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A30" s="275" t="inlineStr">
         <is>
           <t>点评环境</t>
@@ -12070,7 +12070,7 @@
       <c r="K30" s="36" t="n"/>
       <c r="L30" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="31" s="237">
+    <row r="31" ht="24" customHeight="1" s="237">
       <c r="A31" s="266">
         <f>J30</f>
         <v/>
@@ -12109,7 +12109,7 @@
       <c r="K31" s="36" t="n"/>
       <c r="L31" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="32" s="237">
+    <row r="32" ht="24" customHeight="1" s="237">
       <c r="A32" s="266">
         <f>J31</f>
         <v/>
@@ -12152,7 +12152,7 @@
       <c r="K32" s="36" t="n"/>
       <c r="L32" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="33" s="237">
+    <row r="33" ht="24" customHeight="1" s="237">
       <c r="A33" s="266">
         <f>J32</f>
         <v/>
@@ -12195,7 +12195,7 @@
       <c r="K33" s="36" t="n"/>
       <c r="L33" s="241" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="34" s="237">
+    <row r="34" ht="24" customHeight="1" s="237">
       <c r="A34" s="266">
         <f>J32</f>
         <v/>
@@ -12236,7 +12236,7 @@
       <c r="K34" s="36" t="n"/>
       <c r="L34" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="35" s="237">
+    <row r="35" ht="24" customHeight="1" s="237">
       <c r="A35" s="266">
         <f>J34</f>
         <v/>
@@ -12279,7 +12279,7 @@
       <c r="K35" s="36" t="n"/>
       <c r="L35" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="36" s="237">
+    <row r="36" ht="24" customHeight="1" s="237">
       <c r="A36" s="266">
         <f>J35</f>
         <v/>
@@ -12320,7 +12320,7 @@
       <c r="K36" s="36" t="n"/>
       <c r="L36" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="37" s="237">
+    <row r="37" ht="24" customHeight="1" s="237">
       <c r="A37" s="266">
         <f>J36</f>
         <v/>
@@ -12357,7 +12357,7 @@
       <c r="K37" s="36" t="n"/>
       <c r="L37" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="38" s="237">
+    <row r="38" ht="24" customHeight="1" s="237">
       <c r="A38" s="266">
         <f>J37</f>
         <v/>
@@ -12406,7 +12406,7 @@
       <c r="K38" s="36" t="n"/>
       <c r="L38" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="39" s="237">
+    <row r="39" ht="24" customHeight="1" s="237">
       <c r="A39" s="266">
         <f>J38</f>
         <v/>
@@ -12455,7 +12455,7 @@
       <c r="K39" s="36" t="n"/>
       <c r="L39" s="283" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="40" s="237" thickBot="1">
+    <row r="40" ht="24" customHeight="1" s="237" thickBot="1">
       <c r="A40" s="284">
         <f>J39</f>
         <v/>
@@ -12494,7 +12494,7 @@
       <c r="K40" s="39" t="n"/>
       <c r="L40" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="41" s="237">
+    <row r="41" ht="21" customHeight="1" s="237">
       <c r="A41" s="287" t="n"/>
       <c r="B41" s="239" t="n"/>
       <c r="C41" s="239" t="n"/>
@@ -12508,7 +12508,7 @@
       <c r="K41" s="39" t="n"/>
       <c r="L41" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="114" r="42" s="237">
+    <row r="42" ht="114" customHeight="1" s="237">
       <c r="A42" s="358" t="inlineStr">
         <is>
           <t>注意事项：       
@@ -12527,7 +12527,7 @@
       <c r="K42" s="294" t="n"/>
       <c r="L42" s="236" t="n"/>
     </row>
-    <row customHeight="1" ht="145.5" r="43" s="237">
+    <row r="43" ht="145.5" customHeight="1" s="237">
       <c r="A43" s="359" t="inlineStr">
         <is>
           <t>如何加入俱乐部：
@@ -12540,7 +12540,7 @@
       <c r="I43" s="39" t="n"/>
       <c r="J43" s="293" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="44" s="237">
+    <row r="44" ht="12.75" customHeight="1" s="237">
       <c r="A44" s="296" t="n"/>
       <c r="B44" s="236" t="n"/>
       <c r="D44" s="297" t="n"/>
@@ -12549,7 +12549,7 @@
       <c r="G44" s="298" t="n"/>
       <c r="H44" s="298" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="45" s="237">
+    <row r="45" ht="12.75" customHeight="1" s="237">
       <c r="A45" s="296" t="n"/>
       <c r="B45" s="236" t="n"/>
       <c r="C45" s="236" t="n"/>
@@ -12558,7 +12558,7 @@
       <c r="G45" s="298" t="n"/>
       <c r="H45" s="298" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="46" s="237">
+    <row r="46" ht="12.75" customHeight="1" s="237">
       <c r="A46" s="296" t="n"/>
       <c r="B46" s="236" t="n"/>
       <c r="C46" s="236" t="n"/>
@@ -12567,14 +12567,14 @@
       <c r="F46" s="301" t="n"/>
       <c r="G46" s="302" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="47" s="237">
+    <row r="47" ht="12.75" customHeight="1" s="237">
       <c r="A47" s="296" t="n"/>
       <c r="B47" s="236" t="n"/>
       <c r="D47" s="303" t="n"/>
       <c r="E47" s="304" t="n"/>
       <c r="L47" s="179" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="48" s="237">
+    <row r="48" ht="12.75" customHeight="1" s="237">
       <c r="A48" s="296" t="n"/>
       <c r="B48" s="236" t="n"/>
       <c r="D48" s="303" t="n"/>
@@ -12617,7 +12617,7 @@
       <c r="D53" s="303" t="n"/>
       <c r="E53" s="304" t="n"/>
     </row>
-    <row customFormat="1" r="54" s="233">
+    <row r="54" customFormat="1" s="233">
       <c r="A54" s="296" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
@@ -12631,7 +12631,7 @@
       <c r="L54" s="230" t="n"/>
       <c r="M54" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="55" s="233">
+    <row r="55" customFormat="1" s="233">
       <c r="A55" s="296" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="230" t="n"/>
@@ -12645,7 +12645,7 @@
       <c r="L55" s="230" t="n"/>
       <c r="M55" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="56" s="233">
+    <row r="56" customFormat="1" s="233">
       <c r="A56" s="296" t="n"/>
       <c r="B56" s="236" t="n"/>
       <c r="C56" s="236" t="n"/>
@@ -12659,7 +12659,7 @@
       <c r="L56" s="230" t="n"/>
       <c r="M56" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="57" s="233">
+    <row r="57" customFormat="1" s="233">
       <c r="A57" s="296" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
@@ -12673,7 +12673,7 @@
       <c r="L57" s="230" t="n"/>
       <c r="M57" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="58" s="233">
+    <row r="58" customFormat="1" s="233">
       <c r="A58" s="296" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="236" t="n"/>
@@ -12687,7 +12687,7 @@
       <c r="L58" s="230" t="n"/>
       <c r="M58" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="59" s="233">
+    <row r="59" customFormat="1" s="233">
       <c r="A59" s="296" t="n"/>
       <c r="B59" s="236" t="n"/>
       <c r="C59" s="236" t="n"/>
@@ -12701,7 +12701,7 @@
       <c r="L59" s="230" t="n"/>
       <c r="M59" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="60" s="233">
+    <row r="60" customFormat="1" s="233">
       <c r="A60" s="296" t="n"/>
       <c r="B60" s="236" t="n"/>
       <c r="C60" s="236" t="n"/>
@@ -12715,7 +12715,7 @@
       <c r="L60" s="230" t="n"/>
       <c r="M60" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="61" s="233">
+    <row r="61" customFormat="1" s="233">
       <c r="A61" s="296" t="n"/>
       <c r="B61" s="236" t="n"/>
       <c r="C61" s="236" t="n"/>
@@ -12729,7 +12729,7 @@
       <c r="L61" s="230" t="n"/>
       <c r="M61" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="62" s="233">
+    <row r="62" customFormat="1" s="233">
       <c r="A62" s="296" t="n"/>
       <c r="B62" s="230" t="n"/>
       <c r="C62" s="230" t="n"/>
@@ -12743,7 +12743,7 @@
       <c r="L62" s="230" t="n"/>
       <c r="M62" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="63" s="233">
+    <row r="63" customFormat="1" s="233">
       <c r="A63" s="296" t="n"/>
       <c r="B63" s="230" t="n"/>
       <c r="C63" s="230" t="n"/>
@@ -12757,7 +12757,7 @@
       <c r="L63" s="230" t="n"/>
       <c r="M63" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="64" s="233">
+    <row r="64" customFormat="1" s="233">
       <c r="A64" s="296" t="n"/>
       <c r="B64" s="230" t="n"/>
       <c r="C64" s="230" t="n"/>
@@ -12771,7 +12771,7 @@
       <c r="L64" s="230" t="n"/>
       <c r="M64" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="65" s="233">
+    <row r="65" customFormat="1" s="233">
       <c r="A65" s="296" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
@@ -12785,7 +12785,7 @@
       <c r="L65" s="230" t="n"/>
       <c r="M65" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="66" s="233">
+    <row r="66" customFormat="1" s="233">
       <c r="A66" s="296" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
@@ -12799,7 +12799,7 @@
       <c r="L66" s="230" t="n"/>
       <c r="M66" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="67" s="233">
+    <row r="67" customFormat="1" s="233">
       <c r="A67" s="296" t="n"/>
       <c r="B67" s="230" t="n"/>
       <c r="C67" s="230" t="n"/>
@@ -12813,7 +12813,7 @@
       <c r="L67" s="230" t="n"/>
       <c r="M67" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="68" s="233">
+    <row r="68" customFormat="1" s="233">
       <c r="A68" s="296" t="n"/>
       <c r="B68" s="230" t="n"/>
       <c r="C68" s="230" t="n"/>
@@ -12827,7 +12827,7 @@
       <c r="L68" s="230" t="n"/>
       <c r="M68" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="69" s="233">
+    <row r="69" customFormat="1" s="233">
       <c r="A69" s="296" t="n"/>
       <c r="B69" s="230" t="n"/>
       <c r="C69" s="230" t="n"/>
@@ -12841,7 +12841,7 @@
       <c r="L69" s="230" t="n"/>
       <c r="M69" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="70" s="230">
+    <row r="70" customFormat="1" s="230">
       <c r="A70" s="296" t="n"/>
       <c r="D70" s="231" t="n"/>
       <c r="E70" s="232" t="n"/>
@@ -12853,7 +12853,7 @@
       <c r="K70" s="179" t="n"/>
       <c r="M70" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="71" s="230">
+    <row r="71" customFormat="1" s="230">
       <c r="A71" s="296" t="n"/>
       <c r="D71" s="231" t="n"/>
       <c r="E71" s="232" t="n"/>
@@ -12865,7 +12865,7 @@
       <c r="K71" s="179" t="n"/>
       <c r="M71" s="236" t="n"/>
     </row>
-    <row customFormat="1" r="72" s="230">
+    <row r="72" customFormat="1" s="230">
       <c r="A72" s="296" t="n"/>
       <c r="D72" s="231" t="n"/>
       <c r="E72" s="232" t="n"/>
@@ -12897,7 +12897,7 @@
     <mergeCell ref="D42:H43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
 </worksheet>
 </file>
@@ -12910,51 +12910,51 @@
   </sheetPr>
   <dimension ref="A1:CC68"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S69" sqref="S67:S69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="360" width="18.28515625"/>
-    <col customWidth="1" max="2" min="2" style="360" width="23"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="361" width="17.85546875"/>
-    <col customWidth="1" max="8" min="4" style="361" width="12.42578125"/>
-    <col bestFit="1" customWidth="1" max="16" min="9" style="361" width="14.5703125"/>
-    <col bestFit="1" customWidth="1" max="17" min="17" style="361" width="17.140625"/>
-    <col bestFit="1" customWidth="1" max="18" min="18" style="361" width="14.5703125"/>
-    <col customWidth="1" max="27" min="19" style="361" width="12.42578125"/>
-    <col bestFit="1" customWidth="1" max="28" min="28" style="361" width="16.5703125"/>
-    <col customWidth="1" max="29" min="29" style="361" width="16.42578125"/>
-    <col customWidth="1" max="30" min="30" style="361" width="14.5703125"/>
-    <col customWidth="1" max="31" min="31" style="361" width="12.7109375"/>
-    <col customWidth="1" max="32" min="32" style="361" width="16"/>
-    <col bestFit="1" customWidth="1" max="33" min="33" style="361" width="16.5703125"/>
-    <col customWidth="1" max="35" min="34" style="361" width="13.42578125"/>
-    <col customWidth="1" max="36" min="36" style="360" width="14.28515625"/>
-    <col customWidth="1" max="37" min="37" style="361" width="12.7109375"/>
-    <col customWidth="1" max="38" min="38" style="361" width="17.28515625"/>
-    <col customWidth="1" max="47" min="39" style="360" width="11.42578125"/>
-    <col customWidth="1" max="48" min="48" style="360" width="16.5703125"/>
-    <col customWidth="1" max="50" min="49" style="360" width="15.85546875"/>
-    <col customWidth="1" max="51" min="51" style="360" width="14.7109375"/>
-    <col customWidth="1" max="52" min="52" style="360" width="15.42578125"/>
-    <col customWidth="1" max="53" min="53" style="360" width="14"/>
-    <col customWidth="1" max="54" min="54" style="360" width="17.28515625"/>
-    <col customWidth="1" max="55" min="55" style="360" width="13.140625"/>
-    <col customWidth="1" max="56" min="56" style="360" width="15.85546875"/>
-    <col customWidth="1" max="57" min="57" style="360" width="14"/>
-    <col customWidth="1" max="58" min="58" style="360" width="15.85546875"/>
-    <col customWidth="1" max="60" min="59" style="360" width="14"/>
-    <col customWidth="1" max="62" min="61" style="360" width="15.42578125"/>
-    <col customWidth="1" max="63" min="63" style="360" width="14"/>
-    <col customWidth="1" max="65" min="64" style="360" width="15.42578125"/>
-    <col customWidth="1" max="66" min="66" style="360" width="14"/>
-    <col customWidth="1" max="67" min="67" style="360" width="9.140625"/>
-    <col customWidth="1" max="16384" min="68" style="360" width="9.140625"/>
+    <col width="18.28515625" customWidth="1" style="360" min="1" max="1"/>
+    <col width="23" customWidth="1" style="360" min="2" max="2"/>
+    <col width="17.85546875" bestFit="1" customWidth="1" style="361" min="3" max="3"/>
+    <col width="12.42578125" customWidth="1" style="361" min="4" max="8"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="361" min="9" max="16"/>
+    <col width="17.140625" bestFit="1" customWidth="1" style="361" min="17" max="17"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" style="361" min="18" max="18"/>
+    <col width="12.42578125" customWidth="1" style="361" min="19" max="27"/>
+    <col width="16.5703125" bestFit="1" customWidth="1" style="361" min="28" max="28"/>
+    <col width="16.42578125" customWidth="1" style="361" min="29" max="29"/>
+    <col width="14.5703125" customWidth="1" style="361" min="30" max="30"/>
+    <col width="12.7109375" customWidth="1" style="361" min="31" max="31"/>
+    <col width="16" customWidth="1" style="361" min="32" max="32"/>
+    <col width="16.5703125" bestFit="1" customWidth="1" style="361" min="33" max="33"/>
+    <col width="13.42578125" customWidth="1" style="361" min="34" max="35"/>
+    <col width="14.28515625" customWidth="1" style="360" min="36" max="36"/>
+    <col width="12.7109375" customWidth="1" style="361" min="37" max="37"/>
+    <col width="17.28515625" customWidth="1" style="361" min="38" max="38"/>
+    <col width="11.42578125" customWidth="1" style="360" min="39" max="47"/>
+    <col width="16.5703125" customWidth="1" style="360" min="48" max="48"/>
+    <col width="15.85546875" customWidth="1" style="360" min="49" max="50"/>
+    <col width="14.7109375" customWidth="1" style="360" min="51" max="51"/>
+    <col width="15.42578125" customWidth="1" style="360" min="52" max="52"/>
+    <col width="14" customWidth="1" style="360" min="53" max="53"/>
+    <col width="17.28515625" customWidth="1" style="360" min="54" max="54"/>
+    <col width="13.140625" customWidth="1" style="360" min="55" max="55"/>
+    <col width="15.85546875" customWidth="1" style="360" min="56" max="56"/>
+    <col width="14" customWidth="1" style="360" min="57" max="57"/>
+    <col width="15.85546875" customWidth="1" style="360" min="58" max="58"/>
+    <col width="14" customWidth="1" style="360" min="59" max="60"/>
+    <col width="15.42578125" customWidth="1" style="360" min="61" max="62"/>
+    <col width="14" customWidth="1" style="360" min="63" max="63"/>
+    <col width="15.42578125" customWidth="1" style="360" min="64" max="65"/>
+    <col width="14" customWidth="1" style="360" min="66" max="66"/>
+    <col width="9.140625" customWidth="1" style="360" min="67" max="67"/>
+    <col width="9.140625" customWidth="1" style="360" min="68" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" s="237">
+    <row r="1" ht="15.75" customHeight="1" s="237">
       <c r="A1" s="66" t="inlineStr">
         <is>
           <t>Role</t>
@@ -13168,7 +13168,7 @@
       <c r="CB1" s="365" t="n"/>
       <c r="CC1" s="365" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="2" s="237">
+    <row r="2" ht="17.25" customHeight="1" s="237">
       <c r="A2" s="66" t="inlineStr">
         <is>
           <t>SAA</t>
@@ -13184,7 +13184,11 @@
           <t>AC3</t>
         </is>
       </c>
-      <c r="D2" s="363" t="inlineStr"/>
+      <c r="D2" s="363" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E2" s="363">
         <f>IFERROR(VLOOKUP($B13,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -13470,7 +13474,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="3" s="237">
+    <row r="3" ht="17.25" customHeight="1" s="237">
       <c r="A3" s="66" t="inlineStr">
         <is>
           <t>President</t>
@@ -13486,7 +13490,11 @@
           <t>AC3</t>
         </is>
       </c>
-      <c r="D3" s="363" t="inlineStr"/>
+      <c r="D3" s="363" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E3" s="363">
         <f>IFERROR(VLOOKUP($B14,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -13777,7 +13785,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="4" s="237">
+    <row r="4" ht="17.25" customHeight="1" s="237">
       <c r="A4" s="66" t="inlineStr">
         <is>
           <t>Toastmaster</t>
@@ -14089,7 +14097,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="5" s="237">
+    <row r="5" ht="17.25" customHeight="1" s="237">
       <c r="A5" s="66" t="inlineStr">
         <is>
           <t>GE</t>
@@ -14397,7 +14405,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="6" s="237">
+    <row r="6" ht="17.25" customHeight="1" s="237">
       <c r="A6" s="66" t="inlineStr">
         <is>
           <t>TTM</t>
@@ -14408,11 +14416,7 @@
           <t>Raymond Li</t>
         </is>
       </c>
-      <c r="C6" s="363" t="inlineStr">
-        <is>
-          <t>CC7</t>
-        </is>
-      </c>
+      <c r="C6" s="363" t="inlineStr"/>
       <c r="D6" s="363" t="inlineStr"/>
       <c r="E6" s="363">
         <f>IFERROR(VLOOKUP($B17,$A$24:$D$61,4,FALSE),"")</f>
@@ -14710,7 +14714,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="7" s="237">
+    <row r="7" ht="17.25" customHeight="1" s="237">
       <c r="A7" s="66" t="inlineStr">
         <is>
           <t>TTE</t>
@@ -15022,7 +15026,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="8" s="237">
+    <row r="8" ht="17.25" customHeight="1" s="237">
       <c r="A8" s="66" t="inlineStr">
         <is>
           <t>Timer</t>
@@ -15038,7 +15042,11 @@
           <t>AC4</t>
         </is>
       </c>
-      <c r="D8" s="363" t="inlineStr"/>
+      <c r="D8" s="363" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E8" s="363">
         <f>IFERROR(VLOOKUP($B19,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -15334,7 +15342,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="9" s="237">
+    <row r="9" ht="17.25" customHeight="1" s="237">
       <c r="A9" s="66" t="inlineStr">
         <is>
           <t>Ah Counter</t>
@@ -15629,7 +15637,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="10" s="237">
+    <row r="10" ht="17.25" customHeight="1" s="237">
       <c r="A10" s="66" t="inlineStr">
         <is>
           <t>Word Smith</t>
@@ -15927,7 +15935,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.25" r="11" s="379">
+    <row r="11" ht="17.25" customFormat="1" customHeight="1" s="379">
       <c r="A11" s="80" t="inlineStr">
         <is>
           <t>Speaker1</t>
@@ -16240,7 +16248,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.25" r="12" s="379">
+    <row r="12" ht="17.25" customFormat="1" customHeight="1" s="379">
       <c r="A12" s="80" t="inlineStr">
         <is>
           <t>Speaker2</t>
@@ -16256,11 +16264,7 @@
           <t>Level1-2-1</t>
         </is>
       </c>
-      <c r="D12" s="380" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+      <c r="D12" s="380" t="inlineStr"/>
       <c r="E12" s="380">
         <f>IFERROR(VLOOKUP($B23,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16506,7 +16510,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.25" r="13" s="379">
+    <row r="13" ht="17.25" customFormat="1" customHeight="1" s="379">
       <c r="A13" s="80" t="inlineStr">
         <is>
           <t>Speaker3</t>
@@ -16615,7 +16619,7 @@
       <c r="BM13" s="387" t="n"/>
       <c r="BP13" s="387" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="14" s="379">
+    <row r="14" ht="15.75" customFormat="1" customHeight="1" s="379">
       <c r="A14" s="80" t="inlineStr">
         <is>
           <t>Speaker4</t>
@@ -16691,7 +16695,7 @@
       <c r="BM14" s="387" t="n"/>
       <c r="BP14" s="387" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="15" s="237">
+    <row r="15" ht="17.25" customHeight="1" s="237">
       <c r="A15" s="66" t="inlineStr">
         <is>
           <t>Evaluator1</t>
@@ -16995,7 +16999,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="16" s="237">
+    <row r="16" ht="17.25" customHeight="1" s="237">
       <c r="A16" s="66" t="inlineStr">
         <is>
           <t>Evaluator2</t>
@@ -17245,7 +17249,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="17" s="237">
+    <row r="17" ht="17.25" customHeight="1" s="237">
       <c r="A17" s="66" t="inlineStr">
         <is>
           <t>Evaluator3</t>
@@ -17344,7 +17348,7 @@
       <c r="BG17" s="370" t="n"/>
       <c r="BH17" s="370" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="18" s="237">
+    <row r="18" ht="15.75" customHeight="1" s="237">
       <c r="A18" s="66" t="inlineStr">
         <is>
           <t>Evaluator4</t>
@@ -17407,7 +17411,7 @@
       <c r="BG18" s="370" t="n"/>
       <c r="BH18" s="370" t="n"/>
     </row>
-    <row customHeight="1" ht="18.75" r="19" s="237">
+    <row r="19" ht="18.75" customHeight="1" s="237">
       <c r="A19" s="66" t="inlineStr">
         <is>
           <t>VPM</t>
@@ -17520,10 +17524,10 @@
       <c r="AH19" s="371" t="n"/>
       <c r="AI19" s="371" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="20" s="237">
+    <row r="20" ht="15.75" customHeight="1" s="237">
       <c r="A20" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="21" s="237">
+    <row r="21" ht="15.75" customHeight="1" s="237">
       <c r="A21" s="7" t="n"/>
     </row>
     <row r="23">
@@ -17589,7 +17593,7 @@
       <c r="T24" s="360" t="n"/>
       <c r="AK24" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="25" s="237">
+    <row r="25" ht="17.25" customHeight="1" s="237">
       <c r="A25" s="391" t="inlineStr">
         <is>
           <t>Annie</t>
@@ -17775,7 +17779,7 @@
       <c r="T27" s="360" t="n"/>
       <c r="AK27" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="28" s="237">
+    <row r="28" ht="15.75" customHeight="1" s="237">
       <c r="A28" s="391" t="inlineStr">
         <is>
           <t>Brenda Wang</t>
@@ -18087,7 +18091,7 @@
       <c r="T33" s="360" t="n"/>
       <c r="AK33" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="34" s="237">
+    <row r="34" ht="17.25" customHeight="1" s="237">
       <c r="A34" s="389" t="inlineStr">
         <is>
           <t>Daisy</t>
@@ -18133,7 +18137,7 @@
       <c r="T34" s="360" t="n"/>
       <c r="AK34" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="35" s="237">
+    <row r="35" ht="17.25" customHeight="1" s="237">
       <c r="A35" s="391" t="inlineStr">
         <is>
           <t>Davie</t>
@@ -18295,7 +18299,7 @@
       <c r="T37" s="360" t="n"/>
       <c r="AK37" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="38" s="237">
+    <row r="38" ht="17.25" customHeight="1" s="237">
       <c r="A38" s="391" t="inlineStr">
         <is>
           <t>Harper</t>
@@ -18399,7 +18403,7 @@
       <c r="T39" s="360" t="n"/>
       <c r="AK39" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="40" s="237">
+    <row r="40" ht="17.25" customHeight="1" s="237">
       <c r="A40" s="389" t="inlineStr">
         <is>
           <t>Jessica Liu</t>
@@ -18445,7 +18449,7 @@
       <c r="T40" s="360" t="n"/>
       <c r="AK40" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="41" s="237">
+    <row r="41" ht="17.25" customHeight="1" s="237">
       <c r="A41" s="391" t="inlineStr">
         <is>
           <t>Jill Zou</t>
@@ -18653,7 +18657,7 @@
       <c r="T44" s="360" t="n"/>
       <c r="AK44" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="45" s="237">
+    <row r="45" ht="17.25" customHeight="1" s="237">
       <c r="A45" s="391" t="inlineStr">
         <is>
           <t>Nancy</t>
@@ -18699,7 +18703,7 @@
       <c r="T45" s="360" t="n"/>
       <c r="AK45" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="46" s="237">
+    <row r="46" ht="17.25" customHeight="1" s="237">
       <c r="A46" s="391" t="inlineStr">
         <is>
           <t>Olivia Wang</t>
@@ -18791,7 +18795,7 @@
       <c r="T47" s="360" t="n"/>
       <c r="AK47" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="48" s="237">
+    <row r="48" ht="17.25" customHeight="1" s="237">
       <c r="A48" s="391" t="inlineStr">
         <is>
           <t>Qiyang Li</t>
@@ -18837,7 +18841,7 @@
       <c r="T48" s="360" t="n"/>
       <c r="AK48" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="49" s="237">
+    <row r="49" ht="17.25" customHeight="1" s="237">
       <c r="A49" s="391" t="inlineStr">
         <is>
           <t>Qunce Ye</t>
@@ -18883,7 +18887,7 @@
       <c r="T49" s="360" t="n"/>
       <c r="AK49" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="50" s="237">
+    <row r="50" ht="17.25" customHeight="1" s="237">
       <c r="A50" s="389" t="inlineStr">
         <is>
           <t>Raunab</t>
@@ -18929,7 +18933,7 @@
       <c r="T50" s="360" t="n"/>
       <c r="AK50" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="51" s="237">
+    <row r="51" ht="17.25" customHeight="1" s="237">
       <c r="A51" s="389" t="inlineStr">
         <is>
           <t>Raymond Li</t>
@@ -18975,7 +18979,7 @@
       <c r="T51" s="360" t="n"/>
       <c r="AK51" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="52" s="237">
+    <row r="52" ht="17.25" customHeight="1" s="237">
       <c r="A52" s="391" t="inlineStr">
         <is>
           <t>Raymond Lu</t>
@@ -19021,7 +19025,7 @@
       <c r="T52" s="360" t="n"/>
       <c r="AK52" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="53" s="237">
+    <row r="53" ht="17.25" customHeight="1" s="237">
       <c r="A53" s="391" t="inlineStr">
         <is>
           <t>Serena</t>
@@ -19067,7 +19071,7 @@
       <c r="T53" s="360" t="n"/>
       <c r="AK53" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="54" s="237">
+    <row r="54" ht="17.25" customHeight="1" s="237">
       <c r="A54" s="391" t="inlineStr">
         <is>
           <t>Xiaohui</t>
@@ -19113,7 +19117,7 @@
       <c r="T54" s="360" t="n"/>
       <c r="AK54" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="55" s="237">
+    <row r="55" ht="17.25" customHeight="1" s="237">
       <c r="A55" s="389" t="inlineStr">
         <is>
           <t>Yiming Gong</t>
@@ -19159,7 +19163,7 @@
       <c r="T55" s="360" t="n"/>
       <c r="AK55" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="56" s="237">
+    <row r="56" ht="17.25" customHeight="1" s="237">
       <c r="A56" s="389" t="inlineStr">
         <is>
           <t>Yingnan Ju</t>
@@ -19251,7 +19255,7 @@
       <c r="T57" s="360" t="n"/>
       <c r="AK57" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="58" s="237">
+    <row r="58" ht="17.25" customHeight="1" s="237">
       <c r="A58" s="389" t="inlineStr">
         <is>
           <t>Zoey Wu</t>
@@ -19297,7 +19301,7 @@
       <c r="T58" s="360" t="n"/>
       <c r="AK58" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="59" s="237">
+    <row r="59" ht="17.25" customHeight="1" s="237">
       <c r="A59" s="391" t="inlineStr">
         <is>
           <t>Raven</t>
@@ -19343,7 +19347,7 @@
       <c r="T59" s="360" t="n"/>
       <c r="AK59" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="60" s="237">
+    <row r="60" ht="17.25" customHeight="1" s="237">
       <c r="A60" s="391" t="inlineStr">
         <is>
           <t>Victor</t>
@@ -19389,7 +19393,7 @@
       <c r="T60" s="360" t="n"/>
       <c r="AK60" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="61" s="237">
+    <row r="61" ht="17.25" customHeight="1" s="237">
       <c r="A61" s="391" t="inlineStr">
         <is>
           <t>Rice Fan</t>
@@ -19435,7 +19439,7 @@
       <c r="T61" s="360" t="n"/>
       <c r="AK61" s="360" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="62" s="237">
+    <row r="62" ht="17.25" customHeight="1" s="237">
       <c r="A62" s="394" t="inlineStr">
         <is>
           <t>Elliot Zhang</t>
@@ -19473,7 +19477,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="63" s="237">
+    <row r="63" ht="17.25" customHeight="1" s="237">
       <c r="A63" s="394" t="inlineStr">
         <is>
           <t>Karen</t>
@@ -19511,7 +19515,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="64" s="237">
+    <row r="64" ht="17.25" customHeight="1" s="237">
       <c r="A64" s="396" t="inlineStr">
         <is>
           <t>April</t>
@@ -19549,7 +19553,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="65" s="237">
+    <row r="65" ht="17.25" customHeight="1" s="237">
       <c r="A65" s="396" t="inlineStr">
         <is>
           <t>Winnie</t>
@@ -19583,7 +19587,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="66" s="237">
+    <row r="66" ht="17.25" customHeight="1" s="237">
       <c r="A66" s="396" t="inlineStr">
         <is>
           <t>Sawyer</t>
@@ -19609,7 +19613,7 @@
       <c r="R66" s="389" t="n"/>
       <c r="S66" s="389" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="67" s="237">
+    <row r="67" ht="17.25" customHeight="1" s="237">
       <c r="A67" s="396" t="inlineStr">
         <is>
           <t>Jeff</t>
@@ -19635,7 +19639,7 @@
       <c r="R67" s="389" t="n"/>
       <c r="S67" s="389" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="68" s="237">
+    <row r="68" ht="17.25" customHeight="1" s="237">
       <c r="A68" s="396" t="inlineStr">
         <is>
           <t>Walter</t>
@@ -19662,7 +19666,7 @@
       <c r="S68" s="389" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -16259,11 +16259,7 @@
           <t>Brenda Wang</t>
         </is>
       </c>
-      <c r="C12" s="380" t="inlineStr">
-        <is>
-          <t>Level1-2-1</t>
-        </is>
-      </c>
+      <c r="C12" s="380" t="inlineStr"/>
       <c r="D12" s="380" t="inlineStr"/>
       <c r="E12" s="380">
         <f>IFERROR(VLOOKUP($B23,$A$24:$D$61,4,FALSE),"")</f>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -5849,7 +5849,7 @@
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
       <c r="A8" s="322" t="inlineStr">
         <is>
-          <t>Theme Today: Perspective-taking</t>
+          <t>Theme Today: The most important person in life-Mom</t>
         </is>
       </c>
       <c r="B8" s="323" t="n"/>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="C27" s="280" t="inlineStr">
         <is>
-          <t>When we say faminism</t>
+          <t>American Constitution Law</t>
         </is>
       </c>
       <c r="D27" s="281">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="C29" s="280" t="inlineStr">
         <is>
-          <t>Giving is a gift</t>
+          <t>Quarantined &amp; Guaranteed</t>
         </is>
       </c>
       <c r="D29" s="330">
@@ -6637,21 +6637,21 @@
       </c>
       <c r="E29" s="72" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="F29" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" s="104" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="105" t="n">
         <v>6</v>
       </c>
-      <c r="G29" s="104" t="n">
-        <v>7</v>
-      </c>
-      <c r="H29" s="105" t="n">
-        <v>8</v>
-      </c>
       <c r="I29" s="37" t="inlineStr">
         <is>
-          <t>0:08</t>
+          <t>0:06</t>
         </is>
       </c>
       <c r="J29" s="36">
@@ -13793,15 +13793,19 @@
       </c>
       <c r="B4" s="363" t="inlineStr">
         <is>
-          <t>Kay</t>
+          <t>Bonnie Wang</t>
         </is>
       </c>
       <c r="C4" s="363" t="inlineStr">
         <is>
-          <t>Level1-2-1</t>
-        </is>
-      </c>
-      <c r="D4" s="363" t="inlineStr"/>
+          <t>ACS11</t>
+        </is>
+      </c>
+      <c r="D4" s="363" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E4" s="363">
         <f>IFERROR(VLOOKUP($B15,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -14105,10 +14109,14 @@
       </c>
       <c r="B5" s="363" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C5" s="363" t="inlineStr"/>
+          <t>Sawyer</t>
+        </is>
+      </c>
+      <c r="C5" s="363" t="inlineStr">
+        <is>
+          <t>Level2-2</t>
+        </is>
+      </c>
       <c r="D5" s="363" t="inlineStr"/>
       <c r="E5" s="363">
         <f>IFERROR(VLOOKUP($B16,$A$24:$D$61,4,FALSE),"")</f>
@@ -14413,15 +14421,19 @@
       </c>
       <c r="B6" s="363" t="inlineStr">
         <is>
-          <t>Elliot Zhang</t>
+          <t>Olivia Wang</t>
         </is>
       </c>
       <c r="C6" s="363" t="inlineStr">
         <is>
-          <t>Level1-2-2</t>
-        </is>
-      </c>
-      <c r="D6" s="363" t="inlineStr"/>
+          <t>AC4</t>
+        </is>
+      </c>
+      <c r="D6" s="363" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E6" s="363">
         <f>IFERROR(VLOOKUP($B17,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -14726,12 +14738,12 @@
       </c>
       <c r="B7" s="363" t="inlineStr">
         <is>
-          <t>Alicia Guo</t>
+          <t>Elliot Zhang</t>
         </is>
       </c>
       <c r="C7" s="363" t="inlineStr">
         <is>
-          <t>CC5</t>
+          <t>Level1-2-2</t>
         </is>
       </c>
       <c r="D7" s="363" t="inlineStr"/>
@@ -15034,7 +15046,7 @@
       </c>
       <c r="B8" s="363" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>Eileen</t>
         </is>
       </c>
       <c r="C8" s="363" t="inlineStr"/>
@@ -15342,7 +15354,7 @@
       </c>
       <c r="B9" s="363" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="C9" s="363" t="inlineStr"/>
@@ -15637,7 +15649,7 @@
       </c>
       <c r="B10" s="363" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C10" s="363" t="inlineStr"/>
@@ -15935,12 +15947,12 @@
       </c>
       <c r="B11" s="380" t="inlineStr">
         <is>
-          <t>Brenda Wang</t>
+          <t>Walter</t>
         </is>
       </c>
       <c r="C11" s="380" t="inlineStr">
         <is>
-          <t>Level1-1</t>
+          <t>Level1-3</t>
         </is>
       </c>
       <c r="D11" s="380" t="inlineStr"/>
@@ -16252,19 +16264,15 @@
       </c>
       <c r="B12" s="380" t="inlineStr">
         <is>
-          <t>Bill Lin</t>
+          <t>Davie</t>
         </is>
       </c>
       <c r="C12" s="380" t="inlineStr">
         <is>
-          <t>ACS6</t>
-        </is>
-      </c>
-      <c r="D12" s="380" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level3-2-1</t>
+        </is>
+      </c>
+      <c r="D12" s="380" t="inlineStr"/>
       <c r="E12" s="380">
         <f>IFERROR(VLOOKUP($B23,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16703,10 +16711,14 @@
       </c>
       <c r="B15" s="363" t="inlineStr">
         <is>
-          <t>Nancy</t>
-        </is>
-      </c>
-      <c r="C15" s="363" t="inlineStr"/>
+          <t>Brenda Wang</t>
+        </is>
+      </c>
+      <c r="C15" s="363" t="inlineStr">
+        <is>
+          <t>Level1-2-1</t>
+        </is>
+      </c>
       <c r="D15" s="363" t="inlineStr"/>
       <c r="E15" s="363">
         <f>IFERROR(VLOOKUP($B26,$A$24:$D$61,4,FALSE),"")</f>
@@ -16999,19 +17011,15 @@
       </c>
       <c r="B16" s="363" t="inlineStr">
         <is>
-          <t>Bonnie Wang</t>
+          <t>April</t>
         </is>
       </c>
       <c r="C16" s="363" t="inlineStr">
         <is>
-          <t>ACS11</t>
-        </is>
-      </c>
-      <c r="D16" s="363" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level2-2</t>
+        </is>
+      </c>
+      <c r="D16" s="363" t="inlineStr"/>
       <c r="E16" s="363">
         <f>IFERROR(VLOOKUP($B27,$A$24:$D$61,4,FALSE),"")</f>
         <v/>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -5849,7 +5849,7 @@
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
       <c r="A8" s="322" t="inlineStr">
         <is>
-          <t>Theme Today: The most important person in life-Mom</t>
+          <t>Theme Today: Soul Surfer</t>
         </is>
       </c>
       <c r="B8" s="323" t="n"/>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="C27" s="280" t="inlineStr">
         <is>
-          <t>American Constitution Law</t>
+          <t>Ignition</t>
         </is>
       </c>
       <c r="D27" s="281">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="C29" s="280" t="inlineStr">
         <is>
-          <t>Quarantined &amp; Guaranteed</t>
+          <t>The exciting world of penny stock trading</t>
         </is>
       </c>
       <c r="D29" s="330">
@@ -6637,21 +6637,21 @@
       </c>
       <c r="E29" s="72" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="F29" s="103" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29" s="104" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H29" s="105" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I29" s="37" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>0:08</t>
         </is>
       </c>
       <c r="J29" s="36">
@@ -13793,19 +13793,11 @@
       </c>
       <c r="B4" s="363" t="inlineStr">
         <is>
-          <t>Bonnie Wang</t>
-        </is>
-      </c>
-      <c r="C4" s="363" t="inlineStr">
-        <is>
-          <t>ACS11</t>
-        </is>
-      </c>
-      <c r="D4" s="363" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Brebda</t>
+        </is>
+      </c>
+      <c r="C4" s="363" t="inlineStr"/>
+      <c r="D4" s="363" t="inlineStr"/>
       <c r="E4" s="363">
         <f>IFERROR(VLOOKUP($B15,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -14109,14 +14101,10 @@
       </c>
       <c r="B5" s="363" t="inlineStr">
         <is>
-          <t>Sawyer</t>
-        </is>
-      </c>
-      <c r="C5" s="363" t="inlineStr">
-        <is>
-          <t>Level2-2</t>
-        </is>
-      </c>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C5" s="363" t="inlineStr"/>
       <c r="D5" s="363" t="inlineStr"/>
       <c r="E5" s="363">
         <f>IFERROR(VLOOKUP($B16,$A$24:$D$61,4,FALSE),"")</f>
@@ -14421,12 +14409,12 @@
       </c>
       <c r="B6" s="363" t="inlineStr">
         <is>
-          <t>Olivia Wang</t>
+          <t>Harper</t>
         </is>
       </c>
       <c r="C6" s="363" t="inlineStr">
         <is>
-          <t>AC4</t>
+          <t>AC3</t>
         </is>
       </c>
       <c r="D6" s="363" t="inlineStr">
@@ -14738,15 +14726,19 @@
       </c>
       <c r="B7" s="363" t="inlineStr">
         <is>
-          <t>Elliot Zhang</t>
+          <t>Bonnie Wang</t>
         </is>
       </c>
       <c r="C7" s="363" t="inlineStr">
         <is>
-          <t>Level1-2-2</t>
-        </is>
-      </c>
-      <c r="D7" s="363" t="inlineStr"/>
+          <t>ACS11</t>
+        </is>
+      </c>
+      <c r="D7" s="363" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E7" s="363">
         <f>IFERROR(VLOOKUP($B18,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -15046,7 +15038,7 @@
       </c>
       <c r="B8" s="363" t="inlineStr">
         <is>
-          <t>Eileen</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C8" s="363" t="inlineStr"/>
@@ -15354,7 +15346,7 @@
       </c>
       <c r="B9" s="363" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C9" s="363" t="inlineStr"/>
@@ -15649,10 +15641,14 @@
       </c>
       <c r="B10" s="363" t="inlineStr">
         <is>
-          <t>Jenny</t>
-        </is>
-      </c>
-      <c r="C10" s="363" t="inlineStr"/>
+          <t>Sawyer</t>
+        </is>
+      </c>
+      <c r="C10" s="363" t="inlineStr">
+        <is>
+          <t>Level2-2</t>
+        </is>
+      </c>
       <c r="D10" s="363" t="inlineStr"/>
       <c r="E10" s="363">
         <f>IFERROR(VLOOKUP($B21,$A$24:$D$61,4,FALSE),"")</f>
@@ -15947,12 +15943,12 @@
       </c>
       <c r="B11" s="380" t="inlineStr">
         <is>
-          <t>Walter</t>
+          <t>Kay</t>
         </is>
       </c>
       <c r="C11" s="380" t="inlineStr">
         <is>
-          <t>Level1-3</t>
+          <t>Level1-2-1</t>
         </is>
       </c>
       <c r="D11" s="380" t="inlineStr"/>
@@ -16264,15 +16260,19 @@
       </c>
       <c r="B12" s="380" t="inlineStr">
         <is>
-          <t>Davie</t>
+          <t>Bill Lin</t>
         </is>
       </c>
       <c r="C12" s="380" t="inlineStr">
         <is>
-          <t>Level3-2-1</t>
-        </is>
-      </c>
-      <c r="D12" s="380" t="inlineStr"/>
+          <t>ACS7</t>
+        </is>
+      </c>
+      <c r="D12" s="380" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E12" s="380">
         <f>IFERROR(VLOOKUP($B23,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16711,14 +16711,10 @@
       </c>
       <c r="B15" s="363" t="inlineStr">
         <is>
-          <t>Brenda Wang</t>
-        </is>
-      </c>
-      <c r="C15" s="363" t="inlineStr">
-        <is>
-          <t>Level1-2-1</t>
-        </is>
-      </c>
+          <t>Jenny</t>
+        </is>
+      </c>
+      <c r="C15" s="363" t="inlineStr"/>
       <c r="D15" s="363" t="inlineStr"/>
       <c r="E15" s="363">
         <f>IFERROR(VLOOKUP($B26,$A$24:$D$61,4,FALSE),"")</f>
@@ -17011,14 +17007,10 @@
       </c>
       <c r="B16" s="363" t="inlineStr">
         <is>
-          <t>April</t>
-        </is>
-      </c>
-      <c r="C16" s="363" t="inlineStr">
-        <is>
-          <t>Level2-2</t>
-        </is>
-      </c>
+          <t>Robin</t>
+        </is>
+      </c>
+      <c r="C16" s="363" t="inlineStr"/>
       <c r="D16" s="363" t="inlineStr"/>
       <c r="E16" s="363">
         <f>IFERROR(VLOOKUP($B27,$A$24:$D$61,4,FALSE),"")</f>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -13793,10 +13793,14 @@
       </c>
       <c r="B4" s="363" t="inlineStr">
         <is>
-          <t>Brebda</t>
-        </is>
-      </c>
-      <c r="C4" s="363" t="inlineStr"/>
+          <t>Brenda Wang</t>
+        </is>
+      </c>
+      <c r="C4" s="363" t="inlineStr">
+        <is>
+          <t>Level1-2-1</t>
+        </is>
+      </c>
       <c r="D4" s="363" t="inlineStr"/>
       <c r="E4" s="363">
         <f>IFERROR(VLOOKUP($B15,$A$24:$D$61,4,FALSE),"")</f>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -5849,7 +5849,7 @@
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
       <c r="A8" s="322" t="inlineStr">
         <is>
-          <t>Theme Today: The most important person in life-Mom</t>
+          <t>Theme Today: Soul Surfer</t>
         </is>
       </c>
       <c r="B8" s="323" t="n"/>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="C27" s="280" t="inlineStr">
         <is>
-          <t>American Constitution Law</t>
+          <t>Ignition</t>
         </is>
       </c>
       <c r="D27" s="281">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="C29" s="280" t="inlineStr">
         <is>
-          <t>Quarantined &amp; Guaranteed</t>
+          <t>The exciting world of penny stock trading</t>
         </is>
       </c>
       <c r="D29" s="330">
@@ -6637,21 +6637,21 @@
       </c>
       <c r="E29" s="72" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="F29" s="103" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29" s="104" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H29" s="105" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I29" s="37" t="inlineStr">
         <is>
-          <t>0:06</t>
+          <t>0:08</t>
         </is>
       </c>
       <c r="J29" s="36">
@@ -13793,19 +13793,15 @@
       </c>
       <c r="B4" s="363" t="inlineStr">
         <is>
-          <t>Bonnie Wang</t>
+          <t>Brenda Wang</t>
         </is>
       </c>
       <c r="C4" s="363" t="inlineStr">
         <is>
-          <t>ACS11</t>
-        </is>
-      </c>
-      <c r="D4" s="363" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level1-2-1</t>
+        </is>
+      </c>
+      <c r="D4" s="363" t="inlineStr"/>
       <c r="E4" s="363">
         <f>IFERROR(VLOOKUP($B15,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -14109,14 +14105,10 @@
       </c>
       <c r="B5" s="363" t="inlineStr">
         <is>
-          <t>Sawyer</t>
-        </is>
-      </c>
-      <c r="C5" s="363" t="inlineStr">
-        <is>
-          <t>Level2-2</t>
-        </is>
-      </c>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C5" s="363" t="inlineStr"/>
       <c r="D5" s="363" t="inlineStr"/>
       <c r="E5" s="363">
         <f>IFERROR(VLOOKUP($B16,$A$24:$D$61,4,FALSE),"")</f>
@@ -14421,12 +14413,12 @@
       </c>
       <c r="B6" s="363" t="inlineStr">
         <is>
-          <t>Olivia Wang</t>
+          <t>Harper</t>
         </is>
       </c>
       <c r="C6" s="363" t="inlineStr">
         <is>
-          <t>AC4</t>
+          <t>AC3</t>
         </is>
       </c>
       <c r="D6" s="363" t="inlineStr">
@@ -14738,15 +14730,19 @@
       </c>
       <c r="B7" s="363" t="inlineStr">
         <is>
-          <t>Elliot Zhang</t>
+          <t>Bonnie Wang</t>
         </is>
       </c>
       <c r="C7" s="363" t="inlineStr">
         <is>
-          <t>Level1-2-2</t>
-        </is>
-      </c>
-      <c r="D7" s="363" t="inlineStr"/>
+          <t>ACS11</t>
+        </is>
+      </c>
+      <c r="D7" s="363" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E7" s="363">
         <f>IFERROR(VLOOKUP($B18,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -15046,7 +15042,7 @@
       </c>
       <c r="B8" s="363" t="inlineStr">
         <is>
-          <t>Eileen</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C8" s="363" t="inlineStr"/>
@@ -15354,7 +15350,7 @@
       </c>
       <c r="B9" s="363" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C9" s="363" t="inlineStr"/>
@@ -15649,10 +15645,14 @@
       </c>
       <c r="B10" s="363" t="inlineStr">
         <is>
-          <t>Jenny</t>
-        </is>
-      </c>
-      <c r="C10" s="363" t="inlineStr"/>
+          <t>Sawyer</t>
+        </is>
+      </c>
+      <c r="C10" s="363" t="inlineStr">
+        <is>
+          <t>Level2-2</t>
+        </is>
+      </c>
       <c r="D10" s="363" t="inlineStr"/>
       <c r="E10" s="363">
         <f>IFERROR(VLOOKUP($B21,$A$24:$D$61,4,FALSE),"")</f>
@@ -15947,12 +15947,12 @@
       </c>
       <c r="B11" s="380" t="inlineStr">
         <is>
-          <t>Walter</t>
+          <t>Kay</t>
         </is>
       </c>
       <c r="C11" s="380" t="inlineStr">
         <is>
-          <t>Level1-3</t>
+          <t>Level1-2-1</t>
         </is>
       </c>
       <c r="D11" s="380" t="inlineStr"/>
@@ -16264,15 +16264,19 @@
       </c>
       <c r="B12" s="380" t="inlineStr">
         <is>
-          <t>Davie</t>
+          <t>Bill Lin</t>
         </is>
       </c>
       <c r="C12" s="380" t="inlineStr">
         <is>
-          <t>Level3-2-1</t>
-        </is>
-      </c>
-      <c r="D12" s="380" t="inlineStr"/>
+          <t>ACS7</t>
+        </is>
+      </c>
+      <c r="D12" s="380" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E12" s="380">
         <f>IFERROR(VLOOKUP($B23,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16711,14 +16715,10 @@
       </c>
       <c r="B15" s="363" t="inlineStr">
         <is>
-          <t>Brenda Wang</t>
-        </is>
-      </c>
-      <c r="C15" s="363" t="inlineStr">
-        <is>
-          <t>Level1-2-1</t>
-        </is>
-      </c>
+          <t>Jenny</t>
+        </is>
+      </c>
+      <c r="C15" s="363" t="inlineStr"/>
       <c r="D15" s="363" t="inlineStr"/>
       <c r="E15" s="363">
         <f>IFERROR(VLOOKUP($B26,$A$24:$D$61,4,FALSE),"")</f>
@@ -17011,14 +17011,10 @@
       </c>
       <c r="B16" s="363" t="inlineStr">
         <is>
-          <t>April</t>
-        </is>
-      </c>
-      <c r="C16" s="363" t="inlineStr">
-        <is>
-          <t>Level2-2</t>
-        </is>
-      </c>
+          <t>Robin</t>
+        </is>
+      </c>
+      <c r="C16" s="363" t="inlineStr"/>
       <c r="D16" s="363" t="inlineStr"/>
       <c r="E16" s="363">
         <f>IFERROR(VLOOKUP($B27,$A$24:$D$61,4,FALSE),"")</f>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -5849,7 +5849,7 @@
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
       <c r="A8" s="322" t="inlineStr">
         <is>
-          <t>Theme Today: Soul Surfer</t>
+          <t>Theme Today: Love's boundary</t>
         </is>
       </c>
       <c r="B8" s="323" t="n"/>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="C27" s="280" t="inlineStr">
         <is>
-          <t>Ignition</t>
+          <t>How does a bill become a law?</t>
         </is>
       </c>
       <c r="D27" s="281">
@@ -6626,11 +6626,7 @@
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="280" t="inlineStr">
-        <is>
-          <t>The exciting world of penny stock trading</t>
-        </is>
-      </c>
+      <c r="C29" s="280" t="inlineStr"/>
       <c r="D29" s="330">
         <f>Roles!B12</f>
         <v/>
@@ -13793,12 +13789,12 @@
       </c>
       <c r="B4" s="363" t="inlineStr">
         <is>
-          <t>Brenda Wang</t>
+          <t>Davie</t>
         </is>
       </c>
       <c r="C4" s="363" t="inlineStr">
         <is>
-          <t>Level1-2-1</t>
+          <t>Level3-2-2</t>
         </is>
       </c>
       <c r="D4" s="363" t="inlineStr"/>
@@ -14413,19 +14409,15 @@
       </c>
       <c r="B6" s="363" t="inlineStr">
         <is>
-          <t>Harper</t>
+          <t>Brenda Wang</t>
         </is>
       </c>
       <c r="C6" s="363" t="inlineStr">
         <is>
-          <t>AC3</t>
-        </is>
-      </c>
-      <c r="D6" s="363" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level1-2-1</t>
+        </is>
+      </c>
+      <c r="D6" s="363" t="inlineStr"/>
       <c r="E6" s="363">
         <f>IFERROR(VLOOKUP($B17,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -14730,19 +14722,15 @@
       </c>
       <c r="B7" s="363" t="inlineStr">
         <is>
-          <t>Bonnie Wang</t>
+          <t>Elliot Zhang</t>
         </is>
       </c>
       <c r="C7" s="363" t="inlineStr">
         <is>
-          <t>ACS11</t>
-        </is>
-      </c>
-      <c r="D7" s="363" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level1-2-2</t>
+        </is>
+      </c>
+      <c r="D7" s="363" t="inlineStr"/>
       <c r="E7" s="363">
         <f>IFERROR(VLOOKUP($B18,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -15042,10 +15030,14 @@
       </c>
       <c r="B8" s="363" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C8" s="363" t="inlineStr"/>
+          <t>Sawyer</t>
+        </is>
+      </c>
+      <c r="C8" s="363" t="inlineStr">
+        <is>
+          <t>Level2-2</t>
+        </is>
+      </c>
       <c r="D8" s="363" t="inlineStr"/>
       <c r="E8" s="363">
         <f>IFERROR(VLOOKUP($B19,$A$24:$D$61,4,FALSE),"")</f>
@@ -15350,7 +15342,7 @@
       </c>
       <c r="B9" s="363" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Eileen</t>
         </is>
       </c>
       <c r="C9" s="363" t="inlineStr"/>
@@ -15645,14 +15637,10 @@
       </c>
       <c r="B10" s="363" t="inlineStr">
         <is>
-          <t>Sawyer</t>
-        </is>
-      </c>
-      <c r="C10" s="363" t="inlineStr">
-        <is>
-          <t>Level2-2</t>
-        </is>
-      </c>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C10" s="363" t="inlineStr"/>
       <c r="D10" s="363" t="inlineStr"/>
       <c r="E10" s="363">
         <f>IFERROR(VLOOKUP($B21,$A$24:$D$61,4,FALSE),"")</f>
@@ -15947,12 +15935,12 @@
       </c>
       <c r="B11" s="380" t="inlineStr">
         <is>
-          <t>Kay</t>
+          <t>Walter</t>
         </is>
       </c>
       <c r="C11" s="380" t="inlineStr">
         <is>
-          <t>Level1-2-1</t>
+          <t>Level2-1</t>
         </is>
       </c>
       <c r="D11" s="380" t="inlineStr"/>
@@ -16269,7 +16257,7 @@
       </c>
       <c r="C12" s="380" t="inlineStr">
         <is>
-          <t>ACS7</t>
+          <t>ACS8</t>
         </is>
       </c>
       <c r="D12" s="380" t="inlineStr">
@@ -16715,10 +16703,14 @@
       </c>
       <c r="B15" s="363" t="inlineStr">
         <is>
-          <t>Jenny</t>
-        </is>
-      </c>
-      <c r="C15" s="363" t="inlineStr"/>
+          <t>Kay</t>
+        </is>
+      </c>
+      <c r="C15" s="363" t="inlineStr">
+        <is>
+          <t>Level1-2-2</t>
+        </is>
+      </c>
       <c r="D15" s="363" t="inlineStr"/>
       <c r="E15" s="363">
         <f>IFERROR(VLOOKUP($B26,$A$24:$D$61,4,FALSE),"")</f>
@@ -17011,7 +17003,7 @@
       </c>
       <c r="B16" s="363" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="C16" s="363" t="inlineStr"/>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17640" windowWidth="29040" xWindow="28680" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17640" windowWidth="29040" xWindow="28680" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda-1" sheetId="1" state="visible" r:id="rId1"/>
@@ -598,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="109">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -1808,6 +1808,21 @@
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color theme="0" tint="-0.1499374370555742"/>
       </right>
       <top style="medium">
@@ -1878,10 +1893,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="00000000"/>
@@ -2933,220 +2948,56 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="76" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf borderId="73" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="77" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="78" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="79" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="80" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf borderId="75" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="75" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="81" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="82" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="83" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="73" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="77" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="88" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="67" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="68" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="69" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="76" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="73" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="77" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="78" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="79" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="80" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="75" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="75" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="81" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="87" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="82" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="83" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="73" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="77" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="88" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="95" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3158,6 +3009,57 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="95" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3167,31 +3069,144 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="109" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="105" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="106" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="107" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="29" fillId="0" fontId="21" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="108" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="105" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="106" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="107" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
@@ -3702,7 +3717,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>41</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2057400" cy="2057400"/>
@@ -4071,7 +4086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4113,125 +4128,139 @@
       <c r="F1" s="239" t="n"/>
       <c r="G1" s="239" t="n"/>
       <c r="H1" s="239" t="n"/>
+      <c r="I1" s="239" t="n"/>
+      <c r="J1" s="240" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="237">
-      <c r="A2" s="240" t="inlineStr">
+      <c r="A2" s="241" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="241" t="n"/>
-      <c r="J2" s="241" t="n"/>
+      <c r="I2" s="242" t="n"/>
+      <c r="J2" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="237">
-      <c r="A3" s="242" t="inlineStr">
+      <c r="A3" s="244" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="243" t="n"/>
-      <c r="J3" s="243" t="n"/>
+      <c r="B3" s="245" t="n"/>
+      <c r="C3" s="245" t="n"/>
+      <c r="D3" s="245" t="n"/>
+      <c r="E3" s="245" t="n"/>
+      <c r="F3" s="245" t="n"/>
+      <c r="G3" s="245" t="n"/>
+      <c r="H3" s="245" t="n"/>
+      <c r="I3" s="246" t="n"/>
+      <c r="J3" s="247" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="237">
-      <c r="A4" s="244" t="inlineStr">
+      <c r="A4" s="248" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="245" t="inlineStr">
+      <c r="B4" s="249" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="246" t="n"/>
-      <c r="D4" s="246" t="n"/>
-      <c r="E4" s="246" t="n"/>
-      <c r="F4" s="246" t="n"/>
-      <c r="G4" s="246" t="n"/>
-      <c r="H4" s="247" t="n"/>
-      <c r="I4" s="241" t="n"/>
-      <c r="J4" s="241" t="n"/>
+      <c r="C4" s="239" t="n"/>
+      <c r="D4" s="239" t="n"/>
+      <c r="E4" s="239" t="n"/>
+      <c r="F4" s="239" t="n"/>
+      <c r="G4" s="239" t="n"/>
+      <c r="H4" s="250" t="n"/>
+      <c r="I4" s="251" t="n"/>
+      <c r="J4" s="252" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
-      <c r="A5" s="248" t="n"/>
-      <c r="B5" s="249" t="n"/>
-      <c r="H5" s="250" t="n"/>
-      <c r="I5" s="243" t="n"/>
-      <c r="J5" s="243" t="n"/>
+      <c r="A5" s="253" t="n"/>
+      <c r="B5" s="254" t="n"/>
+      <c r="C5" s="245" t="n"/>
+      <c r="D5" s="245" t="n"/>
+      <c r="E5" s="245" t="n"/>
+      <c r="F5" s="245" t="n"/>
+      <c r="G5" s="245" t="n"/>
+      <c r="H5" s="255" t="n"/>
+      <c r="I5" s="246" t="n"/>
+      <c r="J5" s="247" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
-      <c r="A6" s="248" t="n"/>
-      <c r="B6" s="249" t="n"/>
-      <c r="H6" s="250" t="n"/>
-      <c r="I6" s="243" t="n"/>
-      <c r="J6" s="243" t="n"/>
+      <c r="A6" s="256" t="n"/>
+      <c r="B6" s="257" t="n"/>
+      <c r="H6" s="258" t="n"/>
+      <c r="I6" s="259" t="n"/>
+      <c r="J6" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
-      <c r="A7" s="251" t="n"/>
-      <c r="B7" s="252" t="n"/>
-      <c r="C7" s="253" t="n"/>
-      <c r="D7" s="253" t="n"/>
-      <c r="E7" s="253" t="n"/>
-      <c r="F7" s="253" t="n"/>
-      <c r="G7" s="253" t="n"/>
-      <c r="H7" s="254" t="n"/>
-      <c r="I7" s="243" t="n"/>
-      <c r="J7" s="243" t="n"/>
+      <c r="A7" s="260" t="n"/>
+      <c r="B7" s="261" t="n"/>
+      <c r="C7" s="262" t="n"/>
+      <c r="D7" s="262" t="n"/>
+      <c r="E7" s="262" t="n"/>
+      <c r="F7" s="262" t="n"/>
+      <c r="G7" s="262" t="n"/>
+      <c r="H7" s="263" t="n"/>
+      <c r="I7" s="259" t="n"/>
+      <c r="J7" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
-      <c r="A8" s="255" t="inlineStr">
-        <is>
-          <t>Theme Today: sleepless in seattle</t>
-        </is>
-      </c>
-      <c r="B8" s="256" t="n"/>
-      <c r="C8" s="256" t="n"/>
-      <c r="D8" s="256" t="n"/>
-      <c r="E8" s="256" t="n"/>
-      <c r="F8" s="256" t="n"/>
-      <c r="G8" s="256" t="n"/>
-      <c r="H8" s="257" t="n"/>
-      <c r="I8" s="243" t="n"/>
-      <c r="J8" s="243" t="n"/>
+      <c r="A8" s="264" t="inlineStr">
+        <is>
+          <t>Theme Today: Time Management</t>
+        </is>
+      </c>
+      <c r="B8" s="265" t="n"/>
+      <c r="C8" s="265" t="n"/>
+      <c r="D8" s="265" t="n"/>
+      <c r="E8" s="265" t="n"/>
+      <c r="F8" s="265" t="n"/>
+      <c r="G8" s="265" t="n"/>
+      <c r="H8" s="266" t="n"/>
+      <c r="I8" s="267" t="n"/>
+      <c r="J8" s="268" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
-      <c r="A9" s="258" t="inlineStr">
+      <c r="A9" s="269" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="259" t="inlineStr">
+      <c r="B9" s="270" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="260" t="inlineStr">
+      <c r="C9" s="271" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="261" t="inlineStr">
+      <c r="D9" s="272" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="262" t="inlineStr">
+      <c r="E9" s="273" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="263" t="inlineStr">
+      <c r="F9" s="274" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="264" t="inlineStr">
+      <c r="G9" s="275" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="265" t="inlineStr">
+      <c r="H9" s="276" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -4244,21 +4273,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="237">
-      <c r="A10" s="266">
+      <c r="A10" s="277">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="267" t="inlineStr">
+      <c r="B10" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="267" t="inlineStr">
+      <c r="C10" s="278" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="268">
+      <c r="D10" s="279">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4277,21 +4306,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="237">
-      <c r="A11" s="266">
+      <c r="A11" s="277">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="269" t="inlineStr">
+      <c r="B11" s="280" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="270" t="inlineStr">
+      <c r="C11" s="281" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="271">
+      <c r="D11" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -4318,21 +4347,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="237">
-      <c r="A12" s="266">
+      <c r="A12" s="277">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="267" t="inlineStr">
+      <c r="B12" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="272" t="inlineStr">
+      <c r="C12" s="283" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="271">
+      <c r="D12" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4363,21 +4392,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="237">
-      <c r="A13" s="266">
+      <c r="A13" s="277">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="269" t="inlineStr">
+      <c r="B13" s="280" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="269" t="inlineStr">
+      <c r="C13" s="280" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="271">
+      <c r="D13" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4402,21 +4431,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="237">
-      <c r="A14" s="266">
+      <c r="A14" s="277">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="269" t="inlineStr">
+      <c r="B14" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="269" t="inlineStr">
+      <c r="C14" s="280" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="271">
+      <c r="D14" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4438,24 +4467,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="241" t="n"/>
+      <c r="L14" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="237">
-      <c r="A15" s="266">
+      <c r="A15" s="277">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="269" t="inlineStr">
+      <c r="B15" s="280" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="269" t="inlineStr">
+      <c r="C15" s="280" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="271">
+      <c r="D15" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -4475,24 +4504,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="241" t="n"/>
+      <c r="L15" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="237">
-      <c r="A16" s="266">
+      <c r="A16" s="277">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="269" t="inlineStr">
+      <c r="B16" s="280" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="269" t="inlineStr">
+      <c r="C16" s="280" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="271">
+      <c r="D16" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -4512,24 +4541,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="241" t="n"/>
+      <c r="L16" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="237">
-      <c r="A17" s="266">
+      <c r="A17" s="277">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="269" t="inlineStr">
+      <c r="B17" s="280" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="269" t="inlineStr">
+      <c r="C17" s="280" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="271">
+      <c r="D17" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -4553,24 +4582,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="241" t="n"/>
+      <c r="L17" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="237">
-      <c r="A18" s="266">
+      <c r="A18" s="277">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="269" t="inlineStr">
+      <c r="B18" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="269" t="inlineStr">
+      <c r="C18" s="280" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="271">
+      <c r="D18" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4591,11 +4620,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
-      <c r="A19" s="273">
+      <c r="A19" s="284">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="274" t="inlineStr">
+      <c r="B19" s="285" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -4605,7 +4634,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="271">
+      <c r="D19" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4626,28 +4655,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
-      <c r="A20" s="275" t="inlineStr">
+      <c r="A20" s="286" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="256" t="n"/>
-      <c r="C20" s="256" t="n"/>
-      <c r="D20" s="256" t="n"/>
-      <c r="E20" s="256" t="n"/>
-      <c r="F20" s="256" t="n"/>
-      <c r="G20" s="256" t="n"/>
-      <c r="H20" s="257" t="n"/>
-      <c r="I20" s="37" t="n">
+      <c r="B20" s="265" t="n"/>
+      <c r="C20" s="265" t="n"/>
+      <c r="D20" s="265" t="n"/>
+      <c r="E20" s="265" t="n"/>
+      <c r="F20" s="265" t="n"/>
+      <c r="G20" s="265" t="n"/>
+      <c r="H20" s="266" t="n"/>
+      <c r="I20" s="287" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="288">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="237">
-      <c r="A21" s="266">
+      <c r="A21" s="277">
         <f>J20</f>
         <v/>
       </c>
@@ -4661,7 +4690,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="276">
+      <c r="D21" s="289">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -4686,21 +4715,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="237">
-      <c r="A22" s="266">
+      <c r="A22" s="277">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="272" t="inlineStr">
+      <c r="B22" s="283" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="272" t="inlineStr">
+      <c r="C22" s="283" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="271">
+      <c r="D22" s="282">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -4733,21 +4762,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="237">
-      <c r="A23" s="266">
+      <c r="A23" s="277">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="272" t="inlineStr">
+      <c r="B23" s="283" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="269" t="inlineStr">
+      <c r="C23" s="280" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="271">
+      <c r="D23" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4770,17 +4799,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
-      <c r="A24" s="277">
+      <c r="A24" s="290">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="278" t="inlineStr">
+      <c r="B24" s="291" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="279">
+      <c r="D24" s="292">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4803,30 +4832,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
-      <c r="A25" s="275" t="inlineStr">
+      <c r="A25" s="286" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="256" t="n"/>
-      <c r="C25" s="256" t="n"/>
-      <c r="D25" s="256" t="n"/>
-      <c r="E25" s="256" t="n"/>
-      <c r="F25" s="256" t="n"/>
-      <c r="G25" s="256" t="n"/>
-      <c r="H25" s="257" t="n"/>
-      <c r="I25" s="37" t="n">
+      <c r="B25" s="265" t="n"/>
+      <c r="C25" s="265" t="n"/>
+      <c r="D25" s="265" t="n"/>
+      <c r="E25" s="265" t="n"/>
+      <c r="F25" s="265" t="n"/>
+      <c r="G25" s="265" t="n"/>
+      <c r="H25" s="266" t="n"/>
+      <c r="I25" s="287" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="288">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="241" t="n"/>
+      <c r="L25" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="237">
-      <c r="A26" s="266">
+      <c r="A26" s="277">
         <f>J25</f>
         <v/>
       </c>
@@ -4840,7 +4869,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="276">
+      <c r="D26" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4862,119 +4891,115 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="241" t="n"/>
+      <c r="L26" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="237" thickBot="1">
-      <c r="A27" s="266">
+      <c r="A27" s="277">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="269" t="inlineStr">
+      <c r="B27" s="280" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="280" t="inlineStr">
-        <is>
-          <t>Ice Breaker</t>
-        </is>
-      </c>
-      <c r="D27" s="281">
+      <c r="C27" s="293" t="inlineStr">
+        <is>
+          <t>Cryptography</t>
+        </is>
+      </c>
+      <c r="D27" s="294">
         <f>Roles!B11</f>
         <v/>
       </c>
       <c r="E27" s="72" t="inlineStr">
         <is>
-          <t>5-7</t>
-        </is>
-      </c>
-      <c r="F27" s="103" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G27" s="104" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H27" s="105" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I27" s="37" t="n">
-        <v>0.004861111111111111</v>
+          <t>6-8</t>
+        </is>
+      </c>
+      <c r="F27" s="103" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" s="104" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" s="105" t="n">
+        <v>8</v>
+      </c>
+      <c r="I27" s="37" t="inlineStr">
+        <is>
+          <t>0:08</t>
+        </is>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="241" t="n"/>
+      <c r="L27" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="237" thickBot="1">
-      <c r="A28" s="275" t="inlineStr">
+      <c r="A28" s="295" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B28" s="256" t="n"/>
-      <c r="C28" s="256" t="n"/>
-      <c r="D28" s="256" t="n"/>
-      <c r="E28" s="256" t="n"/>
-      <c r="F28" s="256" t="n"/>
-      <c r="G28" s="256" t="n"/>
-      <c r="H28" s="257" t="n"/>
+      <c r="B28" s="296" t="n"/>
+      <c r="C28" s="296" t="n"/>
+      <c r="D28" s="296" t="n"/>
+      <c r="E28" s="296" t="n"/>
+      <c r="F28" s="296" t="n"/>
+      <c r="G28" s="296" t="n"/>
+      <c r="H28" s="297" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="241" t="n"/>
+      <c r="L28" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="237">
-      <c r="A29" s="266">
+      <c r="A29" s="298">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="24" t="inlineStr">
+      <c r="B29" s="299" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="300" t="inlineStr">
         <is>
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D29" s="276">
+      <c r="D29" s="301">
         <f>Roles!B5</f>
         <v/>
       </c>
-      <c r="E29" s="27" t="n">
+      <c r="E29" s="302" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="148" t="n"/>
-      <c r="G29" s="149" t="n">
+      <c r="F29" s="303" t="n"/>
+      <c r="G29" s="304" t="n">
         <v>0.5</v>
       </c>
-      <c r="H29" s="150" t="n">
+      <c r="H29" s="305" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="37" t="n">
+      <c r="I29" s="287" t="n">
         <v>1.000694444444445</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="288">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="241" t="n"/>
+      <c r="L29" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="237">
-      <c r="A30" s="266">
+      <c r="A30" s="277">
         <f>J29</f>
         <v/>
       </c>
@@ -4988,11 +5013,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D30" s="276">
+      <c r="D30" s="289">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="282" t="inlineStr">
+      <c r="E30" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -5014,10 +5039,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="241" t="n"/>
+      <c r="L30" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="237">
-      <c r="A31" s="266">
+      <c r="A31" s="277">
         <f>J30</f>
         <v/>
       </c>
@@ -5031,7 +5056,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D31" s="271">
+      <c r="D31" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -5055,10 +5080,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="283" t="n"/>
+      <c r="L31" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="237">
-      <c r="A32" s="266">
+      <c r="A32" s="277">
         <f>J31</f>
         <v/>
       </c>
@@ -5072,7 +5097,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D32" s="271">
+      <c r="D32" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -5098,10 +5123,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="283" t="n"/>
+      <c r="L32" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="237">
-      <c r="A33" s="266">
+      <c r="A33" s="277">
         <f>J32</f>
         <v/>
       </c>
@@ -5115,7 +5140,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D33" s="271">
+      <c r="D33" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -5139,14 +5164,14 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="283" t="n"/>
+      <c r="L33" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="237">
-      <c r="A34" s="266">
+      <c r="A34" s="277">
         <f>J33</f>
         <v/>
       </c>
-      <c r="B34" s="267" t="inlineStr">
+      <c r="B34" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -5156,7 +5181,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D34" s="271">
+      <c r="D34" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -5176,24 +5201,24 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="283" t="n"/>
+      <c r="L34" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="237">
-      <c r="A35" s="266">
+      <c r="A35" s="277">
         <f>J34</f>
         <v/>
       </c>
-      <c r="B35" s="269" t="inlineStr">
+      <c r="B35" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C35" s="269" t="inlineStr">
+      <c r="C35" s="280" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D35" s="271">
+      <c r="D35" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -5225,24 +5250,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="283" t="n"/>
+      <c r="L35" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="237" thickBot="1">
-      <c r="A36" s="284">
+      <c r="A36" s="308">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="272" t="inlineStr">
+      <c r="B36" s="283" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C36" s="269" t="inlineStr">
+      <c r="C36" s="280" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D36" s="271">
+      <c r="D36" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -5274,24 +5299,24 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="283" t="n"/>
+      <c r="L36" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="237" thickBot="1">
-      <c r="A37" s="284">
+      <c r="A37" s="308">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="285" t="inlineStr">
+      <c r="B37" s="309" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C37" s="286" t="inlineStr">
+      <c r="C37" s="310" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D37" s="271">
+      <c r="D37" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -5316,21 +5341,21 @@
       <c r="L37" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="237">
-      <c r="A38" s="287" t="n"/>
-      <c r="B38" s="239" t="n"/>
-      <c r="C38" s="239" t="n"/>
-      <c r="D38" s="239" t="n"/>
+      <c r="A38" s="311" t="n"/>
+      <c r="B38" s="312" t="n"/>
+      <c r="C38" s="312" t="n"/>
+      <c r="D38" s="312" t="n"/>
       <c r="E38" s="236" t="n"/>
-      <c r="F38" s="288" t="n"/>
-      <c r="G38" s="289" t="n"/>
-      <c r="H38" s="290" t="n"/>
+      <c r="F38" s="313" t="n"/>
+      <c r="G38" s="314" t="n"/>
+      <c r="H38" s="315" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
       <c r="L38" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="39" s="237">
-      <c r="A39" s="291" t="inlineStr">
+      <c r="A39" s="316" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -5340,18 +5365,18 @@
 </t>
         </is>
       </c>
-      <c r="D39" s="292" t="n"/>
+      <c r="D39" s="317" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="293" t="inlineStr">
+      <c r="J39" s="318" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="294" t="n"/>
+      <c r="K39" s="319" t="n"/>
       <c r="L39" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="237">
-      <c r="A40" s="295" t="inlineStr">
+      <c r="A40" s="320" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -5362,91 +5387,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="293" t="n"/>
+      <c r="J40" s="318" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="237">
-      <c r="A41" s="296" t="n"/>
+      <c r="A41" s="321" t="n"/>
       <c r="B41" s="236" t="n"/>
-      <c r="D41" s="297" t="n"/>
-      <c r="E41" s="298" t="n"/>
-      <c r="F41" s="298" t="n"/>
-      <c r="G41" s="298" t="n"/>
-      <c r="H41" s="298" t="n"/>
+      <c r="D41" s="322" t="n"/>
+      <c r="E41" s="323" t="n"/>
+      <c r="F41" s="323" t="n"/>
+      <c r="G41" s="323" t="n"/>
+      <c r="H41" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="237">
-      <c r="A42" s="296" t="n"/>
+      <c r="A42" s="321" t="n"/>
       <c r="B42" s="236" t="n"/>
       <c r="C42" s="236" t="n"/>
-      <c r="D42" s="297" t="n"/>
-      <c r="F42" s="298" t="n"/>
-      <c r="G42" s="298" t="n"/>
-      <c r="H42" s="298" t="n"/>
+      <c r="D42" s="322" t="n"/>
+      <c r="F42" s="323" t="n"/>
+      <c r="G42" s="323" t="n"/>
+      <c r="H42" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="237">
-      <c r="A43" s="296" t="n"/>
+      <c r="A43" s="321" t="n"/>
       <c r="B43" s="236" t="n"/>
       <c r="C43" s="236" t="n"/>
-      <c r="D43" s="299" t="n"/>
-      <c r="E43" s="300" t="n"/>
-      <c r="F43" s="301" t="n"/>
-      <c r="G43" s="302" t="n"/>
+      <c r="D43" s="324" t="n"/>
+      <c r="E43" s="325" t="n"/>
+      <c r="F43" s="326" t="n"/>
+      <c r="G43" s="327" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="237">
-      <c r="A44" s="296" t="n"/>
+      <c r="A44" s="321" t="n"/>
       <c r="B44" s="236" t="n"/>
-      <c r="D44" s="303" t="n"/>
-      <c r="E44" s="304" t="n"/>
+      <c r="D44" s="328" t="n"/>
+      <c r="E44" s="329" t="n"/>
       <c r="L44" s="179" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="237">
-      <c r="A45" s="296" t="n"/>
+      <c r="A45" s="321" t="n"/>
       <c r="B45" s="236" t="n"/>
-      <c r="D45" s="303" t="n"/>
-      <c r="E45" s="304" t="n"/>
+      <c r="D45" s="328" t="n"/>
+      <c r="E45" s="329" t="n"/>
       <c r="L45" s="179" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="296" t="n"/>
+      <c r="A46" s="321" t="n"/>
       <c r="B46" s="236" t="n"/>
-      <c r="D46" s="303" t="n"/>
-      <c r="E46" s="304" t="n"/>
+      <c r="D46" s="328" t="n"/>
+      <c r="E46" s="329" t="n"/>
       <c r="L46" s="179" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="296" t="n"/>
+      <c r="A47" s="321" t="n"/>
       <c r="B47" s="236" t="n"/>
       <c r="C47" s="236" t="n"/>
-      <c r="D47" s="303" t="n"/>
-      <c r="E47" s="304" t="n"/>
+      <c r="D47" s="328" t="n"/>
+      <c r="E47" s="329" t="n"/>
       <c r="L47" s="179" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="296" t="n"/>
+      <c r="A48" s="321" t="n"/>
       <c r="B48" s="236" t="n"/>
       <c r="C48" s="236" t="n"/>
-      <c r="D48" s="303" t="n"/>
-      <c r="E48" s="304" t="n"/>
+      <c r="D48" s="328" t="n"/>
+      <c r="E48" s="329" t="n"/>
       <c r="L48" s="179" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="296" t="n"/>
+      <c r="A49" s="321" t="n"/>
       <c r="B49" s="236" t="n"/>
       <c r="C49" s="236" t="n"/>
-      <c r="E49" s="304" t="n"/>
+      <c r="E49" s="329" t="n"/>
       <c r="L49" s="179" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="296" t="n"/>
+      <c r="A50" s="321" t="n"/>
       <c r="B50" s="236" t="n"/>
-      <c r="D50" s="303" t="n"/>
-      <c r="E50" s="304" t="n"/>
+      <c r="D50" s="328" t="n"/>
+      <c r="E50" s="329" t="n"/>
     </row>
     <row customFormat="1" r="51" s="233">
-      <c r="A51" s="296" t="n"/>
+      <c r="A51" s="321" t="n"/>
       <c r="B51" s="236" t="n"/>
       <c r="C51" s="236" t="n"/>
-      <c r="D51" s="303" t="n"/>
-      <c r="E51" s="304" t="n"/>
+      <c r="D51" s="328" t="n"/>
+      <c r="E51" s="329" t="n"/>
       <c r="G51" s="234" t="n"/>
       <c r="H51" s="235" t="n"/>
       <c r="I51" s="179" t="n"/>
@@ -5456,11 +5481,11 @@
       <c r="M51" s="236" t="n"/>
     </row>
     <row customFormat="1" r="52" s="233">
-      <c r="A52" s="296" t="n"/>
+      <c r="A52" s="321" t="n"/>
       <c r="B52" s="236" t="n"/>
       <c r="C52" s="230" t="n"/>
-      <c r="D52" s="303" t="n"/>
-      <c r="E52" s="304" t="n"/>
+      <c r="D52" s="328" t="n"/>
+      <c r="E52" s="329" t="n"/>
       <c r="G52" s="234" t="n"/>
       <c r="H52" s="235" t="n"/>
       <c r="I52" s="179" t="n"/>
@@ -5470,11 +5495,11 @@
       <c r="M52" s="236" t="n"/>
     </row>
     <row customFormat="1" r="53" s="233">
-      <c r="A53" s="296" t="n"/>
+      <c r="A53" s="321" t="n"/>
       <c r="B53" s="236" t="n"/>
       <c r="C53" s="236" t="n"/>
-      <c r="D53" s="303" t="n"/>
-      <c r="E53" s="304" t="n"/>
+      <c r="D53" s="328" t="n"/>
+      <c r="E53" s="329" t="n"/>
       <c r="G53" s="234" t="n"/>
       <c r="H53" s="235" t="n"/>
       <c r="I53" s="179" t="n"/>
@@ -5484,11 +5509,11 @@
       <c r="M53" s="236" t="n"/>
     </row>
     <row customFormat="1" r="54" s="233">
-      <c r="A54" s="296" t="n"/>
+      <c r="A54" s="321" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
-      <c r="D54" s="303" t="n"/>
-      <c r="E54" s="304" t="n"/>
+      <c r="D54" s="328" t="n"/>
+      <c r="E54" s="329" t="n"/>
       <c r="G54" s="234" t="n"/>
       <c r="H54" s="235" t="n"/>
       <c r="I54" s="179" t="n"/>
@@ -5498,11 +5523,11 @@
       <c r="M54" s="236" t="n"/>
     </row>
     <row customFormat="1" r="55" s="233">
-      <c r="A55" s="296" t="n"/>
+      <c r="A55" s="321" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="236" t="n"/>
-      <c r="D55" s="303" t="n"/>
-      <c r="E55" s="304" t="n"/>
+      <c r="D55" s="328" t="n"/>
+      <c r="E55" s="329" t="n"/>
       <c r="G55" s="234" t="n"/>
       <c r="H55" s="235" t="n"/>
       <c r="I55" s="179" t="n"/>
@@ -5512,11 +5537,11 @@
       <c r="M55" s="236" t="n"/>
     </row>
     <row customFormat="1" r="56" s="233">
-      <c r="A56" s="296" t="n"/>
+      <c r="A56" s="321" t="n"/>
       <c r="B56" s="236" t="n"/>
       <c r="C56" s="236" t="n"/>
-      <c r="D56" s="303" t="n"/>
-      <c r="E56" s="304" t="n"/>
+      <c r="D56" s="328" t="n"/>
+      <c r="E56" s="329" t="n"/>
       <c r="G56" s="234" t="n"/>
       <c r="H56" s="235" t="n"/>
       <c r="I56" s="179" t="n"/>
@@ -5526,11 +5551,11 @@
       <c r="M56" s="236" t="n"/>
     </row>
     <row customFormat="1" r="57" s="233">
-      <c r="A57" s="296" t="n"/>
+      <c r="A57" s="321" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
-      <c r="D57" s="303" t="n"/>
-      <c r="E57" s="304" t="n"/>
+      <c r="D57" s="328" t="n"/>
+      <c r="E57" s="329" t="n"/>
       <c r="G57" s="234" t="n"/>
       <c r="H57" s="235" t="n"/>
       <c r="I57" s="179" t="n"/>
@@ -5540,11 +5565,11 @@
       <c r="M57" s="236" t="n"/>
     </row>
     <row customFormat="1" r="58" s="233">
-      <c r="A58" s="296" t="n"/>
+      <c r="A58" s="321" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="236" t="n"/>
-      <c r="D58" s="303" t="n"/>
-      <c r="E58" s="304" t="n"/>
+      <c r="D58" s="328" t="n"/>
+      <c r="E58" s="329" t="n"/>
       <c r="G58" s="234" t="n"/>
       <c r="H58" s="235" t="n"/>
       <c r="I58" s="179" t="n"/>
@@ -5554,11 +5579,11 @@
       <c r="M58" s="236" t="n"/>
     </row>
     <row customFormat="1" r="59" s="233">
-      <c r="A59" s="296" t="n"/>
+      <c r="A59" s="321" t="n"/>
       <c r="B59" s="230" t="n"/>
       <c r="C59" s="230" t="n"/>
-      <c r="D59" s="303" t="n"/>
-      <c r="E59" s="304" t="n"/>
+      <c r="D59" s="328" t="n"/>
+      <c r="E59" s="329" t="n"/>
       <c r="G59" s="234" t="n"/>
       <c r="H59" s="235" t="n"/>
       <c r="I59" s="179" t="n"/>
@@ -5568,11 +5593,11 @@
       <c r="M59" s="236" t="n"/>
     </row>
     <row customFormat="1" r="60" s="233">
-      <c r="A60" s="296" t="n"/>
+      <c r="A60" s="321" t="n"/>
       <c r="B60" s="230" t="n"/>
       <c r="C60" s="230" t="n"/>
-      <c r="D60" s="303" t="n"/>
-      <c r="E60" s="304" t="n"/>
+      <c r="D60" s="328" t="n"/>
+      <c r="E60" s="329" t="n"/>
       <c r="G60" s="234" t="n"/>
       <c r="H60" s="235" t="n"/>
       <c r="I60" s="179" t="n"/>
@@ -5582,11 +5607,11 @@
       <c r="M60" s="236" t="n"/>
     </row>
     <row customFormat="1" r="61" s="233">
-      <c r="A61" s="296" t="n"/>
+      <c r="A61" s="321" t="n"/>
       <c r="B61" s="230" t="n"/>
       <c r="C61" s="230" t="n"/>
-      <c r="D61" s="303" t="n"/>
-      <c r="E61" s="304" t="n"/>
+      <c r="D61" s="328" t="n"/>
+      <c r="E61" s="329" t="n"/>
       <c r="G61" s="234" t="n"/>
       <c r="H61" s="235" t="n"/>
       <c r="I61" s="179" t="n"/>
@@ -5596,11 +5621,11 @@
       <c r="M61" s="236" t="n"/>
     </row>
     <row customFormat="1" r="62" s="233">
-      <c r="A62" s="296" t="n"/>
+      <c r="A62" s="321" t="n"/>
       <c r="B62" s="230" t="n"/>
       <c r="C62" s="230" t="n"/>
-      <c r="D62" s="303" t="n"/>
-      <c r="E62" s="304" t="n"/>
+      <c r="D62" s="328" t="n"/>
+      <c r="E62" s="329" t="n"/>
       <c r="G62" s="234" t="n"/>
       <c r="H62" s="235" t="n"/>
       <c r="I62" s="179" t="n"/>
@@ -5610,7 +5635,7 @@
       <c r="M62" s="236" t="n"/>
     </row>
     <row customFormat="1" r="63" s="233">
-      <c r="A63" s="296" t="n"/>
+      <c r="A63" s="321" t="n"/>
       <c r="B63" s="230" t="n"/>
       <c r="C63" s="230" t="n"/>
       <c r="D63" s="231" t="n"/>
@@ -5624,7 +5649,7 @@
       <c r="M63" s="236" t="n"/>
     </row>
     <row customFormat="1" r="64" s="233">
-      <c r="A64" s="296" t="n"/>
+      <c r="A64" s="321" t="n"/>
       <c r="B64" s="230" t="n"/>
       <c r="C64" s="230" t="n"/>
       <c r="D64" s="231" t="n"/>
@@ -5638,7 +5663,7 @@
       <c r="M64" s="236" t="n"/>
     </row>
     <row customFormat="1" r="65" s="233">
-      <c r="A65" s="296" t="n"/>
+      <c r="A65" s="321" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
       <c r="D65" s="231" t="n"/>
@@ -5652,7 +5677,7 @@
       <c r="M65" s="236" t="n"/>
     </row>
     <row customFormat="1" r="66" s="233">
-      <c r="A66" s="296" t="n"/>
+      <c r="A66" s="321" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
       <c r="D66" s="231" t="n"/>
@@ -5666,7 +5691,7 @@
       <c r="M66" s="236" t="n"/>
     </row>
     <row customFormat="1" r="67" s="230">
-      <c r="A67" s="296" t="n"/>
+      <c r="A67" s="321" t="n"/>
       <c r="D67" s="231" t="n"/>
       <c r="E67" s="232" t="n"/>
       <c r="F67" s="233" t="n"/>
@@ -5678,7 +5703,7 @@
       <c r="M67" s="236" t="n"/>
     </row>
     <row customFormat="1" r="68" s="230">
-      <c r="A68" s="296" t="n"/>
+      <c r="A68" s="321" t="n"/>
       <c r="D68" s="231" t="n"/>
       <c r="E68" s="232" t="n"/>
       <c r="F68" s="233" t="n"/>
@@ -5690,7 +5715,7 @@
       <c r="M68" s="236" t="n"/>
     </row>
     <row customFormat="1" r="69" s="230">
-      <c r="A69" s="296" t="n"/>
+      <c r="A69" s="321" t="n"/>
       <c r="D69" s="231" t="n"/>
       <c r="E69" s="232" t="n"/>
       <c r="F69" s="233" t="n"/>
@@ -5721,11 +5746,12 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5755,151 +5781,137 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="237">
-      <c r="A1" s="305" t="inlineStr">
+      <c r="A1" s="330" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="306" t="n"/>
-      <c r="C1" s="306" t="n"/>
-      <c r="D1" s="306" t="n"/>
-      <c r="E1" s="306" t="n"/>
-      <c r="F1" s="306" t="n"/>
-      <c r="G1" s="306" t="n"/>
-      <c r="H1" s="306" t="n"/>
-      <c r="I1" s="306" t="n"/>
-      <c r="J1" s="307" t="n"/>
+      <c r="B1" s="312" t="n"/>
+      <c r="C1" s="312" t="n"/>
+      <c r="D1" s="312" t="n"/>
+      <c r="E1" s="312" t="n"/>
+      <c r="F1" s="312" t="n"/>
+      <c r="G1" s="312" t="n"/>
+      <c r="H1" s="312" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="237">
-      <c r="A2" s="308" t="inlineStr">
+      <c r="A2" s="331" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="241" t="n"/>
-      <c r="J2" s="309" t="n"/>
+      <c r="I2" s="242" t="n"/>
+      <c r="J2" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="237">
-      <c r="A3" s="310" t="inlineStr">
+      <c r="A3" s="332" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="B3" s="311" t="n"/>
-      <c r="C3" s="311" t="n"/>
-      <c r="D3" s="311" t="n"/>
-      <c r="E3" s="311" t="n"/>
-      <c r="F3" s="311" t="n"/>
-      <c r="G3" s="311" t="n"/>
-      <c r="H3" s="311" t="n"/>
-      <c r="I3" s="312" t="n"/>
-      <c r="J3" s="313" t="n"/>
+      <c r="I3" s="259" t="n"/>
+      <c r="J3" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="237">
-      <c r="A4" s="314" t="inlineStr">
+      <c r="A4" s="333" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="315" t="inlineStr">
+      <c r="B4" s="334" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="306" t="n"/>
-      <c r="D4" s="306" t="n"/>
-      <c r="E4" s="306" t="n"/>
-      <c r="F4" s="306" t="n"/>
-      <c r="G4" s="306" t="n"/>
-      <c r="H4" s="316" t="n"/>
-      <c r="I4" s="317" t="n"/>
-      <c r="J4" s="318" t="n"/>
+      <c r="C4" s="335" t="n"/>
+      <c r="D4" s="335" t="n"/>
+      <c r="E4" s="335" t="n"/>
+      <c r="F4" s="335" t="n"/>
+      <c r="G4" s="335" t="n"/>
+      <c r="H4" s="336" t="n"/>
+      <c r="I4" s="242" t="n"/>
+      <c r="J4" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
-      <c r="A5" s="319" t="n"/>
-      <c r="B5" s="320" t="n"/>
-      <c r="C5" s="311" t="n"/>
-      <c r="D5" s="311" t="n"/>
-      <c r="E5" s="311" t="n"/>
-      <c r="F5" s="311" t="n"/>
-      <c r="G5" s="311" t="n"/>
-      <c r="H5" s="321" t="n"/>
-      <c r="I5" s="312" t="n"/>
-      <c r="J5" s="313" t="n"/>
+      <c r="A5" s="256" t="n"/>
+      <c r="B5" s="257" t="n"/>
+      <c r="H5" s="258" t="n"/>
+      <c r="I5" s="259" t="n"/>
+      <c r="J5" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
-      <c r="A6" s="248" t="n"/>
-      <c r="B6" s="249" t="n"/>
-      <c r="H6" s="250" t="n"/>
-      <c r="I6" s="243" t="n"/>
-      <c r="J6" s="243" t="n"/>
+      <c r="A6" s="256" t="n"/>
+      <c r="B6" s="257" t="n"/>
+      <c r="H6" s="258" t="n"/>
+      <c r="I6" s="259" t="n"/>
+      <c r="J6" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
-      <c r="A7" s="251" t="n"/>
-      <c r="B7" s="252" t="n"/>
-      <c r="C7" s="253" t="n"/>
-      <c r="D7" s="253" t="n"/>
-      <c r="E7" s="253" t="n"/>
-      <c r="F7" s="253" t="n"/>
-      <c r="G7" s="253" t="n"/>
-      <c r="H7" s="254" t="n"/>
-      <c r="I7" s="243" t="n"/>
-      <c r="J7" s="243" t="n"/>
+      <c r="A7" s="260" t="n"/>
+      <c r="B7" s="261" t="n"/>
+      <c r="C7" s="262" t="n"/>
+      <c r="D7" s="262" t="n"/>
+      <c r="E7" s="262" t="n"/>
+      <c r="F7" s="262" t="n"/>
+      <c r="G7" s="262" t="n"/>
+      <c r="H7" s="263" t="n"/>
+      <c r="I7" s="259" t="n"/>
+      <c r="J7" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
-      <c r="A8" s="322" t="inlineStr">
-        <is>
-          <t>Theme Today: Soul Surfer</t>
-        </is>
-      </c>
-      <c r="B8" s="323" t="n"/>
-      <c r="C8" s="323" t="n"/>
-      <c r="D8" s="323" t="n"/>
-      <c r="E8" s="323" t="n"/>
-      <c r="F8" s="323" t="n"/>
-      <c r="G8" s="323" t="n"/>
-      <c r="H8" s="324" t="n"/>
-      <c r="I8" s="325" t="n"/>
-      <c r="J8" s="326" t="n"/>
+      <c r="A8" s="337" t="inlineStr">
+        <is>
+          <t>Theme Today: sleepless in seattle</t>
+        </is>
+      </c>
+      <c r="B8" s="296" t="n"/>
+      <c r="C8" s="296" t="n"/>
+      <c r="D8" s="296" t="n"/>
+      <c r="E8" s="296" t="n"/>
+      <c r="F8" s="296" t="n"/>
+      <c r="G8" s="296" t="n"/>
+      <c r="H8" s="297" t="n"/>
+      <c r="I8" s="259" t="n"/>
+      <c r="J8" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
-      <c r="A9" s="258" t="inlineStr">
+      <c r="A9" s="269" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="259" t="inlineStr">
+      <c r="B9" s="270" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="260" t="inlineStr">
+      <c r="C9" s="271" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="261" t="inlineStr">
+      <c r="D9" s="272" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="262" t="inlineStr">
+      <c r="E9" s="273" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="263" t="inlineStr">
+      <c r="F9" s="274" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="264" t="inlineStr">
+      <c r="G9" s="275" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="265" t="inlineStr">
+      <c r="H9" s="276" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -5912,21 +5924,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="237">
-      <c r="A10" s="266">
+      <c r="A10" s="277">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="267" t="inlineStr">
+      <c r="B10" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="267" t="inlineStr">
+      <c r="C10" s="278" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="268">
+      <c r="D10" s="279">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -5945,21 +5957,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="237">
-      <c r="A11" s="266">
+      <c r="A11" s="277">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="269" t="inlineStr">
+      <c r="B11" s="280" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="270" t="inlineStr">
+      <c r="C11" s="281" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="271">
+      <c r="D11" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -5986,21 +5998,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="237">
-      <c r="A12" s="266">
+      <c r="A12" s="277">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="267" t="inlineStr">
+      <c r="B12" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="272" t="inlineStr">
+      <c r="C12" s="283" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="271">
+      <c r="D12" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -6031,21 +6043,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="237">
-      <c r="A13" s="266">
+      <c r="A13" s="277">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="269" t="inlineStr">
+      <c r="B13" s="280" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="269" t="inlineStr">
+      <c r="C13" s="280" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="271">
+      <c r="D13" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6070,21 +6082,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="237">
-      <c r="A14" s="266">
+      <c r="A14" s="277">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="269" t="inlineStr">
+      <c r="B14" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="269" t="inlineStr">
+      <c r="C14" s="280" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="271">
+      <c r="D14" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6106,24 +6118,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="241" t="n"/>
+      <c r="L14" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="237">
-      <c r="A15" s="266">
+      <c r="A15" s="277">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="269" t="inlineStr">
+      <c r="B15" s="280" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="269" t="inlineStr">
+      <c r="C15" s="280" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="271">
+      <c r="D15" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6143,24 +6155,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="241" t="n"/>
+      <c r="L15" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="237">
-      <c r="A16" s="266">
+      <c r="A16" s="277">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="269" t="inlineStr">
+      <c r="B16" s="280" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="269" t="inlineStr">
+      <c r="C16" s="280" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="271">
+      <c r="D16" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6180,24 +6192,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="241" t="n"/>
+      <c r="L16" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="237">
-      <c r="A17" s="266">
+      <c r="A17" s="277">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="269" t="inlineStr">
+      <c r="B17" s="280" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="269" t="inlineStr">
+      <c r="C17" s="280" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="271">
+      <c r="D17" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6221,24 +6233,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="241" t="n"/>
+      <c r="L17" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="237">
-      <c r="A18" s="266">
+      <c r="A18" s="277">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="269" t="inlineStr">
+      <c r="B18" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="269" t="inlineStr">
+      <c r="C18" s="280" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="271">
+      <c r="D18" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6259,11 +6271,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
-      <c r="A19" s="273">
+      <c r="A19" s="284">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="274" t="inlineStr">
+      <c r="B19" s="285" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -6273,7 +6285,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="271">
+      <c r="D19" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6294,28 +6306,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
-      <c r="A20" s="327" t="inlineStr">
+      <c r="A20" s="295" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="323" t="n"/>
-      <c r="C20" s="323" t="n"/>
-      <c r="D20" s="323" t="n"/>
-      <c r="E20" s="323" t="n"/>
-      <c r="F20" s="323" t="n"/>
-      <c r="G20" s="323" t="n"/>
-      <c r="H20" s="324" t="n"/>
-      <c r="I20" s="328" t="n">
+      <c r="B20" s="296" t="n"/>
+      <c r="C20" s="296" t="n"/>
+      <c r="D20" s="296" t="n"/>
+      <c r="E20" s="296" t="n"/>
+      <c r="F20" s="296" t="n"/>
+      <c r="G20" s="296" t="n"/>
+      <c r="H20" s="297" t="n"/>
+      <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="329">
+      <c r="J20" s="36">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="237">
-      <c r="A21" s="266">
+      <c r="A21" s="277">
         <f>J20</f>
         <v/>
       </c>
@@ -6329,7 +6341,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="276">
+      <c r="D21" s="289">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -6354,21 +6366,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="237">
-      <c r="A22" s="266">
+      <c r="A22" s="277">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="272" t="inlineStr">
+      <c r="B22" s="283" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="272" t="inlineStr">
+      <c r="C22" s="283" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="271">
+      <c r="D22" s="282">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -6401,21 +6413,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="237">
-      <c r="A23" s="266">
+      <c r="A23" s="277">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="272" t="inlineStr">
+      <c r="B23" s="283" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="269" t="inlineStr">
+      <c r="C23" s="280" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="271">
+      <c r="D23" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6438,17 +6450,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
-      <c r="A24" s="277">
+      <c r="A24" s="290">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="278" t="inlineStr">
+      <c r="B24" s="291" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="279">
+      <c r="D24" s="292">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6471,30 +6483,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
-      <c r="A25" s="327" t="inlineStr">
+      <c r="A25" s="295" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="323" t="n"/>
-      <c r="C25" s="323" t="n"/>
-      <c r="D25" s="323" t="n"/>
-      <c r="E25" s="323" t="n"/>
-      <c r="F25" s="323" t="n"/>
-      <c r="G25" s="323" t="n"/>
-      <c r="H25" s="324" t="n"/>
-      <c r="I25" s="328" t="n">
+      <c r="B25" s="296" t="n"/>
+      <c r="C25" s="296" t="n"/>
+      <c r="D25" s="296" t="n"/>
+      <c r="E25" s="296" t="n"/>
+      <c r="F25" s="296" t="n"/>
+      <c r="G25" s="296" t="n"/>
+      <c r="H25" s="297" t="n"/>
+      <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="329">
+      <c r="J25" s="36">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="241" t="n"/>
+      <c r="L25" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="237">
-      <c r="A26" s="266">
+      <c r="A26" s="277">
         <f>J25</f>
         <v/>
       </c>
@@ -6508,7 +6520,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="276">
+      <c r="D26" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6530,24 +6542,24 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="241" t="n"/>
+      <c r="L26" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="237">
-      <c r="A27" s="266">
+      <c r="A27" s="277">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="269" t="inlineStr">
+      <c r="B27" s="280" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="280" t="inlineStr">
-        <is>
-          <t>Ignition</t>
-        </is>
-      </c>
-      <c r="D27" s="281">
+      <c r="C27" s="293" t="inlineStr">
+        <is>
+          <t>Ice Breaker</t>
+        </is>
+      </c>
+      <c r="D27" s="294">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -6556,29 +6568,33 @@
           <t>5-7</t>
         </is>
       </c>
-      <c r="F27" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="H27" s="105" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" s="37" t="inlineStr">
-        <is>
-          <t>0:07</t>
-        </is>
+      <c r="F27" s="103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G27" s="104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H27" s="105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I27" s="37" t="n">
+        <v>0.004861111111111111</v>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="241" t="n"/>
+      <c r="L27" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="237">
-      <c r="A28" s="266">
+      <c r="A28" s="277">
         <f>J27</f>
         <v/>
       </c>
@@ -6592,7 +6608,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="281">
+      <c r="D28" s="294">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6614,76 +6630,80 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="241" t="n"/>
+      <c r="L28" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="29" s="237" thickBot="1">
-      <c r="A29" s="266">
+      <c r="A29" s="277">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="269" t="inlineStr">
+      <c r="B29" s="280" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="280" t="inlineStr">
-        <is>
-          <t>The exciting world of penny stock trading</t>
-        </is>
-      </c>
-      <c r="D29" s="330">
+      <c r="C29" s="293" t="inlineStr">
+        <is>
+          <t>Rice's Speech</t>
+        </is>
+      </c>
+      <c r="D29" s="338">
         <f>Roles!B12</f>
         <v/>
       </c>
       <c r="E29" s="72" t="inlineStr">
         <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="F29" s="103" t="n">
-        <v>6</v>
-      </c>
-      <c r="G29" s="104" t="n">
-        <v>7</v>
-      </c>
-      <c r="H29" s="105" t="n">
-        <v>8</v>
-      </c>
-      <c r="I29" s="37" t="inlineStr">
-        <is>
-          <t>0:08</t>
-        </is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="F29" s="103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G29" s="104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H29" s="105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I29" s="37" t="n">
+        <v>0.004861111111111111</v>
       </c>
       <c r="J29" s="36">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="241" t="n"/>
+      <c r="L29" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="237" thickBot="1">
-      <c r="A30" s="275" t="inlineStr">
+      <c r="A30" s="295" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B30" s="256" t="n"/>
-      <c r="C30" s="256" t="n"/>
-      <c r="D30" s="256" t="n"/>
-      <c r="E30" s="256" t="n"/>
-      <c r="F30" s="256" t="n"/>
-      <c r="G30" s="256" t="n"/>
-      <c r="H30" s="257" t="n"/>
+      <c r="B30" s="296" t="n"/>
+      <c r="C30" s="296" t="n"/>
+      <c r="D30" s="296" t="n"/>
+      <c r="E30" s="296" t="n"/>
+      <c r="F30" s="296" t="n"/>
+      <c r="G30" s="296" t="n"/>
+      <c r="H30" s="297" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J29+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="241" t="n"/>
+      <c r="L30" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="237">
-      <c r="A31" s="266">
+      <c r="A31" s="277">
         <f>J30</f>
         <v/>
       </c>
@@ -6697,7 +6717,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D31" s="276">
+      <c r="D31" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6719,53 +6739,53 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="241" t="n"/>
+      <c r="L31" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="237">
-      <c r="A32" s="331">
+      <c r="A32" s="277">
         <f>J31</f>
         <v/>
       </c>
-      <c r="B32" s="332" t="inlineStr">
+      <c r="B32" s="55" t="inlineStr">
         <is>
           <t>Evaluator1</t>
         </is>
       </c>
-      <c r="C32" s="333" t="inlineStr">
+      <c r="C32" s="56" t="inlineStr">
         <is>
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D32" s="334">
+      <c r="D32" s="289">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="335" t="inlineStr">
+      <c r="E32" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
       </c>
-      <c r="F32" s="336" t="n">
+      <c r="F32" s="151" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="337" t="n">
+      <c r="G32" s="152" t="n">
         <v>2.5</v>
       </c>
-      <c r="H32" s="338" t="n">
+      <c r="H32" s="153" t="n">
         <v>3</v>
       </c>
-      <c r="I32" s="328" t="n">
+      <c r="I32" s="37" t="n">
         <v>0.002083333333333333</v>
       </c>
-      <c r="J32" s="329">
+      <c r="J32" s="36">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="241" t="n"/>
+      <c r="L32" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="237">
-      <c r="A33" s="266">
+      <c r="A33" s="277">
         <f>J32</f>
         <v/>
       </c>
@@ -6779,11 +6799,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D33" s="276">
+      <c r="D33" s="289">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="282" t="inlineStr">
+      <c r="E33" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -6805,10 +6825,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="241" t="n"/>
+      <c r="L33" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="237">
-      <c r="A34" s="266">
+      <c r="A34" s="277">
         <f>J33</f>
         <v/>
       </c>
@@ -6822,7 +6842,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D34" s="271">
+      <c r="D34" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6846,10 +6866,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="283" t="n"/>
+      <c r="L34" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="237">
-      <c r="A35" s="266">
+      <c r="A35" s="277">
         <f>J34</f>
         <v/>
       </c>
@@ -6863,7 +6883,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D35" s="271">
+      <c r="D35" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6889,10 +6909,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="283" t="n"/>
+      <c r="L35" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="237">
-      <c r="A36" s="266">
+      <c r="A36" s="277">
         <f>J35</f>
         <v/>
       </c>
@@ -6906,7 +6926,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D36" s="271">
+      <c r="D36" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6930,14 +6950,14 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="283" t="n"/>
+      <c r="L36" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="237">
-      <c r="A37" s="266">
+      <c r="A37" s="277">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="267" t="inlineStr">
+      <c r="B37" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -6947,7 +6967,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D37" s="271">
+      <c r="D37" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -6967,24 +6987,24 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="283" t="n"/>
+      <c r="L37" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="237">
-      <c r="A38" s="266">
+      <c r="A38" s="277">
         <f>J37</f>
         <v/>
       </c>
-      <c r="B38" s="269" t="inlineStr">
+      <c r="B38" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C38" s="269" t="inlineStr">
+      <c r="C38" s="280" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D38" s="271">
+      <c r="D38" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7016,24 +7036,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="283" t="n"/>
+      <c r="L38" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="237" thickBot="1">
-      <c r="A39" s="284">
+      <c r="A39" s="308">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="272" t="inlineStr">
+      <c r="B39" s="283" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C39" s="269" t="inlineStr">
+      <c r="C39" s="280" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D39" s="271">
+      <c r="D39" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7065,24 +7085,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="283" t="n"/>
+      <c r="L39" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="237" thickBot="1">
-      <c r="A40" s="284">
+      <c r="A40" s="308">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="285" t="inlineStr">
+      <c r="B40" s="309" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C40" s="286" t="inlineStr">
+      <c r="C40" s="310" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D40" s="271">
+      <c r="D40" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7107,21 +7127,21 @@
       <c r="L40" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="237">
-      <c r="A41" s="287" t="n"/>
-      <c r="B41" s="239" t="n"/>
-      <c r="C41" s="239" t="n"/>
-      <c r="D41" s="239" t="n"/>
+      <c r="A41" s="311" t="n"/>
+      <c r="B41" s="312" t="n"/>
+      <c r="C41" s="312" t="n"/>
+      <c r="D41" s="312" t="n"/>
       <c r="E41" s="236" t="n"/>
-      <c r="F41" s="288" t="n"/>
-      <c r="G41" s="289" t="n"/>
-      <c r="H41" s="290" t="n"/>
+      <c r="F41" s="313" t="n"/>
+      <c r="G41" s="314" t="n"/>
+      <c r="H41" s="315" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
       <c r="L41" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="42" s="237">
-      <c r="A42" s="291" t="inlineStr">
+      <c r="A42" s="316" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -7131,18 +7151,18 @@
 </t>
         </is>
       </c>
-      <c r="D42" s="292" t="n"/>
+      <c r="D42" s="317" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="293" t="inlineStr">
+      <c r="J42" s="318" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="294" t="n"/>
+      <c r="K42" s="319" t="n"/>
       <c r="L42" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="237">
-      <c r="A43" s="295" t="inlineStr">
+      <c r="A43" s="320" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -7153,91 +7173,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="293" t="n"/>
+      <c r="J43" s="318" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="237">
-      <c r="A44" s="296" t="n"/>
+      <c r="A44" s="321" t="n"/>
       <c r="B44" s="236" t="n"/>
-      <c r="D44" s="297" t="n"/>
-      <c r="E44" s="298" t="n"/>
-      <c r="F44" s="298" t="n"/>
-      <c r="G44" s="298" t="n"/>
-      <c r="H44" s="298" t="n"/>
+      <c r="D44" s="322" t="n"/>
+      <c r="E44" s="323" t="n"/>
+      <c r="F44" s="323" t="n"/>
+      <c r="G44" s="323" t="n"/>
+      <c r="H44" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="237">
-      <c r="A45" s="296" t="n"/>
+      <c r="A45" s="321" t="n"/>
       <c r="B45" s="236" t="n"/>
       <c r="C45" s="236" t="n"/>
-      <c r="D45" s="297" t="n"/>
-      <c r="F45" s="298" t="n"/>
-      <c r="G45" s="298" t="n"/>
-      <c r="H45" s="298" t="n"/>
+      <c r="D45" s="322" t="n"/>
+      <c r="F45" s="323" t="n"/>
+      <c r="G45" s="323" t="n"/>
+      <c r="H45" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="237">
-      <c r="A46" s="296" t="n"/>
+      <c r="A46" s="321" t="n"/>
       <c r="B46" s="236" t="n"/>
       <c r="C46" s="236" t="n"/>
-      <c r="D46" s="299" t="n"/>
-      <c r="E46" s="300" t="n"/>
-      <c r="F46" s="301" t="n"/>
-      <c r="G46" s="302" t="n"/>
+      <c r="D46" s="324" t="n"/>
+      <c r="E46" s="325" t="n"/>
+      <c r="F46" s="326" t="n"/>
+      <c r="G46" s="327" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="237">
-      <c r="A47" s="296" t="n"/>
+      <c r="A47" s="321" t="n"/>
       <c r="B47" s="236" t="n"/>
-      <c r="D47" s="303" t="n"/>
-      <c r="E47" s="304" t="n"/>
+      <c r="D47" s="328" t="n"/>
+      <c r="E47" s="329" t="n"/>
       <c r="L47" s="179" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="237">
-      <c r="A48" s="296" t="n"/>
+      <c r="A48" s="321" t="n"/>
       <c r="B48" s="236" t="n"/>
-      <c r="D48" s="303" t="n"/>
-      <c r="E48" s="304" t="n"/>
+      <c r="D48" s="328" t="n"/>
+      <c r="E48" s="329" t="n"/>
       <c r="L48" s="179" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="296" t="n"/>
+      <c r="A49" s="321" t="n"/>
       <c r="B49" s="236" t="n"/>
-      <c r="D49" s="303" t="n"/>
-      <c r="E49" s="304" t="n"/>
+      <c r="D49" s="328" t="n"/>
+      <c r="E49" s="329" t="n"/>
       <c r="L49" s="179" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="296" t="n"/>
+      <c r="A50" s="321" t="n"/>
       <c r="B50" s="236" t="n"/>
       <c r="C50" s="236" t="n"/>
-      <c r="D50" s="303" t="n"/>
-      <c r="E50" s="304" t="n"/>
+      <c r="D50" s="328" t="n"/>
+      <c r="E50" s="329" t="n"/>
       <c r="L50" s="179" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="296" t="n"/>
+      <c r="A51" s="321" t="n"/>
       <c r="B51" s="236" t="n"/>
       <c r="C51" s="236" t="n"/>
-      <c r="D51" s="303" t="n"/>
-      <c r="E51" s="304" t="n"/>
+      <c r="D51" s="328" t="n"/>
+      <c r="E51" s="329" t="n"/>
       <c r="L51" s="179" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="296" t="n"/>
+      <c r="A52" s="321" t="n"/>
       <c r="B52" s="236" t="n"/>
       <c r="C52" s="236" t="n"/>
-      <c r="E52" s="304" t="n"/>
+      <c r="E52" s="329" t="n"/>
       <c r="L52" s="179" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="296" t="n"/>
+      <c r="A53" s="321" t="n"/>
       <c r="B53" s="236" t="n"/>
-      <c r="D53" s="303" t="n"/>
-      <c r="E53" s="304" t="n"/>
+      <c r="D53" s="328" t="n"/>
+      <c r="E53" s="329" t="n"/>
     </row>
     <row customFormat="1" r="54" s="233">
-      <c r="A54" s="296" t="n"/>
+      <c r="A54" s="321" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
-      <c r="D54" s="303" t="n"/>
-      <c r="E54" s="304" t="n"/>
+      <c r="D54" s="328" t="n"/>
+      <c r="E54" s="329" t="n"/>
       <c r="G54" s="234" t="n"/>
       <c r="H54" s="235" t="n"/>
       <c r="I54" s="179" t="n"/>
@@ -7247,11 +7267,11 @@
       <c r="M54" s="236" t="n"/>
     </row>
     <row customFormat="1" r="55" s="233">
-      <c r="A55" s="296" t="n"/>
+      <c r="A55" s="321" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="230" t="n"/>
-      <c r="D55" s="303" t="n"/>
-      <c r="E55" s="304" t="n"/>
+      <c r="D55" s="328" t="n"/>
+      <c r="E55" s="329" t="n"/>
       <c r="G55" s="234" t="n"/>
       <c r="H55" s="235" t="n"/>
       <c r="I55" s="179" t="n"/>
@@ -7261,11 +7281,11 @@
       <c r="M55" s="236" t="n"/>
     </row>
     <row customFormat="1" r="56" s="233">
-      <c r="A56" s="296" t="n"/>
+      <c r="A56" s="321" t="n"/>
       <c r="B56" s="236" t="n"/>
       <c r="C56" s="236" t="n"/>
-      <c r="D56" s="303" t="n"/>
-      <c r="E56" s="304" t="n"/>
+      <c r="D56" s="328" t="n"/>
+      <c r="E56" s="329" t="n"/>
       <c r="G56" s="234" t="n"/>
       <c r="H56" s="235" t="n"/>
       <c r="I56" s="179" t="n"/>
@@ -7275,11 +7295,11 @@
       <c r="M56" s="236" t="n"/>
     </row>
     <row customFormat="1" r="57" s="233">
-      <c r="A57" s="296" t="n"/>
+      <c r="A57" s="321" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
-      <c r="D57" s="303" t="n"/>
-      <c r="E57" s="304" t="n"/>
+      <c r="D57" s="328" t="n"/>
+      <c r="E57" s="329" t="n"/>
       <c r="G57" s="234" t="n"/>
       <c r="H57" s="235" t="n"/>
       <c r="I57" s="179" t="n"/>
@@ -7289,11 +7309,11 @@
       <c r="M57" s="236" t="n"/>
     </row>
     <row customFormat="1" r="58" s="233">
-      <c r="A58" s="296" t="n"/>
+      <c r="A58" s="321" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="236" t="n"/>
-      <c r="D58" s="303" t="n"/>
-      <c r="E58" s="304" t="n"/>
+      <c r="D58" s="328" t="n"/>
+      <c r="E58" s="329" t="n"/>
       <c r="G58" s="234" t="n"/>
       <c r="H58" s="235" t="n"/>
       <c r="I58" s="179" t="n"/>
@@ -7303,11 +7323,11 @@
       <c r="M58" s="236" t="n"/>
     </row>
     <row customFormat="1" r="59" s="233">
-      <c r="A59" s="296" t="n"/>
+      <c r="A59" s="321" t="n"/>
       <c r="B59" s="236" t="n"/>
       <c r="C59" s="236" t="n"/>
-      <c r="D59" s="303" t="n"/>
-      <c r="E59" s="304" t="n"/>
+      <c r="D59" s="328" t="n"/>
+      <c r="E59" s="329" t="n"/>
       <c r="G59" s="234" t="n"/>
       <c r="H59" s="235" t="n"/>
       <c r="I59" s="179" t="n"/>
@@ -7317,11 +7337,11 @@
       <c r="M59" s="236" t="n"/>
     </row>
     <row customFormat="1" r="60" s="233">
-      <c r="A60" s="296" t="n"/>
+      <c r="A60" s="321" t="n"/>
       <c r="B60" s="236" t="n"/>
       <c r="C60" s="236" t="n"/>
-      <c r="D60" s="303" t="n"/>
-      <c r="E60" s="304" t="n"/>
+      <c r="D60" s="328" t="n"/>
+      <c r="E60" s="329" t="n"/>
       <c r="G60" s="234" t="n"/>
       <c r="H60" s="235" t="n"/>
       <c r="I60" s="179" t="n"/>
@@ -7331,11 +7351,11 @@
       <c r="M60" s="236" t="n"/>
     </row>
     <row customFormat="1" r="61" s="233">
-      <c r="A61" s="296" t="n"/>
+      <c r="A61" s="321" t="n"/>
       <c r="B61" s="236" t="n"/>
       <c r="C61" s="236" t="n"/>
-      <c r="D61" s="303" t="n"/>
-      <c r="E61" s="304" t="n"/>
+      <c r="D61" s="328" t="n"/>
+      <c r="E61" s="329" t="n"/>
       <c r="G61" s="234" t="n"/>
       <c r="H61" s="235" t="n"/>
       <c r="I61" s="179" t="n"/>
@@ -7345,11 +7365,11 @@
       <c r="M61" s="236" t="n"/>
     </row>
     <row customFormat="1" r="62" s="233">
-      <c r="A62" s="296" t="n"/>
+      <c r="A62" s="321" t="n"/>
       <c r="B62" s="230" t="n"/>
       <c r="C62" s="230" t="n"/>
-      <c r="D62" s="303" t="n"/>
-      <c r="E62" s="304" t="n"/>
+      <c r="D62" s="328" t="n"/>
+      <c r="E62" s="329" t="n"/>
       <c r="G62" s="234" t="n"/>
       <c r="H62" s="235" t="n"/>
       <c r="I62" s="179" t="n"/>
@@ -7359,11 +7379,11 @@
       <c r="M62" s="236" t="n"/>
     </row>
     <row customFormat="1" r="63" s="233">
-      <c r="A63" s="296" t="n"/>
+      <c r="A63" s="321" t="n"/>
       <c r="B63" s="230" t="n"/>
       <c r="C63" s="230" t="n"/>
-      <c r="D63" s="303" t="n"/>
-      <c r="E63" s="304" t="n"/>
+      <c r="D63" s="328" t="n"/>
+      <c r="E63" s="329" t="n"/>
       <c r="G63" s="234" t="n"/>
       <c r="H63" s="235" t="n"/>
       <c r="I63" s="179" t="n"/>
@@ -7373,11 +7393,11 @@
       <c r="M63" s="236" t="n"/>
     </row>
     <row customFormat="1" r="64" s="233">
-      <c r="A64" s="296" t="n"/>
+      <c r="A64" s="321" t="n"/>
       <c r="B64" s="230" t="n"/>
       <c r="C64" s="230" t="n"/>
-      <c r="D64" s="303" t="n"/>
-      <c r="E64" s="304" t="n"/>
+      <c r="D64" s="328" t="n"/>
+      <c r="E64" s="329" t="n"/>
       <c r="G64" s="234" t="n"/>
       <c r="H64" s="235" t="n"/>
       <c r="I64" s="179" t="n"/>
@@ -7387,11 +7407,11 @@
       <c r="M64" s="236" t="n"/>
     </row>
     <row customFormat="1" r="65" s="233">
-      <c r="A65" s="296" t="n"/>
+      <c r="A65" s="321" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
-      <c r="D65" s="303" t="n"/>
-      <c r="E65" s="304" t="n"/>
+      <c r="D65" s="328" t="n"/>
+      <c r="E65" s="329" t="n"/>
       <c r="G65" s="234" t="n"/>
       <c r="H65" s="235" t="n"/>
       <c r="I65" s="179" t="n"/>
@@ -7401,7 +7421,7 @@
       <c r="M65" s="236" t="n"/>
     </row>
     <row customFormat="1" r="66" s="233">
-      <c r="A66" s="296" t="n"/>
+      <c r="A66" s="321" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
       <c r="D66" s="231" t="n"/>
@@ -7415,7 +7435,7 @@
       <c r="M66" s="236" t="n"/>
     </row>
     <row customFormat="1" r="67" s="233">
-      <c r="A67" s="296" t="n"/>
+      <c r="A67" s="321" t="n"/>
       <c r="B67" s="230" t="n"/>
       <c r="C67" s="230" t="n"/>
       <c r="D67" s="231" t="n"/>
@@ -7429,7 +7449,7 @@
       <c r="M67" s="236" t="n"/>
     </row>
     <row customFormat="1" r="68" s="233">
-      <c r="A68" s="296" t="n"/>
+      <c r="A68" s="321" t="n"/>
       <c r="B68" s="230" t="n"/>
       <c r="C68" s="230" t="n"/>
       <c r="D68" s="231" t="n"/>
@@ -7443,7 +7463,7 @@
       <c r="M68" s="236" t="n"/>
     </row>
     <row customFormat="1" r="69" s="233">
-      <c r="A69" s="296" t="n"/>
+      <c r="A69" s="321" t="n"/>
       <c r="B69" s="230" t="n"/>
       <c r="C69" s="230" t="n"/>
       <c r="D69" s="231" t="n"/>
@@ -7457,7 +7477,7 @@
       <c r="M69" s="236" t="n"/>
     </row>
     <row customFormat="1" r="70" s="230">
-      <c r="A70" s="296" t="n"/>
+      <c r="A70" s="321" t="n"/>
       <c r="D70" s="231" t="n"/>
       <c r="E70" s="232" t="n"/>
       <c r="F70" s="233" t="n"/>
@@ -7469,7 +7489,7 @@
       <c r="M70" s="236" t="n"/>
     </row>
     <row customFormat="1" r="71" s="230">
-      <c r="A71" s="296" t="n"/>
+      <c r="A71" s="321" t="n"/>
       <c r="D71" s="231" t="n"/>
       <c r="E71" s="232" t="n"/>
       <c r="F71" s="233" t="n"/>
@@ -7481,7 +7501,7 @@
       <c r="M71" s="236" t="n"/>
     </row>
     <row customFormat="1" r="72" s="230">
-      <c r="A72" s="296" t="n"/>
+      <c r="A72" s="321" t="n"/>
       <c r="D72" s="231" t="n"/>
       <c r="E72" s="232" t="n"/>
       <c r="F72" s="233" t="n"/>
@@ -7512,7 +7532,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7547,137 +7566,137 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="237">
-      <c r="A1" s="238" t="inlineStr">
+      <c r="A1" s="330" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="239" t="n"/>
-      <c r="C1" s="239" t="n"/>
-      <c r="D1" s="239" t="n"/>
-      <c r="E1" s="239" t="n"/>
-      <c r="F1" s="239" t="n"/>
-      <c r="G1" s="239" t="n"/>
-      <c r="H1" s="239" t="n"/>
+      <c r="B1" s="312" t="n"/>
+      <c r="C1" s="312" t="n"/>
+      <c r="D1" s="312" t="n"/>
+      <c r="E1" s="312" t="n"/>
+      <c r="F1" s="312" t="n"/>
+      <c r="G1" s="312" t="n"/>
+      <c r="H1" s="312" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="237">
-      <c r="A2" s="240" t="inlineStr">
+      <c r="A2" s="331" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="241" t="n"/>
-      <c r="J2" s="241" t="n"/>
+      <c r="I2" s="242" t="n"/>
+      <c r="J2" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="237">
-      <c r="A3" s="242" t="inlineStr">
+      <c r="A3" s="332" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="243" t="n"/>
-      <c r="J3" s="243" t="n"/>
+      <c r="I3" s="259" t="n"/>
+      <c r="J3" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="237">
-      <c r="A4" s="244" t="inlineStr">
+      <c r="A4" s="333" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="245" t="inlineStr">
+      <c r="B4" s="334" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="246" t="n"/>
-      <c r="D4" s="246" t="n"/>
-      <c r="E4" s="246" t="n"/>
-      <c r="F4" s="246" t="n"/>
-      <c r="G4" s="246" t="n"/>
-      <c r="H4" s="247" t="n"/>
-      <c r="I4" s="241" t="n"/>
-      <c r="J4" s="241" t="n"/>
+      <c r="C4" s="335" t="n"/>
+      <c r="D4" s="335" t="n"/>
+      <c r="E4" s="335" t="n"/>
+      <c r="F4" s="335" t="n"/>
+      <c r="G4" s="335" t="n"/>
+      <c r="H4" s="336" t="n"/>
+      <c r="I4" s="242" t="n"/>
+      <c r="J4" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
-      <c r="A5" s="248" t="n"/>
-      <c r="B5" s="249" t="n"/>
-      <c r="H5" s="250" t="n"/>
-      <c r="I5" s="243" t="n"/>
-      <c r="J5" s="243" t="n"/>
+      <c r="A5" s="256" t="n"/>
+      <c r="B5" s="257" t="n"/>
+      <c r="H5" s="258" t="n"/>
+      <c r="I5" s="259" t="n"/>
+      <c r="J5" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
-      <c r="A6" s="248" t="n"/>
-      <c r="B6" s="249" t="n"/>
-      <c r="H6" s="250" t="n"/>
-      <c r="I6" s="243" t="n"/>
-      <c r="J6" s="243" t="n"/>
+      <c r="A6" s="256" t="n"/>
+      <c r="B6" s="257" t="n"/>
+      <c r="H6" s="258" t="n"/>
+      <c r="I6" s="259" t="n"/>
+      <c r="J6" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
-      <c r="A7" s="251" t="n"/>
-      <c r="B7" s="252" t="n"/>
-      <c r="C7" s="253" t="n"/>
-      <c r="D7" s="253" t="n"/>
-      <c r="E7" s="253" t="n"/>
-      <c r="F7" s="253" t="n"/>
-      <c r="G7" s="253" t="n"/>
-      <c r="H7" s="254" t="n"/>
-      <c r="I7" s="243" t="n"/>
-      <c r="J7" s="243" t="n"/>
+      <c r="A7" s="260" t="n"/>
+      <c r="B7" s="261" t="n"/>
+      <c r="C7" s="262" t="n"/>
+      <c r="D7" s="262" t="n"/>
+      <c r="E7" s="262" t="n"/>
+      <c r="F7" s="262" t="n"/>
+      <c r="G7" s="262" t="n"/>
+      <c r="H7" s="263" t="n"/>
+      <c r="I7" s="259" t="n"/>
+      <c r="J7" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
-      <c r="A8" s="255" t="inlineStr">
+      <c r="A8" s="337" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="256" t="n"/>
-      <c r="C8" s="256" t="n"/>
-      <c r="D8" s="256" t="n"/>
-      <c r="E8" s="256" t="n"/>
-      <c r="F8" s="256" t="n"/>
-      <c r="G8" s="256" t="n"/>
-      <c r="H8" s="257" t="n"/>
-      <c r="I8" s="243" t="n"/>
-      <c r="J8" s="243" t="n"/>
+      <c r="B8" s="296" t="n"/>
+      <c r="C8" s="296" t="n"/>
+      <c r="D8" s="296" t="n"/>
+      <c r="E8" s="296" t="n"/>
+      <c r="F8" s="296" t="n"/>
+      <c r="G8" s="296" t="n"/>
+      <c r="H8" s="297" t="n"/>
+      <c r="I8" s="259" t="n"/>
+      <c r="J8" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
-      <c r="A9" s="258" t="inlineStr">
+      <c r="A9" s="269" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="259" t="inlineStr">
+      <c r="B9" s="270" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="260" t="inlineStr">
+      <c r="C9" s="271" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="261" t="inlineStr">
+      <c r="D9" s="272" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="262" t="inlineStr">
+      <c r="E9" s="273" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="263" t="inlineStr">
+      <c r="F9" s="274" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="264" t="inlineStr">
+      <c r="G9" s="275" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="265" t="inlineStr">
+      <c r="H9" s="276" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -7690,21 +7709,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="237">
-      <c r="A10" s="266">
+      <c r="A10" s="277">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="267" t="inlineStr">
+      <c r="B10" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="267" t="inlineStr">
+      <c r="C10" s="278" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="268">
+      <c r="D10" s="279">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7723,21 +7742,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="237">
-      <c r="A11" s="266">
+      <c r="A11" s="277">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="269" t="inlineStr">
+      <c r="B11" s="280" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="270" t="inlineStr">
+      <c r="C11" s="281" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="271">
+      <c r="D11" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7764,21 +7783,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="237">
-      <c r="A12" s="266">
+      <c r="A12" s="277">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="267" t="inlineStr">
+      <c r="B12" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="272" t="inlineStr">
+      <c r="C12" s="283" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="271">
+      <c r="D12" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7809,21 +7828,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="237">
-      <c r="A13" s="266">
+      <c r="A13" s="277">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="269" t="inlineStr">
+      <c r="B13" s="280" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="269" t="inlineStr">
+      <c r="C13" s="280" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="271">
+      <c r="D13" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7848,21 +7867,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="237">
-      <c r="A14" s="266">
+      <c r="A14" s="277">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="269" t="inlineStr">
+      <c r="B14" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="269" t="inlineStr">
+      <c r="C14" s="280" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="271">
+      <c r="D14" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7884,24 +7903,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="241" t="n"/>
+      <c r="L14" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="237">
-      <c r="A15" s="266">
+      <c r="A15" s="277">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="269" t="inlineStr">
+      <c r="B15" s="280" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="269" t="inlineStr">
+      <c r="C15" s="280" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="271">
+      <c r="D15" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -7921,24 +7940,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="241" t="n"/>
+      <c r="L15" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="237">
-      <c r="A16" s="266">
+      <c r="A16" s="277">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="269" t="inlineStr">
+      <c r="B16" s="280" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="269" t="inlineStr">
+      <c r="C16" s="280" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="271">
+      <c r="D16" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -7958,24 +7977,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="241" t="n"/>
+      <c r="L16" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="237">
-      <c r="A17" s="266">
+      <c r="A17" s="277">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="269" t="inlineStr">
+      <c r="B17" s="280" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="269" t="inlineStr">
+      <c r="C17" s="280" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="271">
+      <c r="D17" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -7999,24 +8018,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="241" t="n"/>
+      <c r="L17" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="237">
-      <c r="A18" s="266">
+      <c r="A18" s="277">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="269" t="inlineStr">
+      <c r="B18" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="269" t="inlineStr">
+      <c r="C18" s="280" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="271">
+      <c r="D18" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8037,11 +8056,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
-      <c r="A19" s="273">
+      <c r="A19" s="284">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="274" t="inlineStr">
+      <c r="B19" s="285" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -8051,7 +8070,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="271">
+      <c r="D19" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8072,18 +8091,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
-      <c r="A20" s="275" t="inlineStr">
+      <c r="A20" s="295" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="256" t="n"/>
-      <c r="C20" s="256" t="n"/>
-      <c r="D20" s="256" t="n"/>
-      <c r="E20" s="256" t="n"/>
-      <c r="F20" s="256" t="n"/>
-      <c r="G20" s="256" t="n"/>
-      <c r="H20" s="257" t="n"/>
+      <c r="B20" s="296" t="n"/>
+      <c r="C20" s="296" t="n"/>
+      <c r="D20" s="296" t="n"/>
+      <c r="E20" s="296" t="n"/>
+      <c r="F20" s="296" t="n"/>
+      <c r="G20" s="296" t="n"/>
+      <c r="H20" s="297" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -8093,7 +8112,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="237">
-      <c r="A21" s="266">
+      <c r="A21" s="277">
         <f>J20</f>
         <v/>
       </c>
@@ -8107,7 +8126,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="276">
+      <c r="D21" s="289">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -8132,21 +8151,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="237">
-      <c r="A22" s="266">
+      <c r="A22" s="277">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="272" t="inlineStr">
+      <c r="B22" s="283" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="272" t="inlineStr">
+      <c r="C22" s="283" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="271">
+      <c r="D22" s="282">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -8179,21 +8198,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="237">
-      <c r="A23" s="266">
+      <c r="A23" s="277">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="272" t="inlineStr">
+      <c r="B23" s="283" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="269" t="inlineStr">
+      <c r="C23" s="280" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="271">
+      <c r="D23" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8216,17 +8235,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
-      <c r="A24" s="277">
+      <c r="A24" s="290">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="278" t="inlineStr">
+      <c r="B24" s="291" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="279">
+      <c r="D24" s="292">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8249,18 +8268,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
-      <c r="A25" s="275" t="inlineStr">
+      <c r="A25" s="295" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="256" t="n"/>
-      <c r="C25" s="256" t="n"/>
-      <c r="D25" s="256" t="n"/>
-      <c r="E25" s="256" t="n"/>
-      <c r="F25" s="256" t="n"/>
-      <c r="G25" s="256" t="n"/>
-      <c r="H25" s="257" t="n"/>
+      <c r="B25" s="296" t="n"/>
+      <c r="C25" s="296" t="n"/>
+      <c r="D25" s="296" t="n"/>
+      <c r="E25" s="296" t="n"/>
+      <c r="F25" s="296" t="n"/>
+      <c r="G25" s="296" t="n"/>
+      <c r="H25" s="297" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -8269,10 +8288,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="241" t="n"/>
+      <c r="L25" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="237">
-      <c r="A26" s="266">
+      <c r="A26" s="277">
         <f>J25</f>
         <v/>
       </c>
@@ -8286,7 +8305,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="276">
+      <c r="D26" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8308,24 +8327,24 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="241" t="n"/>
+      <c r="L26" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="237">
-      <c r="A27" s="266">
+      <c r="A27" s="277">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="269" t="inlineStr">
+      <c r="B27" s="280" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="280" t="inlineStr">
+      <c r="C27" s="293" t="inlineStr">
         <is>
           <t>Ice Breaker</t>
         </is>
       </c>
-      <c r="D27" s="281">
+      <c r="D27" s="294">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -8357,10 +8376,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="241" t="n"/>
+      <c r="L27" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="237">
-      <c r="A28" s="266">
+      <c r="A28" s="277">
         <f>J27</f>
         <v/>
       </c>
@@ -8374,7 +8393,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="281">
+      <c r="D28" s="294">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8396,24 +8415,24 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="241" t="n"/>
+      <c r="L28" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="29" s="237">
-      <c r="A29" s="266">
+      <c r="A29" s="277">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="269" t="inlineStr">
+      <c r="B29" s="280" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="280" t="inlineStr">
+      <c r="C29" s="293" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D29" s="330">
+      <c r="D29" s="338">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -8445,10 +8464,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="241" t="n"/>
+      <c r="L29" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="30" s="237">
-      <c r="A30" s="266">
+      <c r="A30" s="277">
         <f>J29</f>
         <v/>
       </c>
@@ -8462,7 +8481,7 @@
           <t>Introduce the 3nd Speaker</t>
         </is>
       </c>
-      <c r="D30" s="281">
+      <c r="D30" s="294">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8484,24 +8503,24 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="241" t="n"/>
+      <c r="L30" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="31" s="237" thickBot="1">
-      <c r="A31" s="266">
+      <c r="A31" s="277">
         <f>J30</f>
         <v/>
       </c>
-      <c r="B31" s="269" t="inlineStr">
+      <c r="B31" s="280" t="inlineStr">
         <is>
           <t>Prepared Speaker3</t>
         </is>
       </c>
-      <c r="C31" s="280" t="inlineStr">
+      <c r="C31" s="293" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D31" s="330">
+      <c r="D31" s="338">
         <f>Roles!B13</f>
         <v/>
       </c>
@@ -8533,31 +8552,31 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="241" t="n"/>
+      <c r="L31" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="237" thickBot="1">
-      <c r="A32" s="275" t="inlineStr">
+      <c r="A32" s="295" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B32" s="256" t="n"/>
-      <c r="C32" s="256" t="n"/>
-      <c r="D32" s="256" t="n"/>
-      <c r="E32" s="256" t="n"/>
-      <c r="F32" s="256" t="n"/>
-      <c r="G32" s="256" t="n"/>
-      <c r="H32" s="257" t="n"/>
+      <c r="B32" s="296" t="n"/>
+      <c r="C32" s="296" t="n"/>
+      <c r="D32" s="296" t="n"/>
+      <c r="E32" s="296" t="n"/>
+      <c r="F32" s="296" t="n"/>
+      <c r="G32" s="296" t="n"/>
+      <c r="H32" s="297" t="n"/>
       <c r="I32" s="37" t="n"/>
       <c r="J32" s="36">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="241" t="n"/>
+      <c r="L32" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="237">
-      <c r="A33" s="266">
+      <c r="A33" s="277">
         <f>J32</f>
         <v/>
       </c>
@@ -8571,7 +8590,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D33" s="276">
+      <c r="D33" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8593,10 +8612,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="241" t="n"/>
+      <c r="L33" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="237">
-      <c r="A34" s="266">
+      <c r="A34" s="277">
         <f>J33</f>
         <v/>
       </c>
@@ -8610,11 +8629,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D34" s="276">
+      <c r="D34" s="289">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E34" s="282" t="inlineStr">
+      <c r="E34" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8636,10 +8655,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="241" t="n"/>
+      <c r="L34" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="237">
-      <c r="A35" s="266">
+      <c r="A35" s="277">
         <f>J34</f>
         <v/>
       </c>
@@ -8653,11 +8672,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D35" s="276">
+      <c r="D35" s="289">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E35" s="282" t="inlineStr">
+      <c r="E35" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8679,10 +8698,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="241" t="n"/>
+      <c r="L35" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="237">
-      <c r="A36" s="266">
+      <c r="A36" s="277">
         <f>J35</f>
         <v/>
       </c>
@@ -8696,11 +8715,11 @@
           <t>Evaluate the 3rd speaker</t>
         </is>
       </c>
-      <c r="D36" s="276">
+      <c r="D36" s="289">
         <f>Roles!B17</f>
         <v/>
       </c>
-      <c r="E36" s="282" t="inlineStr">
+      <c r="E36" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8722,10 +8741,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="241" t="n"/>
+      <c r="L36" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="237">
-      <c r="A37" s="266">
+      <c r="A37" s="277">
         <f>J36</f>
         <v/>
       </c>
@@ -8739,7 +8758,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D37" s="271">
+      <c r="D37" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -8763,10 +8782,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="283" t="n"/>
+      <c r="L37" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="237">
-      <c r="A38" s="266">
+      <c r="A38" s="277">
         <f>J37</f>
         <v/>
       </c>
@@ -8780,7 +8799,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D38" s="271">
+      <c r="D38" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -8806,10 +8825,10 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="283" t="n"/>
+      <c r="L38" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="237">
-      <c r="A39" s="266">
+      <c r="A39" s="277">
         <f>J38</f>
         <v/>
       </c>
@@ -8823,7 +8842,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D39" s="271">
+      <c r="D39" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -8847,14 +8866,14 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="283" t="n"/>
+      <c r="L39" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="237">
-      <c r="A40" s="266">
+      <c r="A40" s="277">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="267" t="inlineStr">
+      <c r="B40" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -8864,7 +8883,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D40" s="271">
+      <c r="D40" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -8884,24 +8903,24 @@
         <v/>
       </c>
       <c r="K40" s="36" t="n"/>
-      <c r="L40" s="283" t="n"/>
+      <c r="L40" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="41" s="237">
-      <c r="A41" s="266">
+      <c r="A41" s="277">
         <f>J40</f>
         <v/>
       </c>
-      <c r="B41" s="269" t="inlineStr">
+      <c r="B41" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C41" s="269" t="inlineStr">
+      <c r="C41" s="280" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D41" s="271">
+      <c r="D41" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8933,24 +8952,24 @@
         <v/>
       </c>
       <c r="K41" s="36" t="n"/>
-      <c r="L41" s="283" t="n"/>
+      <c r="L41" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="42" s="237" thickBot="1">
-      <c r="A42" s="284">
+      <c r="A42" s="308">
         <f>J41</f>
         <v/>
       </c>
-      <c r="B42" s="272" t="inlineStr">
+      <c r="B42" s="283" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C42" s="269" t="inlineStr">
+      <c r="C42" s="280" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D42" s="271">
+      <c r="D42" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8982,24 +9001,24 @@
         <v/>
       </c>
       <c r="K42" s="36" t="n"/>
-      <c r="L42" s="283" t="n"/>
+      <c r="L42" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="43" s="237" thickBot="1">
-      <c r="A43" s="284">
+      <c r="A43" s="308">
         <f>J42</f>
         <v/>
       </c>
-      <c r="B43" s="285" t="inlineStr">
+      <c r="B43" s="309" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C43" s="286" t="inlineStr">
+      <c r="C43" s="310" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D43" s="271">
+      <c r="D43" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -9024,21 +9043,21 @@
       <c r="L43" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="44" s="237">
-      <c r="A44" s="287" t="n"/>
-      <c r="B44" s="239" t="n"/>
-      <c r="C44" s="239" t="n"/>
-      <c r="D44" s="239" t="n"/>
+      <c r="A44" s="311" t="n"/>
+      <c r="B44" s="312" t="n"/>
+      <c r="C44" s="312" t="n"/>
+      <c r="D44" s="312" t="n"/>
       <c r="E44" s="236" t="n"/>
-      <c r="F44" s="288" t="n"/>
-      <c r="G44" s="289" t="n"/>
-      <c r="H44" s="290" t="n"/>
+      <c r="F44" s="313" t="n"/>
+      <c r="G44" s="314" t="n"/>
+      <c r="H44" s="315" t="n"/>
       <c r="I44" s="39" t="n"/>
       <c r="J44" s="39" t="n"/>
       <c r="K44" s="39" t="n"/>
       <c r="L44" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="45" s="237">
-      <c r="A45" s="291" t="inlineStr">
+      <c r="A45" s="316" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -9048,18 +9067,18 @@
 </t>
         </is>
       </c>
-      <c r="D45" s="292" t="n"/>
+      <c r="D45" s="317" t="n"/>
       <c r="I45" s="39" t="n"/>
-      <c r="J45" s="293" t="inlineStr">
+      <c r="J45" s="318" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K45" s="294" t="n"/>
+      <c r="K45" s="319" t="n"/>
       <c r="L45" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="46" s="237">
-      <c r="A46" s="295" t="inlineStr">
+      <c r="A46" s="320" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -9070,91 +9089,91 @@
         </is>
       </c>
       <c r="I46" s="39" t="n"/>
-      <c r="J46" s="293" t="n"/>
+      <c r="J46" s="318" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="237">
-      <c r="A47" s="296" t="n"/>
+      <c r="A47" s="321" t="n"/>
       <c r="B47" s="236" t="n"/>
-      <c r="D47" s="297" t="n"/>
-      <c r="E47" s="298" t="n"/>
-      <c r="F47" s="298" t="n"/>
-      <c r="G47" s="298" t="n"/>
-      <c r="H47" s="298" t="n"/>
+      <c r="D47" s="322" t="n"/>
+      <c r="E47" s="323" t="n"/>
+      <c r="F47" s="323" t="n"/>
+      <c r="G47" s="323" t="n"/>
+      <c r="H47" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="237">
-      <c r="A48" s="296" t="n"/>
+      <c r="A48" s="321" t="n"/>
       <c r="B48" s="236" t="n"/>
       <c r="C48" s="236" t="n"/>
-      <c r="D48" s="297" t="n"/>
-      <c r="F48" s="298" t="n"/>
-      <c r="G48" s="298" t="n"/>
-      <c r="H48" s="298" t="n"/>
+      <c r="D48" s="322" t="n"/>
+      <c r="F48" s="323" t="n"/>
+      <c r="G48" s="323" t="n"/>
+      <c r="H48" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="49" s="237">
-      <c r="A49" s="296" t="n"/>
+      <c r="A49" s="321" t="n"/>
       <c r="B49" s="236" t="n"/>
       <c r="C49" s="236" t="n"/>
-      <c r="D49" s="299" t="n"/>
-      <c r="E49" s="300" t="n"/>
-      <c r="F49" s="301" t="n"/>
-      <c r="G49" s="302" t="n"/>
+      <c r="D49" s="324" t="n"/>
+      <c r="E49" s="325" t="n"/>
+      <c r="F49" s="326" t="n"/>
+      <c r="G49" s="327" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="50" s="237">
-      <c r="A50" s="296" t="n"/>
+      <c r="A50" s="321" t="n"/>
       <c r="B50" s="236" t="n"/>
-      <c r="D50" s="303" t="n"/>
-      <c r="E50" s="304" t="n"/>
+      <c r="D50" s="328" t="n"/>
+      <c r="E50" s="329" t="n"/>
       <c r="L50" s="179" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="51" s="237">
-      <c r="A51" s="296" t="n"/>
+      <c r="A51" s="321" t="n"/>
       <c r="B51" s="236" t="n"/>
-      <c r="D51" s="303" t="n"/>
-      <c r="E51" s="304" t="n"/>
+      <c r="D51" s="328" t="n"/>
+      <c r="E51" s="329" t="n"/>
       <c r="L51" s="179" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="296" t="n"/>
+      <c r="A52" s="321" t="n"/>
       <c r="B52" s="236" t="n"/>
-      <c r="D52" s="303" t="n"/>
-      <c r="E52" s="304" t="n"/>
+      <c r="D52" s="328" t="n"/>
+      <c r="E52" s="329" t="n"/>
       <c r="L52" s="179" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="296" t="n"/>
+      <c r="A53" s="321" t="n"/>
       <c r="B53" s="236" t="n"/>
       <c r="C53" s="236" t="n"/>
-      <c r="D53" s="303" t="n"/>
-      <c r="E53" s="304" t="n"/>
+      <c r="D53" s="328" t="n"/>
+      <c r="E53" s="329" t="n"/>
       <c r="L53" s="179" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="296" t="n"/>
+      <c r="A54" s="321" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
-      <c r="D54" s="303" t="n"/>
-      <c r="E54" s="304" t="n"/>
+      <c r="D54" s="328" t="n"/>
+      <c r="E54" s="329" t="n"/>
       <c r="L54" s="179" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="296" t="n"/>
+      <c r="A55" s="321" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="236" t="n"/>
-      <c r="E55" s="304" t="n"/>
+      <c r="E55" s="329" t="n"/>
       <c r="L55" s="179" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="296" t="n"/>
+      <c r="A56" s="321" t="n"/>
       <c r="B56" s="236" t="n"/>
-      <c r="D56" s="303" t="n"/>
-      <c r="E56" s="304" t="n"/>
+      <c r="D56" s="328" t="n"/>
+      <c r="E56" s="329" t="n"/>
     </row>
     <row customFormat="1" r="57" s="233">
-      <c r="A57" s="296" t="n"/>
+      <c r="A57" s="321" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
-      <c r="D57" s="303" t="n"/>
-      <c r="E57" s="304" t="n"/>
+      <c r="D57" s="328" t="n"/>
+      <c r="E57" s="329" t="n"/>
       <c r="G57" s="234" t="n"/>
       <c r="H57" s="235" t="n"/>
       <c r="I57" s="179" t="n"/>
@@ -9164,11 +9183,11 @@
       <c r="M57" s="236" t="n"/>
     </row>
     <row customFormat="1" r="58" s="233">
-      <c r="A58" s="296" t="n"/>
+      <c r="A58" s="321" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="230" t="n"/>
-      <c r="D58" s="303" t="n"/>
-      <c r="E58" s="304" t="n"/>
+      <c r="D58" s="328" t="n"/>
+      <c r="E58" s="329" t="n"/>
       <c r="G58" s="234" t="n"/>
       <c r="H58" s="235" t="n"/>
       <c r="I58" s="179" t="n"/>
@@ -9178,11 +9197,11 @@
       <c r="M58" s="236" t="n"/>
     </row>
     <row customFormat="1" r="59" s="233">
-      <c r="A59" s="296" t="n"/>
+      <c r="A59" s="321" t="n"/>
       <c r="B59" s="236" t="n"/>
       <c r="C59" s="236" t="n"/>
-      <c r="D59" s="303" t="n"/>
-      <c r="E59" s="304" t="n"/>
+      <c r="D59" s="328" t="n"/>
+      <c r="E59" s="329" t="n"/>
       <c r="G59" s="234" t="n"/>
       <c r="H59" s="235" t="n"/>
       <c r="I59" s="179" t="n"/>
@@ -9192,11 +9211,11 @@
       <c r="M59" s="236" t="n"/>
     </row>
     <row customFormat="1" r="60" s="233">
-      <c r="A60" s="296" t="n"/>
+      <c r="A60" s="321" t="n"/>
       <c r="B60" s="236" t="n"/>
       <c r="C60" s="236" t="n"/>
-      <c r="D60" s="303" t="n"/>
-      <c r="E60" s="304" t="n"/>
+      <c r="D60" s="328" t="n"/>
+      <c r="E60" s="329" t="n"/>
       <c r="G60" s="234" t="n"/>
       <c r="H60" s="235" t="n"/>
       <c r="I60" s="179" t="n"/>
@@ -9206,11 +9225,11 @@
       <c r="M60" s="236" t="n"/>
     </row>
     <row customFormat="1" r="61" s="233">
-      <c r="A61" s="296" t="n"/>
+      <c r="A61" s="321" t="n"/>
       <c r="B61" s="236" t="n"/>
       <c r="C61" s="236" t="n"/>
-      <c r="D61" s="303" t="n"/>
-      <c r="E61" s="304" t="n"/>
+      <c r="D61" s="328" t="n"/>
+      <c r="E61" s="329" t="n"/>
       <c r="G61" s="234" t="n"/>
       <c r="H61" s="235" t="n"/>
       <c r="I61" s="179" t="n"/>
@@ -9220,11 +9239,11 @@
       <c r="M61" s="236" t="n"/>
     </row>
     <row customFormat="1" r="62" s="233">
-      <c r="A62" s="296" t="n"/>
+      <c r="A62" s="321" t="n"/>
       <c r="B62" s="236" t="n"/>
       <c r="C62" s="236" t="n"/>
-      <c r="D62" s="303" t="n"/>
-      <c r="E62" s="304" t="n"/>
+      <c r="D62" s="328" t="n"/>
+      <c r="E62" s="329" t="n"/>
       <c r="G62" s="234" t="n"/>
       <c r="H62" s="235" t="n"/>
       <c r="I62" s="179" t="n"/>
@@ -9234,11 +9253,11 @@
       <c r="M62" s="236" t="n"/>
     </row>
     <row customFormat="1" r="63" s="233">
-      <c r="A63" s="296" t="n"/>
+      <c r="A63" s="321" t="n"/>
       <c r="B63" s="236" t="n"/>
       <c r="C63" s="236" t="n"/>
-      <c r="D63" s="303" t="n"/>
-      <c r="E63" s="304" t="n"/>
+      <c r="D63" s="328" t="n"/>
+      <c r="E63" s="329" t="n"/>
       <c r="G63" s="234" t="n"/>
       <c r="H63" s="235" t="n"/>
       <c r="I63" s="179" t="n"/>
@@ -9248,11 +9267,11 @@
       <c r="M63" s="236" t="n"/>
     </row>
     <row customFormat="1" r="64" s="233">
-      <c r="A64" s="296" t="n"/>
+      <c r="A64" s="321" t="n"/>
       <c r="B64" s="236" t="n"/>
       <c r="C64" s="236" t="n"/>
-      <c r="D64" s="303" t="n"/>
-      <c r="E64" s="304" t="n"/>
+      <c r="D64" s="328" t="n"/>
+      <c r="E64" s="329" t="n"/>
       <c r="G64" s="234" t="n"/>
       <c r="H64" s="235" t="n"/>
       <c r="I64" s="179" t="n"/>
@@ -9262,11 +9281,11 @@
       <c r="M64" s="236" t="n"/>
     </row>
     <row customFormat="1" r="65" s="233">
-      <c r="A65" s="296" t="n"/>
+      <c r="A65" s="321" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
-      <c r="D65" s="303" t="n"/>
-      <c r="E65" s="304" t="n"/>
+      <c r="D65" s="328" t="n"/>
+      <c r="E65" s="329" t="n"/>
       <c r="G65" s="234" t="n"/>
       <c r="H65" s="235" t="n"/>
       <c r="I65" s="179" t="n"/>
@@ -9276,11 +9295,11 @@
       <c r="M65" s="236" t="n"/>
     </row>
     <row customFormat="1" r="66" s="233">
-      <c r="A66" s="296" t="n"/>
+      <c r="A66" s="321" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
-      <c r="D66" s="303" t="n"/>
-      <c r="E66" s="304" t="n"/>
+      <c r="D66" s="328" t="n"/>
+      <c r="E66" s="329" t="n"/>
       <c r="G66" s="234" t="n"/>
       <c r="H66" s="235" t="n"/>
       <c r="I66" s="179" t="n"/>
@@ -9290,11 +9309,11 @@
       <c r="M66" s="236" t="n"/>
     </row>
     <row customFormat="1" r="67" s="233">
-      <c r="A67" s="296" t="n"/>
+      <c r="A67" s="321" t="n"/>
       <c r="B67" s="230" t="n"/>
       <c r="C67" s="230" t="n"/>
-      <c r="D67" s="303" t="n"/>
-      <c r="E67" s="304" t="n"/>
+      <c r="D67" s="328" t="n"/>
+      <c r="E67" s="329" t="n"/>
       <c r="G67" s="234" t="n"/>
       <c r="H67" s="235" t="n"/>
       <c r="I67" s="179" t="n"/>
@@ -9304,11 +9323,11 @@
       <c r="M67" s="236" t="n"/>
     </row>
     <row customFormat="1" r="68" s="233">
-      <c r="A68" s="296" t="n"/>
+      <c r="A68" s="321" t="n"/>
       <c r="B68" s="230" t="n"/>
       <c r="C68" s="230" t="n"/>
-      <c r="D68" s="303" t="n"/>
-      <c r="E68" s="304" t="n"/>
+      <c r="D68" s="328" t="n"/>
+      <c r="E68" s="329" t="n"/>
       <c r="G68" s="234" t="n"/>
       <c r="H68" s="235" t="n"/>
       <c r="I68" s="179" t="n"/>
@@ -9318,7 +9337,7 @@
       <c r="M68" s="236" t="n"/>
     </row>
     <row customFormat="1" r="69" s="233">
-      <c r="A69" s="296" t="n"/>
+      <c r="A69" s="321" t="n"/>
       <c r="B69" s="230" t="n"/>
       <c r="C69" s="230" t="n"/>
       <c r="D69" s="231" t="n"/>
@@ -9332,7 +9351,7 @@
       <c r="M69" s="236" t="n"/>
     </row>
     <row customFormat="1" r="70" s="233">
-      <c r="A70" s="296" t="n"/>
+      <c r="A70" s="321" t="n"/>
       <c r="B70" s="230" t="n"/>
       <c r="C70" s="230" t="n"/>
       <c r="D70" s="231" t="n"/>
@@ -9346,7 +9365,7 @@
       <c r="M70" s="236" t="n"/>
     </row>
     <row customFormat="1" r="71" s="233">
-      <c r="A71" s="296" t="n"/>
+      <c r="A71" s="321" t="n"/>
       <c r="B71" s="230" t="n"/>
       <c r="C71" s="230" t="n"/>
       <c r="D71" s="231" t="n"/>
@@ -9360,7 +9379,7 @@
       <c r="M71" s="236" t="n"/>
     </row>
     <row customFormat="1" r="72" s="233">
-      <c r="A72" s="296" t="n"/>
+      <c r="A72" s="321" t="n"/>
       <c r="B72" s="230" t="n"/>
       <c r="C72" s="230" t="n"/>
       <c r="D72" s="231" t="n"/>
@@ -9374,7 +9393,7 @@
       <c r="M72" s="236" t="n"/>
     </row>
     <row customFormat="1" r="73" s="230">
-      <c r="A73" s="296" t="n"/>
+      <c r="A73" s="321" t="n"/>
       <c r="D73" s="231" t="n"/>
       <c r="E73" s="232" t="n"/>
       <c r="F73" s="233" t="n"/>
@@ -9386,7 +9405,7 @@
       <c r="M73" s="236" t="n"/>
     </row>
     <row customFormat="1" r="74" s="230">
-      <c r="A74" s="296" t="n"/>
+      <c r="A74" s="321" t="n"/>
       <c r="D74" s="231" t="n"/>
       <c r="E74" s="232" t="n"/>
       <c r="F74" s="233" t="n"/>
@@ -9398,7 +9417,7 @@
       <c r="M74" s="236" t="n"/>
     </row>
     <row customFormat="1" r="75" s="230">
-      <c r="A75" s="296" t="n"/>
+      <c r="A75" s="321" t="n"/>
       <c r="D75" s="231" t="n"/>
       <c r="E75" s="232" t="n"/>
       <c r="F75" s="233" t="n"/>
@@ -9463,18 +9482,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="237">
-      <c r="A1" s="238" t="inlineStr">
+      <c r="A1" s="330" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="239" t="n"/>
-      <c r="C1" s="239" t="n"/>
-      <c r="D1" s="239" t="n"/>
-      <c r="E1" s="239" t="n"/>
-      <c r="F1" s="239" t="n"/>
-      <c r="G1" s="239" t="n"/>
-      <c r="H1" s="239" t="n"/>
+      <c r="B1" s="312" t="n"/>
+      <c r="C1" s="312" t="n"/>
+      <c r="D1" s="312" t="n"/>
+      <c r="E1" s="312" t="n"/>
+      <c r="F1" s="312" t="n"/>
+      <c r="G1" s="312" t="n"/>
+      <c r="H1" s="312" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="237">
       <c r="A2" s="339" t="inlineStr">
@@ -9482,8 +9501,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="241" t="n"/>
-      <c r="J2" s="241" t="n"/>
+      <c r="I2" s="242" t="n"/>
+      <c r="J2" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="237">
       <c r="A3" s="340" t="inlineStr">
@@ -9498,8 +9517,8 @@
       <c r="F3" s="341" t="n"/>
       <c r="G3" s="341" t="n"/>
       <c r="H3" s="341" t="n"/>
-      <c r="I3" s="243" t="n"/>
-      <c r="J3" s="243" t="n"/>
+      <c r="I3" s="259" t="n"/>
+      <c r="J3" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="237">
       <c r="A4" s="342" t="inlineStr">
@@ -9518,13 +9537,13 @@
       <c r="F4" s="344" t="n"/>
       <c r="G4" s="344" t="n"/>
       <c r="H4" s="344" t="n"/>
-      <c r="I4" s="241" t="n"/>
-      <c r="J4" s="241" t="n"/>
+      <c r="I4" s="242" t="n"/>
+      <c r="J4" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
       <c r="A5" s="345" t="n"/>
-      <c r="I5" s="243" t="n"/>
-      <c r="J5" s="243" t="n"/>
+      <c r="I5" s="259" t="n"/>
+      <c r="J5" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
       <c r="A6" s="342" t="inlineStr">
@@ -9543,29 +9562,29 @@
       <c r="F6" s="344" t="n"/>
       <c r="G6" s="344" t="n"/>
       <c r="H6" s="344" t="n"/>
-      <c r="I6" s="243" t="n"/>
-      <c r="J6" s="243" t="n"/>
+      <c r="I6" s="259" t="n"/>
+      <c r="J6" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
       <c r="A7" s="345" t="n"/>
-      <c r="I7" s="243" t="n"/>
-      <c r="J7" s="243" t="n"/>
+      <c r="I7" s="259" t="n"/>
+      <c r="J7" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
-      <c r="A8" s="255" t="inlineStr">
+      <c r="A8" s="337" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="256" t="n"/>
-      <c r="C8" s="256" t="n"/>
-      <c r="D8" s="256" t="n"/>
-      <c r="E8" s="256" t="n"/>
-      <c r="F8" s="256" t="n"/>
-      <c r="G8" s="256" t="n"/>
-      <c r="H8" s="257" t="n"/>
-      <c r="I8" s="243" t="n"/>
-      <c r="J8" s="243" t="n"/>
+      <c r="B8" s="296" t="n"/>
+      <c r="C8" s="296" t="n"/>
+      <c r="D8" s="296" t="n"/>
+      <c r="E8" s="296" t="n"/>
+      <c r="F8" s="296" t="n"/>
+      <c r="G8" s="296" t="n"/>
+      <c r="H8" s="297" t="n"/>
+      <c r="I8" s="259" t="n"/>
+      <c r="J8" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
       <c r="A9" s="346" t="inlineStr">
@@ -9583,28 +9602,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="261" t="inlineStr">
+      <c r="D9" s="272" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="262" t="inlineStr">
+      <c r="E9" s="273" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="263" t="inlineStr">
+      <c r="F9" s="274" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="264" t="inlineStr">
+      <c r="G9" s="275" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="265" t="inlineStr">
+      <c r="H9" s="276" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -9617,7 +9636,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="237">
-      <c r="A10" s="266">
+      <c r="A10" s="277">
         <f>J9</f>
         <v/>
       </c>
@@ -9631,7 +9650,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="268">
+      <c r="D10" s="279">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -9650,7 +9669,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="237">
-      <c r="A11" s="266">
+      <c r="A11" s="277">
         <f>J10</f>
         <v/>
       </c>
@@ -9664,7 +9683,7 @@
           <t>会议开场</t>
         </is>
       </c>
-      <c r="D11" s="271">
+      <c r="D11" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -9691,7 +9710,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="237">
-      <c r="A12" s="266">
+      <c r="A12" s="277">
         <f>J11</f>
         <v/>
       </c>
@@ -9705,7 +9724,7 @@
           <t>欢迎</t>
         </is>
       </c>
-      <c r="D12" s="271">
+      <c r="D12" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -9736,7 +9755,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="237">
-      <c r="A13" s="266">
+      <c r="A13" s="277">
         <f>J12</f>
         <v/>
       </c>
@@ -9750,7 +9769,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="271">
+      <c r="D13" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9775,7 +9794,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="237">
-      <c r="A14" s="266">
+      <c r="A14" s="277">
         <f>J13</f>
         <v/>
       </c>
@@ -9789,7 +9808,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="271">
+      <c r="D14" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9811,10 +9830,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="241" t="n"/>
+      <c r="L14" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="237">
-      <c r="A15" s="266">
+      <c r="A15" s="277">
         <f>J14</f>
         <v/>
       </c>
@@ -9828,7 +9847,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="271">
+      <c r="D15" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -9848,10 +9867,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="241" t="n"/>
+      <c r="L15" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="237">
-      <c r="A16" s="266">
+      <c r="A16" s="277">
         <f>J15</f>
         <v/>
       </c>
@@ -9865,7 +9884,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="271">
+      <c r="D16" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -9885,10 +9904,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="241" t="n"/>
+      <c r="L16" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="237">
-      <c r="A17" s="266">
+      <c r="A17" s="277">
         <f>J16</f>
         <v/>
       </c>
@@ -9902,7 +9921,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="271">
+      <c r="D17" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -9926,10 +9945,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="241" t="n"/>
+      <c r="L17" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="237">
-      <c r="A18" s="266">
+      <c r="A18" s="277">
         <f>J17</f>
         <v/>
       </c>
@@ -9943,7 +9962,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="271">
+      <c r="D18" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9964,7 +9983,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
-      <c r="A19" s="273">
+      <c r="A19" s="284">
         <f>J18</f>
         <v/>
       </c>
@@ -9978,7 +9997,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="271">
+      <c r="D19" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9999,18 +10018,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
-      <c r="A20" s="275" t="inlineStr">
+      <c r="A20" s="295" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="256" t="n"/>
-      <c r="C20" s="256" t="n"/>
-      <c r="D20" s="256" t="n"/>
-      <c r="E20" s="256" t="n"/>
-      <c r="F20" s="256" t="n"/>
-      <c r="G20" s="256" t="n"/>
-      <c r="H20" s="257" t="n"/>
+      <c r="B20" s="296" t="n"/>
+      <c r="C20" s="296" t="n"/>
+      <c r="D20" s="296" t="n"/>
+      <c r="E20" s="296" t="n"/>
+      <c r="F20" s="296" t="n"/>
+      <c r="G20" s="296" t="n"/>
+      <c r="H20" s="297" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -10020,7 +10039,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="237">
-      <c r="A21" s="266">
+      <c r="A21" s="277">
         <f>J20</f>
         <v/>
       </c>
@@ -10034,7 +10053,7 @@
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="276">
+      <c r="D21" s="289">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -10059,7 +10078,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="237">
-      <c r="A22" s="266">
+      <c r="A22" s="277">
         <f>J21</f>
         <v/>
       </c>
@@ -10073,7 +10092,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="271">
+      <c r="D22" s="282">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -10106,7 +10125,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="237">
-      <c r="A23" s="266">
+      <c r="A23" s="277">
         <f>J22</f>
         <v/>
       </c>
@@ -10120,7 +10139,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="271">
+      <c r="D23" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10143,7 +10162,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
-      <c r="A24" s="277">
+      <c r="A24" s="290">
         <f>J23</f>
         <v/>
       </c>
@@ -10157,7 +10176,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="279">
+      <c r="D24" s="292">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10180,18 +10199,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
-      <c r="A25" s="275" t="inlineStr">
+      <c r="A25" s="295" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="256" t="n"/>
-      <c r="C25" s="256" t="n"/>
-      <c r="D25" s="256" t="n"/>
-      <c r="E25" s="256" t="n"/>
-      <c r="F25" s="256" t="n"/>
-      <c r="G25" s="256" t="n"/>
-      <c r="H25" s="257" t="n"/>
+      <c r="B25" s="296" t="n"/>
+      <c r="C25" s="296" t="n"/>
+      <c r="D25" s="296" t="n"/>
+      <c r="E25" s="296" t="n"/>
+      <c r="F25" s="296" t="n"/>
+      <c r="G25" s="296" t="n"/>
+      <c r="H25" s="297" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -10200,10 +10219,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="241" t="n"/>
+      <c r="L25" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="237">
-      <c r="A26" s="266">
+      <c r="A26" s="277">
         <f>J25</f>
         <v/>
       </c>
@@ -10217,7 +10236,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="276">
+      <c r="D26" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10239,10 +10258,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="241" t="n"/>
+      <c r="L26" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="237" thickBot="1">
-      <c r="A27" s="266">
+      <c r="A27" s="277">
         <f>J26</f>
         <v/>
       </c>
@@ -10257,7 +10276,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="281">
+      <c r="D27" s="294">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -10289,31 +10308,31 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="241" t="n"/>
+      <c r="L27" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="237" thickBot="1">
-      <c r="A28" s="275" t="inlineStr">
+      <c r="A28" s="295" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B28" s="256" t="n"/>
-      <c r="C28" s="256" t="n"/>
-      <c r="D28" s="256" t="n"/>
-      <c r="E28" s="256" t="n"/>
-      <c r="F28" s="256" t="n"/>
-      <c r="G28" s="256" t="n"/>
-      <c r="H28" s="257" t="n"/>
+      <c r="B28" s="296" t="n"/>
+      <c r="C28" s="296" t="n"/>
+      <c r="D28" s="296" t="n"/>
+      <c r="E28" s="296" t="n"/>
+      <c r="F28" s="296" t="n"/>
+      <c r="G28" s="296" t="n"/>
+      <c r="H28" s="297" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="241" t="n"/>
+      <c r="L28" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="237">
-      <c r="A29" s="266">
+      <c r="A29" s="277">
         <f>J28</f>
         <v/>
       </c>
@@ -10327,7 +10346,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D29" s="276">
+      <c r="D29" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10349,10 +10368,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="241" t="n"/>
+      <c r="L29" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="237">
-      <c r="A30" s="266">
+      <c r="A30" s="277">
         <f>J29</f>
         <v/>
       </c>
@@ -10366,11 +10385,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D30" s="276">
+      <c r="D30" s="289">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="282" t="inlineStr">
+      <c r="E30" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -10392,10 +10411,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="241" t="n"/>
+      <c r="L30" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="237">
-      <c r="A31" s="266">
+      <c r="A31" s="277">
         <f>J30</f>
         <v/>
       </c>
@@ -10409,7 +10428,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D31" s="271">
+      <c r="D31" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -10433,10 +10452,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="283" t="n"/>
+      <c r="L31" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="237">
-      <c r="A32" s="266">
+      <c r="A32" s="277">
         <f>J31</f>
         <v/>
       </c>
@@ -10450,7 +10469,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D32" s="271">
+      <c r="D32" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -10476,10 +10495,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="283" t="n"/>
+      <c r="L32" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="237">
-      <c r="A33" s="266">
+      <c r="A33" s="277">
         <f>J32</f>
         <v/>
       </c>
@@ -10493,7 +10512,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D33" s="271">
+      <c r="D33" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -10517,10 +10536,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="283" t="n"/>
+      <c r="L33" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="237">
-      <c r="A34" s="266">
+      <c r="A34" s="277">
         <f>J33</f>
         <v/>
       </c>
@@ -10534,7 +10553,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D34" s="271">
+      <c r="D34" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -10554,10 +10573,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="283" t="n"/>
+      <c r="L34" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="237">
-      <c r="A35" s="266">
+      <c r="A35" s="277">
         <f>J34</f>
         <v/>
       </c>
@@ -10571,7 +10590,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D35" s="271">
+      <c r="D35" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10603,24 +10622,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="283" t="n"/>
+      <c r="L35" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="237">
-      <c r="A36" s="266">
+      <c r="A36" s="277">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="272" t="inlineStr">
+      <c r="B36" s="283" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C36" s="269" t="inlineStr">
+      <c r="C36" s="280" t="inlineStr">
         <is>
           <t>总结</t>
         </is>
       </c>
-      <c r="D36" s="271">
+      <c r="D36" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10652,24 +10671,24 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="283" t="n"/>
+      <c r="L36" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="237" thickBot="1">
-      <c r="A37" s="284">
+      <c r="A37" s="308">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="285" t="inlineStr">
+      <c r="B37" s="309" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C37" s="286" t="inlineStr">
+      <c r="C37" s="310" t="inlineStr">
         <is>
           <t>颁奖&amp;会议结束致辞</t>
         </is>
       </c>
-      <c r="D37" s="271">
+      <c r="D37" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -10694,14 +10713,14 @@
       <c r="L37" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="237">
-      <c r="A38" s="287" t="n"/>
-      <c r="B38" s="239" t="n"/>
-      <c r="C38" s="239" t="n"/>
-      <c r="D38" s="239" t="n"/>
+      <c r="A38" s="311" t="n"/>
+      <c r="B38" s="312" t="n"/>
+      <c r="C38" s="312" t="n"/>
+      <c r="D38" s="312" t="n"/>
       <c r="E38" s="236" t="n"/>
-      <c r="F38" s="288" t="n"/>
-      <c r="G38" s="289" t="n"/>
-      <c r="H38" s="290" t="n"/>
+      <c r="F38" s="313" t="n"/>
+      <c r="G38" s="314" t="n"/>
+      <c r="H38" s="315" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
@@ -10716,14 +10735,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D39" s="292" t="n"/>
+      <c r="D39" s="317" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="293" t="inlineStr">
+      <c r="J39" s="318" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="294" t="n"/>
+      <c r="K39" s="319" t="n"/>
       <c r="L39" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="237">
@@ -10737,91 +10756,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="293" t="n"/>
+      <c r="J40" s="318" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="237">
-      <c r="A41" s="296" t="n"/>
+      <c r="A41" s="321" t="n"/>
       <c r="B41" s="236" t="n"/>
-      <c r="D41" s="297" t="n"/>
-      <c r="E41" s="298" t="n"/>
-      <c r="F41" s="298" t="n"/>
-      <c r="G41" s="298" t="n"/>
-      <c r="H41" s="298" t="n"/>
+      <c r="D41" s="322" t="n"/>
+      <c r="E41" s="323" t="n"/>
+      <c r="F41" s="323" t="n"/>
+      <c r="G41" s="323" t="n"/>
+      <c r="H41" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="237">
-      <c r="A42" s="296" t="n"/>
+      <c r="A42" s="321" t="n"/>
       <c r="B42" s="236" t="n"/>
       <c r="C42" s="236" t="n"/>
-      <c r="D42" s="297" t="n"/>
-      <c r="F42" s="298" t="n"/>
-      <c r="G42" s="298" t="n"/>
-      <c r="H42" s="298" t="n"/>
+      <c r="D42" s="322" t="n"/>
+      <c r="F42" s="323" t="n"/>
+      <c r="G42" s="323" t="n"/>
+      <c r="H42" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="237">
-      <c r="A43" s="296" t="n"/>
+      <c r="A43" s="321" t="n"/>
       <c r="B43" s="236" t="n"/>
       <c r="C43" s="236" t="n"/>
-      <c r="D43" s="299" t="n"/>
-      <c r="E43" s="300" t="n"/>
-      <c r="F43" s="301" t="n"/>
-      <c r="G43" s="302" t="n"/>
+      <c r="D43" s="324" t="n"/>
+      <c r="E43" s="325" t="n"/>
+      <c r="F43" s="326" t="n"/>
+      <c r="G43" s="327" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="237">
-      <c r="A44" s="296" t="n"/>
+      <c r="A44" s="321" t="n"/>
       <c r="B44" s="236" t="n"/>
-      <c r="D44" s="303" t="n"/>
-      <c r="E44" s="304" t="n"/>
+      <c r="D44" s="328" t="n"/>
+      <c r="E44" s="329" t="n"/>
       <c r="L44" s="179" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="237">
-      <c r="A45" s="296" t="n"/>
+      <c r="A45" s="321" t="n"/>
       <c r="B45" s="236" t="n"/>
-      <c r="D45" s="303" t="n"/>
-      <c r="E45" s="304" t="n"/>
+      <c r="D45" s="328" t="n"/>
+      <c r="E45" s="329" t="n"/>
       <c r="L45" s="179" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="296" t="n"/>
+      <c r="A46" s="321" t="n"/>
       <c r="B46" s="236" t="n"/>
-      <c r="D46" s="303" t="n"/>
-      <c r="E46" s="304" t="n"/>
+      <c r="D46" s="328" t="n"/>
+      <c r="E46" s="329" t="n"/>
       <c r="L46" s="179" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="296" t="n"/>
+      <c r="A47" s="321" t="n"/>
       <c r="B47" s="236" t="n"/>
       <c r="C47" s="236" t="n"/>
-      <c r="D47" s="303" t="n"/>
-      <c r="E47" s="304" t="n"/>
+      <c r="D47" s="328" t="n"/>
+      <c r="E47" s="329" t="n"/>
       <c r="L47" s="179" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="296" t="n"/>
+      <c r="A48" s="321" t="n"/>
       <c r="B48" s="236" t="n"/>
       <c r="C48" s="236" t="n"/>
-      <c r="D48" s="303" t="n"/>
-      <c r="E48" s="304" t="n"/>
+      <c r="D48" s="328" t="n"/>
+      <c r="E48" s="329" t="n"/>
       <c r="L48" s="179" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="296" t="n"/>
+      <c r="A49" s="321" t="n"/>
       <c r="B49" s="236" t="n"/>
       <c r="C49" s="236" t="n"/>
-      <c r="E49" s="304" t="n"/>
+      <c r="E49" s="329" t="n"/>
       <c r="L49" s="179" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="296" t="n"/>
+      <c r="A50" s="321" t="n"/>
       <c r="B50" s="236" t="n"/>
-      <c r="D50" s="303" t="n"/>
-      <c r="E50" s="304" t="n"/>
+      <c r="D50" s="328" t="n"/>
+      <c r="E50" s="329" t="n"/>
     </row>
     <row customFormat="1" r="51" s="233">
-      <c r="A51" s="296" t="n"/>
+      <c r="A51" s="321" t="n"/>
       <c r="B51" s="236" t="n"/>
       <c r="C51" s="236" t="n"/>
-      <c r="D51" s="303" t="n"/>
-      <c r="E51" s="304" t="n"/>
+      <c r="D51" s="328" t="n"/>
+      <c r="E51" s="329" t="n"/>
       <c r="G51" s="234" t="n"/>
       <c r="H51" s="235" t="n"/>
       <c r="I51" s="179" t="n"/>
@@ -10831,11 +10850,11 @@
       <c r="M51" s="236" t="n"/>
     </row>
     <row customFormat="1" r="52" s="233">
-      <c r="A52" s="296" t="n"/>
+      <c r="A52" s="321" t="n"/>
       <c r="B52" s="236" t="n"/>
       <c r="C52" s="230" t="n"/>
-      <c r="D52" s="303" t="n"/>
-      <c r="E52" s="304" t="n"/>
+      <c r="D52" s="328" t="n"/>
+      <c r="E52" s="329" t="n"/>
       <c r="G52" s="234" t="n"/>
       <c r="H52" s="235" t="n"/>
       <c r="I52" s="179" t="n"/>
@@ -10845,11 +10864,11 @@
       <c r="M52" s="236" t="n"/>
     </row>
     <row customFormat="1" r="53" s="233">
-      <c r="A53" s="296" t="n"/>
+      <c r="A53" s="321" t="n"/>
       <c r="B53" s="236" t="n"/>
       <c r="C53" s="236" t="n"/>
-      <c r="D53" s="303" t="n"/>
-      <c r="E53" s="304" t="n"/>
+      <c r="D53" s="328" t="n"/>
+      <c r="E53" s="329" t="n"/>
       <c r="G53" s="234" t="n"/>
       <c r="H53" s="235" t="n"/>
       <c r="I53" s="179" t="n"/>
@@ -10859,11 +10878,11 @@
       <c r="M53" s="236" t="n"/>
     </row>
     <row customFormat="1" r="54" s="233">
-      <c r="A54" s="296" t="n"/>
+      <c r="A54" s="321" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
-      <c r="D54" s="303" t="n"/>
-      <c r="E54" s="304" t="n"/>
+      <c r="D54" s="328" t="n"/>
+      <c r="E54" s="329" t="n"/>
       <c r="G54" s="234" t="n"/>
       <c r="H54" s="235" t="n"/>
       <c r="I54" s="179" t="n"/>
@@ -10873,11 +10892,11 @@
       <c r="M54" s="236" t="n"/>
     </row>
     <row customFormat="1" r="55" s="233">
-      <c r="A55" s="296" t="n"/>
+      <c r="A55" s="321" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="236" t="n"/>
-      <c r="D55" s="303" t="n"/>
-      <c r="E55" s="304" t="n"/>
+      <c r="D55" s="328" t="n"/>
+      <c r="E55" s="329" t="n"/>
       <c r="G55" s="234" t="n"/>
       <c r="H55" s="235" t="n"/>
       <c r="I55" s="179" t="n"/>
@@ -10887,11 +10906,11 @@
       <c r="M55" s="236" t="n"/>
     </row>
     <row customFormat="1" r="56" s="233">
-      <c r="A56" s="296" t="n"/>
+      <c r="A56" s="321" t="n"/>
       <c r="B56" s="236" t="n"/>
       <c r="C56" s="236" t="n"/>
-      <c r="D56" s="303" t="n"/>
-      <c r="E56" s="304" t="n"/>
+      <c r="D56" s="328" t="n"/>
+      <c r="E56" s="329" t="n"/>
       <c r="G56" s="234" t="n"/>
       <c r="H56" s="235" t="n"/>
       <c r="I56" s="179" t="n"/>
@@ -10901,11 +10920,11 @@
       <c r="M56" s="236" t="n"/>
     </row>
     <row customFormat="1" r="57" s="233">
-      <c r="A57" s="296" t="n"/>
+      <c r="A57" s="321" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
-      <c r="D57" s="303" t="n"/>
-      <c r="E57" s="304" t="n"/>
+      <c r="D57" s="328" t="n"/>
+      <c r="E57" s="329" t="n"/>
       <c r="G57" s="234" t="n"/>
       <c r="H57" s="235" t="n"/>
       <c r="I57" s="179" t="n"/>
@@ -10915,11 +10934,11 @@
       <c r="M57" s="236" t="n"/>
     </row>
     <row customFormat="1" r="58" s="233">
-      <c r="A58" s="296" t="n"/>
+      <c r="A58" s="321" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="236" t="n"/>
-      <c r="D58" s="303" t="n"/>
-      <c r="E58" s="304" t="n"/>
+      <c r="D58" s="328" t="n"/>
+      <c r="E58" s="329" t="n"/>
       <c r="G58" s="234" t="n"/>
       <c r="H58" s="235" t="n"/>
       <c r="I58" s="179" t="n"/>
@@ -10929,11 +10948,11 @@
       <c r="M58" s="236" t="n"/>
     </row>
     <row customFormat="1" r="59" s="233">
-      <c r="A59" s="296" t="n"/>
+      <c r="A59" s="321" t="n"/>
       <c r="B59" s="230" t="n"/>
       <c r="C59" s="230" t="n"/>
-      <c r="D59" s="303" t="n"/>
-      <c r="E59" s="304" t="n"/>
+      <c r="D59" s="328" t="n"/>
+      <c r="E59" s="329" t="n"/>
       <c r="G59" s="234" t="n"/>
       <c r="H59" s="235" t="n"/>
       <c r="I59" s="179" t="n"/>
@@ -10943,11 +10962,11 @@
       <c r="M59" s="236" t="n"/>
     </row>
     <row customFormat="1" r="60" s="233">
-      <c r="A60" s="296" t="n"/>
+      <c r="A60" s="321" t="n"/>
       <c r="B60" s="230" t="n"/>
       <c r="C60" s="230" t="n"/>
-      <c r="D60" s="303" t="n"/>
-      <c r="E60" s="304" t="n"/>
+      <c r="D60" s="328" t="n"/>
+      <c r="E60" s="329" t="n"/>
       <c r="G60" s="234" t="n"/>
       <c r="H60" s="235" t="n"/>
       <c r="I60" s="179" t="n"/>
@@ -10957,11 +10976,11 @@
       <c r="M60" s="236" t="n"/>
     </row>
     <row customFormat="1" r="61" s="233">
-      <c r="A61" s="296" t="n"/>
+      <c r="A61" s="321" t="n"/>
       <c r="B61" s="230" t="n"/>
       <c r="C61" s="230" t="n"/>
-      <c r="D61" s="303" t="n"/>
-      <c r="E61" s="304" t="n"/>
+      <c r="D61" s="328" t="n"/>
+      <c r="E61" s="329" t="n"/>
       <c r="G61" s="234" t="n"/>
       <c r="H61" s="235" t="n"/>
       <c r="I61" s="179" t="n"/>
@@ -10971,11 +10990,11 @@
       <c r="M61" s="236" t="n"/>
     </row>
     <row customFormat="1" r="62" s="233">
-      <c r="A62" s="296" t="n"/>
+      <c r="A62" s="321" t="n"/>
       <c r="B62" s="230" t="n"/>
       <c r="C62" s="230" t="n"/>
-      <c r="D62" s="303" t="n"/>
-      <c r="E62" s="304" t="n"/>
+      <c r="D62" s="328" t="n"/>
+      <c r="E62" s="329" t="n"/>
       <c r="G62" s="234" t="n"/>
       <c r="H62" s="235" t="n"/>
       <c r="I62" s="179" t="n"/>
@@ -10985,7 +11004,7 @@
       <c r="M62" s="236" t="n"/>
     </row>
     <row customFormat="1" r="63" s="233">
-      <c r="A63" s="296" t="n"/>
+      <c r="A63" s="321" t="n"/>
       <c r="B63" s="230" t="n"/>
       <c r="C63" s="230" t="n"/>
       <c r="D63" s="231" t="n"/>
@@ -10999,7 +11018,7 @@
       <c r="M63" s="236" t="n"/>
     </row>
     <row customFormat="1" r="64" s="233">
-      <c r="A64" s="296" t="n"/>
+      <c r="A64" s="321" t="n"/>
       <c r="B64" s="230" t="n"/>
       <c r="C64" s="230" t="n"/>
       <c r="D64" s="231" t="n"/>
@@ -11013,7 +11032,7 @@
       <c r="M64" s="236" t="n"/>
     </row>
     <row customFormat="1" r="65" s="233">
-      <c r="A65" s="296" t="n"/>
+      <c r="A65" s="321" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
       <c r="D65" s="231" t="n"/>
@@ -11027,7 +11046,7 @@
       <c r="M65" s="236" t="n"/>
     </row>
     <row customFormat="1" r="66" s="233">
-      <c r="A66" s="296" t="n"/>
+      <c r="A66" s="321" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
       <c r="D66" s="231" t="n"/>
@@ -11041,7 +11060,7 @@
       <c r="M66" s="236" t="n"/>
     </row>
     <row customFormat="1" r="67" s="230">
-      <c r="A67" s="296" t="n"/>
+      <c r="A67" s="321" t="n"/>
       <c r="D67" s="231" t="n"/>
       <c r="E67" s="232" t="n"/>
       <c r="F67" s="233" t="n"/>
@@ -11053,7 +11072,7 @@
       <c r="M67" s="236" t="n"/>
     </row>
     <row customFormat="1" r="68" s="230">
-      <c r="A68" s="296" t="n"/>
+      <c r="A68" s="321" t="n"/>
       <c r="D68" s="231" t="n"/>
       <c r="E68" s="232" t="n"/>
       <c r="F68" s="233" t="n"/>
@@ -11065,7 +11084,7 @@
       <c r="M68" s="236" t="n"/>
     </row>
     <row customFormat="1" r="69" s="230">
-      <c r="A69" s="296" t="n"/>
+      <c r="A69" s="321" t="n"/>
       <c r="D69" s="231" t="n"/>
       <c r="E69" s="232" t="n"/>
       <c r="F69" s="233" t="n"/>
@@ -11132,18 +11151,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="237">
-      <c r="A1" s="238" t="inlineStr">
+      <c r="A1" s="330" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="239" t="n"/>
-      <c r="C1" s="239" t="n"/>
-      <c r="D1" s="239" t="n"/>
-      <c r="E1" s="239" t="n"/>
-      <c r="F1" s="239" t="n"/>
-      <c r="G1" s="239" t="n"/>
-      <c r="H1" s="239" t="n"/>
+      <c r="B1" s="312" t="n"/>
+      <c r="C1" s="312" t="n"/>
+      <c r="D1" s="312" t="n"/>
+      <c r="E1" s="312" t="n"/>
+      <c r="F1" s="312" t="n"/>
+      <c r="G1" s="312" t="n"/>
+      <c r="H1" s="312" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="237">
       <c r="A2" s="339" t="inlineStr">
@@ -11151,8 +11170,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="241" t="n"/>
-      <c r="J2" s="241" t="n"/>
+      <c r="I2" s="242" t="n"/>
+      <c r="J2" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="237">
       <c r="A3" s="340" t="inlineStr">
@@ -11167,8 +11186,8 @@
       <c r="F3" s="341" t="n"/>
       <c r="G3" s="341" t="n"/>
       <c r="H3" s="341" t="n"/>
-      <c r="I3" s="243" t="n"/>
-      <c r="J3" s="243" t="n"/>
+      <c r="I3" s="259" t="n"/>
+      <c r="J3" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="237">
       <c r="A4" s="342" t="inlineStr">
@@ -11187,13 +11206,13 @@
       <c r="F4" s="344" t="n"/>
       <c r="G4" s="344" t="n"/>
       <c r="H4" s="344" t="n"/>
-      <c r="I4" s="241" t="n"/>
-      <c r="J4" s="241" t="n"/>
+      <c r="I4" s="242" t="n"/>
+      <c r="J4" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
       <c r="A5" s="345" t="n"/>
-      <c r="I5" s="243" t="n"/>
-      <c r="J5" s="243" t="n"/>
+      <c r="I5" s="259" t="n"/>
+      <c r="J5" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
       <c r="A6" s="342" t="inlineStr">
@@ -11212,29 +11231,29 @@
       <c r="F6" s="344" t="n"/>
       <c r="G6" s="344" t="n"/>
       <c r="H6" s="344" t="n"/>
-      <c r="I6" s="243" t="n"/>
-      <c r="J6" s="243" t="n"/>
+      <c r="I6" s="259" t="n"/>
+      <c r="J6" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
       <c r="A7" s="345" t="n"/>
-      <c r="I7" s="243" t="n"/>
-      <c r="J7" s="243" t="n"/>
+      <c r="I7" s="259" t="n"/>
+      <c r="J7" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
-      <c r="A8" s="255" t="inlineStr">
+      <c r="A8" s="337" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="256" t="n"/>
-      <c r="C8" s="256" t="n"/>
-      <c r="D8" s="256" t="n"/>
-      <c r="E8" s="256" t="n"/>
-      <c r="F8" s="256" t="n"/>
-      <c r="G8" s="256" t="n"/>
-      <c r="H8" s="257" t="n"/>
-      <c r="I8" s="243" t="n"/>
-      <c r="J8" s="243" t="n"/>
+      <c r="B8" s="296" t="n"/>
+      <c r="C8" s="296" t="n"/>
+      <c r="D8" s="296" t="n"/>
+      <c r="E8" s="296" t="n"/>
+      <c r="F8" s="296" t="n"/>
+      <c r="G8" s="296" t="n"/>
+      <c r="H8" s="297" t="n"/>
+      <c r="I8" s="259" t="n"/>
+      <c r="J8" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
       <c r="A9" s="346" t="inlineStr">
@@ -11252,28 +11271,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="261" t="inlineStr">
+      <c r="D9" s="272" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="262" t="inlineStr">
+      <c r="E9" s="273" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="263" t="inlineStr">
+      <c r="F9" s="274" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="264" t="inlineStr">
+      <c r="G9" s="275" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="265" t="inlineStr">
+      <c r="H9" s="276" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -11286,7 +11305,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="237">
-      <c r="A10" s="266">
+      <c r="A10" s="277">
         <f>J9</f>
         <v/>
       </c>
@@ -11300,7 +11319,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="268">
+      <c r="D10" s="279">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -11319,7 +11338,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="237">
-      <c r="A11" s="266">
+      <c r="A11" s="277">
         <f>J10</f>
         <v/>
       </c>
@@ -11333,7 +11352,7 @@
           <t>会议开场</t>
         </is>
       </c>
-      <c r="D11" s="271">
+      <c r="D11" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -11360,7 +11379,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="237">
-      <c r="A12" s="266">
+      <c r="A12" s="277">
         <f>J11</f>
         <v/>
       </c>
@@ -11374,7 +11393,7 @@
           <t>欢迎</t>
         </is>
       </c>
-      <c r="D12" s="271">
+      <c r="D12" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -11405,7 +11424,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="237">
-      <c r="A13" s="266">
+      <c r="A13" s="277">
         <f>J12</f>
         <v/>
       </c>
@@ -11419,7 +11438,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="271">
+      <c r="D13" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11444,7 +11463,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="237">
-      <c r="A14" s="266">
+      <c r="A14" s="277">
         <f>J13</f>
         <v/>
       </c>
@@ -11458,7 +11477,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="271">
+      <c r="D14" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11480,10 +11499,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="241" t="n"/>
+      <c r="L14" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="237">
-      <c r="A15" s="266">
+      <c r="A15" s="277">
         <f>J14</f>
         <v/>
       </c>
@@ -11497,7 +11516,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="271">
+      <c r="D15" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -11517,10 +11536,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="241" t="n"/>
+      <c r="L15" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="237">
-      <c r="A16" s="266">
+      <c r="A16" s="277">
         <f>J15</f>
         <v/>
       </c>
@@ -11534,7 +11553,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="271">
+      <c r="D16" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -11554,10 +11573,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="241" t="n"/>
+      <c r="L16" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="237">
-      <c r="A17" s="266">
+      <c r="A17" s="277">
         <f>J16</f>
         <v/>
       </c>
@@ -11571,7 +11590,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="271">
+      <c r="D17" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -11595,10 +11614,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="241" t="n"/>
+      <c r="L17" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="237">
-      <c r="A18" s="266">
+      <c r="A18" s="277">
         <f>J17</f>
         <v/>
       </c>
@@ -11612,7 +11631,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="271">
+      <c r="D18" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11633,7 +11652,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
-      <c r="A19" s="273">
+      <c r="A19" s="284">
         <f>J18</f>
         <v/>
       </c>
@@ -11647,7 +11666,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="271">
+      <c r="D19" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11668,18 +11687,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
-      <c r="A20" s="275" t="inlineStr">
+      <c r="A20" s="295" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="256" t="n"/>
-      <c r="C20" s="256" t="n"/>
-      <c r="D20" s="256" t="n"/>
-      <c r="E20" s="256" t="n"/>
-      <c r="F20" s="256" t="n"/>
-      <c r="G20" s="256" t="n"/>
-      <c r="H20" s="257" t="n"/>
+      <c r="B20" s="296" t="n"/>
+      <c r="C20" s="296" t="n"/>
+      <c r="D20" s="296" t="n"/>
+      <c r="E20" s="296" t="n"/>
+      <c r="F20" s="296" t="n"/>
+      <c r="G20" s="296" t="n"/>
+      <c r="H20" s="297" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -11689,7 +11708,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="237">
-      <c r="A21" s="266">
+      <c r="A21" s="277">
         <f>J20</f>
         <v/>
       </c>
@@ -11703,7 +11722,7 @@
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="276">
+      <c r="D21" s="289">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -11728,7 +11747,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="237">
-      <c r="A22" s="266">
+      <c r="A22" s="277">
         <f>J21</f>
         <v/>
       </c>
@@ -11742,7 +11761,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="271">
+      <c r="D22" s="282">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -11775,7 +11794,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="237">
-      <c r="A23" s="266">
+      <c r="A23" s="277">
         <f>J22</f>
         <v/>
       </c>
@@ -11789,7 +11808,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="271">
+      <c r="D23" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11812,7 +11831,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
-      <c r="A24" s="277">
+      <c r="A24" s="290">
         <f>J23</f>
         <v/>
       </c>
@@ -11826,7 +11845,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="279">
+      <c r="D24" s="292">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11849,18 +11868,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
-      <c r="A25" s="275" t="inlineStr">
+      <c r="A25" s="295" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="256" t="n"/>
-      <c r="C25" s="256" t="n"/>
-      <c r="D25" s="256" t="n"/>
-      <c r="E25" s="256" t="n"/>
-      <c r="F25" s="256" t="n"/>
-      <c r="G25" s="256" t="n"/>
-      <c r="H25" s="257" t="n"/>
+      <c r="B25" s="296" t="n"/>
+      <c r="C25" s="296" t="n"/>
+      <c r="D25" s="296" t="n"/>
+      <c r="E25" s="296" t="n"/>
+      <c r="F25" s="296" t="n"/>
+      <c r="G25" s="296" t="n"/>
+      <c r="H25" s="297" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -11869,10 +11888,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="241" t="n"/>
+      <c r="L25" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="237">
-      <c r="A26" s="266">
+      <c r="A26" s="277">
         <f>J25</f>
         <v/>
       </c>
@@ -11886,7 +11905,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="276">
+      <c r="D26" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11908,10 +11927,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="241" t="n"/>
+      <c r="L26" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="237" thickBot="1">
-      <c r="A27" s="266">
+      <c r="A27" s="277">
         <f>J26</f>
         <v/>
       </c>
@@ -11926,7 +11945,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="281">
+      <c r="D27" s="294">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -11958,10 +11977,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="241" t="n"/>
+      <c r="L27" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="237">
-      <c r="A28" s="266">
+      <c r="A28" s="277">
         <f>J27</f>
         <v/>
       </c>
@@ -11975,7 +11994,7 @@
           <t>介绍二号备稿演讲者</t>
         </is>
       </c>
-      <c r="D28" s="281">
+      <c r="D28" s="294">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11997,10 +12016,10 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="241" t="n"/>
+      <c r="L28" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="39.75" r="29" s="237" thickBot="1">
-      <c r="A29" s="266">
+      <c r="A29" s="277">
         <f>J28</f>
         <v/>
       </c>
@@ -12015,7 +12034,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D29" s="330">
+      <c r="D29" s="338">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -12047,31 +12066,31 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="241" t="n"/>
+      <c r="L29" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="237" thickBot="1">
-      <c r="A30" s="275" t="inlineStr">
+      <c r="A30" s="295" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B30" s="256" t="n"/>
-      <c r="C30" s="256" t="n"/>
-      <c r="D30" s="256" t="n"/>
-      <c r="E30" s="256" t="n"/>
-      <c r="F30" s="256" t="n"/>
-      <c r="G30" s="256" t="n"/>
-      <c r="H30" s="257" t="n"/>
+      <c r="B30" s="296" t="n"/>
+      <c r="C30" s="296" t="n"/>
+      <c r="D30" s="296" t="n"/>
+      <c r="E30" s="296" t="n"/>
+      <c r="F30" s="296" t="n"/>
+      <c r="G30" s="296" t="n"/>
+      <c r="H30" s="297" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J29+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="241" t="n"/>
+      <c r="L30" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="237">
-      <c r="A31" s="266">
+      <c r="A31" s="277">
         <f>J30</f>
         <v/>
       </c>
@@ -12085,7 +12104,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D31" s="276">
+      <c r="D31" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12107,10 +12126,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="241" t="n"/>
+      <c r="L31" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="237">
-      <c r="A32" s="266">
+      <c r="A32" s="277">
         <f>J31</f>
         <v/>
       </c>
@@ -12124,11 +12143,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D32" s="276">
+      <c r="D32" s="289">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="282" t="inlineStr">
+      <c r="E32" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -12150,10 +12169,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="241" t="n"/>
+      <c r="L32" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="237">
-      <c r="A33" s="266">
+      <c r="A33" s="277">
         <f>J32</f>
         <v/>
       </c>
@@ -12167,11 +12186,11 @@
           <t>点评二号备稿演讲</t>
         </is>
       </c>
-      <c r="D33" s="276">
+      <c r="D33" s="289">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="282" t="inlineStr">
+      <c r="E33" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-4</t>
         </is>
@@ -12193,10 +12212,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="241" t="n"/>
+      <c r="L33" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="237">
-      <c r="A34" s="266">
+      <c r="A34" s="277">
         <f>J32</f>
         <v/>
       </c>
@@ -12210,7 +12229,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D34" s="271">
+      <c r="D34" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -12234,10 +12253,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="283" t="n"/>
+      <c r="L34" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="237">
-      <c r="A35" s="266">
+      <c r="A35" s="277">
         <f>J34</f>
         <v/>
       </c>
@@ -12251,7 +12270,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D35" s="271">
+      <c r="D35" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -12277,10 +12296,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="283" t="n"/>
+      <c r="L35" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="237">
-      <c r="A36" s="266">
+      <c r="A36" s="277">
         <f>J35</f>
         <v/>
       </c>
@@ -12294,7 +12313,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D36" s="271">
+      <c r="D36" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -12318,10 +12337,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="283" t="n"/>
+      <c r="L36" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="237">
-      <c r="A37" s="266">
+      <c r="A37" s="277">
         <f>J36</f>
         <v/>
       </c>
@@ -12335,7 +12354,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D37" s="271">
+      <c r="D37" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -12355,10 +12374,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="283" t="n"/>
+      <c r="L37" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="237">
-      <c r="A38" s="266">
+      <c r="A38" s="277">
         <f>J37</f>
         <v/>
       </c>
@@ -12372,7 +12391,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D38" s="271">
+      <c r="D38" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12404,24 +12423,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="283" t="n"/>
+      <c r="L38" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="237">
-      <c r="A39" s="266">
+      <c r="A39" s="277">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="272" t="inlineStr">
+      <c r="B39" s="283" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C39" s="269" t="inlineStr">
+      <c r="C39" s="280" t="inlineStr">
         <is>
           <t>总结</t>
         </is>
       </c>
-      <c r="D39" s="271">
+      <c r="D39" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -12453,24 +12472,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="283" t="n"/>
+      <c r="L39" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="237" thickBot="1">
-      <c r="A40" s="284">
+      <c r="A40" s="308">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="285" t="inlineStr">
+      <c r="B40" s="309" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C40" s="286" t="inlineStr">
+      <c r="C40" s="310" t="inlineStr">
         <is>
           <t>颁奖&amp;会议结束致辞</t>
         </is>
       </c>
-      <c r="D40" s="271">
+      <c r="D40" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -12495,14 +12514,14 @@
       <c r="L40" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="237">
-      <c r="A41" s="287" t="n"/>
-      <c r="B41" s="239" t="n"/>
-      <c r="C41" s="239" t="n"/>
-      <c r="D41" s="239" t="n"/>
+      <c r="A41" s="311" t="n"/>
+      <c r="B41" s="312" t="n"/>
+      <c r="C41" s="312" t="n"/>
+      <c r="D41" s="312" t="n"/>
       <c r="E41" s="236" t="n"/>
-      <c r="F41" s="288" t="n"/>
-      <c r="G41" s="289" t="n"/>
-      <c r="H41" s="290" t="n"/>
+      <c r="F41" s="313" t="n"/>
+      <c r="G41" s="314" t="n"/>
+      <c r="H41" s="315" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
@@ -12517,14 +12536,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D42" s="292" t="n"/>
+      <c r="D42" s="317" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="293" t="inlineStr">
+      <c r="J42" s="318" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="294" t="n"/>
+      <c r="K42" s="319" t="n"/>
       <c r="L42" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="237">
@@ -12538,91 +12557,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="293" t="n"/>
+      <c r="J43" s="318" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="237">
-      <c r="A44" s="296" t="n"/>
+      <c r="A44" s="321" t="n"/>
       <c r="B44" s="236" t="n"/>
-      <c r="D44" s="297" t="n"/>
-      <c r="E44" s="298" t="n"/>
-      <c r="F44" s="298" t="n"/>
-      <c r="G44" s="298" t="n"/>
-      <c r="H44" s="298" t="n"/>
+      <c r="D44" s="322" t="n"/>
+      <c r="E44" s="323" t="n"/>
+      <c r="F44" s="323" t="n"/>
+      <c r="G44" s="323" t="n"/>
+      <c r="H44" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="237">
-      <c r="A45" s="296" t="n"/>
+      <c r="A45" s="321" t="n"/>
       <c r="B45" s="236" t="n"/>
       <c r="C45" s="236" t="n"/>
-      <c r="D45" s="297" t="n"/>
-      <c r="F45" s="298" t="n"/>
-      <c r="G45" s="298" t="n"/>
-      <c r="H45" s="298" t="n"/>
+      <c r="D45" s="322" t="n"/>
+      <c r="F45" s="323" t="n"/>
+      <c r="G45" s="323" t="n"/>
+      <c r="H45" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="237">
-      <c r="A46" s="296" t="n"/>
+      <c r="A46" s="321" t="n"/>
       <c r="B46" s="236" t="n"/>
       <c r="C46" s="236" t="n"/>
-      <c r="D46" s="299" t="n"/>
-      <c r="E46" s="300" t="n"/>
-      <c r="F46" s="301" t="n"/>
-      <c r="G46" s="302" t="n"/>
+      <c r="D46" s="324" t="n"/>
+      <c r="E46" s="325" t="n"/>
+      <c r="F46" s="326" t="n"/>
+      <c r="G46" s="327" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="237">
-      <c r="A47" s="296" t="n"/>
+      <c r="A47" s="321" t="n"/>
       <c r="B47" s="236" t="n"/>
-      <c r="D47" s="303" t="n"/>
-      <c r="E47" s="304" t="n"/>
+      <c r="D47" s="328" t="n"/>
+      <c r="E47" s="329" t="n"/>
       <c r="L47" s="179" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="237">
-      <c r="A48" s="296" t="n"/>
+      <c r="A48" s="321" t="n"/>
       <c r="B48" s="236" t="n"/>
-      <c r="D48" s="303" t="n"/>
-      <c r="E48" s="304" t="n"/>
+      <c r="D48" s="328" t="n"/>
+      <c r="E48" s="329" t="n"/>
       <c r="L48" s="179" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="296" t="n"/>
+      <c r="A49" s="321" t="n"/>
       <c r="B49" s="236" t="n"/>
-      <c r="D49" s="303" t="n"/>
-      <c r="E49" s="304" t="n"/>
+      <c r="D49" s="328" t="n"/>
+      <c r="E49" s="329" t="n"/>
       <c r="L49" s="179" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="296" t="n"/>
+      <c r="A50" s="321" t="n"/>
       <c r="B50" s="236" t="n"/>
       <c r="C50" s="236" t="n"/>
-      <c r="D50" s="303" t="n"/>
-      <c r="E50" s="304" t="n"/>
+      <c r="D50" s="328" t="n"/>
+      <c r="E50" s="329" t="n"/>
       <c r="L50" s="179" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="296" t="n"/>
+      <c r="A51" s="321" t="n"/>
       <c r="B51" s="236" t="n"/>
       <c r="C51" s="236" t="n"/>
-      <c r="D51" s="303" t="n"/>
-      <c r="E51" s="304" t="n"/>
+      <c r="D51" s="328" t="n"/>
+      <c r="E51" s="329" t="n"/>
       <c r="L51" s="179" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="296" t="n"/>
+      <c r="A52" s="321" t="n"/>
       <c r="B52" s="236" t="n"/>
       <c r="C52" s="236" t="n"/>
-      <c r="E52" s="304" t="n"/>
+      <c r="E52" s="329" t="n"/>
       <c r="L52" s="179" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="296" t="n"/>
+      <c r="A53" s="321" t="n"/>
       <c r="B53" s="236" t="n"/>
-      <c r="D53" s="303" t="n"/>
-      <c r="E53" s="304" t="n"/>
+      <c r="D53" s="328" t="n"/>
+      <c r="E53" s="329" t="n"/>
     </row>
     <row customFormat="1" r="54" s="233">
-      <c r="A54" s="296" t="n"/>
+      <c r="A54" s="321" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
-      <c r="D54" s="303" t="n"/>
-      <c r="E54" s="304" t="n"/>
+      <c r="D54" s="328" t="n"/>
+      <c r="E54" s="329" t="n"/>
       <c r="G54" s="234" t="n"/>
       <c r="H54" s="235" t="n"/>
       <c r="I54" s="179" t="n"/>
@@ -12632,11 +12651,11 @@
       <c r="M54" s="236" t="n"/>
     </row>
     <row customFormat="1" r="55" s="233">
-      <c r="A55" s="296" t="n"/>
+      <c r="A55" s="321" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="230" t="n"/>
-      <c r="D55" s="303" t="n"/>
-      <c r="E55" s="304" t="n"/>
+      <c r="D55" s="328" t="n"/>
+      <c r="E55" s="329" t="n"/>
       <c r="G55" s="234" t="n"/>
       <c r="H55" s="235" t="n"/>
       <c r="I55" s="179" t="n"/>
@@ -12646,11 +12665,11 @@
       <c r="M55" s="236" t="n"/>
     </row>
     <row customFormat="1" r="56" s="233">
-      <c r="A56" s="296" t="n"/>
+      <c r="A56" s="321" t="n"/>
       <c r="B56" s="236" t="n"/>
       <c r="C56" s="236" t="n"/>
-      <c r="D56" s="303" t="n"/>
-      <c r="E56" s="304" t="n"/>
+      <c r="D56" s="328" t="n"/>
+      <c r="E56" s="329" t="n"/>
       <c r="G56" s="234" t="n"/>
       <c r="H56" s="235" t="n"/>
       <c r="I56" s="179" t="n"/>
@@ -12660,11 +12679,11 @@
       <c r="M56" s="236" t="n"/>
     </row>
     <row customFormat="1" r="57" s="233">
-      <c r="A57" s="296" t="n"/>
+      <c r="A57" s="321" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
-      <c r="D57" s="303" t="n"/>
-      <c r="E57" s="304" t="n"/>
+      <c r="D57" s="328" t="n"/>
+      <c r="E57" s="329" t="n"/>
       <c r="G57" s="234" t="n"/>
       <c r="H57" s="235" t="n"/>
       <c r="I57" s="179" t="n"/>
@@ -12674,11 +12693,11 @@
       <c r="M57" s="236" t="n"/>
     </row>
     <row customFormat="1" r="58" s="233">
-      <c r="A58" s="296" t="n"/>
+      <c r="A58" s="321" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="236" t="n"/>
-      <c r="D58" s="303" t="n"/>
-      <c r="E58" s="304" t="n"/>
+      <c r="D58" s="328" t="n"/>
+      <c r="E58" s="329" t="n"/>
       <c r="G58" s="234" t="n"/>
       <c r="H58" s="235" t="n"/>
       <c r="I58" s="179" t="n"/>
@@ -12688,11 +12707,11 @@
       <c r="M58" s="236" t="n"/>
     </row>
     <row customFormat="1" r="59" s="233">
-      <c r="A59" s="296" t="n"/>
+      <c r="A59" s="321" t="n"/>
       <c r="B59" s="236" t="n"/>
       <c r="C59" s="236" t="n"/>
-      <c r="D59" s="303" t="n"/>
-      <c r="E59" s="304" t="n"/>
+      <c r="D59" s="328" t="n"/>
+      <c r="E59" s="329" t="n"/>
       <c r="G59" s="234" t="n"/>
       <c r="H59" s="235" t="n"/>
       <c r="I59" s="179" t="n"/>
@@ -12702,11 +12721,11 @@
       <c r="M59" s="236" t="n"/>
     </row>
     <row customFormat="1" r="60" s="233">
-      <c r="A60" s="296" t="n"/>
+      <c r="A60" s="321" t="n"/>
       <c r="B60" s="236" t="n"/>
       <c r="C60" s="236" t="n"/>
-      <c r="D60" s="303" t="n"/>
-      <c r="E60" s="304" t="n"/>
+      <c r="D60" s="328" t="n"/>
+      <c r="E60" s="329" t="n"/>
       <c r="G60" s="234" t="n"/>
       <c r="H60" s="235" t="n"/>
       <c r="I60" s="179" t="n"/>
@@ -12716,11 +12735,11 @@
       <c r="M60" s="236" t="n"/>
     </row>
     <row customFormat="1" r="61" s="233">
-      <c r="A61" s="296" t="n"/>
+      <c r="A61" s="321" t="n"/>
       <c r="B61" s="236" t="n"/>
       <c r="C61" s="236" t="n"/>
-      <c r="D61" s="303" t="n"/>
-      <c r="E61" s="304" t="n"/>
+      <c r="D61" s="328" t="n"/>
+      <c r="E61" s="329" t="n"/>
       <c r="G61" s="234" t="n"/>
       <c r="H61" s="235" t="n"/>
       <c r="I61" s="179" t="n"/>
@@ -12730,11 +12749,11 @@
       <c r="M61" s="236" t="n"/>
     </row>
     <row customFormat="1" r="62" s="233">
-      <c r="A62" s="296" t="n"/>
+      <c r="A62" s="321" t="n"/>
       <c r="B62" s="230" t="n"/>
       <c r="C62" s="230" t="n"/>
-      <c r="D62" s="303" t="n"/>
-      <c r="E62" s="304" t="n"/>
+      <c r="D62" s="328" t="n"/>
+      <c r="E62" s="329" t="n"/>
       <c r="G62" s="234" t="n"/>
       <c r="H62" s="235" t="n"/>
       <c r="I62" s="179" t="n"/>
@@ -12744,11 +12763,11 @@
       <c r="M62" s="236" t="n"/>
     </row>
     <row customFormat="1" r="63" s="233">
-      <c r="A63" s="296" t="n"/>
+      <c r="A63" s="321" t="n"/>
       <c r="B63" s="230" t="n"/>
       <c r="C63" s="230" t="n"/>
-      <c r="D63" s="303" t="n"/>
-      <c r="E63" s="304" t="n"/>
+      <c r="D63" s="328" t="n"/>
+      <c r="E63" s="329" t="n"/>
       <c r="G63" s="234" t="n"/>
       <c r="H63" s="235" t="n"/>
       <c r="I63" s="179" t="n"/>
@@ -12758,11 +12777,11 @@
       <c r="M63" s="236" t="n"/>
     </row>
     <row customFormat="1" r="64" s="233">
-      <c r="A64" s="296" t="n"/>
+      <c r="A64" s="321" t="n"/>
       <c r="B64" s="230" t="n"/>
       <c r="C64" s="230" t="n"/>
-      <c r="D64" s="303" t="n"/>
-      <c r="E64" s="304" t="n"/>
+      <c r="D64" s="328" t="n"/>
+      <c r="E64" s="329" t="n"/>
       <c r="G64" s="234" t="n"/>
       <c r="H64" s="235" t="n"/>
       <c r="I64" s="179" t="n"/>
@@ -12772,11 +12791,11 @@
       <c r="M64" s="236" t="n"/>
     </row>
     <row customFormat="1" r="65" s="233">
-      <c r="A65" s="296" t="n"/>
+      <c r="A65" s="321" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
-      <c r="D65" s="303" t="n"/>
-      <c r="E65" s="304" t="n"/>
+      <c r="D65" s="328" t="n"/>
+      <c r="E65" s="329" t="n"/>
       <c r="G65" s="234" t="n"/>
       <c r="H65" s="235" t="n"/>
       <c r="I65" s="179" t="n"/>
@@ -12786,7 +12805,7 @@
       <c r="M65" s="236" t="n"/>
     </row>
     <row customFormat="1" r="66" s="233">
-      <c r="A66" s="296" t="n"/>
+      <c r="A66" s="321" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
       <c r="D66" s="231" t="n"/>
@@ -12800,7 +12819,7 @@
       <c r="M66" s="236" t="n"/>
     </row>
     <row customFormat="1" r="67" s="233">
-      <c r="A67" s="296" t="n"/>
+      <c r="A67" s="321" t="n"/>
       <c r="B67" s="230" t="n"/>
       <c r="C67" s="230" t="n"/>
       <c r="D67" s="231" t="n"/>
@@ -12814,7 +12833,7 @@
       <c r="M67" s="236" t="n"/>
     </row>
     <row customFormat="1" r="68" s="233">
-      <c r="A68" s="296" t="n"/>
+      <c r="A68" s="321" t="n"/>
       <c r="B68" s="230" t="n"/>
       <c r="C68" s="230" t="n"/>
       <c r="D68" s="231" t="n"/>
@@ -12828,7 +12847,7 @@
       <c r="M68" s="236" t="n"/>
     </row>
     <row customFormat="1" r="69" s="233">
-      <c r="A69" s="296" t="n"/>
+      <c r="A69" s="321" t="n"/>
       <c r="B69" s="230" t="n"/>
       <c r="C69" s="230" t="n"/>
       <c r="D69" s="231" t="n"/>
@@ -12842,7 +12861,7 @@
       <c r="M69" s="236" t="n"/>
     </row>
     <row customFormat="1" r="70" s="230">
-      <c r="A70" s="296" t="n"/>
+      <c r="A70" s="321" t="n"/>
       <c r="D70" s="231" t="n"/>
       <c r="E70" s="232" t="n"/>
       <c r="F70" s="233" t="n"/>
@@ -12854,7 +12873,7 @@
       <c r="M70" s="236" t="n"/>
     </row>
     <row customFormat="1" r="71" s="230">
-      <c r="A71" s="296" t="n"/>
+      <c r="A71" s="321" t="n"/>
       <c r="D71" s="231" t="n"/>
       <c r="E71" s="232" t="n"/>
       <c r="F71" s="233" t="n"/>
@@ -12866,7 +12885,7 @@
       <c r="M71" s="236" t="n"/>
     </row>
     <row customFormat="1" r="72" s="230">
-      <c r="A72" s="296" t="n"/>
+      <c r="A72" s="321" t="n"/>
       <c r="D72" s="231" t="n"/>
       <c r="E72" s="232" t="n"/>
       <c r="F72" s="233" t="n"/>
@@ -13793,14 +13812,10 @@
       </c>
       <c r="B4" s="363" t="inlineStr">
         <is>
-          <t>Brenda Wang</t>
-        </is>
-      </c>
-      <c r="C4" s="363" t="inlineStr">
-        <is>
-          <t>Level1-2-1</t>
-        </is>
-      </c>
+          <t>Jenny</t>
+        </is>
+      </c>
+      <c r="C4" s="363" t="inlineStr"/>
       <c r="D4" s="363" t="inlineStr"/>
       <c r="E4" s="363">
         <f>IFERROR(VLOOKUP($B15,$A$24:$D$61,4,FALSE),"")</f>
@@ -14105,10 +14120,14 @@
       </c>
       <c r="B5" s="363" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C5" s="363" t="inlineStr"/>
+          <t>Elliot Zhang</t>
+        </is>
+      </c>
+      <c r="C5" s="363" t="inlineStr">
+        <is>
+          <t>Level1-2-2</t>
+        </is>
+      </c>
       <c r="D5" s="363" t="inlineStr"/>
       <c r="E5" s="363">
         <f>IFERROR(VLOOKUP($B16,$A$24:$D$61,4,FALSE),"")</f>
@@ -14413,19 +14432,15 @@
       </c>
       <c r="B6" s="363" t="inlineStr">
         <is>
-          <t>Harper</t>
+          <t>Alicia Guo</t>
         </is>
       </c>
       <c r="C6" s="363" t="inlineStr">
         <is>
-          <t>AC3</t>
-        </is>
-      </c>
-      <c r="D6" s="363" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>CC5</t>
+        </is>
+      </c>
+      <c r="D6" s="363" t="inlineStr"/>
       <c r="E6" s="363">
         <f>IFERROR(VLOOKUP($B17,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -14730,19 +14745,15 @@
       </c>
       <c r="B7" s="363" t="inlineStr">
         <is>
-          <t>Bonnie Wang</t>
+          <t>Elliot Zhang</t>
         </is>
       </c>
       <c r="C7" s="363" t="inlineStr">
         <is>
-          <t>ACS11</t>
-        </is>
-      </c>
-      <c r="D7" s="363" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level1-2-2</t>
+        </is>
+      </c>
+      <c r="D7" s="363" t="inlineStr"/>
       <c r="E7" s="363">
         <f>IFERROR(VLOOKUP($B18,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -15042,10 +15053,14 @@
       </c>
       <c r="B8" s="363" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C8" s="363" t="inlineStr"/>
+          <t>Sawyer</t>
+        </is>
+      </c>
+      <c r="C8" s="363" t="inlineStr">
+        <is>
+          <t>Level2-2</t>
+        </is>
+      </c>
       <c r="D8" s="363" t="inlineStr"/>
       <c r="E8" s="363">
         <f>IFERROR(VLOOKUP($B19,$A$24:$D$61,4,FALSE),"")</f>
@@ -15350,7 +15365,7 @@
       </c>
       <c r="B9" s="363" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Eileen</t>
         </is>
       </c>
       <c r="C9" s="363" t="inlineStr"/>
@@ -15645,14 +15660,10 @@
       </c>
       <c r="B10" s="363" t="inlineStr">
         <is>
-          <t>Sawyer</t>
-        </is>
-      </c>
-      <c r="C10" s="363" t="inlineStr">
-        <is>
-          <t>Level2-2</t>
-        </is>
-      </c>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C10" s="363" t="inlineStr"/>
       <c r="D10" s="363" t="inlineStr"/>
       <c r="E10" s="363">
         <f>IFERROR(VLOOKUP($B21,$A$24:$D$61,4,FALSE),"")</f>
@@ -15947,15 +15958,19 @@
       </c>
       <c r="B11" s="380" t="inlineStr">
         <is>
-          <t>Kay</t>
+          <t>Bill Lin</t>
         </is>
       </c>
       <c r="C11" s="380" t="inlineStr">
         <is>
-          <t>Level1-2-1</t>
-        </is>
-      </c>
-      <c r="D11" s="380" t="inlineStr"/>
+          <t>ACS8</t>
+        </is>
+      </c>
+      <c r="D11" s="380" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E11" s="380">
         <f>IFERROR(VLOOKUP($B22,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16264,19 +16279,11 @@
       </c>
       <c r="B12" s="380" t="inlineStr">
         <is>
-          <t>Bill Lin</t>
-        </is>
-      </c>
-      <c r="C12" s="380" t="inlineStr">
-        <is>
-          <t>ACS7</t>
-        </is>
-      </c>
-      <c r="D12" s="380" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C12" s="380" t="inlineStr"/>
+      <c r="D12" s="380" t="inlineStr"/>
       <c r="E12" s="380">
         <f>IFERROR(VLOOKUP($B23,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16715,7 +16722,7 @@
       </c>
       <c r="B15" s="363" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C15" s="363" t="inlineStr"/>
@@ -17011,7 +17018,7 @@
       </c>
       <c r="B16" s="363" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C16" s="363" t="inlineStr"/>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17640" windowWidth="29040" xWindow="28680" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17640" windowWidth="29040" xWindow="28680" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda-1" sheetId="1" state="visible" r:id="rId1"/>
@@ -598,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="109">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -1808,6 +1808,21 @@
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color theme="0" tint="-0.1499374370555742"/>
       </right>
       <top style="medium">
@@ -1878,10 +1893,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="00000000"/>
@@ -2933,220 +2948,56 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="76" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf borderId="73" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="77" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="78" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="79" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="80" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf borderId="75" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="75" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="81" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="82" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="83" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="73" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="77" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="88" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="67" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="68" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="69" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="76" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="73" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="77" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="78" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="79" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="80" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="75" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="75" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="81" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="87" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="82" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="83" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="73" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="77" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="88" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="95" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3158,6 +3009,57 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="95" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3167,31 +3069,144 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="109" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="105" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="106" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="107" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="29" fillId="0" fontId="21" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="108" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="105" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="106" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="107" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
@@ -3702,7 +3717,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>41</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2057400" cy="2057400"/>
@@ -4071,7 +4086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4113,125 +4128,139 @@
       <c r="F1" s="239" t="n"/>
       <c r="G1" s="239" t="n"/>
       <c r="H1" s="239" t="n"/>
+      <c r="I1" s="239" t="n"/>
+      <c r="J1" s="240" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="237">
-      <c r="A2" s="240" t="inlineStr">
+      <c r="A2" s="241" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="241" t="n"/>
-      <c r="J2" s="241" t="n"/>
+      <c r="I2" s="242" t="n"/>
+      <c r="J2" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="237">
-      <c r="A3" s="242" t="inlineStr">
+      <c r="A3" s="244" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="243" t="n"/>
-      <c r="J3" s="243" t="n"/>
+      <c r="B3" s="245" t="n"/>
+      <c r="C3" s="245" t="n"/>
+      <c r="D3" s="245" t="n"/>
+      <c r="E3" s="245" t="n"/>
+      <c r="F3" s="245" t="n"/>
+      <c r="G3" s="245" t="n"/>
+      <c r="H3" s="245" t="n"/>
+      <c r="I3" s="246" t="n"/>
+      <c r="J3" s="247" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="237">
-      <c r="A4" s="244" t="inlineStr">
+      <c r="A4" s="248" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="245" t="inlineStr">
+      <c r="B4" s="249" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="246" t="n"/>
-      <c r="D4" s="246" t="n"/>
-      <c r="E4" s="246" t="n"/>
-      <c r="F4" s="246" t="n"/>
-      <c r="G4" s="246" t="n"/>
-      <c r="H4" s="247" t="n"/>
-      <c r="I4" s="241" t="n"/>
-      <c r="J4" s="241" t="n"/>
+      <c r="C4" s="239" t="n"/>
+      <c r="D4" s="239" t="n"/>
+      <c r="E4" s="239" t="n"/>
+      <c r="F4" s="239" t="n"/>
+      <c r="G4" s="239" t="n"/>
+      <c r="H4" s="250" t="n"/>
+      <c r="I4" s="251" t="n"/>
+      <c r="J4" s="252" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
-      <c r="A5" s="248" t="n"/>
-      <c r="B5" s="249" t="n"/>
-      <c r="H5" s="250" t="n"/>
-      <c r="I5" s="243" t="n"/>
-      <c r="J5" s="243" t="n"/>
+      <c r="A5" s="253" t="n"/>
+      <c r="B5" s="254" t="n"/>
+      <c r="C5" s="245" t="n"/>
+      <c r="D5" s="245" t="n"/>
+      <c r="E5" s="245" t="n"/>
+      <c r="F5" s="245" t="n"/>
+      <c r="G5" s="245" t="n"/>
+      <c r="H5" s="255" t="n"/>
+      <c r="I5" s="246" t="n"/>
+      <c r="J5" s="247" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
-      <c r="A6" s="248" t="n"/>
-      <c r="B6" s="249" t="n"/>
-      <c r="H6" s="250" t="n"/>
-      <c r="I6" s="243" t="n"/>
-      <c r="J6" s="243" t="n"/>
+      <c r="A6" s="256" t="n"/>
+      <c r="B6" s="257" t="n"/>
+      <c r="H6" s="258" t="n"/>
+      <c r="I6" s="259" t="n"/>
+      <c r="J6" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
-      <c r="A7" s="251" t="n"/>
-      <c r="B7" s="252" t="n"/>
-      <c r="C7" s="253" t="n"/>
-      <c r="D7" s="253" t="n"/>
-      <c r="E7" s="253" t="n"/>
-      <c r="F7" s="253" t="n"/>
-      <c r="G7" s="253" t="n"/>
-      <c r="H7" s="254" t="n"/>
-      <c r="I7" s="243" t="n"/>
-      <c r="J7" s="243" t="n"/>
+      <c r="A7" s="260" t="n"/>
+      <c r="B7" s="261" t="n"/>
+      <c r="C7" s="262" t="n"/>
+      <c r="D7" s="262" t="n"/>
+      <c r="E7" s="262" t="n"/>
+      <c r="F7" s="262" t="n"/>
+      <c r="G7" s="262" t="n"/>
+      <c r="H7" s="263" t="n"/>
+      <c r="I7" s="259" t="n"/>
+      <c r="J7" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
-      <c r="A8" s="255" t="inlineStr">
-        <is>
-          <t>Theme Today: sleepless in seattle</t>
-        </is>
-      </c>
-      <c r="B8" s="256" t="n"/>
-      <c r="C8" s="256" t="n"/>
-      <c r="D8" s="256" t="n"/>
-      <c r="E8" s="256" t="n"/>
-      <c r="F8" s="256" t="n"/>
-      <c r="G8" s="256" t="n"/>
-      <c r="H8" s="257" t="n"/>
-      <c r="I8" s="243" t="n"/>
-      <c r="J8" s="243" t="n"/>
+      <c r="A8" s="264" t="inlineStr">
+        <is>
+          <t>Theme Today: Time Management</t>
+        </is>
+      </c>
+      <c r="B8" s="265" t="n"/>
+      <c r="C8" s="265" t="n"/>
+      <c r="D8" s="265" t="n"/>
+      <c r="E8" s="265" t="n"/>
+      <c r="F8" s="265" t="n"/>
+      <c r="G8" s="265" t="n"/>
+      <c r="H8" s="266" t="n"/>
+      <c r="I8" s="267" t="n"/>
+      <c r="J8" s="268" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
-      <c r="A9" s="258" t="inlineStr">
+      <c r="A9" s="269" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="259" t="inlineStr">
+      <c r="B9" s="270" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="260" t="inlineStr">
+      <c r="C9" s="271" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="261" t="inlineStr">
+      <c r="D9" s="272" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="262" t="inlineStr">
+      <c r="E9" s="273" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="263" t="inlineStr">
+      <c r="F9" s="274" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="264" t="inlineStr">
+      <c r="G9" s="275" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="265" t="inlineStr">
+      <c r="H9" s="276" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -4244,21 +4273,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="237">
-      <c r="A10" s="266">
+      <c r="A10" s="277">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="267" t="inlineStr">
+      <c r="B10" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="267" t="inlineStr">
+      <c r="C10" s="278" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="268">
+      <c r="D10" s="279">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4277,21 +4306,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="237">
-      <c r="A11" s="266">
+      <c r="A11" s="277">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="269" t="inlineStr">
+      <c r="B11" s="280" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="270" t="inlineStr">
+      <c r="C11" s="281" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="271">
+      <c r="D11" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -4318,21 +4347,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="237">
-      <c r="A12" s="266">
+      <c r="A12" s="277">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="267" t="inlineStr">
+      <c r="B12" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="272" t="inlineStr">
+      <c r="C12" s="283" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="271">
+      <c r="D12" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4363,21 +4392,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="237">
-      <c r="A13" s="266">
+      <c r="A13" s="277">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="269" t="inlineStr">
+      <c r="B13" s="280" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="269" t="inlineStr">
+      <c r="C13" s="280" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="271">
+      <c r="D13" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4402,21 +4431,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="237">
-      <c r="A14" s="266">
+      <c r="A14" s="277">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="269" t="inlineStr">
+      <c r="B14" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="269" t="inlineStr">
+      <c r="C14" s="280" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="271">
+      <c r="D14" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4438,24 +4467,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="241" t="n"/>
+      <c r="L14" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="237">
-      <c r="A15" s="266">
+      <c r="A15" s="277">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="269" t="inlineStr">
+      <c r="B15" s="280" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="269" t="inlineStr">
+      <c r="C15" s="280" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="271">
+      <c r="D15" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -4475,24 +4504,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="241" t="n"/>
+      <c r="L15" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="237">
-      <c r="A16" s="266">
+      <c r="A16" s="277">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="269" t="inlineStr">
+      <c r="B16" s="280" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="269" t="inlineStr">
+      <c r="C16" s="280" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="271">
+      <c r="D16" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -4512,24 +4541,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="241" t="n"/>
+      <c r="L16" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="237">
-      <c r="A17" s="266">
+      <c r="A17" s="277">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="269" t="inlineStr">
+      <c r="B17" s="280" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="269" t="inlineStr">
+      <c r="C17" s="280" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="271">
+      <c r="D17" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -4553,24 +4582,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="241" t="n"/>
+      <c r="L17" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="237">
-      <c r="A18" s="266">
+      <c r="A18" s="277">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="269" t="inlineStr">
+      <c r="B18" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="269" t="inlineStr">
+      <c r="C18" s="280" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="271">
+      <c r="D18" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4591,11 +4620,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
-      <c r="A19" s="273">
+      <c r="A19" s="284">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="274" t="inlineStr">
+      <c r="B19" s="285" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -4605,7 +4634,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="271">
+      <c r="D19" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4626,28 +4655,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
-      <c r="A20" s="275" t="inlineStr">
+      <c r="A20" s="286" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="256" t="n"/>
-      <c r="C20" s="256" t="n"/>
-      <c r="D20" s="256" t="n"/>
-      <c r="E20" s="256" t="n"/>
-      <c r="F20" s="256" t="n"/>
-      <c r="G20" s="256" t="n"/>
-      <c r="H20" s="257" t="n"/>
-      <c r="I20" s="37" t="n">
+      <c r="B20" s="265" t="n"/>
+      <c r="C20" s="265" t="n"/>
+      <c r="D20" s="265" t="n"/>
+      <c r="E20" s="265" t="n"/>
+      <c r="F20" s="265" t="n"/>
+      <c r="G20" s="265" t="n"/>
+      <c r="H20" s="266" t="n"/>
+      <c r="I20" s="287" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="288">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="237">
-      <c r="A21" s="266">
+      <c r="A21" s="277">
         <f>J20</f>
         <v/>
       </c>
@@ -4661,7 +4690,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="276">
+      <c r="D21" s="289">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -4686,21 +4715,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="237">
-      <c r="A22" s="266">
+      <c r="A22" s="277">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="272" t="inlineStr">
+      <c r="B22" s="283" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="272" t="inlineStr">
+      <c r="C22" s="283" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="271">
+      <c r="D22" s="282">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -4733,21 +4762,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="237">
-      <c r="A23" s="266">
+      <c r="A23" s="277">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="272" t="inlineStr">
+      <c r="B23" s="283" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="269" t="inlineStr">
+      <c r="C23" s="280" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="271">
+      <c r="D23" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4770,17 +4799,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
-      <c r="A24" s="277">
+      <c r="A24" s="290">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="278" t="inlineStr">
+      <c r="B24" s="291" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="279">
+      <c r="D24" s="292">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4803,30 +4832,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
-      <c r="A25" s="275" t="inlineStr">
+      <c r="A25" s="286" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="256" t="n"/>
-      <c r="C25" s="256" t="n"/>
-      <c r="D25" s="256" t="n"/>
-      <c r="E25" s="256" t="n"/>
-      <c r="F25" s="256" t="n"/>
-      <c r="G25" s="256" t="n"/>
-      <c r="H25" s="257" t="n"/>
-      <c r="I25" s="37" t="n">
+      <c r="B25" s="265" t="n"/>
+      <c r="C25" s="265" t="n"/>
+      <c r="D25" s="265" t="n"/>
+      <c r="E25" s="265" t="n"/>
+      <c r="F25" s="265" t="n"/>
+      <c r="G25" s="265" t="n"/>
+      <c r="H25" s="266" t="n"/>
+      <c r="I25" s="287" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="288">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="241" t="n"/>
+      <c r="L25" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="237">
-      <c r="A26" s="266">
+      <c r="A26" s="277">
         <f>J25</f>
         <v/>
       </c>
@@ -4840,7 +4869,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="276">
+      <c r="D26" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4862,119 +4891,115 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="241" t="n"/>
+      <c r="L26" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="237" thickBot="1">
-      <c r="A27" s="266">
+      <c r="A27" s="277">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="269" t="inlineStr">
+      <c r="B27" s="280" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="280" t="inlineStr">
-        <is>
-          <t>Ice Breaker</t>
-        </is>
-      </c>
-      <c r="D27" s="281">
+      <c r="C27" s="293" t="inlineStr">
+        <is>
+          <t>How to hold a productive meeting</t>
+        </is>
+      </c>
+      <c r="D27" s="294">
         <f>Roles!B11</f>
         <v/>
       </c>
       <c r="E27" s="72" t="inlineStr">
         <is>
-          <t>5-7</t>
-        </is>
-      </c>
-      <c r="F27" s="103" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G27" s="104" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H27" s="105" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I27" s="37" t="n">
-        <v>0.004861111111111111</v>
+          <t>6-8</t>
+        </is>
+      </c>
+      <c r="F27" s="103" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" s="104" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" s="105" t="n">
+        <v>8</v>
+      </c>
+      <c r="I27" s="37" t="inlineStr">
+        <is>
+          <t>0:08</t>
+        </is>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="241" t="n"/>
+      <c r="L27" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="237" thickBot="1">
-      <c r="A28" s="275" t="inlineStr">
+      <c r="A28" s="295" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B28" s="256" t="n"/>
-      <c r="C28" s="256" t="n"/>
-      <c r="D28" s="256" t="n"/>
-      <c r="E28" s="256" t="n"/>
-      <c r="F28" s="256" t="n"/>
-      <c r="G28" s="256" t="n"/>
-      <c r="H28" s="257" t="n"/>
+      <c r="B28" s="296" t="n"/>
+      <c r="C28" s="296" t="n"/>
+      <c r="D28" s="296" t="n"/>
+      <c r="E28" s="296" t="n"/>
+      <c r="F28" s="296" t="n"/>
+      <c r="G28" s="296" t="n"/>
+      <c r="H28" s="297" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="241" t="n"/>
+      <c r="L28" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="237">
-      <c r="A29" s="266">
+      <c r="A29" s="298">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="24" t="inlineStr">
+      <c r="B29" s="299" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="300" t="inlineStr">
         <is>
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D29" s="276">
+      <c r="D29" s="301">
         <f>Roles!B5</f>
         <v/>
       </c>
-      <c r="E29" s="27" t="n">
+      <c r="E29" s="302" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="148" t="n"/>
-      <c r="G29" s="149" t="n">
+      <c r="F29" s="303" t="n"/>
+      <c r="G29" s="304" t="n">
         <v>0.5</v>
       </c>
-      <c r="H29" s="150" t="n">
+      <c r="H29" s="305" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="37" t="n">
+      <c r="I29" s="287" t="n">
         <v>1.000694444444445</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="288">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="241" t="n"/>
+      <c r="L29" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="237">
-      <c r="A30" s="266">
+      <c r="A30" s="277">
         <f>J29</f>
         <v/>
       </c>
@@ -4988,11 +5013,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D30" s="276">
+      <c r="D30" s="289">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="282" t="inlineStr">
+      <c r="E30" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -5014,10 +5039,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="241" t="n"/>
+      <c r="L30" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="237">
-      <c r="A31" s="266">
+      <c r="A31" s="277">
         <f>J30</f>
         <v/>
       </c>
@@ -5031,7 +5056,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D31" s="271">
+      <c r="D31" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -5055,10 +5080,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="283" t="n"/>
+      <c r="L31" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="237">
-      <c r="A32" s="266">
+      <c r="A32" s="277">
         <f>J31</f>
         <v/>
       </c>
@@ -5072,7 +5097,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D32" s="271">
+      <c r="D32" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -5098,10 +5123,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="283" t="n"/>
+      <c r="L32" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="237">
-      <c r="A33" s="266">
+      <c r="A33" s="277">
         <f>J32</f>
         <v/>
       </c>
@@ -5115,7 +5140,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D33" s="271">
+      <c r="D33" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -5139,14 +5164,14 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="283" t="n"/>
+      <c r="L33" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="237">
-      <c r="A34" s="266">
+      <c r="A34" s="277">
         <f>J33</f>
         <v/>
       </c>
-      <c r="B34" s="267" t="inlineStr">
+      <c r="B34" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -5156,7 +5181,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D34" s="271">
+      <c r="D34" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -5176,24 +5201,24 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="283" t="n"/>
+      <c r="L34" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="237">
-      <c r="A35" s="266">
+      <c r="A35" s="277">
         <f>J34</f>
         <v/>
       </c>
-      <c r="B35" s="269" t="inlineStr">
+      <c r="B35" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C35" s="269" t="inlineStr">
+      <c r="C35" s="280" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D35" s="271">
+      <c r="D35" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -5225,24 +5250,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="283" t="n"/>
+      <c r="L35" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="237" thickBot="1">
-      <c r="A36" s="284">
+      <c r="A36" s="308">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="272" t="inlineStr">
+      <c r="B36" s="283" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C36" s="269" t="inlineStr">
+      <c r="C36" s="280" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D36" s="271">
+      <c r="D36" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -5274,24 +5299,24 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="283" t="n"/>
+      <c r="L36" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="237" thickBot="1">
-      <c r="A37" s="284">
+      <c r="A37" s="308">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="285" t="inlineStr">
+      <c r="B37" s="309" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C37" s="286" t="inlineStr">
+      <c r="C37" s="310" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D37" s="271">
+      <c r="D37" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -5316,21 +5341,21 @@
       <c r="L37" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="237">
-      <c r="A38" s="287" t="n"/>
-      <c r="B38" s="239" t="n"/>
-      <c r="C38" s="239" t="n"/>
-      <c r="D38" s="239" t="n"/>
+      <c r="A38" s="311" t="n"/>
+      <c r="B38" s="312" t="n"/>
+      <c r="C38" s="312" t="n"/>
+      <c r="D38" s="312" t="n"/>
       <c r="E38" s="236" t="n"/>
-      <c r="F38" s="288" t="n"/>
-      <c r="G38" s="289" t="n"/>
-      <c r="H38" s="290" t="n"/>
+      <c r="F38" s="313" t="n"/>
+      <c r="G38" s="314" t="n"/>
+      <c r="H38" s="315" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
       <c r="L38" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="39" s="237">
-      <c r="A39" s="291" t="inlineStr">
+      <c r="A39" s="316" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -5340,18 +5365,18 @@
 </t>
         </is>
       </c>
-      <c r="D39" s="292" t="n"/>
+      <c r="D39" s="317" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="293" t="inlineStr">
+      <c r="J39" s="318" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="294" t="n"/>
+      <c r="K39" s="319" t="n"/>
       <c r="L39" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="237">
-      <c r="A40" s="295" t="inlineStr">
+      <c r="A40" s="320" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -5362,91 +5387,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="293" t="n"/>
+      <c r="J40" s="318" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="237">
-      <c r="A41" s="296" t="n"/>
+      <c r="A41" s="321" t="n"/>
       <c r="B41" s="236" t="n"/>
-      <c r="D41" s="297" t="n"/>
-      <c r="E41" s="298" t="n"/>
-      <c r="F41" s="298" t="n"/>
-      <c r="G41" s="298" t="n"/>
-      <c r="H41" s="298" t="n"/>
+      <c r="D41" s="322" t="n"/>
+      <c r="E41" s="323" t="n"/>
+      <c r="F41" s="323" t="n"/>
+      <c r="G41" s="323" t="n"/>
+      <c r="H41" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="237">
-      <c r="A42" s="296" t="n"/>
+      <c r="A42" s="321" t="n"/>
       <c r="B42" s="236" t="n"/>
       <c r="C42" s="236" t="n"/>
-      <c r="D42" s="297" t="n"/>
-      <c r="F42" s="298" t="n"/>
-      <c r="G42" s="298" t="n"/>
-      <c r="H42" s="298" t="n"/>
+      <c r="D42" s="322" t="n"/>
+      <c r="F42" s="323" t="n"/>
+      <c r="G42" s="323" t="n"/>
+      <c r="H42" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="237">
-      <c r="A43" s="296" t="n"/>
+      <c r="A43" s="321" t="n"/>
       <c r="B43" s="236" t="n"/>
       <c r="C43" s="236" t="n"/>
-      <c r="D43" s="299" t="n"/>
-      <c r="E43" s="300" t="n"/>
-      <c r="F43" s="301" t="n"/>
-      <c r="G43" s="302" t="n"/>
+      <c r="D43" s="324" t="n"/>
+      <c r="E43" s="325" t="n"/>
+      <c r="F43" s="326" t="n"/>
+      <c r="G43" s="327" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="237">
-      <c r="A44" s="296" t="n"/>
+      <c r="A44" s="321" t="n"/>
       <c r="B44" s="236" t="n"/>
-      <c r="D44" s="303" t="n"/>
-      <c r="E44" s="304" t="n"/>
+      <c r="D44" s="328" t="n"/>
+      <c r="E44" s="329" t="n"/>
       <c r="L44" s="179" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="237">
-      <c r="A45" s="296" t="n"/>
+      <c r="A45" s="321" t="n"/>
       <c r="B45" s="236" t="n"/>
-      <c r="D45" s="303" t="n"/>
-      <c r="E45" s="304" t="n"/>
+      <c r="D45" s="328" t="n"/>
+      <c r="E45" s="329" t="n"/>
       <c r="L45" s="179" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="296" t="n"/>
+      <c r="A46" s="321" t="n"/>
       <c r="B46" s="236" t="n"/>
-      <c r="D46" s="303" t="n"/>
-      <c r="E46" s="304" t="n"/>
+      <c r="D46" s="328" t="n"/>
+      <c r="E46" s="329" t="n"/>
       <c r="L46" s="179" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="296" t="n"/>
+      <c r="A47" s="321" t="n"/>
       <c r="B47" s="236" t="n"/>
       <c r="C47" s="236" t="n"/>
-      <c r="D47" s="303" t="n"/>
-      <c r="E47" s="304" t="n"/>
+      <c r="D47" s="328" t="n"/>
+      <c r="E47" s="329" t="n"/>
       <c r="L47" s="179" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="296" t="n"/>
+      <c r="A48" s="321" t="n"/>
       <c r="B48" s="236" t="n"/>
       <c r="C48" s="236" t="n"/>
-      <c r="D48" s="303" t="n"/>
-      <c r="E48" s="304" t="n"/>
+      <c r="D48" s="328" t="n"/>
+      <c r="E48" s="329" t="n"/>
       <c r="L48" s="179" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="296" t="n"/>
+      <c r="A49" s="321" t="n"/>
       <c r="B49" s="236" t="n"/>
       <c r="C49" s="236" t="n"/>
-      <c r="E49" s="304" t="n"/>
+      <c r="E49" s="329" t="n"/>
       <c r="L49" s="179" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="296" t="n"/>
+      <c r="A50" s="321" t="n"/>
       <c r="B50" s="236" t="n"/>
-      <c r="D50" s="303" t="n"/>
-      <c r="E50" s="304" t="n"/>
+      <c r="D50" s="328" t="n"/>
+      <c r="E50" s="329" t="n"/>
     </row>
     <row customFormat="1" r="51" s="233">
-      <c r="A51" s="296" t="n"/>
+      <c r="A51" s="321" t="n"/>
       <c r="B51" s="236" t="n"/>
       <c r="C51" s="236" t="n"/>
-      <c r="D51" s="303" t="n"/>
-      <c r="E51" s="304" t="n"/>
+      <c r="D51" s="328" t="n"/>
+      <c r="E51" s="329" t="n"/>
       <c r="G51" s="234" t="n"/>
       <c r="H51" s="235" t="n"/>
       <c r="I51" s="179" t="n"/>
@@ -5456,11 +5481,11 @@
       <c r="M51" s="236" t="n"/>
     </row>
     <row customFormat="1" r="52" s="233">
-      <c r="A52" s="296" t="n"/>
+      <c r="A52" s="321" t="n"/>
       <c r="B52" s="236" t="n"/>
       <c r="C52" s="230" t="n"/>
-      <c r="D52" s="303" t="n"/>
-      <c r="E52" s="304" t="n"/>
+      <c r="D52" s="328" t="n"/>
+      <c r="E52" s="329" t="n"/>
       <c r="G52" s="234" t="n"/>
       <c r="H52" s="235" t="n"/>
       <c r="I52" s="179" t="n"/>
@@ -5470,11 +5495,11 @@
       <c r="M52" s="236" t="n"/>
     </row>
     <row customFormat="1" r="53" s="233">
-      <c r="A53" s="296" t="n"/>
+      <c r="A53" s="321" t="n"/>
       <c r="B53" s="236" t="n"/>
       <c r="C53" s="236" t="n"/>
-      <c r="D53" s="303" t="n"/>
-      <c r="E53" s="304" t="n"/>
+      <c r="D53" s="328" t="n"/>
+      <c r="E53" s="329" t="n"/>
       <c r="G53" s="234" t="n"/>
       <c r="H53" s="235" t="n"/>
       <c r="I53" s="179" t="n"/>
@@ -5484,11 +5509,11 @@
       <c r="M53" s="236" t="n"/>
     </row>
     <row customFormat="1" r="54" s="233">
-      <c r="A54" s="296" t="n"/>
+      <c r="A54" s="321" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
-      <c r="D54" s="303" t="n"/>
-      <c r="E54" s="304" t="n"/>
+      <c r="D54" s="328" t="n"/>
+      <c r="E54" s="329" t="n"/>
       <c r="G54" s="234" t="n"/>
       <c r="H54" s="235" t="n"/>
       <c r="I54" s="179" t="n"/>
@@ -5498,11 +5523,11 @@
       <c r="M54" s="236" t="n"/>
     </row>
     <row customFormat="1" r="55" s="233">
-      <c r="A55" s="296" t="n"/>
+      <c r="A55" s="321" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="236" t="n"/>
-      <c r="D55" s="303" t="n"/>
-      <c r="E55" s="304" t="n"/>
+      <c r="D55" s="328" t="n"/>
+      <c r="E55" s="329" t="n"/>
       <c r="G55" s="234" t="n"/>
       <c r="H55" s="235" t="n"/>
       <c r="I55" s="179" t="n"/>
@@ -5512,11 +5537,11 @@
       <c r="M55" s="236" t="n"/>
     </row>
     <row customFormat="1" r="56" s="233">
-      <c r="A56" s="296" t="n"/>
+      <c r="A56" s="321" t="n"/>
       <c r="B56" s="236" t="n"/>
       <c r="C56" s="236" t="n"/>
-      <c r="D56" s="303" t="n"/>
-      <c r="E56" s="304" t="n"/>
+      <c r="D56" s="328" t="n"/>
+      <c r="E56" s="329" t="n"/>
       <c r="G56" s="234" t="n"/>
       <c r="H56" s="235" t="n"/>
       <c r="I56" s="179" t="n"/>
@@ -5526,11 +5551,11 @@
       <c r="M56" s="236" t="n"/>
     </row>
     <row customFormat="1" r="57" s="233">
-      <c r="A57" s="296" t="n"/>
+      <c r="A57" s="321" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
-      <c r="D57" s="303" t="n"/>
-      <c r="E57" s="304" t="n"/>
+      <c r="D57" s="328" t="n"/>
+      <c r="E57" s="329" t="n"/>
       <c r="G57" s="234" t="n"/>
       <c r="H57" s="235" t="n"/>
       <c r="I57" s="179" t="n"/>
@@ -5540,11 +5565,11 @@
       <c r="M57" s="236" t="n"/>
     </row>
     <row customFormat="1" r="58" s="233">
-      <c r="A58" s="296" t="n"/>
+      <c r="A58" s="321" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="236" t="n"/>
-      <c r="D58" s="303" t="n"/>
-      <c r="E58" s="304" t="n"/>
+      <c r="D58" s="328" t="n"/>
+      <c r="E58" s="329" t="n"/>
       <c r="G58" s="234" t="n"/>
       <c r="H58" s="235" t="n"/>
       <c r="I58" s="179" t="n"/>
@@ -5554,11 +5579,11 @@
       <c r="M58" s="236" t="n"/>
     </row>
     <row customFormat="1" r="59" s="233">
-      <c r="A59" s="296" t="n"/>
+      <c r="A59" s="321" t="n"/>
       <c r="B59" s="230" t="n"/>
       <c r="C59" s="230" t="n"/>
-      <c r="D59" s="303" t="n"/>
-      <c r="E59" s="304" t="n"/>
+      <c r="D59" s="328" t="n"/>
+      <c r="E59" s="329" t="n"/>
       <c r="G59" s="234" t="n"/>
       <c r="H59" s="235" t="n"/>
       <c r="I59" s="179" t="n"/>
@@ -5568,11 +5593,11 @@
       <c r="M59" s="236" t="n"/>
     </row>
     <row customFormat="1" r="60" s="233">
-      <c r="A60" s="296" t="n"/>
+      <c r="A60" s="321" t="n"/>
       <c r="B60" s="230" t="n"/>
       <c r="C60" s="230" t="n"/>
-      <c r="D60" s="303" t="n"/>
-      <c r="E60" s="304" t="n"/>
+      <c r="D60" s="328" t="n"/>
+      <c r="E60" s="329" t="n"/>
       <c r="G60" s="234" t="n"/>
       <c r="H60" s="235" t="n"/>
       <c r="I60" s="179" t="n"/>
@@ -5582,11 +5607,11 @@
       <c r="M60" s="236" t="n"/>
     </row>
     <row customFormat="1" r="61" s="233">
-      <c r="A61" s="296" t="n"/>
+      <c r="A61" s="321" t="n"/>
       <c r="B61" s="230" t="n"/>
       <c r="C61" s="230" t="n"/>
-      <c r="D61" s="303" t="n"/>
-      <c r="E61" s="304" t="n"/>
+      <c r="D61" s="328" t="n"/>
+      <c r="E61" s="329" t="n"/>
       <c r="G61" s="234" t="n"/>
       <c r="H61" s="235" t="n"/>
       <c r="I61" s="179" t="n"/>
@@ -5596,11 +5621,11 @@
       <c r="M61" s="236" t="n"/>
     </row>
     <row customFormat="1" r="62" s="233">
-      <c r="A62" s="296" t="n"/>
+      <c r="A62" s="321" t="n"/>
       <c r="B62" s="230" t="n"/>
       <c r="C62" s="230" t="n"/>
-      <c r="D62" s="303" t="n"/>
-      <c r="E62" s="304" t="n"/>
+      <c r="D62" s="328" t="n"/>
+      <c r="E62" s="329" t="n"/>
       <c r="G62" s="234" t="n"/>
       <c r="H62" s="235" t="n"/>
       <c r="I62" s="179" t="n"/>
@@ -5610,7 +5635,7 @@
       <c r="M62" s="236" t="n"/>
     </row>
     <row customFormat="1" r="63" s="233">
-      <c r="A63" s="296" t="n"/>
+      <c r="A63" s="321" t="n"/>
       <c r="B63" s="230" t="n"/>
       <c r="C63" s="230" t="n"/>
       <c r="D63" s="231" t="n"/>
@@ -5624,7 +5649,7 @@
       <c r="M63" s="236" t="n"/>
     </row>
     <row customFormat="1" r="64" s="233">
-      <c r="A64" s="296" t="n"/>
+      <c r="A64" s="321" t="n"/>
       <c r="B64" s="230" t="n"/>
       <c r="C64" s="230" t="n"/>
       <c r="D64" s="231" t="n"/>
@@ -5638,7 +5663,7 @@
       <c r="M64" s="236" t="n"/>
     </row>
     <row customFormat="1" r="65" s="233">
-      <c r="A65" s="296" t="n"/>
+      <c r="A65" s="321" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
       <c r="D65" s="231" t="n"/>
@@ -5652,7 +5677,7 @@
       <c r="M65" s="236" t="n"/>
     </row>
     <row customFormat="1" r="66" s="233">
-      <c r="A66" s="296" t="n"/>
+      <c r="A66" s="321" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
       <c r="D66" s="231" t="n"/>
@@ -5666,7 +5691,7 @@
       <c r="M66" s="236" t="n"/>
     </row>
     <row customFormat="1" r="67" s="230">
-      <c r="A67" s="296" t="n"/>
+      <c r="A67" s="321" t="n"/>
       <c r="D67" s="231" t="n"/>
       <c r="E67" s="232" t="n"/>
       <c r="F67" s="233" t="n"/>
@@ -5678,7 +5703,7 @@
       <c r="M67" s="236" t="n"/>
     </row>
     <row customFormat="1" r="68" s="230">
-      <c r="A68" s="296" t="n"/>
+      <c r="A68" s="321" t="n"/>
       <c r="D68" s="231" t="n"/>
       <c r="E68" s="232" t="n"/>
       <c r="F68" s="233" t="n"/>
@@ -5690,7 +5715,7 @@
       <c r="M68" s="236" t="n"/>
     </row>
     <row customFormat="1" r="69" s="230">
-      <c r="A69" s="296" t="n"/>
+      <c r="A69" s="321" t="n"/>
       <c r="D69" s="231" t="n"/>
       <c r="E69" s="232" t="n"/>
       <c r="F69" s="233" t="n"/>
@@ -5721,11 +5746,12 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5755,151 +5781,137 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="237">
-      <c r="A1" s="305" t="inlineStr">
+      <c r="A1" s="330" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="306" t="n"/>
-      <c r="C1" s="306" t="n"/>
-      <c r="D1" s="306" t="n"/>
-      <c r="E1" s="306" t="n"/>
-      <c r="F1" s="306" t="n"/>
-      <c r="G1" s="306" t="n"/>
-      <c r="H1" s="306" t="n"/>
-      <c r="I1" s="306" t="n"/>
-      <c r="J1" s="307" t="n"/>
+      <c r="B1" s="312" t="n"/>
+      <c r="C1" s="312" t="n"/>
+      <c r="D1" s="312" t="n"/>
+      <c r="E1" s="312" t="n"/>
+      <c r="F1" s="312" t="n"/>
+      <c r="G1" s="312" t="n"/>
+      <c r="H1" s="312" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="237">
-      <c r="A2" s="308" t="inlineStr">
+      <c r="A2" s="331" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="241" t="n"/>
-      <c r="J2" s="309" t="n"/>
+      <c r="I2" s="242" t="n"/>
+      <c r="J2" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="237">
-      <c r="A3" s="310" t="inlineStr">
+      <c r="A3" s="332" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="B3" s="311" t="n"/>
-      <c r="C3" s="311" t="n"/>
-      <c r="D3" s="311" t="n"/>
-      <c r="E3" s="311" t="n"/>
-      <c r="F3" s="311" t="n"/>
-      <c r="G3" s="311" t="n"/>
-      <c r="H3" s="311" t="n"/>
-      <c r="I3" s="312" t="n"/>
-      <c r="J3" s="313" t="n"/>
+      <c r="I3" s="259" t="n"/>
+      <c r="J3" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="237">
-      <c r="A4" s="314" t="inlineStr">
+      <c r="A4" s="333" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="315" t="inlineStr">
+      <c r="B4" s="334" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="306" t="n"/>
-      <c r="D4" s="306" t="n"/>
-      <c r="E4" s="306" t="n"/>
-      <c r="F4" s="306" t="n"/>
-      <c r="G4" s="306" t="n"/>
-      <c r="H4" s="316" t="n"/>
-      <c r="I4" s="317" t="n"/>
-      <c r="J4" s="318" t="n"/>
+      <c r="C4" s="335" t="n"/>
+      <c r="D4" s="335" t="n"/>
+      <c r="E4" s="335" t="n"/>
+      <c r="F4" s="335" t="n"/>
+      <c r="G4" s="335" t="n"/>
+      <c r="H4" s="336" t="n"/>
+      <c r="I4" s="242" t="n"/>
+      <c r="J4" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
-      <c r="A5" s="319" t="n"/>
-      <c r="B5" s="320" t="n"/>
-      <c r="C5" s="311" t="n"/>
-      <c r="D5" s="311" t="n"/>
-      <c r="E5" s="311" t="n"/>
-      <c r="F5" s="311" t="n"/>
-      <c r="G5" s="311" t="n"/>
-      <c r="H5" s="321" t="n"/>
-      <c r="I5" s="312" t="n"/>
-      <c r="J5" s="313" t="n"/>
+      <c r="A5" s="256" t="n"/>
+      <c r="B5" s="257" t="n"/>
+      <c r="H5" s="258" t="n"/>
+      <c r="I5" s="259" t="n"/>
+      <c r="J5" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
-      <c r="A6" s="248" t="n"/>
-      <c r="B6" s="249" t="n"/>
-      <c r="H6" s="250" t="n"/>
-      <c r="I6" s="243" t="n"/>
-      <c r="J6" s="243" t="n"/>
+      <c r="A6" s="256" t="n"/>
+      <c r="B6" s="257" t="n"/>
+      <c r="H6" s="258" t="n"/>
+      <c r="I6" s="259" t="n"/>
+      <c r="J6" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
-      <c r="A7" s="251" t="n"/>
-      <c r="B7" s="252" t="n"/>
-      <c r="C7" s="253" t="n"/>
-      <c r="D7" s="253" t="n"/>
-      <c r="E7" s="253" t="n"/>
-      <c r="F7" s="253" t="n"/>
-      <c r="G7" s="253" t="n"/>
-      <c r="H7" s="254" t="n"/>
-      <c r="I7" s="243" t="n"/>
-      <c r="J7" s="243" t="n"/>
+      <c r="A7" s="260" t="n"/>
+      <c r="B7" s="261" t="n"/>
+      <c r="C7" s="262" t="n"/>
+      <c r="D7" s="262" t="n"/>
+      <c r="E7" s="262" t="n"/>
+      <c r="F7" s="262" t="n"/>
+      <c r="G7" s="262" t="n"/>
+      <c r="H7" s="263" t="n"/>
+      <c r="I7" s="259" t="n"/>
+      <c r="J7" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
-      <c r="A8" s="322" t="inlineStr">
-        <is>
-          <t>Theme Today: Love's boundary</t>
-        </is>
-      </c>
-      <c r="B8" s="323" t="n"/>
-      <c r="C8" s="323" t="n"/>
-      <c r="D8" s="323" t="n"/>
-      <c r="E8" s="323" t="n"/>
-      <c r="F8" s="323" t="n"/>
-      <c r="G8" s="323" t="n"/>
-      <c r="H8" s="324" t="n"/>
-      <c r="I8" s="325" t="n"/>
-      <c r="J8" s="326" t="n"/>
+      <c r="A8" s="337" t="inlineStr">
+        <is>
+          <t>Theme Today: sleepless in seattle</t>
+        </is>
+      </c>
+      <c r="B8" s="296" t="n"/>
+      <c r="C8" s="296" t="n"/>
+      <c r="D8" s="296" t="n"/>
+      <c r="E8" s="296" t="n"/>
+      <c r="F8" s="296" t="n"/>
+      <c r="G8" s="296" t="n"/>
+      <c r="H8" s="297" t="n"/>
+      <c r="I8" s="259" t="n"/>
+      <c r="J8" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
-      <c r="A9" s="258" t="inlineStr">
+      <c r="A9" s="269" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="259" t="inlineStr">
+      <c r="B9" s="270" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="260" t="inlineStr">
+      <c r="C9" s="271" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="261" t="inlineStr">
+      <c r="D9" s="272" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="262" t="inlineStr">
+      <c r="E9" s="273" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="263" t="inlineStr">
+      <c r="F9" s="274" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="264" t="inlineStr">
+      <c r="G9" s="275" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="265" t="inlineStr">
+      <c r="H9" s="276" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -5912,21 +5924,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="237">
-      <c r="A10" s="266">
+      <c r="A10" s="277">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="267" t="inlineStr">
+      <c r="B10" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="267" t="inlineStr">
+      <c r="C10" s="278" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="268">
+      <c r="D10" s="279">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -5945,21 +5957,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="237">
-      <c r="A11" s="266">
+      <c r="A11" s="277">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="269" t="inlineStr">
+      <c r="B11" s="280" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="270" t="inlineStr">
+      <c r="C11" s="281" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="271">
+      <c r="D11" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -5986,21 +5998,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="237">
-      <c r="A12" s="266">
+      <c r="A12" s="277">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="267" t="inlineStr">
+      <c r="B12" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="272" t="inlineStr">
+      <c r="C12" s="283" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="271">
+      <c r="D12" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -6031,21 +6043,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="237">
-      <c r="A13" s="266">
+      <c r="A13" s="277">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="269" t="inlineStr">
+      <c r="B13" s="280" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="269" t="inlineStr">
+      <c r="C13" s="280" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="271">
+      <c r="D13" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6070,21 +6082,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="237">
-      <c r="A14" s="266">
+      <c r="A14" s="277">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="269" t="inlineStr">
+      <c r="B14" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="269" t="inlineStr">
+      <c r="C14" s="280" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="271">
+      <c r="D14" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6106,24 +6118,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="241" t="n"/>
+      <c r="L14" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="237">
-      <c r="A15" s="266">
+      <c r="A15" s="277">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="269" t="inlineStr">
+      <c r="B15" s="280" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="269" t="inlineStr">
+      <c r="C15" s="280" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="271">
+      <c r="D15" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6143,24 +6155,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="241" t="n"/>
+      <c r="L15" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="237">
-      <c r="A16" s="266">
+      <c r="A16" s="277">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="269" t="inlineStr">
+      <c r="B16" s="280" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="269" t="inlineStr">
+      <c r="C16" s="280" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="271">
+      <c r="D16" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6180,24 +6192,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="241" t="n"/>
+      <c r="L16" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="237">
-      <c r="A17" s="266">
+      <c r="A17" s="277">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="269" t="inlineStr">
+      <c r="B17" s="280" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="269" t="inlineStr">
+      <c r="C17" s="280" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="271">
+      <c r="D17" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6221,24 +6233,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="241" t="n"/>
+      <c r="L17" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="237">
-      <c r="A18" s="266">
+      <c r="A18" s="277">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="269" t="inlineStr">
+      <c r="B18" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="269" t="inlineStr">
+      <c r="C18" s="280" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="271">
+      <c r="D18" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6259,11 +6271,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
-      <c r="A19" s="273">
+      <c r="A19" s="284">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="274" t="inlineStr">
+      <c r="B19" s="285" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -6273,7 +6285,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="271">
+      <c r="D19" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6294,28 +6306,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
-      <c r="A20" s="327" t="inlineStr">
+      <c r="A20" s="295" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="323" t="n"/>
-      <c r="C20" s="323" t="n"/>
-      <c r="D20" s="323" t="n"/>
-      <c r="E20" s="323" t="n"/>
-      <c r="F20" s="323" t="n"/>
-      <c r="G20" s="323" t="n"/>
-      <c r="H20" s="324" t="n"/>
-      <c r="I20" s="328" t="n">
+      <c r="B20" s="296" t="n"/>
+      <c r="C20" s="296" t="n"/>
+      <c r="D20" s="296" t="n"/>
+      <c r="E20" s="296" t="n"/>
+      <c r="F20" s="296" t="n"/>
+      <c r="G20" s="296" t="n"/>
+      <c r="H20" s="297" t="n"/>
+      <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="329">
+      <c r="J20" s="36">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="237">
-      <c r="A21" s="266">
+      <c r="A21" s="277">
         <f>J20</f>
         <v/>
       </c>
@@ -6329,7 +6341,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="276">
+      <c r="D21" s="289">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -6354,21 +6366,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="237">
-      <c r="A22" s="266">
+      <c r="A22" s="277">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="272" t="inlineStr">
+      <c r="B22" s="283" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="272" t="inlineStr">
+      <c r="C22" s="283" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="271">
+      <c r="D22" s="282">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -6401,21 +6413,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="237">
-      <c r="A23" s="266">
+      <c r="A23" s="277">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="272" t="inlineStr">
+      <c r="B23" s="283" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="269" t="inlineStr">
+      <c r="C23" s="280" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="271">
+      <c r="D23" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6438,17 +6450,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
-      <c r="A24" s="277">
+      <c r="A24" s="290">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="278" t="inlineStr">
+      <c r="B24" s="291" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="279">
+      <c r="D24" s="292">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6471,30 +6483,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
-      <c r="A25" s="327" t="inlineStr">
+      <c r="A25" s="295" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="323" t="n"/>
-      <c r="C25" s="323" t="n"/>
-      <c r="D25" s="323" t="n"/>
-      <c r="E25" s="323" t="n"/>
-      <c r="F25" s="323" t="n"/>
-      <c r="G25" s="323" t="n"/>
-      <c r="H25" s="324" t="n"/>
-      <c r="I25" s="328" t="n">
+      <c r="B25" s="296" t="n"/>
+      <c r="C25" s="296" t="n"/>
+      <c r="D25" s="296" t="n"/>
+      <c r="E25" s="296" t="n"/>
+      <c r="F25" s="296" t="n"/>
+      <c r="G25" s="296" t="n"/>
+      <c r="H25" s="297" t="n"/>
+      <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="329">
+      <c r="J25" s="36">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="241" t="n"/>
+      <c r="L25" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="237">
-      <c r="A26" s="266">
+      <c r="A26" s="277">
         <f>J25</f>
         <v/>
       </c>
@@ -6508,7 +6520,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="276">
+      <c r="D26" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6530,24 +6542,24 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="241" t="n"/>
+      <c r="L26" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="237">
-      <c r="A27" s="266">
+      <c r="A27" s="277">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="269" t="inlineStr">
+      <c r="B27" s="280" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="280" t="inlineStr">
-        <is>
-          <t>How does a bill become a law?</t>
-        </is>
-      </c>
-      <c r="D27" s="281">
+      <c r="C27" s="293" t="inlineStr">
+        <is>
+          <t>Ice Breaker</t>
+        </is>
+      </c>
+      <c r="D27" s="294">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -6556,29 +6568,33 @@
           <t>5-7</t>
         </is>
       </c>
-      <c r="F27" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="H27" s="105" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" s="37" t="inlineStr">
-        <is>
-          <t>0:07</t>
-        </is>
+      <c r="F27" s="103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G27" s="104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H27" s="105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I27" s="37" t="n">
+        <v>0.004861111111111111</v>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="241" t="n"/>
+      <c r="L27" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="237">
-      <c r="A28" s="266">
+      <c r="A28" s="277">
         <f>J27</f>
         <v/>
       </c>
@@ -6592,7 +6608,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="281">
+      <c r="D28" s="294">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6614,72 +6630,80 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="241" t="n"/>
+      <c r="L28" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="29" s="237" thickBot="1">
-      <c r="A29" s="266">
+      <c r="A29" s="277">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="269" t="inlineStr">
+      <c r="B29" s="280" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="280" t="inlineStr"/>
-      <c r="D29" s="330">
+      <c r="C29" s="293" t="inlineStr">
+        <is>
+          <t>Rice's Speech</t>
+        </is>
+      </c>
+      <c r="D29" s="338">
         <f>Roles!B12</f>
         <v/>
       </c>
       <c r="E29" s="72" t="inlineStr">
         <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="F29" s="103" t="n">
-        <v>6</v>
-      </c>
-      <c r="G29" s="104" t="n">
-        <v>7</v>
-      </c>
-      <c r="H29" s="105" t="n">
-        <v>8</v>
-      </c>
-      <c r="I29" s="37" t="inlineStr">
-        <is>
-          <t>0:08</t>
-        </is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="F29" s="103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G29" s="104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H29" s="105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I29" s="37" t="n">
+        <v>0.004861111111111111</v>
       </c>
       <c r="J29" s="36">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="241" t="n"/>
+      <c r="L29" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="237" thickBot="1">
-      <c r="A30" s="275" t="inlineStr">
+      <c r="A30" s="295" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B30" s="256" t="n"/>
-      <c r="C30" s="256" t="n"/>
-      <c r="D30" s="256" t="n"/>
-      <c r="E30" s="256" t="n"/>
-      <c r="F30" s="256" t="n"/>
-      <c r="G30" s="256" t="n"/>
-      <c r="H30" s="257" t="n"/>
+      <c r="B30" s="296" t="n"/>
+      <c r="C30" s="296" t="n"/>
+      <c r="D30" s="296" t="n"/>
+      <c r="E30" s="296" t="n"/>
+      <c r="F30" s="296" t="n"/>
+      <c r="G30" s="296" t="n"/>
+      <c r="H30" s="297" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J29+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="241" t="n"/>
+      <c r="L30" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="237">
-      <c r="A31" s="266">
+      <c r="A31" s="277">
         <f>J30</f>
         <v/>
       </c>
@@ -6693,7 +6717,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D31" s="276">
+      <c r="D31" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6715,53 +6739,53 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="241" t="n"/>
+      <c r="L31" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="237">
-      <c r="A32" s="331">
+      <c r="A32" s="277">
         <f>J31</f>
         <v/>
       </c>
-      <c r="B32" s="332" t="inlineStr">
+      <c r="B32" s="55" t="inlineStr">
         <is>
           <t>Evaluator1</t>
         </is>
       </c>
-      <c r="C32" s="333" t="inlineStr">
+      <c r="C32" s="56" t="inlineStr">
         <is>
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D32" s="334">
+      <c r="D32" s="289">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="335" t="inlineStr">
+      <c r="E32" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
       </c>
-      <c r="F32" s="336" t="n">
+      <c r="F32" s="151" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="337" t="n">
+      <c r="G32" s="152" t="n">
         <v>2.5</v>
       </c>
-      <c r="H32" s="338" t="n">
+      <c r="H32" s="153" t="n">
         <v>3</v>
       </c>
-      <c r="I32" s="328" t="n">
+      <c r="I32" s="37" t="n">
         <v>0.002083333333333333</v>
       </c>
-      <c r="J32" s="329">
+      <c r="J32" s="36">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="241" t="n"/>
+      <c r="L32" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="237">
-      <c r="A33" s="266">
+      <c r="A33" s="277">
         <f>J32</f>
         <v/>
       </c>
@@ -6775,11 +6799,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D33" s="276">
+      <c r="D33" s="289">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="282" t="inlineStr">
+      <c r="E33" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -6801,10 +6825,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="241" t="n"/>
+      <c r="L33" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="237">
-      <c r="A34" s="266">
+      <c r="A34" s="277">
         <f>J33</f>
         <v/>
       </c>
@@ -6818,7 +6842,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D34" s="271">
+      <c r="D34" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6842,10 +6866,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="283" t="n"/>
+      <c r="L34" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="237">
-      <c r="A35" s="266">
+      <c r="A35" s="277">
         <f>J34</f>
         <v/>
       </c>
@@ -6859,7 +6883,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D35" s="271">
+      <c r="D35" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6885,10 +6909,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="283" t="n"/>
+      <c r="L35" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="237">
-      <c r="A36" s="266">
+      <c r="A36" s="277">
         <f>J35</f>
         <v/>
       </c>
@@ -6902,7 +6926,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D36" s="271">
+      <c r="D36" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6926,14 +6950,14 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="283" t="n"/>
+      <c r="L36" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="237">
-      <c r="A37" s="266">
+      <c r="A37" s="277">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="267" t="inlineStr">
+      <c r="B37" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -6943,7 +6967,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D37" s="271">
+      <c r="D37" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -6963,24 +6987,24 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="283" t="n"/>
+      <c r="L37" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="237">
-      <c r="A38" s="266">
+      <c r="A38" s="277">
         <f>J37</f>
         <v/>
       </c>
-      <c r="B38" s="269" t="inlineStr">
+      <c r="B38" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C38" s="269" t="inlineStr">
+      <c r="C38" s="280" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D38" s="271">
+      <c r="D38" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7012,24 +7036,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="283" t="n"/>
+      <c r="L38" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="237" thickBot="1">
-      <c r="A39" s="284">
+      <c r="A39" s="308">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="272" t="inlineStr">
+      <c r="B39" s="283" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C39" s="269" t="inlineStr">
+      <c r="C39" s="280" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D39" s="271">
+      <c r="D39" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7061,24 +7085,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="283" t="n"/>
+      <c r="L39" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="237" thickBot="1">
-      <c r="A40" s="284">
+      <c r="A40" s="308">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="285" t="inlineStr">
+      <c r="B40" s="309" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C40" s="286" t="inlineStr">
+      <c r="C40" s="310" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D40" s="271">
+      <c r="D40" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7103,21 +7127,21 @@
       <c r="L40" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="237">
-      <c r="A41" s="287" t="n"/>
-      <c r="B41" s="239" t="n"/>
-      <c r="C41" s="239" t="n"/>
-      <c r="D41" s="239" t="n"/>
+      <c r="A41" s="311" t="n"/>
+      <c r="B41" s="312" t="n"/>
+      <c r="C41" s="312" t="n"/>
+      <c r="D41" s="312" t="n"/>
       <c r="E41" s="236" t="n"/>
-      <c r="F41" s="288" t="n"/>
-      <c r="G41" s="289" t="n"/>
-      <c r="H41" s="290" t="n"/>
+      <c r="F41" s="313" t="n"/>
+      <c r="G41" s="314" t="n"/>
+      <c r="H41" s="315" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
       <c r="L41" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="42" s="237">
-      <c r="A42" s="291" t="inlineStr">
+      <c r="A42" s="316" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -7127,18 +7151,18 @@
 </t>
         </is>
       </c>
-      <c r="D42" s="292" t="n"/>
+      <c r="D42" s="317" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="293" t="inlineStr">
+      <c r="J42" s="318" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="294" t="n"/>
+      <c r="K42" s="319" t="n"/>
       <c r="L42" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="237">
-      <c r="A43" s="295" t="inlineStr">
+      <c r="A43" s="320" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -7149,91 +7173,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="293" t="n"/>
+      <c r="J43" s="318" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="237">
-      <c r="A44" s="296" t="n"/>
+      <c r="A44" s="321" t="n"/>
       <c r="B44" s="236" t="n"/>
-      <c r="D44" s="297" t="n"/>
-      <c r="E44" s="298" t="n"/>
-      <c r="F44" s="298" t="n"/>
-      <c r="G44" s="298" t="n"/>
-      <c r="H44" s="298" t="n"/>
+      <c r="D44" s="322" t="n"/>
+      <c r="E44" s="323" t="n"/>
+      <c r="F44" s="323" t="n"/>
+      <c r="G44" s="323" t="n"/>
+      <c r="H44" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="237">
-      <c r="A45" s="296" t="n"/>
+      <c r="A45" s="321" t="n"/>
       <c r="B45" s="236" t="n"/>
       <c r="C45" s="236" t="n"/>
-      <c r="D45" s="297" t="n"/>
-      <c r="F45" s="298" t="n"/>
-      <c r="G45" s="298" t="n"/>
-      <c r="H45" s="298" t="n"/>
+      <c r="D45" s="322" t="n"/>
+      <c r="F45" s="323" t="n"/>
+      <c r="G45" s="323" t="n"/>
+      <c r="H45" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="237">
-      <c r="A46" s="296" t="n"/>
+      <c r="A46" s="321" t="n"/>
       <c r="B46" s="236" t="n"/>
       <c r="C46" s="236" t="n"/>
-      <c r="D46" s="299" t="n"/>
-      <c r="E46" s="300" t="n"/>
-      <c r="F46" s="301" t="n"/>
-      <c r="G46" s="302" t="n"/>
+      <c r="D46" s="324" t="n"/>
+      <c r="E46" s="325" t="n"/>
+      <c r="F46" s="326" t="n"/>
+      <c r="G46" s="327" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="237">
-      <c r="A47" s="296" t="n"/>
+      <c r="A47" s="321" t="n"/>
       <c r="B47" s="236" t="n"/>
-      <c r="D47" s="303" t="n"/>
-      <c r="E47" s="304" t="n"/>
+      <c r="D47" s="328" t="n"/>
+      <c r="E47" s="329" t="n"/>
       <c r="L47" s="179" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="237">
-      <c r="A48" s="296" t="n"/>
+      <c r="A48" s="321" t="n"/>
       <c r="B48" s="236" t="n"/>
-      <c r="D48" s="303" t="n"/>
-      <c r="E48" s="304" t="n"/>
+      <c r="D48" s="328" t="n"/>
+      <c r="E48" s="329" t="n"/>
       <c r="L48" s="179" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="296" t="n"/>
+      <c r="A49" s="321" t="n"/>
       <c r="B49" s="236" t="n"/>
-      <c r="D49" s="303" t="n"/>
-      <c r="E49" s="304" t="n"/>
+      <c r="D49" s="328" t="n"/>
+      <c r="E49" s="329" t="n"/>
       <c r="L49" s="179" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="296" t="n"/>
+      <c r="A50" s="321" t="n"/>
       <c r="B50" s="236" t="n"/>
       <c r="C50" s="236" t="n"/>
-      <c r="D50" s="303" t="n"/>
-      <c r="E50" s="304" t="n"/>
+      <c r="D50" s="328" t="n"/>
+      <c r="E50" s="329" t="n"/>
       <c r="L50" s="179" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="296" t="n"/>
+      <c r="A51" s="321" t="n"/>
       <c r="B51" s="236" t="n"/>
       <c r="C51" s="236" t="n"/>
-      <c r="D51" s="303" t="n"/>
-      <c r="E51" s="304" t="n"/>
+      <c r="D51" s="328" t="n"/>
+      <c r="E51" s="329" t="n"/>
       <c r="L51" s="179" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="296" t="n"/>
+      <c r="A52" s="321" t="n"/>
       <c r="B52" s="236" t="n"/>
       <c r="C52" s="236" t="n"/>
-      <c r="E52" s="304" t="n"/>
+      <c r="E52" s="329" t="n"/>
       <c r="L52" s="179" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="296" t="n"/>
+      <c r="A53" s="321" t="n"/>
       <c r="B53" s="236" t="n"/>
-      <c r="D53" s="303" t="n"/>
-      <c r="E53" s="304" t="n"/>
+      <c r="D53" s="328" t="n"/>
+      <c r="E53" s="329" t="n"/>
     </row>
     <row customFormat="1" r="54" s="233">
-      <c r="A54" s="296" t="n"/>
+      <c r="A54" s="321" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
-      <c r="D54" s="303" t="n"/>
-      <c r="E54" s="304" t="n"/>
+      <c r="D54" s="328" t="n"/>
+      <c r="E54" s="329" t="n"/>
       <c r="G54" s="234" t="n"/>
       <c r="H54" s="235" t="n"/>
       <c r="I54" s="179" t="n"/>
@@ -7243,11 +7267,11 @@
       <c r="M54" s="236" t="n"/>
     </row>
     <row customFormat="1" r="55" s="233">
-      <c r="A55" s="296" t="n"/>
+      <c r="A55" s="321" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="230" t="n"/>
-      <c r="D55" s="303" t="n"/>
-      <c r="E55" s="304" t="n"/>
+      <c r="D55" s="328" t="n"/>
+      <c r="E55" s="329" t="n"/>
       <c r="G55" s="234" t="n"/>
       <c r="H55" s="235" t="n"/>
       <c r="I55" s="179" t="n"/>
@@ -7257,11 +7281,11 @@
       <c r="M55" s="236" t="n"/>
     </row>
     <row customFormat="1" r="56" s="233">
-      <c r="A56" s="296" t="n"/>
+      <c r="A56" s="321" t="n"/>
       <c r="B56" s="236" t="n"/>
       <c r="C56" s="236" t="n"/>
-      <c r="D56" s="303" t="n"/>
-      <c r="E56" s="304" t="n"/>
+      <c r="D56" s="328" t="n"/>
+      <c r="E56" s="329" t="n"/>
       <c r="G56" s="234" t="n"/>
       <c r="H56" s="235" t="n"/>
       <c r="I56" s="179" t="n"/>
@@ -7271,11 +7295,11 @@
       <c r="M56" s="236" t="n"/>
     </row>
     <row customFormat="1" r="57" s="233">
-      <c r="A57" s="296" t="n"/>
+      <c r="A57" s="321" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
-      <c r="D57" s="303" t="n"/>
-      <c r="E57" s="304" t="n"/>
+      <c r="D57" s="328" t="n"/>
+      <c r="E57" s="329" t="n"/>
       <c r="G57" s="234" t="n"/>
       <c r="H57" s="235" t="n"/>
       <c r="I57" s="179" t="n"/>
@@ -7285,11 +7309,11 @@
       <c r="M57" s="236" t="n"/>
     </row>
     <row customFormat="1" r="58" s="233">
-      <c r="A58" s="296" t="n"/>
+      <c r="A58" s="321" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="236" t="n"/>
-      <c r="D58" s="303" t="n"/>
-      <c r="E58" s="304" t="n"/>
+      <c r="D58" s="328" t="n"/>
+      <c r="E58" s="329" t="n"/>
       <c r="G58" s="234" t="n"/>
       <c r="H58" s="235" t="n"/>
       <c r="I58" s="179" t="n"/>
@@ -7299,11 +7323,11 @@
       <c r="M58" s="236" t="n"/>
     </row>
     <row customFormat="1" r="59" s="233">
-      <c r="A59" s="296" t="n"/>
+      <c r="A59" s="321" t="n"/>
       <c r="B59" s="236" t="n"/>
       <c r="C59" s="236" t="n"/>
-      <c r="D59" s="303" t="n"/>
-      <c r="E59" s="304" t="n"/>
+      <c r="D59" s="328" t="n"/>
+      <c r="E59" s="329" t="n"/>
       <c r="G59" s="234" t="n"/>
       <c r="H59" s="235" t="n"/>
       <c r="I59" s="179" t="n"/>
@@ -7313,11 +7337,11 @@
       <c r="M59" s="236" t="n"/>
     </row>
     <row customFormat="1" r="60" s="233">
-      <c r="A60" s="296" t="n"/>
+      <c r="A60" s="321" t="n"/>
       <c r="B60" s="236" t="n"/>
       <c r="C60" s="236" t="n"/>
-      <c r="D60" s="303" t="n"/>
-      <c r="E60" s="304" t="n"/>
+      <c r="D60" s="328" t="n"/>
+      <c r="E60" s="329" t="n"/>
       <c r="G60" s="234" t="n"/>
       <c r="H60" s="235" t="n"/>
       <c r="I60" s="179" t="n"/>
@@ -7327,11 +7351,11 @@
       <c r="M60" s="236" t="n"/>
     </row>
     <row customFormat="1" r="61" s="233">
-      <c r="A61" s="296" t="n"/>
+      <c r="A61" s="321" t="n"/>
       <c r="B61" s="236" t="n"/>
       <c r="C61" s="236" t="n"/>
-      <c r="D61" s="303" t="n"/>
-      <c r="E61" s="304" t="n"/>
+      <c r="D61" s="328" t="n"/>
+      <c r="E61" s="329" t="n"/>
       <c r="G61" s="234" t="n"/>
       <c r="H61" s="235" t="n"/>
       <c r="I61" s="179" t="n"/>
@@ -7341,11 +7365,11 @@
       <c r="M61" s="236" t="n"/>
     </row>
     <row customFormat="1" r="62" s="233">
-      <c r="A62" s="296" t="n"/>
+      <c r="A62" s="321" t="n"/>
       <c r="B62" s="230" t="n"/>
       <c r="C62" s="230" t="n"/>
-      <c r="D62" s="303" t="n"/>
-      <c r="E62" s="304" t="n"/>
+      <c r="D62" s="328" t="n"/>
+      <c r="E62" s="329" t="n"/>
       <c r="G62" s="234" t="n"/>
       <c r="H62" s="235" t="n"/>
       <c r="I62" s="179" t="n"/>
@@ -7355,11 +7379,11 @@
       <c r="M62" s="236" t="n"/>
     </row>
     <row customFormat="1" r="63" s="233">
-      <c r="A63" s="296" t="n"/>
+      <c r="A63" s="321" t="n"/>
       <c r="B63" s="230" t="n"/>
       <c r="C63" s="230" t="n"/>
-      <c r="D63" s="303" t="n"/>
-      <c r="E63" s="304" t="n"/>
+      <c r="D63" s="328" t="n"/>
+      <c r="E63" s="329" t="n"/>
       <c r="G63" s="234" t="n"/>
       <c r="H63" s="235" t="n"/>
       <c r="I63" s="179" t="n"/>
@@ -7369,11 +7393,11 @@
       <c r="M63" s="236" t="n"/>
     </row>
     <row customFormat="1" r="64" s="233">
-      <c r="A64" s="296" t="n"/>
+      <c r="A64" s="321" t="n"/>
       <c r="B64" s="230" t="n"/>
       <c r="C64" s="230" t="n"/>
-      <c r="D64" s="303" t="n"/>
-      <c r="E64" s="304" t="n"/>
+      <c r="D64" s="328" t="n"/>
+      <c r="E64" s="329" t="n"/>
       <c r="G64" s="234" t="n"/>
       <c r="H64" s="235" t="n"/>
       <c r="I64" s="179" t="n"/>
@@ -7383,11 +7407,11 @@
       <c r="M64" s="236" t="n"/>
     </row>
     <row customFormat="1" r="65" s="233">
-      <c r="A65" s="296" t="n"/>
+      <c r="A65" s="321" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
-      <c r="D65" s="303" t="n"/>
-      <c r="E65" s="304" t="n"/>
+      <c r="D65" s="328" t="n"/>
+      <c r="E65" s="329" t="n"/>
       <c r="G65" s="234" t="n"/>
       <c r="H65" s="235" t="n"/>
       <c r="I65" s="179" t="n"/>
@@ -7397,7 +7421,7 @@
       <c r="M65" s="236" t="n"/>
     </row>
     <row customFormat="1" r="66" s="233">
-      <c r="A66" s="296" t="n"/>
+      <c r="A66" s="321" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
       <c r="D66" s="231" t="n"/>
@@ -7411,7 +7435,7 @@
       <c r="M66" s="236" t="n"/>
     </row>
     <row customFormat="1" r="67" s="233">
-      <c r="A67" s="296" t="n"/>
+      <c r="A67" s="321" t="n"/>
       <c r="B67" s="230" t="n"/>
       <c r="C67" s="230" t="n"/>
       <c r="D67" s="231" t="n"/>
@@ -7425,7 +7449,7 @@
       <c r="M67" s="236" t="n"/>
     </row>
     <row customFormat="1" r="68" s="233">
-      <c r="A68" s="296" t="n"/>
+      <c r="A68" s="321" t="n"/>
       <c r="B68" s="230" t="n"/>
       <c r="C68" s="230" t="n"/>
       <c r="D68" s="231" t="n"/>
@@ -7439,7 +7463,7 @@
       <c r="M68" s="236" t="n"/>
     </row>
     <row customFormat="1" r="69" s="233">
-      <c r="A69" s="296" t="n"/>
+      <c r="A69" s="321" t="n"/>
       <c r="B69" s="230" t="n"/>
       <c r="C69" s="230" t="n"/>
       <c r="D69" s="231" t="n"/>
@@ -7453,7 +7477,7 @@
       <c r="M69" s="236" t="n"/>
     </row>
     <row customFormat="1" r="70" s="230">
-      <c r="A70" s="296" t="n"/>
+      <c r="A70" s="321" t="n"/>
       <c r="D70" s="231" t="n"/>
       <c r="E70" s="232" t="n"/>
       <c r="F70" s="233" t="n"/>
@@ -7465,7 +7489,7 @@
       <c r="M70" s="236" t="n"/>
     </row>
     <row customFormat="1" r="71" s="230">
-      <c r="A71" s="296" t="n"/>
+      <c r="A71" s="321" t="n"/>
       <c r="D71" s="231" t="n"/>
       <c r="E71" s="232" t="n"/>
       <c r="F71" s="233" t="n"/>
@@ -7477,7 +7501,7 @@
       <c r="M71" s="236" t="n"/>
     </row>
     <row customFormat="1" r="72" s="230">
-      <c r="A72" s="296" t="n"/>
+      <c r="A72" s="321" t="n"/>
       <c r="D72" s="231" t="n"/>
       <c r="E72" s="232" t="n"/>
       <c r="F72" s="233" t="n"/>
@@ -7508,7 +7532,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7543,137 +7566,137 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="237">
-      <c r="A1" s="238" t="inlineStr">
+      <c r="A1" s="330" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="239" t="n"/>
-      <c r="C1" s="239" t="n"/>
-      <c r="D1" s="239" t="n"/>
-      <c r="E1" s="239" t="n"/>
-      <c r="F1" s="239" t="n"/>
-      <c r="G1" s="239" t="n"/>
-      <c r="H1" s="239" t="n"/>
+      <c r="B1" s="312" t="n"/>
+      <c r="C1" s="312" t="n"/>
+      <c r="D1" s="312" t="n"/>
+      <c r="E1" s="312" t="n"/>
+      <c r="F1" s="312" t="n"/>
+      <c r="G1" s="312" t="n"/>
+      <c r="H1" s="312" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="237">
-      <c r="A2" s="240" t="inlineStr">
+      <c r="A2" s="331" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="241" t="n"/>
-      <c r="J2" s="241" t="n"/>
+      <c r="I2" s="242" t="n"/>
+      <c r="J2" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="237">
-      <c r="A3" s="242" t="inlineStr">
+      <c r="A3" s="332" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="243" t="n"/>
-      <c r="J3" s="243" t="n"/>
+      <c r="I3" s="259" t="n"/>
+      <c r="J3" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="237">
-      <c r="A4" s="244" t="inlineStr">
+      <c r="A4" s="333" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="245" t="inlineStr">
+      <c r="B4" s="334" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="246" t="n"/>
-      <c r="D4" s="246" t="n"/>
-      <c r="E4" s="246" t="n"/>
-      <c r="F4" s="246" t="n"/>
-      <c r="G4" s="246" t="n"/>
-      <c r="H4" s="247" t="n"/>
-      <c r="I4" s="241" t="n"/>
-      <c r="J4" s="241" t="n"/>
+      <c r="C4" s="335" t="n"/>
+      <c r="D4" s="335" t="n"/>
+      <c r="E4" s="335" t="n"/>
+      <c r="F4" s="335" t="n"/>
+      <c r="G4" s="335" t="n"/>
+      <c r="H4" s="336" t="n"/>
+      <c r="I4" s="242" t="n"/>
+      <c r="J4" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
-      <c r="A5" s="248" t="n"/>
-      <c r="B5" s="249" t="n"/>
-      <c r="H5" s="250" t="n"/>
-      <c r="I5" s="243" t="n"/>
-      <c r="J5" s="243" t="n"/>
+      <c r="A5" s="256" t="n"/>
+      <c r="B5" s="257" t="n"/>
+      <c r="H5" s="258" t="n"/>
+      <c r="I5" s="259" t="n"/>
+      <c r="J5" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
-      <c r="A6" s="248" t="n"/>
-      <c r="B6" s="249" t="n"/>
-      <c r="H6" s="250" t="n"/>
-      <c r="I6" s="243" t="n"/>
-      <c r="J6" s="243" t="n"/>
+      <c r="A6" s="256" t="n"/>
+      <c r="B6" s="257" t="n"/>
+      <c r="H6" s="258" t="n"/>
+      <c r="I6" s="259" t="n"/>
+      <c r="J6" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
-      <c r="A7" s="251" t="n"/>
-      <c r="B7" s="252" t="n"/>
-      <c r="C7" s="253" t="n"/>
-      <c r="D7" s="253" t="n"/>
-      <c r="E7" s="253" t="n"/>
-      <c r="F7" s="253" t="n"/>
-      <c r="G7" s="253" t="n"/>
-      <c r="H7" s="254" t="n"/>
-      <c r="I7" s="243" t="n"/>
-      <c r="J7" s="243" t="n"/>
+      <c r="A7" s="260" t="n"/>
+      <c r="B7" s="261" t="n"/>
+      <c r="C7" s="262" t="n"/>
+      <c r="D7" s="262" t="n"/>
+      <c r="E7" s="262" t="n"/>
+      <c r="F7" s="262" t="n"/>
+      <c r="G7" s="262" t="n"/>
+      <c r="H7" s="263" t="n"/>
+      <c r="I7" s="259" t="n"/>
+      <c r="J7" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
-      <c r="A8" s="255" t="inlineStr">
+      <c r="A8" s="337" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="256" t="n"/>
-      <c r="C8" s="256" t="n"/>
-      <c r="D8" s="256" t="n"/>
-      <c r="E8" s="256" t="n"/>
-      <c r="F8" s="256" t="n"/>
-      <c r="G8" s="256" t="n"/>
-      <c r="H8" s="257" t="n"/>
-      <c r="I8" s="243" t="n"/>
-      <c r="J8" s="243" t="n"/>
+      <c r="B8" s="296" t="n"/>
+      <c r="C8" s="296" t="n"/>
+      <c r="D8" s="296" t="n"/>
+      <c r="E8" s="296" t="n"/>
+      <c r="F8" s="296" t="n"/>
+      <c r="G8" s="296" t="n"/>
+      <c r="H8" s="297" t="n"/>
+      <c r="I8" s="259" t="n"/>
+      <c r="J8" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
-      <c r="A9" s="258" t="inlineStr">
+      <c r="A9" s="269" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="259" t="inlineStr">
+      <c r="B9" s="270" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="260" t="inlineStr">
+      <c r="C9" s="271" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="261" t="inlineStr">
+      <c r="D9" s="272" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="262" t="inlineStr">
+      <c r="E9" s="273" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="263" t="inlineStr">
+      <c r="F9" s="274" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="264" t="inlineStr">
+      <c r="G9" s="275" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="265" t="inlineStr">
+      <c r="H9" s="276" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -7686,21 +7709,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="237">
-      <c r="A10" s="266">
+      <c r="A10" s="277">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="267" t="inlineStr">
+      <c r="B10" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="267" t="inlineStr">
+      <c r="C10" s="278" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="268">
+      <c r="D10" s="279">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7719,21 +7742,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="237">
-      <c r="A11" s="266">
+      <c r="A11" s="277">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="269" t="inlineStr">
+      <c r="B11" s="280" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="270" t="inlineStr">
+      <c r="C11" s="281" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="271">
+      <c r="D11" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7760,21 +7783,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="237">
-      <c r="A12" s="266">
+      <c r="A12" s="277">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="267" t="inlineStr">
+      <c r="B12" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="272" t="inlineStr">
+      <c r="C12" s="283" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="271">
+      <c r="D12" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7805,21 +7828,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="237">
-      <c r="A13" s="266">
+      <c r="A13" s="277">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="269" t="inlineStr">
+      <c r="B13" s="280" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="269" t="inlineStr">
+      <c r="C13" s="280" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="271">
+      <c r="D13" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7844,21 +7867,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="237">
-      <c r="A14" s="266">
+      <c r="A14" s="277">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="269" t="inlineStr">
+      <c r="B14" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="269" t="inlineStr">
+      <c r="C14" s="280" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="271">
+      <c r="D14" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7880,24 +7903,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="241" t="n"/>
+      <c r="L14" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="237">
-      <c r="A15" s="266">
+      <c r="A15" s="277">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="269" t="inlineStr">
+      <c r="B15" s="280" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="269" t="inlineStr">
+      <c r="C15" s="280" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="271">
+      <c r="D15" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -7917,24 +7940,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="241" t="n"/>
+      <c r="L15" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="237">
-      <c r="A16" s="266">
+      <c r="A16" s="277">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="269" t="inlineStr">
+      <c r="B16" s="280" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="269" t="inlineStr">
+      <c r="C16" s="280" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="271">
+      <c r="D16" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -7954,24 +7977,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="241" t="n"/>
+      <c r="L16" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="237">
-      <c r="A17" s="266">
+      <c r="A17" s="277">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="269" t="inlineStr">
+      <c r="B17" s="280" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="269" t="inlineStr">
+      <c r="C17" s="280" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="271">
+      <c r="D17" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -7995,24 +8018,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="241" t="n"/>
+      <c r="L17" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="237">
-      <c r="A18" s="266">
+      <c r="A18" s="277">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="269" t="inlineStr">
+      <c r="B18" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="269" t="inlineStr">
+      <c r="C18" s="280" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="271">
+      <c r="D18" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8033,11 +8056,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
-      <c r="A19" s="273">
+      <c r="A19" s="284">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="274" t="inlineStr">
+      <c r="B19" s="285" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -8047,7 +8070,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="271">
+      <c r="D19" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8068,18 +8091,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
-      <c r="A20" s="275" t="inlineStr">
+      <c r="A20" s="295" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="256" t="n"/>
-      <c r="C20" s="256" t="n"/>
-      <c r="D20" s="256" t="n"/>
-      <c r="E20" s="256" t="n"/>
-      <c r="F20" s="256" t="n"/>
-      <c r="G20" s="256" t="n"/>
-      <c r="H20" s="257" t="n"/>
+      <c r="B20" s="296" t="n"/>
+      <c r="C20" s="296" t="n"/>
+      <c r="D20" s="296" t="n"/>
+      <c r="E20" s="296" t="n"/>
+      <c r="F20" s="296" t="n"/>
+      <c r="G20" s="296" t="n"/>
+      <c r="H20" s="297" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -8089,7 +8112,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="237">
-      <c r="A21" s="266">
+      <c r="A21" s="277">
         <f>J20</f>
         <v/>
       </c>
@@ -8103,7 +8126,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="276">
+      <c r="D21" s="289">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -8128,21 +8151,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="237">
-      <c r="A22" s="266">
+      <c r="A22" s="277">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="272" t="inlineStr">
+      <c r="B22" s="283" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="272" t="inlineStr">
+      <c r="C22" s="283" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="271">
+      <c r="D22" s="282">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -8175,21 +8198,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="237">
-      <c r="A23" s="266">
+      <c r="A23" s="277">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="272" t="inlineStr">
+      <c r="B23" s="283" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="269" t="inlineStr">
+      <c r="C23" s="280" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="271">
+      <c r="D23" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8212,17 +8235,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
-      <c r="A24" s="277">
+      <c r="A24" s="290">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="278" t="inlineStr">
+      <c r="B24" s="291" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="279">
+      <c r="D24" s="292">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8245,18 +8268,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
-      <c r="A25" s="275" t="inlineStr">
+      <c r="A25" s="295" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="256" t="n"/>
-      <c r="C25" s="256" t="n"/>
-      <c r="D25" s="256" t="n"/>
-      <c r="E25" s="256" t="n"/>
-      <c r="F25" s="256" t="n"/>
-      <c r="G25" s="256" t="n"/>
-      <c r="H25" s="257" t="n"/>
+      <c r="B25" s="296" t="n"/>
+      <c r="C25" s="296" t="n"/>
+      <c r="D25" s="296" t="n"/>
+      <c r="E25" s="296" t="n"/>
+      <c r="F25" s="296" t="n"/>
+      <c r="G25" s="296" t="n"/>
+      <c r="H25" s="297" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -8265,10 +8288,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="241" t="n"/>
+      <c r="L25" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="237">
-      <c r="A26" s="266">
+      <c r="A26" s="277">
         <f>J25</f>
         <v/>
       </c>
@@ -8282,7 +8305,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="276">
+      <c r="D26" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8304,24 +8327,24 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="241" t="n"/>
+      <c r="L26" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="237">
-      <c r="A27" s="266">
+      <c r="A27" s="277">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="269" t="inlineStr">
+      <c r="B27" s="280" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="280" t="inlineStr">
+      <c r="C27" s="293" t="inlineStr">
         <is>
           <t>Ice Breaker</t>
         </is>
       </c>
-      <c r="D27" s="281">
+      <c r="D27" s="294">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -8353,10 +8376,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="241" t="n"/>
+      <c r="L27" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="237">
-      <c r="A28" s="266">
+      <c r="A28" s="277">
         <f>J27</f>
         <v/>
       </c>
@@ -8370,7 +8393,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="281">
+      <c r="D28" s="294">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8392,24 +8415,24 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="241" t="n"/>
+      <c r="L28" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="29" s="237">
-      <c r="A29" s="266">
+      <c r="A29" s="277">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="269" t="inlineStr">
+      <c r="B29" s="280" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="280" t="inlineStr">
+      <c r="C29" s="293" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D29" s="330">
+      <c r="D29" s="338">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -8441,10 +8464,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="241" t="n"/>
+      <c r="L29" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="30" s="237">
-      <c r="A30" s="266">
+      <c r="A30" s="277">
         <f>J29</f>
         <v/>
       </c>
@@ -8458,7 +8481,7 @@
           <t>Introduce the 3nd Speaker</t>
         </is>
       </c>
-      <c r="D30" s="281">
+      <c r="D30" s="294">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8480,24 +8503,24 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="241" t="n"/>
+      <c r="L30" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="31" s="237" thickBot="1">
-      <c r="A31" s="266">
+      <c r="A31" s="277">
         <f>J30</f>
         <v/>
       </c>
-      <c r="B31" s="269" t="inlineStr">
+      <c r="B31" s="280" t="inlineStr">
         <is>
           <t>Prepared Speaker3</t>
         </is>
       </c>
-      <c r="C31" s="280" t="inlineStr">
+      <c r="C31" s="293" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D31" s="330">
+      <c r="D31" s="338">
         <f>Roles!B13</f>
         <v/>
       </c>
@@ -8529,31 +8552,31 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="241" t="n"/>
+      <c r="L31" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="237" thickBot="1">
-      <c r="A32" s="275" t="inlineStr">
+      <c r="A32" s="295" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B32" s="256" t="n"/>
-      <c r="C32" s="256" t="n"/>
-      <c r="D32" s="256" t="n"/>
-      <c r="E32" s="256" t="n"/>
-      <c r="F32" s="256" t="n"/>
-      <c r="G32" s="256" t="n"/>
-      <c r="H32" s="257" t="n"/>
+      <c r="B32" s="296" t="n"/>
+      <c r="C32" s="296" t="n"/>
+      <c r="D32" s="296" t="n"/>
+      <c r="E32" s="296" t="n"/>
+      <c r="F32" s="296" t="n"/>
+      <c r="G32" s="296" t="n"/>
+      <c r="H32" s="297" t="n"/>
       <c r="I32" s="37" t="n"/>
       <c r="J32" s="36">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="241" t="n"/>
+      <c r="L32" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="237">
-      <c r="A33" s="266">
+      <c r="A33" s="277">
         <f>J32</f>
         <v/>
       </c>
@@ -8567,7 +8590,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D33" s="276">
+      <c r="D33" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8589,10 +8612,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="241" t="n"/>
+      <c r="L33" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="237">
-      <c r="A34" s="266">
+      <c r="A34" s="277">
         <f>J33</f>
         <v/>
       </c>
@@ -8606,11 +8629,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D34" s="276">
+      <c r="D34" s="289">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E34" s="282" t="inlineStr">
+      <c r="E34" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8632,10 +8655,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="241" t="n"/>
+      <c r="L34" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="237">
-      <c r="A35" s="266">
+      <c r="A35" s="277">
         <f>J34</f>
         <v/>
       </c>
@@ -8649,11 +8672,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D35" s="276">
+      <c r="D35" s="289">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E35" s="282" t="inlineStr">
+      <c r="E35" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8675,10 +8698,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="241" t="n"/>
+      <c r="L35" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="237">
-      <c r="A36" s="266">
+      <c r="A36" s="277">
         <f>J35</f>
         <v/>
       </c>
@@ -8692,11 +8715,11 @@
           <t>Evaluate the 3rd speaker</t>
         </is>
       </c>
-      <c r="D36" s="276">
+      <c r="D36" s="289">
         <f>Roles!B17</f>
         <v/>
       </c>
-      <c r="E36" s="282" t="inlineStr">
+      <c r="E36" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8718,10 +8741,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="241" t="n"/>
+      <c r="L36" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="237">
-      <c r="A37" s="266">
+      <c r="A37" s="277">
         <f>J36</f>
         <v/>
       </c>
@@ -8735,7 +8758,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D37" s="271">
+      <c r="D37" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -8759,10 +8782,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="283" t="n"/>
+      <c r="L37" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="237">
-      <c r="A38" s="266">
+      <c r="A38" s="277">
         <f>J37</f>
         <v/>
       </c>
@@ -8776,7 +8799,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D38" s="271">
+      <c r="D38" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -8802,10 +8825,10 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="283" t="n"/>
+      <c r="L38" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="237">
-      <c r="A39" s="266">
+      <c r="A39" s="277">
         <f>J38</f>
         <v/>
       </c>
@@ -8819,7 +8842,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D39" s="271">
+      <c r="D39" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -8843,14 +8866,14 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="283" t="n"/>
+      <c r="L39" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="237">
-      <c r="A40" s="266">
+      <c r="A40" s="277">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="267" t="inlineStr">
+      <c r="B40" s="278" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -8860,7 +8883,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D40" s="271">
+      <c r="D40" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -8880,24 +8903,24 @@
         <v/>
       </c>
       <c r="K40" s="36" t="n"/>
-      <c r="L40" s="283" t="n"/>
+      <c r="L40" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="41" s="237">
-      <c r="A41" s="266">
+      <c r="A41" s="277">
         <f>J40</f>
         <v/>
       </c>
-      <c r="B41" s="269" t="inlineStr">
+      <c r="B41" s="280" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C41" s="269" t="inlineStr">
+      <c r="C41" s="280" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D41" s="271">
+      <c r="D41" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8929,24 +8952,24 @@
         <v/>
       </c>
       <c r="K41" s="36" t="n"/>
-      <c r="L41" s="283" t="n"/>
+      <c r="L41" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="42" s="237" thickBot="1">
-      <c r="A42" s="284">
+      <c r="A42" s="308">
         <f>J41</f>
         <v/>
       </c>
-      <c r="B42" s="272" t="inlineStr">
+      <c r="B42" s="283" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C42" s="269" t="inlineStr">
+      <c r="C42" s="280" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D42" s="271">
+      <c r="D42" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8978,24 +9001,24 @@
         <v/>
       </c>
       <c r="K42" s="36" t="n"/>
-      <c r="L42" s="283" t="n"/>
+      <c r="L42" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="43" s="237" thickBot="1">
-      <c r="A43" s="284">
+      <c r="A43" s="308">
         <f>J42</f>
         <v/>
       </c>
-      <c r="B43" s="285" t="inlineStr">
+      <c r="B43" s="309" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C43" s="286" t="inlineStr">
+      <c r="C43" s="310" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D43" s="271">
+      <c r="D43" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -9020,21 +9043,21 @@
       <c r="L43" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="44" s="237">
-      <c r="A44" s="287" t="n"/>
-      <c r="B44" s="239" t="n"/>
-      <c r="C44" s="239" t="n"/>
-      <c r="D44" s="239" t="n"/>
+      <c r="A44" s="311" t="n"/>
+      <c r="B44" s="312" t="n"/>
+      <c r="C44" s="312" t="n"/>
+      <c r="D44" s="312" t="n"/>
       <c r="E44" s="236" t="n"/>
-      <c r="F44" s="288" t="n"/>
-      <c r="G44" s="289" t="n"/>
-      <c r="H44" s="290" t="n"/>
+      <c r="F44" s="313" t="n"/>
+      <c r="G44" s="314" t="n"/>
+      <c r="H44" s="315" t="n"/>
       <c r="I44" s="39" t="n"/>
       <c r="J44" s="39" t="n"/>
       <c r="K44" s="39" t="n"/>
       <c r="L44" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="45" s="237">
-      <c r="A45" s="291" t="inlineStr">
+      <c r="A45" s="316" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -9044,18 +9067,18 @@
 </t>
         </is>
       </c>
-      <c r="D45" s="292" t="n"/>
+      <c r="D45" s="317" t="n"/>
       <c r="I45" s="39" t="n"/>
-      <c r="J45" s="293" t="inlineStr">
+      <c r="J45" s="318" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K45" s="294" t="n"/>
+      <c r="K45" s="319" t="n"/>
       <c r="L45" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="46" s="237">
-      <c r="A46" s="295" t="inlineStr">
+      <c r="A46" s="320" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -9066,91 +9089,91 @@
         </is>
       </c>
       <c r="I46" s="39" t="n"/>
-      <c r="J46" s="293" t="n"/>
+      <c r="J46" s="318" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="237">
-      <c r="A47" s="296" t="n"/>
+      <c r="A47" s="321" t="n"/>
       <c r="B47" s="236" t="n"/>
-      <c r="D47" s="297" t="n"/>
-      <c r="E47" s="298" t="n"/>
-      <c r="F47" s="298" t="n"/>
-      <c r="G47" s="298" t="n"/>
-      <c r="H47" s="298" t="n"/>
+      <c r="D47" s="322" t="n"/>
+      <c r="E47" s="323" t="n"/>
+      <c r="F47" s="323" t="n"/>
+      <c r="G47" s="323" t="n"/>
+      <c r="H47" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="237">
-      <c r="A48" s="296" t="n"/>
+      <c r="A48" s="321" t="n"/>
       <c r="B48" s="236" t="n"/>
       <c r="C48" s="236" t="n"/>
-      <c r="D48" s="297" t="n"/>
-      <c r="F48" s="298" t="n"/>
-      <c r="G48" s="298" t="n"/>
-      <c r="H48" s="298" t="n"/>
+      <c r="D48" s="322" t="n"/>
+      <c r="F48" s="323" t="n"/>
+      <c r="G48" s="323" t="n"/>
+      <c r="H48" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="49" s="237">
-      <c r="A49" s="296" t="n"/>
+      <c r="A49" s="321" t="n"/>
       <c r="B49" s="236" t="n"/>
       <c r="C49" s="236" t="n"/>
-      <c r="D49" s="299" t="n"/>
-      <c r="E49" s="300" t="n"/>
-      <c r="F49" s="301" t="n"/>
-      <c r="G49" s="302" t="n"/>
+      <c r="D49" s="324" t="n"/>
+      <c r="E49" s="325" t="n"/>
+      <c r="F49" s="326" t="n"/>
+      <c r="G49" s="327" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="50" s="237">
-      <c r="A50" s="296" t="n"/>
+      <c r="A50" s="321" t="n"/>
       <c r="B50" s="236" t="n"/>
-      <c r="D50" s="303" t="n"/>
-      <c r="E50" s="304" t="n"/>
+      <c r="D50" s="328" t="n"/>
+      <c r="E50" s="329" t="n"/>
       <c r="L50" s="179" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="51" s="237">
-      <c r="A51" s="296" t="n"/>
+      <c r="A51" s="321" t="n"/>
       <c r="B51" s="236" t="n"/>
-      <c r="D51" s="303" t="n"/>
-      <c r="E51" s="304" t="n"/>
+      <c r="D51" s="328" t="n"/>
+      <c r="E51" s="329" t="n"/>
       <c r="L51" s="179" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="296" t="n"/>
+      <c r="A52" s="321" t="n"/>
       <c r="B52" s="236" t="n"/>
-      <c r="D52" s="303" t="n"/>
-      <c r="E52" s="304" t="n"/>
+      <c r="D52" s="328" t="n"/>
+      <c r="E52" s="329" t="n"/>
       <c r="L52" s="179" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="296" t="n"/>
+      <c r="A53" s="321" t="n"/>
       <c r="B53" s="236" t="n"/>
       <c r="C53" s="236" t="n"/>
-      <c r="D53" s="303" t="n"/>
-      <c r="E53" s="304" t="n"/>
+      <c r="D53" s="328" t="n"/>
+      <c r="E53" s="329" t="n"/>
       <c r="L53" s="179" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="296" t="n"/>
+      <c r="A54" s="321" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
-      <c r="D54" s="303" t="n"/>
-      <c r="E54" s="304" t="n"/>
+      <c r="D54" s="328" t="n"/>
+      <c r="E54" s="329" t="n"/>
       <c r="L54" s="179" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="296" t="n"/>
+      <c r="A55" s="321" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="236" t="n"/>
-      <c r="E55" s="304" t="n"/>
+      <c r="E55" s="329" t="n"/>
       <c r="L55" s="179" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="296" t="n"/>
+      <c r="A56" s="321" t="n"/>
       <c r="B56" s="236" t="n"/>
-      <c r="D56" s="303" t="n"/>
-      <c r="E56" s="304" t="n"/>
+      <c r="D56" s="328" t="n"/>
+      <c r="E56" s="329" t="n"/>
     </row>
     <row customFormat="1" r="57" s="233">
-      <c r="A57" s="296" t="n"/>
+      <c r="A57" s="321" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
-      <c r="D57" s="303" t="n"/>
-      <c r="E57" s="304" t="n"/>
+      <c r="D57" s="328" t="n"/>
+      <c r="E57" s="329" t="n"/>
       <c r="G57" s="234" t="n"/>
       <c r="H57" s="235" t="n"/>
       <c r="I57" s="179" t="n"/>
@@ -9160,11 +9183,11 @@
       <c r="M57" s="236" t="n"/>
     </row>
     <row customFormat="1" r="58" s="233">
-      <c r="A58" s="296" t="n"/>
+      <c r="A58" s="321" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="230" t="n"/>
-      <c r="D58" s="303" t="n"/>
-      <c r="E58" s="304" t="n"/>
+      <c r="D58" s="328" t="n"/>
+      <c r="E58" s="329" t="n"/>
       <c r="G58" s="234" t="n"/>
       <c r="H58" s="235" t="n"/>
       <c r="I58" s="179" t="n"/>
@@ -9174,11 +9197,11 @@
       <c r="M58" s="236" t="n"/>
     </row>
     <row customFormat="1" r="59" s="233">
-      <c r="A59" s="296" t="n"/>
+      <c r="A59" s="321" t="n"/>
       <c r="B59" s="236" t="n"/>
       <c r="C59" s="236" t="n"/>
-      <c r="D59" s="303" t="n"/>
-      <c r="E59" s="304" t="n"/>
+      <c r="D59" s="328" t="n"/>
+      <c r="E59" s="329" t="n"/>
       <c r="G59" s="234" t="n"/>
       <c r="H59" s="235" t="n"/>
       <c r="I59" s="179" t="n"/>
@@ -9188,11 +9211,11 @@
       <c r="M59" s="236" t="n"/>
     </row>
     <row customFormat="1" r="60" s="233">
-      <c r="A60" s="296" t="n"/>
+      <c r="A60" s="321" t="n"/>
       <c r="B60" s="236" t="n"/>
       <c r="C60" s="236" t="n"/>
-      <c r="D60" s="303" t="n"/>
-      <c r="E60" s="304" t="n"/>
+      <c r="D60" s="328" t="n"/>
+      <c r="E60" s="329" t="n"/>
       <c r="G60" s="234" t="n"/>
       <c r="H60" s="235" t="n"/>
       <c r="I60" s="179" t="n"/>
@@ -9202,11 +9225,11 @@
       <c r="M60" s="236" t="n"/>
     </row>
     <row customFormat="1" r="61" s="233">
-      <c r="A61" s="296" t="n"/>
+      <c r="A61" s="321" t="n"/>
       <c r="B61" s="236" t="n"/>
       <c r="C61" s="236" t="n"/>
-      <c r="D61" s="303" t="n"/>
-      <c r="E61" s="304" t="n"/>
+      <c r="D61" s="328" t="n"/>
+      <c r="E61" s="329" t="n"/>
       <c r="G61" s="234" t="n"/>
       <c r="H61" s="235" t="n"/>
       <c r="I61" s="179" t="n"/>
@@ -9216,11 +9239,11 @@
       <c r="M61" s="236" t="n"/>
     </row>
     <row customFormat="1" r="62" s="233">
-      <c r="A62" s="296" t="n"/>
+      <c r="A62" s="321" t="n"/>
       <c r="B62" s="236" t="n"/>
       <c r="C62" s="236" t="n"/>
-      <c r="D62" s="303" t="n"/>
-      <c r="E62" s="304" t="n"/>
+      <c r="D62" s="328" t="n"/>
+      <c r="E62" s="329" t="n"/>
       <c r="G62" s="234" t="n"/>
       <c r="H62" s="235" t="n"/>
       <c r="I62" s="179" t="n"/>
@@ -9230,11 +9253,11 @@
       <c r="M62" s="236" t="n"/>
     </row>
     <row customFormat="1" r="63" s="233">
-      <c r="A63" s="296" t="n"/>
+      <c r="A63" s="321" t="n"/>
       <c r="B63" s="236" t="n"/>
       <c r="C63" s="236" t="n"/>
-      <c r="D63" s="303" t="n"/>
-      <c r="E63" s="304" t="n"/>
+      <c r="D63" s="328" t="n"/>
+      <c r="E63" s="329" t="n"/>
       <c r="G63" s="234" t="n"/>
       <c r="H63" s="235" t="n"/>
       <c r="I63" s="179" t="n"/>
@@ -9244,11 +9267,11 @@
       <c r="M63" s="236" t="n"/>
     </row>
     <row customFormat="1" r="64" s="233">
-      <c r="A64" s="296" t="n"/>
+      <c r="A64" s="321" t="n"/>
       <c r="B64" s="236" t="n"/>
       <c r="C64" s="236" t="n"/>
-      <c r="D64" s="303" t="n"/>
-      <c r="E64" s="304" t="n"/>
+      <c r="D64" s="328" t="n"/>
+      <c r="E64" s="329" t="n"/>
       <c r="G64" s="234" t="n"/>
       <c r="H64" s="235" t="n"/>
       <c r="I64" s="179" t="n"/>
@@ -9258,11 +9281,11 @@
       <c r="M64" s="236" t="n"/>
     </row>
     <row customFormat="1" r="65" s="233">
-      <c r="A65" s="296" t="n"/>
+      <c r="A65" s="321" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
-      <c r="D65" s="303" t="n"/>
-      <c r="E65" s="304" t="n"/>
+      <c r="D65" s="328" t="n"/>
+      <c r="E65" s="329" t="n"/>
       <c r="G65" s="234" t="n"/>
       <c r="H65" s="235" t="n"/>
       <c r="I65" s="179" t="n"/>
@@ -9272,11 +9295,11 @@
       <c r="M65" s="236" t="n"/>
     </row>
     <row customFormat="1" r="66" s="233">
-      <c r="A66" s="296" t="n"/>
+      <c r="A66" s="321" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
-      <c r="D66" s="303" t="n"/>
-      <c r="E66" s="304" t="n"/>
+      <c r="D66" s="328" t="n"/>
+      <c r="E66" s="329" t="n"/>
       <c r="G66" s="234" t="n"/>
       <c r="H66" s="235" t="n"/>
       <c r="I66" s="179" t="n"/>
@@ -9286,11 +9309,11 @@
       <c r="M66" s="236" t="n"/>
     </row>
     <row customFormat="1" r="67" s="233">
-      <c r="A67" s="296" t="n"/>
+      <c r="A67" s="321" t="n"/>
       <c r="B67" s="230" t="n"/>
       <c r="C67" s="230" t="n"/>
-      <c r="D67" s="303" t="n"/>
-      <c r="E67" s="304" t="n"/>
+      <c r="D67" s="328" t="n"/>
+      <c r="E67" s="329" t="n"/>
       <c r="G67" s="234" t="n"/>
       <c r="H67" s="235" t="n"/>
       <c r="I67" s="179" t="n"/>
@@ -9300,11 +9323,11 @@
       <c r="M67" s="236" t="n"/>
     </row>
     <row customFormat="1" r="68" s="233">
-      <c r="A68" s="296" t="n"/>
+      <c r="A68" s="321" t="n"/>
       <c r="B68" s="230" t="n"/>
       <c r="C68" s="230" t="n"/>
-      <c r="D68" s="303" t="n"/>
-      <c r="E68" s="304" t="n"/>
+      <c r="D68" s="328" t="n"/>
+      <c r="E68" s="329" t="n"/>
       <c r="G68" s="234" t="n"/>
       <c r="H68" s="235" t="n"/>
       <c r="I68" s="179" t="n"/>
@@ -9314,7 +9337,7 @@
       <c r="M68" s="236" t="n"/>
     </row>
     <row customFormat="1" r="69" s="233">
-      <c r="A69" s="296" t="n"/>
+      <c r="A69" s="321" t="n"/>
       <c r="B69" s="230" t="n"/>
       <c r="C69" s="230" t="n"/>
       <c r="D69" s="231" t="n"/>
@@ -9328,7 +9351,7 @@
       <c r="M69" s="236" t="n"/>
     </row>
     <row customFormat="1" r="70" s="233">
-      <c r="A70" s="296" t="n"/>
+      <c r="A70" s="321" t="n"/>
       <c r="B70" s="230" t="n"/>
       <c r="C70" s="230" t="n"/>
       <c r="D70" s="231" t="n"/>
@@ -9342,7 +9365,7 @@
       <c r="M70" s="236" t="n"/>
     </row>
     <row customFormat="1" r="71" s="233">
-      <c r="A71" s="296" t="n"/>
+      <c r="A71" s="321" t="n"/>
       <c r="B71" s="230" t="n"/>
       <c r="C71" s="230" t="n"/>
       <c r="D71" s="231" t="n"/>
@@ -9356,7 +9379,7 @@
       <c r="M71" s="236" t="n"/>
     </row>
     <row customFormat="1" r="72" s="233">
-      <c r="A72" s="296" t="n"/>
+      <c r="A72" s="321" t="n"/>
       <c r="B72" s="230" t="n"/>
       <c r="C72" s="230" t="n"/>
       <c r="D72" s="231" t="n"/>
@@ -9370,7 +9393,7 @@
       <c r="M72" s="236" t="n"/>
     </row>
     <row customFormat="1" r="73" s="230">
-      <c r="A73" s="296" t="n"/>
+      <c r="A73" s="321" t="n"/>
       <c r="D73" s="231" t="n"/>
       <c r="E73" s="232" t="n"/>
       <c r="F73" s="233" t="n"/>
@@ -9382,7 +9405,7 @@
       <c r="M73" s="236" t="n"/>
     </row>
     <row customFormat="1" r="74" s="230">
-      <c r="A74" s="296" t="n"/>
+      <c r="A74" s="321" t="n"/>
       <c r="D74" s="231" t="n"/>
       <c r="E74" s="232" t="n"/>
       <c r="F74" s="233" t="n"/>
@@ -9394,7 +9417,7 @@
       <c r="M74" s="236" t="n"/>
     </row>
     <row customFormat="1" r="75" s="230">
-      <c r="A75" s="296" t="n"/>
+      <c r="A75" s="321" t="n"/>
       <c r="D75" s="231" t="n"/>
       <c r="E75" s="232" t="n"/>
       <c r="F75" s="233" t="n"/>
@@ -9459,18 +9482,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="237">
-      <c r="A1" s="238" t="inlineStr">
+      <c r="A1" s="330" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="239" t="n"/>
-      <c r="C1" s="239" t="n"/>
-      <c r="D1" s="239" t="n"/>
-      <c r="E1" s="239" t="n"/>
-      <c r="F1" s="239" t="n"/>
-      <c r="G1" s="239" t="n"/>
-      <c r="H1" s="239" t="n"/>
+      <c r="B1" s="312" t="n"/>
+      <c r="C1" s="312" t="n"/>
+      <c r="D1" s="312" t="n"/>
+      <c r="E1" s="312" t="n"/>
+      <c r="F1" s="312" t="n"/>
+      <c r="G1" s="312" t="n"/>
+      <c r="H1" s="312" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="237">
       <c r="A2" s="339" t="inlineStr">
@@ -9478,8 +9501,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="241" t="n"/>
-      <c r="J2" s="241" t="n"/>
+      <c r="I2" s="242" t="n"/>
+      <c r="J2" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="237">
       <c r="A3" s="340" t="inlineStr">
@@ -9494,8 +9517,8 @@
       <c r="F3" s="341" t="n"/>
       <c r="G3" s="341" t="n"/>
       <c r="H3" s="341" t="n"/>
-      <c r="I3" s="243" t="n"/>
-      <c r="J3" s="243" t="n"/>
+      <c r="I3" s="259" t="n"/>
+      <c r="J3" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="237">
       <c r="A4" s="342" t="inlineStr">
@@ -9514,13 +9537,13 @@
       <c r="F4" s="344" t="n"/>
       <c r="G4" s="344" t="n"/>
       <c r="H4" s="344" t="n"/>
-      <c r="I4" s="241" t="n"/>
-      <c r="J4" s="241" t="n"/>
+      <c r="I4" s="242" t="n"/>
+      <c r="J4" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
       <c r="A5" s="345" t="n"/>
-      <c r="I5" s="243" t="n"/>
-      <c r="J5" s="243" t="n"/>
+      <c r="I5" s="259" t="n"/>
+      <c r="J5" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
       <c r="A6" s="342" t="inlineStr">
@@ -9539,29 +9562,29 @@
       <c r="F6" s="344" t="n"/>
       <c r="G6" s="344" t="n"/>
       <c r="H6" s="344" t="n"/>
-      <c r="I6" s="243" t="n"/>
-      <c r="J6" s="243" t="n"/>
+      <c r="I6" s="259" t="n"/>
+      <c r="J6" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
       <c r="A7" s="345" t="n"/>
-      <c r="I7" s="243" t="n"/>
-      <c r="J7" s="243" t="n"/>
+      <c r="I7" s="259" t="n"/>
+      <c r="J7" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
-      <c r="A8" s="255" t="inlineStr">
+      <c r="A8" s="337" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="256" t="n"/>
-      <c r="C8" s="256" t="n"/>
-      <c r="D8" s="256" t="n"/>
-      <c r="E8" s="256" t="n"/>
-      <c r="F8" s="256" t="n"/>
-      <c r="G8" s="256" t="n"/>
-      <c r="H8" s="257" t="n"/>
-      <c r="I8" s="243" t="n"/>
-      <c r="J8" s="243" t="n"/>
+      <c r="B8" s="296" t="n"/>
+      <c r="C8" s="296" t="n"/>
+      <c r="D8" s="296" t="n"/>
+      <c r="E8" s="296" t="n"/>
+      <c r="F8" s="296" t="n"/>
+      <c r="G8" s="296" t="n"/>
+      <c r="H8" s="297" t="n"/>
+      <c r="I8" s="259" t="n"/>
+      <c r="J8" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
       <c r="A9" s="346" t="inlineStr">
@@ -9579,28 +9602,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="261" t="inlineStr">
+      <c r="D9" s="272" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="262" t="inlineStr">
+      <c r="E9" s="273" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="263" t="inlineStr">
+      <c r="F9" s="274" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="264" t="inlineStr">
+      <c r="G9" s="275" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="265" t="inlineStr">
+      <c r="H9" s="276" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -9613,7 +9636,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="237">
-      <c r="A10" s="266">
+      <c r="A10" s="277">
         <f>J9</f>
         <v/>
       </c>
@@ -9627,7 +9650,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="268">
+      <c r="D10" s="279">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -9646,7 +9669,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="237">
-      <c r="A11" s="266">
+      <c r="A11" s="277">
         <f>J10</f>
         <v/>
       </c>
@@ -9660,7 +9683,7 @@
           <t>会议开场</t>
         </is>
       </c>
-      <c r="D11" s="271">
+      <c r="D11" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -9687,7 +9710,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="237">
-      <c r="A12" s="266">
+      <c r="A12" s="277">
         <f>J11</f>
         <v/>
       </c>
@@ -9701,7 +9724,7 @@
           <t>欢迎</t>
         </is>
       </c>
-      <c r="D12" s="271">
+      <c r="D12" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -9732,7 +9755,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="237">
-      <c r="A13" s="266">
+      <c r="A13" s="277">
         <f>J12</f>
         <v/>
       </c>
@@ -9746,7 +9769,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="271">
+      <c r="D13" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9771,7 +9794,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="237">
-      <c r="A14" s="266">
+      <c r="A14" s="277">
         <f>J13</f>
         <v/>
       </c>
@@ -9785,7 +9808,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="271">
+      <c r="D14" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9807,10 +9830,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="241" t="n"/>
+      <c r="L14" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="237">
-      <c r="A15" s="266">
+      <c r="A15" s="277">
         <f>J14</f>
         <v/>
       </c>
@@ -9824,7 +9847,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="271">
+      <c r="D15" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -9844,10 +9867,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="241" t="n"/>
+      <c r="L15" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="237">
-      <c r="A16" s="266">
+      <c r="A16" s="277">
         <f>J15</f>
         <v/>
       </c>
@@ -9861,7 +9884,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="271">
+      <c r="D16" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -9881,10 +9904,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="241" t="n"/>
+      <c r="L16" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="237">
-      <c r="A17" s="266">
+      <c r="A17" s="277">
         <f>J16</f>
         <v/>
       </c>
@@ -9898,7 +9921,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="271">
+      <c r="D17" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -9922,10 +9945,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="241" t="n"/>
+      <c r="L17" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="237">
-      <c r="A18" s="266">
+      <c r="A18" s="277">
         <f>J17</f>
         <v/>
       </c>
@@ -9939,7 +9962,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="271">
+      <c r="D18" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9960,7 +9983,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
-      <c r="A19" s="273">
+      <c r="A19" s="284">
         <f>J18</f>
         <v/>
       </c>
@@ -9974,7 +9997,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="271">
+      <c r="D19" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9995,18 +10018,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
-      <c r="A20" s="275" t="inlineStr">
+      <c r="A20" s="295" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="256" t="n"/>
-      <c r="C20" s="256" t="n"/>
-      <c r="D20" s="256" t="n"/>
-      <c r="E20" s="256" t="n"/>
-      <c r="F20" s="256" t="n"/>
-      <c r="G20" s="256" t="n"/>
-      <c r="H20" s="257" t="n"/>
+      <c r="B20" s="296" t="n"/>
+      <c r="C20" s="296" t="n"/>
+      <c r="D20" s="296" t="n"/>
+      <c r="E20" s="296" t="n"/>
+      <c r="F20" s="296" t="n"/>
+      <c r="G20" s="296" t="n"/>
+      <c r="H20" s="297" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -10016,7 +10039,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="237">
-      <c r="A21" s="266">
+      <c r="A21" s="277">
         <f>J20</f>
         <v/>
       </c>
@@ -10030,7 +10053,7 @@
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="276">
+      <c r="D21" s="289">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -10055,7 +10078,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="237">
-      <c r="A22" s="266">
+      <c r="A22" s="277">
         <f>J21</f>
         <v/>
       </c>
@@ -10069,7 +10092,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="271">
+      <c r="D22" s="282">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -10102,7 +10125,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="237">
-      <c r="A23" s="266">
+      <c r="A23" s="277">
         <f>J22</f>
         <v/>
       </c>
@@ -10116,7 +10139,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="271">
+      <c r="D23" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10139,7 +10162,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
-      <c r="A24" s="277">
+      <c r="A24" s="290">
         <f>J23</f>
         <v/>
       </c>
@@ -10153,7 +10176,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="279">
+      <c r="D24" s="292">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10176,18 +10199,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
-      <c r="A25" s="275" t="inlineStr">
+      <c r="A25" s="295" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="256" t="n"/>
-      <c r="C25" s="256" t="n"/>
-      <c r="D25" s="256" t="n"/>
-      <c r="E25" s="256" t="n"/>
-      <c r="F25" s="256" t="n"/>
-      <c r="G25" s="256" t="n"/>
-      <c r="H25" s="257" t="n"/>
+      <c r="B25" s="296" t="n"/>
+      <c r="C25" s="296" t="n"/>
+      <c r="D25" s="296" t="n"/>
+      <c r="E25" s="296" t="n"/>
+      <c r="F25" s="296" t="n"/>
+      <c r="G25" s="296" t="n"/>
+      <c r="H25" s="297" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -10196,10 +10219,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="241" t="n"/>
+      <c r="L25" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="237">
-      <c r="A26" s="266">
+      <c r="A26" s="277">
         <f>J25</f>
         <v/>
       </c>
@@ -10213,7 +10236,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="276">
+      <c r="D26" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10235,10 +10258,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="241" t="n"/>
+      <c r="L26" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="237" thickBot="1">
-      <c r="A27" s="266">
+      <c r="A27" s="277">
         <f>J26</f>
         <v/>
       </c>
@@ -10253,7 +10276,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="281">
+      <c r="D27" s="294">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -10285,31 +10308,31 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="241" t="n"/>
+      <c r="L27" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="237" thickBot="1">
-      <c r="A28" s="275" t="inlineStr">
+      <c r="A28" s="295" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B28" s="256" t="n"/>
-      <c r="C28" s="256" t="n"/>
-      <c r="D28" s="256" t="n"/>
-      <c r="E28" s="256" t="n"/>
-      <c r="F28" s="256" t="n"/>
-      <c r="G28" s="256" t="n"/>
-      <c r="H28" s="257" t="n"/>
+      <c r="B28" s="296" t="n"/>
+      <c r="C28" s="296" t="n"/>
+      <c r="D28" s="296" t="n"/>
+      <c r="E28" s="296" t="n"/>
+      <c r="F28" s="296" t="n"/>
+      <c r="G28" s="296" t="n"/>
+      <c r="H28" s="297" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="241" t="n"/>
+      <c r="L28" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="237">
-      <c r="A29" s="266">
+      <c r="A29" s="277">
         <f>J28</f>
         <v/>
       </c>
@@ -10323,7 +10346,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D29" s="276">
+      <c r="D29" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10345,10 +10368,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="241" t="n"/>
+      <c r="L29" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="237">
-      <c r="A30" s="266">
+      <c r="A30" s="277">
         <f>J29</f>
         <v/>
       </c>
@@ -10362,11 +10385,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D30" s="276">
+      <c r="D30" s="289">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="282" t="inlineStr">
+      <c r="E30" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -10388,10 +10411,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="241" t="n"/>
+      <c r="L30" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="237">
-      <c r="A31" s="266">
+      <c r="A31" s="277">
         <f>J30</f>
         <v/>
       </c>
@@ -10405,7 +10428,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D31" s="271">
+      <c r="D31" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -10429,10 +10452,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="283" t="n"/>
+      <c r="L31" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="237">
-      <c r="A32" s="266">
+      <c r="A32" s="277">
         <f>J31</f>
         <v/>
       </c>
@@ -10446,7 +10469,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D32" s="271">
+      <c r="D32" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -10472,10 +10495,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="283" t="n"/>
+      <c r="L32" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="237">
-      <c r="A33" s="266">
+      <c r="A33" s="277">
         <f>J32</f>
         <v/>
       </c>
@@ -10489,7 +10512,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D33" s="271">
+      <c r="D33" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -10513,10 +10536,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="283" t="n"/>
+      <c r="L33" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="237">
-      <c r="A34" s="266">
+      <c r="A34" s="277">
         <f>J33</f>
         <v/>
       </c>
@@ -10530,7 +10553,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D34" s="271">
+      <c r="D34" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -10550,10 +10573,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="283" t="n"/>
+      <c r="L34" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="237">
-      <c r="A35" s="266">
+      <c r="A35" s="277">
         <f>J34</f>
         <v/>
       </c>
@@ -10567,7 +10590,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D35" s="271">
+      <c r="D35" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10599,24 +10622,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="283" t="n"/>
+      <c r="L35" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="237">
-      <c r="A36" s="266">
+      <c r="A36" s="277">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="272" t="inlineStr">
+      <c r="B36" s="283" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C36" s="269" t="inlineStr">
+      <c r="C36" s="280" t="inlineStr">
         <is>
           <t>总结</t>
         </is>
       </c>
-      <c r="D36" s="271">
+      <c r="D36" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10648,24 +10671,24 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="283" t="n"/>
+      <c r="L36" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="237" thickBot="1">
-      <c r="A37" s="284">
+      <c r="A37" s="308">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="285" t="inlineStr">
+      <c r="B37" s="309" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C37" s="286" t="inlineStr">
+      <c r="C37" s="310" t="inlineStr">
         <is>
           <t>颁奖&amp;会议结束致辞</t>
         </is>
       </c>
-      <c r="D37" s="271">
+      <c r="D37" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -10690,14 +10713,14 @@
       <c r="L37" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="237">
-      <c r="A38" s="287" t="n"/>
-      <c r="B38" s="239" t="n"/>
-      <c r="C38" s="239" t="n"/>
-      <c r="D38" s="239" t="n"/>
+      <c r="A38" s="311" t="n"/>
+      <c r="B38" s="312" t="n"/>
+      <c r="C38" s="312" t="n"/>
+      <c r="D38" s="312" t="n"/>
       <c r="E38" s="236" t="n"/>
-      <c r="F38" s="288" t="n"/>
-      <c r="G38" s="289" t="n"/>
-      <c r="H38" s="290" t="n"/>
+      <c r="F38" s="313" t="n"/>
+      <c r="G38" s="314" t="n"/>
+      <c r="H38" s="315" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
@@ -10712,14 +10735,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D39" s="292" t="n"/>
+      <c r="D39" s="317" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="293" t="inlineStr">
+      <c r="J39" s="318" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="294" t="n"/>
+      <c r="K39" s="319" t="n"/>
       <c r="L39" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="237">
@@ -10733,91 +10756,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="293" t="n"/>
+      <c r="J40" s="318" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="237">
-      <c r="A41" s="296" t="n"/>
+      <c r="A41" s="321" t="n"/>
       <c r="B41" s="236" t="n"/>
-      <c r="D41" s="297" t="n"/>
-      <c r="E41" s="298" t="n"/>
-      <c r="F41" s="298" t="n"/>
-      <c r="G41" s="298" t="n"/>
-      <c r="H41" s="298" t="n"/>
+      <c r="D41" s="322" t="n"/>
+      <c r="E41" s="323" t="n"/>
+      <c r="F41" s="323" t="n"/>
+      <c r="G41" s="323" t="n"/>
+      <c r="H41" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="237">
-      <c r="A42" s="296" t="n"/>
+      <c r="A42" s="321" t="n"/>
       <c r="B42" s="236" t="n"/>
       <c r="C42" s="236" t="n"/>
-      <c r="D42" s="297" t="n"/>
-      <c r="F42" s="298" t="n"/>
-      <c r="G42" s="298" t="n"/>
-      <c r="H42" s="298" t="n"/>
+      <c r="D42" s="322" t="n"/>
+      <c r="F42" s="323" t="n"/>
+      <c r="G42" s="323" t="n"/>
+      <c r="H42" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="237">
-      <c r="A43" s="296" t="n"/>
+      <c r="A43" s="321" t="n"/>
       <c r="B43" s="236" t="n"/>
       <c r="C43" s="236" t="n"/>
-      <c r="D43" s="299" t="n"/>
-      <c r="E43" s="300" t="n"/>
-      <c r="F43" s="301" t="n"/>
-      <c r="G43" s="302" t="n"/>
+      <c r="D43" s="324" t="n"/>
+      <c r="E43" s="325" t="n"/>
+      <c r="F43" s="326" t="n"/>
+      <c r="G43" s="327" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="237">
-      <c r="A44" s="296" t="n"/>
+      <c r="A44" s="321" t="n"/>
       <c r="B44" s="236" t="n"/>
-      <c r="D44" s="303" t="n"/>
-      <c r="E44" s="304" t="n"/>
+      <c r="D44" s="328" t="n"/>
+      <c r="E44" s="329" t="n"/>
       <c r="L44" s="179" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="237">
-      <c r="A45" s="296" t="n"/>
+      <c r="A45" s="321" t="n"/>
       <c r="B45" s="236" t="n"/>
-      <c r="D45" s="303" t="n"/>
-      <c r="E45" s="304" t="n"/>
+      <c r="D45" s="328" t="n"/>
+      <c r="E45" s="329" t="n"/>
       <c r="L45" s="179" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="296" t="n"/>
+      <c r="A46" s="321" t="n"/>
       <c r="B46" s="236" t="n"/>
-      <c r="D46" s="303" t="n"/>
-      <c r="E46" s="304" t="n"/>
+      <c r="D46" s="328" t="n"/>
+      <c r="E46" s="329" t="n"/>
       <c r="L46" s="179" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="296" t="n"/>
+      <c r="A47" s="321" t="n"/>
       <c r="B47" s="236" t="n"/>
       <c r="C47" s="236" t="n"/>
-      <c r="D47" s="303" t="n"/>
-      <c r="E47" s="304" t="n"/>
+      <c r="D47" s="328" t="n"/>
+      <c r="E47" s="329" t="n"/>
       <c r="L47" s="179" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="296" t="n"/>
+      <c r="A48" s="321" t="n"/>
       <c r="B48" s="236" t="n"/>
       <c r="C48" s="236" t="n"/>
-      <c r="D48" s="303" t="n"/>
-      <c r="E48" s="304" t="n"/>
+      <c r="D48" s="328" t="n"/>
+      <c r="E48" s="329" t="n"/>
       <c r="L48" s="179" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="296" t="n"/>
+      <c r="A49" s="321" t="n"/>
       <c r="B49" s="236" t="n"/>
       <c r="C49" s="236" t="n"/>
-      <c r="E49" s="304" t="n"/>
+      <c r="E49" s="329" t="n"/>
       <c r="L49" s="179" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="296" t="n"/>
+      <c r="A50" s="321" t="n"/>
       <c r="B50" s="236" t="n"/>
-      <c r="D50" s="303" t="n"/>
-      <c r="E50" s="304" t="n"/>
+      <c r="D50" s="328" t="n"/>
+      <c r="E50" s="329" t="n"/>
     </row>
     <row customFormat="1" r="51" s="233">
-      <c r="A51" s="296" t="n"/>
+      <c r="A51" s="321" t="n"/>
       <c r="B51" s="236" t="n"/>
       <c r="C51" s="236" t="n"/>
-      <c r="D51" s="303" t="n"/>
-      <c r="E51" s="304" t="n"/>
+      <c r="D51" s="328" t="n"/>
+      <c r="E51" s="329" t="n"/>
       <c r="G51" s="234" t="n"/>
       <c r="H51" s="235" t="n"/>
       <c r="I51" s="179" t="n"/>
@@ -10827,11 +10850,11 @@
       <c r="M51" s="236" t="n"/>
     </row>
     <row customFormat="1" r="52" s="233">
-      <c r="A52" s="296" t="n"/>
+      <c r="A52" s="321" t="n"/>
       <c r="B52" s="236" t="n"/>
       <c r="C52" s="230" t="n"/>
-      <c r="D52" s="303" t="n"/>
-      <c r="E52" s="304" t="n"/>
+      <c r="D52" s="328" t="n"/>
+      <c r="E52" s="329" t="n"/>
       <c r="G52" s="234" t="n"/>
       <c r="H52" s="235" t="n"/>
       <c r="I52" s="179" t="n"/>
@@ -10841,11 +10864,11 @@
       <c r="M52" s="236" t="n"/>
     </row>
     <row customFormat="1" r="53" s="233">
-      <c r="A53" s="296" t="n"/>
+      <c r="A53" s="321" t="n"/>
       <c r="B53" s="236" t="n"/>
       <c r="C53" s="236" t="n"/>
-      <c r="D53" s="303" t="n"/>
-      <c r="E53" s="304" t="n"/>
+      <c r="D53" s="328" t="n"/>
+      <c r="E53" s="329" t="n"/>
       <c r="G53" s="234" t="n"/>
       <c r="H53" s="235" t="n"/>
       <c r="I53" s="179" t="n"/>
@@ -10855,11 +10878,11 @@
       <c r="M53" s="236" t="n"/>
     </row>
     <row customFormat="1" r="54" s="233">
-      <c r="A54" s="296" t="n"/>
+      <c r="A54" s="321" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
-      <c r="D54" s="303" t="n"/>
-      <c r="E54" s="304" t="n"/>
+      <c r="D54" s="328" t="n"/>
+      <c r="E54" s="329" t="n"/>
       <c r="G54" s="234" t="n"/>
       <c r="H54" s="235" t="n"/>
       <c r="I54" s="179" t="n"/>
@@ -10869,11 +10892,11 @@
       <c r="M54" s="236" t="n"/>
     </row>
     <row customFormat="1" r="55" s="233">
-      <c r="A55" s="296" t="n"/>
+      <c r="A55" s="321" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="236" t="n"/>
-      <c r="D55" s="303" t="n"/>
-      <c r="E55" s="304" t="n"/>
+      <c r="D55" s="328" t="n"/>
+      <c r="E55" s="329" t="n"/>
       <c r="G55" s="234" t="n"/>
       <c r="H55" s="235" t="n"/>
       <c r="I55" s="179" t="n"/>
@@ -10883,11 +10906,11 @@
       <c r="M55" s="236" t="n"/>
     </row>
     <row customFormat="1" r="56" s="233">
-      <c r="A56" s="296" t="n"/>
+      <c r="A56" s="321" t="n"/>
       <c r="B56" s="236" t="n"/>
       <c r="C56" s="236" t="n"/>
-      <c r="D56" s="303" t="n"/>
-      <c r="E56" s="304" t="n"/>
+      <c r="D56" s="328" t="n"/>
+      <c r="E56" s="329" t="n"/>
       <c r="G56" s="234" t="n"/>
       <c r="H56" s="235" t="n"/>
       <c r="I56" s="179" t="n"/>
@@ -10897,11 +10920,11 @@
       <c r="M56" s="236" t="n"/>
     </row>
     <row customFormat="1" r="57" s="233">
-      <c r="A57" s="296" t="n"/>
+      <c r="A57" s="321" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
-      <c r="D57" s="303" t="n"/>
-      <c r="E57" s="304" t="n"/>
+      <c r="D57" s="328" t="n"/>
+      <c r="E57" s="329" t="n"/>
       <c r="G57" s="234" t="n"/>
       <c r="H57" s="235" t="n"/>
       <c r="I57" s="179" t="n"/>
@@ -10911,11 +10934,11 @@
       <c r="M57" s="236" t="n"/>
     </row>
     <row customFormat="1" r="58" s="233">
-      <c r="A58" s="296" t="n"/>
+      <c r="A58" s="321" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="236" t="n"/>
-      <c r="D58" s="303" t="n"/>
-      <c r="E58" s="304" t="n"/>
+      <c r="D58" s="328" t="n"/>
+      <c r="E58" s="329" t="n"/>
       <c r="G58" s="234" t="n"/>
       <c r="H58" s="235" t="n"/>
       <c r="I58" s="179" t="n"/>
@@ -10925,11 +10948,11 @@
       <c r="M58" s="236" t="n"/>
     </row>
     <row customFormat="1" r="59" s="233">
-      <c r="A59" s="296" t="n"/>
+      <c r="A59" s="321" t="n"/>
       <c r="B59" s="230" t="n"/>
       <c r="C59" s="230" t="n"/>
-      <c r="D59" s="303" t="n"/>
-      <c r="E59" s="304" t="n"/>
+      <c r="D59" s="328" t="n"/>
+      <c r="E59" s="329" t="n"/>
       <c r="G59" s="234" t="n"/>
       <c r="H59" s="235" t="n"/>
       <c r="I59" s="179" t="n"/>
@@ -10939,11 +10962,11 @@
       <c r="M59" s="236" t="n"/>
     </row>
     <row customFormat="1" r="60" s="233">
-      <c r="A60" s="296" t="n"/>
+      <c r="A60" s="321" t="n"/>
       <c r="B60" s="230" t="n"/>
       <c r="C60" s="230" t="n"/>
-      <c r="D60" s="303" t="n"/>
-      <c r="E60" s="304" t="n"/>
+      <c r="D60" s="328" t="n"/>
+      <c r="E60" s="329" t="n"/>
       <c r="G60" s="234" t="n"/>
       <c r="H60" s="235" t="n"/>
       <c r="I60" s="179" t="n"/>
@@ -10953,11 +10976,11 @@
       <c r="M60" s="236" t="n"/>
     </row>
     <row customFormat="1" r="61" s="233">
-      <c r="A61" s="296" t="n"/>
+      <c r="A61" s="321" t="n"/>
       <c r="B61" s="230" t="n"/>
       <c r="C61" s="230" t="n"/>
-      <c r="D61" s="303" t="n"/>
-      <c r="E61" s="304" t="n"/>
+      <c r="D61" s="328" t="n"/>
+      <c r="E61" s="329" t="n"/>
       <c r="G61" s="234" t="n"/>
       <c r="H61" s="235" t="n"/>
       <c r="I61" s="179" t="n"/>
@@ -10967,11 +10990,11 @@
       <c r="M61" s="236" t="n"/>
     </row>
     <row customFormat="1" r="62" s="233">
-      <c r="A62" s="296" t="n"/>
+      <c r="A62" s="321" t="n"/>
       <c r="B62" s="230" t="n"/>
       <c r="C62" s="230" t="n"/>
-      <c r="D62" s="303" t="n"/>
-      <c r="E62" s="304" t="n"/>
+      <c r="D62" s="328" t="n"/>
+      <c r="E62" s="329" t="n"/>
       <c r="G62" s="234" t="n"/>
       <c r="H62" s="235" t="n"/>
       <c r="I62" s="179" t="n"/>
@@ -10981,7 +11004,7 @@
       <c r="M62" s="236" t="n"/>
     </row>
     <row customFormat="1" r="63" s="233">
-      <c r="A63" s="296" t="n"/>
+      <c r="A63" s="321" t="n"/>
       <c r="B63" s="230" t="n"/>
       <c r="C63" s="230" t="n"/>
       <c r="D63" s="231" t="n"/>
@@ -10995,7 +11018,7 @@
       <c r="M63" s="236" t="n"/>
     </row>
     <row customFormat="1" r="64" s="233">
-      <c r="A64" s="296" t="n"/>
+      <c r="A64" s="321" t="n"/>
       <c r="B64" s="230" t="n"/>
       <c r="C64" s="230" t="n"/>
       <c r="D64" s="231" t="n"/>
@@ -11009,7 +11032,7 @@
       <c r="M64" s="236" t="n"/>
     </row>
     <row customFormat="1" r="65" s="233">
-      <c r="A65" s="296" t="n"/>
+      <c r="A65" s="321" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
       <c r="D65" s="231" t="n"/>
@@ -11023,7 +11046,7 @@
       <c r="M65" s="236" t="n"/>
     </row>
     <row customFormat="1" r="66" s="233">
-      <c r="A66" s="296" t="n"/>
+      <c r="A66" s="321" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
       <c r="D66" s="231" t="n"/>
@@ -11037,7 +11060,7 @@
       <c r="M66" s="236" t="n"/>
     </row>
     <row customFormat="1" r="67" s="230">
-      <c r="A67" s="296" t="n"/>
+      <c r="A67" s="321" t="n"/>
       <c r="D67" s="231" t="n"/>
       <c r="E67" s="232" t="n"/>
       <c r="F67" s="233" t="n"/>
@@ -11049,7 +11072,7 @@
       <c r="M67" s="236" t="n"/>
     </row>
     <row customFormat="1" r="68" s="230">
-      <c r="A68" s="296" t="n"/>
+      <c r="A68" s="321" t="n"/>
       <c r="D68" s="231" t="n"/>
       <c r="E68" s="232" t="n"/>
       <c r="F68" s="233" t="n"/>
@@ -11061,7 +11084,7 @@
       <c r="M68" s="236" t="n"/>
     </row>
     <row customFormat="1" r="69" s="230">
-      <c r="A69" s="296" t="n"/>
+      <c r="A69" s="321" t="n"/>
       <c r="D69" s="231" t="n"/>
       <c r="E69" s="232" t="n"/>
       <c r="F69" s="233" t="n"/>
@@ -11128,18 +11151,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="237">
-      <c r="A1" s="238" t="inlineStr">
+      <c r="A1" s="330" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="239" t="n"/>
-      <c r="C1" s="239" t="n"/>
-      <c r="D1" s="239" t="n"/>
-      <c r="E1" s="239" t="n"/>
-      <c r="F1" s="239" t="n"/>
-      <c r="G1" s="239" t="n"/>
-      <c r="H1" s="239" t="n"/>
+      <c r="B1" s="312" t="n"/>
+      <c r="C1" s="312" t="n"/>
+      <c r="D1" s="312" t="n"/>
+      <c r="E1" s="312" t="n"/>
+      <c r="F1" s="312" t="n"/>
+      <c r="G1" s="312" t="n"/>
+      <c r="H1" s="312" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="237">
       <c r="A2" s="339" t="inlineStr">
@@ -11147,8 +11170,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="241" t="n"/>
-      <c r="J2" s="241" t="n"/>
+      <c r="I2" s="242" t="n"/>
+      <c r="J2" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="237">
       <c r="A3" s="340" t="inlineStr">
@@ -11163,8 +11186,8 @@
       <c r="F3" s="341" t="n"/>
       <c r="G3" s="341" t="n"/>
       <c r="H3" s="341" t="n"/>
-      <c r="I3" s="243" t="n"/>
-      <c r="J3" s="243" t="n"/>
+      <c r="I3" s="259" t="n"/>
+      <c r="J3" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="237">
       <c r="A4" s="342" t="inlineStr">
@@ -11183,13 +11206,13 @@
       <c r="F4" s="344" t="n"/>
       <c r="G4" s="344" t="n"/>
       <c r="H4" s="344" t="n"/>
-      <c r="I4" s="241" t="n"/>
-      <c r="J4" s="241" t="n"/>
+      <c r="I4" s="242" t="n"/>
+      <c r="J4" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="237" thickBot="1">
       <c r="A5" s="345" t="n"/>
-      <c r="I5" s="243" t="n"/>
-      <c r="J5" s="243" t="n"/>
+      <c r="I5" s="259" t="n"/>
+      <c r="J5" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="237">
       <c r="A6" s="342" t="inlineStr">
@@ -11208,29 +11231,29 @@
       <c r="F6" s="344" t="n"/>
       <c r="G6" s="344" t="n"/>
       <c r="H6" s="344" t="n"/>
-      <c r="I6" s="243" t="n"/>
-      <c r="J6" s="243" t="n"/>
+      <c r="I6" s="259" t="n"/>
+      <c r="J6" s="259" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="237">
       <c r="A7" s="345" t="n"/>
-      <c r="I7" s="243" t="n"/>
-      <c r="J7" s="243" t="n"/>
+      <c r="I7" s="259" t="n"/>
+      <c r="J7" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
-      <c r="A8" s="255" t="inlineStr">
+      <c r="A8" s="337" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="256" t="n"/>
-      <c r="C8" s="256" t="n"/>
-      <c r="D8" s="256" t="n"/>
-      <c r="E8" s="256" t="n"/>
-      <c r="F8" s="256" t="n"/>
-      <c r="G8" s="256" t="n"/>
-      <c r="H8" s="257" t="n"/>
-      <c r="I8" s="243" t="n"/>
-      <c r="J8" s="243" t="n"/>
+      <c r="B8" s="296" t="n"/>
+      <c r="C8" s="296" t="n"/>
+      <c r="D8" s="296" t="n"/>
+      <c r="E8" s="296" t="n"/>
+      <c r="F8" s="296" t="n"/>
+      <c r="G8" s="296" t="n"/>
+      <c r="H8" s="297" t="n"/>
+      <c r="I8" s="259" t="n"/>
+      <c r="J8" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="237" thickBot="1">
       <c r="A9" s="346" t="inlineStr">
@@ -11248,28 +11271,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="261" t="inlineStr">
+      <c r="D9" s="272" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="262" t="inlineStr">
+      <c r="E9" s="273" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="263" t="inlineStr">
+      <c r="F9" s="274" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="264" t="inlineStr">
+      <c r="G9" s="275" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="265" t="inlineStr">
+      <c r="H9" s="276" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -11282,7 +11305,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="237">
-      <c r="A10" s="266">
+      <c r="A10" s="277">
         <f>J9</f>
         <v/>
       </c>
@@ -11296,7 +11319,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="268">
+      <c r="D10" s="279">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -11315,7 +11338,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="237">
-      <c r="A11" s="266">
+      <c r="A11" s="277">
         <f>J10</f>
         <v/>
       </c>
@@ -11329,7 +11352,7 @@
           <t>会议开场</t>
         </is>
       </c>
-      <c r="D11" s="271">
+      <c r="D11" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -11356,7 +11379,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="237">
-      <c r="A12" s="266">
+      <c r="A12" s="277">
         <f>J11</f>
         <v/>
       </c>
@@ -11370,7 +11393,7 @@
           <t>欢迎</t>
         </is>
       </c>
-      <c r="D12" s="271">
+      <c r="D12" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -11401,7 +11424,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="237">
-      <c r="A13" s="266">
+      <c r="A13" s="277">
         <f>J12</f>
         <v/>
       </c>
@@ -11415,7 +11438,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="271">
+      <c r="D13" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11440,7 +11463,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="237">
-      <c r="A14" s="266">
+      <c r="A14" s="277">
         <f>J13</f>
         <v/>
       </c>
@@ -11454,7 +11477,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="271">
+      <c r="D14" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11476,10 +11499,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="241" t="n"/>
+      <c r="L14" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="237">
-      <c r="A15" s="266">
+      <c r="A15" s="277">
         <f>J14</f>
         <v/>
       </c>
@@ -11493,7 +11516,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="271">
+      <c r="D15" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -11513,10 +11536,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="241" t="n"/>
+      <c r="L15" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="237">
-      <c r="A16" s="266">
+      <c r="A16" s="277">
         <f>J15</f>
         <v/>
       </c>
@@ -11530,7 +11553,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="271">
+      <c r="D16" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -11550,10 +11573,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="241" t="n"/>
+      <c r="L16" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="237">
-      <c r="A17" s="266">
+      <c r="A17" s="277">
         <f>J16</f>
         <v/>
       </c>
@@ -11567,7 +11590,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="271">
+      <c r="D17" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -11591,10 +11614,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="241" t="n"/>
+      <c r="L17" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="237">
-      <c r="A18" s="266">
+      <c r="A18" s="277">
         <f>J17</f>
         <v/>
       </c>
@@ -11608,7 +11631,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="271">
+      <c r="D18" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11629,7 +11652,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="237" thickBot="1">
-      <c r="A19" s="273">
+      <c r="A19" s="284">
         <f>J18</f>
         <v/>
       </c>
@@ -11643,7 +11666,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="271">
+      <c r="D19" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11664,18 +11687,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="237" thickBot="1">
-      <c r="A20" s="275" t="inlineStr">
+      <c r="A20" s="295" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="256" t="n"/>
-      <c r="C20" s="256" t="n"/>
-      <c r="D20" s="256" t="n"/>
-      <c r="E20" s="256" t="n"/>
-      <c r="F20" s="256" t="n"/>
-      <c r="G20" s="256" t="n"/>
-      <c r="H20" s="257" t="n"/>
+      <c r="B20" s="296" t="n"/>
+      <c r="C20" s="296" t="n"/>
+      <c r="D20" s="296" t="n"/>
+      <c r="E20" s="296" t="n"/>
+      <c r="F20" s="296" t="n"/>
+      <c r="G20" s="296" t="n"/>
+      <c r="H20" s="297" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -11685,7 +11708,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="237">
-      <c r="A21" s="266">
+      <c r="A21" s="277">
         <f>J20</f>
         <v/>
       </c>
@@ -11699,7 +11722,7 @@
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="276">
+      <c r="D21" s="289">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -11724,7 +11747,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="237">
-      <c r="A22" s="266">
+      <c r="A22" s="277">
         <f>J21</f>
         <v/>
       </c>
@@ -11738,7 +11761,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="271">
+      <c r="D22" s="282">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -11771,7 +11794,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="237">
-      <c r="A23" s="266">
+      <c r="A23" s="277">
         <f>J22</f>
         <v/>
       </c>
@@ -11785,7 +11808,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="271">
+      <c r="D23" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11808,7 +11831,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="237" thickBot="1">
-      <c r="A24" s="277">
+      <c r="A24" s="290">
         <f>J23</f>
         <v/>
       </c>
@@ -11822,7 +11845,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="279">
+      <c r="D24" s="292">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11845,18 +11868,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="237" thickBot="1">
-      <c r="A25" s="275" t="inlineStr">
+      <c r="A25" s="295" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="256" t="n"/>
-      <c r="C25" s="256" t="n"/>
-      <c r="D25" s="256" t="n"/>
-      <c r="E25" s="256" t="n"/>
-      <c r="F25" s="256" t="n"/>
-      <c r="G25" s="256" t="n"/>
-      <c r="H25" s="257" t="n"/>
+      <c r="B25" s="296" t="n"/>
+      <c r="C25" s="296" t="n"/>
+      <c r="D25" s="296" t="n"/>
+      <c r="E25" s="296" t="n"/>
+      <c r="F25" s="296" t="n"/>
+      <c r="G25" s="296" t="n"/>
+      <c r="H25" s="297" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -11865,10 +11888,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="241" t="n"/>
+      <c r="L25" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="237">
-      <c r="A26" s="266">
+      <c r="A26" s="277">
         <f>J25</f>
         <v/>
       </c>
@@ -11882,7 +11905,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="276">
+      <c r="D26" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11904,10 +11927,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="241" t="n"/>
+      <c r="L26" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="237" thickBot="1">
-      <c r="A27" s="266">
+      <c r="A27" s="277">
         <f>J26</f>
         <v/>
       </c>
@@ -11922,7 +11945,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="281">
+      <c r="D27" s="294">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -11954,10 +11977,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="241" t="n"/>
+      <c r="L27" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="237">
-      <c r="A28" s="266">
+      <c r="A28" s="277">
         <f>J27</f>
         <v/>
       </c>
@@ -11971,7 +11994,7 @@
           <t>介绍二号备稿演讲者</t>
         </is>
       </c>
-      <c r="D28" s="281">
+      <c r="D28" s="294">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11993,10 +12016,10 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="241" t="n"/>
+      <c r="L28" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="39.75" r="29" s="237" thickBot="1">
-      <c r="A29" s="266">
+      <c r="A29" s="277">
         <f>J28</f>
         <v/>
       </c>
@@ -12011,7 +12034,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D29" s="330">
+      <c r="D29" s="338">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -12043,31 +12066,31 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="241" t="n"/>
+      <c r="L29" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="237" thickBot="1">
-      <c r="A30" s="275" t="inlineStr">
+      <c r="A30" s="295" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B30" s="256" t="n"/>
-      <c r="C30" s="256" t="n"/>
-      <c r="D30" s="256" t="n"/>
-      <c r="E30" s="256" t="n"/>
-      <c r="F30" s="256" t="n"/>
-      <c r="G30" s="256" t="n"/>
-      <c r="H30" s="257" t="n"/>
+      <c r="B30" s="296" t="n"/>
+      <c r="C30" s="296" t="n"/>
+      <c r="D30" s="296" t="n"/>
+      <c r="E30" s="296" t="n"/>
+      <c r="F30" s="296" t="n"/>
+      <c r="G30" s="296" t="n"/>
+      <c r="H30" s="297" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J29+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="241" t="n"/>
+      <c r="L30" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="237">
-      <c r="A31" s="266">
+      <c r="A31" s="277">
         <f>J30</f>
         <v/>
       </c>
@@ -12081,7 +12104,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D31" s="276">
+      <c r="D31" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12103,10 +12126,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="241" t="n"/>
+      <c r="L31" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="237">
-      <c r="A32" s="266">
+      <c r="A32" s="277">
         <f>J31</f>
         <v/>
       </c>
@@ -12120,11 +12143,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D32" s="276">
+      <c r="D32" s="289">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="282" t="inlineStr">
+      <c r="E32" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -12146,10 +12169,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="241" t="n"/>
+      <c r="L32" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="237">
-      <c r="A33" s="266">
+      <c r="A33" s="277">
         <f>J32</f>
         <v/>
       </c>
@@ -12163,11 +12186,11 @@
           <t>点评二号备稿演讲</t>
         </is>
       </c>
-      <c r="D33" s="276">
+      <c r="D33" s="289">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="282" t="inlineStr">
+      <c r="E33" s="306" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-4</t>
         </is>
@@ -12189,10 +12212,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="241" t="n"/>
+      <c r="L33" s="242" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="237">
-      <c r="A34" s="266">
+      <c r="A34" s="277">
         <f>J32</f>
         <v/>
       </c>
@@ -12206,7 +12229,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D34" s="271">
+      <c r="D34" s="282">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -12230,10 +12253,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="283" t="n"/>
+      <c r="L34" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="237">
-      <c r="A35" s="266">
+      <c r="A35" s="277">
         <f>J34</f>
         <v/>
       </c>
@@ -12247,7 +12270,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D35" s="271">
+      <c r="D35" s="282">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -12273,10 +12296,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="283" t="n"/>
+      <c r="L35" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="237">
-      <c r="A36" s="266">
+      <c r="A36" s="277">
         <f>J35</f>
         <v/>
       </c>
@@ -12290,7 +12313,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D36" s="271">
+      <c r="D36" s="282">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -12314,10 +12337,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="283" t="n"/>
+      <c r="L36" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="237">
-      <c r="A37" s="266">
+      <c r="A37" s="277">
         <f>J36</f>
         <v/>
       </c>
@@ -12331,7 +12354,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D37" s="271">
+      <c r="D37" s="282">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -12351,10 +12374,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="283" t="n"/>
+      <c r="L37" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="237">
-      <c r="A38" s="266">
+      <c r="A38" s="277">
         <f>J37</f>
         <v/>
       </c>
@@ -12368,7 +12391,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D38" s="271">
+      <c r="D38" s="282">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12400,24 +12423,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="283" t="n"/>
+      <c r="L38" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="237">
-      <c r="A39" s="266">
+      <c r="A39" s="277">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="272" t="inlineStr">
+      <c r="B39" s="283" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C39" s="269" t="inlineStr">
+      <c r="C39" s="280" t="inlineStr">
         <is>
           <t>总结</t>
         </is>
       </c>
-      <c r="D39" s="271">
+      <c r="D39" s="282">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -12449,24 +12472,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="283" t="n"/>
+      <c r="L39" s="307" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="237" thickBot="1">
-      <c r="A40" s="284">
+      <c r="A40" s="308">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="285" t="inlineStr">
+      <c r="B40" s="309" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C40" s="286" t="inlineStr">
+      <c r="C40" s="310" t="inlineStr">
         <is>
           <t>颁奖&amp;会议结束致辞</t>
         </is>
       </c>
-      <c r="D40" s="271">
+      <c r="D40" s="282">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -12491,14 +12514,14 @@
       <c r="L40" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="237">
-      <c r="A41" s="287" t="n"/>
-      <c r="B41" s="239" t="n"/>
-      <c r="C41" s="239" t="n"/>
-      <c r="D41" s="239" t="n"/>
+      <c r="A41" s="311" t="n"/>
+      <c r="B41" s="312" t="n"/>
+      <c r="C41" s="312" t="n"/>
+      <c r="D41" s="312" t="n"/>
       <c r="E41" s="236" t="n"/>
-      <c r="F41" s="288" t="n"/>
-      <c r="G41" s="289" t="n"/>
-      <c r="H41" s="290" t="n"/>
+      <c r="F41" s="313" t="n"/>
+      <c r="G41" s="314" t="n"/>
+      <c r="H41" s="315" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
@@ -12513,14 +12536,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D42" s="292" t="n"/>
+      <c r="D42" s="317" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="293" t="inlineStr">
+      <c r="J42" s="318" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="294" t="n"/>
+      <c r="K42" s="319" t="n"/>
       <c r="L42" s="236" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="237">
@@ -12534,91 +12557,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="293" t="n"/>
+      <c r="J43" s="318" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="237">
-      <c r="A44" s="296" t="n"/>
+      <c r="A44" s="321" t="n"/>
       <c r="B44" s="236" t="n"/>
-      <c r="D44" s="297" t="n"/>
-      <c r="E44" s="298" t="n"/>
-      <c r="F44" s="298" t="n"/>
-      <c r="G44" s="298" t="n"/>
-      <c r="H44" s="298" t="n"/>
+      <c r="D44" s="322" t="n"/>
+      <c r="E44" s="323" t="n"/>
+      <c r="F44" s="323" t="n"/>
+      <c r="G44" s="323" t="n"/>
+      <c r="H44" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="237">
-      <c r="A45" s="296" t="n"/>
+      <c r="A45" s="321" t="n"/>
       <c r="B45" s="236" t="n"/>
       <c r="C45" s="236" t="n"/>
-      <c r="D45" s="297" t="n"/>
-      <c r="F45" s="298" t="n"/>
-      <c r="G45" s="298" t="n"/>
-      <c r="H45" s="298" t="n"/>
+      <c r="D45" s="322" t="n"/>
+      <c r="F45" s="323" t="n"/>
+      <c r="G45" s="323" t="n"/>
+      <c r="H45" s="323" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="237">
-      <c r="A46" s="296" t="n"/>
+      <c r="A46" s="321" t="n"/>
       <c r="B46" s="236" t="n"/>
       <c r="C46" s="236" t="n"/>
-      <c r="D46" s="299" t="n"/>
-      <c r="E46" s="300" t="n"/>
-      <c r="F46" s="301" t="n"/>
-      <c r="G46" s="302" t="n"/>
+      <c r="D46" s="324" t="n"/>
+      <c r="E46" s="325" t="n"/>
+      <c r="F46" s="326" t="n"/>
+      <c r="G46" s="327" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="237">
-      <c r="A47" s="296" t="n"/>
+      <c r="A47" s="321" t="n"/>
       <c r="B47" s="236" t="n"/>
-      <c r="D47" s="303" t="n"/>
-      <c r="E47" s="304" t="n"/>
+      <c r="D47" s="328" t="n"/>
+      <c r="E47" s="329" t="n"/>
       <c r="L47" s="179" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="237">
-      <c r="A48" s="296" t="n"/>
+      <c r="A48" s="321" t="n"/>
       <c r="B48" s="236" t="n"/>
-      <c r="D48" s="303" t="n"/>
-      <c r="E48" s="304" t="n"/>
+      <c r="D48" s="328" t="n"/>
+      <c r="E48" s="329" t="n"/>
       <c r="L48" s="179" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="296" t="n"/>
+      <c r="A49" s="321" t="n"/>
       <c r="B49" s="236" t="n"/>
-      <c r="D49" s="303" t="n"/>
-      <c r="E49" s="304" t="n"/>
+      <c r="D49" s="328" t="n"/>
+      <c r="E49" s="329" t="n"/>
       <c r="L49" s="179" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="296" t="n"/>
+      <c r="A50" s="321" t="n"/>
       <c r="B50" s="236" t="n"/>
       <c r="C50" s="236" t="n"/>
-      <c r="D50" s="303" t="n"/>
-      <c r="E50" s="304" t="n"/>
+      <c r="D50" s="328" t="n"/>
+      <c r="E50" s="329" t="n"/>
       <c r="L50" s="179" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="296" t="n"/>
+      <c r="A51" s="321" t="n"/>
       <c r="B51" s="236" t="n"/>
       <c r="C51" s="236" t="n"/>
-      <c r="D51" s="303" t="n"/>
-      <c r="E51" s="304" t="n"/>
+      <c r="D51" s="328" t="n"/>
+      <c r="E51" s="329" t="n"/>
       <c r="L51" s="179" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="296" t="n"/>
+      <c r="A52" s="321" t="n"/>
       <c r="B52" s="236" t="n"/>
       <c r="C52" s="236" t="n"/>
-      <c r="E52" s="304" t="n"/>
+      <c r="E52" s="329" t="n"/>
       <c r="L52" s="179" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="296" t="n"/>
+      <c r="A53" s="321" t="n"/>
       <c r="B53" s="236" t="n"/>
-      <c r="D53" s="303" t="n"/>
-      <c r="E53" s="304" t="n"/>
+      <c r="D53" s="328" t="n"/>
+      <c r="E53" s="329" t="n"/>
     </row>
     <row customFormat="1" r="54" s="233">
-      <c r="A54" s="296" t="n"/>
+      <c r="A54" s="321" t="n"/>
       <c r="B54" s="236" t="n"/>
       <c r="C54" s="236" t="n"/>
-      <c r="D54" s="303" t="n"/>
-      <c r="E54" s="304" t="n"/>
+      <c r="D54" s="328" t="n"/>
+      <c r="E54" s="329" t="n"/>
       <c r="G54" s="234" t="n"/>
       <c r="H54" s="235" t="n"/>
       <c r="I54" s="179" t="n"/>
@@ -12628,11 +12651,11 @@
       <c r="M54" s="236" t="n"/>
     </row>
     <row customFormat="1" r="55" s="233">
-      <c r="A55" s="296" t="n"/>
+      <c r="A55" s="321" t="n"/>
       <c r="B55" s="236" t="n"/>
       <c r="C55" s="230" t="n"/>
-      <c r="D55" s="303" t="n"/>
-      <c r="E55" s="304" t="n"/>
+      <c r="D55" s="328" t="n"/>
+      <c r="E55" s="329" t="n"/>
       <c r="G55" s="234" t="n"/>
       <c r="H55" s="235" t="n"/>
       <c r="I55" s="179" t="n"/>
@@ -12642,11 +12665,11 @@
       <c r="M55" s="236" t="n"/>
     </row>
     <row customFormat="1" r="56" s="233">
-      <c r="A56" s="296" t="n"/>
+      <c r="A56" s="321" t="n"/>
       <c r="B56" s="236" t="n"/>
       <c r="C56" s="236" t="n"/>
-      <c r="D56" s="303" t="n"/>
-      <c r="E56" s="304" t="n"/>
+      <c r="D56" s="328" t="n"/>
+      <c r="E56" s="329" t="n"/>
       <c r="G56" s="234" t="n"/>
       <c r="H56" s="235" t="n"/>
       <c r="I56" s="179" t="n"/>
@@ -12656,11 +12679,11 @@
       <c r="M56" s="236" t="n"/>
     </row>
     <row customFormat="1" r="57" s="233">
-      <c r="A57" s="296" t="n"/>
+      <c r="A57" s="321" t="n"/>
       <c r="B57" s="236" t="n"/>
       <c r="C57" s="236" t="n"/>
-      <c r="D57" s="303" t="n"/>
-      <c r="E57" s="304" t="n"/>
+      <c r="D57" s="328" t="n"/>
+      <c r="E57" s="329" t="n"/>
       <c r="G57" s="234" t="n"/>
       <c r="H57" s="235" t="n"/>
       <c r="I57" s="179" t="n"/>
@@ -12670,11 +12693,11 @@
       <c r="M57" s="236" t="n"/>
     </row>
     <row customFormat="1" r="58" s="233">
-      <c r="A58" s="296" t="n"/>
+      <c r="A58" s="321" t="n"/>
       <c r="B58" s="236" t="n"/>
       <c r="C58" s="236" t="n"/>
-      <c r="D58" s="303" t="n"/>
-      <c r="E58" s="304" t="n"/>
+      <c r="D58" s="328" t="n"/>
+      <c r="E58" s="329" t="n"/>
       <c r="G58" s="234" t="n"/>
       <c r="H58" s="235" t="n"/>
       <c r="I58" s="179" t="n"/>
@@ -12684,11 +12707,11 @@
       <c r="M58" s="236" t="n"/>
     </row>
     <row customFormat="1" r="59" s="233">
-      <c r="A59" s="296" t="n"/>
+      <c r="A59" s="321" t="n"/>
       <c r="B59" s="236" t="n"/>
       <c r="C59" s="236" t="n"/>
-      <c r="D59" s="303" t="n"/>
-      <c r="E59" s="304" t="n"/>
+      <c r="D59" s="328" t="n"/>
+      <c r="E59" s="329" t="n"/>
       <c r="G59" s="234" t="n"/>
       <c r="H59" s="235" t="n"/>
       <c r="I59" s="179" t="n"/>
@@ -12698,11 +12721,11 @@
       <c r="M59" s="236" t="n"/>
     </row>
     <row customFormat="1" r="60" s="233">
-      <c r="A60" s="296" t="n"/>
+      <c r="A60" s="321" t="n"/>
       <c r="B60" s="236" t="n"/>
       <c r="C60" s="236" t="n"/>
-      <c r="D60" s="303" t="n"/>
-      <c r="E60" s="304" t="n"/>
+      <c r="D60" s="328" t="n"/>
+      <c r="E60" s="329" t="n"/>
       <c r="G60" s="234" t="n"/>
       <c r="H60" s="235" t="n"/>
       <c r="I60" s="179" t="n"/>
@@ -12712,11 +12735,11 @@
       <c r="M60" s="236" t="n"/>
     </row>
     <row customFormat="1" r="61" s="233">
-      <c r="A61" s="296" t="n"/>
+      <c r="A61" s="321" t="n"/>
       <c r="B61" s="236" t="n"/>
       <c r="C61" s="236" t="n"/>
-      <c r="D61" s="303" t="n"/>
-      <c r="E61" s="304" t="n"/>
+      <c r="D61" s="328" t="n"/>
+      <c r="E61" s="329" t="n"/>
       <c r="G61" s="234" t="n"/>
       <c r="H61" s="235" t="n"/>
       <c r="I61" s="179" t="n"/>
@@ -12726,11 +12749,11 @@
       <c r="M61" s="236" t="n"/>
     </row>
     <row customFormat="1" r="62" s="233">
-      <c r="A62" s="296" t="n"/>
+      <c r="A62" s="321" t="n"/>
       <c r="B62" s="230" t="n"/>
       <c r="C62" s="230" t="n"/>
-      <c r="D62" s="303" t="n"/>
-      <c r="E62" s="304" t="n"/>
+      <c r="D62" s="328" t="n"/>
+      <c r="E62" s="329" t="n"/>
       <c r="G62" s="234" t="n"/>
       <c r="H62" s="235" t="n"/>
       <c r="I62" s="179" t="n"/>
@@ -12740,11 +12763,11 @@
       <c r="M62" s="236" t="n"/>
     </row>
     <row customFormat="1" r="63" s="233">
-      <c r="A63" s="296" t="n"/>
+      <c r="A63" s="321" t="n"/>
       <c r="B63" s="230" t="n"/>
       <c r="C63" s="230" t="n"/>
-      <c r="D63" s="303" t="n"/>
-      <c r="E63" s="304" t="n"/>
+      <c r="D63" s="328" t="n"/>
+      <c r="E63" s="329" t="n"/>
       <c r="G63" s="234" t="n"/>
       <c r="H63" s="235" t="n"/>
       <c r="I63" s="179" t="n"/>
@@ -12754,11 +12777,11 @@
       <c r="M63" s="236" t="n"/>
     </row>
     <row customFormat="1" r="64" s="233">
-      <c r="A64" s="296" t="n"/>
+      <c r="A64" s="321" t="n"/>
       <c r="B64" s="230" t="n"/>
       <c r="C64" s="230" t="n"/>
-      <c r="D64" s="303" t="n"/>
-      <c r="E64" s="304" t="n"/>
+      <c r="D64" s="328" t="n"/>
+      <c r="E64" s="329" t="n"/>
       <c r="G64" s="234" t="n"/>
       <c r="H64" s="235" t="n"/>
       <c r="I64" s="179" t="n"/>
@@ -12768,11 +12791,11 @@
       <c r="M64" s="236" t="n"/>
     </row>
     <row customFormat="1" r="65" s="233">
-      <c r="A65" s="296" t="n"/>
+      <c r="A65" s="321" t="n"/>
       <c r="B65" s="230" t="n"/>
       <c r="C65" s="230" t="n"/>
-      <c r="D65" s="303" t="n"/>
-      <c r="E65" s="304" t="n"/>
+      <c r="D65" s="328" t="n"/>
+      <c r="E65" s="329" t="n"/>
       <c r="G65" s="234" t="n"/>
       <c r="H65" s="235" t="n"/>
       <c r="I65" s="179" t="n"/>
@@ -12782,7 +12805,7 @@
       <c r="M65" s="236" t="n"/>
     </row>
     <row customFormat="1" r="66" s="233">
-      <c r="A66" s="296" t="n"/>
+      <c r="A66" s="321" t="n"/>
       <c r="B66" s="230" t="n"/>
       <c r="C66" s="230" t="n"/>
       <c r="D66" s="231" t="n"/>
@@ -12796,7 +12819,7 @@
       <c r="M66" s="236" t="n"/>
     </row>
     <row customFormat="1" r="67" s="233">
-      <c r="A67" s="296" t="n"/>
+      <c r="A67" s="321" t="n"/>
       <c r="B67" s="230" t="n"/>
       <c r="C67" s="230" t="n"/>
       <c r="D67" s="231" t="n"/>
@@ -12810,7 +12833,7 @@
       <c r="M67" s="236" t="n"/>
     </row>
     <row customFormat="1" r="68" s="233">
-      <c r="A68" s="296" t="n"/>
+      <c r="A68" s="321" t="n"/>
       <c r="B68" s="230" t="n"/>
       <c r="C68" s="230" t="n"/>
       <c r="D68" s="231" t="n"/>
@@ -12824,7 +12847,7 @@
       <c r="M68" s="236" t="n"/>
     </row>
     <row customFormat="1" r="69" s="233">
-      <c r="A69" s="296" t="n"/>
+      <c r="A69" s="321" t="n"/>
       <c r="B69" s="230" t="n"/>
       <c r="C69" s="230" t="n"/>
       <c r="D69" s="231" t="n"/>
@@ -12838,7 +12861,7 @@
       <c r="M69" s="236" t="n"/>
     </row>
     <row customFormat="1" r="70" s="230">
-      <c r="A70" s="296" t="n"/>
+      <c r="A70" s="321" t="n"/>
       <c r="D70" s="231" t="n"/>
       <c r="E70" s="232" t="n"/>
       <c r="F70" s="233" t="n"/>
@@ -12850,7 +12873,7 @@
       <c r="M70" s="236" t="n"/>
     </row>
     <row customFormat="1" r="71" s="230">
-      <c r="A71" s="296" t="n"/>
+      <c r="A71" s="321" t="n"/>
       <c r="D71" s="231" t="n"/>
       <c r="E71" s="232" t="n"/>
       <c r="F71" s="233" t="n"/>
@@ -12862,7 +12885,7 @@
       <c r="M71" s="236" t="n"/>
     </row>
     <row customFormat="1" r="72" s="230">
-      <c r="A72" s="296" t="n"/>
+      <c r="A72" s="321" t="n"/>
       <c r="D72" s="231" t="n"/>
       <c r="E72" s="232" t="n"/>
       <c r="F72" s="233" t="n"/>
@@ -13789,14 +13812,10 @@
       </c>
       <c r="B4" s="363" t="inlineStr">
         <is>
-          <t>Davie</t>
-        </is>
-      </c>
-      <c r="C4" s="363" t="inlineStr">
-        <is>
-          <t>Level3-2-2</t>
-        </is>
-      </c>
+          <t>Jenny</t>
+        </is>
+      </c>
+      <c r="C4" s="363" t="inlineStr"/>
       <c r="D4" s="363" t="inlineStr"/>
       <c r="E4" s="363">
         <f>IFERROR(VLOOKUP($B15,$A$24:$D$61,4,FALSE),"")</f>
@@ -14101,10 +14120,14 @@
       </c>
       <c r="B5" s="363" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C5" s="363" t="inlineStr"/>
+          <t>Elliot Zhang</t>
+        </is>
+      </c>
+      <c r="C5" s="363" t="inlineStr">
+        <is>
+          <t>Level1-2-2</t>
+        </is>
+      </c>
       <c r="D5" s="363" t="inlineStr"/>
       <c r="E5" s="363">
         <f>IFERROR(VLOOKUP($B16,$A$24:$D$61,4,FALSE),"")</f>
@@ -14409,12 +14432,12 @@
       </c>
       <c r="B6" s="363" t="inlineStr">
         <is>
-          <t>Brenda Wang</t>
+          <t>Alicia Guo</t>
         </is>
       </c>
       <c r="C6" s="363" t="inlineStr">
         <is>
-          <t>Level1-2-1</t>
+          <t>CC5</t>
         </is>
       </c>
       <c r="D6" s="363" t="inlineStr"/>
@@ -15935,15 +15958,19 @@
       </c>
       <c r="B11" s="380" t="inlineStr">
         <is>
-          <t>Walter</t>
+          <t>Bill Lin</t>
         </is>
       </c>
       <c r="C11" s="380" t="inlineStr">
         <is>
-          <t>Level2-1</t>
-        </is>
-      </c>
-      <c r="D11" s="380" t="inlineStr"/>
+          <t>ACS9</t>
+        </is>
+      </c>
+      <c r="D11" s="380" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E11" s="380">
         <f>IFERROR(VLOOKUP($B22,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16252,19 +16279,11 @@
       </c>
       <c r="B12" s="380" t="inlineStr">
         <is>
-          <t>Bill Lin</t>
-        </is>
-      </c>
-      <c r="C12" s="380" t="inlineStr">
-        <is>
-          <t>ACS8</t>
-        </is>
-      </c>
-      <c r="D12" s="380" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C12" s="380" t="inlineStr"/>
+      <c r="D12" s="380" t="inlineStr"/>
       <c r="E12" s="380">
         <f>IFERROR(VLOOKUP($B23,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16703,14 +16722,10 @@
       </c>
       <c r="B15" s="363" t="inlineStr">
         <is>
-          <t>Kay</t>
-        </is>
-      </c>
-      <c r="C15" s="363" t="inlineStr">
-        <is>
-          <t>Level1-2-2</t>
-        </is>
-      </c>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C15" s="363" t="inlineStr"/>
       <c r="D15" s="363" t="inlineStr"/>
       <c r="E15" s="363">
         <f>IFERROR(VLOOKUP($B26,$A$24:$D$61,4,FALSE),"")</f>
@@ -17003,7 +17018,7 @@
       </c>
       <c r="B16" s="363" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C16" s="363" t="inlineStr"/>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -3658,6 +3658,74 @@
     <cellStyle name="常规 3" xfId="348"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -4210,7 +4278,7 @@
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
       <c r="A8" s="264" t="inlineStr">
         <is>
-          <t>Theme Today: Time Management</t>
+          <t>Theme Today: Toastmaster for you</t>
         </is>
       </c>
       <c r="B8" s="265" t="n"/>
@@ -4905,7 +4973,7 @@
       </c>
       <c r="C27" s="293" t="inlineStr">
         <is>
-          <t>How to hold a productive meeting</t>
+          <t>American Civil War</t>
         </is>
       </c>
       <c r="D27" s="294">
@@ -4914,21 +4982,21 @@
       </c>
       <c r="E27" s="72" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="F27" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="104" t="n">
         <v>6</v>
       </c>
-      <c r="G27" s="104" t="n">
+      <c r="H27" s="105" t="n">
         <v>7</v>
       </c>
-      <c r="H27" s="105" t="n">
-        <v>8</v>
-      </c>
       <c r="I27" s="37" t="inlineStr">
         <is>
-          <t>0:08</t>
+          <t>0:07</t>
         </is>
       </c>
       <c r="J27" s="36">
@@ -13812,7 +13880,7 @@
       </c>
       <c r="B4" s="363" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Haper</t>
         </is>
       </c>
       <c r="C4" s="363" t="inlineStr"/>
@@ -14120,14 +14188,10 @@
       </c>
       <c r="B5" s="363" t="inlineStr">
         <is>
-          <t>Elliot Zhang</t>
-        </is>
-      </c>
-      <c r="C5" s="363" t="inlineStr">
-        <is>
-          <t>Level1-2-2</t>
-        </is>
-      </c>
+          <t>Robin</t>
+        </is>
+      </c>
+      <c r="C5" s="363" t="inlineStr"/>
       <c r="D5" s="363" t="inlineStr"/>
       <c r="E5" s="363">
         <f>IFERROR(VLOOKUP($B16,$A$24:$D$61,4,FALSE),"")</f>
@@ -14432,12 +14496,12 @@
       </c>
       <c r="B6" s="363" t="inlineStr">
         <is>
-          <t>Alicia Guo</t>
+          <t>Elliot Zhang</t>
         </is>
       </c>
       <c r="C6" s="363" t="inlineStr">
         <is>
-          <t>CC5</t>
+          <t>Level1-2-2</t>
         </is>
       </c>
       <c r="D6" s="363" t="inlineStr"/>
@@ -14745,15 +14809,19 @@
       </c>
       <c r="B7" s="363" t="inlineStr">
         <is>
-          <t>Elliot Zhang</t>
+          <t>Bill Lin</t>
         </is>
       </c>
       <c r="C7" s="363" t="inlineStr">
         <is>
-          <t>Level1-2-2</t>
-        </is>
-      </c>
-      <c r="D7" s="363" t="inlineStr"/>
+          <t>ACS10</t>
+        </is>
+      </c>
+      <c r="D7" s="363" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E7" s="363">
         <f>IFERROR(VLOOKUP($B18,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -15365,7 +15433,7 @@
       </c>
       <c r="B9" s="363" t="inlineStr">
         <is>
-          <t>Eileen</t>
+          <t>Eillen</t>
         </is>
       </c>
       <c r="C9" s="363" t="inlineStr"/>
@@ -15958,19 +16026,15 @@
       </c>
       <c r="B11" s="380" t="inlineStr">
         <is>
-          <t>Bill Lin</t>
+          <t>Walter</t>
         </is>
       </c>
       <c r="C11" s="380" t="inlineStr">
         <is>
-          <t>ACS9</t>
-        </is>
-      </c>
-      <c r="D11" s="380" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level2-2</t>
+        </is>
+      </c>
+      <c r="D11" s="380" t="inlineStr"/>
       <c r="E11" s="380">
         <f>IFERROR(VLOOKUP($B22,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16722,7 +16786,7 @@
       </c>
       <c r="B15" s="363" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="C15" s="363" t="inlineStr"/>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -4278,7 +4278,7 @@
     <row customHeight="1" ht="33.75" r="8" s="237" thickBot="1">
       <c r="A8" s="264" t="inlineStr">
         <is>
-          <t>Theme Today: Toastmaster for you</t>
+          <t>Theme Today: Summer Vacation</t>
         </is>
       </c>
       <c r="B8" s="265" t="n"/>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="C27" s="293" t="inlineStr">
         <is>
-          <t>American Civil War</t>
+          <t>Meeting Beauty</t>
         </is>
       </c>
       <c r="D27" s="294">
@@ -4982,21 +4982,21 @@
       </c>
       <c r="E27" s="72" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="F27" s="103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" s="104" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H27" s="105" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27" s="37" t="inlineStr">
         <is>
-          <t>0:07</t>
+          <t>0:08</t>
         </is>
       </c>
       <c r="J27" s="36">
@@ -13880,10 +13880,14 @@
       </c>
       <c r="B4" s="363" t="inlineStr">
         <is>
-          <t>Haper</t>
-        </is>
-      </c>
-      <c r="C4" s="363" t="inlineStr"/>
+          <t>Kay</t>
+        </is>
+      </c>
+      <c r="C4" s="363" t="inlineStr">
+        <is>
+          <t>Level1-2-2</t>
+        </is>
+      </c>
       <c r="D4" s="363" t="inlineStr"/>
       <c r="E4" s="363">
         <f>IFERROR(VLOOKUP($B15,$A$24:$D$61,4,FALSE),"")</f>
@@ -14188,11 +14192,19 @@
       </c>
       <c r="B5" s="363" t="inlineStr">
         <is>
-          <t>Robin</t>
-        </is>
-      </c>
-      <c r="C5" s="363" t="inlineStr"/>
-      <c r="D5" s="363" t="inlineStr"/>
+          <t>Bill Lin</t>
+        </is>
+      </c>
+      <c r="C5" s="363" t="inlineStr">
+        <is>
+          <t>ACS11</t>
+        </is>
+      </c>
+      <c r="D5" s="363" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E5" s="363">
         <f>IFERROR(VLOOKUP($B16,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -14496,14 +14508,10 @@
       </c>
       <c r="B6" s="363" t="inlineStr">
         <is>
-          <t>Elliot Zhang</t>
-        </is>
-      </c>
-      <c r="C6" s="363" t="inlineStr">
-        <is>
-          <t>Level1-2-2</t>
-        </is>
-      </c>
+          <t>Raymond Li</t>
+        </is>
+      </c>
+      <c r="C6" s="363" t="inlineStr"/>
       <c r="D6" s="363" t="inlineStr"/>
       <c r="E6" s="363">
         <f>IFERROR(VLOOKUP($B17,$A$24:$D$61,4,FALSE),"")</f>
@@ -14809,19 +14817,11 @@
       </c>
       <c r="B7" s="363" t="inlineStr">
         <is>
-          <t>Bill Lin</t>
-        </is>
-      </c>
-      <c r="C7" s="363" t="inlineStr">
-        <is>
-          <t>ACS10</t>
-        </is>
-      </c>
-      <c r="D7" s="363" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Jenny</t>
+        </is>
+      </c>
+      <c r="C7" s="363" t="inlineStr"/>
+      <c r="D7" s="363" t="inlineStr"/>
       <c r="E7" s="363">
         <f>IFERROR(VLOOKUP($B18,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -15121,12 +15121,12 @@
       </c>
       <c r="B8" s="363" t="inlineStr">
         <is>
-          <t>Sawyer</t>
+          <t>Elliot Zhang</t>
         </is>
       </c>
       <c r="C8" s="363" t="inlineStr">
         <is>
-          <t>Level2-2</t>
+          <t>Level1-2-2</t>
         </is>
       </c>
       <c r="D8" s="363" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="B9" s="363" t="inlineStr">
         <is>
-          <t>Eillen</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="C9" s="363" t="inlineStr"/>
@@ -16026,15 +16026,19 @@
       </c>
       <c r="B11" s="380" t="inlineStr">
         <is>
-          <t>Walter</t>
+          <t>Bonnie Wang</t>
         </is>
       </c>
       <c r="C11" s="380" t="inlineStr">
         <is>
-          <t>Level2-2</t>
-        </is>
-      </c>
-      <c r="D11" s="380" t="inlineStr"/>
+          <t>ACS11</t>
+        </is>
+      </c>
+      <c r="D11" s="380" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E11" s="380">
         <f>IFERROR(VLOOKUP($B22,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16786,7 +16790,7 @@
       </c>
       <c r="B15" s="363" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Tony</t>
         </is>
       </c>
       <c r="C15" s="363" t="inlineStr"/>
@@ -17499,7 +17503,7 @@
       </c>
       <c r="C19" s="363" t="inlineStr">
         <is>
-          <t>ACS11</t>
+          <t>ACS12</t>
         </is>
       </c>
       <c r="D19" s="363" t="inlineStr">

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="23640" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="23640" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda-1" sheetId="1" state="visible" r:id="rId1"/>
@@ -598,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="109">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -1808,6 +1808,21 @@
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color theme="0" tint="-0.1499374370555742"/>
       </right>
       <top style="medium">
@@ -1878,10 +1893,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="00000000"/>
@@ -2954,220 +2969,56 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="76" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf borderId="73" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="77" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="78" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="79" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="80" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf borderId="75" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="75" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="81" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="82" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="83" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="73" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="77" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="88" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="67" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="68" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="69" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="76" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="73" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="77" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="78" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="79" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="80" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="75" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="75" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="81" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="87" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="82" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="83" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="73" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="77" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="88" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="95" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3179,6 +3030,57 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="95" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3188,31 +3090,144 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="109" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="105" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="106" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="107" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="29" fillId="0" fontId="21" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="108" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="105" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="106" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="107" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
@@ -3791,7 +3806,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>41</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2057400" cy="2057400"/>
@@ -4160,7 +4175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4202,125 +4217,139 @@
       <c r="F1" s="246" t="n"/>
       <c r="G1" s="246" t="n"/>
       <c r="H1" s="246" t="n"/>
+      <c r="I1" s="246" t="n"/>
+      <c r="J1" s="247" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="247" t="inlineStr">
+      <c r="A2" s="248" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="248" t="n"/>
-      <c r="J2" s="248" t="n"/>
+      <c r="I2" s="249" t="n"/>
+      <c r="J2" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="249" t="inlineStr">
+      <c r="A3" s="251" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="250" t="n"/>
-      <c r="J3" s="250" t="n"/>
+      <c r="B3" s="252" t="n"/>
+      <c r="C3" s="252" t="n"/>
+      <c r="D3" s="252" t="n"/>
+      <c r="E3" s="252" t="n"/>
+      <c r="F3" s="252" t="n"/>
+      <c r="G3" s="252" t="n"/>
+      <c r="H3" s="252" t="n"/>
+      <c r="I3" s="253" t="n"/>
+      <c r="J3" s="254" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="251" t="inlineStr">
+      <c r="A4" s="255" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="252" t="inlineStr">
+      <c r="B4" s="256" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="253" t="n"/>
-      <c r="D4" s="253" t="n"/>
-      <c r="E4" s="253" t="n"/>
-      <c r="F4" s="253" t="n"/>
-      <c r="G4" s="253" t="n"/>
-      <c r="H4" s="254" t="n"/>
-      <c r="I4" s="248" t="n"/>
-      <c r="J4" s="248" t="n"/>
+      <c r="C4" s="246" t="n"/>
+      <c r="D4" s="246" t="n"/>
+      <c r="E4" s="246" t="n"/>
+      <c r="F4" s="246" t="n"/>
+      <c r="G4" s="246" t="n"/>
+      <c r="H4" s="257" t="n"/>
+      <c r="I4" s="258" t="n"/>
+      <c r="J4" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="255" t="n"/>
-      <c r="B5" s="256" t="n"/>
-      <c r="H5" s="257" t="n"/>
-      <c r="I5" s="250" t="n"/>
-      <c r="J5" s="250" t="n"/>
+      <c r="A5" s="260" t="n"/>
+      <c r="B5" s="261" t="n"/>
+      <c r="C5" s="252" t="n"/>
+      <c r="D5" s="252" t="n"/>
+      <c r="E5" s="252" t="n"/>
+      <c r="F5" s="252" t="n"/>
+      <c r="G5" s="252" t="n"/>
+      <c r="H5" s="262" t="n"/>
+      <c r="I5" s="253" t="n"/>
+      <c r="J5" s="254" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="255" t="n"/>
-      <c r="B6" s="256" t="n"/>
-      <c r="H6" s="257" t="n"/>
-      <c r="I6" s="250" t="n"/>
-      <c r="J6" s="250" t="n"/>
+      <c r="A6" s="263" t="n"/>
+      <c r="B6" s="264" t="n"/>
+      <c r="H6" s="265" t="n"/>
+      <c r="I6" s="266" t="n"/>
+      <c r="J6" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="258" t="n"/>
-      <c r="B7" s="259" t="n"/>
-      <c r="C7" s="260" t="n"/>
-      <c r="D7" s="260" t="n"/>
-      <c r="E7" s="260" t="n"/>
-      <c r="F7" s="260" t="n"/>
-      <c r="G7" s="260" t="n"/>
-      <c r="H7" s="261" t="n"/>
-      <c r="I7" s="250" t="n"/>
-      <c r="J7" s="250" t="n"/>
+      <c r="A7" s="267" t="n"/>
+      <c r="B7" s="268" t="n"/>
+      <c r="C7" s="269" t="n"/>
+      <c r="D7" s="269" t="n"/>
+      <c r="E7" s="269" t="n"/>
+      <c r="F7" s="269" t="n"/>
+      <c r="G7" s="269" t="n"/>
+      <c r="H7" s="270" t="n"/>
+      <c r="I7" s="266" t="n"/>
+      <c r="J7" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="262" t="inlineStr">
-        <is>
-          <t>Theme Today: sleepless in seattle</t>
-        </is>
-      </c>
-      <c r="B8" s="263" t="n"/>
-      <c r="C8" s="263" t="n"/>
-      <c r="D8" s="263" t="n"/>
-      <c r="E8" s="263" t="n"/>
-      <c r="F8" s="263" t="n"/>
-      <c r="G8" s="263" t="n"/>
-      <c r="H8" s="264" t="n"/>
-      <c r="I8" s="250" t="n"/>
-      <c r="J8" s="250" t="n"/>
+      <c r="A8" s="271" t="inlineStr">
+        <is>
+          <t>Theme Today: The Future of Tiktok</t>
+        </is>
+      </c>
+      <c r="B8" s="272" t="n"/>
+      <c r="C8" s="272" t="n"/>
+      <c r="D8" s="272" t="n"/>
+      <c r="E8" s="272" t="n"/>
+      <c r="F8" s="272" t="n"/>
+      <c r="G8" s="272" t="n"/>
+      <c r="H8" s="273" t="n"/>
+      <c r="I8" s="274" t="n"/>
+      <c r="J8" s="275" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="265" t="inlineStr">
+      <c r="A9" s="276" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="266" t="inlineStr">
+      <c r="B9" s="277" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="267" t="inlineStr">
+      <c r="C9" s="278" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="268" t="inlineStr">
+      <c r="D9" s="279" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="269" t="inlineStr">
+      <c r="E9" s="280" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="270" t="inlineStr">
+      <c r="F9" s="281" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="271" t="inlineStr">
+      <c r="G9" s="282" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="272" t="inlineStr">
+      <c r="H9" s="283" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -4333,21 +4362,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="273">
+      <c r="A10" s="284">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="274" t="inlineStr">
+      <c r="B10" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="274" t="inlineStr">
+      <c r="C10" s="285" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="275">
+      <c r="D10" s="286">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4366,21 +4395,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="273">
+      <c r="A11" s="284">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="276" t="inlineStr">
+      <c r="B11" s="287" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C11" s="277" t="inlineStr">
+      <c r="C11" s="288" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="278">
+      <c r="D11" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4407,21 +4436,21 @@
       </c>
     </row>
     <row customHeight="1" ht="23.25" r="12" s="244">
-      <c r="A12" s="273">
+      <c r="A12" s="284">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="274" t="inlineStr">
+      <c r="B12" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="279" t="inlineStr">
+      <c r="C12" s="290" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="278">
+      <c r="D12" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4452,10 +4481,10 @@
       </c>
     </row>
     <row customHeight="1" hidden="1" ht="4.5" r="13" s="244">
-      <c r="A13" s="273" t="n"/>
-      <c r="B13" s="276" t="n"/>
-      <c r="C13" s="276" t="n"/>
-      <c r="D13" s="278" t="n"/>
+      <c r="A13" s="284" t="n"/>
+      <c r="B13" s="287" t="n"/>
+      <c r="C13" s="287" t="n"/>
+      <c r="D13" s="289" t="n"/>
       <c r="E13" s="76" t="n"/>
       <c r="F13" s="151" t="n"/>
       <c r="G13" s="152" t="n"/>
@@ -4469,21 +4498,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="273">
+      <c r="A14" s="284">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="276" t="inlineStr">
+      <c r="B14" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="276" t="inlineStr">
+      <c r="C14" s="287" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="278">
+      <c r="D14" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4505,24 +4534,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="248" t="n"/>
+      <c r="L14" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="273">
+      <c r="A15" s="284">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="276" t="inlineStr">
+      <c r="B15" s="287" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="276" t="inlineStr">
+      <c r="C15" s="287" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -4542,24 +4571,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="248" t="n"/>
+      <c r="L15" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="244">
-      <c r="A16" s="273">
+      <c r="A16" s="284">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="276" t="inlineStr">
+      <c r="B16" s="287" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="276" t="inlineStr">
+      <c r="C16" s="287" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="278">
+      <c r="D16" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -4579,24 +4608,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="248" t="n"/>
+      <c r="L16" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="244">
-      <c r="A17" s="273">
+      <c r="A17" s="284">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="276" t="inlineStr">
+      <c r="B17" s="287" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="276" t="inlineStr">
+      <c r="C17" s="287" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="278">
+      <c r="D17" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -4620,24 +4649,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="248" t="n"/>
+      <c r="L17" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="273">
+      <c r="A18" s="284">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="276" t="inlineStr">
+      <c r="B18" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="276" t="inlineStr">
+      <c r="C18" s="287" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="278">
+      <c r="D18" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4658,11 +4687,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="280">
+      <c r="A19" s="291">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="281" t="inlineStr">
+      <c r="B19" s="292" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -4672,7 +4701,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="278">
+      <c r="D19" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4693,28 +4722,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="282" t="inlineStr">
+      <c r="A20" s="293" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="263" t="n"/>
-      <c r="C20" s="263" t="n"/>
-      <c r="D20" s="263" t="n"/>
-      <c r="E20" s="263" t="n"/>
-      <c r="F20" s="263" t="n"/>
-      <c r="G20" s="263" t="n"/>
-      <c r="H20" s="264" t="n"/>
-      <c r="I20" s="37" t="n">
+      <c r="B20" s="272" t="n"/>
+      <c r="C20" s="272" t="n"/>
+      <c r="D20" s="272" t="n"/>
+      <c r="E20" s="272" t="n"/>
+      <c r="F20" s="272" t="n"/>
+      <c r="G20" s="272" t="n"/>
+      <c r="H20" s="273" t="n"/>
+      <c r="I20" s="294" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="295">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="273">
+      <c r="A21" s="284">
         <f>J20</f>
         <v/>
       </c>
@@ -4728,7 +4757,7 @@
           <t>Theme Introduction &amp; Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="283">
+      <c r="D21" s="296">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -4753,21 +4782,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="273">
+      <c r="A22" s="284">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="279" t="inlineStr">
+      <c r="B22" s="290" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="279" t="inlineStr">
+      <c r="C22" s="290" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="278">
+      <c r="D22" s="289">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -4800,21 +4829,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="273">
+      <c r="A23" s="284">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="279" t="inlineStr">
+      <c r="B23" s="290" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="276" t="inlineStr">
+      <c r="C23" s="287" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="278">
+      <c r="D23" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4837,17 +4866,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="284">
+      <c r="A24" s="297">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="285" t="inlineStr">
+      <c r="B24" s="298" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="286">
+      <c r="D24" s="299">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4870,30 +4899,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="282" t="inlineStr">
+      <c r="A25" s="293" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="263" t="n"/>
-      <c r="C25" s="263" t="n"/>
-      <c r="D25" s="263" t="n"/>
-      <c r="E25" s="263" t="n"/>
-      <c r="F25" s="263" t="n"/>
-      <c r="G25" s="263" t="n"/>
-      <c r="H25" s="264" t="n"/>
-      <c r="I25" s="37" t="n">
+      <c r="B25" s="272" t="n"/>
+      <c r="C25" s="272" t="n"/>
+      <c r="D25" s="272" t="n"/>
+      <c r="E25" s="272" t="n"/>
+      <c r="F25" s="272" t="n"/>
+      <c r="G25" s="272" t="n"/>
+      <c r="H25" s="273" t="n"/>
+      <c r="I25" s="294" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="295">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="248" t="n"/>
+      <c r="L25" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="273">
+      <c r="A26" s="284">
         <f>J25</f>
         <v/>
       </c>
@@ -4907,7 +4936,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="283">
+      <c r="D26" s="296">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4929,24 +4958,24 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="248" t="n"/>
+      <c r="L26" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="273">
+      <c r="A27" s="284">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="276" t="inlineStr">
+      <c r="B27" s="287" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="287" t="inlineStr">
-        <is>
-          <t>Ice Breaker</t>
-        </is>
-      </c>
-      <c r="D27" s="288">
+      <c r="C27" s="300" t="inlineStr">
+        <is>
+          <t>being a protege</t>
+        </is>
+      </c>
+      <c r="D27" s="301">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -4955,93 +4984,89 @@
           <t>5-7</t>
         </is>
       </c>
-      <c r="F27" s="103" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G27" s="104" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H27" s="105" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I27" s="37" t="n">
-        <v>0.004861111111111111</v>
+      <c r="F27" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="104" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" s="105" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" s="37" t="inlineStr">
+        <is>
+          <t>0:07</t>
+        </is>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="248" t="n"/>
+      <c r="L27" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244" thickBot="1">
-      <c r="A28" s="282" t="inlineStr">
+      <c r="A28" s="302" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B28" s="263" t="n"/>
-      <c r="C28" s="263" t="n"/>
-      <c r="D28" s="263" t="n"/>
-      <c r="E28" s="263" t="n"/>
-      <c r="F28" s="263" t="n"/>
-      <c r="G28" s="263" t="n"/>
-      <c r="H28" s="264" t="n"/>
+      <c r="B28" s="303" t="n"/>
+      <c r="C28" s="303" t="n"/>
+      <c r="D28" s="303" t="n"/>
+      <c r="E28" s="303" t="n"/>
+      <c r="F28" s="303" t="n"/>
+      <c r="G28" s="303" t="n"/>
+      <c r="H28" s="304" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="248" t="n"/>
+      <c r="L28" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="244">
-      <c r="A29" s="273">
+      <c r="A29" s="305">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="24" t="inlineStr">
+      <c r="B29" s="306" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="307" t="inlineStr">
         <is>
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D29" s="283">
+      <c r="D29" s="308">
         <f>Roles!B5</f>
         <v/>
       </c>
-      <c r="E29" s="27" t="n">
+      <c r="E29" s="309" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="148" t="n"/>
-      <c r="G29" s="149" t="n">
+      <c r="F29" s="310" t="n"/>
+      <c r="G29" s="311" t="n">
         <v>0.5</v>
       </c>
-      <c r="H29" s="150" t="n">
+      <c r="H29" s="312" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="37" t="n">
+      <c r="I29" s="294" t="n">
         <v>1.000694444444445</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="295">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="248" t="n"/>
+      <c r="L29" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244">
-      <c r="A30" s="273">
+      <c r="A30" s="284">
         <f>J29</f>
         <v/>
       </c>
@@ -5055,11 +5080,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D30" s="283">
+      <c r="D30" s="296">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="289" t="inlineStr">
+      <c r="E30" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -5081,10 +5106,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="248" t="n"/>
+      <c r="L30" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="244">
-      <c r="A31" s="273">
+      <c r="A31" s="284">
         <f>J30</f>
         <v/>
       </c>
@@ -5098,7 +5123,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D31" s="278">
+      <c r="D31" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -5122,10 +5147,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="290" t="n"/>
+      <c r="L31" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244">
-      <c r="A32" s="273">
+      <c r="A32" s="284">
         <f>J31</f>
         <v/>
       </c>
@@ -5139,7 +5164,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D32" s="278">
+      <c r="D32" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -5165,10 +5190,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="290" t="n"/>
+      <c r="L32" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="273">
+      <c r="A33" s="284">
         <f>J32</f>
         <v/>
       </c>
@@ -5182,7 +5207,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D33" s="278">
+      <c r="D33" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -5206,13 +5231,13 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="290" t="n"/>
+      <c r="L33" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="34" s="244">
-      <c r="A34" s="273" t="n"/>
-      <c r="B34" s="274" t="n"/>
+      <c r="A34" s="284" t="n"/>
+      <c r="B34" s="285" t="n"/>
       <c r="C34" s="157" t="n"/>
-      <c r="D34" s="278" t="n"/>
+      <c r="D34" s="289" t="n"/>
       <c r="E34" s="76" t="n"/>
       <c r="F34" s="151" t="n"/>
       <c r="G34" s="152" t="n"/>
@@ -5225,24 +5250,24 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="290" t="n"/>
+      <c r="L34" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="273">
+      <c r="A35" s="284">
         <f>J34</f>
         <v/>
       </c>
-      <c r="B35" s="276" t="inlineStr">
+      <c r="B35" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C35" s="276" t="inlineStr">
+      <c r="C35" s="287" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D35" s="278">
+      <c r="D35" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -5274,24 +5299,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="290" t="n"/>
+      <c r="L35" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244" thickBot="1">
-      <c r="A36" s="291">
+      <c r="A36" s="315">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="279" t="inlineStr">
+      <c r="B36" s="290" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C36" s="276" t="inlineStr">
+      <c r="C36" s="287" t="inlineStr">
         <is>
           <t>Conclusion &amp; Meeting Closing</t>
         </is>
       </c>
-      <c r="D36" s="278">
+      <c r="D36" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -5323,13 +5348,13 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="290" t="n"/>
+      <c r="L36" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="37" s="244" thickBot="1">
-      <c r="A37" s="291" t="n"/>
-      <c r="B37" s="292" t="n"/>
-      <c r="C37" s="293" t="n"/>
-      <c r="D37" s="278" t="n"/>
+      <c r="A37" s="315" t="n"/>
+      <c r="B37" s="316" t="n"/>
+      <c r="C37" s="317" t="n"/>
+      <c r="D37" s="289" t="n"/>
       <c r="E37" s="71" t="n"/>
       <c r="F37" s="109" t="n"/>
       <c r="G37" s="110" t="n"/>
@@ -5340,21 +5365,21 @@
       <c r="L37" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="244">
-      <c r="A38" s="294" t="n"/>
-      <c r="B38" s="246" t="n"/>
-      <c r="C38" s="246" t="n"/>
-      <c r="D38" s="246" t="n"/>
+      <c r="A38" s="318" t="n"/>
+      <c r="B38" s="319" t="n"/>
+      <c r="C38" s="319" t="n"/>
+      <c r="D38" s="319" t="n"/>
       <c r="E38" s="243" t="n"/>
-      <c r="F38" s="295" t="n"/>
-      <c r="G38" s="296" t="n"/>
-      <c r="H38" s="297" t="n"/>
+      <c r="F38" s="320" t="n"/>
+      <c r="G38" s="321" t="n"/>
+      <c r="H38" s="322" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
       <c r="L38" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="39" s="244">
-      <c r="A39" s="298" t="inlineStr">
+      <c r="A39" s="323" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -5364,18 +5389,18 @@
 </t>
         </is>
       </c>
-      <c r="D39" s="299" t="n"/>
+      <c r="D39" s="324" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="300" t="inlineStr">
+      <c r="J39" s="325" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="301" t="n"/>
+      <c r="K39" s="326" t="n"/>
       <c r="L39" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="244">
-      <c r="A40" s="302" t="inlineStr">
+      <c r="A40" s="327" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -5386,91 +5411,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="300" t="n"/>
+      <c r="J40" s="325" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="244">
-      <c r="A41" s="303" t="n"/>
+      <c r="A41" s="328" t="n"/>
       <c r="B41" s="243" t="n"/>
-      <c r="D41" s="304" t="n"/>
-      <c r="E41" s="305" t="n"/>
-      <c r="F41" s="305" t="n"/>
-      <c r="G41" s="305" t="n"/>
-      <c r="H41" s="305" t="n"/>
+      <c r="D41" s="329" t="n"/>
+      <c r="E41" s="330" t="n"/>
+      <c r="F41" s="330" t="n"/>
+      <c r="G41" s="330" t="n"/>
+      <c r="H41" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="244">
-      <c r="A42" s="303" t="n"/>
+      <c r="A42" s="328" t="n"/>
       <c r="B42" s="243" t="n"/>
       <c r="C42" s="243" t="n"/>
-      <c r="D42" s="304" t="n"/>
-      <c r="F42" s="305" t="n"/>
-      <c r="G42" s="305" t="n"/>
-      <c r="H42" s="305" t="n"/>
+      <c r="D42" s="329" t="n"/>
+      <c r="F42" s="330" t="n"/>
+      <c r="G42" s="330" t="n"/>
+      <c r="H42" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="244">
-      <c r="A43" s="303" t="n"/>
+      <c r="A43" s="328" t="n"/>
       <c r="B43" s="243" t="n"/>
       <c r="C43" s="243" t="n"/>
-      <c r="D43" s="306" t="n"/>
-      <c r="E43" s="307" t="n"/>
-      <c r="F43" s="308" t="n"/>
-      <c r="G43" s="309" t="n"/>
+      <c r="D43" s="331" t="n"/>
+      <c r="E43" s="332" t="n"/>
+      <c r="F43" s="333" t="n"/>
+      <c r="G43" s="334" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="303" t="n"/>
+      <c r="A44" s="328" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="310" t="n"/>
-      <c r="E44" s="311" t="n"/>
+      <c r="D44" s="335" t="n"/>
+      <c r="E44" s="336" t="n"/>
       <c r="L44" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="303" t="n"/>
+      <c r="A45" s="328" t="n"/>
       <c r="B45" s="243" t="n"/>
-      <c r="D45" s="310" t="n"/>
-      <c r="E45" s="311" t="n"/>
+      <c r="D45" s="335" t="n"/>
+      <c r="E45" s="336" t="n"/>
       <c r="L45" s="218" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="303" t="n"/>
+      <c r="A46" s="328" t="n"/>
       <c r="B46" s="243" t="n"/>
-      <c r="D46" s="310" t="n"/>
-      <c r="E46" s="311" t="n"/>
+      <c r="D46" s="335" t="n"/>
+      <c r="E46" s="336" t="n"/>
       <c r="L46" s="218" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="303" t="n"/>
+      <c r="A47" s="328" t="n"/>
       <c r="B47" s="243" t="n"/>
       <c r="C47" s="243" t="n"/>
-      <c r="D47" s="310" t="n"/>
-      <c r="E47" s="311" t="n"/>
+      <c r="D47" s="335" t="n"/>
+      <c r="E47" s="336" t="n"/>
       <c r="L47" s="218" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="303" t="n"/>
+      <c r="A48" s="328" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="310" t="n"/>
-      <c r="E48" s="311" t="n"/>
+      <c r="D48" s="335" t="n"/>
+      <c r="E48" s="336" t="n"/>
       <c r="L48" s="218" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="303" t="n"/>
+      <c r="A49" s="328" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="E49" s="311" t="n"/>
+      <c r="E49" s="336" t="n"/>
       <c r="L49" s="218" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="303" t="n"/>
+      <c r="A50" s="328" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="310" t="n"/>
-      <c r="E50" s="311" t="n"/>
+      <c r="D50" s="335" t="n"/>
+      <c r="E50" s="336" t="n"/>
     </row>
     <row customFormat="1" r="51" s="240">
-      <c r="A51" s="303" t="n"/>
+      <c r="A51" s="328" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="310" t="n"/>
-      <c r="E51" s="311" t="n"/>
+      <c r="D51" s="335" t="n"/>
+      <c r="E51" s="336" t="n"/>
       <c r="G51" s="241" t="n"/>
       <c r="H51" s="242" t="n"/>
       <c r="I51" s="218" t="n"/>
@@ -5480,11 +5505,11 @@
       <c r="M51" s="243" t="n"/>
     </row>
     <row customFormat="1" r="52" s="240">
-      <c r="A52" s="303" t="n"/>
+      <c r="A52" s="328" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="237" t="n"/>
-      <c r="D52" s="310" t="n"/>
-      <c r="E52" s="311" t="n"/>
+      <c r="D52" s="335" t="n"/>
+      <c r="E52" s="336" t="n"/>
       <c r="G52" s="241" t="n"/>
       <c r="H52" s="242" t="n"/>
       <c r="I52" s="218" t="n"/>
@@ -5494,11 +5519,11 @@
       <c r="M52" s="243" t="n"/>
     </row>
     <row customFormat="1" r="53" s="240">
-      <c r="A53" s="303" t="n"/>
+      <c r="A53" s="328" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="310" t="n"/>
-      <c r="E53" s="311" t="n"/>
+      <c r="D53" s="335" t="n"/>
+      <c r="E53" s="336" t="n"/>
       <c r="G53" s="241" t="n"/>
       <c r="H53" s="242" t="n"/>
       <c r="I53" s="218" t="n"/>
@@ -5508,11 +5533,11 @@
       <c r="M53" s="243" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="303" t="n"/>
+      <c r="A54" s="328" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="310" t="n"/>
-      <c r="E54" s="311" t="n"/>
+      <c r="D54" s="335" t="n"/>
+      <c r="E54" s="336" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="218" t="n"/>
@@ -5522,11 +5547,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="303" t="n"/>
+      <c r="A55" s="328" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="D55" s="310" t="n"/>
-      <c r="E55" s="311" t="n"/>
+      <c r="D55" s="335" t="n"/>
+      <c r="E55" s="336" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="218" t="n"/>
@@ -5536,11 +5561,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="303" t="n"/>
+      <c r="A56" s="328" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="310" t="n"/>
-      <c r="E56" s="311" t="n"/>
+      <c r="D56" s="335" t="n"/>
+      <c r="E56" s="336" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="218" t="n"/>
@@ -5550,11 +5575,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="303" t="n"/>
+      <c r="A57" s="328" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="310" t="n"/>
-      <c r="E57" s="311" t="n"/>
+      <c r="D57" s="335" t="n"/>
+      <c r="E57" s="336" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -5564,11 +5589,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="303" t="n"/>
+      <c r="A58" s="328" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="310" t="n"/>
-      <c r="E58" s="311" t="n"/>
+      <c r="D58" s="335" t="n"/>
+      <c r="E58" s="336" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -5578,11 +5603,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="303" t="n"/>
+      <c r="A59" s="328" t="n"/>
       <c r="B59" s="237" t="n"/>
       <c r="C59" s="237" t="n"/>
-      <c r="D59" s="310" t="n"/>
-      <c r="E59" s="311" t="n"/>
+      <c r="D59" s="335" t="n"/>
+      <c r="E59" s="336" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -5592,11 +5617,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="303" t="n"/>
+      <c r="A60" s="328" t="n"/>
       <c r="B60" s="237" t="n"/>
       <c r="C60" s="237" t="n"/>
-      <c r="D60" s="310" t="n"/>
-      <c r="E60" s="311" t="n"/>
+      <c r="D60" s="335" t="n"/>
+      <c r="E60" s="336" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -5606,11 +5631,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="303" t="n"/>
+      <c r="A61" s="328" t="n"/>
       <c r="B61" s="237" t="n"/>
       <c r="C61" s="237" t="n"/>
-      <c r="D61" s="310" t="n"/>
-      <c r="E61" s="311" t="n"/>
+      <c r="D61" s="335" t="n"/>
+      <c r="E61" s="336" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -5620,11 +5645,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="303" t="n"/>
+      <c r="A62" s="328" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="310" t="n"/>
-      <c r="E62" s="311" t="n"/>
+      <c r="D62" s="335" t="n"/>
+      <c r="E62" s="336" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -5634,7 +5659,7 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="303" t="n"/>
+      <c r="A63" s="328" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
       <c r="D63" s="238" t="n"/>
@@ -5648,7 +5673,7 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="303" t="n"/>
+      <c r="A64" s="328" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
       <c r="D64" s="238" t="n"/>
@@ -5662,7 +5687,7 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="303" t="n"/>
+      <c r="A65" s="328" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
       <c r="D65" s="238" t="n"/>
@@ -5676,7 +5701,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="303" t="n"/>
+      <c r="A66" s="328" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -5690,7 +5715,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="237">
-      <c r="A67" s="303" t="n"/>
+      <c r="A67" s="328" t="n"/>
       <c r="D67" s="238" t="n"/>
       <c r="E67" s="239" t="n"/>
       <c r="F67" s="240" t="n"/>
@@ -5702,7 +5727,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="237">
-      <c r="A68" s="303" t="n"/>
+      <c r="A68" s="328" t="n"/>
       <c r="D68" s="238" t="n"/>
       <c r="E68" s="239" t="n"/>
       <c r="F68" s="240" t="n"/>
@@ -5714,7 +5739,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="237">
-      <c r="A69" s="303" t="n"/>
+      <c r="A69" s="328" t="n"/>
       <c r="D69" s="238" t="n"/>
       <c r="E69" s="239" t="n"/>
       <c r="F69" s="240" t="n"/>
@@ -5745,11 +5770,12 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5779,151 +5805,137 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="312" t="inlineStr">
+      <c r="A1" s="337" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="313" t="n"/>
-      <c r="C1" s="313" t="n"/>
-      <c r="D1" s="313" t="n"/>
-      <c r="E1" s="313" t="n"/>
-      <c r="F1" s="313" t="n"/>
-      <c r="G1" s="313" t="n"/>
-      <c r="H1" s="313" t="n"/>
-      <c r="I1" s="313" t="n"/>
-      <c r="J1" s="314" t="n"/>
+      <c r="B1" s="319" t="n"/>
+      <c r="C1" s="319" t="n"/>
+      <c r="D1" s="319" t="n"/>
+      <c r="E1" s="319" t="n"/>
+      <c r="F1" s="319" t="n"/>
+      <c r="G1" s="319" t="n"/>
+      <c r="H1" s="319" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="315" t="inlineStr">
+      <c r="A2" s="338" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="248" t="n"/>
-      <c r="J2" s="316" t="n"/>
+      <c r="I2" s="249" t="n"/>
+      <c r="J2" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="317" t="inlineStr">
+      <c r="A3" s="339" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="B3" s="318" t="n"/>
-      <c r="C3" s="318" t="n"/>
-      <c r="D3" s="318" t="n"/>
-      <c r="E3" s="318" t="n"/>
-      <c r="F3" s="318" t="n"/>
-      <c r="G3" s="318" t="n"/>
-      <c r="H3" s="318" t="n"/>
-      <c r="I3" s="319" t="n"/>
-      <c r="J3" s="320" t="n"/>
+      <c r="I3" s="266" t="n"/>
+      <c r="J3" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="321" t="inlineStr">
+      <c r="A4" s="340" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="322" t="inlineStr">
+      <c r="B4" s="341" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="313" t="n"/>
-      <c r="D4" s="313" t="n"/>
-      <c r="E4" s="313" t="n"/>
-      <c r="F4" s="313" t="n"/>
-      <c r="G4" s="313" t="n"/>
-      <c r="H4" s="323" t="n"/>
-      <c r="I4" s="324" t="n"/>
-      <c r="J4" s="325" t="n"/>
+      <c r="C4" s="342" t="n"/>
+      <c r="D4" s="342" t="n"/>
+      <c r="E4" s="342" t="n"/>
+      <c r="F4" s="342" t="n"/>
+      <c r="G4" s="342" t="n"/>
+      <c r="H4" s="343" t="n"/>
+      <c r="I4" s="249" t="n"/>
+      <c r="J4" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="326" t="n"/>
-      <c r="B5" s="327" t="n"/>
-      <c r="C5" s="318" t="n"/>
-      <c r="D5" s="318" t="n"/>
-      <c r="E5" s="318" t="n"/>
-      <c r="F5" s="318" t="n"/>
-      <c r="G5" s="318" t="n"/>
-      <c r="H5" s="328" t="n"/>
-      <c r="I5" s="319" t="n"/>
-      <c r="J5" s="320" t="n"/>
+      <c r="A5" s="263" t="n"/>
+      <c r="B5" s="264" t="n"/>
+      <c r="H5" s="265" t="n"/>
+      <c r="I5" s="266" t="n"/>
+      <c r="J5" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="255" t="n"/>
-      <c r="B6" s="256" t="n"/>
-      <c r="H6" s="257" t="n"/>
-      <c r="I6" s="250" t="n"/>
-      <c r="J6" s="250" t="n"/>
+      <c r="A6" s="263" t="n"/>
+      <c r="B6" s="264" t="n"/>
+      <c r="H6" s="265" t="n"/>
+      <c r="I6" s="266" t="n"/>
+      <c r="J6" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="258" t="n"/>
-      <c r="B7" s="259" t="n"/>
-      <c r="C7" s="260" t="n"/>
-      <c r="D7" s="260" t="n"/>
-      <c r="E7" s="260" t="n"/>
-      <c r="F7" s="260" t="n"/>
-      <c r="G7" s="260" t="n"/>
-      <c r="H7" s="261" t="n"/>
-      <c r="I7" s="250" t="n"/>
-      <c r="J7" s="250" t="n"/>
+      <c r="A7" s="267" t="n"/>
+      <c r="B7" s="268" t="n"/>
+      <c r="C7" s="269" t="n"/>
+      <c r="D7" s="269" t="n"/>
+      <c r="E7" s="269" t="n"/>
+      <c r="F7" s="269" t="n"/>
+      <c r="G7" s="269" t="n"/>
+      <c r="H7" s="270" t="n"/>
+      <c r="I7" s="266" t="n"/>
+      <c r="J7" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="329" t="inlineStr">
-        <is>
-          <t>Theme Today: Silver Lining</t>
-        </is>
-      </c>
-      <c r="B8" s="330" t="n"/>
-      <c r="C8" s="330" t="n"/>
-      <c r="D8" s="330" t="n"/>
-      <c r="E8" s="330" t="n"/>
-      <c r="F8" s="330" t="n"/>
-      <c r="G8" s="330" t="n"/>
-      <c r="H8" s="331" t="n"/>
-      <c r="I8" s="332" t="n"/>
-      <c r="J8" s="333" t="n"/>
+      <c r="A8" s="344" t="inlineStr">
+        <is>
+          <t>Theme Today: sleepless in seattle</t>
+        </is>
+      </c>
+      <c r="B8" s="303" t="n"/>
+      <c r="C8" s="303" t="n"/>
+      <c r="D8" s="303" t="n"/>
+      <c r="E8" s="303" t="n"/>
+      <c r="F8" s="303" t="n"/>
+      <c r="G8" s="303" t="n"/>
+      <c r="H8" s="304" t="n"/>
+      <c r="I8" s="266" t="n"/>
+      <c r="J8" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="265" t="inlineStr">
+      <c r="A9" s="276" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="266" t="inlineStr">
+      <c r="B9" s="277" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="267" t="inlineStr">
+      <c r="C9" s="278" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="268" t="inlineStr">
+      <c r="D9" s="279" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="269" t="inlineStr">
+      <c r="E9" s="280" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="270" t="inlineStr">
+      <c r="F9" s="281" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="271" t="inlineStr">
+      <c r="G9" s="282" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="272" t="inlineStr">
+      <c r="H9" s="283" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -5936,21 +5948,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="273">
+      <c r="A10" s="284">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="274" t="inlineStr">
+      <c r="B10" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="274" t="inlineStr">
+      <c r="C10" s="285" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="275">
+      <c r="D10" s="286">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -5969,21 +5981,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="273">
+      <c r="A11" s="284">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="276" t="inlineStr">
+      <c r="B11" s="287" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="277" t="inlineStr">
+      <c r="C11" s="288" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="278">
+      <c r="D11" s="289">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -6010,21 +6022,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="244">
-      <c r="A12" s="273">
+      <c r="A12" s="284">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="274" t="inlineStr">
+      <c r="B12" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="279" t="inlineStr">
+      <c r="C12" s="290" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="278">
+      <c r="D12" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -6055,21 +6067,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="244">
-      <c r="A13" s="273">
+      <c r="A13" s="284">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="276" t="inlineStr">
+      <c r="B13" s="287" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="276" t="inlineStr">
+      <c r="C13" s="287" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="278">
+      <c r="D13" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6094,21 +6106,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="273">
+      <c r="A14" s="284">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="276" t="inlineStr">
+      <c r="B14" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="276" t="inlineStr">
+      <c r="C14" s="287" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="278">
+      <c r="D14" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6130,24 +6142,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="248" t="n"/>
+      <c r="L14" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="273">
+      <c r="A15" s="284">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="276" t="inlineStr">
+      <c r="B15" s="287" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="276" t="inlineStr">
+      <c r="C15" s="287" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6167,24 +6179,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="248" t="n"/>
+      <c r="L15" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="244">
-      <c r="A16" s="273">
+      <c r="A16" s="284">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="276" t="inlineStr">
+      <c r="B16" s="287" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="276" t="inlineStr">
+      <c r="C16" s="287" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="278">
+      <c r="D16" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6204,24 +6216,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="248" t="n"/>
+      <c r="L16" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="244">
-      <c r="A17" s="273">
+      <c r="A17" s="284">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="276" t="inlineStr">
+      <c r="B17" s="287" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="276" t="inlineStr">
+      <c r="C17" s="287" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="278">
+      <c r="D17" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6245,24 +6257,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="248" t="n"/>
+      <c r="L17" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="273">
+      <c r="A18" s="284">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="276" t="inlineStr">
+      <c r="B18" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="276" t="inlineStr">
+      <c r="C18" s="287" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="278">
+      <c r="D18" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6283,11 +6295,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="280">
+      <c r="A19" s="291">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="281" t="inlineStr">
+      <c r="B19" s="292" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -6297,7 +6309,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="278">
+      <c r="D19" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6318,28 +6330,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="334" t="inlineStr">
+      <c r="A20" s="302" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="330" t="n"/>
-      <c r="C20" s="330" t="n"/>
-      <c r="D20" s="330" t="n"/>
-      <c r="E20" s="330" t="n"/>
-      <c r="F20" s="330" t="n"/>
-      <c r="G20" s="330" t="n"/>
-      <c r="H20" s="331" t="n"/>
-      <c r="I20" s="335" t="n">
+      <c r="B20" s="303" t="n"/>
+      <c r="C20" s="303" t="n"/>
+      <c r="D20" s="303" t="n"/>
+      <c r="E20" s="303" t="n"/>
+      <c r="F20" s="303" t="n"/>
+      <c r="G20" s="303" t="n"/>
+      <c r="H20" s="304" t="n"/>
+      <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="336">
+      <c r="J20" s="36">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="273">
+      <c r="A21" s="284">
         <f>J20</f>
         <v/>
       </c>
@@ -6353,7 +6365,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="283">
+      <c r="D21" s="296">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -6378,21 +6390,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="273">
+      <c r="A22" s="284">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="279" t="inlineStr">
+      <c r="B22" s="290" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="279" t="inlineStr">
+      <c r="C22" s="290" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="278">
+      <c r="D22" s="289">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -6425,21 +6437,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="273">
+      <c r="A23" s="284">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="279" t="inlineStr">
+      <c r="B23" s="290" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="276" t="inlineStr">
+      <c r="C23" s="287" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="278">
+      <c r="D23" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6462,17 +6474,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="284">
+      <c r="A24" s="297">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="285" t="inlineStr">
+      <c r="B24" s="298" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="286">
+      <c r="D24" s="299">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6495,30 +6507,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="334" t="inlineStr">
+      <c r="A25" s="302" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="330" t="n"/>
-      <c r="C25" s="330" t="n"/>
-      <c r="D25" s="330" t="n"/>
-      <c r="E25" s="330" t="n"/>
-      <c r="F25" s="330" t="n"/>
-      <c r="G25" s="330" t="n"/>
-      <c r="H25" s="331" t="n"/>
-      <c r="I25" s="335" t="n">
+      <c r="B25" s="303" t="n"/>
+      <c r="C25" s="303" t="n"/>
+      <c r="D25" s="303" t="n"/>
+      <c r="E25" s="303" t="n"/>
+      <c r="F25" s="303" t="n"/>
+      <c r="G25" s="303" t="n"/>
+      <c r="H25" s="304" t="n"/>
+      <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="336">
+      <c r="J25" s="36">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="248" t="n"/>
+      <c r="L25" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="273">
+      <c r="A26" s="284">
         <f>J25</f>
         <v/>
       </c>
@@ -6532,7 +6544,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="283">
+      <c r="D26" s="296">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6554,55 +6566,59 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="248" t="n"/>
+      <c r="L26" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244">
-      <c r="A27" s="273">
+      <c r="A27" s="284">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="276" t="inlineStr">
+      <c r="B27" s="287" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="287" t="inlineStr">
-        <is>
-          <t>silver linings of the coronavirus pandemic</t>
-        </is>
-      </c>
-      <c r="D27" s="288">
+      <c r="C27" s="300" t="inlineStr">
+        <is>
+          <t>Ice Breaker</t>
+        </is>
+      </c>
+      <c r="D27" s="301">
         <f>Roles!B11</f>
         <v/>
       </c>
       <c r="E27" s="72" t="inlineStr">
         <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="F27" s="103" t="n">
-        <v>6</v>
-      </c>
-      <c r="G27" s="104" t="n">
-        <v>7</v>
-      </c>
-      <c r="H27" s="105" t="n">
-        <v>8</v>
-      </c>
-      <c r="I27" s="37" t="inlineStr">
-        <is>
-          <t>0:08</t>
-        </is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="F27" s="103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G27" s="104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H27" s="105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I27" s="37" t="n">
+        <v>0.004861111111111111</v>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="248" t="n"/>
+      <c r="L27" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="273">
+      <c r="A28" s="284">
         <f>J27</f>
         <v/>
       </c>
@@ -6616,7 +6632,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="288">
+      <c r="D28" s="301">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6638,76 +6654,80 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="248" t="n"/>
+      <c r="L28" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="29" s="244" thickBot="1">
-      <c r="A29" s="273">
+      <c r="A29" s="284">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="276" t="inlineStr">
+      <c r="B29" s="287" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="287" t="inlineStr">
-        <is>
-          <t>Restart 'Growing' --no-wait</t>
-        </is>
-      </c>
-      <c r="D29" s="337">
+      <c r="C29" s="300" t="inlineStr">
+        <is>
+          <t>Rice's Speech</t>
+        </is>
+      </c>
+      <c r="D29" s="345">
         <f>Roles!B12</f>
         <v/>
       </c>
       <c r="E29" s="72" t="inlineStr">
         <is>
-          <t>4-6</t>
-        </is>
-      </c>
-      <c r="F29" s="103" t="n">
-        <v>4</v>
-      </c>
-      <c r="G29" s="104" t="n">
-        <v>5</v>
-      </c>
-      <c r="H29" s="105" t="n">
-        <v>6</v>
-      </c>
-      <c r="I29" s="37" t="inlineStr">
-        <is>
-          <t>0:06</t>
-        </is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="F29" s="103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G29" s="104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H29" s="105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I29" s="37" t="n">
+        <v>0.004861111111111111</v>
       </c>
       <c r="J29" s="36">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="248" t="n"/>
+      <c r="L29" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244" thickBot="1">
-      <c r="A30" s="282" t="inlineStr">
+      <c r="A30" s="302" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B30" s="263" t="n"/>
-      <c r="C30" s="263" t="n"/>
-      <c r="D30" s="263" t="n"/>
-      <c r="E30" s="263" t="n"/>
-      <c r="F30" s="263" t="n"/>
-      <c r="G30" s="263" t="n"/>
-      <c r="H30" s="264" t="n"/>
+      <c r="B30" s="303" t="n"/>
+      <c r="C30" s="303" t="n"/>
+      <c r="D30" s="303" t="n"/>
+      <c r="E30" s="303" t="n"/>
+      <c r="F30" s="303" t="n"/>
+      <c r="G30" s="303" t="n"/>
+      <c r="H30" s="304" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J29+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="248" t="n"/>
+      <c r="L30" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="244">
-      <c r="A31" s="273">
+      <c r="A31" s="284">
         <f>J30</f>
         <v/>
       </c>
@@ -6721,7 +6741,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D31" s="283">
+      <c r="D31" s="296">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6743,53 +6763,53 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="248" t="n"/>
+      <c r="L31" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244">
-      <c r="A32" s="338">
+      <c r="A32" s="284">
         <f>J31</f>
         <v/>
       </c>
-      <c r="B32" s="339" t="inlineStr">
+      <c r="B32" s="55" t="inlineStr">
         <is>
           <t>Evaluator1</t>
         </is>
       </c>
-      <c r="C32" s="340" t="inlineStr">
+      <c r="C32" s="56" t="inlineStr">
         <is>
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D32" s="341">
+      <c r="D32" s="296">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="342" t="inlineStr">
+      <c r="E32" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
       </c>
-      <c r="F32" s="343" t="n">
+      <c r="F32" s="151" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="344" t="n">
+      <c r="G32" s="152" t="n">
         <v>2.5</v>
       </c>
-      <c r="H32" s="345" t="n">
+      <c r="H32" s="153" t="n">
         <v>3</v>
       </c>
-      <c r="I32" s="335" t="n">
+      <c r="I32" s="37" t="n">
         <v>0.002083333333333333</v>
       </c>
-      <c r="J32" s="336">
+      <c r="J32" s="36">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="248" t="n"/>
+      <c r="L32" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="273">
+      <c r="A33" s="284">
         <f>J32</f>
         <v/>
       </c>
@@ -6803,11 +6823,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D33" s="283">
+      <c r="D33" s="296">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="289" t="inlineStr">
+      <c r="E33" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -6829,10 +6849,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="248" t="n"/>
+      <c r="L33" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="244">
-      <c r="A34" s="273">
+      <c r="A34" s="284">
         <f>J33</f>
         <v/>
       </c>
@@ -6846,7 +6866,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D34" s="278">
+      <c r="D34" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6870,10 +6890,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="290" t="n"/>
+      <c r="L34" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="273">
+      <c r="A35" s="284">
         <f>J34</f>
         <v/>
       </c>
@@ -6887,7 +6907,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D35" s="278">
+      <c r="D35" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6913,10 +6933,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="290" t="n"/>
+      <c r="L35" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="273">
+      <c r="A36" s="284">
         <f>J35</f>
         <v/>
       </c>
@@ -6930,7 +6950,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D36" s="278">
+      <c r="D36" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6954,14 +6974,14 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="290" t="n"/>
+      <c r="L36" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="244">
-      <c r="A37" s="273">
+      <c r="A37" s="284">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="274" t="inlineStr">
+      <c r="B37" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -6971,7 +6991,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D37" s="278">
+      <c r="D37" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -6991,24 +7011,24 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="290" t="n"/>
+      <c r="L37" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="273">
+      <c r="A38" s="284">
         <f>J37</f>
         <v/>
       </c>
-      <c r="B38" s="276" t="inlineStr">
+      <c r="B38" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C38" s="276" t="inlineStr">
+      <c r="C38" s="287" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D38" s="278">
+      <c r="D38" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7040,24 +7060,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="290" t="n"/>
+      <c r="L38" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244" thickBot="1">
-      <c r="A39" s="291">
+      <c r="A39" s="315">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="279" t="inlineStr">
+      <c r="B39" s="290" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C39" s="276" t="inlineStr">
+      <c r="C39" s="287" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D39" s="278">
+      <c r="D39" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7089,24 +7109,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="290" t="n"/>
+      <c r="L39" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="244" thickBot="1">
-      <c r="A40" s="291">
+      <c r="A40" s="315">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="292" t="inlineStr">
+      <c r="B40" s="316" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C40" s="293" t="inlineStr">
+      <c r="C40" s="317" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D40" s="278">
+      <c r="D40" s="289">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7131,21 +7151,21 @@
       <c r="L40" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="244">
-      <c r="A41" s="294" t="n"/>
-      <c r="B41" s="246" t="n"/>
-      <c r="C41" s="246" t="n"/>
-      <c r="D41" s="246" t="n"/>
+      <c r="A41" s="318" t="n"/>
+      <c r="B41" s="319" t="n"/>
+      <c r="C41" s="319" t="n"/>
+      <c r="D41" s="319" t="n"/>
       <c r="E41" s="243" t="n"/>
-      <c r="F41" s="295" t="n"/>
-      <c r="G41" s="296" t="n"/>
-      <c r="H41" s="297" t="n"/>
+      <c r="F41" s="320" t="n"/>
+      <c r="G41" s="321" t="n"/>
+      <c r="H41" s="322" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
       <c r="L41" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="42" s="244">
-      <c r="A42" s="298" t="inlineStr">
+      <c r="A42" s="323" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -7155,18 +7175,18 @@
 </t>
         </is>
       </c>
-      <c r="D42" s="299" t="n"/>
+      <c r="D42" s="324" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="300" t="inlineStr">
+      <c r="J42" s="325" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="301" t="n"/>
+      <c r="K42" s="326" t="n"/>
       <c r="L42" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="244">
-      <c r="A43" s="302" t="inlineStr">
+      <c r="A43" s="327" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -7177,91 +7197,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="300" t="n"/>
+      <c r="J43" s="325" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="303" t="n"/>
+      <c r="A44" s="328" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="304" t="n"/>
-      <c r="E44" s="305" t="n"/>
-      <c r="F44" s="305" t="n"/>
-      <c r="G44" s="305" t="n"/>
-      <c r="H44" s="305" t="n"/>
+      <c r="D44" s="329" t="n"/>
+      <c r="E44" s="330" t="n"/>
+      <c r="F44" s="330" t="n"/>
+      <c r="G44" s="330" t="n"/>
+      <c r="H44" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="303" t="n"/>
+      <c r="A45" s="328" t="n"/>
       <c r="B45" s="243" t="n"/>
       <c r="C45" s="243" t="n"/>
-      <c r="D45" s="304" t="n"/>
-      <c r="F45" s="305" t="n"/>
-      <c r="G45" s="305" t="n"/>
-      <c r="H45" s="305" t="n"/>
+      <c r="D45" s="329" t="n"/>
+      <c r="F45" s="330" t="n"/>
+      <c r="G45" s="330" t="n"/>
+      <c r="H45" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="244">
-      <c r="A46" s="303" t="n"/>
+      <c r="A46" s="328" t="n"/>
       <c r="B46" s="243" t="n"/>
       <c r="C46" s="243" t="n"/>
-      <c r="D46" s="306" t="n"/>
-      <c r="E46" s="307" t="n"/>
-      <c r="F46" s="308" t="n"/>
-      <c r="G46" s="309" t="n"/>
+      <c r="D46" s="331" t="n"/>
+      <c r="E46" s="332" t="n"/>
+      <c r="F46" s="333" t="n"/>
+      <c r="G46" s="334" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="303" t="n"/>
+      <c r="A47" s="328" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="310" t="n"/>
-      <c r="E47" s="311" t="n"/>
+      <c r="D47" s="335" t="n"/>
+      <c r="E47" s="336" t="n"/>
       <c r="L47" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="303" t="n"/>
+      <c r="A48" s="328" t="n"/>
       <c r="B48" s="243" t="n"/>
-      <c r="D48" s="310" t="n"/>
-      <c r="E48" s="311" t="n"/>
+      <c r="D48" s="335" t="n"/>
+      <c r="E48" s="336" t="n"/>
       <c r="L48" s="218" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="303" t="n"/>
+      <c r="A49" s="328" t="n"/>
       <c r="B49" s="243" t="n"/>
-      <c r="D49" s="310" t="n"/>
-      <c r="E49" s="311" t="n"/>
+      <c r="D49" s="335" t="n"/>
+      <c r="E49" s="336" t="n"/>
       <c r="L49" s="218" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="303" t="n"/>
+      <c r="A50" s="328" t="n"/>
       <c r="B50" s="243" t="n"/>
       <c r="C50" s="243" t="n"/>
-      <c r="D50" s="310" t="n"/>
-      <c r="E50" s="311" t="n"/>
+      <c r="D50" s="335" t="n"/>
+      <c r="E50" s="336" t="n"/>
       <c r="L50" s="218" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="303" t="n"/>
+      <c r="A51" s="328" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="310" t="n"/>
-      <c r="E51" s="311" t="n"/>
+      <c r="D51" s="335" t="n"/>
+      <c r="E51" s="336" t="n"/>
       <c r="L51" s="218" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="303" t="n"/>
+      <c r="A52" s="328" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="243" t="n"/>
-      <c r="E52" s="311" t="n"/>
+      <c r="E52" s="336" t="n"/>
       <c r="L52" s="218" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="303" t="n"/>
+      <c r="A53" s="328" t="n"/>
       <c r="B53" s="243" t="n"/>
-      <c r="D53" s="310" t="n"/>
-      <c r="E53" s="311" t="n"/>
+      <c r="D53" s="335" t="n"/>
+      <c r="E53" s="336" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="303" t="n"/>
+      <c r="A54" s="328" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="310" t="n"/>
-      <c r="E54" s="311" t="n"/>
+      <c r="D54" s="335" t="n"/>
+      <c r="E54" s="336" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="218" t="n"/>
@@ -7271,11 +7291,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="303" t="n"/>
+      <c r="A55" s="328" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="237" t="n"/>
-      <c r="D55" s="310" t="n"/>
-      <c r="E55" s="311" t="n"/>
+      <c r="D55" s="335" t="n"/>
+      <c r="E55" s="336" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="218" t="n"/>
@@ -7285,11 +7305,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="303" t="n"/>
+      <c r="A56" s="328" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="310" t="n"/>
-      <c r="E56" s="311" t="n"/>
+      <c r="D56" s="335" t="n"/>
+      <c r="E56" s="336" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="218" t="n"/>
@@ -7299,11 +7319,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="303" t="n"/>
+      <c r="A57" s="328" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="310" t="n"/>
-      <c r="E57" s="311" t="n"/>
+      <c r="D57" s="335" t="n"/>
+      <c r="E57" s="336" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -7313,11 +7333,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="303" t="n"/>
+      <c r="A58" s="328" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="310" t="n"/>
-      <c r="E58" s="311" t="n"/>
+      <c r="D58" s="335" t="n"/>
+      <c r="E58" s="336" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -7327,11 +7347,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="303" t="n"/>
+      <c r="A59" s="328" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="310" t="n"/>
-      <c r="E59" s="311" t="n"/>
+      <c r="D59" s="335" t="n"/>
+      <c r="E59" s="336" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -7341,11 +7361,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="303" t="n"/>
+      <c r="A60" s="328" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="310" t="n"/>
-      <c r="E60" s="311" t="n"/>
+      <c r="D60" s="335" t="n"/>
+      <c r="E60" s="336" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -7355,11 +7375,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="303" t="n"/>
+      <c r="A61" s="328" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="310" t="n"/>
-      <c r="E61" s="311" t="n"/>
+      <c r="D61" s="335" t="n"/>
+      <c r="E61" s="336" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -7369,11 +7389,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="303" t="n"/>
+      <c r="A62" s="328" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="310" t="n"/>
-      <c r="E62" s="311" t="n"/>
+      <c r="D62" s="335" t="n"/>
+      <c r="E62" s="336" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -7383,11 +7403,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="303" t="n"/>
+      <c r="A63" s="328" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
-      <c r="D63" s="310" t="n"/>
-      <c r="E63" s="311" t="n"/>
+      <c r="D63" s="335" t="n"/>
+      <c r="E63" s="336" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="218" t="n"/>
@@ -7397,11 +7417,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="303" t="n"/>
+      <c r="A64" s="328" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
-      <c r="D64" s="310" t="n"/>
-      <c r="E64" s="311" t="n"/>
+      <c r="D64" s="335" t="n"/>
+      <c r="E64" s="336" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="218" t="n"/>
@@ -7411,11 +7431,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="303" t="n"/>
+      <c r="A65" s="328" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="310" t="n"/>
-      <c r="E65" s="311" t="n"/>
+      <c r="D65" s="335" t="n"/>
+      <c r="E65" s="336" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="218" t="n"/>
@@ -7425,7 +7445,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="303" t="n"/>
+      <c r="A66" s="328" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -7439,7 +7459,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="303" t="n"/>
+      <c r="A67" s="328" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
       <c r="D67" s="238" t="n"/>
@@ -7453,7 +7473,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="303" t="n"/>
+      <c r="A68" s="328" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
       <c r="D68" s="238" t="n"/>
@@ -7467,7 +7487,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="303" t="n"/>
+      <c r="A69" s="328" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -7481,7 +7501,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="237">
-      <c r="A70" s="303" t="n"/>
+      <c r="A70" s="328" t="n"/>
       <c r="D70" s="238" t="n"/>
       <c r="E70" s="239" t="n"/>
       <c r="F70" s="240" t="n"/>
@@ -7493,7 +7513,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="237">
-      <c r="A71" s="303" t="n"/>
+      <c r="A71" s="328" t="n"/>
       <c r="D71" s="238" t="n"/>
       <c r="E71" s="239" t="n"/>
       <c r="F71" s="240" t="n"/>
@@ -7505,7 +7525,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="237">
-      <c r="A72" s="303" t="n"/>
+      <c r="A72" s="328" t="n"/>
       <c r="D72" s="238" t="n"/>
       <c r="E72" s="239" t="n"/>
       <c r="F72" s="240" t="n"/>
@@ -7536,7 +7556,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7571,137 +7590,137 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="245" t="inlineStr">
+      <c r="A1" s="337" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="246" t="n"/>
-      <c r="C1" s="246" t="n"/>
-      <c r="D1" s="246" t="n"/>
-      <c r="E1" s="246" t="n"/>
-      <c r="F1" s="246" t="n"/>
-      <c r="G1" s="246" t="n"/>
-      <c r="H1" s="246" t="n"/>
+      <c r="B1" s="319" t="n"/>
+      <c r="C1" s="319" t="n"/>
+      <c r="D1" s="319" t="n"/>
+      <c r="E1" s="319" t="n"/>
+      <c r="F1" s="319" t="n"/>
+      <c r="G1" s="319" t="n"/>
+      <c r="H1" s="319" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="247" t="inlineStr">
+      <c r="A2" s="338" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="248" t="n"/>
-      <c r="J2" s="248" t="n"/>
+      <c r="I2" s="249" t="n"/>
+      <c r="J2" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="249" t="inlineStr">
+      <c r="A3" s="339" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="250" t="n"/>
-      <c r="J3" s="250" t="n"/>
+      <c r="I3" s="266" t="n"/>
+      <c r="J3" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="251" t="inlineStr">
+      <c r="A4" s="340" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="252" t="inlineStr">
+      <c r="B4" s="341" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="253" t="n"/>
-      <c r="D4" s="253" t="n"/>
-      <c r="E4" s="253" t="n"/>
-      <c r="F4" s="253" t="n"/>
-      <c r="G4" s="253" t="n"/>
-      <c r="H4" s="254" t="n"/>
-      <c r="I4" s="248" t="n"/>
-      <c r="J4" s="248" t="n"/>
+      <c r="C4" s="342" t="n"/>
+      <c r="D4" s="342" t="n"/>
+      <c r="E4" s="342" t="n"/>
+      <c r="F4" s="342" t="n"/>
+      <c r="G4" s="342" t="n"/>
+      <c r="H4" s="343" t="n"/>
+      <c r="I4" s="249" t="n"/>
+      <c r="J4" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="255" t="n"/>
-      <c r="B5" s="256" t="n"/>
-      <c r="H5" s="257" t="n"/>
-      <c r="I5" s="250" t="n"/>
-      <c r="J5" s="250" t="n"/>
+      <c r="A5" s="263" t="n"/>
+      <c r="B5" s="264" t="n"/>
+      <c r="H5" s="265" t="n"/>
+      <c r="I5" s="266" t="n"/>
+      <c r="J5" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="255" t="n"/>
-      <c r="B6" s="256" t="n"/>
-      <c r="H6" s="257" t="n"/>
-      <c r="I6" s="250" t="n"/>
-      <c r="J6" s="250" t="n"/>
+      <c r="A6" s="263" t="n"/>
+      <c r="B6" s="264" t="n"/>
+      <c r="H6" s="265" t="n"/>
+      <c r="I6" s="266" t="n"/>
+      <c r="J6" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="258" t="n"/>
-      <c r="B7" s="259" t="n"/>
-      <c r="C7" s="260" t="n"/>
-      <c r="D7" s="260" t="n"/>
-      <c r="E7" s="260" t="n"/>
-      <c r="F7" s="260" t="n"/>
-      <c r="G7" s="260" t="n"/>
-      <c r="H7" s="261" t="n"/>
-      <c r="I7" s="250" t="n"/>
-      <c r="J7" s="250" t="n"/>
+      <c r="A7" s="267" t="n"/>
+      <c r="B7" s="268" t="n"/>
+      <c r="C7" s="269" t="n"/>
+      <c r="D7" s="269" t="n"/>
+      <c r="E7" s="269" t="n"/>
+      <c r="F7" s="269" t="n"/>
+      <c r="G7" s="269" t="n"/>
+      <c r="H7" s="270" t="n"/>
+      <c r="I7" s="266" t="n"/>
+      <c r="J7" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="262" t="inlineStr">
+      <c r="A8" s="344" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="263" t="n"/>
-      <c r="C8" s="263" t="n"/>
-      <c r="D8" s="263" t="n"/>
-      <c r="E8" s="263" t="n"/>
-      <c r="F8" s="263" t="n"/>
-      <c r="G8" s="263" t="n"/>
-      <c r="H8" s="264" t="n"/>
-      <c r="I8" s="250" t="n"/>
-      <c r="J8" s="250" t="n"/>
+      <c r="B8" s="303" t="n"/>
+      <c r="C8" s="303" t="n"/>
+      <c r="D8" s="303" t="n"/>
+      <c r="E8" s="303" t="n"/>
+      <c r="F8" s="303" t="n"/>
+      <c r="G8" s="303" t="n"/>
+      <c r="H8" s="304" t="n"/>
+      <c r="I8" s="266" t="n"/>
+      <c r="J8" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="265" t="inlineStr">
+      <c r="A9" s="276" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="266" t="inlineStr">
+      <c r="B9" s="277" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="267" t="inlineStr">
+      <c r="C9" s="278" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="268" t="inlineStr">
+      <c r="D9" s="279" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="269" t="inlineStr">
+      <c r="E9" s="280" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="270" t="inlineStr">
+      <c r="F9" s="281" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="271" t="inlineStr">
+      <c r="G9" s="282" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="272" t="inlineStr">
+      <c r="H9" s="283" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -7714,21 +7733,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="273">
+      <c r="A10" s="284">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="274" t="inlineStr">
+      <c r="B10" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="274" t="inlineStr">
+      <c r="C10" s="285" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="275">
+      <c r="D10" s="286">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7747,21 +7766,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="273">
+      <c r="A11" s="284">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="276" t="inlineStr">
+      <c r="B11" s="287" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="277" t="inlineStr">
+      <c r="C11" s="288" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="278">
+      <c r="D11" s="289">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7788,21 +7807,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="244">
-      <c r="A12" s="273">
+      <c r="A12" s="284">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="274" t="inlineStr">
+      <c r="B12" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="279" t="inlineStr">
+      <c r="C12" s="290" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="278">
+      <c r="D12" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7833,21 +7852,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="244">
-      <c r="A13" s="273">
+      <c r="A13" s="284">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="276" t="inlineStr">
+      <c r="B13" s="287" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="276" t="inlineStr">
+      <c r="C13" s="287" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="278">
+      <c r="D13" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7872,21 +7891,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="273">
+      <c r="A14" s="284">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="276" t="inlineStr">
+      <c r="B14" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="276" t="inlineStr">
+      <c r="C14" s="287" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="278">
+      <c r="D14" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7908,24 +7927,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="248" t="n"/>
+      <c r="L14" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="273">
+      <c r="A15" s="284">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="276" t="inlineStr">
+      <c r="B15" s="287" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="276" t="inlineStr">
+      <c r="C15" s="287" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -7945,24 +7964,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="248" t="n"/>
+      <c r="L15" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="244">
-      <c r="A16" s="273">
+      <c r="A16" s="284">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="276" t="inlineStr">
+      <c r="B16" s="287" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="276" t="inlineStr">
+      <c r="C16" s="287" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="278">
+      <c r="D16" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -7982,24 +8001,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="248" t="n"/>
+      <c r="L16" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="244">
-      <c r="A17" s="273">
+      <c r="A17" s="284">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="276" t="inlineStr">
+      <c r="B17" s="287" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="276" t="inlineStr">
+      <c r="C17" s="287" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="278">
+      <c r="D17" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -8023,24 +8042,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="248" t="n"/>
+      <c r="L17" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="273">
+      <c r="A18" s="284">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="276" t="inlineStr">
+      <c r="B18" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="276" t="inlineStr">
+      <c r="C18" s="287" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="278">
+      <c r="D18" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8061,11 +8080,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="280">
+      <c r="A19" s="291">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="281" t="inlineStr">
+      <c r="B19" s="292" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -8075,7 +8094,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="278">
+      <c r="D19" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8096,18 +8115,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="282" t="inlineStr">
+      <c r="A20" s="302" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="263" t="n"/>
-      <c r="C20" s="263" t="n"/>
-      <c r="D20" s="263" t="n"/>
-      <c r="E20" s="263" t="n"/>
-      <c r="F20" s="263" t="n"/>
-      <c r="G20" s="263" t="n"/>
-      <c r="H20" s="264" t="n"/>
+      <c r="B20" s="303" t="n"/>
+      <c r="C20" s="303" t="n"/>
+      <c r="D20" s="303" t="n"/>
+      <c r="E20" s="303" t="n"/>
+      <c r="F20" s="303" t="n"/>
+      <c r="G20" s="303" t="n"/>
+      <c r="H20" s="304" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -8117,7 +8136,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="273">
+      <c r="A21" s="284">
         <f>J20</f>
         <v/>
       </c>
@@ -8131,7 +8150,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="283">
+      <c r="D21" s="296">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -8156,21 +8175,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="273">
+      <c r="A22" s="284">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="279" t="inlineStr">
+      <c r="B22" s="290" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="279" t="inlineStr">
+      <c r="C22" s="290" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="278">
+      <c r="D22" s="289">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -8203,21 +8222,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="273">
+      <c r="A23" s="284">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="279" t="inlineStr">
+      <c r="B23" s="290" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="276" t="inlineStr">
+      <c r="C23" s="287" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="278">
+      <c r="D23" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8240,17 +8259,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="284">
+      <c r="A24" s="297">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="285" t="inlineStr">
+      <c r="B24" s="298" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="286">
+      <c r="D24" s="299">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8273,18 +8292,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="282" t="inlineStr">
+      <c r="A25" s="302" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="263" t="n"/>
-      <c r="C25" s="263" t="n"/>
-      <c r="D25" s="263" t="n"/>
-      <c r="E25" s="263" t="n"/>
-      <c r="F25" s="263" t="n"/>
-      <c r="G25" s="263" t="n"/>
-      <c r="H25" s="264" t="n"/>
+      <c r="B25" s="303" t="n"/>
+      <c r="C25" s="303" t="n"/>
+      <c r="D25" s="303" t="n"/>
+      <c r="E25" s="303" t="n"/>
+      <c r="F25" s="303" t="n"/>
+      <c r="G25" s="303" t="n"/>
+      <c r="H25" s="304" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -8293,10 +8312,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="248" t="n"/>
+      <c r="L25" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="273">
+      <c r="A26" s="284">
         <f>J25</f>
         <v/>
       </c>
@@ -8310,7 +8329,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="283">
+      <c r="D26" s="296">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8332,24 +8351,24 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="248" t="n"/>
+      <c r="L26" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244">
-      <c r="A27" s="273">
+      <c r="A27" s="284">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="276" t="inlineStr">
+      <c r="B27" s="287" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="287" t="inlineStr">
+      <c r="C27" s="300" t="inlineStr">
         <is>
           <t>Ice Breaker</t>
         </is>
       </c>
-      <c r="D27" s="288">
+      <c r="D27" s="301">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -8381,10 +8400,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="248" t="n"/>
+      <c r="L27" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="273">
+      <c r="A28" s="284">
         <f>J27</f>
         <v/>
       </c>
@@ -8398,7 +8417,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="288">
+      <c r="D28" s="301">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8420,24 +8439,24 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="248" t="n"/>
+      <c r="L28" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="29" s="244">
-      <c r="A29" s="273">
+      <c r="A29" s="284">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="276" t="inlineStr">
+      <c r="B29" s="287" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="287" t="inlineStr">
+      <c r="C29" s="300" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D29" s="337">
+      <c r="D29" s="345">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -8469,10 +8488,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="248" t="n"/>
+      <c r="L29" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="30" s="244">
-      <c r="A30" s="273">
+      <c r="A30" s="284">
         <f>J29</f>
         <v/>
       </c>
@@ -8486,7 +8505,7 @@
           <t>Introduce the 3nd Speaker</t>
         </is>
       </c>
-      <c r="D30" s="288">
+      <c r="D30" s="301">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8508,24 +8527,24 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="248" t="n"/>
+      <c r="L30" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="31" s="244" thickBot="1">
-      <c r="A31" s="273">
+      <c r="A31" s="284">
         <f>J30</f>
         <v/>
       </c>
-      <c r="B31" s="276" t="inlineStr">
+      <c r="B31" s="287" t="inlineStr">
         <is>
           <t>Prepared Speaker3</t>
         </is>
       </c>
-      <c r="C31" s="287" t="inlineStr">
+      <c r="C31" s="300" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D31" s="337">
+      <c r="D31" s="345">
         <f>Roles!B13</f>
         <v/>
       </c>
@@ -8557,31 +8576,31 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="248" t="n"/>
+      <c r="L31" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244" thickBot="1">
-      <c r="A32" s="282" t="inlineStr">
+      <c r="A32" s="302" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B32" s="263" t="n"/>
-      <c r="C32" s="263" t="n"/>
-      <c r="D32" s="263" t="n"/>
-      <c r="E32" s="263" t="n"/>
-      <c r="F32" s="263" t="n"/>
-      <c r="G32" s="263" t="n"/>
-      <c r="H32" s="264" t="n"/>
+      <c r="B32" s="303" t="n"/>
+      <c r="C32" s="303" t="n"/>
+      <c r="D32" s="303" t="n"/>
+      <c r="E32" s="303" t="n"/>
+      <c r="F32" s="303" t="n"/>
+      <c r="G32" s="303" t="n"/>
+      <c r="H32" s="304" t="n"/>
       <c r="I32" s="37" t="n"/>
       <c r="J32" s="36">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="248" t="n"/>
+      <c r="L32" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="273">
+      <c r="A33" s="284">
         <f>J32</f>
         <v/>
       </c>
@@ -8595,7 +8614,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D33" s="283">
+      <c r="D33" s="296">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8617,10 +8636,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="248" t="n"/>
+      <c r="L33" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="244">
-      <c r="A34" s="273">
+      <c r="A34" s="284">
         <f>J33</f>
         <v/>
       </c>
@@ -8634,11 +8653,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D34" s="283">
+      <c r="D34" s="296">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E34" s="289" t="inlineStr">
+      <c r="E34" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8660,10 +8679,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="248" t="n"/>
+      <c r="L34" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="273">
+      <c r="A35" s="284">
         <f>J34</f>
         <v/>
       </c>
@@ -8677,11 +8696,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D35" s="283">
+      <c r="D35" s="296">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E35" s="289" t="inlineStr">
+      <c r="E35" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8703,10 +8722,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="248" t="n"/>
+      <c r="L35" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="273">
+      <c r="A36" s="284">
         <f>J35</f>
         <v/>
       </c>
@@ -8720,11 +8739,11 @@
           <t>Evaluate the 3rd speaker</t>
         </is>
       </c>
-      <c r="D36" s="283">
+      <c r="D36" s="296">
         <f>Roles!B17</f>
         <v/>
       </c>
-      <c r="E36" s="289" t="inlineStr">
+      <c r="E36" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8746,10 +8765,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="248" t="n"/>
+      <c r="L36" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="244">
-      <c r="A37" s="273">
+      <c r="A37" s="284">
         <f>J36</f>
         <v/>
       </c>
@@ -8763,7 +8782,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D37" s="278">
+      <c r="D37" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -8787,10 +8806,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="290" t="n"/>
+      <c r="L37" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="273">
+      <c r="A38" s="284">
         <f>J37</f>
         <v/>
       </c>
@@ -8804,7 +8823,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D38" s="278">
+      <c r="D38" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -8830,10 +8849,10 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="290" t="n"/>
+      <c r="L38" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244">
-      <c r="A39" s="273">
+      <c r="A39" s="284">
         <f>J38</f>
         <v/>
       </c>
@@ -8847,7 +8866,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D39" s="278">
+      <c r="D39" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -8871,14 +8890,14 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="290" t="n"/>
+      <c r="L39" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="244">
-      <c r="A40" s="273">
+      <c r="A40" s="284">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="274" t="inlineStr">
+      <c r="B40" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -8888,7 +8907,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D40" s="278">
+      <c r="D40" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -8908,24 +8927,24 @@
         <v/>
       </c>
       <c r="K40" s="36" t="n"/>
-      <c r="L40" s="290" t="n"/>
+      <c r="L40" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="41" s="244">
-      <c r="A41" s="273">
+      <c r="A41" s="284">
         <f>J40</f>
         <v/>
       </c>
-      <c r="B41" s="276" t="inlineStr">
+      <c r="B41" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C41" s="276" t="inlineStr">
+      <c r="C41" s="287" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D41" s="278">
+      <c r="D41" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8957,24 +8976,24 @@
         <v/>
       </c>
       <c r="K41" s="36" t="n"/>
-      <c r="L41" s="290" t="n"/>
+      <c r="L41" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="42" s="244" thickBot="1">
-      <c r="A42" s="291">
+      <c r="A42" s="315">
         <f>J41</f>
         <v/>
       </c>
-      <c r="B42" s="279" t="inlineStr">
+      <c r="B42" s="290" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C42" s="276" t="inlineStr">
+      <c r="C42" s="287" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D42" s="278">
+      <c r="D42" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9006,24 +9025,24 @@
         <v/>
       </c>
       <c r="K42" s="36" t="n"/>
-      <c r="L42" s="290" t="n"/>
+      <c r="L42" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="43" s="244" thickBot="1">
-      <c r="A43" s="291">
+      <c r="A43" s="315">
         <f>J42</f>
         <v/>
       </c>
-      <c r="B43" s="292" t="inlineStr">
+      <c r="B43" s="316" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C43" s="293" t="inlineStr">
+      <c r="C43" s="317" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D43" s="278">
+      <c r="D43" s="289">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -9048,21 +9067,21 @@
       <c r="L43" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="44" s="244">
-      <c r="A44" s="294" t="n"/>
-      <c r="B44" s="246" t="n"/>
-      <c r="C44" s="246" t="n"/>
-      <c r="D44" s="246" t="n"/>
+      <c r="A44" s="318" t="n"/>
+      <c r="B44" s="319" t="n"/>
+      <c r="C44" s="319" t="n"/>
+      <c r="D44" s="319" t="n"/>
       <c r="E44" s="243" t="n"/>
-      <c r="F44" s="295" t="n"/>
-      <c r="G44" s="296" t="n"/>
-      <c r="H44" s="297" t="n"/>
+      <c r="F44" s="320" t="n"/>
+      <c r="G44" s="321" t="n"/>
+      <c r="H44" s="322" t="n"/>
       <c r="I44" s="39" t="n"/>
       <c r="J44" s="39" t="n"/>
       <c r="K44" s="39" t="n"/>
       <c r="L44" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="45" s="244">
-      <c r="A45" s="298" t="inlineStr">
+      <c r="A45" s="323" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -9072,18 +9091,18 @@
 </t>
         </is>
       </c>
-      <c r="D45" s="299" t="n"/>
+      <c r="D45" s="324" t="n"/>
       <c r="I45" s="39" t="n"/>
-      <c r="J45" s="300" t="inlineStr">
+      <c r="J45" s="325" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K45" s="301" t="n"/>
+      <c r="K45" s="326" t="n"/>
       <c r="L45" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="46" s="244">
-      <c r="A46" s="302" t="inlineStr">
+      <c r="A46" s="327" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -9094,91 +9113,91 @@
         </is>
       </c>
       <c r="I46" s="39" t="n"/>
-      <c r="J46" s="300" t="n"/>
+      <c r="J46" s="325" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="303" t="n"/>
+      <c r="A47" s="328" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="304" t="n"/>
-      <c r="E47" s="305" t="n"/>
-      <c r="F47" s="305" t="n"/>
-      <c r="G47" s="305" t="n"/>
-      <c r="H47" s="305" t="n"/>
+      <c r="D47" s="329" t="n"/>
+      <c r="E47" s="330" t="n"/>
+      <c r="F47" s="330" t="n"/>
+      <c r="G47" s="330" t="n"/>
+      <c r="H47" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="303" t="n"/>
+      <c r="A48" s="328" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="304" t="n"/>
-      <c r="F48" s="305" t="n"/>
-      <c r="G48" s="305" t="n"/>
-      <c r="H48" s="305" t="n"/>
+      <c r="D48" s="329" t="n"/>
+      <c r="F48" s="330" t="n"/>
+      <c r="G48" s="330" t="n"/>
+      <c r="H48" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="49" s="244">
-      <c r="A49" s="303" t="n"/>
+      <c r="A49" s="328" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="D49" s="306" t="n"/>
-      <c r="E49" s="307" t="n"/>
-      <c r="F49" s="308" t="n"/>
-      <c r="G49" s="309" t="n"/>
+      <c r="D49" s="331" t="n"/>
+      <c r="E49" s="332" t="n"/>
+      <c r="F49" s="333" t="n"/>
+      <c r="G49" s="334" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="50" s="244">
-      <c r="A50" s="303" t="n"/>
+      <c r="A50" s="328" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="310" t="n"/>
-      <c r="E50" s="311" t="n"/>
+      <c r="D50" s="335" t="n"/>
+      <c r="E50" s="336" t="n"/>
       <c r="L50" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="51" s="244">
-      <c r="A51" s="303" t="n"/>
+      <c r="A51" s="328" t="n"/>
       <c r="B51" s="243" t="n"/>
-      <c r="D51" s="310" t="n"/>
-      <c r="E51" s="311" t="n"/>
+      <c r="D51" s="335" t="n"/>
+      <c r="E51" s="336" t="n"/>
       <c r="L51" s="218" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="303" t="n"/>
+      <c r="A52" s="328" t="n"/>
       <c r="B52" s="243" t="n"/>
-      <c r="D52" s="310" t="n"/>
-      <c r="E52" s="311" t="n"/>
+      <c r="D52" s="335" t="n"/>
+      <c r="E52" s="336" t="n"/>
       <c r="L52" s="218" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="303" t="n"/>
+      <c r="A53" s="328" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="310" t="n"/>
-      <c r="E53" s="311" t="n"/>
+      <c r="D53" s="335" t="n"/>
+      <c r="E53" s="336" t="n"/>
       <c r="L53" s="218" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="303" t="n"/>
+      <c r="A54" s="328" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="310" t="n"/>
-      <c r="E54" s="311" t="n"/>
+      <c r="D54" s="335" t="n"/>
+      <c r="E54" s="336" t="n"/>
       <c r="L54" s="218" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="303" t="n"/>
+      <c r="A55" s="328" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="E55" s="311" t="n"/>
+      <c r="E55" s="336" t="n"/>
       <c r="L55" s="218" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="303" t="n"/>
+      <c r="A56" s="328" t="n"/>
       <c r="B56" s="243" t="n"/>
-      <c r="D56" s="310" t="n"/>
-      <c r="E56" s="311" t="n"/>
+      <c r="D56" s="335" t="n"/>
+      <c r="E56" s="336" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="303" t="n"/>
+      <c r="A57" s="328" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="310" t="n"/>
-      <c r="E57" s="311" t="n"/>
+      <c r="D57" s="335" t="n"/>
+      <c r="E57" s="336" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -9188,11 +9207,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="303" t="n"/>
+      <c r="A58" s="328" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="237" t="n"/>
-      <c r="D58" s="310" t="n"/>
-      <c r="E58" s="311" t="n"/>
+      <c r="D58" s="335" t="n"/>
+      <c r="E58" s="336" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -9202,11 +9221,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="303" t="n"/>
+      <c r="A59" s="328" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="310" t="n"/>
-      <c r="E59" s="311" t="n"/>
+      <c r="D59" s="335" t="n"/>
+      <c r="E59" s="336" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -9216,11 +9235,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="303" t="n"/>
+      <c r="A60" s="328" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="310" t="n"/>
-      <c r="E60" s="311" t="n"/>
+      <c r="D60" s="335" t="n"/>
+      <c r="E60" s="336" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -9230,11 +9249,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="303" t="n"/>
+      <c r="A61" s="328" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="310" t="n"/>
-      <c r="E61" s="311" t="n"/>
+      <c r="D61" s="335" t="n"/>
+      <c r="E61" s="336" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -9244,11 +9263,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="303" t="n"/>
+      <c r="A62" s="328" t="n"/>
       <c r="B62" s="243" t="n"/>
       <c r="C62" s="243" t="n"/>
-      <c r="D62" s="310" t="n"/>
-      <c r="E62" s="311" t="n"/>
+      <c r="D62" s="335" t="n"/>
+      <c r="E62" s="336" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -9258,11 +9277,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="303" t="n"/>
+      <c r="A63" s="328" t="n"/>
       <c r="B63" s="243" t="n"/>
       <c r="C63" s="243" t="n"/>
-      <c r="D63" s="310" t="n"/>
-      <c r="E63" s="311" t="n"/>
+      <c r="D63" s="335" t="n"/>
+      <c r="E63" s="336" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="218" t="n"/>
@@ -9272,11 +9291,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="303" t="n"/>
+      <c r="A64" s="328" t="n"/>
       <c r="B64" s="243" t="n"/>
       <c r="C64" s="243" t="n"/>
-      <c r="D64" s="310" t="n"/>
-      <c r="E64" s="311" t="n"/>
+      <c r="D64" s="335" t="n"/>
+      <c r="E64" s="336" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="218" t="n"/>
@@ -9286,11 +9305,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="303" t="n"/>
+      <c r="A65" s="328" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="310" t="n"/>
-      <c r="E65" s="311" t="n"/>
+      <c r="D65" s="335" t="n"/>
+      <c r="E65" s="336" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="218" t="n"/>
@@ -9300,11 +9319,11 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="303" t="n"/>
+      <c r="A66" s="328" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
-      <c r="D66" s="310" t="n"/>
-      <c r="E66" s="311" t="n"/>
+      <c r="D66" s="335" t="n"/>
+      <c r="E66" s="336" t="n"/>
       <c r="G66" s="241" t="n"/>
       <c r="H66" s="242" t="n"/>
       <c r="I66" s="218" t="n"/>
@@ -9314,11 +9333,11 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="303" t="n"/>
+      <c r="A67" s="328" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
-      <c r="D67" s="310" t="n"/>
-      <c r="E67" s="311" t="n"/>
+      <c r="D67" s="335" t="n"/>
+      <c r="E67" s="336" t="n"/>
       <c r="G67" s="241" t="n"/>
       <c r="H67" s="242" t="n"/>
       <c r="I67" s="218" t="n"/>
@@ -9328,11 +9347,11 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="303" t="n"/>
+      <c r="A68" s="328" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
-      <c r="D68" s="310" t="n"/>
-      <c r="E68" s="311" t="n"/>
+      <c r="D68" s="335" t="n"/>
+      <c r="E68" s="336" t="n"/>
       <c r="G68" s="241" t="n"/>
       <c r="H68" s="242" t="n"/>
       <c r="I68" s="218" t="n"/>
@@ -9342,7 +9361,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="303" t="n"/>
+      <c r="A69" s="328" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -9356,7 +9375,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="240">
-      <c r="A70" s="303" t="n"/>
+      <c r="A70" s="328" t="n"/>
       <c r="B70" s="237" t="n"/>
       <c r="C70" s="237" t="n"/>
       <c r="D70" s="238" t="n"/>
@@ -9370,7 +9389,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="240">
-      <c r="A71" s="303" t="n"/>
+      <c r="A71" s="328" t="n"/>
       <c r="B71" s="237" t="n"/>
       <c r="C71" s="237" t="n"/>
       <c r="D71" s="238" t="n"/>
@@ -9384,7 +9403,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="240">
-      <c r="A72" s="303" t="n"/>
+      <c r="A72" s="328" t="n"/>
       <c r="B72" s="237" t="n"/>
       <c r="C72" s="237" t="n"/>
       <c r="D72" s="238" t="n"/>
@@ -9398,7 +9417,7 @@
       <c r="M72" s="243" t="n"/>
     </row>
     <row customFormat="1" r="73" s="237">
-      <c r="A73" s="303" t="n"/>
+      <c r="A73" s="328" t="n"/>
       <c r="D73" s="238" t="n"/>
       <c r="E73" s="239" t="n"/>
       <c r="F73" s="240" t="n"/>
@@ -9410,7 +9429,7 @@
       <c r="M73" s="243" t="n"/>
     </row>
     <row customFormat="1" r="74" s="237">
-      <c r="A74" s="303" t="n"/>
+      <c r="A74" s="328" t="n"/>
       <c r="D74" s="238" t="n"/>
       <c r="E74" s="239" t="n"/>
       <c r="F74" s="240" t="n"/>
@@ -9422,7 +9441,7 @@
       <c r="M74" s="243" t="n"/>
     </row>
     <row customFormat="1" r="75" s="237">
-      <c r="A75" s="303" t="n"/>
+      <c r="A75" s="328" t="n"/>
       <c r="D75" s="238" t="n"/>
       <c r="E75" s="239" t="n"/>
       <c r="F75" s="240" t="n"/>
@@ -9487,18 +9506,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="245" t="inlineStr">
+      <c r="A1" s="337" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="246" t="n"/>
-      <c r="C1" s="246" t="n"/>
-      <c r="D1" s="246" t="n"/>
-      <c r="E1" s="246" t="n"/>
-      <c r="F1" s="246" t="n"/>
-      <c r="G1" s="246" t="n"/>
-      <c r="H1" s="246" t="n"/>
+      <c r="B1" s="319" t="n"/>
+      <c r="C1" s="319" t="n"/>
+      <c r="D1" s="319" t="n"/>
+      <c r="E1" s="319" t="n"/>
+      <c r="F1" s="319" t="n"/>
+      <c r="G1" s="319" t="n"/>
+      <c r="H1" s="319" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
       <c r="A2" s="346" t="inlineStr">
@@ -9506,8 +9525,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="248" t="n"/>
-      <c r="J2" s="248" t="n"/>
+      <c r="I2" s="249" t="n"/>
+      <c r="J2" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
       <c r="A3" s="347" t="inlineStr">
@@ -9522,8 +9541,8 @@
       <c r="F3" s="348" t="n"/>
       <c r="G3" s="348" t="n"/>
       <c r="H3" s="348" t="n"/>
-      <c r="I3" s="250" t="n"/>
-      <c r="J3" s="250" t="n"/>
+      <c r="I3" s="266" t="n"/>
+      <c r="J3" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
       <c r="A4" s="349" t="inlineStr">
@@ -9542,13 +9561,13 @@
       <c r="F4" s="351" t="n"/>
       <c r="G4" s="351" t="n"/>
       <c r="H4" s="351" t="n"/>
-      <c r="I4" s="248" t="n"/>
-      <c r="J4" s="248" t="n"/>
+      <c r="I4" s="249" t="n"/>
+      <c r="J4" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
       <c r="A5" s="352" t="n"/>
-      <c r="I5" s="250" t="n"/>
-      <c r="J5" s="250" t="n"/>
+      <c r="I5" s="266" t="n"/>
+      <c r="J5" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
       <c r="A6" s="349" t="inlineStr">
@@ -9567,29 +9586,29 @@
       <c r="F6" s="351" t="n"/>
       <c r="G6" s="351" t="n"/>
       <c r="H6" s="351" t="n"/>
-      <c r="I6" s="250" t="n"/>
-      <c r="J6" s="250" t="n"/>
+      <c r="I6" s="266" t="n"/>
+      <c r="J6" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
       <c r="A7" s="352" t="n"/>
-      <c r="I7" s="250" t="n"/>
-      <c r="J7" s="250" t="n"/>
+      <c r="I7" s="266" t="n"/>
+      <c r="J7" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="262" t="inlineStr">
+      <c r="A8" s="344" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="263" t="n"/>
-      <c r="C8" s="263" t="n"/>
-      <c r="D8" s="263" t="n"/>
-      <c r="E8" s="263" t="n"/>
-      <c r="F8" s="263" t="n"/>
-      <c r="G8" s="263" t="n"/>
-      <c r="H8" s="264" t="n"/>
-      <c r="I8" s="250" t="n"/>
-      <c r="J8" s="250" t="n"/>
+      <c r="B8" s="303" t="n"/>
+      <c r="C8" s="303" t="n"/>
+      <c r="D8" s="303" t="n"/>
+      <c r="E8" s="303" t="n"/>
+      <c r="F8" s="303" t="n"/>
+      <c r="G8" s="303" t="n"/>
+      <c r="H8" s="304" t="n"/>
+      <c r="I8" s="266" t="n"/>
+      <c r="J8" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
       <c r="A9" s="353" t="inlineStr">
@@ -9607,28 +9626,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="268" t="inlineStr">
+      <c r="D9" s="279" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="269" t="inlineStr">
+      <c r="E9" s="280" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="270" t="inlineStr">
+      <c r="F9" s="281" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="271" t="inlineStr">
+      <c r="G9" s="282" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="272" t="inlineStr">
+      <c r="H9" s="283" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -9641,7 +9660,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="273">
+      <c r="A10" s="284">
         <f>J9</f>
         <v/>
       </c>
@@ -9655,7 +9674,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="275">
+      <c r="D10" s="286">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -9674,7 +9693,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="273">
+      <c r="A11" s="284">
         <f>J10</f>
         <v/>
       </c>
@@ -9688,7 +9707,7 @@
           <t>会议开场 &amp; 欢迎</t>
         </is>
       </c>
-      <c r="D11" s="278">
+      <c r="D11" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9715,10 +9734,10 @@
       </c>
     </row>
     <row customHeight="1" ht="1.5" r="12" s="244">
-      <c r="A12" s="273" t="n"/>
+      <c r="A12" s="284" t="n"/>
       <c r="B12" s="355" t="n"/>
       <c r="C12" s="358" t="n"/>
-      <c r="D12" s="278" t="n"/>
+      <c r="D12" s="289" t="n"/>
       <c r="E12" s="76" t="n"/>
       <c r="F12" s="151" t="n"/>
       <c r="G12" s="152" t="n"/>
@@ -9732,7 +9751,7 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="13" s="244">
-      <c r="A13" s="273">
+      <c r="A13" s="284">
         <f>J12</f>
         <v/>
       </c>
@@ -9746,7 +9765,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="278">
+      <c r="D13" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9771,7 +9790,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="273">
+      <c r="A14" s="284">
         <f>J13</f>
         <v/>
       </c>
@@ -9785,7 +9804,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="278">
+      <c r="D14" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9807,10 +9826,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="248" t="n"/>
+      <c r="L14" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="273">
+      <c r="A15" s="284">
         <f>J14</f>
         <v/>
       </c>
@@ -9824,7 +9843,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -9844,10 +9863,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="248" t="n"/>
+      <c r="L15" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="273">
+      <c r="A16" s="284">
         <f>J15</f>
         <v/>
       </c>
@@ -9861,7 +9880,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="278">
+      <c r="D16" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -9881,10 +9900,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="248" t="n"/>
+      <c r="L16" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="17" s="244">
-      <c r="A17" s="273">
+      <c r="A17" s="284">
         <f>J16</f>
         <v/>
       </c>
@@ -9898,7 +9917,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="278">
+      <c r="D17" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -9922,10 +9941,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="248" t="n"/>
+      <c r="L17" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="273">
+      <c r="A18" s="284">
         <f>J17</f>
         <v/>
       </c>
@@ -9939,7 +9958,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="278">
+      <c r="D18" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9960,7 +9979,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="280">
+      <c r="A19" s="291">
         <f>J18</f>
         <v/>
       </c>
@@ -9974,7 +9993,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="278">
+      <c r="D19" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9995,18 +10014,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="282" t="inlineStr">
+      <c r="A20" s="302" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="263" t="n"/>
-      <c r="C20" s="263" t="n"/>
-      <c r="D20" s="263" t="n"/>
-      <c r="E20" s="263" t="n"/>
-      <c r="F20" s="263" t="n"/>
-      <c r="G20" s="263" t="n"/>
-      <c r="H20" s="264" t="n"/>
+      <c r="B20" s="303" t="n"/>
+      <c r="C20" s="303" t="n"/>
+      <c r="D20" s="303" t="n"/>
+      <c r="E20" s="303" t="n"/>
+      <c r="F20" s="303" t="n"/>
+      <c r="G20" s="303" t="n"/>
+      <c r="H20" s="304" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -10016,7 +10035,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="273">
+      <c r="A21" s="284">
         <f>J20</f>
         <v/>
       </c>
@@ -10030,7 +10049,7 @@
           <t>主题介绍 &amp; 即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="283">
+      <c r="D21" s="296">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -10055,7 +10074,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="273">
+      <c r="A22" s="284">
         <f>J21</f>
         <v/>
       </c>
@@ -10069,7 +10088,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="278">
+      <c r="D22" s="289">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -10102,7 +10121,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="273">
+      <c r="A23" s="284">
         <f>J22</f>
         <v/>
       </c>
@@ -10116,7 +10135,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="278">
+      <c r="D23" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10139,7 +10158,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="284">
+      <c r="A24" s="297">
         <f>J23</f>
         <v/>
       </c>
@@ -10153,7 +10172,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="286">
+      <c r="D24" s="299">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10176,18 +10195,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="282" t="inlineStr">
+      <c r="A25" s="302" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="263" t="n"/>
-      <c r="C25" s="263" t="n"/>
-      <c r="D25" s="263" t="n"/>
-      <c r="E25" s="263" t="n"/>
-      <c r="F25" s="263" t="n"/>
-      <c r="G25" s="263" t="n"/>
-      <c r="H25" s="264" t="n"/>
+      <c r="B25" s="303" t="n"/>
+      <c r="C25" s="303" t="n"/>
+      <c r="D25" s="303" t="n"/>
+      <c r="E25" s="303" t="n"/>
+      <c r="F25" s="303" t="n"/>
+      <c r="G25" s="303" t="n"/>
+      <c r="H25" s="304" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -10196,10 +10215,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="248" t="n"/>
+      <c r="L25" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="273">
+      <c r="A26" s="284">
         <f>J25</f>
         <v/>
       </c>
@@ -10213,7 +10232,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="283">
+      <c r="D26" s="296">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10235,10 +10254,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="248" t="n"/>
+      <c r="L26" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="273">
+      <c r="A27" s="284">
         <f>J26</f>
         <v/>
       </c>
@@ -10253,7 +10272,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="288">
+      <c r="D27" s="301">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -10285,31 +10304,31 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="248" t="n"/>
+      <c r="L27" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244" thickBot="1">
-      <c r="A28" s="282" t="inlineStr">
+      <c r="A28" s="302" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B28" s="263" t="n"/>
-      <c r="C28" s="263" t="n"/>
-      <c r="D28" s="263" t="n"/>
-      <c r="E28" s="263" t="n"/>
-      <c r="F28" s="263" t="n"/>
-      <c r="G28" s="263" t="n"/>
-      <c r="H28" s="264" t="n"/>
+      <c r="B28" s="303" t="n"/>
+      <c r="C28" s="303" t="n"/>
+      <c r="D28" s="303" t="n"/>
+      <c r="E28" s="303" t="n"/>
+      <c r="F28" s="303" t="n"/>
+      <c r="G28" s="303" t="n"/>
+      <c r="H28" s="304" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="248" t="n"/>
+      <c r="L28" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="244">
-      <c r="A29" s="273">
+      <c r="A29" s="284">
         <f>J28</f>
         <v/>
       </c>
@@ -10323,7 +10342,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D29" s="283">
+      <c r="D29" s="296">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10345,10 +10364,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="248" t="n"/>
+      <c r="L29" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244">
-      <c r="A30" s="273">
+      <c r="A30" s="284">
         <f>J29</f>
         <v/>
       </c>
@@ -10362,11 +10381,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D30" s="283">
+      <c r="D30" s="296">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="289" t="inlineStr">
+      <c r="E30" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -10388,10 +10407,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="248" t="n"/>
+      <c r="L30" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="31" s="244">
-      <c r="A31" s="273">
+      <c r="A31" s="284">
         <f>J30</f>
         <v/>
       </c>
@@ -10405,7 +10424,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D31" s="278">
+      <c r="D31" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -10429,10 +10448,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="290" t="n"/>
+      <c r="L31" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="32" s="244">
-      <c r="A32" s="273">
+      <c r="A32" s="284">
         <f>J31</f>
         <v/>
       </c>
@@ -10446,7 +10465,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D32" s="278">
+      <c r="D32" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -10472,10 +10491,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="290" t="n"/>
+      <c r="L32" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="273">
+      <c r="A33" s="284">
         <f>J32</f>
         <v/>
       </c>
@@ -10489,7 +10508,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D33" s="278">
+      <c r="D33" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -10513,10 +10532,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="290" t="n"/>
+      <c r="L33" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="34" s="244">
-      <c r="A34" s="273">
+      <c r="A34" s="284">
         <f>J33</f>
         <v/>
       </c>
@@ -10530,7 +10549,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D34" s="278">
+      <c r="D34" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -10550,10 +10569,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="290" t="n"/>
+      <c r="L34" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="273">
+      <c r="A35" s="284">
         <f>J34</f>
         <v/>
       </c>
@@ -10567,7 +10586,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D35" s="278">
+      <c r="D35" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10599,24 +10618,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="290" t="n"/>
+      <c r="L35" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="273">
+      <c r="A36" s="284">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="279" t="inlineStr">
+      <c r="B36" s="290" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C36" s="276" t="inlineStr">
+      <c r="C36" s="287" t="inlineStr">
         <is>
           <t>总结 &amp; 会议结束致辞</t>
         </is>
       </c>
-      <c r="D36" s="278">
+      <c r="D36" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10648,24 +10667,24 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="290" t="n"/>
+      <c r="L36" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="37" s="244" thickBot="1">
-      <c r="A37" s="291">
+      <c r="A37" s="315">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="292" t="inlineStr">
+      <c r="B37" s="316" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C37" s="293" t="inlineStr">
+      <c r="C37" s="317" t="inlineStr">
         <is>
           <t>颁奖</t>
         </is>
       </c>
-      <c r="D37" s="278">
+      <c r="D37" s="289">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -10690,14 +10709,14 @@
       <c r="L37" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="244">
-      <c r="A38" s="294" t="n"/>
-      <c r="B38" s="246" t="n"/>
-      <c r="C38" s="246" t="n"/>
-      <c r="D38" s="246" t="n"/>
+      <c r="A38" s="318" t="n"/>
+      <c r="B38" s="319" t="n"/>
+      <c r="C38" s="319" t="n"/>
+      <c r="D38" s="319" t="n"/>
       <c r="E38" s="243" t="n"/>
-      <c r="F38" s="295" t="n"/>
-      <c r="G38" s="296" t="n"/>
-      <c r="H38" s="297" t="n"/>
+      <c r="F38" s="320" t="n"/>
+      <c r="G38" s="321" t="n"/>
+      <c r="H38" s="322" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
@@ -10712,14 +10731,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D39" s="299" t="n"/>
+      <c r="D39" s="324" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="300" t="inlineStr">
+      <c r="J39" s="325" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="301" t="n"/>
+      <c r="K39" s="326" t="n"/>
       <c r="L39" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="244">
@@ -10733,91 +10752,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="300" t="n"/>
+      <c r="J40" s="325" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="244">
-      <c r="A41" s="303" t="n"/>
+      <c r="A41" s="328" t="n"/>
       <c r="B41" s="243" t="n"/>
-      <c r="D41" s="304" t="n"/>
-      <c r="E41" s="305" t="n"/>
-      <c r="F41" s="305" t="n"/>
-      <c r="G41" s="305" t="n"/>
-      <c r="H41" s="305" t="n"/>
+      <c r="D41" s="329" t="n"/>
+      <c r="E41" s="330" t="n"/>
+      <c r="F41" s="330" t="n"/>
+      <c r="G41" s="330" t="n"/>
+      <c r="H41" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="244">
-      <c r="A42" s="303" t="n"/>
+      <c r="A42" s="328" t="n"/>
       <c r="B42" s="243" t="n"/>
       <c r="C42" s="243" t="n"/>
-      <c r="D42" s="304" t="n"/>
-      <c r="F42" s="305" t="n"/>
-      <c r="G42" s="305" t="n"/>
-      <c r="H42" s="305" t="n"/>
+      <c r="D42" s="329" t="n"/>
+      <c r="F42" s="330" t="n"/>
+      <c r="G42" s="330" t="n"/>
+      <c r="H42" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="244">
-      <c r="A43" s="303" t="n"/>
+      <c r="A43" s="328" t="n"/>
       <c r="B43" s="243" t="n"/>
       <c r="C43" s="243" t="n"/>
-      <c r="D43" s="306" t="n"/>
-      <c r="E43" s="307" t="n"/>
-      <c r="F43" s="308" t="n"/>
-      <c r="G43" s="309" t="n"/>
+      <c r="D43" s="331" t="n"/>
+      <c r="E43" s="332" t="n"/>
+      <c r="F43" s="333" t="n"/>
+      <c r="G43" s="334" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="303" t="n"/>
+      <c r="A44" s="328" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="310" t="n"/>
-      <c r="E44" s="311" t="n"/>
+      <c r="D44" s="335" t="n"/>
+      <c r="E44" s="336" t="n"/>
       <c r="L44" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="303" t="n"/>
+      <c r="A45" s="328" t="n"/>
       <c r="B45" s="243" t="n"/>
-      <c r="D45" s="310" t="n"/>
-      <c r="E45" s="311" t="n"/>
+      <c r="D45" s="335" t="n"/>
+      <c r="E45" s="336" t="n"/>
       <c r="L45" s="218" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="303" t="n"/>
+      <c r="A46" s="328" t="n"/>
       <c r="B46" s="243" t="n"/>
-      <c r="D46" s="310" t="n"/>
-      <c r="E46" s="311" t="n"/>
+      <c r="D46" s="335" t="n"/>
+      <c r="E46" s="336" t="n"/>
       <c r="L46" s="218" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="303" t="n"/>
+      <c r="A47" s="328" t="n"/>
       <c r="B47" s="243" t="n"/>
       <c r="C47" s="243" t="n"/>
-      <c r="D47" s="310" t="n"/>
-      <c r="E47" s="311" t="n"/>
+      <c r="D47" s="335" t="n"/>
+      <c r="E47" s="336" t="n"/>
       <c r="L47" s="218" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="303" t="n"/>
+      <c r="A48" s="328" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="310" t="n"/>
-      <c r="E48" s="311" t="n"/>
+      <c r="D48" s="335" t="n"/>
+      <c r="E48" s="336" t="n"/>
       <c r="L48" s="218" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="303" t="n"/>
+      <c r="A49" s="328" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="E49" s="311" t="n"/>
+      <c r="E49" s="336" t="n"/>
       <c r="L49" s="218" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="303" t="n"/>
+      <c r="A50" s="328" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="310" t="n"/>
-      <c r="E50" s="311" t="n"/>
+      <c r="D50" s="335" t="n"/>
+      <c r="E50" s="336" t="n"/>
     </row>
     <row customFormat="1" r="51" s="240">
-      <c r="A51" s="303" t="n"/>
+      <c r="A51" s="328" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="310" t="n"/>
-      <c r="E51" s="311" t="n"/>
+      <c r="D51" s="335" t="n"/>
+      <c r="E51" s="336" t="n"/>
       <c r="G51" s="241" t="n"/>
       <c r="H51" s="242" t="n"/>
       <c r="I51" s="218" t="n"/>
@@ -10827,11 +10846,11 @@
       <c r="M51" s="243" t="n"/>
     </row>
     <row customFormat="1" r="52" s="240">
-      <c r="A52" s="303" t="n"/>
+      <c r="A52" s="328" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="237" t="n"/>
-      <c r="D52" s="310" t="n"/>
-      <c r="E52" s="311" t="n"/>
+      <c r="D52" s="335" t="n"/>
+      <c r="E52" s="336" t="n"/>
       <c r="G52" s="241" t="n"/>
       <c r="H52" s="242" t="n"/>
       <c r="I52" s="218" t="n"/>
@@ -10841,11 +10860,11 @@
       <c r="M52" s="243" t="n"/>
     </row>
     <row customFormat="1" r="53" s="240">
-      <c r="A53" s="303" t="n"/>
+      <c r="A53" s="328" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="310" t="n"/>
-      <c r="E53" s="311" t="n"/>
+      <c r="D53" s="335" t="n"/>
+      <c r="E53" s="336" t="n"/>
       <c r="G53" s="241" t="n"/>
       <c r="H53" s="242" t="n"/>
       <c r="I53" s="218" t="n"/>
@@ -10855,11 +10874,11 @@
       <c r="M53" s="243" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="303" t="n"/>
+      <c r="A54" s="328" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="310" t="n"/>
-      <c r="E54" s="311" t="n"/>
+      <c r="D54" s="335" t="n"/>
+      <c r="E54" s="336" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="218" t="n"/>
@@ -10869,11 +10888,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="303" t="n"/>
+      <c r="A55" s="328" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="D55" s="310" t="n"/>
-      <c r="E55" s="311" t="n"/>
+      <c r="D55" s="335" t="n"/>
+      <c r="E55" s="336" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="218" t="n"/>
@@ -10883,11 +10902,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="303" t="n"/>
+      <c r="A56" s="328" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="310" t="n"/>
-      <c r="E56" s="311" t="n"/>
+      <c r="D56" s="335" t="n"/>
+      <c r="E56" s="336" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="218" t="n"/>
@@ -10897,11 +10916,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="303" t="n"/>
+      <c r="A57" s="328" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="310" t="n"/>
-      <c r="E57" s="311" t="n"/>
+      <c r="D57" s="335" t="n"/>
+      <c r="E57" s="336" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -10911,11 +10930,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="303" t="n"/>
+      <c r="A58" s="328" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="310" t="n"/>
-      <c r="E58" s="311" t="n"/>
+      <c r="D58" s="335" t="n"/>
+      <c r="E58" s="336" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -10925,11 +10944,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="303" t="n"/>
+      <c r="A59" s="328" t="n"/>
       <c r="B59" s="237" t="n"/>
       <c r="C59" s="237" t="n"/>
-      <c r="D59" s="310" t="n"/>
-      <c r="E59" s="311" t="n"/>
+      <c r="D59" s="335" t="n"/>
+      <c r="E59" s="336" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -10939,11 +10958,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="303" t="n"/>
+      <c r="A60" s="328" t="n"/>
       <c r="B60" s="237" t="n"/>
       <c r="C60" s="237" t="n"/>
-      <c r="D60" s="310" t="n"/>
-      <c r="E60" s="311" t="n"/>
+      <c r="D60" s="335" t="n"/>
+      <c r="E60" s="336" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -10953,11 +10972,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="303" t="n"/>
+      <c r="A61" s="328" t="n"/>
       <c r="B61" s="237" t="n"/>
       <c r="C61" s="237" t="n"/>
-      <c r="D61" s="310" t="n"/>
-      <c r="E61" s="311" t="n"/>
+      <c r="D61" s="335" t="n"/>
+      <c r="E61" s="336" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -10967,11 +10986,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="303" t="n"/>
+      <c r="A62" s="328" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="310" t="n"/>
-      <c r="E62" s="311" t="n"/>
+      <c r="D62" s="335" t="n"/>
+      <c r="E62" s="336" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -10981,7 +11000,7 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="303" t="n"/>
+      <c r="A63" s="328" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
       <c r="D63" s="238" t="n"/>
@@ -10995,7 +11014,7 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="303" t="n"/>
+      <c r="A64" s="328" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
       <c r="D64" s="238" t="n"/>
@@ -11009,7 +11028,7 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="303" t="n"/>
+      <c r="A65" s="328" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
       <c r="D65" s="238" t="n"/>
@@ -11023,7 +11042,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="303" t="n"/>
+      <c r="A66" s="328" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -11037,7 +11056,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="237">
-      <c r="A67" s="303" t="n"/>
+      <c r="A67" s="328" t="n"/>
       <c r="D67" s="238" t="n"/>
       <c r="E67" s="239" t="n"/>
       <c r="F67" s="240" t="n"/>
@@ -11049,7 +11068,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="237">
-      <c r="A68" s="303" t="n"/>
+      <c r="A68" s="328" t="n"/>
       <c r="D68" s="238" t="n"/>
       <c r="E68" s="239" t="n"/>
       <c r="F68" s="240" t="n"/>
@@ -11061,7 +11080,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="237">
-      <c r="A69" s="303" t="n"/>
+      <c r="A69" s="328" t="n"/>
       <c r="D69" s="238" t="n"/>
       <c r="E69" s="239" t="n"/>
       <c r="F69" s="240" t="n"/>
@@ -11128,18 +11147,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="245" t="inlineStr">
+      <c r="A1" s="337" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="246" t="n"/>
-      <c r="C1" s="246" t="n"/>
-      <c r="D1" s="246" t="n"/>
-      <c r="E1" s="246" t="n"/>
-      <c r="F1" s="246" t="n"/>
-      <c r="G1" s="246" t="n"/>
-      <c r="H1" s="246" t="n"/>
+      <c r="B1" s="319" t="n"/>
+      <c r="C1" s="319" t="n"/>
+      <c r="D1" s="319" t="n"/>
+      <c r="E1" s="319" t="n"/>
+      <c r="F1" s="319" t="n"/>
+      <c r="G1" s="319" t="n"/>
+      <c r="H1" s="319" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
       <c r="A2" s="346" t="inlineStr">
@@ -11147,8 +11166,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="248" t="n"/>
-      <c r="J2" s="248" t="n"/>
+      <c r="I2" s="249" t="n"/>
+      <c r="J2" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
       <c r="A3" s="347" t="inlineStr">
@@ -11163,8 +11182,8 @@
       <c r="F3" s="348" t="n"/>
       <c r="G3" s="348" t="n"/>
       <c r="H3" s="348" t="n"/>
-      <c r="I3" s="250" t="n"/>
-      <c r="J3" s="250" t="n"/>
+      <c r="I3" s="266" t="n"/>
+      <c r="J3" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
       <c r="A4" s="349" t="inlineStr">
@@ -11183,13 +11202,13 @@
       <c r="F4" s="351" t="n"/>
       <c r="G4" s="351" t="n"/>
       <c r="H4" s="351" t="n"/>
-      <c r="I4" s="248" t="n"/>
-      <c r="J4" s="248" t="n"/>
+      <c r="I4" s="249" t="n"/>
+      <c r="J4" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
       <c r="A5" s="352" t="n"/>
-      <c r="I5" s="250" t="n"/>
-      <c r="J5" s="250" t="n"/>
+      <c r="I5" s="266" t="n"/>
+      <c r="J5" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
       <c r="A6" s="349" t="inlineStr">
@@ -11208,29 +11227,29 @@
       <c r="F6" s="351" t="n"/>
       <c r="G6" s="351" t="n"/>
       <c r="H6" s="351" t="n"/>
-      <c r="I6" s="250" t="n"/>
-      <c r="J6" s="250" t="n"/>
+      <c r="I6" s="266" t="n"/>
+      <c r="J6" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
       <c r="A7" s="352" t="n"/>
-      <c r="I7" s="250" t="n"/>
-      <c r="J7" s="250" t="n"/>
+      <c r="I7" s="266" t="n"/>
+      <c r="J7" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="262" t="inlineStr">
+      <c r="A8" s="344" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="263" t="n"/>
-      <c r="C8" s="263" t="n"/>
-      <c r="D8" s="263" t="n"/>
-      <c r="E8" s="263" t="n"/>
-      <c r="F8" s="263" t="n"/>
-      <c r="G8" s="263" t="n"/>
-      <c r="H8" s="264" t="n"/>
-      <c r="I8" s="250" t="n"/>
-      <c r="J8" s="250" t="n"/>
+      <c r="B8" s="303" t="n"/>
+      <c r="C8" s="303" t="n"/>
+      <c r="D8" s="303" t="n"/>
+      <c r="E8" s="303" t="n"/>
+      <c r="F8" s="303" t="n"/>
+      <c r="G8" s="303" t="n"/>
+      <c r="H8" s="304" t="n"/>
+      <c r="I8" s="266" t="n"/>
+      <c r="J8" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
       <c r="A9" s="353" t="inlineStr">
@@ -11248,28 +11267,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="268" t="inlineStr">
+      <c r="D9" s="279" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="269" t="inlineStr">
+      <c r="E9" s="280" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="270" t="inlineStr">
+      <c r="F9" s="281" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="271" t="inlineStr">
+      <c r="G9" s="282" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="272" t="inlineStr">
+      <c r="H9" s="283" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -11282,7 +11301,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="273">
+      <c r="A10" s="284">
         <f>J9</f>
         <v/>
       </c>
@@ -11296,7 +11315,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="275">
+      <c r="D10" s="286">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -11315,7 +11334,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="273">
+      <c r="A11" s="284">
         <f>J10</f>
         <v/>
       </c>
@@ -11329,7 +11348,7 @@
           <t>会议开场 &amp; 欢迎</t>
         </is>
       </c>
-      <c r="D11" s="278">
+      <c r="D11" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11356,10 +11375,10 @@
       </c>
     </row>
     <row customHeight="1" ht="1.5" r="12" s="244">
-      <c r="A12" s="273" t="n"/>
+      <c r="A12" s="284" t="n"/>
       <c r="B12" s="355" t="n"/>
       <c r="C12" s="358" t="n"/>
-      <c r="D12" s="278" t="n"/>
+      <c r="D12" s="289" t="n"/>
       <c r="E12" s="76" t="n"/>
       <c r="F12" s="151" t="n"/>
       <c r="G12" s="152" t="n"/>
@@ -11373,7 +11392,7 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="13" s="244">
-      <c r="A13" s="273">
+      <c r="A13" s="284">
         <f>J12</f>
         <v/>
       </c>
@@ -11387,7 +11406,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="278">
+      <c r="D13" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11412,7 +11431,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="273">
+      <c r="A14" s="284">
         <f>J13</f>
         <v/>
       </c>
@@ -11426,7 +11445,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="278">
+      <c r="D14" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11448,10 +11467,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="248" t="n"/>
+      <c r="L14" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="273">
+      <c r="A15" s="284">
         <f>J14</f>
         <v/>
       </c>
@@ -11465,7 +11484,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -11485,10 +11504,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="248" t="n"/>
+      <c r="L15" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="273">
+      <c r="A16" s="284">
         <f>J15</f>
         <v/>
       </c>
@@ -11502,7 +11521,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="278">
+      <c r="D16" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -11522,10 +11541,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="248" t="n"/>
+      <c r="L16" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="17" s="244">
-      <c r="A17" s="273">
+      <c r="A17" s="284">
         <f>J16</f>
         <v/>
       </c>
@@ -11539,7 +11558,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="278">
+      <c r="D17" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -11563,10 +11582,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="248" t="n"/>
+      <c r="L17" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="273">
+      <c r="A18" s="284">
         <f>J17</f>
         <v/>
       </c>
@@ -11580,7 +11599,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="278">
+      <c r="D18" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11601,7 +11620,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="280">
+      <c r="A19" s="291">
         <f>J18</f>
         <v/>
       </c>
@@ -11615,7 +11634,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="278">
+      <c r="D19" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11636,18 +11655,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="282" t="inlineStr">
+      <c r="A20" s="302" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="263" t="n"/>
-      <c r="C20" s="263" t="n"/>
-      <c r="D20" s="263" t="n"/>
-      <c r="E20" s="263" t="n"/>
-      <c r="F20" s="263" t="n"/>
-      <c r="G20" s="263" t="n"/>
-      <c r="H20" s="264" t="n"/>
+      <c r="B20" s="303" t="n"/>
+      <c r="C20" s="303" t="n"/>
+      <c r="D20" s="303" t="n"/>
+      <c r="E20" s="303" t="n"/>
+      <c r="F20" s="303" t="n"/>
+      <c r="G20" s="303" t="n"/>
+      <c r="H20" s="304" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -11657,7 +11676,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="273">
+      <c r="A21" s="284">
         <f>J20</f>
         <v/>
       </c>
@@ -11671,7 +11690,7 @@
           <t>主题介绍 &amp; 即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="283">
+      <c r="D21" s="296">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -11696,7 +11715,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="273">
+      <c r="A22" s="284">
         <f>J21</f>
         <v/>
       </c>
@@ -11710,7 +11729,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="278">
+      <c r="D22" s="289">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -11743,7 +11762,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="273">
+      <c r="A23" s="284">
         <f>J22</f>
         <v/>
       </c>
@@ -11757,7 +11776,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="278">
+      <c r="D23" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11780,7 +11799,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="284">
+      <c r="A24" s="297">
         <f>J23</f>
         <v/>
       </c>
@@ -11794,7 +11813,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="286">
+      <c r="D24" s="299">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11817,18 +11836,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="282" t="inlineStr">
+      <c r="A25" s="302" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="263" t="n"/>
-      <c r="C25" s="263" t="n"/>
-      <c r="D25" s="263" t="n"/>
-      <c r="E25" s="263" t="n"/>
-      <c r="F25" s="263" t="n"/>
-      <c r="G25" s="263" t="n"/>
-      <c r="H25" s="264" t="n"/>
+      <c r="B25" s="303" t="n"/>
+      <c r="C25" s="303" t="n"/>
+      <c r="D25" s="303" t="n"/>
+      <c r="E25" s="303" t="n"/>
+      <c r="F25" s="303" t="n"/>
+      <c r="G25" s="303" t="n"/>
+      <c r="H25" s="304" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -11837,10 +11856,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="248" t="n"/>
+      <c r="L25" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="273">
+      <c r="A26" s="284">
         <f>J25</f>
         <v/>
       </c>
@@ -11854,7 +11873,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="283">
+      <c r="D26" s="296">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11876,10 +11895,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="248" t="n"/>
+      <c r="L26" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="273">
+      <c r="A27" s="284">
         <f>J26</f>
         <v/>
       </c>
@@ -11894,7 +11913,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="288">
+      <c r="D27" s="301">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -11926,10 +11945,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="248" t="n"/>
+      <c r="L27" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="273">
+      <c r="A28" s="284">
         <f>J27</f>
         <v/>
       </c>
@@ -11943,7 +11962,7 @@
           <t>介绍二号备稿演讲者</t>
         </is>
       </c>
-      <c r="D28" s="283">
+      <c r="D28" s="296">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11965,10 +11984,10 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="248" t="n"/>
+      <c r="L28" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="29" s="244" thickBot="1">
-      <c r="A29" s="273">
+      <c r="A29" s="284">
         <f>J28</f>
         <v/>
       </c>
@@ -11983,7 +12002,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D29" s="288">
+      <c r="D29" s="301">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -12015,31 +12034,31 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="248" t="n"/>
+      <c r="L29" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244" thickBot="1">
-      <c r="A30" s="282" t="inlineStr">
+      <c r="A30" s="302" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B30" s="263" t="n"/>
-      <c r="C30" s="263" t="n"/>
-      <c r="D30" s="263" t="n"/>
-      <c r="E30" s="263" t="n"/>
-      <c r="F30" s="263" t="n"/>
-      <c r="G30" s="263" t="n"/>
-      <c r="H30" s="264" t="n"/>
+      <c r="B30" s="303" t="n"/>
+      <c r="C30" s="303" t="n"/>
+      <c r="D30" s="303" t="n"/>
+      <c r="E30" s="303" t="n"/>
+      <c r="F30" s="303" t="n"/>
+      <c r="G30" s="303" t="n"/>
+      <c r="H30" s="304" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J27+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="248" t="n"/>
+      <c r="L30" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="244">
-      <c r="A31" s="273">
+      <c r="A31" s="284">
         <f>J30</f>
         <v/>
       </c>
@@ -12053,7 +12072,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D31" s="283">
+      <c r="D31" s="296">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12075,10 +12094,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="248" t="n"/>
+      <c r="L31" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244">
-      <c r="A32" s="273">
+      <c r="A32" s="284">
         <f>J30</f>
         <v/>
       </c>
@@ -12092,11 +12111,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D32" s="283">
+      <c r="D32" s="296">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="289" t="inlineStr">
+      <c r="E32" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -12118,10 +12137,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="248" t="n"/>
+      <c r="L32" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="273">
+      <c r="A33" s="284">
         <f>J31</f>
         <v/>
       </c>
@@ -12135,11 +12154,11 @@
           <t>点评二号备稿演讲</t>
         </is>
       </c>
-      <c r="D33" s="283">
+      <c r="D33" s="296">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="289" t="inlineStr">
+      <c r="E33" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -12161,10 +12180,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="248" t="n"/>
+      <c r="L33" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="34" s="244">
-      <c r="A34" s="273">
+      <c r="A34" s="284">
         <f>J33</f>
         <v/>
       </c>
@@ -12178,7 +12197,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D34" s="278">
+      <c r="D34" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -12202,10 +12221,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="290" t="n"/>
+      <c r="L34" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="35" s="244">
-      <c r="A35" s="273">
+      <c r="A35" s="284">
         <f>J34</f>
         <v/>
       </c>
@@ -12219,7 +12238,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D35" s="278">
+      <c r="D35" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -12245,10 +12264,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="290" t="n"/>
+      <c r="L35" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="273">
+      <c r="A36" s="284">
         <f>J35</f>
         <v/>
       </c>
@@ -12262,7 +12281,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D36" s="278">
+      <c r="D36" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -12286,10 +12305,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="290" t="n"/>
+      <c r="L36" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="37" s="244">
-      <c r="A37" s="273">
+      <c r="A37" s="284">
         <f>J36</f>
         <v/>
       </c>
@@ -12303,7 +12322,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D37" s="278">
+      <c r="D37" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -12323,10 +12342,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="290" t="n"/>
+      <c r="L37" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="273">
+      <c r="A38" s="284">
         <f>J37</f>
         <v/>
       </c>
@@ -12340,7 +12359,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D38" s="278">
+      <c r="D38" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12372,24 +12391,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="290" t="n"/>
+      <c r="L38" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244">
-      <c r="A39" s="273">
+      <c r="A39" s="284">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="279" t="inlineStr">
+      <c r="B39" s="290" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C39" s="276" t="inlineStr">
+      <c r="C39" s="287" t="inlineStr">
         <is>
           <t>总结 &amp; 会议结束致辞</t>
         </is>
       </c>
-      <c r="D39" s="278">
+      <c r="D39" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -12421,24 +12440,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="290" t="n"/>
+      <c r="L39" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="40" s="244" thickBot="1">
-      <c r="A40" s="291">
+      <c r="A40" s="315">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="292" t="inlineStr">
+      <c r="B40" s="316" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C40" s="293" t="inlineStr">
+      <c r="C40" s="317" t="inlineStr">
         <is>
           <t>颁奖</t>
         </is>
       </c>
-      <c r="D40" s="278">
+      <c r="D40" s="289">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -12463,14 +12482,14 @@
       <c r="L40" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="244">
-      <c r="A41" s="294" t="n"/>
-      <c r="B41" s="246" t="n"/>
-      <c r="C41" s="246" t="n"/>
-      <c r="D41" s="246" t="n"/>
+      <c r="A41" s="318" t="n"/>
+      <c r="B41" s="319" t="n"/>
+      <c r="C41" s="319" t="n"/>
+      <c r="D41" s="319" t="n"/>
       <c r="E41" s="243" t="n"/>
-      <c r="F41" s="295" t="n"/>
-      <c r="G41" s="296" t="n"/>
-      <c r="H41" s="297" t="n"/>
+      <c r="F41" s="320" t="n"/>
+      <c r="G41" s="321" t="n"/>
+      <c r="H41" s="322" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
@@ -12485,14 +12504,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D42" s="299" t="n"/>
+      <c r="D42" s="324" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="300" t="inlineStr">
+      <c r="J42" s="325" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="301" t="n"/>
+      <c r="K42" s="326" t="n"/>
       <c r="L42" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="244">
@@ -12506,91 +12525,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="300" t="n"/>
+      <c r="J43" s="325" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="303" t="n"/>
+      <c r="A44" s="328" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="304" t="n"/>
-      <c r="E44" s="305" t="n"/>
-      <c r="F44" s="305" t="n"/>
-      <c r="G44" s="305" t="n"/>
-      <c r="H44" s="305" t="n"/>
+      <c r="D44" s="329" t="n"/>
+      <c r="E44" s="330" t="n"/>
+      <c r="F44" s="330" t="n"/>
+      <c r="G44" s="330" t="n"/>
+      <c r="H44" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="303" t="n"/>
+      <c r="A45" s="328" t="n"/>
       <c r="B45" s="243" t="n"/>
       <c r="C45" s="243" t="n"/>
-      <c r="D45" s="304" t="n"/>
-      <c r="F45" s="305" t="n"/>
-      <c r="G45" s="305" t="n"/>
-      <c r="H45" s="305" t="n"/>
+      <c r="D45" s="329" t="n"/>
+      <c r="F45" s="330" t="n"/>
+      <c r="G45" s="330" t="n"/>
+      <c r="H45" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="244">
-      <c r="A46" s="303" t="n"/>
+      <c r="A46" s="328" t="n"/>
       <c r="B46" s="243" t="n"/>
       <c r="C46" s="243" t="n"/>
-      <c r="D46" s="306" t="n"/>
-      <c r="E46" s="307" t="n"/>
-      <c r="F46" s="308" t="n"/>
-      <c r="G46" s="309" t="n"/>
+      <c r="D46" s="331" t="n"/>
+      <c r="E46" s="332" t="n"/>
+      <c r="F46" s="333" t="n"/>
+      <c r="G46" s="334" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="303" t="n"/>
+      <c r="A47" s="328" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="310" t="n"/>
-      <c r="E47" s="311" t="n"/>
+      <c r="D47" s="335" t="n"/>
+      <c r="E47" s="336" t="n"/>
       <c r="L47" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="303" t="n"/>
+      <c r="A48" s="328" t="n"/>
       <c r="B48" s="243" t="n"/>
-      <c r="D48" s="310" t="n"/>
-      <c r="E48" s="311" t="n"/>
+      <c r="D48" s="335" t="n"/>
+      <c r="E48" s="336" t="n"/>
       <c r="L48" s="218" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="303" t="n"/>
+      <c r="A49" s="328" t="n"/>
       <c r="B49" s="243" t="n"/>
-      <c r="D49" s="310" t="n"/>
-      <c r="E49" s="311" t="n"/>
+      <c r="D49" s="335" t="n"/>
+      <c r="E49" s="336" t="n"/>
       <c r="L49" s="218" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="303" t="n"/>
+      <c r="A50" s="328" t="n"/>
       <c r="B50" s="243" t="n"/>
       <c r="C50" s="243" t="n"/>
-      <c r="D50" s="310" t="n"/>
-      <c r="E50" s="311" t="n"/>
+      <c r="D50" s="335" t="n"/>
+      <c r="E50" s="336" t="n"/>
       <c r="L50" s="218" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="303" t="n"/>
+      <c r="A51" s="328" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="310" t="n"/>
-      <c r="E51" s="311" t="n"/>
+      <c r="D51" s="335" t="n"/>
+      <c r="E51" s="336" t="n"/>
       <c r="L51" s="218" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="303" t="n"/>
+      <c r="A52" s="328" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="243" t="n"/>
-      <c r="E52" s="311" t="n"/>
+      <c r="E52" s="336" t="n"/>
       <c r="L52" s="218" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="303" t="n"/>
+      <c r="A53" s="328" t="n"/>
       <c r="B53" s="243" t="n"/>
-      <c r="D53" s="310" t="n"/>
-      <c r="E53" s="311" t="n"/>
+      <c r="D53" s="335" t="n"/>
+      <c r="E53" s="336" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="303" t="n"/>
+      <c r="A54" s="328" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="310" t="n"/>
-      <c r="E54" s="311" t="n"/>
+      <c r="D54" s="335" t="n"/>
+      <c r="E54" s="336" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="218" t="n"/>
@@ -12600,11 +12619,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="303" t="n"/>
+      <c r="A55" s="328" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="237" t="n"/>
-      <c r="D55" s="310" t="n"/>
-      <c r="E55" s="311" t="n"/>
+      <c r="D55" s="335" t="n"/>
+      <c r="E55" s="336" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="218" t="n"/>
@@ -12614,11 +12633,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="303" t="n"/>
+      <c r="A56" s="328" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="310" t="n"/>
-      <c r="E56" s="311" t="n"/>
+      <c r="D56" s="335" t="n"/>
+      <c r="E56" s="336" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="218" t="n"/>
@@ -12628,11 +12647,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="303" t="n"/>
+      <c r="A57" s="328" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="310" t="n"/>
-      <c r="E57" s="311" t="n"/>
+      <c r="D57" s="335" t="n"/>
+      <c r="E57" s="336" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -12642,11 +12661,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="303" t="n"/>
+      <c r="A58" s="328" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="310" t="n"/>
-      <c r="E58" s="311" t="n"/>
+      <c r="D58" s="335" t="n"/>
+      <c r="E58" s="336" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -12656,11 +12675,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="303" t="n"/>
+      <c r="A59" s="328" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="310" t="n"/>
-      <c r="E59" s="311" t="n"/>
+      <c r="D59" s="335" t="n"/>
+      <c r="E59" s="336" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -12670,11 +12689,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="303" t="n"/>
+      <c r="A60" s="328" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="310" t="n"/>
-      <c r="E60" s="311" t="n"/>
+      <c r="D60" s="335" t="n"/>
+      <c r="E60" s="336" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -12684,11 +12703,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="303" t="n"/>
+      <c r="A61" s="328" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="310" t="n"/>
-      <c r="E61" s="311" t="n"/>
+      <c r="D61" s="335" t="n"/>
+      <c r="E61" s="336" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -12698,11 +12717,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="303" t="n"/>
+      <c r="A62" s="328" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="310" t="n"/>
-      <c r="E62" s="311" t="n"/>
+      <c r="D62" s="335" t="n"/>
+      <c r="E62" s="336" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -12712,11 +12731,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="303" t="n"/>
+      <c r="A63" s="328" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
-      <c r="D63" s="310" t="n"/>
-      <c r="E63" s="311" t="n"/>
+      <c r="D63" s="335" t="n"/>
+      <c r="E63" s="336" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="218" t="n"/>
@@ -12726,11 +12745,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="303" t="n"/>
+      <c r="A64" s="328" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
-      <c r="D64" s="310" t="n"/>
-      <c r="E64" s="311" t="n"/>
+      <c r="D64" s="335" t="n"/>
+      <c r="E64" s="336" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="218" t="n"/>
@@ -12740,11 +12759,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="303" t="n"/>
+      <c r="A65" s="328" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="310" t="n"/>
-      <c r="E65" s="311" t="n"/>
+      <c r="D65" s="335" t="n"/>
+      <c r="E65" s="336" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="218" t="n"/>
@@ -12754,7 +12773,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="303" t="n"/>
+      <c r="A66" s="328" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -12768,7 +12787,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="303" t="n"/>
+      <c r="A67" s="328" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
       <c r="D67" s="238" t="n"/>
@@ -12782,7 +12801,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="303" t="n"/>
+      <c r="A68" s="328" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
       <c r="D68" s="238" t="n"/>
@@ -12796,7 +12815,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="303" t="n"/>
+      <c r="A69" s="328" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -12810,7 +12829,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="237">
-      <c r="A70" s="303" t="n"/>
+      <c r="A70" s="328" t="n"/>
       <c r="D70" s="238" t="n"/>
       <c r="E70" s="239" t="n"/>
       <c r="F70" s="240" t="n"/>
@@ -12822,7 +12841,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="237">
-      <c r="A71" s="303" t="n"/>
+      <c r="A71" s="328" t="n"/>
       <c r="D71" s="238" t="n"/>
       <c r="E71" s="239" t="n"/>
       <c r="F71" s="240" t="n"/>
@@ -12834,7 +12853,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="237">
-      <c r="A72" s="303" t="n"/>
+      <c r="A72" s="328" t="n"/>
       <c r="D72" s="238" t="n"/>
       <c r="E72" s="239" t="n"/>
       <c r="F72" s="240" t="n"/>
@@ -14069,10 +14088,14 @@
       </c>
       <c r="B5" s="370" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C5" s="370" t="inlineStr"/>
+          <t>Walter</t>
+        </is>
+      </c>
+      <c r="C5" s="370" t="inlineStr">
+        <is>
+          <t>Level3-2-1</t>
+        </is>
+      </c>
       <c r="D5" s="370" t="inlineStr"/>
       <c r="E5" s="370">
         <f>IFERROR(VLOOKUP($B16,$A$24:$D$61,4,FALSE),"")</f>
@@ -14377,14 +14400,10 @@
       </c>
       <c r="B6" s="370" t="inlineStr">
         <is>
-          <t>Walter</t>
-        </is>
-      </c>
-      <c r="C6" s="370" t="inlineStr">
-        <is>
-          <t>Level3-2-1</t>
-        </is>
-      </c>
+          <t>Raymond Li</t>
+        </is>
+      </c>
+      <c r="C6" s="370" t="inlineStr"/>
       <c r="D6" s="370" t="inlineStr"/>
       <c r="E6" s="370">
         <f>IFERROR(VLOOKUP($B17,$A$24:$D$61,4,FALSE),"")</f>
@@ -14690,12 +14709,12 @@
       </c>
       <c r="B7" s="370" t="inlineStr">
         <is>
-          <t>Kay</t>
+          <t>Davie</t>
         </is>
       </c>
       <c r="C7" s="370" t="inlineStr">
         <is>
-          <t>Level1-3</t>
+          <t>Level3-3-2</t>
         </is>
       </c>
       <c r="D7" s="370" t="inlineStr"/>
@@ -14998,19 +15017,15 @@
       </c>
       <c r="B8" s="370" t="inlineStr">
         <is>
-          <t>Bonnie Wang</t>
+          <t>Sawyer</t>
         </is>
       </c>
       <c r="C8" s="370" t="inlineStr">
         <is>
-          <t>ACS12</t>
-        </is>
-      </c>
-      <c r="D8" s="370" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level2-2</t>
+        </is>
+      </c>
+      <c r="D8" s="370" t="inlineStr"/>
       <c r="E8" s="370">
         <f>IFERROR(VLOOKUP($B19,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -15907,19 +15922,15 @@
       </c>
       <c r="B11" s="387" t="inlineStr">
         <is>
-          <t>Bill Lin</t>
+          <t>Kay</t>
         </is>
       </c>
       <c r="C11" s="387" t="inlineStr">
         <is>
-          <t>ACS11</t>
-        </is>
-      </c>
-      <c r="D11" s="387" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level1-3</t>
+        </is>
+      </c>
+      <c r="D11" s="387" t="inlineStr"/>
       <c r="E11" s="387">
         <f>IFERROR(VLOOKUP($B22,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16228,14 +16239,10 @@
       </c>
       <c r="B12" s="387" t="inlineStr">
         <is>
-          <t>Davie</t>
-        </is>
-      </c>
-      <c r="C12" s="387" t="inlineStr">
-        <is>
-          <t>Level3-3-1</t>
-        </is>
-      </c>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C12" s="387" t="inlineStr"/>
       <c r="D12" s="387" t="inlineStr"/>
       <c r="E12" s="387">
         <f>IFERROR(VLOOKUP($B23,$A$24:$D$61,4,FALSE),"")</f>
@@ -16675,12 +16682,12 @@
       </c>
       <c r="B15" s="370" t="inlineStr">
         <is>
-          <t>Olivia Wang</t>
+          <t>Bill Lin</t>
         </is>
       </c>
       <c r="C15" s="370" t="inlineStr">
         <is>
-          <t>AC4</t>
+          <t>ACS12</t>
         </is>
       </c>
       <c r="D15" s="370" t="inlineStr">
@@ -16979,14 +16986,10 @@
       </c>
       <c r="B16" s="370" t="inlineStr">
         <is>
-          <t>Sawyer</t>
-        </is>
-      </c>
-      <c r="C16" s="370" t="inlineStr">
-        <is>
-          <t>Level2-2</t>
-        </is>
-      </c>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C16" s="370" t="inlineStr"/>
       <c r="D16" s="370" t="inlineStr"/>
       <c r="E16" s="370">
         <f>IFERROR(VLOOKUP($B27,$A$24:$D$61,4,FALSE),"")</f>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -14400,7 +14400,7 @@
       </c>
       <c r="B6" s="370" t="inlineStr">
         <is>
-          <t>Raymond Li</t>
+          <t>Raymond Lu</t>
         </is>
       </c>
       <c r="C6" s="370" t="inlineStr"/>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="23640" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="23640" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda-1" sheetId="1" state="visible" r:id="rId1"/>
@@ -598,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="109">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -1808,6 +1808,21 @@
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color theme="0" tint="-0.1499374370555742"/>
       </right>
       <top style="medium">
@@ -1878,10 +1893,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="00000000"/>
@@ -2954,220 +2969,56 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="76" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf borderId="73" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="77" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="78" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="79" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="80" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf borderId="75" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="75" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="81" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="82" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="83" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="73" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="77" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="88" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="67" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="68" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="69" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="76" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="73" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="77" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="78" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="79" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="80" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="75" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="75" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="81" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="87" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="82" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="83" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="73" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="77" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="88" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="95" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3179,6 +3030,57 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="95" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3188,31 +3090,144 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="109" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="105" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="106" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="107" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="29" fillId="0" fontId="21" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="108" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="105" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="106" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="107" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
@@ -3791,7 +3806,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>41</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2057400" cy="2057400"/>
@@ -4160,7 +4175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4202,125 +4217,139 @@
       <c r="F1" s="246" t="n"/>
       <c r="G1" s="246" t="n"/>
       <c r="H1" s="246" t="n"/>
+      <c r="I1" s="246" t="n"/>
+      <c r="J1" s="247" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="247" t="inlineStr">
+      <c r="A2" s="248" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="248" t="n"/>
-      <c r="J2" s="248" t="n"/>
+      <c r="I2" s="249" t="n"/>
+      <c r="J2" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="249" t="inlineStr">
+      <c r="A3" s="251" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="250" t="n"/>
-      <c r="J3" s="250" t="n"/>
+      <c r="B3" s="252" t="n"/>
+      <c r="C3" s="252" t="n"/>
+      <c r="D3" s="252" t="n"/>
+      <c r="E3" s="252" t="n"/>
+      <c r="F3" s="252" t="n"/>
+      <c r="G3" s="252" t="n"/>
+      <c r="H3" s="252" t="n"/>
+      <c r="I3" s="253" t="n"/>
+      <c r="J3" s="254" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="251" t="inlineStr">
+      <c r="A4" s="255" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="252" t="inlineStr">
+      <c r="B4" s="256" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="253" t="n"/>
-      <c r="D4" s="253" t="n"/>
-      <c r="E4" s="253" t="n"/>
-      <c r="F4" s="253" t="n"/>
-      <c r="G4" s="253" t="n"/>
-      <c r="H4" s="254" t="n"/>
-      <c r="I4" s="248" t="n"/>
-      <c r="J4" s="248" t="n"/>
+      <c r="C4" s="246" t="n"/>
+      <c r="D4" s="246" t="n"/>
+      <c r="E4" s="246" t="n"/>
+      <c r="F4" s="246" t="n"/>
+      <c r="G4" s="246" t="n"/>
+      <c r="H4" s="257" t="n"/>
+      <c r="I4" s="258" t="n"/>
+      <c r="J4" s="259" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="255" t="n"/>
-      <c r="B5" s="256" t="n"/>
-      <c r="H5" s="257" t="n"/>
-      <c r="I5" s="250" t="n"/>
-      <c r="J5" s="250" t="n"/>
+      <c r="A5" s="260" t="n"/>
+      <c r="B5" s="261" t="n"/>
+      <c r="C5" s="252" t="n"/>
+      <c r="D5" s="252" t="n"/>
+      <c r="E5" s="252" t="n"/>
+      <c r="F5" s="252" t="n"/>
+      <c r="G5" s="252" t="n"/>
+      <c r="H5" s="262" t="n"/>
+      <c r="I5" s="253" t="n"/>
+      <c r="J5" s="254" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="255" t="n"/>
-      <c r="B6" s="256" t="n"/>
-      <c r="H6" s="257" t="n"/>
-      <c r="I6" s="250" t="n"/>
-      <c r="J6" s="250" t="n"/>
+      <c r="A6" s="263" t="n"/>
+      <c r="B6" s="264" t="n"/>
+      <c r="H6" s="265" t="n"/>
+      <c r="I6" s="266" t="n"/>
+      <c r="J6" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="258" t="n"/>
-      <c r="B7" s="259" t="n"/>
-      <c r="C7" s="260" t="n"/>
-      <c r="D7" s="260" t="n"/>
-      <c r="E7" s="260" t="n"/>
-      <c r="F7" s="260" t="n"/>
-      <c r="G7" s="260" t="n"/>
-      <c r="H7" s="261" t="n"/>
-      <c r="I7" s="250" t="n"/>
-      <c r="J7" s="250" t="n"/>
+      <c r="A7" s="267" t="n"/>
+      <c r="B7" s="268" t="n"/>
+      <c r="C7" s="269" t="n"/>
+      <c r="D7" s="269" t="n"/>
+      <c r="E7" s="269" t="n"/>
+      <c r="F7" s="269" t="n"/>
+      <c r="G7" s="269" t="n"/>
+      <c r="H7" s="270" t="n"/>
+      <c r="I7" s="266" t="n"/>
+      <c r="J7" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="262" t="inlineStr">
-        <is>
-          <t>Theme Today: sleepless in seattle</t>
-        </is>
-      </c>
-      <c r="B8" s="263" t="n"/>
-      <c r="C8" s="263" t="n"/>
-      <c r="D8" s="263" t="n"/>
-      <c r="E8" s="263" t="n"/>
-      <c r="F8" s="263" t="n"/>
-      <c r="G8" s="263" t="n"/>
-      <c r="H8" s="264" t="n"/>
-      <c r="I8" s="250" t="n"/>
-      <c r="J8" s="250" t="n"/>
+      <c r="A8" s="271" t="inlineStr">
+        <is>
+          <t>Theme Today: The Future of Tiktok</t>
+        </is>
+      </c>
+      <c r="B8" s="272" t="n"/>
+      <c r="C8" s="272" t="n"/>
+      <c r="D8" s="272" t="n"/>
+      <c r="E8" s="272" t="n"/>
+      <c r="F8" s="272" t="n"/>
+      <c r="G8" s="272" t="n"/>
+      <c r="H8" s="273" t="n"/>
+      <c r="I8" s="274" t="n"/>
+      <c r="J8" s="275" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="265" t="inlineStr">
+      <c r="A9" s="276" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="266" t="inlineStr">
+      <c r="B9" s="277" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="267" t="inlineStr">
+      <c r="C9" s="278" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="268" t="inlineStr">
+      <c r="D9" s="279" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="269" t="inlineStr">
+      <c r="E9" s="280" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="270" t="inlineStr">
+      <c r="F9" s="281" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="271" t="inlineStr">
+      <c r="G9" s="282" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="272" t="inlineStr">
+      <c r="H9" s="283" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -4333,21 +4362,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="273">
+      <c r="A10" s="284">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="274" t="inlineStr">
+      <c r="B10" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="274" t="inlineStr">
+      <c r="C10" s="285" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="275">
+      <c r="D10" s="286">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4366,21 +4395,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="273">
+      <c r="A11" s="284">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="276" t="inlineStr">
+      <c r="B11" s="287" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C11" s="277" t="inlineStr">
+      <c r="C11" s="288" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="278">
+      <c r="D11" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4407,21 +4436,21 @@
       </c>
     </row>
     <row customHeight="1" ht="23.25" r="12" s="244">
-      <c r="A12" s="273">
+      <c r="A12" s="284">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="274" t="inlineStr">
+      <c r="B12" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="279" t="inlineStr">
+      <c r="C12" s="290" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="278">
+      <c r="D12" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4452,10 +4481,10 @@
       </c>
     </row>
     <row customHeight="1" hidden="1" ht="4.5" r="13" s="244">
-      <c r="A13" s="273" t="n"/>
-      <c r="B13" s="276" t="n"/>
-      <c r="C13" s="276" t="n"/>
-      <c r="D13" s="278" t="n"/>
+      <c r="A13" s="284" t="n"/>
+      <c r="B13" s="287" t="n"/>
+      <c r="C13" s="287" t="n"/>
+      <c r="D13" s="289" t="n"/>
       <c r="E13" s="76" t="n"/>
       <c r="F13" s="151" t="n"/>
       <c r="G13" s="152" t="n"/>
@@ -4469,21 +4498,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="273">
+      <c r="A14" s="284">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="276" t="inlineStr">
+      <c r="B14" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="276" t="inlineStr">
+      <c r="C14" s="287" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="278">
+      <c r="D14" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4505,24 +4534,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="248" t="n"/>
+      <c r="L14" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="273">
+      <c r="A15" s="284">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="276" t="inlineStr">
+      <c r="B15" s="287" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="276" t="inlineStr">
+      <c r="C15" s="287" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -4542,24 +4571,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="248" t="n"/>
+      <c r="L15" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="244">
-      <c r="A16" s="273">
+      <c r="A16" s="284">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="276" t="inlineStr">
+      <c r="B16" s="287" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="276" t="inlineStr">
+      <c r="C16" s="287" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="278">
+      <c r="D16" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -4579,24 +4608,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="248" t="n"/>
+      <c r="L16" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="244">
-      <c r="A17" s="273">
+      <c r="A17" s="284">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="276" t="inlineStr">
+      <c r="B17" s="287" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="276" t="inlineStr">
+      <c r="C17" s="287" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="278">
+      <c r="D17" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -4620,24 +4649,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="248" t="n"/>
+      <c r="L17" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="273">
+      <c r="A18" s="284">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="276" t="inlineStr">
+      <c r="B18" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="276" t="inlineStr">
+      <c r="C18" s="287" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="278">
+      <c r="D18" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4658,11 +4687,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="280">
+      <c r="A19" s="291">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="281" t="inlineStr">
+      <c r="B19" s="292" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -4672,7 +4701,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="278">
+      <c r="D19" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4693,28 +4722,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="282" t="inlineStr">
+      <c r="A20" s="293" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="263" t="n"/>
-      <c r="C20" s="263" t="n"/>
-      <c r="D20" s="263" t="n"/>
-      <c r="E20" s="263" t="n"/>
-      <c r="F20" s="263" t="n"/>
-      <c r="G20" s="263" t="n"/>
-      <c r="H20" s="264" t="n"/>
-      <c r="I20" s="37" t="n">
+      <c r="B20" s="272" t="n"/>
+      <c r="C20" s="272" t="n"/>
+      <c r="D20" s="272" t="n"/>
+      <c r="E20" s="272" t="n"/>
+      <c r="F20" s="272" t="n"/>
+      <c r="G20" s="272" t="n"/>
+      <c r="H20" s="273" t="n"/>
+      <c r="I20" s="294" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="295">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="273">
+      <c r="A21" s="284">
         <f>J20</f>
         <v/>
       </c>
@@ -4728,7 +4757,7 @@
           <t>Theme Introduction &amp; Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="283">
+      <c r="D21" s="296">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -4753,21 +4782,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="273">
+      <c r="A22" s="284">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="279" t="inlineStr">
+      <c r="B22" s="290" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="279" t="inlineStr">
+      <c r="C22" s="290" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="278">
+      <c r="D22" s="289">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -4800,21 +4829,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="273">
+      <c r="A23" s="284">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="279" t="inlineStr">
+      <c r="B23" s="290" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="276" t="inlineStr">
+      <c r="C23" s="287" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="278">
+      <c r="D23" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4837,17 +4866,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="284">
+      <c r="A24" s="297">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="285" t="inlineStr">
+      <c r="B24" s="298" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="286">
+      <c r="D24" s="299">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4870,30 +4899,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="282" t="inlineStr">
+      <c r="A25" s="293" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="263" t="n"/>
-      <c r="C25" s="263" t="n"/>
-      <c r="D25" s="263" t="n"/>
-      <c r="E25" s="263" t="n"/>
-      <c r="F25" s="263" t="n"/>
-      <c r="G25" s="263" t="n"/>
-      <c r="H25" s="264" t="n"/>
-      <c r="I25" s="37" t="n">
+      <c r="B25" s="272" t="n"/>
+      <c r="C25" s="272" t="n"/>
+      <c r="D25" s="272" t="n"/>
+      <c r="E25" s="272" t="n"/>
+      <c r="F25" s="272" t="n"/>
+      <c r="G25" s="272" t="n"/>
+      <c r="H25" s="273" t="n"/>
+      <c r="I25" s="294" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="295">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="248" t="n"/>
+      <c r="L25" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="273">
+      <c r="A26" s="284">
         <f>J25</f>
         <v/>
       </c>
@@ -4907,7 +4936,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="283">
+      <c r="D26" s="296">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4929,24 +4958,24 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="248" t="n"/>
+      <c r="L26" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="273">
+      <c r="A27" s="284">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="276" t="inlineStr">
+      <c r="B27" s="287" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="287" t="inlineStr">
-        <is>
-          <t>Ice Breaker</t>
-        </is>
-      </c>
-      <c r="D27" s="288">
+      <c r="C27" s="300" t="inlineStr">
+        <is>
+          <t>being a protege</t>
+        </is>
+      </c>
+      <c r="D27" s="301">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -4955,93 +4984,89 @@
           <t>5-7</t>
         </is>
       </c>
-      <c r="F27" s="103" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G27" s="104" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H27" s="105" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I27" s="37" t="n">
-        <v>0.004861111111111111</v>
+      <c r="F27" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="104" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" s="105" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" s="37" t="inlineStr">
+        <is>
+          <t>0:07</t>
+        </is>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="248" t="n"/>
+      <c r="L27" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244" thickBot="1">
-      <c r="A28" s="282" t="inlineStr">
+      <c r="A28" s="302" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B28" s="263" t="n"/>
-      <c r="C28" s="263" t="n"/>
-      <c r="D28" s="263" t="n"/>
-      <c r="E28" s="263" t="n"/>
-      <c r="F28" s="263" t="n"/>
-      <c r="G28" s="263" t="n"/>
-      <c r="H28" s="264" t="n"/>
+      <c r="B28" s="303" t="n"/>
+      <c r="C28" s="303" t="n"/>
+      <c r="D28" s="303" t="n"/>
+      <c r="E28" s="303" t="n"/>
+      <c r="F28" s="303" t="n"/>
+      <c r="G28" s="303" t="n"/>
+      <c r="H28" s="304" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="248" t="n"/>
+      <c r="L28" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="244">
-      <c r="A29" s="273">
+      <c r="A29" s="305">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="24" t="inlineStr">
+      <c r="B29" s="306" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="307" t="inlineStr">
         <is>
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D29" s="283">
+      <c r="D29" s="308">
         <f>Roles!B5</f>
         <v/>
       </c>
-      <c r="E29" s="27" t="n">
+      <c r="E29" s="309" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="148" t="n"/>
-      <c r="G29" s="149" t="n">
+      <c r="F29" s="310" t="n"/>
+      <c r="G29" s="311" t="n">
         <v>0.5</v>
       </c>
-      <c r="H29" s="150" t="n">
+      <c r="H29" s="312" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="37" t="n">
+      <c r="I29" s="294" t="n">
         <v>1.000694444444445</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="295">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="248" t="n"/>
+      <c r="L29" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244">
-      <c r="A30" s="273">
+      <c r="A30" s="284">
         <f>J29</f>
         <v/>
       </c>
@@ -5055,11 +5080,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D30" s="283">
+      <c r="D30" s="296">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="289" t="inlineStr">
+      <c r="E30" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -5081,10 +5106,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="248" t="n"/>
+      <c r="L30" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="244">
-      <c r="A31" s="273">
+      <c r="A31" s="284">
         <f>J30</f>
         <v/>
       </c>
@@ -5098,7 +5123,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D31" s="278">
+      <c r="D31" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -5122,10 +5147,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="290" t="n"/>
+      <c r="L31" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244">
-      <c r="A32" s="273">
+      <c r="A32" s="284">
         <f>J31</f>
         <v/>
       </c>
@@ -5139,7 +5164,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D32" s="278">
+      <c r="D32" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -5165,10 +5190,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="290" t="n"/>
+      <c r="L32" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="273">
+      <c r="A33" s="284">
         <f>J32</f>
         <v/>
       </c>
@@ -5182,7 +5207,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D33" s="278">
+      <c r="D33" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -5206,13 +5231,13 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="290" t="n"/>
+      <c r="L33" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="34" s="244">
-      <c r="A34" s="273" t="n"/>
-      <c r="B34" s="274" t="n"/>
+      <c r="A34" s="284" t="n"/>
+      <c r="B34" s="285" t="n"/>
       <c r="C34" s="157" t="n"/>
-      <c r="D34" s="278" t="n"/>
+      <c r="D34" s="289" t="n"/>
       <c r="E34" s="76" t="n"/>
       <c r="F34" s="151" t="n"/>
       <c r="G34" s="152" t="n"/>
@@ -5225,24 +5250,24 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="290" t="n"/>
+      <c r="L34" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="273">
+      <c r="A35" s="284">
         <f>J34</f>
         <v/>
       </c>
-      <c r="B35" s="276" t="inlineStr">
+      <c r="B35" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C35" s="276" t="inlineStr">
+      <c r="C35" s="287" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D35" s="278">
+      <c r="D35" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -5274,24 +5299,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="290" t="n"/>
+      <c r="L35" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244" thickBot="1">
-      <c r="A36" s="291">
+      <c r="A36" s="315">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="279" t="inlineStr">
+      <c r="B36" s="290" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C36" s="276" t="inlineStr">
+      <c r="C36" s="287" t="inlineStr">
         <is>
           <t>Conclusion &amp; Meeting Closing</t>
         </is>
       </c>
-      <c r="D36" s="278">
+      <c r="D36" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -5323,13 +5348,13 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="290" t="n"/>
+      <c r="L36" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="37" s="244" thickBot="1">
-      <c r="A37" s="291" t="n"/>
-      <c r="B37" s="292" t="n"/>
-      <c r="C37" s="293" t="n"/>
-      <c r="D37" s="278" t="n"/>
+      <c r="A37" s="315" t="n"/>
+      <c r="B37" s="316" t="n"/>
+      <c r="C37" s="317" t="n"/>
+      <c r="D37" s="289" t="n"/>
       <c r="E37" s="71" t="n"/>
       <c r="F37" s="109" t="n"/>
       <c r="G37" s="110" t="n"/>
@@ -5340,21 +5365,21 @@
       <c r="L37" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="244">
-      <c r="A38" s="294" t="n"/>
-      <c r="B38" s="246" t="n"/>
-      <c r="C38" s="246" t="n"/>
-      <c r="D38" s="246" t="n"/>
+      <c r="A38" s="318" t="n"/>
+      <c r="B38" s="319" t="n"/>
+      <c r="C38" s="319" t="n"/>
+      <c r="D38" s="319" t="n"/>
       <c r="E38" s="243" t="n"/>
-      <c r="F38" s="295" t="n"/>
-      <c r="G38" s="296" t="n"/>
-      <c r="H38" s="297" t="n"/>
+      <c r="F38" s="320" t="n"/>
+      <c r="G38" s="321" t="n"/>
+      <c r="H38" s="322" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
       <c r="L38" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="39" s="244">
-      <c r="A39" s="298" t="inlineStr">
+      <c r="A39" s="323" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -5364,18 +5389,18 @@
 </t>
         </is>
       </c>
-      <c r="D39" s="299" t="n"/>
+      <c r="D39" s="324" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="300" t="inlineStr">
+      <c r="J39" s="325" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="301" t="n"/>
+      <c r="K39" s="326" t="n"/>
       <c r="L39" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="244">
-      <c r="A40" s="302" t="inlineStr">
+      <c r="A40" s="327" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -5386,91 +5411,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="300" t="n"/>
+      <c r="J40" s="325" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="244">
-      <c r="A41" s="303" t="n"/>
+      <c r="A41" s="328" t="n"/>
       <c r="B41" s="243" t="n"/>
-      <c r="D41" s="304" t="n"/>
-      <c r="E41" s="305" t="n"/>
-      <c r="F41" s="305" t="n"/>
-      <c r="G41" s="305" t="n"/>
-      <c r="H41" s="305" t="n"/>
+      <c r="D41" s="329" t="n"/>
+      <c r="E41" s="330" t="n"/>
+      <c r="F41" s="330" t="n"/>
+      <c r="G41" s="330" t="n"/>
+      <c r="H41" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="244">
-      <c r="A42" s="303" t="n"/>
+      <c r="A42" s="328" t="n"/>
       <c r="B42" s="243" t="n"/>
       <c r="C42" s="243" t="n"/>
-      <c r="D42" s="304" t="n"/>
-      <c r="F42" s="305" t="n"/>
-      <c r="G42" s="305" t="n"/>
-      <c r="H42" s="305" t="n"/>
+      <c r="D42" s="329" t="n"/>
+      <c r="F42" s="330" t="n"/>
+      <c r="G42" s="330" t="n"/>
+      <c r="H42" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="244">
-      <c r="A43" s="303" t="n"/>
+      <c r="A43" s="328" t="n"/>
       <c r="B43" s="243" t="n"/>
       <c r="C43" s="243" t="n"/>
-      <c r="D43" s="306" t="n"/>
-      <c r="E43" s="307" t="n"/>
-      <c r="F43" s="308" t="n"/>
-      <c r="G43" s="309" t="n"/>
+      <c r="D43" s="331" t="n"/>
+      <c r="E43" s="332" t="n"/>
+      <c r="F43" s="333" t="n"/>
+      <c r="G43" s="334" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="303" t="n"/>
+      <c r="A44" s="328" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="310" t="n"/>
-      <c r="E44" s="311" t="n"/>
+      <c r="D44" s="335" t="n"/>
+      <c r="E44" s="336" t="n"/>
       <c r="L44" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="303" t="n"/>
+      <c r="A45" s="328" t="n"/>
       <c r="B45" s="243" t="n"/>
-      <c r="D45" s="310" t="n"/>
-      <c r="E45" s="311" t="n"/>
+      <c r="D45" s="335" t="n"/>
+      <c r="E45" s="336" t="n"/>
       <c r="L45" s="218" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="303" t="n"/>
+      <c r="A46" s="328" t="n"/>
       <c r="B46" s="243" t="n"/>
-      <c r="D46" s="310" t="n"/>
-      <c r="E46" s="311" t="n"/>
+      <c r="D46" s="335" t="n"/>
+      <c r="E46" s="336" t="n"/>
       <c r="L46" s="218" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="303" t="n"/>
+      <c r="A47" s="328" t="n"/>
       <c r="B47" s="243" t="n"/>
       <c r="C47" s="243" t="n"/>
-      <c r="D47" s="310" t="n"/>
-      <c r="E47" s="311" t="n"/>
+      <c r="D47" s="335" t="n"/>
+      <c r="E47" s="336" t="n"/>
       <c r="L47" s="218" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="303" t="n"/>
+      <c r="A48" s="328" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="310" t="n"/>
-      <c r="E48" s="311" t="n"/>
+      <c r="D48" s="335" t="n"/>
+      <c r="E48" s="336" t="n"/>
       <c r="L48" s="218" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="303" t="n"/>
+      <c r="A49" s="328" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="E49" s="311" t="n"/>
+      <c r="E49" s="336" t="n"/>
       <c r="L49" s="218" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="303" t="n"/>
+      <c r="A50" s="328" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="310" t="n"/>
-      <c r="E50" s="311" t="n"/>
+      <c r="D50" s="335" t="n"/>
+      <c r="E50" s="336" t="n"/>
     </row>
     <row customFormat="1" r="51" s="240">
-      <c r="A51" s="303" t="n"/>
+      <c r="A51" s="328" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="310" t="n"/>
-      <c r="E51" s="311" t="n"/>
+      <c r="D51" s="335" t="n"/>
+      <c r="E51" s="336" t="n"/>
       <c r="G51" s="241" t="n"/>
       <c r="H51" s="242" t="n"/>
       <c r="I51" s="218" t="n"/>
@@ -5480,11 +5505,11 @@
       <c r="M51" s="243" t="n"/>
     </row>
     <row customFormat="1" r="52" s="240">
-      <c r="A52" s="303" t="n"/>
+      <c r="A52" s="328" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="237" t="n"/>
-      <c r="D52" s="310" t="n"/>
-      <c r="E52" s="311" t="n"/>
+      <c r="D52" s="335" t="n"/>
+      <c r="E52" s="336" t="n"/>
       <c r="G52" s="241" t="n"/>
       <c r="H52" s="242" t="n"/>
       <c r="I52" s="218" t="n"/>
@@ -5494,11 +5519,11 @@
       <c r="M52" s="243" t="n"/>
     </row>
     <row customFormat="1" r="53" s="240">
-      <c r="A53" s="303" t="n"/>
+      <c r="A53" s="328" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="310" t="n"/>
-      <c r="E53" s="311" t="n"/>
+      <c r="D53" s="335" t="n"/>
+      <c r="E53" s="336" t="n"/>
       <c r="G53" s="241" t="n"/>
       <c r="H53" s="242" t="n"/>
       <c r="I53" s="218" t="n"/>
@@ -5508,11 +5533,11 @@
       <c r="M53" s="243" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="303" t="n"/>
+      <c r="A54" s="328" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="310" t="n"/>
-      <c r="E54" s="311" t="n"/>
+      <c r="D54" s="335" t="n"/>
+      <c r="E54" s="336" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="218" t="n"/>
@@ -5522,11 +5547,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="303" t="n"/>
+      <c r="A55" s="328" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="D55" s="310" t="n"/>
-      <c r="E55" s="311" t="n"/>
+      <c r="D55" s="335" t="n"/>
+      <c r="E55" s="336" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="218" t="n"/>
@@ -5536,11 +5561,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="303" t="n"/>
+      <c r="A56" s="328" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="310" t="n"/>
-      <c r="E56" s="311" t="n"/>
+      <c r="D56" s="335" t="n"/>
+      <c r="E56" s="336" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="218" t="n"/>
@@ -5550,11 +5575,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="303" t="n"/>
+      <c r="A57" s="328" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="310" t="n"/>
-      <c r="E57" s="311" t="n"/>
+      <c r="D57" s="335" t="n"/>
+      <c r="E57" s="336" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -5564,11 +5589,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="303" t="n"/>
+      <c r="A58" s="328" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="310" t="n"/>
-      <c r="E58" s="311" t="n"/>
+      <c r="D58" s="335" t="n"/>
+      <c r="E58" s="336" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -5578,11 +5603,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="303" t="n"/>
+      <c r="A59" s="328" t="n"/>
       <c r="B59" s="237" t="n"/>
       <c r="C59" s="237" t="n"/>
-      <c r="D59" s="310" t="n"/>
-      <c r="E59" s="311" t="n"/>
+      <c r="D59" s="335" t="n"/>
+      <c r="E59" s="336" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -5592,11 +5617,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="303" t="n"/>
+      <c r="A60" s="328" t="n"/>
       <c r="B60" s="237" t="n"/>
       <c r="C60" s="237" t="n"/>
-      <c r="D60" s="310" t="n"/>
-      <c r="E60" s="311" t="n"/>
+      <c r="D60" s="335" t="n"/>
+      <c r="E60" s="336" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -5606,11 +5631,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="303" t="n"/>
+      <c r="A61" s="328" t="n"/>
       <c r="B61" s="237" t="n"/>
       <c r="C61" s="237" t="n"/>
-      <c r="D61" s="310" t="n"/>
-      <c r="E61" s="311" t="n"/>
+      <c r="D61" s="335" t="n"/>
+      <c r="E61" s="336" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -5620,11 +5645,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="303" t="n"/>
+      <c r="A62" s="328" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="310" t="n"/>
-      <c r="E62" s="311" t="n"/>
+      <c r="D62" s="335" t="n"/>
+      <c r="E62" s="336" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -5634,7 +5659,7 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="303" t="n"/>
+      <c r="A63" s="328" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
       <c r="D63" s="238" t="n"/>
@@ -5648,7 +5673,7 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="303" t="n"/>
+      <c r="A64" s="328" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
       <c r="D64" s="238" t="n"/>
@@ -5662,7 +5687,7 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="303" t="n"/>
+      <c r="A65" s="328" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
       <c r="D65" s="238" t="n"/>
@@ -5676,7 +5701,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="303" t="n"/>
+      <c r="A66" s="328" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -5690,7 +5715,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="237">
-      <c r="A67" s="303" t="n"/>
+      <c r="A67" s="328" t="n"/>
       <c r="D67" s="238" t="n"/>
       <c r="E67" s="239" t="n"/>
       <c r="F67" s="240" t="n"/>
@@ -5702,7 +5727,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="237">
-      <c r="A68" s="303" t="n"/>
+      <c r="A68" s="328" t="n"/>
       <c r="D68" s="238" t="n"/>
       <c r="E68" s="239" t="n"/>
       <c r="F68" s="240" t="n"/>
@@ -5714,7 +5739,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="237">
-      <c r="A69" s="303" t="n"/>
+      <c r="A69" s="328" t="n"/>
       <c r="D69" s="238" t="n"/>
       <c r="E69" s="239" t="n"/>
       <c r="F69" s="240" t="n"/>
@@ -5745,11 +5770,12 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5779,151 +5805,137 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="312" t="inlineStr">
+      <c r="A1" s="337" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="313" t="n"/>
-      <c r="C1" s="313" t="n"/>
-      <c r="D1" s="313" t="n"/>
-      <c r="E1" s="313" t="n"/>
-      <c r="F1" s="313" t="n"/>
-      <c r="G1" s="313" t="n"/>
-      <c r="H1" s="313" t="n"/>
-      <c r="I1" s="313" t="n"/>
-      <c r="J1" s="314" t="n"/>
+      <c r="B1" s="319" t="n"/>
+      <c r="C1" s="319" t="n"/>
+      <c r="D1" s="319" t="n"/>
+      <c r="E1" s="319" t="n"/>
+      <c r="F1" s="319" t="n"/>
+      <c r="G1" s="319" t="n"/>
+      <c r="H1" s="319" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="315" t="inlineStr">
+      <c r="A2" s="338" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="248" t="n"/>
-      <c r="J2" s="316" t="n"/>
+      <c r="I2" s="249" t="n"/>
+      <c r="J2" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="317" t="inlineStr">
+      <c r="A3" s="339" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="B3" s="318" t="n"/>
-      <c r="C3" s="318" t="n"/>
-      <c r="D3" s="318" t="n"/>
-      <c r="E3" s="318" t="n"/>
-      <c r="F3" s="318" t="n"/>
-      <c r="G3" s="318" t="n"/>
-      <c r="H3" s="318" t="n"/>
-      <c r="I3" s="319" t="n"/>
-      <c r="J3" s="320" t="n"/>
+      <c r="I3" s="266" t="n"/>
+      <c r="J3" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="321" t="inlineStr">
+      <c r="A4" s="340" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="322" t="inlineStr">
+      <c r="B4" s="341" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="313" t="n"/>
-      <c r="D4" s="313" t="n"/>
-      <c r="E4" s="313" t="n"/>
-      <c r="F4" s="313" t="n"/>
-      <c r="G4" s="313" t="n"/>
-      <c r="H4" s="323" t="n"/>
-      <c r="I4" s="324" t="n"/>
-      <c r="J4" s="325" t="n"/>
+      <c r="C4" s="342" t="n"/>
+      <c r="D4" s="342" t="n"/>
+      <c r="E4" s="342" t="n"/>
+      <c r="F4" s="342" t="n"/>
+      <c r="G4" s="342" t="n"/>
+      <c r="H4" s="343" t="n"/>
+      <c r="I4" s="249" t="n"/>
+      <c r="J4" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="326" t="n"/>
-      <c r="B5" s="327" t="n"/>
-      <c r="C5" s="318" t="n"/>
-      <c r="D5" s="318" t="n"/>
-      <c r="E5" s="318" t="n"/>
-      <c r="F5" s="318" t="n"/>
-      <c r="G5" s="318" t="n"/>
-      <c r="H5" s="328" t="n"/>
-      <c r="I5" s="319" t="n"/>
-      <c r="J5" s="320" t="n"/>
+      <c r="A5" s="263" t="n"/>
+      <c r="B5" s="264" t="n"/>
+      <c r="H5" s="265" t="n"/>
+      <c r="I5" s="266" t="n"/>
+      <c r="J5" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="255" t="n"/>
-      <c r="B6" s="256" t="n"/>
-      <c r="H6" s="257" t="n"/>
-      <c r="I6" s="250" t="n"/>
-      <c r="J6" s="250" t="n"/>
+      <c r="A6" s="263" t="n"/>
+      <c r="B6" s="264" t="n"/>
+      <c r="H6" s="265" t="n"/>
+      <c r="I6" s="266" t="n"/>
+      <c r="J6" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="258" t="n"/>
-      <c r="B7" s="259" t="n"/>
-      <c r="C7" s="260" t="n"/>
-      <c r="D7" s="260" t="n"/>
-      <c r="E7" s="260" t="n"/>
-      <c r="F7" s="260" t="n"/>
-      <c r="G7" s="260" t="n"/>
-      <c r="H7" s="261" t="n"/>
-      <c r="I7" s="250" t="n"/>
-      <c r="J7" s="250" t="n"/>
+      <c r="A7" s="267" t="n"/>
+      <c r="B7" s="268" t="n"/>
+      <c r="C7" s="269" t="n"/>
+      <c r="D7" s="269" t="n"/>
+      <c r="E7" s="269" t="n"/>
+      <c r="F7" s="269" t="n"/>
+      <c r="G7" s="269" t="n"/>
+      <c r="H7" s="270" t="n"/>
+      <c r="I7" s="266" t="n"/>
+      <c r="J7" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="329" t="inlineStr">
-        <is>
-          <t>Theme Today: Silver Lining</t>
-        </is>
-      </c>
-      <c r="B8" s="330" t="n"/>
-      <c r="C8" s="330" t="n"/>
-      <c r="D8" s="330" t="n"/>
-      <c r="E8" s="330" t="n"/>
-      <c r="F8" s="330" t="n"/>
-      <c r="G8" s="330" t="n"/>
-      <c r="H8" s="331" t="n"/>
-      <c r="I8" s="332" t="n"/>
-      <c r="J8" s="333" t="n"/>
+      <c r="A8" s="344" t="inlineStr">
+        <is>
+          <t>Theme Today: sleepless in seattle</t>
+        </is>
+      </c>
+      <c r="B8" s="303" t="n"/>
+      <c r="C8" s="303" t="n"/>
+      <c r="D8" s="303" t="n"/>
+      <c r="E8" s="303" t="n"/>
+      <c r="F8" s="303" t="n"/>
+      <c r="G8" s="303" t="n"/>
+      <c r="H8" s="304" t="n"/>
+      <c r="I8" s="266" t="n"/>
+      <c r="J8" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="265" t="inlineStr">
+      <c r="A9" s="276" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="266" t="inlineStr">
+      <c r="B9" s="277" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="267" t="inlineStr">
+      <c r="C9" s="278" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="268" t="inlineStr">
+      <c r="D9" s="279" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="269" t="inlineStr">
+      <c r="E9" s="280" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="270" t="inlineStr">
+      <c r="F9" s="281" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="271" t="inlineStr">
+      <c r="G9" s="282" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="272" t="inlineStr">
+      <c r="H9" s="283" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -5936,21 +5948,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="273">
+      <c r="A10" s="284">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="274" t="inlineStr">
+      <c r="B10" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="274" t="inlineStr">
+      <c r="C10" s="285" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="275">
+      <c r="D10" s="286">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -5969,21 +5981,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="273">
+      <c r="A11" s="284">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="276" t="inlineStr">
+      <c r="B11" s="287" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="277" t="inlineStr">
+      <c r="C11" s="288" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="278">
+      <c r="D11" s="289">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -6010,21 +6022,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="244">
-      <c r="A12" s="273">
+      <c r="A12" s="284">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="274" t="inlineStr">
+      <c r="B12" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="279" t="inlineStr">
+      <c r="C12" s="290" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="278">
+      <c r="D12" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -6055,21 +6067,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="244">
-      <c r="A13" s="273">
+      <c r="A13" s="284">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="276" t="inlineStr">
+      <c r="B13" s="287" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="276" t="inlineStr">
+      <c r="C13" s="287" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="278">
+      <c r="D13" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6094,21 +6106,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="273">
+      <c r="A14" s="284">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="276" t="inlineStr">
+      <c r="B14" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="276" t="inlineStr">
+      <c r="C14" s="287" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="278">
+      <c r="D14" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6130,24 +6142,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="248" t="n"/>
+      <c r="L14" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="273">
+      <c r="A15" s="284">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="276" t="inlineStr">
+      <c r="B15" s="287" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="276" t="inlineStr">
+      <c r="C15" s="287" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6167,24 +6179,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="248" t="n"/>
+      <c r="L15" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="244">
-      <c r="A16" s="273">
+      <c r="A16" s="284">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="276" t="inlineStr">
+      <c r="B16" s="287" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="276" t="inlineStr">
+      <c r="C16" s="287" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="278">
+      <c r="D16" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6204,24 +6216,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="248" t="n"/>
+      <c r="L16" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="244">
-      <c r="A17" s="273">
+      <c r="A17" s="284">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="276" t="inlineStr">
+      <c r="B17" s="287" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="276" t="inlineStr">
+      <c r="C17" s="287" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="278">
+      <c r="D17" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6245,24 +6257,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="248" t="n"/>
+      <c r="L17" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="273">
+      <c r="A18" s="284">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="276" t="inlineStr">
+      <c r="B18" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="276" t="inlineStr">
+      <c r="C18" s="287" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="278">
+      <c r="D18" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6283,11 +6295,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="280">
+      <c r="A19" s="291">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="281" t="inlineStr">
+      <c r="B19" s="292" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -6297,7 +6309,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="278">
+      <c r="D19" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6318,28 +6330,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="334" t="inlineStr">
+      <c r="A20" s="302" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="330" t="n"/>
-      <c r="C20" s="330" t="n"/>
-      <c r="D20" s="330" t="n"/>
-      <c r="E20" s="330" t="n"/>
-      <c r="F20" s="330" t="n"/>
-      <c r="G20" s="330" t="n"/>
-      <c r="H20" s="331" t="n"/>
-      <c r="I20" s="335" t="n">
+      <c r="B20" s="303" t="n"/>
+      <c r="C20" s="303" t="n"/>
+      <c r="D20" s="303" t="n"/>
+      <c r="E20" s="303" t="n"/>
+      <c r="F20" s="303" t="n"/>
+      <c r="G20" s="303" t="n"/>
+      <c r="H20" s="304" t="n"/>
+      <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="336">
+      <c r="J20" s="36">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="273">
+      <c r="A21" s="284">
         <f>J20</f>
         <v/>
       </c>
@@ -6353,7 +6365,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="283">
+      <c r="D21" s="296">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -6378,21 +6390,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="273">
+      <c r="A22" s="284">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="279" t="inlineStr">
+      <c r="B22" s="290" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="279" t="inlineStr">
+      <c r="C22" s="290" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="278">
+      <c r="D22" s="289">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -6425,21 +6437,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="273">
+      <c r="A23" s="284">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="279" t="inlineStr">
+      <c r="B23" s="290" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="276" t="inlineStr">
+      <c r="C23" s="287" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="278">
+      <c r="D23" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6462,17 +6474,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="284">
+      <c r="A24" s="297">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="285" t="inlineStr">
+      <c r="B24" s="298" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="286">
+      <c r="D24" s="299">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6495,30 +6507,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="334" t="inlineStr">
+      <c r="A25" s="302" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="330" t="n"/>
-      <c r="C25" s="330" t="n"/>
-      <c r="D25" s="330" t="n"/>
-      <c r="E25" s="330" t="n"/>
-      <c r="F25" s="330" t="n"/>
-      <c r="G25" s="330" t="n"/>
-      <c r="H25" s="331" t="n"/>
-      <c r="I25" s="335" t="n">
+      <c r="B25" s="303" t="n"/>
+      <c r="C25" s="303" t="n"/>
+      <c r="D25" s="303" t="n"/>
+      <c r="E25" s="303" t="n"/>
+      <c r="F25" s="303" t="n"/>
+      <c r="G25" s="303" t="n"/>
+      <c r="H25" s="304" t="n"/>
+      <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="336">
+      <c r="J25" s="36">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="248" t="n"/>
+      <c r="L25" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="273">
+      <c r="A26" s="284">
         <f>J25</f>
         <v/>
       </c>
@@ -6532,7 +6544,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="283">
+      <c r="D26" s="296">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6554,55 +6566,59 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="248" t="n"/>
+      <c r="L26" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244">
-      <c r="A27" s="273">
+      <c r="A27" s="284">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="276" t="inlineStr">
+      <c r="B27" s="287" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="287" t="inlineStr">
-        <is>
-          <t>silver linings of the coronavirus pandemic</t>
-        </is>
-      </c>
-      <c r="D27" s="288">
+      <c r="C27" s="300" t="inlineStr">
+        <is>
+          <t>Ice Breaker</t>
+        </is>
+      </c>
+      <c r="D27" s="301">
         <f>Roles!B11</f>
         <v/>
       </c>
       <c r="E27" s="72" t="inlineStr">
         <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="F27" s="103" t="n">
-        <v>6</v>
-      </c>
-      <c r="G27" s="104" t="n">
-        <v>7</v>
-      </c>
-      <c r="H27" s="105" t="n">
-        <v>8</v>
-      </c>
-      <c r="I27" s="37" t="inlineStr">
-        <is>
-          <t>0:08</t>
-        </is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="F27" s="103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G27" s="104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H27" s="105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I27" s="37" t="n">
+        <v>0.004861111111111111</v>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="248" t="n"/>
+      <c r="L27" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="273">
+      <c r="A28" s="284">
         <f>J27</f>
         <v/>
       </c>
@@ -6616,7 +6632,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="288">
+      <c r="D28" s="301">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6638,76 +6654,80 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="248" t="n"/>
+      <c r="L28" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="29" s="244" thickBot="1">
-      <c r="A29" s="273">
+      <c r="A29" s="284">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="276" t="inlineStr">
+      <c r="B29" s="287" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="287" t="inlineStr">
-        <is>
-          <t>Restart 'Growing' --no-wait</t>
-        </is>
-      </c>
-      <c r="D29" s="337">
+      <c r="C29" s="300" t="inlineStr">
+        <is>
+          <t>Rice's Speech</t>
+        </is>
+      </c>
+      <c r="D29" s="345">
         <f>Roles!B12</f>
         <v/>
       </c>
       <c r="E29" s="72" t="inlineStr">
         <is>
-          <t>4-6</t>
-        </is>
-      </c>
-      <c r="F29" s="103" t="n">
-        <v>4</v>
-      </c>
-      <c r="G29" s="104" t="n">
-        <v>5</v>
-      </c>
-      <c r="H29" s="105" t="n">
-        <v>6</v>
-      </c>
-      <c r="I29" s="37" t="inlineStr">
-        <is>
-          <t>0:06</t>
-        </is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="F29" s="103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G29" s="104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H29" s="105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I29" s="37" t="n">
+        <v>0.004861111111111111</v>
       </c>
       <c r="J29" s="36">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="248" t="n"/>
+      <c r="L29" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244" thickBot="1">
-      <c r="A30" s="282" t="inlineStr">
+      <c r="A30" s="302" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B30" s="263" t="n"/>
-      <c r="C30" s="263" t="n"/>
-      <c r="D30" s="263" t="n"/>
-      <c r="E30" s="263" t="n"/>
-      <c r="F30" s="263" t="n"/>
-      <c r="G30" s="263" t="n"/>
-      <c r="H30" s="264" t="n"/>
+      <c r="B30" s="303" t="n"/>
+      <c r="C30" s="303" t="n"/>
+      <c r="D30" s="303" t="n"/>
+      <c r="E30" s="303" t="n"/>
+      <c r="F30" s="303" t="n"/>
+      <c r="G30" s="303" t="n"/>
+      <c r="H30" s="304" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J29+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="248" t="n"/>
+      <c r="L30" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="244">
-      <c r="A31" s="273">
+      <c r="A31" s="284">
         <f>J30</f>
         <v/>
       </c>
@@ -6721,7 +6741,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D31" s="283">
+      <c r="D31" s="296">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6743,53 +6763,53 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="248" t="n"/>
+      <c r="L31" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244">
-      <c r="A32" s="338">
+      <c r="A32" s="284">
         <f>J31</f>
         <v/>
       </c>
-      <c r="B32" s="339" t="inlineStr">
+      <c r="B32" s="55" t="inlineStr">
         <is>
           <t>Evaluator1</t>
         </is>
       </c>
-      <c r="C32" s="340" t="inlineStr">
+      <c r="C32" s="56" t="inlineStr">
         <is>
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D32" s="341">
+      <c r="D32" s="296">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="342" t="inlineStr">
+      <c r="E32" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
       </c>
-      <c r="F32" s="343" t="n">
+      <c r="F32" s="151" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="344" t="n">
+      <c r="G32" s="152" t="n">
         <v>2.5</v>
       </c>
-      <c r="H32" s="345" t="n">
+      <c r="H32" s="153" t="n">
         <v>3</v>
       </c>
-      <c r="I32" s="335" t="n">
+      <c r="I32" s="37" t="n">
         <v>0.002083333333333333</v>
       </c>
-      <c r="J32" s="336">
+      <c r="J32" s="36">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="248" t="n"/>
+      <c r="L32" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="273">
+      <c r="A33" s="284">
         <f>J32</f>
         <v/>
       </c>
@@ -6803,11 +6823,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D33" s="283">
+      <c r="D33" s="296">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="289" t="inlineStr">
+      <c r="E33" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -6829,10 +6849,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="248" t="n"/>
+      <c r="L33" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="244">
-      <c r="A34" s="273">
+      <c r="A34" s="284">
         <f>J33</f>
         <v/>
       </c>
@@ -6846,7 +6866,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D34" s="278">
+      <c r="D34" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6870,10 +6890,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="290" t="n"/>
+      <c r="L34" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="273">
+      <c r="A35" s="284">
         <f>J34</f>
         <v/>
       </c>
@@ -6887,7 +6907,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D35" s="278">
+      <c r="D35" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6913,10 +6933,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="290" t="n"/>
+      <c r="L35" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="273">
+      <c r="A36" s="284">
         <f>J35</f>
         <v/>
       </c>
@@ -6930,7 +6950,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D36" s="278">
+      <c r="D36" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6954,14 +6974,14 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="290" t="n"/>
+      <c r="L36" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="244">
-      <c r="A37" s="273">
+      <c r="A37" s="284">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="274" t="inlineStr">
+      <c r="B37" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -6971,7 +6991,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D37" s="278">
+      <c r="D37" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -6991,24 +7011,24 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="290" t="n"/>
+      <c r="L37" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="273">
+      <c r="A38" s="284">
         <f>J37</f>
         <v/>
       </c>
-      <c r="B38" s="276" t="inlineStr">
+      <c r="B38" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C38" s="276" t="inlineStr">
+      <c r="C38" s="287" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D38" s="278">
+      <c r="D38" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7040,24 +7060,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="290" t="n"/>
+      <c r="L38" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244" thickBot="1">
-      <c r="A39" s="291">
+      <c r="A39" s="315">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="279" t="inlineStr">
+      <c r="B39" s="290" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C39" s="276" t="inlineStr">
+      <c r="C39" s="287" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D39" s="278">
+      <c r="D39" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7089,24 +7109,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="290" t="n"/>
+      <c r="L39" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="244" thickBot="1">
-      <c r="A40" s="291">
+      <c r="A40" s="315">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="292" t="inlineStr">
+      <c r="B40" s="316" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C40" s="293" t="inlineStr">
+      <c r="C40" s="317" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D40" s="278">
+      <c r="D40" s="289">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7131,21 +7151,21 @@
       <c r="L40" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="244">
-      <c r="A41" s="294" t="n"/>
-      <c r="B41" s="246" t="n"/>
-      <c r="C41" s="246" t="n"/>
-      <c r="D41" s="246" t="n"/>
+      <c r="A41" s="318" t="n"/>
+      <c r="B41" s="319" t="n"/>
+      <c r="C41" s="319" t="n"/>
+      <c r="D41" s="319" t="n"/>
       <c r="E41" s="243" t="n"/>
-      <c r="F41" s="295" t="n"/>
-      <c r="G41" s="296" t="n"/>
-      <c r="H41" s="297" t="n"/>
+      <c r="F41" s="320" t="n"/>
+      <c r="G41" s="321" t="n"/>
+      <c r="H41" s="322" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
       <c r="L41" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="42" s="244">
-      <c r="A42" s="298" t="inlineStr">
+      <c r="A42" s="323" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -7155,18 +7175,18 @@
 </t>
         </is>
       </c>
-      <c r="D42" s="299" t="n"/>
+      <c r="D42" s="324" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="300" t="inlineStr">
+      <c r="J42" s="325" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="301" t="n"/>
+      <c r="K42" s="326" t="n"/>
       <c r="L42" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="244">
-      <c r="A43" s="302" t="inlineStr">
+      <c r="A43" s="327" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -7177,91 +7197,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="300" t="n"/>
+      <c r="J43" s="325" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="303" t="n"/>
+      <c r="A44" s="328" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="304" t="n"/>
-      <c r="E44" s="305" t="n"/>
-      <c r="F44" s="305" t="n"/>
-      <c r="G44" s="305" t="n"/>
-      <c r="H44" s="305" t="n"/>
+      <c r="D44" s="329" t="n"/>
+      <c r="E44" s="330" t="n"/>
+      <c r="F44" s="330" t="n"/>
+      <c r="G44" s="330" t="n"/>
+      <c r="H44" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="303" t="n"/>
+      <c r="A45" s="328" t="n"/>
       <c r="B45" s="243" t="n"/>
       <c r="C45" s="243" t="n"/>
-      <c r="D45" s="304" t="n"/>
-      <c r="F45" s="305" t="n"/>
-      <c r="G45" s="305" t="n"/>
-      <c r="H45" s="305" t="n"/>
+      <c r="D45" s="329" t="n"/>
+      <c r="F45" s="330" t="n"/>
+      <c r="G45" s="330" t="n"/>
+      <c r="H45" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="244">
-      <c r="A46" s="303" t="n"/>
+      <c r="A46" s="328" t="n"/>
       <c r="B46" s="243" t="n"/>
       <c r="C46" s="243" t="n"/>
-      <c r="D46" s="306" t="n"/>
-      <c r="E46" s="307" t="n"/>
-      <c r="F46" s="308" t="n"/>
-      <c r="G46" s="309" t="n"/>
+      <c r="D46" s="331" t="n"/>
+      <c r="E46" s="332" t="n"/>
+      <c r="F46" s="333" t="n"/>
+      <c r="G46" s="334" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="303" t="n"/>
+      <c r="A47" s="328" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="310" t="n"/>
-      <c r="E47" s="311" t="n"/>
+      <c r="D47" s="335" t="n"/>
+      <c r="E47" s="336" t="n"/>
       <c r="L47" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="303" t="n"/>
+      <c r="A48" s="328" t="n"/>
       <c r="B48" s="243" t="n"/>
-      <c r="D48" s="310" t="n"/>
-      <c r="E48" s="311" t="n"/>
+      <c r="D48" s="335" t="n"/>
+      <c r="E48" s="336" t="n"/>
       <c r="L48" s="218" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="303" t="n"/>
+      <c r="A49" s="328" t="n"/>
       <c r="B49" s="243" t="n"/>
-      <c r="D49" s="310" t="n"/>
-      <c r="E49" s="311" t="n"/>
+      <c r="D49" s="335" t="n"/>
+      <c r="E49" s="336" t="n"/>
       <c r="L49" s="218" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="303" t="n"/>
+      <c r="A50" s="328" t="n"/>
       <c r="B50" s="243" t="n"/>
       <c r="C50" s="243" t="n"/>
-      <c r="D50" s="310" t="n"/>
-      <c r="E50" s="311" t="n"/>
+      <c r="D50" s="335" t="n"/>
+      <c r="E50" s="336" t="n"/>
       <c r="L50" s="218" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="303" t="n"/>
+      <c r="A51" s="328" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="310" t="n"/>
-      <c r="E51" s="311" t="n"/>
+      <c r="D51" s="335" t="n"/>
+      <c r="E51" s="336" t="n"/>
       <c r="L51" s="218" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="303" t="n"/>
+      <c r="A52" s="328" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="243" t="n"/>
-      <c r="E52" s="311" t="n"/>
+      <c r="E52" s="336" t="n"/>
       <c r="L52" s="218" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="303" t="n"/>
+      <c r="A53" s="328" t="n"/>
       <c r="B53" s="243" t="n"/>
-      <c r="D53" s="310" t="n"/>
-      <c r="E53" s="311" t="n"/>
+      <c r="D53" s="335" t="n"/>
+      <c r="E53" s="336" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="303" t="n"/>
+      <c r="A54" s="328" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="310" t="n"/>
-      <c r="E54" s="311" t="n"/>
+      <c r="D54" s="335" t="n"/>
+      <c r="E54" s="336" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="218" t="n"/>
@@ -7271,11 +7291,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="303" t="n"/>
+      <c r="A55" s="328" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="237" t="n"/>
-      <c r="D55" s="310" t="n"/>
-      <c r="E55" s="311" t="n"/>
+      <c r="D55" s="335" t="n"/>
+      <c r="E55" s="336" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="218" t="n"/>
@@ -7285,11 +7305,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="303" t="n"/>
+      <c r="A56" s="328" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="310" t="n"/>
-      <c r="E56" s="311" t="n"/>
+      <c r="D56" s="335" t="n"/>
+      <c r="E56" s="336" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="218" t="n"/>
@@ -7299,11 +7319,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="303" t="n"/>
+      <c r="A57" s="328" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="310" t="n"/>
-      <c r="E57" s="311" t="n"/>
+      <c r="D57" s="335" t="n"/>
+      <c r="E57" s="336" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -7313,11 +7333,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="303" t="n"/>
+      <c r="A58" s="328" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="310" t="n"/>
-      <c r="E58" s="311" t="n"/>
+      <c r="D58" s="335" t="n"/>
+      <c r="E58" s="336" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -7327,11 +7347,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="303" t="n"/>
+      <c r="A59" s="328" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="310" t="n"/>
-      <c r="E59" s="311" t="n"/>
+      <c r="D59" s="335" t="n"/>
+      <c r="E59" s="336" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -7341,11 +7361,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="303" t="n"/>
+      <c r="A60" s="328" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="310" t="n"/>
-      <c r="E60" s="311" t="n"/>
+      <c r="D60" s="335" t="n"/>
+      <c r="E60" s="336" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -7355,11 +7375,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="303" t="n"/>
+      <c r="A61" s="328" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="310" t="n"/>
-      <c r="E61" s="311" t="n"/>
+      <c r="D61" s="335" t="n"/>
+      <c r="E61" s="336" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -7369,11 +7389,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="303" t="n"/>
+      <c r="A62" s="328" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="310" t="n"/>
-      <c r="E62" s="311" t="n"/>
+      <c r="D62" s="335" t="n"/>
+      <c r="E62" s="336" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -7383,11 +7403,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="303" t="n"/>
+      <c r="A63" s="328" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
-      <c r="D63" s="310" t="n"/>
-      <c r="E63" s="311" t="n"/>
+      <c r="D63" s="335" t="n"/>
+      <c r="E63" s="336" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="218" t="n"/>
@@ -7397,11 +7417,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="303" t="n"/>
+      <c r="A64" s="328" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
-      <c r="D64" s="310" t="n"/>
-      <c r="E64" s="311" t="n"/>
+      <c r="D64" s="335" t="n"/>
+      <c r="E64" s="336" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="218" t="n"/>
@@ -7411,11 +7431,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="303" t="n"/>
+      <c r="A65" s="328" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="310" t="n"/>
-      <c r="E65" s="311" t="n"/>
+      <c r="D65" s="335" t="n"/>
+      <c r="E65" s="336" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="218" t="n"/>
@@ -7425,7 +7445,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="303" t="n"/>
+      <c r="A66" s="328" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -7439,7 +7459,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="303" t="n"/>
+      <c r="A67" s="328" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
       <c r="D67" s="238" t="n"/>
@@ -7453,7 +7473,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="303" t="n"/>
+      <c r="A68" s="328" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
       <c r="D68" s="238" t="n"/>
@@ -7467,7 +7487,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="303" t="n"/>
+      <c r="A69" s="328" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -7481,7 +7501,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="237">
-      <c r="A70" s="303" t="n"/>
+      <c r="A70" s="328" t="n"/>
       <c r="D70" s="238" t="n"/>
       <c r="E70" s="239" t="n"/>
       <c r="F70" s="240" t="n"/>
@@ -7493,7 +7513,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="237">
-      <c r="A71" s="303" t="n"/>
+      <c r="A71" s="328" t="n"/>
       <c r="D71" s="238" t="n"/>
       <c r="E71" s="239" t="n"/>
       <c r="F71" s="240" t="n"/>
@@ -7505,7 +7525,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="237">
-      <c r="A72" s="303" t="n"/>
+      <c r="A72" s="328" t="n"/>
       <c r="D72" s="238" t="n"/>
       <c r="E72" s="239" t="n"/>
       <c r="F72" s="240" t="n"/>
@@ -7536,7 +7556,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7571,137 +7590,137 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="245" t="inlineStr">
+      <c r="A1" s="337" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="246" t="n"/>
-      <c r="C1" s="246" t="n"/>
-      <c r="D1" s="246" t="n"/>
-      <c r="E1" s="246" t="n"/>
-      <c r="F1" s="246" t="n"/>
-      <c r="G1" s="246" t="n"/>
-      <c r="H1" s="246" t="n"/>
+      <c r="B1" s="319" t="n"/>
+      <c r="C1" s="319" t="n"/>
+      <c r="D1" s="319" t="n"/>
+      <c r="E1" s="319" t="n"/>
+      <c r="F1" s="319" t="n"/>
+      <c r="G1" s="319" t="n"/>
+      <c r="H1" s="319" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="247" t="inlineStr">
+      <c r="A2" s="338" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="248" t="n"/>
-      <c r="J2" s="248" t="n"/>
+      <c r="I2" s="249" t="n"/>
+      <c r="J2" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="249" t="inlineStr">
+      <c r="A3" s="339" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="250" t="n"/>
-      <c r="J3" s="250" t="n"/>
+      <c r="I3" s="266" t="n"/>
+      <c r="J3" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="251" t="inlineStr">
+      <c r="A4" s="340" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="252" t="inlineStr">
+      <c r="B4" s="341" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="253" t="n"/>
-      <c r="D4" s="253" t="n"/>
-      <c r="E4" s="253" t="n"/>
-      <c r="F4" s="253" t="n"/>
-      <c r="G4" s="253" t="n"/>
-      <c r="H4" s="254" t="n"/>
-      <c r="I4" s="248" t="n"/>
-      <c r="J4" s="248" t="n"/>
+      <c r="C4" s="342" t="n"/>
+      <c r="D4" s="342" t="n"/>
+      <c r="E4" s="342" t="n"/>
+      <c r="F4" s="342" t="n"/>
+      <c r="G4" s="342" t="n"/>
+      <c r="H4" s="343" t="n"/>
+      <c r="I4" s="249" t="n"/>
+      <c r="J4" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="255" t="n"/>
-      <c r="B5" s="256" t="n"/>
-      <c r="H5" s="257" t="n"/>
-      <c r="I5" s="250" t="n"/>
-      <c r="J5" s="250" t="n"/>
+      <c r="A5" s="263" t="n"/>
+      <c r="B5" s="264" t="n"/>
+      <c r="H5" s="265" t="n"/>
+      <c r="I5" s="266" t="n"/>
+      <c r="J5" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="255" t="n"/>
-      <c r="B6" s="256" t="n"/>
-      <c r="H6" s="257" t="n"/>
-      <c r="I6" s="250" t="n"/>
-      <c r="J6" s="250" t="n"/>
+      <c r="A6" s="263" t="n"/>
+      <c r="B6" s="264" t="n"/>
+      <c r="H6" s="265" t="n"/>
+      <c r="I6" s="266" t="n"/>
+      <c r="J6" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="258" t="n"/>
-      <c r="B7" s="259" t="n"/>
-      <c r="C7" s="260" t="n"/>
-      <c r="D7" s="260" t="n"/>
-      <c r="E7" s="260" t="n"/>
-      <c r="F7" s="260" t="n"/>
-      <c r="G7" s="260" t="n"/>
-      <c r="H7" s="261" t="n"/>
-      <c r="I7" s="250" t="n"/>
-      <c r="J7" s="250" t="n"/>
+      <c r="A7" s="267" t="n"/>
+      <c r="B7" s="268" t="n"/>
+      <c r="C7" s="269" t="n"/>
+      <c r="D7" s="269" t="n"/>
+      <c r="E7" s="269" t="n"/>
+      <c r="F7" s="269" t="n"/>
+      <c r="G7" s="269" t="n"/>
+      <c r="H7" s="270" t="n"/>
+      <c r="I7" s="266" t="n"/>
+      <c r="J7" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="262" t="inlineStr">
+      <c r="A8" s="344" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="263" t="n"/>
-      <c r="C8" s="263" t="n"/>
-      <c r="D8" s="263" t="n"/>
-      <c r="E8" s="263" t="n"/>
-      <c r="F8" s="263" t="n"/>
-      <c r="G8" s="263" t="n"/>
-      <c r="H8" s="264" t="n"/>
-      <c r="I8" s="250" t="n"/>
-      <c r="J8" s="250" t="n"/>
+      <c r="B8" s="303" t="n"/>
+      <c r="C8" s="303" t="n"/>
+      <c r="D8" s="303" t="n"/>
+      <c r="E8" s="303" t="n"/>
+      <c r="F8" s="303" t="n"/>
+      <c r="G8" s="303" t="n"/>
+      <c r="H8" s="304" t="n"/>
+      <c r="I8" s="266" t="n"/>
+      <c r="J8" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="265" t="inlineStr">
+      <c r="A9" s="276" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="266" t="inlineStr">
+      <c r="B9" s="277" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="267" t="inlineStr">
+      <c r="C9" s="278" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="268" t="inlineStr">
+      <c r="D9" s="279" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="269" t="inlineStr">
+      <c r="E9" s="280" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="270" t="inlineStr">
+      <c r="F9" s="281" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="271" t="inlineStr">
+      <c r="G9" s="282" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="272" t="inlineStr">
+      <c r="H9" s="283" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -7714,21 +7733,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="273">
+      <c r="A10" s="284">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="274" t="inlineStr">
+      <c r="B10" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="274" t="inlineStr">
+      <c r="C10" s="285" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="275">
+      <c r="D10" s="286">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7747,21 +7766,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="273">
+      <c r="A11" s="284">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="276" t="inlineStr">
+      <c r="B11" s="287" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="277" t="inlineStr">
+      <c r="C11" s="288" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="278">
+      <c r="D11" s="289">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7788,21 +7807,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="244">
-      <c r="A12" s="273">
+      <c r="A12" s="284">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="274" t="inlineStr">
+      <c r="B12" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="279" t="inlineStr">
+      <c r="C12" s="290" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="278">
+      <c r="D12" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7833,21 +7852,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="244">
-      <c r="A13" s="273">
+      <c r="A13" s="284">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="276" t="inlineStr">
+      <c r="B13" s="287" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="276" t="inlineStr">
+      <c r="C13" s="287" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="278">
+      <c r="D13" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7872,21 +7891,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="273">
+      <c r="A14" s="284">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="276" t="inlineStr">
+      <c r="B14" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="276" t="inlineStr">
+      <c r="C14" s="287" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="278">
+      <c r="D14" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7908,24 +7927,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="248" t="n"/>
+      <c r="L14" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="273">
+      <c r="A15" s="284">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="276" t="inlineStr">
+      <c r="B15" s="287" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="276" t="inlineStr">
+      <c r="C15" s="287" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -7945,24 +7964,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="248" t="n"/>
+      <c r="L15" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="244">
-      <c r="A16" s="273">
+      <c r="A16" s="284">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="276" t="inlineStr">
+      <c r="B16" s="287" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="276" t="inlineStr">
+      <c r="C16" s="287" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="278">
+      <c r="D16" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -7982,24 +8001,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="248" t="n"/>
+      <c r="L16" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="244">
-      <c r="A17" s="273">
+      <c r="A17" s="284">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="276" t="inlineStr">
+      <c r="B17" s="287" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="276" t="inlineStr">
+      <c r="C17" s="287" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="278">
+      <c r="D17" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -8023,24 +8042,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="248" t="n"/>
+      <c r="L17" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="273">
+      <c r="A18" s="284">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="276" t="inlineStr">
+      <c r="B18" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="276" t="inlineStr">
+      <c r="C18" s="287" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="278">
+      <c r="D18" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8061,11 +8080,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="280">
+      <c r="A19" s="291">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="281" t="inlineStr">
+      <c r="B19" s="292" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -8075,7 +8094,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="278">
+      <c r="D19" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8096,18 +8115,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="282" t="inlineStr">
+      <c r="A20" s="302" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="263" t="n"/>
-      <c r="C20" s="263" t="n"/>
-      <c r="D20" s="263" t="n"/>
-      <c r="E20" s="263" t="n"/>
-      <c r="F20" s="263" t="n"/>
-      <c r="G20" s="263" t="n"/>
-      <c r="H20" s="264" t="n"/>
+      <c r="B20" s="303" t="n"/>
+      <c r="C20" s="303" t="n"/>
+      <c r="D20" s="303" t="n"/>
+      <c r="E20" s="303" t="n"/>
+      <c r="F20" s="303" t="n"/>
+      <c r="G20" s="303" t="n"/>
+      <c r="H20" s="304" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -8117,7 +8136,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="273">
+      <c r="A21" s="284">
         <f>J20</f>
         <v/>
       </c>
@@ -8131,7 +8150,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="283">
+      <c r="D21" s="296">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -8156,21 +8175,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="273">
+      <c r="A22" s="284">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="279" t="inlineStr">
+      <c r="B22" s="290" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="279" t="inlineStr">
+      <c r="C22" s="290" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="278">
+      <c r="D22" s="289">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -8203,21 +8222,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="273">
+      <c r="A23" s="284">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="279" t="inlineStr">
+      <c r="B23" s="290" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="276" t="inlineStr">
+      <c r="C23" s="287" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="278">
+      <c r="D23" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8240,17 +8259,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="284">
+      <c r="A24" s="297">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="285" t="inlineStr">
+      <c r="B24" s="298" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="286">
+      <c r="D24" s="299">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8273,18 +8292,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="282" t="inlineStr">
+      <c r="A25" s="302" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="263" t="n"/>
-      <c r="C25" s="263" t="n"/>
-      <c r="D25" s="263" t="n"/>
-      <c r="E25" s="263" t="n"/>
-      <c r="F25" s="263" t="n"/>
-      <c r="G25" s="263" t="n"/>
-      <c r="H25" s="264" t="n"/>
+      <c r="B25" s="303" t="n"/>
+      <c r="C25" s="303" t="n"/>
+      <c r="D25" s="303" t="n"/>
+      <c r="E25" s="303" t="n"/>
+      <c r="F25" s="303" t="n"/>
+      <c r="G25" s="303" t="n"/>
+      <c r="H25" s="304" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -8293,10 +8312,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="248" t="n"/>
+      <c r="L25" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="273">
+      <c r="A26" s="284">
         <f>J25</f>
         <v/>
       </c>
@@ -8310,7 +8329,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="283">
+      <c r="D26" s="296">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8332,24 +8351,24 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="248" t="n"/>
+      <c r="L26" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244">
-      <c r="A27" s="273">
+      <c r="A27" s="284">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="276" t="inlineStr">
+      <c r="B27" s="287" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="287" t="inlineStr">
+      <c r="C27" s="300" t="inlineStr">
         <is>
           <t>Ice Breaker</t>
         </is>
       </c>
-      <c r="D27" s="288">
+      <c r="D27" s="301">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -8381,10 +8400,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="248" t="n"/>
+      <c r="L27" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="273">
+      <c r="A28" s="284">
         <f>J27</f>
         <v/>
       </c>
@@ -8398,7 +8417,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="288">
+      <c r="D28" s="301">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8420,24 +8439,24 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="248" t="n"/>
+      <c r="L28" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="29" s="244">
-      <c r="A29" s="273">
+      <c r="A29" s="284">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="276" t="inlineStr">
+      <c r="B29" s="287" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="287" t="inlineStr">
+      <c r="C29" s="300" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D29" s="337">
+      <c r="D29" s="345">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -8469,10 +8488,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="248" t="n"/>
+      <c r="L29" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="30" s="244">
-      <c r="A30" s="273">
+      <c r="A30" s="284">
         <f>J29</f>
         <v/>
       </c>
@@ -8486,7 +8505,7 @@
           <t>Introduce the 3nd Speaker</t>
         </is>
       </c>
-      <c r="D30" s="288">
+      <c r="D30" s="301">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8508,24 +8527,24 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="248" t="n"/>
+      <c r="L30" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="31" s="244" thickBot="1">
-      <c r="A31" s="273">
+      <c r="A31" s="284">
         <f>J30</f>
         <v/>
       </c>
-      <c r="B31" s="276" t="inlineStr">
+      <c r="B31" s="287" t="inlineStr">
         <is>
           <t>Prepared Speaker3</t>
         </is>
       </c>
-      <c r="C31" s="287" t="inlineStr">
+      <c r="C31" s="300" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D31" s="337">
+      <c r="D31" s="345">
         <f>Roles!B13</f>
         <v/>
       </c>
@@ -8557,31 +8576,31 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="248" t="n"/>
+      <c r="L31" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244" thickBot="1">
-      <c r="A32" s="282" t="inlineStr">
+      <c r="A32" s="302" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B32" s="263" t="n"/>
-      <c r="C32" s="263" t="n"/>
-      <c r="D32" s="263" t="n"/>
-      <c r="E32" s="263" t="n"/>
-      <c r="F32" s="263" t="n"/>
-      <c r="G32" s="263" t="n"/>
-      <c r="H32" s="264" t="n"/>
+      <c r="B32" s="303" t="n"/>
+      <c r="C32" s="303" t="n"/>
+      <c r="D32" s="303" t="n"/>
+      <c r="E32" s="303" t="n"/>
+      <c r="F32" s="303" t="n"/>
+      <c r="G32" s="303" t="n"/>
+      <c r="H32" s="304" t="n"/>
       <c r="I32" s="37" t="n"/>
       <c r="J32" s="36">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="248" t="n"/>
+      <c r="L32" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="273">
+      <c r="A33" s="284">
         <f>J32</f>
         <v/>
       </c>
@@ -8595,7 +8614,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D33" s="283">
+      <c r="D33" s="296">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8617,10 +8636,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="248" t="n"/>
+      <c r="L33" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="244">
-      <c r="A34" s="273">
+      <c r="A34" s="284">
         <f>J33</f>
         <v/>
       </c>
@@ -8634,11 +8653,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D34" s="283">
+      <c r="D34" s="296">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E34" s="289" t="inlineStr">
+      <c r="E34" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8660,10 +8679,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="248" t="n"/>
+      <c r="L34" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="273">
+      <c r="A35" s="284">
         <f>J34</f>
         <v/>
       </c>
@@ -8677,11 +8696,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D35" s="283">
+      <c r="D35" s="296">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E35" s="289" t="inlineStr">
+      <c r="E35" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8703,10 +8722,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="248" t="n"/>
+      <c r="L35" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="273">
+      <c r="A36" s="284">
         <f>J35</f>
         <v/>
       </c>
@@ -8720,11 +8739,11 @@
           <t>Evaluate the 3rd speaker</t>
         </is>
       </c>
-      <c r="D36" s="283">
+      <c r="D36" s="296">
         <f>Roles!B17</f>
         <v/>
       </c>
-      <c r="E36" s="289" t="inlineStr">
+      <c r="E36" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8746,10 +8765,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="248" t="n"/>
+      <c r="L36" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="244">
-      <c r="A37" s="273">
+      <c r="A37" s="284">
         <f>J36</f>
         <v/>
       </c>
@@ -8763,7 +8782,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D37" s="278">
+      <c r="D37" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -8787,10 +8806,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="290" t="n"/>
+      <c r="L37" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="273">
+      <c r="A38" s="284">
         <f>J37</f>
         <v/>
       </c>
@@ -8804,7 +8823,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D38" s="278">
+      <c r="D38" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -8830,10 +8849,10 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="290" t="n"/>
+      <c r="L38" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244">
-      <c r="A39" s="273">
+      <c r="A39" s="284">
         <f>J38</f>
         <v/>
       </c>
@@ -8847,7 +8866,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D39" s="278">
+      <c r="D39" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -8871,14 +8890,14 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="290" t="n"/>
+      <c r="L39" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="244">
-      <c r="A40" s="273">
+      <c r="A40" s="284">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="274" t="inlineStr">
+      <c r="B40" s="285" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -8888,7 +8907,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D40" s="278">
+      <c r="D40" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -8908,24 +8927,24 @@
         <v/>
       </c>
       <c r="K40" s="36" t="n"/>
-      <c r="L40" s="290" t="n"/>
+      <c r="L40" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="41" s="244">
-      <c r="A41" s="273">
+      <c r="A41" s="284">
         <f>J40</f>
         <v/>
       </c>
-      <c r="B41" s="276" t="inlineStr">
+      <c r="B41" s="287" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C41" s="276" t="inlineStr">
+      <c r="C41" s="287" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D41" s="278">
+      <c r="D41" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8957,24 +8976,24 @@
         <v/>
       </c>
       <c r="K41" s="36" t="n"/>
-      <c r="L41" s="290" t="n"/>
+      <c r="L41" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="42" s="244" thickBot="1">
-      <c r="A42" s="291">
+      <c r="A42" s="315">
         <f>J41</f>
         <v/>
       </c>
-      <c r="B42" s="279" t="inlineStr">
+      <c r="B42" s="290" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C42" s="276" t="inlineStr">
+      <c r="C42" s="287" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D42" s="278">
+      <c r="D42" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9006,24 +9025,24 @@
         <v/>
       </c>
       <c r="K42" s="36" t="n"/>
-      <c r="L42" s="290" t="n"/>
+      <c r="L42" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="43" s="244" thickBot="1">
-      <c r="A43" s="291">
+      <c r="A43" s="315">
         <f>J42</f>
         <v/>
       </c>
-      <c r="B43" s="292" t="inlineStr">
+      <c r="B43" s="316" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C43" s="293" t="inlineStr">
+      <c r="C43" s="317" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D43" s="278">
+      <c r="D43" s="289">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -9048,21 +9067,21 @@
       <c r="L43" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="44" s="244">
-      <c r="A44" s="294" t="n"/>
-      <c r="B44" s="246" t="n"/>
-      <c r="C44" s="246" t="n"/>
-      <c r="D44" s="246" t="n"/>
+      <c r="A44" s="318" t="n"/>
+      <c r="B44" s="319" t="n"/>
+      <c r="C44" s="319" t="n"/>
+      <c r="D44" s="319" t="n"/>
       <c r="E44" s="243" t="n"/>
-      <c r="F44" s="295" t="n"/>
-      <c r="G44" s="296" t="n"/>
-      <c r="H44" s="297" t="n"/>
+      <c r="F44" s="320" t="n"/>
+      <c r="G44" s="321" t="n"/>
+      <c r="H44" s="322" t="n"/>
       <c r="I44" s="39" t="n"/>
       <c r="J44" s="39" t="n"/>
       <c r="K44" s="39" t="n"/>
       <c r="L44" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="45" s="244">
-      <c r="A45" s="298" t="inlineStr">
+      <c r="A45" s="323" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -9072,18 +9091,18 @@
 </t>
         </is>
       </c>
-      <c r="D45" s="299" t="n"/>
+      <c r="D45" s="324" t="n"/>
       <c r="I45" s="39" t="n"/>
-      <c r="J45" s="300" t="inlineStr">
+      <c r="J45" s="325" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K45" s="301" t="n"/>
+      <c r="K45" s="326" t="n"/>
       <c r="L45" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="46" s="244">
-      <c r="A46" s="302" t="inlineStr">
+      <c r="A46" s="327" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -9094,91 +9113,91 @@
         </is>
       </c>
       <c r="I46" s="39" t="n"/>
-      <c r="J46" s="300" t="n"/>
+      <c r="J46" s="325" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="303" t="n"/>
+      <c r="A47" s="328" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="304" t="n"/>
-      <c r="E47" s="305" t="n"/>
-      <c r="F47" s="305" t="n"/>
-      <c r="G47" s="305" t="n"/>
-      <c r="H47" s="305" t="n"/>
+      <c r="D47" s="329" t="n"/>
+      <c r="E47" s="330" t="n"/>
+      <c r="F47" s="330" t="n"/>
+      <c r="G47" s="330" t="n"/>
+      <c r="H47" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="303" t="n"/>
+      <c r="A48" s="328" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="304" t="n"/>
-      <c r="F48" s="305" t="n"/>
-      <c r="G48" s="305" t="n"/>
-      <c r="H48" s="305" t="n"/>
+      <c r="D48" s="329" t="n"/>
+      <c r="F48" s="330" t="n"/>
+      <c r="G48" s="330" t="n"/>
+      <c r="H48" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="49" s="244">
-      <c r="A49" s="303" t="n"/>
+      <c r="A49" s="328" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="D49" s="306" t="n"/>
-      <c r="E49" s="307" t="n"/>
-      <c r="F49" s="308" t="n"/>
-      <c r="G49" s="309" t="n"/>
+      <c r="D49" s="331" t="n"/>
+      <c r="E49" s="332" t="n"/>
+      <c r="F49" s="333" t="n"/>
+      <c r="G49" s="334" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="50" s="244">
-      <c r="A50" s="303" t="n"/>
+      <c r="A50" s="328" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="310" t="n"/>
-      <c r="E50" s="311" t="n"/>
+      <c r="D50" s="335" t="n"/>
+      <c r="E50" s="336" t="n"/>
       <c r="L50" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="51" s="244">
-      <c r="A51" s="303" t="n"/>
+      <c r="A51" s="328" t="n"/>
       <c r="B51" s="243" t="n"/>
-      <c r="D51" s="310" t="n"/>
-      <c r="E51" s="311" t="n"/>
+      <c r="D51" s="335" t="n"/>
+      <c r="E51" s="336" t="n"/>
       <c r="L51" s="218" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="303" t="n"/>
+      <c r="A52" s="328" t="n"/>
       <c r="B52" s="243" t="n"/>
-      <c r="D52" s="310" t="n"/>
-      <c r="E52" s="311" t="n"/>
+      <c r="D52" s="335" t="n"/>
+      <c r="E52" s="336" t="n"/>
       <c r="L52" s="218" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="303" t="n"/>
+      <c r="A53" s="328" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="310" t="n"/>
-      <c r="E53" s="311" t="n"/>
+      <c r="D53" s="335" t="n"/>
+      <c r="E53" s="336" t="n"/>
       <c r="L53" s="218" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="303" t="n"/>
+      <c r="A54" s="328" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="310" t="n"/>
-      <c r="E54" s="311" t="n"/>
+      <c r="D54" s="335" t="n"/>
+      <c r="E54" s="336" t="n"/>
       <c r="L54" s="218" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="303" t="n"/>
+      <c r="A55" s="328" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="E55" s="311" t="n"/>
+      <c r="E55" s="336" t="n"/>
       <c r="L55" s="218" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="303" t="n"/>
+      <c r="A56" s="328" t="n"/>
       <c r="B56" s="243" t="n"/>
-      <c r="D56" s="310" t="n"/>
-      <c r="E56" s="311" t="n"/>
+      <c r="D56" s="335" t="n"/>
+      <c r="E56" s="336" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="303" t="n"/>
+      <c r="A57" s="328" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="310" t="n"/>
-      <c r="E57" s="311" t="n"/>
+      <c r="D57" s="335" t="n"/>
+      <c r="E57" s="336" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -9188,11 +9207,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="303" t="n"/>
+      <c r="A58" s="328" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="237" t="n"/>
-      <c r="D58" s="310" t="n"/>
-      <c r="E58" s="311" t="n"/>
+      <c r="D58" s="335" t="n"/>
+      <c r="E58" s="336" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -9202,11 +9221,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="303" t="n"/>
+      <c r="A59" s="328" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="310" t="n"/>
-      <c r="E59" s="311" t="n"/>
+      <c r="D59" s="335" t="n"/>
+      <c r="E59" s="336" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -9216,11 +9235,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="303" t="n"/>
+      <c r="A60" s="328" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="310" t="n"/>
-      <c r="E60" s="311" t="n"/>
+      <c r="D60" s="335" t="n"/>
+      <c r="E60" s="336" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -9230,11 +9249,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="303" t="n"/>
+      <c r="A61" s="328" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="310" t="n"/>
-      <c r="E61" s="311" t="n"/>
+      <c r="D61" s="335" t="n"/>
+      <c r="E61" s="336" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -9244,11 +9263,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="303" t="n"/>
+      <c r="A62" s="328" t="n"/>
       <c r="B62" s="243" t="n"/>
       <c r="C62" s="243" t="n"/>
-      <c r="D62" s="310" t="n"/>
-      <c r="E62" s="311" t="n"/>
+      <c r="D62" s="335" t="n"/>
+      <c r="E62" s="336" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -9258,11 +9277,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="303" t="n"/>
+      <c r="A63" s="328" t="n"/>
       <c r="B63" s="243" t="n"/>
       <c r="C63" s="243" t="n"/>
-      <c r="D63" s="310" t="n"/>
-      <c r="E63" s="311" t="n"/>
+      <c r="D63" s="335" t="n"/>
+      <c r="E63" s="336" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="218" t="n"/>
@@ -9272,11 +9291,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="303" t="n"/>
+      <c r="A64" s="328" t="n"/>
       <c r="B64" s="243" t="n"/>
       <c r="C64" s="243" t="n"/>
-      <c r="D64" s="310" t="n"/>
-      <c r="E64" s="311" t="n"/>
+      <c r="D64" s="335" t="n"/>
+      <c r="E64" s="336" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="218" t="n"/>
@@ -9286,11 +9305,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="303" t="n"/>
+      <c r="A65" s="328" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="310" t="n"/>
-      <c r="E65" s="311" t="n"/>
+      <c r="D65" s="335" t="n"/>
+      <c r="E65" s="336" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="218" t="n"/>
@@ -9300,11 +9319,11 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="303" t="n"/>
+      <c r="A66" s="328" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
-      <c r="D66" s="310" t="n"/>
-      <c r="E66" s="311" t="n"/>
+      <c r="D66" s="335" t="n"/>
+      <c r="E66" s="336" t="n"/>
       <c r="G66" s="241" t="n"/>
       <c r="H66" s="242" t="n"/>
       <c r="I66" s="218" t="n"/>
@@ -9314,11 +9333,11 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="303" t="n"/>
+      <c r="A67" s="328" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
-      <c r="D67" s="310" t="n"/>
-      <c r="E67" s="311" t="n"/>
+      <c r="D67" s="335" t="n"/>
+      <c r="E67" s="336" t="n"/>
       <c r="G67" s="241" t="n"/>
       <c r="H67" s="242" t="n"/>
       <c r="I67" s="218" t="n"/>
@@ -9328,11 +9347,11 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="303" t="n"/>
+      <c r="A68" s="328" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
-      <c r="D68" s="310" t="n"/>
-      <c r="E68" s="311" t="n"/>
+      <c r="D68" s="335" t="n"/>
+      <c r="E68" s="336" t="n"/>
       <c r="G68" s="241" t="n"/>
       <c r="H68" s="242" t="n"/>
       <c r="I68" s="218" t="n"/>
@@ -9342,7 +9361,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="303" t="n"/>
+      <c r="A69" s="328" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -9356,7 +9375,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="240">
-      <c r="A70" s="303" t="n"/>
+      <c r="A70" s="328" t="n"/>
       <c r="B70" s="237" t="n"/>
       <c r="C70" s="237" t="n"/>
       <c r="D70" s="238" t="n"/>
@@ -9370,7 +9389,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="240">
-      <c r="A71" s="303" t="n"/>
+      <c r="A71" s="328" t="n"/>
       <c r="B71" s="237" t="n"/>
       <c r="C71" s="237" t="n"/>
       <c r="D71" s="238" t="n"/>
@@ -9384,7 +9403,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="240">
-      <c r="A72" s="303" t="n"/>
+      <c r="A72" s="328" t="n"/>
       <c r="B72" s="237" t="n"/>
       <c r="C72" s="237" t="n"/>
       <c r="D72" s="238" t="n"/>
@@ -9398,7 +9417,7 @@
       <c r="M72" s="243" t="n"/>
     </row>
     <row customFormat="1" r="73" s="237">
-      <c r="A73" s="303" t="n"/>
+      <c r="A73" s="328" t="n"/>
       <c r="D73" s="238" t="n"/>
       <c r="E73" s="239" t="n"/>
       <c r="F73" s="240" t="n"/>
@@ -9410,7 +9429,7 @@
       <c r="M73" s="243" t="n"/>
     </row>
     <row customFormat="1" r="74" s="237">
-      <c r="A74" s="303" t="n"/>
+      <c r="A74" s="328" t="n"/>
       <c r="D74" s="238" t="n"/>
       <c r="E74" s="239" t="n"/>
       <c r="F74" s="240" t="n"/>
@@ -9422,7 +9441,7 @@
       <c r="M74" s="243" t="n"/>
     </row>
     <row customFormat="1" r="75" s="237">
-      <c r="A75" s="303" t="n"/>
+      <c r="A75" s="328" t="n"/>
       <c r="D75" s="238" t="n"/>
       <c r="E75" s="239" t="n"/>
       <c r="F75" s="240" t="n"/>
@@ -9487,18 +9506,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="245" t="inlineStr">
+      <c r="A1" s="337" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="246" t="n"/>
-      <c r="C1" s="246" t="n"/>
-      <c r="D1" s="246" t="n"/>
-      <c r="E1" s="246" t="n"/>
-      <c r="F1" s="246" t="n"/>
-      <c r="G1" s="246" t="n"/>
-      <c r="H1" s="246" t="n"/>
+      <c r="B1" s="319" t="n"/>
+      <c r="C1" s="319" t="n"/>
+      <c r="D1" s="319" t="n"/>
+      <c r="E1" s="319" t="n"/>
+      <c r="F1" s="319" t="n"/>
+      <c r="G1" s="319" t="n"/>
+      <c r="H1" s="319" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
       <c r="A2" s="346" t="inlineStr">
@@ -9506,8 +9525,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="248" t="n"/>
-      <c r="J2" s="248" t="n"/>
+      <c r="I2" s="249" t="n"/>
+      <c r="J2" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
       <c r="A3" s="347" t="inlineStr">
@@ -9522,8 +9541,8 @@
       <c r="F3" s="348" t="n"/>
       <c r="G3" s="348" t="n"/>
       <c r="H3" s="348" t="n"/>
-      <c r="I3" s="250" t="n"/>
-      <c r="J3" s="250" t="n"/>
+      <c r="I3" s="266" t="n"/>
+      <c r="J3" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
       <c r="A4" s="349" t="inlineStr">
@@ -9542,13 +9561,13 @@
       <c r="F4" s="351" t="n"/>
       <c r="G4" s="351" t="n"/>
       <c r="H4" s="351" t="n"/>
-      <c r="I4" s="248" t="n"/>
-      <c r="J4" s="248" t="n"/>
+      <c r="I4" s="249" t="n"/>
+      <c r="J4" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
       <c r="A5" s="352" t="n"/>
-      <c r="I5" s="250" t="n"/>
-      <c r="J5" s="250" t="n"/>
+      <c r="I5" s="266" t="n"/>
+      <c r="J5" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
       <c r="A6" s="349" t="inlineStr">
@@ -9567,29 +9586,29 @@
       <c r="F6" s="351" t="n"/>
       <c r="G6" s="351" t="n"/>
       <c r="H6" s="351" t="n"/>
-      <c r="I6" s="250" t="n"/>
-      <c r="J6" s="250" t="n"/>
+      <c r="I6" s="266" t="n"/>
+      <c r="J6" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
       <c r="A7" s="352" t="n"/>
-      <c r="I7" s="250" t="n"/>
-      <c r="J7" s="250" t="n"/>
+      <c r="I7" s="266" t="n"/>
+      <c r="J7" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="262" t="inlineStr">
+      <c r="A8" s="344" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="263" t="n"/>
-      <c r="C8" s="263" t="n"/>
-      <c r="D8" s="263" t="n"/>
-      <c r="E8" s="263" t="n"/>
-      <c r="F8" s="263" t="n"/>
-      <c r="G8" s="263" t="n"/>
-      <c r="H8" s="264" t="n"/>
-      <c r="I8" s="250" t="n"/>
-      <c r="J8" s="250" t="n"/>
+      <c r="B8" s="303" t="n"/>
+      <c r="C8" s="303" t="n"/>
+      <c r="D8" s="303" t="n"/>
+      <c r="E8" s="303" t="n"/>
+      <c r="F8" s="303" t="n"/>
+      <c r="G8" s="303" t="n"/>
+      <c r="H8" s="304" t="n"/>
+      <c r="I8" s="266" t="n"/>
+      <c r="J8" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
       <c r="A9" s="353" t="inlineStr">
@@ -9607,28 +9626,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="268" t="inlineStr">
+      <c r="D9" s="279" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="269" t="inlineStr">
+      <c r="E9" s="280" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="270" t="inlineStr">
+      <c r="F9" s="281" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="271" t="inlineStr">
+      <c r="G9" s="282" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="272" t="inlineStr">
+      <c r="H9" s="283" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -9641,7 +9660,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="273">
+      <c r="A10" s="284">
         <f>J9</f>
         <v/>
       </c>
@@ -9655,7 +9674,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="275">
+      <c r="D10" s="286">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -9674,7 +9693,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="273">
+      <c r="A11" s="284">
         <f>J10</f>
         <v/>
       </c>
@@ -9688,7 +9707,7 @@
           <t>会议开场 &amp; 欢迎</t>
         </is>
       </c>
-      <c r="D11" s="278">
+      <c r="D11" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9715,10 +9734,10 @@
       </c>
     </row>
     <row customHeight="1" ht="1.5" r="12" s="244">
-      <c r="A12" s="273" t="n"/>
+      <c r="A12" s="284" t="n"/>
       <c r="B12" s="355" t="n"/>
       <c r="C12" s="358" t="n"/>
-      <c r="D12" s="278" t="n"/>
+      <c r="D12" s="289" t="n"/>
       <c r="E12" s="76" t="n"/>
       <c r="F12" s="151" t="n"/>
       <c r="G12" s="152" t="n"/>
@@ -9732,7 +9751,7 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="13" s="244">
-      <c r="A13" s="273">
+      <c r="A13" s="284">
         <f>J12</f>
         <v/>
       </c>
@@ -9746,7 +9765,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="278">
+      <c r="D13" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9771,7 +9790,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="273">
+      <c r="A14" s="284">
         <f>J13</f>
         <v/>
       </c>
@@ -9785,7 +9804,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="278">
+      <c r="D14" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9807,10 +9826,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="248" t="n"/>
+      <c r="L14" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="273">
+      <c r="A15" s="284">
         <f>J14</f>
         <v/>
       </c>
@@ -9824,7 +9843,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -9844,10 +9863,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="248" t="n"/>
+      <c r="L15" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="273">
+      <c r="A16" s="284">
         <f>J15</f>
         <v/>
       </c>
@@ -9861,7 +9880,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="278">
+      <c r="D16" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -9881,10 +9900,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="248" t="n"/>
+      <c r="L16" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="17" s="244">
-      <c r="A17" s="273">
+      <c r="A17" s="284">
         <f>J16</f>
         <v/>
       </c>
@@ -9898,7 +9917,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="278">
+      <c r="D17" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -9922,10 +9941,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="248" t="n"/>
+      <c r="L17" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="273">
+      <c r="A18" s="284">
         <f>J17</f>
         <v/>
       </c>
@@ -9939,7 +9958,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="278">
+      <c r="D18" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9960,7 +9979,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="280">
+      <c r="A19" s="291">
         <f>J18</f>
         <v/>
       </c>
@@ -9974,7 +9993,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="278">
+      <c r="D19" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9995,18 +10014,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="282" t="inlineStr">
+      <c r="A20" s="302" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="263" t="n"/>
-      <c r="C20" s="263" t="n"/>
-      <c r="D20" s="263" t="n"/>
-      <c r="E20" s="263" t="n"/>
-      <c r="F20" s="263" t="n"/>
-      <c r="G20" s="263" t="n"/>
-      <c r="H20" s="264" t="n"/>
+      <c r="B20" s="303" t="n"/>
+      <c r="C20" s="303" t="n"/>
+      <c r="D20" s="303" t="n"/>
+      <c r="E20" s="303" t="n"/>
+      <c r="F20" s="303" t="n"/>
+      <c r="G20" s="303" t="n"/>
+      <c r="H20" s="304" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -10016,7 +10035,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="273">
+      <c r="A21" s="284">
         <f>J20</f>
         <v/>
       </c>
@@ -10030,7 +10049,7 @@
           <t>主题介绍 &amp; 即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="283">
+      <c r="D21" s="296">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -10055,7 +10074,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="273">
+      <c r="A22" s="284">
         <f>J21</f>
         <v/>
       </c>
@@ -10069,7 +10088,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="278">
+      <c r="D22" s="289">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -10102,7 +10121,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="273">
+      <c r="A23" s="284">
         <f>J22</f>
         <v/>
       </c>
@@ -10116,7 +10135,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="278">
+      <c r="D23" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10139,7 +10158,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="284">
+      <c r="A24" s="297">
         <f>J23</f>
         <v/>
       </c>
@@ -10153,7 +10172,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="286">
+      <c r="D24" s="299">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10176,18 +10195,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="282" t="inlineStr">
+      <c r="A25" s="302" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="263" t="n"/>
-      <c r="C25" s="263" t="n"/>
-      <c r="D25" s="263" t="n"/>
-      <c r="E25" s="263" t="n"/>
-      <c r="F25" s="263" t="n"/>
-      <c r="G25" s="263" t="n"/>
-      <c r="H25" s="264" t="n"/>
+      <c r="B25" s="303" t="n"/>
+      <c r="C25" s="303" t="n"/>
+      <c r="D25" s="303" t="n"/>
+      <c r="E25" s="303" t="n"/>
+      <c r="F25" s="303" t="n"/>
+      <c r="G25" s="303" t="n"/>
+      <c r="H25" s="304" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -10196,10 +10215,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="248" t="n"/>
+      <c r="L25" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="273">
+      <c r="A26" s="284">
         <f>J25</f>
         <v/>
       </c>
@@ -10213,7 +10232,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="283">
+      <c r="D26" s="296">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10235,10 +10254,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="248" t="n"/>
+      <c r="L26" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="273">
+      <c r="A27" s="284">
         <f>J26</f>
         <v/>
       </c>
@@ -10253,7 +10272,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="288">
+      <c r="D27" s="301">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -10285,31 +10304,31 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="248" t="n"/>
+      <c r="L27" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244" thickBot="1">
-      <c r="A28" s="282" t="inlineStr">
+      <c r="A28" s="302" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B28" s="263" t="n"/>
-      <c r="C28" s="263" t="n"/>
-      <c r="D28" s="263" t="n"/>
-      <c r="E28" s="263" t="n"/>
-      <c r="F28" s="263" t="n"/>
-      <c r="G28" s="263" t="n"/>
-      <c r="H28" s="264" t="n"/>
+      <c r="B28" s="303" t="n"/>
+      <c r="C28" s="303" t="n"/>
+      <c r="D28" s="303" t="n"/>
+      <c r="E28" s="303" t="n"/>
+      <c r="F28" s="303" t="n"/>
+      <c r="G28" s="303" t="n"/>
+      <c r="H28" s="304" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="248" t="n"/>
+      <c r="L28" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="244">
-      <c r="A29" s="273">
+      <c r="A29" s="284">
         <f>J28</f>
         <v/>
       </c>
@@ -10323,7 +10342,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D29" s="283">
+      <c r="D29" s="296">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10345,10 +10364,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="248" t="n"/>
+      <c r="L29" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244">
-      <c r="A30" s="273">
+      <c r="A30" s="284">
         <f>J29</f>
         <v/>
       </c>
@@ -10362,11 +10381,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D30" s="283">
+      <c r="D30" s="296">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="289" t="inlineStr">
+      <c r="E30" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -10388,10 +10407,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="248" t="n"/>
+      <c r="L30" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="31" s="244">
-      <c r="A31" s="273">
+      <c r="A31" s="284">
         <f>J30</f>
         <v/>
       </c>
@@ -10405,7 +10424,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D31" s="278">
+      <c r="D31" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -10429,10 +10448,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="290" t="n"/>
+      <c r="L31" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="32" s="244">
-      <c r="A32" s="273">
+      <c r="A32" s="284">
         <f>J31</f>
         <v/>
       </c>
@@ -10446,7 +10465,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D32" s="278">
+      <c r="D32" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -10472,10 +10491,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="290" t="n"/>
+      <c r="L32" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="273">
+      <c r="A33" s="284">
         <f>J32</f>
         <v/>
       </c>
@@ -10489,7 +10508,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D33" s="278">
+      <c r="D33" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -10513,10 +10532,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="290" t="n"/>
+      <c r="L33" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="34" s="244">
-      <c r="A34" s="273">
+      <c r="A34" s="284">
         <f>J33</f>
         <v/>
       </c>
@@ -10530,7 +10549,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D34" s="278">
+      <c r="D34" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -10550,10 +10569,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="290" t="n"/>
+      <c r="L34" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="273">
+      <c r="A35" s="284">
         <f>J34</f>
         <v/>
       </c>
@@ -10567,7 +10586,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D35" s="278">
+      <c r="D35" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10599,24 +10618,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="290" t="n"/>
+      <c r="L35" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="273">
+      <c r="A36" s="284">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="279" t="inlineStr">
+      <c r="B36" s="290" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C36" s="276" t="inlineStr">
+      <c r="C36" s="287" t="inlineStr">
         <is>
           <t>总结 &amp; 会议结束致辞</t>
         </is>
       </c>
-      <c r="D36" s="278">
+      <c r="D36" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10648,24 +10667,24 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="290" t="n"/>
+      <c r="L36" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="37" s="244" thickBot="1">
-      <c r="A37" s="291">
+      <c r="A37" s="315">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="292" t="inlineStr">
+      <c r="B37" s="316" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C37" s="293" t="inlineStr">
+      <c r="C37" s="317" t="inlineStr">
         <is>
           <t>颁奖</t>
         </is>
       </c>
-      <c r="D37" s="278">
+      <c r="D37" s="289">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -10690,14 +10709,14 @@
       <c r="L37" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="244">
-      <c r="A38" s="294" t="n"/>
-      <c r="B38" s="246" t="n"/>
-      <c r="C38" s="246" t="n"/>
-      <c r="D38" s="246" t="n"/>
+      <c r="A38" s="318" t="n"/>
+      <c r="B38" s="319" t="n"/>
+      <c r="C38" s="319" t="n"/>
+      <c r="D38" s="319" t="n"/>
       <c r="E38" s="243" t="n"/>
-      <c r="F38" s="295" t="n"/>
-      <c r="G38" s="296" t="n"/>
-      <c r="H38" s="297" t="n"/>
+      <c r="F38" s="320" t="n"/>
+      <c r="G38" s="321" t="n"/>
+      <c r="H38" s="322" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
@@ -10712,14 +10731,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D39" s="299" t="n"/>
+      <c r="D39" s="324" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="300" t="inlineStr">
+      <c r="J39" s="325" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="301" t="n"/>
+      <c r="K39" s="326" t="n"/>
       <c r="L39" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="244">
@@ -10733,91 +10752,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="300" t="n"/>
+      <c r="J40" s="325" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="244">
-      <c r="A41" s="303" t="n"/>
+      <c r="A41" s="328" t="n"/>
       <c r="B41" s="243" t="n"/>
-      <c r="D41" s="304" t="n"/>
-      <c r="E41" s="305" t="n"/>
-      <c r="F41" s="305" t="n"/>
-      <c r="G41" s="305" t="n"/>
-      <c r="H41" s="305" t="n"/>
+      <c r="D41" s="329" t="n"/>
+      <c r="E41" s="330" t="n"/>
+      <c r="F41" s="330" t="n"/>
+      <c r="G41" s="330" t="n"/>
+      <c r="H41" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="244">
-      <c r="A42" s="303" t="n"/>
+      <c r="A42" s="328" t="n"/>
       <c r="B42" s="243" t="n"/>
       <c r="C42" s="243" t="n"/>
-      <c r="D42" s="304" t="n"/>
-      <c r="F42" s="305" t="n"/>
-      <c r="G42" s="305" t="n"/>
-      <c r="H42" s="305" t="n"/>
+      <c r="D42" s="329" t="n"/>
+      <c r="F42" s="330" t="n"/>
+      <c r="G42" s="330" t="n"/>
+      <c r="H42" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="244">
-      <c r="A43" s="303" t="n"/>
+      <c r="A43" s="328" t="n"/>
       <c r="B43" s="243" t="n"/>
       <c r="C43" s="243" t="n"/>
-      <c r="D43" s="306" t="n"/>
-      <c r="E43" s="307" t="n"/>
-      <c r="F43" s="308" t="n"/>
-      <c r="G43" s="309" t="n"/>
+      <c r="D43" s="331" t="n"/>
+      <c r="E43" s="332" t="n"/>
+      <c r="F43" s="333" t="n"/>
+      <c r="G43" s="334" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="303" t="n"/>
+      <c r="A44" s="328" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="310" t="n"/>
-      <c r="E44" s="311" t="n"/>
+      <c r="D44" s="335" t="n"/>
+      <c r="E44" s="336" t="n"/>
       <c r="L44" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="303" t="n"/>
+      <c r="A45" s="328" t="n"/>
       <c r="B45" s="243" t="n"/>
-      <c r="D45" s="310" t="n"/>
-      <c r="E45" s="311" t="n"/>
+      <c r="D45" s="335" t="n"/>
+      <c r="E45" s="336" t="n"/>
       <c r="L45" s="218" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="303" t="n"/>
+      <c r="A46" s="328" t="n"/>
       <c r="B46" s="243" t="n"/>
-      <c r="D46" s="310" t="n"/>
-      <c r="E46" s="311" t="n"/>
+      <c r="D46" s="335" t="n"/>
+      <c r="E46" s="336" t="n"/>
       <c r="L46" s="218" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="303" t="n"/>
+      <c r="A47" s="328" t="n"/>
       <c r="B47" s="243" t="n"/>
       <c r="C47" s="243" t="n"/>
-      <c r="D47" s="310" t="n"/>
-      <c r="E47" s="311" t="n"/>
+      <c r="D47" s="335" t="n"/>
+      <c r="E47" s="336" t="n"/>
       <c r="L47" s="218" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="303" t="n"/>
+      <c r="A48" s="328" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="310" t="n"/>
-      <c r="E48" s="311" t="n"/>
+      <c r="D48" s="335" t="n"/>
+      <c r="E48" s="336" t="n"/>
       <c r="L48" s="218" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="303" t="n"/>
+      <c r="A49" s="328" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="E49" s="311" t="n"/>
+      <c r="E49" s="336" t="n"/>
       <c r="L49" s="218" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="303" t="n"/>
+      <c r="A50" s="328" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="310" t="n"/>
-      <c r="E50" s="311" t="n"/>
+      <c r="D50" s="335" t="n"/>
+      <c r="E50" s="336" t="n"/>
     </row>
     <row customFormat="1" r="51" s="240">
-      <c r="A51" s="303" t="n"/>
+      <c r="A51" s="328" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="310" t="n"/>
-      <c r="E51" s="311" t="n"/>
+      <c r="D51" s="335" t="n"/>
+      <c r="E51" s="336" t="n"/>
       <c r="G51" s="241" t="n"/>
       <c r="H51" s="242" t="n"/>
       <c r="I51" s="218" t="n"/>
@@ -10827,11 +10846,11 @@
       <c r="M51" s="243" t="n"/>
     </row>
     <row customFormat="1" r="52" s="240">
-      <c r="A52" s="303" t="n"/>
+      <c r="A52" s="328" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="237" t="n"/>
-      <c r="D52" s="310" t="n"/>
-      <c r="E52" s="311" t="n"/>
+      <c r="D52" s="335" t="n"/>
+      <c r="E52" s="336" t="n"/>
       <c r="G52" s="241" t="n"/>
       <c r="H52" s="242" t="n"/>
       <c r="I52" s="218" t="n"/>
@@ -10841,11 +10860,11 @@
       <c r="M52" s="243" t="n"/>
     </row>
     <row customFormat="1" r="53" s="240">
-      <c r="A53" s="303" t="n"/>
+      <c r="A53" s="328" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="310" t="n"/>
-      <c r="E53" s="311" t="n"/>
+      <c r="D53" s="335" t="n"/>
+      <c r="E53" s="336" t="n"/>
       <c r="G53" s="241" t="n"/>
       <c r="H53" s="242" t="n"/>
       <c r="I53" s="218" t="n"/>
@@ -10855,11 +10874,11 @@
       <c r="M53" s="243" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="303" t="n"/>
+      <c r="A54" s="328" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="310" t="n"/>
-      <c r="E54" s="311" t="n"/>
+      <c r="D54" s="335" t="n"/>
+      <c r="E54" s="336" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="218" t="n"/>
@@ -10869,11 +10888,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="303" t="n"/>
+      <c r="A55" s="328" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="D55" s="310" t="n"/>
-      <c r="E55" s="311" t="n"/>
+      <c r="D55" s="335" t="n"/>
+      <c r="E55" s="336" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="218" t="n"/>
@@ -10883,11 +10902,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="303" t="n"/>
+      <c r="A56" s="328" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="310" t="n"/>
-      <c r="E56" s="311" t="n"/>
+      <c r="D56" s="335" t="n"/>
+      <c r="E56" s="336" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="218" t="n"/>
@@ -10897,11 +10916,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="303" t="n"/>
+      <c r="A57" s="328" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="310" t="n"/>
-      <c r="E57" s="311" t="n"/>
+      <c r="D57" s="335" t="n"/>
+      <c r="E57" s="336" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -10911,11 +10930,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="303" t="n"/>
+      <c r="A58" s="328" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="310" t="n"/>
-      <c r="E58" s="311" t="n"/>
+      <c r="D58" s="335" t="n"/>
+      <c r="E58" s="336" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -10925,11 +10944,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="303" t="n"/>
+      <c r="A59" s="328" t="n"/>
       <c r="B59" s="237" t="n"/>
       <c r="C59" s="237" t="n"/>
-      <c r="D59" s="310" t="n"/>
-      <c r="E59" s="311" t="n"/>
+      <c r="D59" s="335" t="n"/>
+      <c r="E59" s="336" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -10939,11 +10958,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="303" t="n"/>
+      <c r="A60" s="328" t="n"/>
       <c r="B60" s="237" t="n"/>
       <c r="C60" s="237" t="n"/>
-      <c r="D60" s="310" t="n"/>
-      <c r="E60" s="311" t="n"/>
+      <c r="D60" s="335" t="n"/>
+      <c r="E60" s="336" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -10953,11 +10972,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="303" t="n"/>
+      <c r="A61" s="328" t="n"/>
       <c r="B61" s="237" t="n"/>
       <c r="C61" s="237" t="n"/>
-      <c r="D61" s="310" t="n"/>
-      <c r="E61" s="311" t="n"/>
+      <c r="D61" s="335" t="n"/>
+      <c r="E61" s="336" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -10967,11 +10986,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="303" t="n"/>
+      <c r="A62" s="328" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="310" t="n"/>
-      <c r="E62" s="311" t="n"/>
+      <c r="D62" s="335" t="n"/>
+      <c r="E62" s="336" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -10981,7 +11000,7 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="303" t="n"/>
+      <c r="A63" s="328" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
       <c r="D63" s="238" t="n"/>
@@ -10995,7 +11014,7 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="303" t="n"/>
+      <c r="A64" s="328" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
       <c r="D64" s="238" t="n"/>
@@ -11009,7 +11028,7 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="303" t="n"/>
+      <c r="A65" s="328" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
       <c r="D65" s="238" t="n"/>
@@ -11023,7 +11042,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="303" t="n"/>
+      <c r="A66" s="328" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -11037,7 +11056,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="237">
-      <c r="A67" s="303" t="n"/>
+      <c r="A67" s="328" t="n"/>
       <c r="D67" s="238" t="n"/>
       <c r="E67" s="239" t="n"/>
       <c r="F67" s="240" t="n"/>
@@ -11049,7 +11068,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="237">
-      <c r="A68" s="303" t="n"/>
+      <c r="A68" s="328" t="n"/>
       <c r="D68" s="238" t="n"/>
       <c r="E68" s="239" t="n"/>
       <c r="F68" s="240" t="n"/>
@@ -11061,7 +11080,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="237">
-      <c r="A69" s="303" t="n"/>
+      <c r="A69" s="328" t="n"/>
       <c r="D69" s="238" t="n"/>
       <c r="E69" s="239" t="n"/>
       <c r="F69" s="240" t="n"/>
@@ -11128,18 +11147,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="245" t="inlineStr">
+      <c r="A1" s="337" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="246" t="n"/>
-      <c r="C1" s="246" t="n"/>
-      <c r="D1" s="246" t="n"/>
-      <c r="E1" s="246" t="n"/>
-      <c r="F1" s="246" t="n"/>
-      <c r="G1" s="246" t="n"/>
-      <c r="H1" s="246" t="n"/>
+      <c r="B1" s="319" t="n"/>
+      <c r="C1" s="319" t="n"/>
+      <c r="D1" s="319" t="n"/>
+      <c r="E1" s="319" t="n"/>
+      <c r="F1" s="319" t="n"/>
+      <c r="G1" s="319" t="n"/>
+      <c r="H1" s="319" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
       <c r="A2" s="346" t="inlineStr">
@@ -11147,8 +11166,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="248" t="n"/>
-      <c r="J2" s="248" t="n"/>
+      <c r="I2" s="249" t="n"/>
+      <c r="J2" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
       <c r="A3" s="347" t="inlineStr">
@@ -11163,8 +11182,8 @@
       <c r="F3" s="348" t="n"/>
       <c r="G3" s="348" t="n"/>
       <c r="H3" s="348" t="n"/>
-      <c r="I3" s="250" t="n"/>
-      <c r="J3" s="250" t="n"/>
+      <c r="I3" s="266" t="n"/>
+      <c r="J3" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
       <c r="A4" s="349" t="inlineStr">
@@ -11183,13 +11202,13 @@
       <c r="F4" s="351" t="n"/>
       <c r="G4" s="351" t="n"/>
       <c r="H4" s="351" t="n"/>
-      <c r="I4" s="248" t="n"/>
-      <c r="J4" s="248" t="n"/>
+      <c r="I4" s="249" t="n"/>
+      <c r="J4" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
       <c r="A5" s="352" t="n"/>
-      <c r="I5" s="250" t="n"/>
-      <c r="J5" s="250" t="n"/>
+      <c r="I5" s="266" t="n"/>
+      <c r="J5" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
       <c r="A6" s="349" t="inlineStr">
@@ -11208,29 +11227,29 @@
       <c r="F6" s="351" t="n"/>
       <c r="G6" s="351" t="n"/>
       <c r="H6" s="351" t="n"/>
-      <c r="I6" s="250" t="n"/>
-      <c r="J6" s="250" t="n"/>
+      <c r="I6" s="266" t="n"/>
+      <c r="J6" s="266" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
       <c r="A7" s="352" t="n"/>
-      <c r="I7" s="250" t="n"/>
-      <c r="J7" s="250" t="n"/>
+      <c r="I7" s="266" t="n"/>
+      <c r="J7" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="262" t="inlineStr">
+      <c r="A8" s="344" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="263" t="n"/>
-      <c r="C8" s="263" t="n"/>
-      <c r="D8" s="263" t="n"/>
-      <c r="E8" s="263" t="n"/>
-      <c r="F8" s="263" t="n"/>
-      <c r="G8" s="263" t="n"/>
-      <c r="H8" s="264" t="n"/>
-      <c r="I8" s="250" t="n"/>
-      <c r="J8" s="250" t="n"/>
+      <c r="B8" s="303" t="n"/>
+      <c r="C8" s="303" t="n"/>
+      <c r="D8" s="303" t="n"/>
+      <c r="E8" s="303" t="n"/>
+      <c r="F8" s="303" t="n"/>
+      <c r="G8" s="303" t="n"/>
+      <c r="H8" s="304" t="n"/>
+      <c r="I8" s="266" t="n"/>
+      <c r="J8" s="266" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
       <c r="A9" s="353" t="inlineStr">
@@ -11248,28 +11267,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="268" t="inlineStr">
+      <c r="D9" s="279" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="269" t="inlineStr">
+      <c r="E9" s="280" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="270" t="inlineStr">
+      <c r="F9" s="281" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="271" t="inlineStr">
+      <c r="G9" s="282" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="272" t="inlineStr">
+      <c r="H9" s="283" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -11282,7 +11301,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="273">
+      <c r="A10" s="284">
         <f>J9</f>
         <v/>
       </c>
@@ -11296,7 +11315,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="275">
+      <c r="D10" s="286">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -11315,7 +11334,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="273">
+      <c r="A11" s="284">
         <f>J10</f>
         <v/>
       </c>
@@ -11329,7 +11348,7 @@
           <t>会议开场 &amp; 欢迎</t>
         </is>
       </c>
-      <c r="D11" s="278">
+      <c r="D11" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11356,10 +11375,10 @@
       </c>
     </row>
     <row customHeight="1" ht="1.5" r="12" s="244">
-      <c r="A12" s="273" t="n"/>
+      <c r="A12" s="284" t="n"/>
       <c r="B12" s="355" t="n"/>
       <c r="C12" s="358" t="n"/>
-      <c r="D12" s="278" t="n"/>
+      <c r="D12" s="289" t="n"/>
       <c r="E12" s="76" t="n"/>
       <c r="F12" s="151" t="n"/>
       <c r="G12" s="152" t="n"/>
@@ -11373,7 +11392,7 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="13" s="244">
-      <c r="A13" s="273">
+      <c r="A13" s="284">
         <f>J12</f>
         <v/>
       </c>
@@ -11387,7 +11406,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="278">
+      <c r="D13" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11412,7 +11431,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="273">
+      <c r="A14" s="284">
         <f>J13</f>
         <v/>
       </c>
@@ -11426,7 +11445,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="278">
+      <c r="D14" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11448,10 +11467,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="248" t="n"/>
+      <c r="L14" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="273">
+      <c r="A15" s="284">
         <f>J14</f>
         <v/>
       </c>
@@ -11465,7 +11484,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="278">
+      <c r="D15" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -11485,10 +11504,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="248" t="n"/>
+      <c r="L15" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="273">
+      <c r="A16" s="284">
         <f>J15</f>
         <v/>
       </c>
@@ -11502,7 +11521,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="278">
+      <c r="D16" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -11522,10 +11541,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="248" t="n"/>
+      <c r="L16" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="17" s="244">
-      <c r="A17" s="273">
+      <c r="A17" s="284">
         <f>J16</f>
         <v/>
       </c>
@@ -11539,7 +11558,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="278">
+      <c r="D17" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -11563,10 +11582,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="248" t="n"/>
+      <c r="L17" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="273">
+      <c r="A18" s="284">
         <f>J17</f>
         <v/>
       </c>
@@ -11580,7 +11599,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="278">
+      <c r="D18" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11601,7 +11620,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="280">
+      <c r="A19" s="291">
         <f>J18</f>
         <v/>
       </c>
@@ -11615,7 +11634,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="278">
+      <c r="D19" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11636,18 +11655,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="282" t="inlineStr">
+      <c r="A20" s="302" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="263" t="n"/>
-      <c r="C20" s="263" t="n"/>
-      <c r="D20" s="263" t="n"/>
-      <c r="E20" s="263" t="n"/>
-      <c r="F20" s="263" t="n"/>
-      <c r="G20" s="263" t="n"/>
-      <c r="H20" s="264" t="n"/>
+      <c r="B20" s="303" t="n"/>
+      <c r="C20" s="303" t="n"/>
+      <c r="D20" s="303" t="n"/>
+      <c r="E20" s="303" t="n"/>
+      <c r="F20" s="303" t="n"/>
+      <c r="G20" s="303" t="n"/>
+      <c r="H20" s="304" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -11657,7 +11676,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="273">
+      <c r="A21" s="284">
         <f>J20</f>
         <v/>
       </c>
@@ -11671,7 +11690,7 @@
           <t>主题介绍 &amp; 即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="283">
+      <c r="D21" s="296">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -11696,7 +11715,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="273">
+      <c r="A22" s="284">
         <f>J21</f>
         <v/>
       </c>
@@ -11710,7 +11729,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="278">
+      <c r="D22" s="289">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -11743,7 +11762,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="273">
+      <c r="A23" s="284">
         <f>J22</f>
         <v/>
       </c>
@@ -11757,7 +11776,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="278">
+      <c r="D23" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11780,7 +11799,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="284">
+      <c r="A24" s="297">
         <f>J23</f>
         <v/>
       </c>
@@ -11794,7 +11813,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="286">
+      <c r="D24" s="299">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11817,18 +11836,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="282" t="inlineStr">
+      <c r="A25" s="302" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="263" t="n"/>
-      <c r="C25" s="263" t="n"/>
-      <c r="D25" s="263" t="n"/>
-      <c r="E25" s="263" t="n"/>
-      <c r="F25" s="263" t="n"/>
-      <c r="G25" s="263" t="n"/>
-      <c r="H25" s="264" t="n"/>
+      <c r="B25" s="303" t="n"/>
+      <c r="C25" s="303" t="n"/>
+      <c r="D25" s="303" t="n"/>
+      <c r="E25" s="303" t="n"/>
+      <c r="F25" s="303" t="n"/>
+      <c r="G25" s="303" t="n"/>
+      <c r="H25" s="304" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -11837,10 +11856,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="248" t="n"/>
+      <c r="L25" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="273">
+      <c r="A26" s="284">
         <f>J25</f>
         <v/>
       </c>
@@ -11854,7 +11873,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="283">
+      <c r="D26" s="296">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11876,10 +11895,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="248" t="n"/>
+      <c r="L26" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="273">
+      <c r="A27" s="284">
         <f>J26</f>
         <v/>
       </c>
@@ -11894,7 +11913,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="288">
+      <c r="D27" s="301">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -11926,10 +11945,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="248" t="n"/>
+      <c r="L27" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="273">
+      <c r="A28" s="284">
         <f>J27</f>
         <v/>
       </c>
@@ -11943,7 +11962,7 @@
           <t>介绍二号备稿演讲者</t>
         </is>
       </c>
-      <c r="D28" s="283">
+      <c r="D28" s="296">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11965,10 +11984,10 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="248" t="n"/>
+      <c r="L28" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="29" s="244" thickBot="1">
-      <c r="A29" s="273">
+      <c r="A29" s="284">
         <f>J28</f>
         <v/>
       </c>
@@ -11983,7 +12002,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D29" s="288">
+      <c r="D29" s="301">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -12015,31 +12034,31 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="248" t="n"/>
+      <c r="L29" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244" thickBot="1">
-      <c r="A30" s="282" t="inlineStr">
+      <c r="A30" s="302" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B30" s="263" t="n"/>
-      <c r="C30" s="263" t="n"/>
-      <c r="D30" s="263" t="n"/>
-      <c r="E30" s="263" t="n"/>
-      <c r="F30" s="263" t="n"/>
-      <c r="G30" s="263" t="n"/>
-      <c r="H30" s="264" t="n"/>
+      <c r="B30" s="303" t="n"/>
+      <c r="C30" s="303" t="n"/>
+      <c r="D30" s="303" t="n"/>
+      <c r="E30" s="303" t="n"/>
+      <c r="F30" s="303" t="n"/>
+      <c r="G30" s="303" t="n"/>
+      <c r="H30" s="304" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J27+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="248" t="n"/>
+      <c r="L30" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="244">
-      <c r="A31" s="273">
+      <c r="A31" s="284">
         <f>J30</f>
         <v/>
       </c>
@@ -12053,7 +12072,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D31" s="283">
+      <c r="D31" s="296">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12075,10 +12094,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="248" t="n"/>
+      <c r="L31" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244">
-      <c r="A32" s="273">
+      <c r="A32" s="284">
         <f>J30</f>
         <v/>
       </c>
@@ -12092,11 +12111,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D32" s="283">
+      <c r="D32" s="296">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="289" t="inlineStr">
+      <c r="E32" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -12118,10 +12137,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="248" t="n"/>
+      <c r="L32" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="273">
+      <c r="A33" s="284">
         <f>J31</f>
         <v/>
       </c>
@@ -12135,11 +12154,11 @@
           <t>点评二号备稿演讲</t>
         </is>
       </c>
-      <c r="D33" s="283">
+      <c r="D33" s="296">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="289" t="inlineStr">
+      <c r="E33" s="313" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -12161,10 +12180,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="248" t="n"/>
+      <c r="L33" s="249" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="34" s="244">
-      <c r="A34" s="273">
+      <c r="A34" s="284">
         <f>J33</f>
         <v/>
       </c>
@@ -12178,7 +12197,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D34" s="278">
+      <c r="D34" s="289">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -12202,10 +12221,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="290" t="n"/>
+      <c r="L34" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="35" s="244">
-      <c r="A35" s="273">
+      <c r="A35" s="284">
         <f>J34</f>
         <v/>
       </c>
@@ -12219,7 +12238,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D35" s="278">
+      <c r="D35" s="289">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -12245,10 +12264,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="290" t="n"/>
+      <c r="L35" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="273">
+      <c r="A36" s="284">
         <f>J35</f>
         <v/>
       </c>
@@ -12262,7 +12281,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D36" s="278">
+      <c r="D36" s="289">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -12286,10 +12305,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="290" t="n"/>
+      <c r="L36" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="37" s="244">
-      <c r="A37" s="273">
+      <c r="A37" s="284">
         <f>J36</f>
         <v/>
       </c>
@@ -12303,7 +12322,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D37" s="278">
+      <c r="D37" s="289">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -12323,10 +12342,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="290" t="n"/>
+      <c r="L37" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="273">
+      <c r="A38" s="284">
         <f>J37</f>
         <v/>
       </c>
@@ -12340,7 +12359,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D38" s="278">
+      <c r="D38" s="289">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12372,24 +12391,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="290" t="n"/>
+      <c r="L38" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244">
-      <c r="A39" s="273">
+      <c r="A39" s="284">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="279" t="inlineStr">
+      <c r="B39" s="290" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C39" s="276" t="inlineStr">
+      <c r="C39" s="287" t="inlineStr">
         <is>
           <t>总结 &amp; 会议结束致辞</t>
         </is>
       </c>
-      <c r="D39" s="278">
+      <c r="D39" s="289">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -12421,24 +12440,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="290" t="n"/>
+      <c r="L39" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="40" s="244" thickBot="1">
-      <c r="A40" s="291">
+      <c r="A40" s="315">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="292" t="inlineStr">
+      <c r="B40" s="316" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C40" s="293" t="inlineStr">
+      <c r="C40" s="317" t="inlineStr">
         <is>
           <t>颁奖</t>
         </is>
       </c>
-      <c r="D40" s="278">
+      <c r="D40" s="289">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -12463,14 +12482,14 @@
       <c r="L40" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="244">
-      <c r="A41" s="294" t="n"/>
-      <c r="B41" s="246" t="n"/>
-      <c r="C41" s="246" t="n"/>
-      <c r="D41" s="246" t="n"/>
+      <c r="A41" s="318" t="n"/>
+      <c r="B41" s="319" t="n"/>
+      <c r="C41" s="319" t="n"/>
+      <c r="D41" s="319" t="n"/>
       <c r="E41" s="243" t="n"/>
-      <c r="F41" s="295" t="n"/>
-      <c r="G41" s="296" t="n"/>
-      <c r="H41" s="297" t="n"/>
+      <c r="F41" s="320" t="n"/>
+      <c r="G41" s="321" t="n"/>
+      <c r="H41" s="322" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
@@ -12485,14 +12504,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D42" s="299" t="n"/>
+      <c r="D42" s="324" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="300" t="inlineStr">
+      <c r="J42" s="325" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="301" t="n"/>
+      <c r="K42" s="326" t="n"/>
       <c r="L42" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="244">
@@ -12506,91 +12525,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="300" t="n"/>
+      <c r="J43" s="325" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="303" t="n"/>
+      <c r="A44" s="328" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="304" t="n"/>
-      <c r="E44" s="305" t="n"/>
-      <c r="F44" s="305" t="n"/>
-      <c r="G44" s="305" t="n"/>
-      <c r="H44" s="305" t="n"/>
+      <c r="D44" s="329" t="n"/>
+      <c r="E44" s="330" t="n"/>
+      <c r="F44" s="330" t="n"/>
+      <c r="G44" s="330" t="n"/>
+      <c r="H44" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="303" t="n"/>
+      <c r="A45" s="328" t="n"/>
       <c r="B45" s="243" t="n"/>
       <c r="C45" s="243" t="n"/>
-      <c r="D45" s="304" t="n"/>
-      <c r="F45" s="305" t="n"/>
-      <c r="G45" s="305" t="n"/>
-      <c r="H45" s="305" t="n"/>
+      <c r="D45" s="329" t="n"/>
+      <c r="F45" s="330" t="n"/>
+      <c r="G45" s="330" t="n"/>
+      <c r="H45" s="330" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="244">
-      <c r="A46" s="303" t="n"/>
+      <c r="A46" s="328" t="n"/>
       <c r="B46" s="243" t="n"/>
       <c r="C46" s="243" t="n"/>
-      <c r="D46" s="306" t="n"/>
-      <c r="E46" s="307" t="n"/>
-      <c r="F46" s="308" t="n"/>
-      <c r="G46" s="309" t="n"/>
+      <c r="D46" s="331" t="n"/>
+      <c r="E46" s="332" t="n"/>
+      <c r="F46" s="333" t="n"/>
+      <c r="G46" s="334" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="303" t="n"/>
+      <c r="A47" s="328" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="310" t="n"/>
-      <c r="E47" s="311" t="n"/>
+      <c r="D47" s="335" t="n"/>
+      <c r="E47" s="336" t="n"/>
       <c r="L47" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="303" t="n"/>
+      <c r="A48" s="328" t="n"/>
       <c r="B48" s="243" t="n"/>
-      <c r="D48" s="310" t="n"/>
-      <c r="E48" s="311" t="n"/>
+      <c r="D48" s="335" t="n"/>
+      <c r="E48" s="336" t="n"/>
       <c r="L48" s="218" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="303" t="n"/>
+      <c r="A49" s="328" t="n"/>
       <c r="B49" s="243" t="n"/>
-      <c r="D49" s="310" t="n"/>
-      <c r="E49" s="311" t="n"/>
+      <c r="D49" s="335" t="n"/>
+      <c r="E49" s="336" t="n"/>
       <c r="L49" s="218" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="303" t="n"/>
+      <c r="A50" s="328" t="n"/>
       <c r="B50" s="243" t="n"/>
       <c r="C50" s="243" t="n"/>
-      <c r="D50" s="310" t="n"/>
-      <c r="E50" s="311" t="n"/>
+      <c r="D50" s="335" t="n"/>
+      <c r="E50" s="336" t="n"/>
       <c r="L50" s="218" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="303" t="n"/>
+      <c r="A51" s="328" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="310" t="n"/>
-      <c r="E51" s="311" t="n"/>
+      <c r="D51" s="335" t="n"/>
+      <c r="E51" s="336" t="n"/>
       <c r="L51" s="218" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="303" t="n"/>
+      <c r="A52" s="328" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="243" t="n"/>
-      <c r="E52" s="311" t="n"/>
+      <c r="E52" s="336" t="n"/>
       <c r="L52" s="218" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="303" t="n"/>
+      <c r="A53" s="328" t="n"/>
       <c r="B53" s="243" t="n"/>
-      <c r="D53" s="310" t="n"/>
-      <c r="E53" s="311" t="n"/>
+      <c r="D53" s="335" t="n"/>
+      <c r="E53" s="336" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="303" t="n"/>
+      <c r="A54" s="328" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="310" t="n"/>
-      <c r="E54" s="311" t="n"/>
+      <c r="D54" s="335" t="n"/>
+      <c r="E54" s="336" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="218" t="n"/>
@@ -12600,11 +12619,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="303" t="n"/>
+      <c r="A55" s="328" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="237" t="n"/>
-      <c r="D55" s="310" t="n"/>
-      <c r="E55" s="311" t="n"/>
+      <c r="D55" s="335" t="n"/>
+      <c r="E55" s="336" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="218" t="n"/>
@@ -12614,11 +12633,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="303" t="n"/>
+      <c r="A56" s="328" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="310" t="n"/>
-      <c r="E56" s="311" t="n"/>
+      <c r="D56" s="335" t="n"/>
+      <c r="E56" s="336" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="218" t="n"/>
@@ -12628,11 +12647,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="303" t="n"/>
+      <c r="A57" s="328" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="310" t="n"/>
-      <c r="E57" s="311" t="n"/>
+      <c r="D57" s="335" t="n"/>
+      <c r="E57" s="336" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -12642,11 +12661,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="303" t="n"/>
+      <c r="A58" s="328" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="310" t="n"/>
-      <c r="E58" s="311" t="n"/>
+      <c r="D58" s="335" t="n"/>
+      <c r="E58" s="336" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -12656,11 +12675,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="303" t="n"/>
+      <c r="A59" s="328" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="310" t="n"/>
-      <c r="E59" s="311" t="n"/>
+      <c r="D59" s="335" t="n"/>
+      <c r="E59" s="336" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -12670,11 +12689,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="303" t="n"/>
+      <c r="A60" s="328" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="310" t="n"/>
-      <c r="E60" s="311" t="n"/>
+      <c r="D60" s="335" t="n"/>
+      <c r="E60" s="336" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -12684,11 +12703,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="303" t="n"/>
+      <c r="A61" s="328" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="310" t="n"/>
-      <c r="E61" s="311" t="n"/>
+      <c r="D61" s="335" t="n"/>
+      <c r="E61" s="336" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -12698,11 +12717,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="303" t="n"/>
+      <c r="A62" s="328" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="310" t="n"/>
-      <c r="E62" s="311" t="n"/>
+      <c r="D62" s="335" t="n"/>
+      <c r="E62" s="336" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -12712,11 +12731,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="303" t="n"/>
+      <c r="A63" s="328" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
-      <c r="D63" s="310" t="n"/>
-      <c r="E63" s="311" t="n"/>
+      <c r="D63" s="335" t="n"/>
+      <c r="E63" s="336" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="218" t="n"/>
@@ -12726,11 +12745,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="303" t="n"/>
+      <c r="A64" s="328" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
-      <c r="D64" s="310" t="n"/>
-      <c r="E64" s="311" t="n"/>
+      <c r="D64" s="335" t="n"/>
+      <c r="E64" s="336" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="218" t="n"/>
@@ -12740,11 +12759,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="303" t="n"/>
+      <c r="A65" s="328" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="310" t="n"/>
-      <c r="E65" s="311" t="n"/>
+      <c r="D65" s="335" t="n"/>
+      <c r="E65" s="336" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="218" t="n"/>
@@ -12754,7 +12773,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="303" t="n"/>
+      <c r="A66" s="328" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -12768,7 +12787,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="303" t="n"/>
+      <c r="A67" s="328" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
       <c r="D67" s="238" t="n"/>
@@ -12782,7 +12801,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="303" t="n"/>
+      <c r="A68" s="328" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
       <c r="D68" s="238" t="n"/>
@@ -12796,7 +12815,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="303" t="n"/>
+      <c r="A69" s="328" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -12810,7 +12829,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="237">
-      <c r="A70" s="303" t="n"/>
+      <c r="A70" s="328" t="n"/>
       <c r="D70" s="238" t="n"/>
       <c r="E70" s="239" t="n"/>
       <c r="F70" s="240" t="n"/>
@@ -12822,7 +12841,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="237">
-      <c r="A71" s="303" t="n"/>
+      <c r="A71" s="328" t="n"/>
       <c r="D71" s="238" t="n"/>
       <c r="E71" s="239" t="n"/>
       <c r="F71" s="240" t="n"/>
@@ -12834,7 +12853,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="237">
-      <c r="A72" s="303" t="n"/>
+      <c r="A72" s="328" t="n"/>
       <c r="D72" s="238" t="n"/>
       <c r="E72" s="239" t="n"/>
       <c r="F72" s="240" t="n"/>
@@ -14069,10 +14088,14 @@
       </c>
       <c r="B5" s="370" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C5" s="370" t="inlineStr"/>
+          <t>Walter</t>
+        </is>
+      </c>
+      <c r="C5" s="370" t="inlineStr">
+        <is>
+          <t>Level3-2-1</t>
+        </is>
+      </c>
       <c r="D5" s="370" t="inlineStr"/>
       <c r="E5" s="370">
         <f>IFERROR(VLOOKUP($B16,$A$24:$D$61,4,FALSE),"")</f>
@@ -14377,14 +14400,10 @@
       </c>
       <c r="B6" s="370" t="inlineStr">
         <is>
-          <t>Walter</t>
-        </is>
-      </c>
-      <c r="C6" s="370" t="inlineStr">
-        <is>
-          <t>Level3-2-1</t>
-        </is>
-      </c>
+          <t>Raymond Lu</t>
+        </is>
+      </c>
+      <c r="C6" s="370" t="inlineStr"/>
       <c r="D6" s="370" t="inlineStr"/>
       <c r="E6" s="370">
         <f>IFERROR(VLOOKUP($B17,$A$24:$D$61,4,FALSE),"")</f>
@@ -14690,12 +14709,12 @@
       </c>
       <c r="B7" s="370" t="inlineStr">
         <is>
-          <t>Kay</t>
+          <t>Davie</t>
         </is>
       </c>
       <c r="C7" s="370" t="inlineStr">
         <is>
-          <t>Level1-3</t>
+          <t>Level3-3-2</t>
         </is>
       </c>
       <c r="D7" s="370" t="inlineStr"/>
@@ -14998,19 +15017,15 @@
       </c>
       <c r="B8" s="370" t="inlineStr">
         <is>
-          <t>Bonnie Wang</t>
+          <t>Sawyer</t>
         </is>
       </c>
       <c r="C8" s="370" t="inlineStr">
         <is>
-          <t>ACS12</t>
-        </is>
-      </c>
-      <c r="D8" s="370" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level2-2</t>
+        </is>
+      </c>
+      <c r="D8" s="370" t="inlineStr"/>
       <c r="E8" s="370">
         <f>IFERROR(VLOOKUP($B19,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -15907,19 +15922,15 @@
       </c>
       <c r="B11" s="387" t="inlineStr">
         <is>
-          <t>Bill Lin</t>
+          <t>Kay</t>
         </is>
       </c>
       <c r="C11" s="387" t="inlineStr">
         <is>
-          <t>ACS11</t>
-        </is>
-      </c>
-      <c r="D11" s="387" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level1-3</t>
+        </is>
+      </c>
+      <c r="D11" s="387" t="inlineStr"/>
       <c r="E11" s="387">
         <f>IFERROR(VLOOKUP($B22,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16228,14 +16239,10 @@
       </c>
       <c r="B12" s="387" t="inlineStr">
         <is>
-          <t>Davie</t>
-        </is>
-      </c>
-      <c r="C12" s="387" t="inlineStr">
-        <is>
-          <t>Level3-3-1</t>
-        </is>
-      </c>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C12" s="387" t="inlineStr"/>
       <c r="D12" s="387" t="inlineStr"/>
       <c r="E12" s="387">
         <f>IFERROR(VLOOKUP($B23,$A$24:$D$61,4,FALSE),"")</f>
@@ -16675,12 +16682,12 @@
       </c>
       <c r="B15" s="370" t="inlineStr">
         <is>
-          <t>Olivia Wang</t>
+          <t>Bill Lin</t>
         </is>
       </c>
       <c r="C15" s="370" t="inlineStr">
         <is>
-          <t>AC4</t>
+          <t>ACS12</t>
         </is>
       </c>
       <c r="D15" s="370" t="inlineStr">
@@ -16979,14 +16986,10 @@
       </c>
       <c r="B16" s="370" t="inlineStr">
         <is>
-          <t>Sawyer</t>
-        </is>
-      </c>
-      <c r="C16" s="370" t="inlineStr">
-        <is>
-          <t>Level2-2</t>
-        </is>
-      </c>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C16" s="370" t="inlineStr"/>
       <c r="D16" s="370" t="inlineStr"/>
       <c r="E16" s="370">
         <f>IFERROR(VLOOKUP($B27,$A$24:$D$61,4,FALSE),"")</f>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="23640" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="23640" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda-1" sheetId="1" state="visible" r:id="rId1"/>
@@ -598,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="110">
+  <borders count="109">
     <border>
       <left/>
       <right/>
@@ -1808,21 +1808,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color theme="0" tint="-0.1499374370555742"/>
       </right>
       <top style="medium">
@@ -1893,10 +1878,10 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color rgb="00000000"/>
@@ -2969,6 +2954,183 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="67" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="68" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="69" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="76" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2977,9 +3139,6 @@
     <xf applyAlignment="1" borderId="78" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="79" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
@@ -3009,16 +3168,6 @@
     <xf borderId="88" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="67" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="68" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="69" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="95" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3030,57 +3179,6 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="95" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3090,144 +3188,31 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="21" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="109" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="105" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="105" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="106" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="106" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="107" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="108" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="29" fillId="0" fontId="21" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="107" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
@@ -3806,7 +3791,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>41</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2057400" cy="2057400"/>
@@ -4175,7 +4160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4217,139 +4202,125 @@
       <c r="F1" s="246" t="n"/>
       <c r="G1" s="246" t="n"/>
       <c r="H1" s="246" t="n"/>
-      <c r="I1" s="246" t="n"/>
-      <c r="J1" s="247" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="248" t="inlineStr">
+      <c r="A2" s="247" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="250" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="251" t="inlineStr">
+      <c r="A3" s="249" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="B3" s="252" t="n"/>
-      <c r="C3" s="252" t="n"/>
-      <c r="D3" s="252" t="n"/>
-      <c r="E3" s="252" t="n"/>
-      <c r="F3" s="252" t="n"/>
-      <c r="G3" s="252" t="n"/>
-      <c r="H3" s="252" t="n"/>
-      <c r="I3" s="253" t="n"/>
-      <c r="J3" s="254" t="n"/>
+      <c r="I3" s="250" t="n"/>
+      <c r="J3" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="255" t="inlineStr">
+      <c r="A4" s="251" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="256" t="inlineStr">
+      <c r="B4" s="252" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="246" t="n"/>
-      <c r="D4" s="246" t="n"/>
-      <c r="E4" s="246" t="n"/>
-      <c r="F4" s="246" t="n"/>
-      <c r="G4" s="246" t="n"/>
-      <c r="H4" s="257" t="n"/>
-      <c r="I4" s="258" t="n"/>
-      <c r="J4" s="259" t="n"/>
+      <c r="C4" s="253" t="n"/>
+      <c r="D4" s="253" t="n"/>
+      <c r="E4" s="253" t="n"/>
+      <c r="F4" s="253" t="n"/>
+      <c r="G4" s="253" t="n"/>
+      <c r="H4" s="254" t="n"/>
+      <c r="I4" s="248" t="n"/>
+      <c r="J4" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="260" t="n"/>
-      <c r="B5" s="261" t="n"/>
-      <c r="C5" s="252" t="n"/>
-      <c r="D5" s="252" t="n"/>
-      <c r="E5" s="252" t="n"/>
-      <c r="F5" s="252" t="n"/>
-      <c r="G5" s="252" t="n"/>
-      <c r="H5" s="262" t="n"/>
-      <c r="I5" s="253" t="n"/>
-      <c r="J5" s="254" t="n"/>
+      <c r="A5" s="255" t="n"/>
+      <c r="B5" s="256" t="n"/>
+      <c r="H5" s="257" t="n"/>
+      <c r="I5" s="250" t="n"/>
+      <c r="J5" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="263" t="n"/>
-      <c r="B6" s="264" t="n"/>
-      <c r="H6" s="265" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="A6" s="255" t="n"/>
+      <c r="B6" s="256" t="n"/>
+      <c r="H6" s="257" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="267" t="n"/>
-      <c r="B7" s="268" t="n"/>
-      <c r="C7" s="269" t="n"/>
-      <c r="D7" s="269" t="n"/>
-      <c r="E7" s="269" t="n"/>
-      <c r="F7" s="269" t="n"/>
-      <c r="G7" s="269" t="n"/>
-      <c r="H7" s="270" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="A7" s="258" t="n"/>
+      <c r="B7" s="259" t="n"/>
+      <c r="C7" s="260" t="n"/>
+      <c r="D7" s="260" t="n"/>
+      <c r="E7" s="260" t="n"/>
+      <c r="F7" s="260" t="n"/>
+      <c r="G7" s="260" t="n"/>
+      <c r="H7" s="261" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="271" t="inlineStr">
-        <is>
-          <t>Theme Today: The Future of Tiktok</t>
-        </is>
-      </c>
-      <c r="B8" s="272" t="n"/>
-      <c r="C8" s="272" t="n"/>
-      <c r="D8" s="272" t="n"/>
-      <c r="E8" s="272" t="n"/>
-      <c r="F8" s="272" t="n"/>
-      <c r="G8" s="272" t="n"/>
-      <c r="H8" s="273" t="n"/>
-      <c r="I8" s="274" t="n"/>
-      <c r="J8" s="275" t="n"/>
+      <c r="A8" s="262" t="inlineStr">
+        <is>
+          <t>Theme Today: sleepless in seattle</t>
+        </is>
+      </c>
+      <c r="B8" s="263" t="n"/>
+      <c r="C8" s="263" t="n"/>
+      <c r="D8" s="263" t="n"/>
+      <c r="E8" s="263" t="n"/>
+      <c r="F8" s="263" t="n"/>
+      <c r="G8" s="263" t="n"/>
+      <c r="H8" s="264" t="n"/>
+      <c r="I8" s="250" t="n"/>
+      <c r="J8" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="276" t="inlineStr">
+      <c r="A9" s="265" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="277" t="inlineStr">
+      <c r="B9" s="266" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="278" t="inlineStr">
+      <c r="C9" s="267" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -4362,21 +4333,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="285" t="inlineStr">
+      <c r="B10" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="285" t="inlineStr">
+      <c r="C10" s="274" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4395,21 +4366,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="287" t="inlineStr">
+      <c r="B11" s="276" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C11" s="288" t="inlineStr">
+      <c r="C11" s="277" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4436,21 +4407,21 @@
       </c>
     </row>
     <row customHeight="1" ht="23.25" r="12" s="244">
-      <c r="A12" s="284">
+      <c r="A12" s="273">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="285" t="inlineStr">
+      <c r="B12" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="290" t="inlineStr">
+      <c r="C12" s="279" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="289">
+      <c r="D12" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4481,10 +4452,10 @@
       </c>
     </row>
     <row customHeight="1" hidden="1" ht="4.5" r="13" s="244">
-      <c r="A13" s="284" t="n"/>
-      <c r="B13" s="287" t="n"/>
-      <c r="C13" s="287" t="n"/>
-      <c r="D13" s="289" t="n"/>
+      <c r="A13" s="273" t="n"/>
+      <c r="B13" s="276" t="n"/>
+      <c r="C13" s="276" t="n"/>
+      <c r="D13" s="278" t="n"/>
       <c r="E13" s="76" t="n"/>
       <c r="F13" s="151" t="n"/>
       <c r="G13" s="152" t="n"/>
@@ -4498,21 +4469,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="287" t="inlineStr">
+      <c r="B14" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="287" t="inlineStr">
+      <c r="C14" s="276" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4534,24 +4505,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="287" t="inlineStr">
+      <c r="B15" s="276" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="287" t="inlineStr">
+      <c r="C15" s="276" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -4571,24 +4542,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="287" t="inlineStr">
+      <c r="B16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="287" t="inlineStr">
+      <c r="C16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -4608,24 +4579,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="287" t="inlineStr">
+      <c r="B17" s="276" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="287" t="inlineStr">
+      <c r="C17" s="276" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -4649,24 +4620,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="287" t="inlineStr">
+      <c r="B18" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="287" t="inlineStr">
+      <c r="C18" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4687,11 +4658,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="292" t="inlineStr">
+      <c r="B19" s="281" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -4701,7 +4672,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4722,28 +4693,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="293" t="inlineStr">
+      <c r="A20" s="282" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="272" t="n"/>
-      <c r="C20" s="272" t="n"/>
-      <c r="D20" s="272" t="n"/>
-      <c r="E20" s="272" t="n"/>
-      <c r="F20" s="272" t="n"/>
-      <c r="G20" s="272" t="n"/>
-      <c r="H20" s="273" t="n"/>
-      <c r="I20" s="294" t="n">
+      <c r="B20" s="263" t="n"/>
+      <c r="C20" s="263" t="n"/>
+      <c r="D20" s="263" t="n"/>
+      <c r="E20" s="263" t="n"/>
+      <c r="F20" s="263" t="n"/>
+      <c r="G20" s="263" t="n"/>
+      <c r="H20" s="264" t="n"/>
+      <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="295">
+      <c r="J20" s="36">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -4757,7 +4728,7 @@
           <t>Theme Introduction &amp; Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -4782,21 +4753,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="290" t="inlineStr">
+      <c r="B22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="290" t="inlineStr">
+      <c r="C22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -4829,21 +4800,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="290" t="inlineStr">
+      <c r="B23" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="287" t="inlineStr">
+      <c r="C23" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4866,17 +4837,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="298" t="inlineStr">
+      <c r="B24" s="285" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4899,30 +4870,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="293" t="inlineStr">
+      <c r="A25" s="282" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="272" t="n"/>
-      <c r="C25" s="272" t="n"/>
-      <c r="D25" s="272" t="n"/>
-      <c r="E25" s="272" t="n"/>
-      <c r="F25" s="272" t="n"/>
-      <c r="G25" s="272" t="n"/>
-      <c r="H25" s="273" t="n"/>
-      <c r="I25" s="294" t="n">
+      <c r="B25" s="263" t="n"/>
+      <c r="C25" s="263" t="n"/>
+      <c r="D25" s="263" t="n"/>
+      <c r="E25" s="263" t="n"/>
+      <c r="F25" s="263" t="n"/>
+      <c r="G25" s="263" t="n"/>
+      <c r="H25" s="264" t="n"/>
+      <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="295">
+      <c r="J25" s="36">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -4936,7 +4907,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4958,24 +4929,24 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="287" t="inlineStr">
+      <c r="B27" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="300" t="inlineStr">
-        <is>
-          <t>being a protege</t>
-        </is>
-      </c>
-      <c r="D27" s="301">
+      <c r="C27" s="287" t="inlineStr">
+        <is>
+          <t>Ice Breaker</t>
+        </is>
+      </c>
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -4984,89 +4955,93 @@
           <t>5-7</t>
         </is>
       </c>
-      <c r="F27" s="103" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="H27" s="105" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" s="37" t="inlineStr">
-        <is>
-          <t>0:07</t>
-        </is>
+      <c r="F27" s="103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G27" s="104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H27" s="105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I27" s="37" t="n">
+        <v>0.004861111111111111</v>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244" thickBot="1">
-      <c r="A28" s="302" t="inlineStr">
+      <c r="A28" s="282" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B28" s="303" t="n"/>
-      <c r="C28" s="303" t="n"/>
-      <c r="D28" s="303" t="n"/>
-      <c r="E28" s="303" t="n"/>
-      <c r="F28" s="303" t="n"/>
-      <c r="G28" s="303" t="n"/>
-      <c r="H28" s="304" t="n"/>
+      <c r="B28" s="263" t="n"/>
+      <c r="C28" s="263" t="n"/>
+      <c r="D28" s="263" t="n"/>
+      <c r="E28" s="263" t="n"/>
+      <c r="F28" s="263" t="n"/>
+      <c r="G28" s="263" t="n"/>
+      <c r="H28" s="264" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="244">
-      <c r="A29" s="305">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="306" t="inlineStr">
+      <c r="B29" s="24" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C29" s="307" t="inlineStr">
+      <c r="C29" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D29" s="308">
+      <c r="D29" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
-      <c r="E29" s="309" t="n">
+      <c r="E29" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="310" t="n"/>
-      <c r="G29" s="311" t="n">
+      <c r="F29" s="148" t="n"/>
+      <c r="G29" s="149" t="n">
         <v>0.5</v>
       </c>
-      <c r="H29" s="312" t="n">
+      <c r="H29" s="150" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="294" t="n">
+      <c r="I29" s="37" t="n">
         <v>1.000694444444445</v>
       </c>
-      <c r="J29" s="295">
+      <c r="J29" s="36">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244">
-      <c r="A30" s="284">
+      <c r="A30" s="273">
         <f>J29</f>
         <v/>
       </c>
@@ -5080,11 +5055,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D30" s="296">
+      <c r="D30" s="283">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="313" t="inlineStr">
+      <c r="E30" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -5106,10 +5081,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="244">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -5123,7 +5098,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D31" s="289">
+      <c r="D31" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -5147,10 +5122,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="314" t="n"/>
+      <c r="L31" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244">
-      <c r="A32" s="284">
+      <c r="A32" s="273">
         <f>J31</f>
         <v/>
       </c>
@@ -5164,7 +5139,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D32" s="289">
+      <c r="D32" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -5190,10 +5165,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="314" t="n"/>
+      <c r="L32" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J32</f>
         <v/>
       </c>
@@ -5207,7 +5182,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D33" s="289">
+      <c r="D33" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -5231,13 +5206,13 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="314" t="n"/>
+      <c r="L33" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="34" s="244">
-      <c r="A34" s="284" t="n"/>
-      <c r="B34" s="285" t="n"/>
+      <c r="A34" s="273" t="n"/>
+      <c r="B34" s="274" t="n"/>
       <c r="C34" s="157" t="n"/>
-      <c r="D34" s="289" t="n"/>
+      <c r="D34" s="278" t="n"/>
       <c r="E34" s="76" t="n"/>
       <c r="F34" s="151" t="n"/>
       <c r="G34" s="152" t="n"/>
@@ -5250,24 +5225,24 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="314" t="n"/>
+      <c r="L34" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
-      <c r="B35" s="287" t="inlineStr">
+      <c r="B35" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C35" s="287" t="inlineStr">
+      <c r="C35" s="276" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D35" s="289">
+      <c r="D35" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -5299,24 +5274,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="314" t="n"/>
+      <c r="L35" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244" thickBot="1">
-      <c r="A36" s="315">
+      <c r="A36" s="291">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="290" t="inlineStr">
+      <c r="B36" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C36" s="287" t="inlineStr">
+      <c r="C36" s="276" t="inlineStr">
         <is>
           <t>Conclusion &amp; Meeting Closing</t>
         </is>
       </c>
-      <c r="D36" s="289">
+      <c r="D36" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -5348,13 +5323,13 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="314" t="n"/>
+      <c r="L36" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="37" s="244" thickBot="1">
-      <c r="A37" s="315" t="n"/>
-      <c r="B37" s="316" t="n"/>
-      <c r="C37" s="317" t="n"/>
-      <c r="D37" s="289" t="n"/>
+      <c r="A37" s="291" t="n"/>
+      <c r="B37" s="292" t="n"/>
+      <c r="C37" s="293" t="n"/>
+      <c r="D37" s="278" t="n"/>
       <c r="E37" s="71" t="n"/>
       <c r="F37" s="109" t="n"/>
       <c r="G37" s="110" t="n"/>
@@ -5365,21 +5340,21 @@
       <c r="L37" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="244">
-      <c r="A38" s="318" t="n"/>
-      <c r="B38" s="319" t="n"/>
-      <c r="C38" s="319" t="n"/>
-      <c r="D38" s="319" t="n"/>
+      <c r="A38" s="294" t="n"/>
+      <c r="B38" s="246" t="n"/>
+      <c r="C38" s="246" t="n"/>
+      <c r="D38" s="246" t="n"/>
       <c r="E38" s="243" t="n"/>
-      <c r="F38" s="320" t="n"/>
-      <c r="G38" s="321" t="n"/>
-      <c r="H38" s="322" t="n"/>
+      <c r="F38" s="295" t="n"/>
+      <c r="G38" s="296" t="n"/>
+      <c r="H38" s="297" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
       <c r="L38" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="39" s="244">
-      <c r="A39" s="323" t="inlineStr">
+      <c r="A39" s="298" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -5389,18 +5364,18 @@
 </t>
         </is>
       </c>
-      <c r="D39" s="324" t="n"/>
+      <c r="D39" s="299" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="325" t="inlineStr">
+      <c r="J39" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="326" t="n"/>
+      <c r="K39" s="301" t="n"/>
       <c r="L39" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="244">
-      <c r="A40" s="327" t="inlineStr">
+      <c r="A40" s="302" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -5411,91 +5386,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="325" t="n"/>
+      <c r="J40" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="244">
-      <c r="A41" s="328" t="n"/>
+      <c r="A41" s="303" t="n"/>
       <c r="B41" s="243" t="n"/>
-      <c r="D41" s="329" t="n"/>
-      <c r="E41" s="330" t="n"/>
-      <c r="F41" s="330" t="n"/>
-      <c r="G41" s="330" t="n"/>
-      <c r="H41" s="330" t="n"/>
+      <c r="D41" s="304" t="n"/>
+      <c r="E41" s="305" t="n"/>
+      <c r="F41" s="305" t="n"/>
+      <c r="G41" s="305" t="n"/>
+      <c r="H41" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="244">
-      <c r="A42" s="328" t="n"/>
+      <c r="A42" s="303" t="n"/>
       <c r="B42" s="243" t="n"/>
       <c r="C42" s="243" t="n"/>
-      <c r="D42" s="329" t="n"/>
-      <c r="F42" s="330" t="n"/>
-      <c r="G42" s="330" t="n"/>
-      <c r="H42" s="330" t="n"/>
+      <c r="D42" s="304" t="n"/>
+      <c r="F42" s="305" t="n"/>
+      <c r="G42" s="305" t="n"/>
+      <c r="H42" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="244">
-      <c r="A43" s="328" t="n"/>
+      <c r="A43" s="303" t="n"/>
       <c r="B43" s="243" t="n"/>
       <c r="C43" s="243" t="n"/>
-      <c r="D43" s="331" t="n"/>
-      <c r="E43" s="332" t="n"/>
-      <c r="F43" s="333" t="n"/>
-      <c r="G43" s="334" t="n"/>
+      <c r="D43" s="306" t="n"/>
+      <c r="E43" s="307" t="n"/>
+      <c r="F43" s="308" t="n"/>
+      <c r="G43" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="328" t="n"/>
+      <c r="A44" s="303" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="335" t="n"/>
-      <c r="E44" s="336" t="n"/>
+      <c r="D44" s="310" t="n"/>
+      <c r="E44" s="311" t="n"/>
       <c r="L44" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="328" t="n"/>
+      <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
-      <c r="D45" s="335" t="n"/>
-      <c r="E45" s="336" t="n"/>
+      <c r="D45" s="310" t="n"/>
+      <c r="E45" s="311" t="n"/>
       <c r="L45" s="218" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="328" t="n"/>
+      <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
-      <c r="D46" s="335" t="n"/>
-      <c r="E46" s="336" t="n"/>
+      <c r="D46" s="310" t="n"/>
+      <c r="E46" s="311" t="n"/>
       <c r="L46" s="218" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
       <c r="C47" s="243" t="n"/>
-      <c r="D47" s="335" t="n"/>
-      <c r="E47" s="336" t="n"/>
+      <c r="D47" s="310" t="n"/>
+      <c r="E47" s="311" t="n"/>
       <c r="L47" s="218" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="335" t="n"/>
-      <c r="E48" s="336" t="n"/>
+      <c r="D48" s="310" t="n"/>
+      <c r="E48" s="311" t="n"/>
       <c r="L48" s="218" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="E49" s="336" t="n"/>
+      <c r="E49" s="311" t="n"/>
       <c r="L49" s="218" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
     </row>
     <row customFormat="1" r="51" s="240">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="G51" s="241" t="n"/>
       <c r="H51" s="242" t="n"/>
       <c r="I51" s="218" t="n"/>
@@ -5505,11 +5480,11 @@
       <c r="M51" s="243" t="n"/>
     </row>
     <row customFormat="1" r="52" s="240">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="237" t="n"/>
-      <c r="D52" s="335" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="D52" s="310" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="G52" s="241" t="n"/>
       <c r="H52" s="242" t="n"/>
       <c r="I52" s="218" t="n"/>
@@ -5519,11 +5494,11 @@
       <c r="M52" s="243" t="n"/>
     </row>
     <row customFormat="1" r="53" s="240">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
       <c r="G53" s="241" t="n"/>
       <c r="H53" s="242" t="n"/>
       <c r="I53" s="218" t="n"/>
@@ -5533,11 +5508,11 @@
       <c r="M53" s="243" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="218" t="n"/>
@@ -5547,11 +5522,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="D55" s="335" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="D55" s="310" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="218" t="n"/>
@@ -5561,11 +5536,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="218" t="n"/>
@@ -5575,11 +5550,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -5589,11 +5564,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -5603,11 +5578,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="237" t="n"/>
       <c r="C59" s="237" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -5617,11 +5592,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="237" t="n"/>
       <c r="C60" s="237" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -5631,11 +5606,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="237" t="n"/>
       <c r="C61" s="237" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -5645,11 +5620,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -5659,7 +5634,7 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
       <c r="D63" s="238" t="n"/>
@@ -5673,7 +5648,7 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
       <c r="D64" s="238" t="n"/>
@@ -5687,7 +5662,7 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
       <c r="D65" s="238" t="n"/>
@@ -5701,7 +5676,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -5715,7 +5690,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="237">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="D67" s="238" t="n"/>
       <c r="E67" s="239" t="n"/>
       <c r="F67" s="240" t="n"/>
@@ -5727,7 +5702,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="237">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="D68" s="238" t="n"/>
       <c r="E68" s="239" t="n"/>
       <c r="F68" s="240" t="n"/>
@@ -5739,7 +5714,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="237">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="D69" s="238" t="n"/>
       <c r="E69" s="239" t="n"/>
       <c r="F69" s="240" t="n"/>
@@ -5770,12 +5745,11 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5805,137 +5779,151 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="337" t="inlineStr">
+      <c r="A1" s="312" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="319" t="n"/>
-      <c r="C1" s="319" t="n"/>
-      <c r="D1" s="319" t="n"/>
-      <c r="E1" s="319" t="n"/>
-      <c r="F1" s="319" t="n"/>
-      <c r="G1" s="319" t="n"/>
-      <c r="H1" s="319" t="n"/>
+      <c r="B1" s="313" t="n"/>
+      <c r="C1" s="313" t="n"/>
+      <c r="D1" s="313" t="n"/>
+      <c r="E1" s="313" t="n"/>
+      <c r="F1" s="313" t="n"/>
+      <c r="G1" s="313" t="n"/>
+      <c r="H1" s="313" t="n"/>
+      <c r="I1" s="313" t="n"/>
+      <c r="J1" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="338" t="inlineStr">
+      <c r="A2" s="315" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="249" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="316" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="339" t="inlineStr">
+      <c r="A3" s="317" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="266" t="n"/>
-      <c r="J3" s="266" t="n"/>
+      <c r="B3" s="318" t="n"/>
+      <c r="C3" s="318" t="n"/>
+      <c r="D3" s="318" t="n"/>
+      <c r="E3" s="318" t="n"/>
+      <c r="F3" s="318" t="n"/>
+      <c r="G3" s="318" t="n"/>
+      <c r="H3" s="318" t="n"/>
+      <c r="I3" s="319" t="n"/>
+      <c r="J3" s="320" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="340" t="inlineStr">
+      <c r="A4" s="321" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="341" t="inlineStr">
+      <c r="B4" s="322" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="342" t="n"/>
-      <c r="D4" s="342" t="n"/>
-      <c r="E4" s="342" t="n"/>
-      <c r="F4" s="342" t="n"/>
-      <c r="G4" s="342" t="n"/>
-      <c r="H4" s="343" t="n"/>
-      <c r="I4" s="249" t="n"/>
-      <c r="J4" s="249" t="n"/>
+      <c r="C4" s="313" t="n"/>
+      <c r="D4" s="313" t="n"/>
+      <c r="E4" s="313" t="n"/>
+      <c r="F4" s="313" t="n"/>
+      <c r="G4" s="313" t="n"/>
+      <c r="H4" s="323" t="n"/>
+      <c r="I4" s="324" t="n"/>
+      <c r="J4" s="325" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="263" t="n"/>
-      <c r="B5" s="264" t="n"/>
-      <c r="H5" s="265" t="n"/>
-      <c r="I5" s="266" t="n"/>
-      <c r="J5" s="266" t="n"/>
+      <c r="A5" s="326" t="n"/>
+      <c r="B5" s="327" t="n"/>
+      <c r="C5" s="318" t="n"/>
+      <c r="D5" s="318" t="n"/>
+      <c r="E5" s="318" t="n"/>
+      <c r="F5" s="318" t="n"/>
+      <c r="G5" s="318" t="n"/>
+      <c r="H5" s="328" t="n"/>
+      <c r="I5" s="319" t="n"/>
+      <c r="J5" s="320" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="263" t="n"/>
-      <c r="B6" s="264" t="n"/>
-      <c r="H6" s="265" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="A6" s="255" t="n"/>
+      <c r="B6" s="256" t="n"/>
+      <c r="H6" s="257" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="267" t="n"/>
-      <c r="B7" s="268" t="n"/>
-      <c r="C7" s="269" t="n"/>
-      <c r="D7" s="269" t="n"/>
-      <c r="E7" s="269" t="n"/>
-      <c r="F7" s="269" t="n"/>
-      <c r="G7" s="269" t="n"/>
-      <c r="H7" s="270" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="A7" s="258" t="n"/>
+      <c r="B7" s="259" t="n"/>
+      <c r="C7" s="260" t="n"/>
+      <c r="D7" s="260" t="n"/>
+      <c r="E7" s="260" t="n"/>
+      <c r="F7" s="260" t="n"/>
+      <c r="G7" s="260" t="n"/>
+      <c r="H7" s="261" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="344" t="inlineStr">
-        <is>
-          <t>Theme Today: sleepless in seattle</t>
-        </is>
-      </c>
-      <c r="B8" s="303" t="n"/>
-      <c r="C8" s="303" t="n"/>
-      <c r="D8" s="303" t="n"/>
-      <c r="E8" s="303" t="n"/>
-      <c r="F8" s="303" t="n"/>
-      <c r="G8" s="303" t="n"/>
-      <c r="H8" s="304" t="n"/>
-      <c r="I8" s="266" t="n"/>
-      <c r="J8" s="266" t="n"/>
+      <c r="A8" s="329" t="inlineStr">
+        <is>
+          <t>Theme Today: Buying and borrowing Books</t>
+        </is>
+      </c>
+      <c r="B8" s="330" t="n"/>
+      <c r="C8" s="330" t="n"/>
+      <c r="D8" s="330" t="n"/>
+      <c r="E8" s="330" t="n"/>
+      <c r="F8" s="330" t="n"/>
+      <c r="G8" s="330" t="n"/>
+      <c r="H8" s="331" t="n"/>
+      <c r="I8" s="332" t="n"/>
+      <c r="J8" s="333" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="276" t="inlineStr">
+      <c r="A9" s="265" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="277" t="inlineStr">
+      <c r="B9" s="266" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="278" t="inlineStr">
+      <c r="C9" s="267" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -5948,21 +5936,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="285" t="inlineStr">
+      <c r="B10" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="285" t="inlineStr">
+      <c r="C10" s="274" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -5981,21 +5969,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="287" t="inlineStr">
+      <c r="B11" s="276" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="288" t="inlineStr">
+      <c r="C11" s="277" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -6022,21 +6010,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="244">
-      <c r="A12" s="284">
+      <c r="A12" s="273">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="285" t="inlineStr">
+      <c r="B12" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="290" t="inlineStr">
+      <c r="C12" s="279" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="289">
+      <c r="D12" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -6067,21 +6055,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="244">
-      <c r="A13" s="284">
+      <c r="A13" s="273">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="287" t="inlineStr">
+      <c r="B13" s="276" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="287" t="inlineStr">
+      <c r="C13" s="276" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="289">
+      <c r="D13" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6106,21 +6094,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="287" t="inlineStr">
+      <c r="B14" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="287" t="inlineStr">
+      <c r="C14" s="276" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6142,24 +6130,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="287" t="inlineStr">
+      <c r="B15" s="276" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="287" t="inlineStr">
+      <c r="C15" s="276" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6179,24 +6167,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="287" t="inlineStr">
+      <c r="B16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="287" t="inlineStr">
+      <c r="C16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6216,24 +6204,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="287" t="inlineStr">
+      <c r="B17" s="276" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="287" t="inlineStr">
+      <c r="C17" s="276" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6257,24 +6245,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="287" t="inlineStr">
+      <c r="B18" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="287" t="inlineStr">
+      <c r="C18" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6295,11 +6283,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="292" t="inlineStr">
+      <c r="B19" s="281" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -6309,7 +6297,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6330,28 +6318,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="302" t="inlineStr">
+      <c r="A20" s="334" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="303" t="n"/>
-      <c r="C20" s="303" t="n"/>
-      <c r="D20" s="303" t="n"/>
-      <c r="E20" s="303" t="n"/>
-      <c r="F20" s="303" t="n"/>
-      <c r="G20" s="303" t="n"/>
-      <c r="H20" s="304" t="n"/>
-      <c r="I20" s="37" t="n">
+      <c r="B20" s="330" t="n"/>
+      <c r="C20" s="330" t="n"/>
+      <c r="D20" s="330" t="n"/>
+      <c r="E20" s="330" t="n"/>
+      <c r="F20" s="330" t="n"/>
+      <c r="G20" s="330" t="n"/>
+      <c r="H20" s="331" t="n"/>
+      <c r="I20" s="335" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="336">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -6365,7 +6353,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -6390,21 +6378,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="290" t="inlineStr">
+      <c r="B22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="290" t="inlineStr">
+      <c r="C22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -6437,21 +6425,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="290" t="inlineStr">
+      <c r="B23" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="287" t="inlineStr">
+      <c r="C23" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6474,17 +6462,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="298" t="inlineStr">
+      <c r="B24" s="285" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6507,30 +6495,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="302" t="inlineStr">
+      <c r="A25" s="334" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="303" t="n"/>
-      <c r="C25" s="303" t="n"/>
-      <c r="D25" s="303" t="n"/>
-      <c r="E25" s="303" t="n"/>
-      <c r="F25" s="303" t="n"/>
-      <c r="G25" s="303" t="n"/>
-      <c r="H25" s="304" t="n"/>
-      <c r="I25" s="37" t="n">
+      <c r="B25" s="330" t="n"/>
+      <c r="C25" s="330" t="n"/>
+      <c r="D25" s="330" t="n"/>
+      <c r="E25" s="330" t="n"/>
+      <c r="F25" s="330" t="n"/>
+      <c r="G25" s="330" t="n"/>
+      <c r="H25" s="331" t="n"/>
+      <c r="I25" s="335" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="336">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -6544,7 +6532,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6566,59 +6554,55 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="287" t="inlineStr">
+      <c r="B27" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="300" t="inlineStr">
-        <is>
-          <t>Ice Breaker</t>
-        </is>
-      </c>
-      <c r="D27" s="301">
+      <c r="C27" s="287" t="inlineStr">
+        <is>
+          <t>Two heads are always better than one</t>
+        </is>
+      </c>
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
       <c r="E27" s="72" t="inlineStr">
         <is>
-          <t>5-7</t>
-        </is>
-      </c>
-      <c r="F27" s="103" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G27" s="104" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H27" s="105" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I27" s="37" t="n">
-        <v>0.004861111111111111</v>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="F27" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" s="104" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" s="105" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" s="37" t="inlineStr">
+        <is>
+          <t>0:06</t>
+        </is>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="284">
+      <c r="A28" s="273">
         <f>J27</f>
         <v/>
       </c>
@@ -6632,7 +6616,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="301">
+      <c r="D28" s="288">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6654,80 +6638,76 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="29" s="244" thickBot="1">
-      <c r="A29" s="284">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="287" t="inlineStr">
+      <c r="B29" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="300" t="inlineStr">
-        <is>
-          <t>Rice's Speech</t>
-        </is>
-      </c>
-      <c r="D29" s="345">
+      <c r="C29" s="287" t="inlineStr">
+        <is>
+          <t>房产证上的居住权</t>
+        </is>
+      </c>
+      <c r="D29" s="337">
         <f>Roles!B12</f>
         <v/>
       </c>
       <c r="E29" s="72" t="inlineStr">
         <is>
-          <t>5-7</t>
-        </is>
-      </c>
-      <c r="F29" s="103" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G29" s="104" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H29" s="105" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I29" s="37" t="n">
-        <v>0.004861111111111111</v>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="F29" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" s="104" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="105" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" s="37" t="inlineStr">
+        <is>
+          <t>0:06</t>
+        </is>
       </c>
       <c r="J29" s="36">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244" thickBot="1">
-      <c r="A30" s="302" t="inlineStr">
+      <c r="A30" s="282" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B30" s="303" t="n"/>
-      <c r="C30" s="303" t="n"/>
-      <c r="D30" s="303" t="n"/>
-      <c r="E30" s="303" t="n"/>
-      <c r="F30" s="303" t="n"/>
-      <c r="G30" s="303" t="n"/>
-      <c r="H30" s="304" t="n"/>
+      <c r="B30" s="263" t="n"/>
+      <c r="C30" s="263" t="n"/>
+      <c r="D30" s="263" t="n"/>
+      <c r="E30" s="263" t="n"/>
+      <c r="F30" s="263" t="n"/>
+      <c r="G30" s="263" t="n"/>
+      <c r="H30" s="264" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J29+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="244">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -6741,7 +6721,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D31" s="296">
+      <c r="D31" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6763,53 +6743,53 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="249" t="n"/>
+      <c r="L31" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244">
-      <c r="A32" s="284">
+      <c r="A32" s="338">
         <f>J31</f>
         <v/>
       </c>
-      <c r="B32" s="55" t="inlineStr">
+      <c r="B32" s="339" t="inlineStr">
         <is>
           <t>Evaluator1</t>
         </is>
       </c>
-      <c r="C32" s="56" t="inlineStr">
+      <c r="C32" s="340" t="inlineStr">
         <is>
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D32" s="296">
+      <c r="D32" s="341">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="313" t="inlineStr">
+      <c r="E32" s="342" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
       </c>
-      <c r="F32" s="151" t="n">
+      <c r="F32" s="343" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="152" t="n">
+      <c r="G32" s="344" t="n">
         <v>2.5</v>
       </c>
-      <c r="H32" s="153" t="n">
+      <c r="H32" s="345" t="n">
         <v>3</v>
       </c>
-      <c r="I32" s="37" t="n">
+      <c r="I32" s="335" t="n">
         <v>0.002083333333333333</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="336">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="249" t="n"/>
+      <c r="L32" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J32</f>
         <v/>
       </c>
@@ -6823,11 +6803,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D33" s="296">
+      <c r="D33" s="283">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="313" t="inlineStr">
+      <c r="E33" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -6849,10 +6829,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="249" t="n"/>
+      <c r="L33" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="244">
-      <c r="A34" s="284">
+      <c r="A34" s="273">
         <f>J33</f>
         <v/>
       </c>
@@ -6866,7 +6846,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D34" s="289">
+      <c r="D34" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6890,10 +6870,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="314" t="n"/>
+      <c r="L34" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
@@ -6907,7 +6887,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D35" s="289">
+      <c r="D35" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6933,10 +6913,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="314" t="n"/>
+      <c r="L35" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="284">
+      <c r="A36" s="273">
         <f>J35</f>
         <v/>
       </c>
@@ -6950,7 +6930,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D36" s="289">
+      <c r="D36" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6974,14 +6954,14 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="314" t="n"/>
+      <c r="L36" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="244">
-      <c r="A37" s="284">
+      <c r="A37" s="273">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="285" t="inlineStr">
+      <c r="B37" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -6991,7 +6971,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D37" s="289">
+      <c r="D37" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7011,24 +6991,24 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="314" t="n"/>
+      <c r="L37" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="284">
+      <c r="A38" s="273">
         <f>J37</f>
         <v/>
       </c>
-      <c r="B38" s="287" t="inlineStr">
+      <c r="B38" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C38" s="287" t="inlineStr">
+      <c r="C38" s="276" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D38" s="289">
+      <c r="D38" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7060,24 +7040,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="314" t="n"/>
+      <c r="L38" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244" thickBot="1">
-      <c r="A39" s="315">
+      <c r="A39" s="291">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="290" t="inlineStr">
+      <c r="B39" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C39" s="287" t="inlineStr">
+      <c r="C39" s="276" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D39" s="289">
+      <c r="D39" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7109,24 +7089,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="314" t="n"/>
+      <c r="L39" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="244" thickBot="1">
-      <c r="A40" s="315">
+      <c r="A40" s="291">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="316" t="inlineStr">
+      <c r="B40" s="292" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C40" s="317" t="inlineStr">
+      <c r="C40" s="293" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D40" s="289">
+      <c r="D40" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7151,21 +7131,21 @@
       <c r="L40" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="244">
-      <c r="A41" s="318" t="n"/>
-      <c r="B41" s="319" t="n"/>
-      <c r="C41" s="319" t="n"/>
-      <c r="D41" s="319" t="n"/>
+      <c r="A41" s="294" t="n"/>
+      <c r="B41" s="246" t="n"/>
+      <c r="C41" s="246" t="n"/>
+      <c r="D41" s="246" t="n"/>
       <c r="E41" s="243" t="n"/>
-      <c r="F41" s="320" t="n"/>
-      <c r="G41" s="321" t="n"/>
-      <c r="H41" s="322" t="n"/>
+      <c r="F41" s="295" t="n"/>
+      <c r="G41" s="296" t="n"/>
+      <c r="H41" s="297" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
       <c r="L41" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="42" s="244">
-      <c r="A42" s="323" t="inlineStr">
+      <c r="A42" s="298" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -7175,18 +7155,18 @@
 </t>
         </is>
       </c>
-      <c r="D42" s="324" t="n"/>
+      <c r="D42" s="299" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="325" t="inlineStr">
+      <c r="J42" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="326" t="n"/>
+      <c r="K42" s="301" t="n"/>
       <c r="L42" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="244">
-      <c r="A43" s="327" t="inlineStr">
+      <c r="A43" s="302" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -7197,91 +7177,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="325" t="n"/>
+      <c r="J43" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="328" t="n"/>
+      <c r="A44" s="303" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="329" t="n"/>
-      <c r="E44" s="330" t="n"/>
-      <c r="F44" s="330" t="n"/>
-      <c r="G44" s="330" t="n"/>
-      <c r="H44" s="330" t="n"/>
+      <c r="D44" s="304" t="n"/>
+      <c r="E44" s="305" t="n"/>
+      <c r="F44" s="305" t="n"/>
+      <c r="G44" s="305" t="n"/>
+      <c r="H44" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="328" t="n"/>
+      <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
       <c r="C45" s="243" t="n"/>
-      <c r="D45" s="329" t="n"/>
-      <c r="F45" s="330" t="n"/>
-      <c r="G45" s="330" t="n"/>
-      <c r="H45" s="330" t="n"/>
+      <c r="D45" s="304" t="n"/>
+      <c r="F45" s="305" t="n"/>
+      <c r="G45" s="305" t="n"/>
+      <c r="H45" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="244">
-      <c r="A46" s="328" t="n"/>
+      <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
       <c r="C46" s="243" t="n"/>
-      <c r="D46" s="331" t="n"/>
-      <c r="E46" s="332" t="n"/>
-      <c r="F46" s="333" t="n"/>
-      <c r="G46" s="334" t="n"/>
+      <c r="D46" s="306" t="n"/>
+      <c r="E46" s="307" t="n"/>
+      <c r="F46" s="308" t="n"/>
+      <c r="G46" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="335" t="n"/>
-      <c r="E47" s="336" t="n"/>
+      <c r="D47" s="310" t="n"/>
+      <c r="E47" s="311" t="n"/>
       <c r="L47" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
-      <c r="D48" s="335" t="n"/>
-      <c r="E48" s="336" t="n"/>
+      <c r="D48" s="310" t="n"/>
+      <c r="E48" s="311" t="n"/>
       <c r="L48" s="218" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
-      <c r="D49" s="335" t="n"/>
-      <c r="E49" s="336" t="n"/>
+      <c r="D49" s="310" t="n"/>
+      <c r="E49" s="311" t="n"/>
       <c r="L49" s="218" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
       <c r="C50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
       <c r="L50" s="218" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="L51" s="218" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="243" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="L52" s="218" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="218" t="n"/>
@@ -7291,11 +7271,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="237" t="n"/>
-      <c r="D55" s="335" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="D55" s="310" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="218" t="n"/>
@@ -7305,11 +7285,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="218" t="n"/>
@@ -7319,11 +7299,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -7333,11 +7313,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -7347,11 +7327,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -7361,11 +7341,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -7375,11 +7355,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -7389,11 +7369,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -7403,11 +7383,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
-      <c r="D63" s="335" t="n"/>
-      <c r="E63" s="336" t="n"/>
+      <c r="D63" s="310" t="n"/>
+      <c r="E63" s="311" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="218" t="n"/>
@@ -7417,11 +7397,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
-      <c r="D64" s="335" t="n"/>
-      <c r="E64" s="336" t="n"/>
+      <c r="D64" s="310" t="n"/>
+      <c r="E64" s="311" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="218" t="n"/>
@@ -7431,11 +7411,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="335" t="n"/>
-      <c r="E65" s="336" t="n"/>
+      <c r="D65" s="310" t="n"/>
+      <c r="E65" s="311" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="218" t="n"/>
@@ -7445,7 +7425,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -7459,7 +7439,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
       <c r="D67" s="238" t="n"/>
@@ -7473,7 +7453,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
       <c r="D68" s="238" t="n"/>
@@ -7487,7 +7467,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -7501,7 +7481,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="237">
-      <c r="A70" s="328" t="n"/>
+      <c r="A70" s="303" t="n"/>
       <c r="D70" s="238" t="n"/>
       <c r="E70" s="239" t="n"/>
       <c r="F70" s="240" t="n"/>
@@ -7513,7 +7493,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="237">
-      <c r="A71" s="328" t="n"/>
+      <c r="A71" s="303" t="n"/>
       <c r="D71" s="238" t="n"/>
       <c r="E71" s="239" t="n"/>
       <c r="F71" s="240" t="n"/>
@@ -7525,7 +7505,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="237">
-      <c r="A72" s="328" t="n"/>
+      <c r="A72" s="303" t="n"/>
       <c r="D72" s="238" t="n"/>
       <c r="E72" s="239" t="n"/>
       <c r="F72" s="240" t="n"/>
@@ -7556,6 +7536,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7590,137 +7571,137 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="337" t="inlineStr">
+      <c r="A1" s="245" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="319" t="n"/>
-      <c r="C1" s="319" t="n"/>
-      <c r="D1" s="319" t="n"/>
-      <c r="E1" s="319" t="n"/>
-      <c r="F1" s="319" t="n"/>
-      <c r="G1" s="319" t="n"/>
-      <c r="H1" s="319" t="n"/>
+      <c r="B1" s="246" t="n"/>
+      <c r="C1" s="246" t="n"/>
+      <c r="D1" s="246" t="n"/>
+      <c r="E1" s="246" t="n"/>
+      <c r="F1" s="246" t="n"/>
+      <c r="G1" s="246" t="n"/>
+      <c r="H1" s="246" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="338" t="inlineStr">
+      <c r="A2" s="247" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="249" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="339" t="inlineStr">
+      <c r="A3" s="249" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="266" t="n"/>
-      <c r="J3" s="266" t="n"/>
+      <c r="I3" s="250" t="n"/>
+      <c r="J3" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="340" t="inlineStr">
+      <c r="A4" s="251" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="341" t="inlineStr">
+      <c r="B4" s="252" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="342" t="n"/>
-      <c r="D4" s="342" t="n"/>
-      <c r="E4" s="342" t="n"/>
-      <c r="F4" s="342" t="n"/>
-      <c r="G4" s="342" t="n"/>
-      <c r="H4" s="343" t="n"/>
-      <c r="I4" s="249" t="n"/>
-      <c r="J4" s="249" t="n"/>
+      <c r="C4" s="253" t="n"/>
+      <c r="D4" s="253" t="n"/>
+      <c r="E4" s="253" t="n"/>
+      <c r="F4" s="253" t="n"/>
+      <c r="G4" s="253" t="n"/>
+      <c r="H4" s="254" t="n"/>
+      <c r="I4" s="248" t="n"/>
+      <c r="J4" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="263" t="n"/>
-      <c r="B5" s="264" t="n"/>
-      <c r="H5" s="265" t="n"/>
-      <c r="I5" s="266" t="n"/>
-      <c r="J5" s="266" t="n"/>
+      <c r="A5" s="255" t="n"/>
+      <c r="B5" s="256" t="n"/>
+      <c r="H5" s="257" t="n"/>
+      <c r="I5" s="250" t="n"/>
+      <c r="J5" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="263" t="n"/>
-      <c r="B6" s="264" t="n"/>
-      <c r="H6" s="265" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="A6" s="255" t="n"/>
+      <c r="B6" s="256" t="n"/>
+      <c r="H6" s="257" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="267" t="n"/>
-      <c r="B7" s="268" t="n"/>
-      <c r="C7" s="269" t="n"/>
-      <c r="D7" s="269" t="n"/>
-      <c r="E7" s="269" t="n"/>
-      <c r="F7" s="269" t="n"/>
-      <c r="G7" s="269" t="n"/>
-      <c r="H7" s="270" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="A7" s="258" t="n"/>
+      <c r="B7" s="259" t="n"/>
+      <c r="C7" s="260" t="n"/>
+      <c r="D7" s="260" t="n"/>
+      <c r="E7" s="260" t="n"/>
+      <c r="F7" s="260" t="n"/>
+      <c r="G7" s="260" t="n"/>
+      <c r="H7" s="261" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="344" t="inlineStr">
+      <c r="A8" s="262" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="303" t="n"/>
-      <c r="C8" s="303" t="n"/>
-      <c r="D8" s="303" t="n"/>
-      <c r="E8" s="303" t="n"/>
-      <c r="F8" s="303" t="n"/>
-      <c r="G8" s="303" t="n"/>
-      <c r="H8" s="304" t="n"/>
-      <c r="I8" s="266" t="n"/>
-      <c r="J8" s="266" t="n"/>
+      <c r="B8" s="263" t="n"/>
+      <c r="C8" s="263" t="n"/>
+      <c r="D8" s="263" t="n"/>
+      <c r="E8" s="263" t="n"/>
+      <c r="F8" s="263" t="n"/>
+      <c r="G8" s="263" t="n"/>
+      <c r="H8" s="264" t="n"/>
+      <c r="I8" s="250" t="n"/>
+      <c r="J8" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="276" t="inlineStr">
+      <c r="A9" s="265" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="277" t="inlineStr">
+      <c r="B9" s="266" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="278" t="inlineStr">
+      <c r="C9" s="267" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -7733,21 +7714,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="285" t="inlineStr">
+      <c r="B10" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="285" t="inlineStr">
+      <c r="C10" s="274" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7766,21 +7747,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="287" t="inlineStr">
+      <c r="B11" s="276" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="288" t="inlineStr">
+      <c r="C11" s="277" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7807,21 +7788,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="244">
-      <c r="A12" s="284">
+      <c r="A12" s="273">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="285" t="inlineStr">
+      <c r="B12" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="290" t="inlineStr">
+      <c r="C12" s="279" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="289">
+      <c r="D12" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7852,21 +7833,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="244">
-      <c r="A13" s="284">
+      <c r="A13" s="273">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="287" t="inlineStr">
+      <c r="B13" s="276" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="287" t="inlineStr">
+      <c r="C13" s="276" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="289">
+      <c r="D13" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7891,21 +7872,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="287" t="inlineStr">
+      <c r="B14" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="287" t="inlineStr">
+      <c r="C14" s="276" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7927,24 +7908,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="287" t="inlineStr">
+      <c r="B15" s="276" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="287" t="inlineStr">
+      <c r="C15" s="276" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -7964,24 +7945,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="287" t="inlineStr">
+      <c r="B16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="287" t="inlineStr">
+      <c r="C16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -8001,24 +7982,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="287" t="inlineStr">
+      <c r="B17" s="276" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="287" t="inlineStr">
+      <c r="C17" s="276" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -8042,24 +8023,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="287" t="inlineStr">
+      <c r="B18" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="287" t="inlineStr">
+      <c r="C18" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8080,11 +8061,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="292" t="inlineStr">
+      <c r="B19" s="281" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -8094,7 +8075,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8115,18 +8096,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="302" t="inlineStr">
+      <c r="A20" s="282" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="303" t="n"/>
-      <c r="C20" s="303" t="n"/>
-      <c r="D20" s="303" t="n"/>
-      <c r="E20" s="303" t="n"/>
-      <c r="F20" s="303" t="n"/>
-      <c r="G20" s="303" t="n"/>
-      <c r="H20" s="304" t="n"/>
+      <c r="B20" s="263" t="n"/>
+      <c r="C20" s="263" t="n"/>
+      <c r="D20" s="263" t="n"/>
+      <c r="E20" s="263" t="n"/>
+      <c r="F20" s="263" t="n"/>
+      <c r="G20" s="263" t="n"/>
+      <c r="H20" s="264" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -8136,7 +8117,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -8150,7 +8131,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -8175,21 +8156,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="290" t="inlineStr">
+      <c r="B22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="290" t="inlineStr">
+      <c r="C22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -8222,21 +8203,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="290" t="inlineStr">
+      <c r="B23" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="287" t="inlineStr">
+      <c r="C23" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8259,17 +8240,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="298" t="inlineStr">
+      <c r="B24" s="285" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8292,18 +8273,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="302" t="inlineStr">
+      <c r="A25" s="282" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="303" t="n"/>
-      <c r="C25" s="303" t="n"/>
-      <c r="D25" s="303" t="n"/>
-      <c r="E25" s="303" t="n"/>
-      <c r="F25" s="303" t="n"/>
-      <c r="G25" s="303" t="n"/>
-      <c r="H25" s="304" t="n"/>
+      <c r="B25" s="263" t="n"/>
+      <c r="C25" s="263" t="n"/>
+      <c r="D25" s="263" t="n"/>
+      <c r="E25" s="263" t="n"/>
+      <c r="F25" s="263" t="n"/>
+      <c r="G25" s="263" t="n"/>
+      <c r="H25" s="264" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -8312,10 +8293,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -8329,7 +8310,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8351,24 +8332,24 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="287" t="inlineStr">
+      <c r="B27" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="300" t="inlineStr">
+      <c r="C27" s="287" t="inlineStr">
         <is>
           <t>Ice Breaker</t>
         </is>
       </c>
-      <c r="D27" s="301">
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -8400,10 +8381,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="284">
+      <c r="A28" s="273">
         <f>J27</f>
         <v/>
       </c>
@@ -8417,7 +8398,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="301">
+      <c r="D28" s="288">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8439,24 +8420,24 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="29" s="244">
-      <c r="A29" s="284">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="287" t="inlineStr">
+      <c r="B29" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="300" t="inlineStr">
+      <c r="C29" s="287" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D29" s="345">
+      <c r="D29" s="337">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -8488,10 +8469,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="30" s="244">
-      <c r="A30" s="284">
+      <c r="A30" s="273">
         <f>J29</f>
         <v/>
       </c>
@@ -8505,7 +8486,7 @@
           <t>Introduce the 3nd Speaker</t>
         </is>
       </c>
-      <c r="D30" s="301">
+      <c r="D30" s="288">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8527,24 +8508,24 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="31" s="244" thickBot="1">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
-      <c r="B31" s="287" t="inlineStr">
+      <c r="B31" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker3</t>
         </is>
       </c>
-      <c r="C31" s="300" t="inlineStr">
+      <c r="C31" s="287" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D31" s="345">
+      <c r="D31" s="337">
         <f>Roles!B13</f>
         <v/>
       </c>
@@ -8576,31 +8557,31 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="249" t="n"/>
+      <c r="L31" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244" thickBot="1">
-      <c r="A32" s="302" t="inlineStr">
+      <c r="A32" s="282" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B32" s="303" t="n"/>
-      <c r="C32" s="303" t="n"/>
-      <c r="D32" s="303" t="n"/>
-      <c r="E32" s="303" t="n"/>
-      <c r="F32" s="303" t="n"/>
-      <c r="G32" s="303" t="n"/>
-      <c r="H32" s="304" t="n"/>
+      <c r="B32" s="263" t="n"/>
+      <c r="C32" s="263" t="n"/>
+      <c r="D32" s="263" t="n"/>
+      <c r="E32" s="263" t="n"/>
+      <c r="F32" s="263" t="n"/>
+      <c r="G32" s="263" t="n"/>
+      <c r="H32" s="264" t="n"/>
       <c r="I32" s="37" t="n"/>
       <c r="J32" s="36">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="249" t="n"/>
+      <c r="L32" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J32</f>
         <v/>
       </c>
@@ -8614,7 +8595,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D33" s="296">
+      <c r="D33" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8636,10 +8617,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="249" t="n"/>
+      <c r="L33" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="244">
-      <c r="A34" s="284">
+      <c r="A34" s="273">
         <f>J33</f>
         <v/>
       </c>
@@ -8653,11 +8634,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D34" s="296">
+      <c r="D34" s="283">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E34" s="313" t="inlineStr">
+      <c r="E34" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8679,10 +8660,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="249" t="n"/>
+      <c r="L34" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
@@ -8696,11 +8677,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D35" s="296">
+      <c r="D35" s="283">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E35" s="313" t="inlineStr">
+      <c r="E35" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8722,10 +8703,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="249" t="n"/>
+      <c r="L35" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="284">
+      <c r="A36" s="273">
         <f>J35</f>
         <v/>
       </c>
@@ -8739,11 +8720,11 @@
           <t>Evaluate the 3rd speaker</t>
         </is>
       </c>
-      <c r="D36" s="296">
+      <c r="D36" s="283">
         <f>Roles!B17</f>
         <v/>
       </c>
-      <c r="E36" s="313" t="inlineStr">
+      <c r="E36" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8765,10 +8746,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="249" t="n"/>
+      <c r="L36" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="244">
-      <c r="A37" s="284">
+      <c r="A37" s="273">
         <f>J36</f>
         <v/>
       </c>
@@ -8782,7 +8763,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D37" s="289">
+      <c r="D37" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -8806,10 +8787,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="314" t="n"/>
+      <c r="L37" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="284">
+      <c r="A38" s="273">
         <f>J37</f>
         <v/>
       </c>
@@ -8823,7 +8804,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D38" s="289">
+      <c r="D38" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -8849,10 +8830,10 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="314" t="n"/>
+      <c r="L38" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244">
-      <c r="A39" s="284">
+      <c r="A39" s="273">
         <f>J38</f>
         <v/>
       </c>
@@ -8866,7 +8847,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D39" s="289">
+      <c r="D39" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -8890,14 +8871,14 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="314" t="n"/>
+      <c r="L39" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="244">
-      <c r="A40" s="284">
+      <c r="A40" s="273">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="285" t="inlineStr">
+      <c r="B40" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -8907,7 +8888,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D40" s="289">
+      <c r="D40" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -8927,24 +8908,24 @@
         <v/>
       </c>
       <c r="K40" s="36" t="n"/>
-      <c r="L40" s="314" t="n"/>
+      <c r="L40" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="41" s="244">
-      <c r="A41" s="284">
+      <c r="A41" s="273">
         <f>J40</f>
         <v/>
       </c>
-      <c r="B41" s="287" t="inlineStr">
+      <c r="B41" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C41" s="287" t="inlineStr">
+      <c r="C41" s="276" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D41" s="289">
+      <c r="D41" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8976,24 +8957,24 @@
         <v/>
       </c>
       <c r="K41" s="36" t="n"/>
-      <c r="L41" s="314" t="n"/>
+      <c r="L41" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="42" s="244" thickBot="1">
-      <c r="A42" s="315">
+      <c r="A42" s="291">
         <f>J41</f>
         <v/>
       </c>
-      <c r="B42" s="290" t="inlineStr">
+      <c r="B42" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C42" s="287" t="inlineStr">
+      <c r="C42" s="276" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D42" s="289">
+      <c r="D42" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9025,24 +9006,24 @@
         <v/>
       </c>
       <c r="K42" s="36" t="n"/>
-      <c r="L42" s="314" t="n"/>
+      <c r="L42" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="43" s="244" thickBot="1">
-      <c r="A43" s="315">
+      <c r="A43" s="291">
         <f>J42</f>
         <v/>
       </c>
-      <c r="B43" s="316" t="inlineStr">
+      <c r="B43" s="292" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C43" s="317" t="inlineStr">
+      <c r="C43" s="293" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D43" s="289">
+      <c r="D43" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -9067,21 +9048,21 @@
       <c r="L43" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="44" s="244">
-      <c r="A44" s="318" t="n"/>
-      <c r="B44" s="319" t="n"/>
-      <c r="C44" s="319" t="n"/>
-      <c r="D44" s="319" t="n"/>
+      <c r="A44" s="294" t="n"/>
+      <c r="B44" s="246" t="n"/>
+      <c r="C44" s="246" t="n"/>
+      <c r="D44" s="246" t="n"/>
       <c r="E44" s="243" t="n"/>
-      <c r="F44" s="320" t="n"/>
-      <c r="G44" s="321" t="n"/>
-      <c r="H44" s="322" t="n"/>
+      <c r="F44" s="295" t="n"/>
+      <c r="G44" s="296" t="n"/>
+      <c r="H44" s="297" t="n"/>
       <c r="I44" s="39" t="n"/>
       <c r="J44" s="39" t="n"/>
       <c r="K44" s="39" t="n"/>
       <c r="L44" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="45" s="244">
-      <c r="A45" s="323" t="inlineStr">
+      <c r="A45" s="298" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -9091,18 +9072,18 @@
 </t>
         </is>
       </c>
-      <c r="D45" s="324" t="n"/>
+      <c r="D45" s="299" t="n"/>
       <c r="I45" s="39" t="n"/>
-      <c r="J45" s="325" t="inlineStr">
+      <c r="J45" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K45" s="326" t="n"/>
+      <c r="K45" s="301" t="n"/>
       <c r="L45" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="46" s="244">
-      <c r="A46" s="327" t="inlineStr">
+      <c r="A46" s="302" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -9113,91 +9094,91 @@
         </is>
       </c>
       <c r="I46" s="39" t="n"/>
-      <c r="J46" s="325" t="n"/>
+      <c r="J46" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="329" t="n"/>
-      <c r="E47" s="330" t="n"/>
-      <c r="F47" s="330" t="n"/>
-      <c r="G47" s="330" t="n"/>
-      <c r="H47" s="330" t="n"/>
+      <c r="D47" s="304" t="n"/>
+      <c r="E47" s="305" t="n"/>
+      <c r="F47" s="305" t="n"/>
+      <c r="G47" s="305" t="n"/>
+      <c r="H47" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="329" t="n"/>
-      <c r="F48" s="330" t="n"/>
-      <c r="G48" s="330" t="n"/>
-      <c r="H48" s="330" t="n"/>
+      <c r="D48" s="304" t="n"/>
+      <c r="F48" s="305" t="n"/>
+      <c r="G48" s="305" t="n"/>
+      <c r="H48" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="49" s="244">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="D49" s="331" t="n"/>
-      <c r="E49" s="332" t="n"/>
-      <c r="F49" s="333" t="n"/>
-      <c r="G49" s="334" t="n"/>
+      <c r="D49" s="306" t="n"/>
+      <c r="E49" s="307" t="n"/>
+      <c r="F49" s="308" t="n"/>
+      <c r="G49" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="50" s="244">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
       <c r="L50" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="51" s="244">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="L51" s="218" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
-      <c r="D52" s="335" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="D52" s="310" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="L52" s="218" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
       <c r="L53" s="218" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="L54" s="218" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="L55" s="218" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -9207,11 +9188,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="237" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -9221,11 +9202,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -9235,11 +9216,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -9249,11 +9230,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -9263,11 +9244,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="243" t="n"/>
       <c r="C62" s="243" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -9277,11 +9258,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="243" t="n"/>
       <c r="C63" s="243" t="n"/>
-      <c r="D63" s="335" t="n"/>
-      <c r="E63" s="336" t="n"/>
+      <c r="D63" s="310" t="n"/>
+      <c r="E63" s="311" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="218" t="n"/>
@@ -9291,11 +9272,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="243" t="n"/>
       <c r="C64" s="243" t="n"/>
-      <c r="D64" s="335" t="n"/>
-      <c r="E64" s="336" t="n"/>
+      <c r="D64" s="310" t="n"/>
+      <c r="E64" s="311" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="218" t="n"/>
@@ -9305,11 +9286,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="335" t="n"/>
-      <c r="E65" s="336" t="n"/>
+      <c r="D65" s="310" t="n"/>
+      <c r="E65" s="311" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="218" t="n"/>
@@ -9319,11 +9300,11 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
-      <c r="D66" s="335" t="n"/>
-      <c r="E66" s="336" t="n"/>
+      <c r="D66" s="310" t="n"/>
+      <c r="E66" s="311" t="n"/>
       <c r="G66" s="241" t="n"/>
       <c r="H66" s="242" t="n"/>
       <c r="I66" s="218" t="n"/>
@@ -9333,11 +9314,11 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
-      <c r="D67" s="335" t="n"/>
-      <c r="E67" s="336" t="n"/>
+      <c r="D67" s="310" t="n"/>
+      <c r="E67" s="311" t="n"/>
       <c r="G67" s="241" t="n"/>
       <c r="H67" s="242" t="n"/>
       <c r="I67" s="218" t="n"/>
@@ -9347,11 +9328,11 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
-      <c r="D68" s="335" t="n"/>
-      <c r="E68" s="336" t="n"/>
+      <c r="D68" s="310" t="n"/>
+      <c r="E68" s="311" t="n"/>
       <c r="G68" s="241" t="n"/>
       <c r="H68" s="242" t="n"/>
       <c r="I68" s="218" t="n"/>
@@ -9361,7 +9342,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -9375,7 +9356,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="240">
-      <c r="A70" s="328" t="n"/>
+      <c r="A70" s="303" t="n"/>
       <c r="B70" s="237" t="n"/>
       <c r="C70" s="237" t="n"/>
       <c r="D70" s="238" t="n"/>
@@ -9389,7 +9370,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="240">
-      <c r="A71" s="328" t="n"/>
+      <c r="A71" s="303" t="n"/>
       <c r="B71" s="237" t="n"/>
       <c r="C71" s="237" t="n"/>
       <c r="D71" s="238" t="n"/>
@@ -9403,7 +9384,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="240">
-      <c r="A72" s="328" t="n"/>
+      <c r="A72" s="303" t="n"/>
       <c r="B72" s="237" t="n"/>
       <c r="C72" s="237" t="n"/>
       <c r="D72" s="238" t="n"/>
@@ -9417,7 +9398,7 @@
       <c r="M72" s="243" t="n"/>
     </row>
     <row customFormat="1" r="73" s="237">
-      <c r="A73" s="328" t="n"/>
+      <c r="A73" s="303" t="n"/>
       <c r="D73" s="238" t="n"/>
       <c r="E73" s="239" t="n"/>
       <c r="F73" s="240" t="n"/>
@@ -9429,7 +9410,7 @@
       <c r="M73" s="243" t="n"/>
     </row>
     <row customFormat="1" r="74" s="237">
-      <c r="A74" s="328" t="n"/>
+      <c r="A74" s="303" t="n"/>
       <c r="D74" s="238" t="n"/>
       <c r="E74" s="239" t="n"/>
       <c r="F74" s="240" t="n"/>
@@ -9441,7 +9422,7 @@
       <c r="M74" s="243" t="n"/>
     </row>
     <row customFormat="1" r="75" s="237">
-      <c r="A75" s="328" t="n"/>
+      <c r="A75" s="303" t="n"/>
       <c r="D75" s="238" t="n"/>
       <c r="E75" s="239" t="n"/>
       <c r="F75" s="240" t="n"/>
@@ -9506,18 +9487,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="337" t="inlineStr">
+      <c r="A1" s="245" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="319" t="n"/>
-      <c r="C1" s="319" t="n"/>
-      <c r="D1" s="319" t="n"/>
-      <c r="E1" s="319" t="n"/>
-      <c r="F1" s="319" t="n"/>
-      <c r="G1" s="319" t="n"/>
-      <c r="H1" s="319" t="n"/>
+      <c r="B1" s="246" t="n"/>
+      <c r="C1" s="246" t="n"/>
+      <c r="D1" s="246" t="n"/>
+      <c r="E1" s="246" t="n"/>
+      <c r="F1" s="246" t="n"/>
+      <c r="G1" s="246" t="n"/>
+      <c r="H1" s="246" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
       <c r="A2" s="346" t="inlineStr">
@@ -9525,8 +9506,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="249" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
       <c r="A3" s="347" t="inlineStr">
@@ -9541,8 +9522,8 @@
       <c r="F3" s="348" t="n"/>
       <c r="G3" s="348" t="n"/>
       <c r="H3" s="348" t="n"/>
-      <c r="I3" s="266" t="n"/>
-      <c r="J3" s="266" t="n"/>
+      <c r="I3" s="250" t="n"/>
+      <c r="J3" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
       <c r="A4" s="349" t="inlineStr">
@@ -9561,13 +9542,13 @@
       <c r="F4" s="351" t="n"/>
       <c r="G4" s="351" t="n"/>
       <c r="H4" s="351" t="n"/>
-      <c r="I4" s="249" t="n"/>
-      <c r="J4" s="249" t="n"/>
+      <c r="I4" s="248" t="n"/>
+      <c r="J4" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
       <c r="A5" s="352" t="n"/>
-      <c r="I5" s="266" t="n"/>
-      <c r="J5" s="266" t="n"/>
+      <c r="I5" s="250" t="n"/>
+      <c r="J5" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
       <c r="A6" s="349" t="inlineStr">
@@ -9586,29 +9567,29 @@
       <c r="F6" s="351" t="n"/>
       <c r="G6" s="351" t="n"/>
       <c r="H6" s="351" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
       <c r="A7" s="352" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="344" t="inlineStr">
+      <c r="A8" s="262" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="303" t="n"/>
-      <c r="C8" s="303" t="n"/>
-      <c r="D8" s="303" t="n"/>
-      <c r="E8" s="303" t="n"/>
-      <c r="F8" s="303" t="n"/>
-      <c r="G8" s="303" t="n"/>
-      <c r="H8" s="304" t="n"/>
-      <c r="I8" s="266" t="n"/>
-      <c r="J8" s="266" t="n"/>
+      <c r="B8" s="263" t="n"/>
+      <c r="C8" s="263" t="n"/>
+      <c r="D8" s="263" t="n"/>
+      <c r="E8" s="263" t="n"/>
+      <c r="F8" s="263" t="n"/>
+      <c r="G8" s="263" t="n"/>
+      <c r="H8" s="264" t="n"/>
+      <c r="I8" s="250" t="n"/>
+      <c r="J8" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
       <c r="A9" s="353" t="inlineStr">
@@ -9626,28 +9607,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -9660,7 +9641,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
@@ -9674,7 +9655,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -9693,7 +9674,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
@@ -9707,7 +9688,7 @@
           <t>会议开场 &amp; 欢迎</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9734,10 +9715,10 @@
       </c>
     </row>
     <row customHeight="1" ht="1.5" r="12" s="244">
-      <c r="A12" s="284" t="n"/>
+      <c r="A12" s="273" t="n"/>
       <c r="B12" s="355" t="n"/>
       <c r="C12" s="358" t="n"/>
-      <c r="D12" s="289" t="n"/>
+      <c r="D12" s="278" t="n"/>
       <c r="E12" s="76" t="n"/>
       <c r="F12" s="151" t="n"/>
       <c r="G12" s="152" t="n"/>
@@ -9751,7 +9732,7 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="13" s="244">
-      <c r="A13" s="284">
+      <c r="A13" s="273">
         <f>J12</f>
         <v/>
       </c>
@@ -9765,7 +9746,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="289">
+      <c r="D13" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9790,7 +9771,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
@@ -9804,7 +9785,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9826,10 +9807,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
@@ -9843,7 +9824,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -9863,10 +9844,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
@@ -9880,7 +9861,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -9900,10 +9881,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
@@ -9917,7 +9898,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -9941,10 +9922,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
@@ -9958,7 +9939,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9979,7 +9960,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
@@ -9993,7 +9974,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10014,18 +9995,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="302" t="inlineStr">
+      <c r="A20" s="282" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="303" t="n"/>
-      <c r="C20" s="303" t="n"/>
-      <c r="D20" s="303" t="n"/>
-      <c r="E20" s="303" t="n"/>
-      <c r="F20" s="303" t="n"/>
-      <c r="G20" s="303" t="n"/>
-      <c r="H20" s="304" t="n"/>
+      <c r="B20" s="263" t="n"/>
+      <c r="C20" s="263" t="n"/>
+      <c r="D20" s="263" t="n"/>
+      <c r="E20" s="263" t="n"/>
+      <c r="F20" s="263" t="n"/>
+      <c r="G20" s="263" t="n"/>
+      <c r="H20" s="264" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -10035,7 +10016,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -10049,7 +10030,7 @@
           <t>主题介绍 &amp; 即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -10074,7 +10055,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
@@ -10088,7 +10069,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -10121,7 +10102,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
@@ -10135,7 +10116,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10158,7 +10139,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
@@ -10172,7 +10153,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10195,18 +10176,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="302" t="inlineStr">
+      <c r="A25" s="282" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="303" t="n"/>
-      <c r="C25" s="303" t="n"/>
-      <c r="D25" s="303" t="n"/>
-      <c r="E25" s="303" t="n"/>
-      <c r="F25" s="303" t="n"/>
-      <c r="G25" s="303" t="n"/>
-      <c r="H25" s="304" t="n"/>
+      <c r="B25" s="263" t="n"/>
+      <c r="C25" s="263" t="n"/>
+      <c r="D25" s="263" t="n"/>
+      <c r="E25" s="263" t="n"/>
+      <c r="F25" s="263" t="n"/>
+      <c r="G25" s="263" t="n"/>
+      <c r="H25" s="264" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -10215,10 +10196,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -10232,7 +10213,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10254,10 +10235,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
@@ -10272,7 +10253,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="301">
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -10304,31 +10285,31 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244" thickBot="1">
-      <c r="A28" s="302" t="inlineStr">
+      <c r="A28" s="282" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B28" s="303" t="n"/>
-      <c r="C28" s="303" t="n"/>
-      <c r="D28" s="303" t="n"/>
-      <c r="E28" s="303" t="n"/>
-      <c r="F28" s="303" t="n"/>
-      <c r="G28" s="303" t="n"/>
-      <c r="H28" s="304" t="n"/>
+      <c r="B28" s="263" t="n"/>
+      <c r="C28" s="263" t="n"/>
+      <c r="D28" s="263" t="n"/>
+      <c r="E28" s="263" t="n"/>
+      <c r="F28" s="263" t="n"/>
+      <c r="G28" s="263" t="n"/>
+      <c r="H28" s="264" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="244">
-      <c r="A29" s="284">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
@@ -10342,7 +10323,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D29" s="296">
+      <c r="D29" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10364,10 +10345,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244">
-      <c r="A30" s="284">
+      <c r="A30" s="273">
         <f>J29</f>
         <v/>
       </c>
@@ -10381,11 +10362,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D30" s="296">
+      <c r="D30" s="283">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="313" t="inlineStr">
+      <c r="E30" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -10407,10 +10388,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="31" s="244">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -10424,7 +10405,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D31" s="289">
+      <c r="D31" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -10448,10 +10429,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="314" t="n"/>
+      <c r="L31" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="32" s="244">
-      <c r="A32" s="284">
+      <c r="A32" s="273">
         <f>J31</f>
         <v/>
       </c>
@@ -10465,7 +10446,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D32" s="289">
+      <c r="D32" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -10491,10 +10472,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="314" t="n"/>
+      <c r="L32" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J32</f>
         <v/>
       </c>
@@ -10508,7 +10489,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D33" s="289">
+      <c r="D33" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -10532,10 +10513,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="314" t="n"/>
+      <c r="L33" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="34" s="244">
-      <c r="A34" s="284">
+      <c r="A34" s="273">
         <f>J33</f>
         <v/>
       </c>
@@ -10549,7 +10530,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D34" s="289">
+      <c r="D34" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -10569,10 +10550,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="314" t="n"/>
+      <c r="L34" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
@@ -10586,7 +10567,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D35" s="289">
+      <c r="D35" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10618,24 +10599,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="314" t="n"/>
+      <c r="L35" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="284">
+      <c r="A36" s="273">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="290" t="inlineStr">
+      <c r="B36" s="279" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C36" s="287" t="inlineStr">
+      <c r="C36" s="276" t="inlineStr">
         <is>
           <t>总结 &amp; 会议结束致辞</t>
         </is>
       </c>
-      <c r="D36" s="289">
+      <c r="D36" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10667,24 +10648,24 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="314" t="n"/>
+      <c r="L36" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="37" s="244" thickBot="1">
-      <c r="A37" s="315">
+      <c r="A37" s="291">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="316" t="inlineStr">
+      <c r="B37" s="292" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C37" s="317" t="inlineStr">
+      <c r="C37" s="293" t="inlineStr">
         <is>
           <t>颁奖</t>
         </is>
       </c>
-      <c r="D37" s="289">
+      <c r="D37" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -10709,14 +10690,14 @@
       <c r="L37" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="244">
-      <c r="A38" s="318" t="n"/>
-      <c r="B38" s="319" t="n"/>
-      <c r="C38" s="319" t="n"/>
-      <c r="D38" s="319" t="n"/>
+      <c r="A38" s="294" t="n"/>
+      <c r="B38" s="246" t="n"/>
+      <c r="C38" s="246" t="n"/>
+      <c r="D38" s="246" t="n"/>
       <c r="E38" s="243" t="n"/>
-      <c r="F38" s="320" t="n"/>
-      <c r="G38" s="321" t="n"/>
-      <c r="H38" s="322" t="n"/>
+      <c r="F38" s="295" t="n"/>
+      <c r="G38" s="296" t="n"/>
+      <c r="H38" s="297" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
@@ -10731,14 +10712,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D39" s="324" t="n"/>
+      <c r="D39" s="299" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="325" t="inlineStr">
+      <c r="J39" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="326" t="n"/>
+      <c r="K39" s="301" t="n"/>
       <c r="L39" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="244">
@@ -10752,91 +10733,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="325" t="n"/>
+      <c r="J40" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="244">
-      <c r="A41" s="328" t="n"/>
+      <c r="A41" s="303" t="n"/>
       <c r="B41" s="243" t="n"/>
-      <c r="D41" s="329" t="n"/>
-      <c r="E41" s="330" t="n"/>
-      <c r="F41" s="330" t="n"/>
-      <c r="G41" s="330" t="n"/>
-      <c r="H41" s="330" t="n"/>
+      <c r="D41" s="304" t="n"/>
+      <c r="E41" s="305" t="n"/>
+      <c r="F41" s="305" t="n"/>
+      <c r="G41" s="305" t="n"/>
+      <c r="H41" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="244">
-      <c r="A42" s="328" t="n"/>
+      <c r="A42" s="303" t="n"/>
       <c r="B42" s="243" t="n"/>
       <c r="C42" s="243" t="n"/>
-      <c r="D42" s="329" t="n"/>
-      <c r="F42" s="330" t="n"/>
-      <c r="G42" s="330" t="n"/>
-      <c r="H42" s="330" t="n"/>
+      <c r="D42" s="304" t="n"/>
+      <c r="F42" s="305" t="n"/>
+      <c r="G42" s="305" t="n"/>
+      <c r="H42" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="244">
-      <c r="A43" s="328" t="n"/>
+      <c r="A43" s="303" t="n"/>
       <c r="B43" s="243" t="n"/>
       <c r="C43" s="243" t="n"/>
-      <c r="D43" s="331" t="n"/>
-      <c r="E43" s="332" t="n"/>
-      <c r="F43" s="333" t="n"/>
-      <c r="G43" s="334" t="n"/>
+      <c r="D43" s="306" t="n"/>
+      <c r="E43" s="307" t="n"/>
+      <c r="F43" s="308" t="n"/>
+      <c r="G43" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="328" t="n"/>
+      <c r="A44" s="303" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="335" t="n"/>
-      <c r="E44" s="336" t="n"/>
+      <c r="D44" s="310" t="n"/>
+      <c r="E44" s="311" t="n"/>
       <c r="L44" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="328" t="n"/>
+      <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
-      <c r="D45" s="335" t="n"/>
-      <c r="E45" s="336" t="n"/>
+      <c r="D45" s="310" t="n"/>
+      <c r="E45" s="311" t="n"/>
       <c r="L45" s="218" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="328" t="n"/>
+      <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
-      <c r="D46" s="335" t="n"/>
-      <c r="E46" s="336" t="n"/>
+      <c r="D46" s="310" t="n"/>
+      <c r="E46" s="311" t="n"/>
       <c r="L46" s="218" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
       <c r="C47" s="243" t="n"/>
-      <c r="D47" s="335" t="n"/>
-      <c r="E47" s="336" t="n"/>
+      <c r="D47" s="310" t="n"/>
+      <c r="E47" s="311" t="n"/>
       <c r="L47" s="218" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="335" t="n"/>
-      <c r="E48" s="336" t="n"/>
+      <c r="D48" s="310" t="n"/>
+      <c r="E48" s="311" t="n"/>
       <c r="L48" s="218" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="E49" s="336" t="n"/>
+      <c r="E49" s="311" t="n"/>
       <c r="L49" s="218" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
     </row>
     <row customFormat="1" r="51" s="240">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="G51" s="241" t="n"/>
       <c r="H51" s="242" t="n"/>
       <c r="I51" s="218" t="n"/>
@@ -10846,11 +10827,11 @@
       <c r="M51" s="243" t="n"/>
     </row>
     <row customFormat="1" r="52" s="240">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="237" t="n"/>
-      <c r="D52" s="335" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="D52" s="310" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="G52" s="241" t="n"/>
       <c r="H52" s="242" t="n"/>
       <c r="I52" s="218" t="n"/>
@@ -10860,11 +10841,11 @@
       <c r="M52" s="243" t="n"/>
     </row>
     <row customFormat="1" r="53" s="240">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
       <c r="G53" s="241" t="n"/>
       <c r="H53" s="242" t="n"/>
       <c r="I53" s="218" t="n"/>
@@ -10874,11 +10855,11 @@
       <c r="M53" s="243" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="218" t="n"/>
@@ -10888,11 +10869,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="D55" s="335" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="D55" s="310" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="218" t="n"/>
@@ -10902,11 +10883,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="218" t="n"/>
@@ -10916,11 +10897,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -10930,11 +10911,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -10944,11 +10925,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="237" t="n"/>
       <c r="C59" s="237" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -10958,11 +10939,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="237" t="n"/>
       <c r="C60" s="237" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -10972,11 +10953,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="237" t="n"/>
       <c r="C61" s="237" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -10986,11 +10967,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -11000,7 +10981,7 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
       <c r="D63" s="238" t="n"/>
@@ -11014,7 +10995,7 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
       <c r="D64" s="238" t="n"/>
@@ -11028,7 +11009,7 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
       <c r="D65" s="238" t="n"/>
@@ -11042,7 +11023,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -11056,7 +11037,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="237">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="D67" s="238" t="n"/>
       <c r="E67" s="239" t="n"/>
       <c r="F67" s="240" t="n"/>
@@ -11068,7 +11049,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="237">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="D68" s="238" t="n"/>
       <c r="E68" s="239" t="n"/>
       <c r="F68" s="240" t="n"/>
@@ -11080,7 +11061,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="237">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="D69" s="238" t="n"/>
       <c r="E69" s="239" t="n"/>
       <c r="F69" s="240" t="n"/>
@@ -11147,18 +11128,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="337" t="inlineStr">
+      <c r="A1" s="245" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="319" t="n"/>
-      <c r="C1" s="319" t="n"/>
-      <c r="D1" s="319" t="n"/>
-      <c r="E1" s="319" t="n"/>
-      <c r="F1" s="319" t="n"/>
-      <c r="G1" s="319" t="n"/>
-      <c r="H1" s="319" t="n"/>
+      <c r="B1" s="246" t="n"/>
+      <c r="C1" s="246" t="n"/>
+      <c r="D1" s="246" t="n"/>
+      <c r="E1" s="246" t="n"/>
+      <c r="F1" s="246" t="n"/>
+      <c r="G1" s="246" t="n"/>
+      <c r="H1" s="246" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
       <c r="A2" s="346" t="inlineStr">
@@ -11166,8 +11147,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="249" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
       <c r="A3" s="347" t="inlineStr">
@@ -11182,8 +11163,8 @@
       <c r="F3" s="348" t="n"/>
       <c r="G3" s="348" t="n"/>
       <c r="H3" s="348" t="n"/>
-      <c r="I3" s="266" t="n"/>
-      <c r="J3" s="266" t="n"/>
+      <c r="I3" s="250" t="n"/>
+      <c r="J3" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
       <c r="A4" s="349" t="inlineStr">
@@ -11202,13 +11183,13 @@
       <c r="F4" s="351" t="n"/>
       <c r="G4" s="351" t="n"/>
       <c r="H4" s="351" t="n"/>
-      <c r="I4" s="249" t="n"/>
-      <c r="J4" s="249" t="n"/>
+      <c r="I4" s="248" t="n"/>
+      <c r="J4" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
       <c r="A5" s="352" t="n"/>
-      <c r="I5" s="266" t="n"/>
-      <c r="J5" s="266" t="n"/>
+      <c r="I5" s="250" t="n"/>
+      <c r="J5" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
       <c r="A6" s="349" t="inlineStr">
@@ -11227,29 +11208,29 @@
       <c r="F6" s="351" t="n"/>
       <c r="G6" s="351" t="n"/>
       <c r="H6" s="351" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
       <c r="A7" s="352" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="344" t="inlineStr">
+      <c r="A8" s="262" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="303" t="n"/>
-      <c r="C8" s="303" t="n"/>
-      <c r="D8" s="303" t="n"/>
-      <c r="E8" s="303" t="n"/>
-      <c r="F8" s="303" t="n"/>
-      <c r="G8" s="303" t="n"/>
-      <c r="H8" s="304" t="n"/>
-      <c r="I8" s="266" t="n"/>
-      <c r="J8" s="266" t="n"/>
+      <c r="B8" s="263" t="n"/>
+      <c r="C8" s="263" t="n"/>
+      <c r="D8" s="263" t="n"/>
+      <c r="E8" s="263" t="n"/>
+      <c r="F8" s="263" t="n"/>
+      <c r="G8" s="263" t="n"/>
+      <c r="H8" s="264" t="n"/>
+      <c r="I8" s="250" t="n"/>
+      <c r="J8" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
       <c r="A9" s="353" t="inlineStr">
@@ -11267,28 +11248,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -11301,7 +11282,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
@@ -11315,7 +11296,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -11334,7 +11315,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
@@ -11348,7 +11329,7 @@
           <t>会议开场 &amp; 欢迎</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11375,10 +11356,10 @@
       </c>
     </row>
     <row customHeight="1" ht="1.5" r="12" s="244">
-      <c r="A12" s="284" t="n"/>
+      <c r="A12" s="273" t="n"/>
       <c r="B12" s="355" t="n"/>
       <c r="C12" s="358" t="n"/>
-      <c r="D12" s="289" t="n"/>
+      <c r="D12" s="278" t="n"/>
       <c r="E12" s="76" t="n"/>
       <c r="F12" s="151" t="n"/>
       <c r="G12" s="152" t="n"/>
@@ -11392,7 +11373,7 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="13" s="244">
-      <c r="A13" s="284">
+      <c r="A13" s="273">
         <f>J12</f>
         <v/>
       </c>
@@ -11406,7 +11387,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="289">
+      <c r="D13" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11431,7 +11412,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
@@ -11445,7 +11426,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11467,10 +11448,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
@@ -11484,7 +11465,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -11504,10 +11485,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
@@ -11521,7 +11502,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -11541,10 +11522,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
@@ -11558,7 +11539,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -11582,10 +11563,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
@@ -11599,7 +11580,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11620,7 +11601,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
@@ -11634,7 +11615,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11655,18 +11636,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="302" t="inlineStr">
+      <c r="A20" s="282" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="303" t="n"/>
-      <c r="C20" s="303" t="n"/>
-      <c r="D20" s="303" t="n"/>
-      <c r="E20" s="303" t="n"/>
-      <c r="F20" s="303" t="n"/>
-      <c r="G20" s="303" t="n"/>
-      <c r="H20" s="304" t="n"/>
+      <c r="B20" s="263" t="n"/>
+      <c r="C20" s="263" t="n"/>
+      <c r="D20" s="263" t="n"/>
+      <c r="E20" s="263" t="n"/>
+      <c r="F20" s="263" t="n"/>
+      <c r="G20" s="263" t="n"/>
+      <c r="H20" s="264" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -11676,7 +11657,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -11690,7 +11671,7 @@
           <t>主题介绍 &amp; 即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -11715,7 +11696,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
@@ -11729,7 +11710,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -11762,7 +11743,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
@@ -11776,7 +11757,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11799,7 +11780,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
@@ -11813,7 +11794,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11836,18 +11817,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="302" t="inlineStr">
+      <c r="A25" s="282" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="303" t="n"/>
-      <c r="C25" s="303" t="n"/>
-      <c r="D25" s="303" t="n"/>
-      <c r="E25" s="303" t="n"/>
-      <c r="F25" s="303" t="n"/>
-      <c r="G25" s="303" t="n"/>
-      <c r="H25" s="304" t="n"/>
+      <c r="B25" s="263" t="n"/>
+      <c r="C25" s="263" t="n"/>
+      <c r="D25" s="263" t="n"/>
+      <c r="E25" s="263" t="n"/>
+      <c r="F25" s="263" t="n"/>
+      <c r="G25" s="263" t="n"/>
+      <c r="H25" s="264" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -11856,10 +11837,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -11873,7 +11854,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11895,10 +11876,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
@@ -11913,7 +11894,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="301">
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -11945,10 +11926,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="284">
+      <c r="A28" s="273">
         <f>J27</f>
         <v/>
       </c>
@@ -11962,7 +11943,7 @@
           <t>介绍二号备稿演讲者</t>
         </is>
       </c>
-      <c r="D28" s="296">
+      <c r="D28" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11984,10 +11965,10 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="29" s="244" thickBot="1">
-      <c r="A29" s="284">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
@@ -12002,7 +11983,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D29" s="301">
+      <c r="D29" s="288">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -12034,31 +12015,31 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244" thickBot="1">
-      <c r="A30" s="302" t="inlineStr">
+      <c r="A30" s="282" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B30" s="303" t="n"/>
-      <c r="C30" s="303" t="n"/>
-      <c r="D30" s="303" t="n"/>
-      <c r="E30" s="303" t="n"/>
-      <c r="F30" s="303" t="n"/>
-      <c r="G30" s="303" t="n"/>
-      <c r="H30" s="304" t="n"/>
+      <c r="B30" s="263" t="n"/>
+      <c r="C30" s="263" t="n"/>
+      <c r="D30" s="263" t="n"/>
+      <c r="E30" s="263" t="n"/>
+      <c r="F30" s="263" t="n"/>
+      <c r="G30" s="263" t="n"/>
+      <c r="H30" s="264" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J27+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="244">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -12072,7 +12053,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D31" s="296">
+      <c r="D31" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12094,10 +12075,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="249" t="n"/>
+      <c r="L31" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244">
-      <c r="A32" s="284">
+      <c r="A32" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -12111,11 +12092,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D32" s="296">
+      <c r="D32" s="283">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="313" t="inlineStr">
+      <c r="E32" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -12137,10 +12118,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="249" t="n"/>
+      <c r="L32" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J31</f>
         <v/>
       </c>
@@ -12154,11 +12135,11 @@
           <t>点评二号备稿演讲</t>
         </is>
       </c>
-      <c r="D33" s="296">
+      <c r="D33" s="283">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="313" t="inlineStr">
+      <c r="E33" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -12180,10 +12161,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="249" t="n"/>
+      <c r="L33" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="34" s="244">
-      <c r="A34" s="284">
+      <c r="A34" s="273">
         <f>J33</f>
         <v/>
       </c>
@@ -12197,7 +12178,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D34" s="289">
+      <c r="D34" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -12221,10 +12202,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="314" t="n"/>
+      <c r="L34" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
@@ -12238,7 +12219,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D35" s="289">
+      <c r="D35" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -12264,10 +12245,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="314" t="n"/>
+      <c r="L35" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="284">
+      <c r="A36" s="273">
         <f>J35</f>
         <v/>
       </c>
@@ -12281,7 +12262,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D36" s="289">
+      <c r="D36" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -12305,10 +12286,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="314" t="n"/>
+      <c r="L36" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="37" s="244">
-      <c r="A37" s="284">
+      <c r="A37" s="273">
         <f>J36</f>
         <v/>
       </c>
@@ -12322,7 +12303,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D37" s="289">
+      <c r="D37" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -12342,10 +12323,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="314" t="n"/>
+      <c r="L37" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="284">
+      <c r="A38" s="273">
         <f>J37</f>
         <v/>
       </c>
@@ -12359,7 +12340,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D38" s="289">
+      <c r="D38" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12391,24 +12372,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="314" t="n"/>
+      <c r="L38" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244">
-      <c r="A39" s="284">
+      <c r="A39" s="273">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="290" t="inlineStr">
+      <c r="B39" s="279" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C39" s="287" t="inlineStr">
+      <c r="C39" s="276" t="inlineStr">
         <is>
           <t>总结 &amp; 会议结束致辞</t>
         </is>
       </c>
-      <c r="D39" s="289">
+      <c r="D39" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -12440,24 +12421,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="314" t="n"/>
+      <c r="L39" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="40" s="244" thickBot="1">
-      <c r="A40" s="315">
+      <c r="A40" s="291">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="316" t="inlineStr">
+      <c r="B40" s="292" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C40" s="317" t="inlineStr">
+      <c r="C40" s="293" t="inlineStr">
         <is>
           <t>颁奖</t>
         </is>
       </c>
-      <c r="D40" s="289">
+      <c r="D40" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -12482,14 +12463,14 @@
       <c r="L40" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="244">
-      <c r="A41" s="318" t="n"/>
-      <c r="B41" s="319" t="n"/>
-      <c r="C41" s="319" t="n"/>
-      <c r="D41" s="319" t="n"/>
+      <c r="A41" s="294" t="n"/>
+      <c r="B41" s="246" t="n"/>
+      <c r="C41" s="246" t="n"/>
+      <c r="D41" s="246" t="n"/>
       <c r="E41" s="243" t="n"/>
-      <c r="F41" s="320" t="n"/>
-      <c r="G41" s="321" t="n"/>
-      <c r="H41" s="322" t="n"/>
+      <c r="F41" s="295" t="n"/>
+      <c r="G41" s="296" t="n"/>
+      <c r="H41" s="297" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
@@ -12504,14 +12485,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D42" s="324" t="n"/>
+      <c r="D42" s="299" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="325" t="inlineStr">
+      <c r="J42" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="326" t="n"/>
+      <c r="K42" s="301" t="n"/>
       <c r="L42" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="244">
@@ -12525,91 +12506,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="325" t="n"/>
+      <c r="J43" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="328" t="n"/>
+      <c r="A44" s="303" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="329" t="n"/>
-      <c r="E44" s="330" t="n"/>
-      <c r="F44" s="330" t="n"/>
-      <c r="G44" s="330" t="n"/>
-      <c r="H44" s="330" t="n"/>
+      <c r="D44" s="304" t="n"/>
+      <c r="E44" s="305" t="n"/>
+      <c r="F44" s="305" t="n"/>
+      <c r="G44" s="305" t="n"/>
+      <c r="H44" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="328" t="n"/>
+      <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
       <c r="C45" s="243" t="n"/>
-      <c r="D45" s="329" t="n"/>
-      <c r="F45" s="330" t="n"/>
-      <c r="G45" s="330" t="n"/>
-      <c r="H45" s="330" t="n"/>
+      <c r="D45" s="304" t="n"/>
+      <c r="F45" s="305" t="n"/>
+      <c r="G45" s="305" t="n"/>
+      <c r="H45" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="244">
-      <c r="A46" s="328" t="n"/>
+      <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
       <c r="C46" s="243" t="n"/>
-      <c r="D46" s="331" t="n"/>
-      <c r="E46" s="332" t="n"/>
-      <c r="F46" s="333" t="n"/>
-      <c r="G46" s="334" t="n"/>
+      <c r="D46" s="306" t="n"/>
+      <c r="E46" s="307" t="n"/>
+      <c r="F46" s="308" t="n"/>
+      <c r="G46" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="335" t="n"/>
-      <c r="E47" s="336" t="n"/>
+      <c r="D47" s="310" t="n"/>
+      <c r="E47" s="311" t="n"/>
       <c r="L47" s="218" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
-      <c r="D48" s="335" t="n"/>
-      <c r="E48" s="336" t="n"/>
+      <c r="D48" s="310" t="n"/>
+      <c r="E48" s="311" t="n"/>
       <c r="L48" s="218" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
-      <c r="D49" s="335" t="n"/>
-      <c r="E49" s="336" t="n"/>
+      <c r="D49" s="310" t="n"/>
+      <c r="E49" s="311" t="n"/>
       <c r="L49" s="218" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
       <c r="C50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
       <c r="L50" s="218" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="L51" s="218" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="243" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="L52" s="218" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="218" t="n"/>
@@ -12619,11 +12600,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="237" t="n"/>
-      <c r="D55" s="335" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="D55" s="310" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="218" t="n"/>
@@ -12633,11 +12614,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="218" t="n"/>
@@ -12647,11 +12628,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="218" t="n"/>
@@ -12661,11 +12642,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="218" t="n"/>
@@ -12675,11 +12656,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="218" t="n"/>
@@ -12689,11 +12670,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="218" t="n"/>
@@ -12703,11 +12684,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="218" t="n"/>
@@ -12717,11 +12698,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="218" t="n"/>
@@ -12731,11 +12712,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
-      <c r="D63" s="335" t="n"/>
-      <c r="E63" s="336" t="n"/>
+      <c r="D63" s="310" t="n"/>
+      <c r="E63" s="311" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="218" t="n"/>
@@ -12745,11 +12726,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
-      <c r="D64" s="335" t="n"/>
-      <c r="E64" s="336" t="n"/>
+      <c r="D64" s="310" t="n"/>
+      <c r="E64" s="311" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="218" t="n"/>
@@ -12759,11 +12740,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="335" t="n"/>
-      <c r="E65" s="336" t="n"/>
+      <c r="D65" s="310" t="n"/>
+      <c r="E65" s="311" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="218" t="n"/>
@@ -12773,7 +12754,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -12787,7 +12768,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
       <c r="D67" s="238" t="n"/>
@@ -12801,7 +12782,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
       <c r="D68" s="238" t="n"/>
@@ -12815,7 +12796,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -12829,7 +12810,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="237">
-      <c r="A70" s="328" t="n"/>
+      <c r="A70" s="303" t="n"/>
       <c r="D70" s="238" t="n"/>
       <c r="E70" s="239" t="n"/>
       <c r="F70" s="240" t="n"/>
@@ -12841,7 +12822,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="237">
-      <c r="A71" s="328" t="n"/>
+      <c r="A71" s="303" t="n"/>
       <c r="D71" s="238" t="n"/>
       <c r="E71" s="239" t="n"/>
       <c r="F71" s="240" t="n"/>
@@ -12853,7 +12834,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="237">
-      <c r="A72" s="328" t="n"/>
+      <c r="A72" s="303" t="n"/>
       <c r="D72" s="238" t="n"/>
       <c r="E72" s="239" t="n"/>
       <c r="F72" s="240" t="n"/>
@@ -13776,15 +13757,19 @@
       </c>
       <c r="B4" s="370" t="inlineStr">
         <is>
-          <t>Elliot Zhang</t>
+          <t>Harper</t>
         </is>
       </c>
       <c r="C4" s="370" t="inlineStr">
         <is>
-          <t>Level1-2-2</t>
-        </is>
-      </c>
-      <c r="D4" s="370" t="inlineStr"/>
+          <t>AC3</t>
+        </is>
+      </c>
+      <c r="D4" s="370" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E4" s="370">
         <f>IFERROR(VLOOKUP($B15,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -14088,14 +14073,10 @@
       </c>
       <c r="B5" s="370" t="inlineStr">
         <is>
-          <t>Walter</t>
-        </is>
-      </c>
-      <c r="C5" s="370" t="inlineStr">
-        <is>
-          <t>Level3-2-1</t>
-        </is>
-      </c>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C5" s="370" t="inlineStr"/>
       <c r="D5" s="370" t="inlineStr"/>
       <c r="E5" s="370">
         <f>IFERROR(VLOOKUP($B16,$A$24:$D$61,4,FALSE),"")</f>
@@ -14400,11 +14381,19 @@
       </c>
       <c r="B6" s="370" t="inlineStr">
         <is>
-          <t>Raymond Lu</t>
-        </is>
-      </c>
-      <c r="C6" s="370" t="inlineStr"/>
-      <c r="D6" s="370" t="inlineStr"/>
+          <t>Bonnie Wang</t>
+        </is>
+      </c>
+      <c r="C6" s="370" t="inlineStr">
+        <is>
+          <t>ACS12</t>
+        </is>
+      </c>
+      <c r="D6" s="370" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E6" s="370">
         <f>IFERROR(VLOOKUP($B17,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -14709,15 +14698,19 @@
       </c>
       <c r="B7" s="370" t="inlineStr">
         <is>
-          <t>Davie</t>
+          <t>Bill Lin</t>
         </is>
       </c>
       <c r="C7" s="370" t="inlineStr">
         <is>
-          <t>Level3-3-2</t>
-        </is>
-      </c>
-      <c r="D7" s="370" t="inlineStr"/>
+          <t>ACS12</t>
+        </is>
+      </c>
+      <c r="D7" s="370" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E7" s="370">
         <f>IFERROR(VLOOKUP($B18,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -15017,12 +15010,12 @@
       </c>
       <c r="B8" s="370" t="inlineStr">
         <is>
-          <t>Sawyer</t>
+          <t>Elliot Zhang</t>
         </is>
       </c>
       <c r="C8" s="370" t="inlineStr">
         <is>
-          <t>Level2-2</t>
+          <t>Level1-2-2</t>
         </is>
       </c>
       <c r="D8" s="370" t="inlineStr"/>
@@ -15922,14 +15915,10 @@
       </c>
       <c r="B11" s="387" t="inlineStr">
         <is>
-          <t>Kay</t>
-        </is>
-      </c>
-      <c r="C11" s="387" t="inlineStr">
-        <is>
-          <t>Level1-3</t>
-        </is>
-      </c>
+          <t>Mengyun</t>
+        </is>
+      </c>
+      <c r="C11" s="387" t="inlineStr"/>
       <c r="D11" s="387" t="inlineStr"/>
       <c r="E11" s="387">
         <f>IFERROR(VLOOKUP($B22,$A$24:$D$61,4,FALSE),"")</f>
@@ -16239,10 +16228,14 @@
       </c>
       <c r="B12" s="387" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C12" s="387" t="inlineStr"/>
+          <t>Walter</t>
+        </is>
+      </c>
+      <c r="C12" s="387" t="inlineStr">
+        <is>
+          <t>Level3-2-1</t>
+        </is>
+      </c>
       <c r="D12" s="387" t="inlineStr"/>
       <c r="E12" s="387">
         <f>IFERROR(VLOOKUP($B23,$A$24:$D$61,4,FALSE),"")</f>
@@ -16682,19 +16675,15 @@
       </c>
       <c r="B15" s="370" t="inlineStr">
         <is>
-          <t>Bill Lin</t>
+          <t>Davie</t>
         </is>
       </c>
       <c r="C15" s="370" t="inlineStr">
         <is>
-          <t>ACS12</t>
-        </is>
-      </c>
-      <c r="D15" s="370" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level3-3-2</t>
+        </is>
+      </c>
+      <c r="D15" s="370" t="inlineStr"/>
       <c r="E15" s="370">
         <f>IFERROR(VLOOKUP($B26,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16986,7 +16975,7 @@
       </c>
       <c r="B16" s="370" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Eileen</t>
         </is>
       </c>
       <c r="C16" s="370" t="inlineStr"/>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="23640" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17640" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda-1" sheetId="1" state="visible" r:id="rId1"/>
@@ -2784,48 +2784,69 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="46" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="7" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="46" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2880,25 +2901,11 @@
     <xf applyAlignment="1" borderId="15" fillId="0" fontId="15" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="52" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf borderId="0" fillId="0" fontId="60" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="62" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="31" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2913,7 +2920,6 @@
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="60" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
     <xf borderId="0" fillId="0" fontId="61" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20"/>
     <xf borderId="0" fillId="0" fontId="61" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20"/>
     <xf borderId="0" fillId="0" fontId="61" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20"/>
@@ -2922,12 +2928,6 @@
     </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="52" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="62" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
@@ -3664,74 +3664,6 @@
     <cellStyle name="常规 3" xfId="348"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4167,8 +4099,8 @@
   </sheetPr>
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4181,9 +4113,9 @@
     <col customWidth="1" max="6" min="6" style="240" width="10.7109375"/>
     <col customWidth="1" max="7" min="7" style="241" width="10.7109375"/>
     <col customWidth="1" max="8" min="8" style="242" width="10.7109375"/>
-    <col customWidth="1" max="9" min="9" style="218" width="5.85546875"/>
-    <col customWidth="1" max="10" min="10" style="218" width="12.7109375"/>
-    <col customWidth="1" max="11" min="11" style="218" width="20"/>
+    <col customWidth="1" max="9" min="9" style="186" width="5.85546875"/>
+    <col customWidth="1" max="10" min="10" style="186" width="12.7109375"/>
+    <col customWidth="1" max="11" min="11" style="186" width="20"/>
     <col customWidth="1" max="12" min="12" style="237" width="21"/>
     <col customWidth="1" max="13" min="13" style="243" width="9.140625"/>
     <col customWidth="1" max="16384" min="14" style="243" width="9.140625"/>
@@ -4544,7 +4476,7 @@
       <c r="K15" s="36" t="n"/>
       <c r="L15" s="248" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="16" s="244">
+    <row customHeight="1" ht="0.75" r="16" s="244">
       <c r="A16" s="273">
         <f>J15</f>
         <v/>
@@ -4572,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="37" t="n">
-        <v>0.0006944444444444445</v>
+        <v>-1</v>
       </c>
       <c r="J16" s="36">
         <f>J15+I16</f>
@@ -4581,7 +4513,7 @@
       <c r="K16" s="36" t="n"/>
       <c r="L16" s="248" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="17" s="244">
+    <row customHeight="1" ht="0.75" r="17" s="244">
       <c r="A17" s="273">
         <f>J16</f>
         <v/>
@@ -4613,7 +4545,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="37" t="n">
-        <v>0.001388888888888889</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="36">
         <f>J16+I17</f>
@@ -4650,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="37" t="n">
-        <v>-1</v>
+        <v>0.0006944444444444445</v>
       </c>
       <c r="J18" s="36">
         <f>J17+I18</f>
@@ -5083,7 +5015,7 @@
       <c r="K30" s="36" t="n"/>
       <c r="L30" s="248" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="31" s="244">
+    <row customHeight="1" hidden="1" ht="1.5" r="31" s="244">
       <c r="A31" s="273">
         <f>J30</f>
         <v/>
@@ -5115,7 +5047,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="37" t="n">
-        <v>0.001388888888888889</v>
+        <v>-1</v>
       </c>
       <c r="J31" s="36">
         <f>J30+I31</f>
@@ -5124,7 +5056,7 @@
       <c r="K31" s="36" t="n"/>
       <c r="L31" s="290" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="32" s="244">
+    <row customHeight="1" hidden="1" ht="24" r="32" s="244">
       <c r="A32" s="273">
         <f>J31</f>
         <v/>
@@ -5158,7 +5090,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="37" t="n">
-        <v>0.002083333333333333</v>
+        <v>-1</v>
       </c>
       <c r="J32" s="36">
         <f>J31+I32</f>
@@ -5420,21 +5352,21 @@
       <c r="B44" s="243" t="n"/>
       <c r="D44" s="310" t="n"/>
       <c r="E44" s="311" t="n"/>
-      <c r="L44" s="218" t="n"/>
+      <c r="L44" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
       <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
       <c r="D45" s="310" t="n"/>
       <c r="E45" s="311" t="n"/>
-      <c r="L45" s="218" t="n"/>
+      <c r="L45" s="186" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
       <c r="D46" s="310" t="n"/>
       <c r="E46" s="311" t="n"/>
-      <c r="L46" s="218" t="n"/>
+      <c r="L46" s="186" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="303" t="n"/>
@@ -5442,7 +5374,7 @@
       <c r="C47" s="243" t="n"/>
       <c r="D47" s="310" t="n"/>
       <c r="E47" s="311" t="n"/>
-      <c r="L47" s="218" t="n"/>
+      <c r="L47" s="186" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="303" t="n"/>
@@ -5450,14 +5382,14 @@
       <c r="C48" s="243" t="n"/>
       <c r="D48" s="310" t="n"/>
       <c r="E48" s="311" t="n"/>
-      <c r="L48" s="218" t="n"/>
+      <c r="L48" s="186" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
       <c r="E49" s="311" t="n"/>
-      <c r="L49" s="218" t="n"/>
+      <c r="L49" s="186" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="303" t="n"/>
@@ -5473,9 +5405,9 @@
       <c r="E51" s="311" t="n"/>
       <c r="G51" s="241" t="n"/>
       <c r="H51" s="242" t="n"/>
-      <c r="I51" s="218" t="n"/>
-      <c r="J51" s="218" t="n"/>
-      <c r="K51" s="218" t="n"/>
+      <c r="I51" s="186" t="n"/>
+      <c r="J51" s="186" t="n"/>
+      <c r="K51" s="186" t="n"/>
       <c r="L51" s="237" t="n"/>
       <c r="M51" s="243" t="n"/>
     </row>
@@ -5487,9 +5419,9 @@
       <c r="E52" s="311" t="n"/>
       <c r="G52" s="241" t="n"/>
       <c r="H52" s="242" t="n"/>
-      <c r="I52" s="218" t="n"/>
-      <c r="J52" s="218" t="n"/>
-      <c r="K52" s="218" t="n"/>
+      <c r="I52" s="186" t="n"/>
+      <c r="J52" s="186" t="n"/>
+      <c r="K52" s="186" t="n"/>
       <c r="L52" s="237" t="n"/>
       <c r="M52" s="243" t="n"/>
     </row>
@@ -5501,9 +5433,9 @@
       <c r="E53" s="311" t="n"/>
       <c r="G53" s="241" t="n"/>
       <c r="H53" s="242" t="n"/>
-      <c r="I53" s="218" t="n"/>
-      <c r="J53" s="218" t="n"/>
-      <c r="K53" s="218" t="n"/>
+      <c r="I53" s="186" t="n"/>
+      <c r="J53" s="186" t="n"/>
+      <c r="K53" s="186" t="n"/>
       <c r="L53" s="237" t="n"/>
       <c r="M53" s="243" t="n"/>
     </row>
@@ -5515,9 +5447,9 @@
       <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
-      <c r="I54" s="218" t="n"/>
-      <c r="J54" s="218" t="n"/>
-      <c r="K54" s="218" t="n"/>
+      <c r="I54" s="186" t="n"/>
+      <c r="J54" s="186" t="n"/>
+      <c r="K54" s="186" t="n"/>
       <c r="L54" s="237" t="n"/>
       <c r="M54" s="243" t="n"/>
     </row>
@@ -5529,9 +5461,9 @@
       <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
-      <c r="I55" s="218" t="n"/>
-      <c r="J55" s="218" t="n"/>
-      <c r="K55" s="218" t="n"/>
+      <c r="I55" s="186" t="n"/>
+      <c r="J55" s="186" t="n"/>
+      <c r="K55" s="186" t="n"/>
       <c r="L55" s="237" t="n"/>
       <c r="M55" s="243" t="n"/>
     </row>
@@ -5543,9 +5475,9 @@
       <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
-      <c r="I56" s="218" t="n"/>
-      <c r="J56" s="218" t="n"/>
-      <c r="K56" s="218" t="n"/>
+      <c r="I56" s="186" t="n"/>
+      <c r="J56" s="186" t="n"/>
+      <c r="K56" s="186" t="n"/>
       <c r="L56" s="237" t="n"/>
       <c r="M56" s="243" t="n"/>
     </row>
@@ -5557,9 +5489,9 @@
       <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
-      <c r="I57" s="218" t="n"/>
-      <c r="J57" s="218" t="n"/>
-      <c r="K57" s="218" t="n"/>
+      <c r="I57" s="186" t="n"/>
+      <c r="J57" s="186" t="n"/>
+      <c r="K57" s="186" t="n"/>
       <c r="L57" s="237" t="n"/>
       <c r="M57" s="243" t="n"/>
     </row>
@@ -5571,9 +5503,9 @@
       <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
-      <c r="I58" s="218" t="n"/>
-      <c r="J58" s="218" t="n"/>
-      <c r="K58" s="218" t="n"/>
+      <c r="I58" s="186" t="n"/>
+      <c r="J58" s="186" t="n"/>
+      <c r="K58" s="186" t="n"/>
       <c r="L58" s="237" t="n"/>
       <c r="M58" s="243" t="n"/>
     </row>
@@ -5585,9 +5517,9 @@
       <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
-      <c r="I59" s="218" t="n"/>
-      <c r="J59" s="218" t="n"/>
-      <c r="K59" s="218" t="n"/>
+      <c r="I59" s="186" t="n"/>
+      <c r="J59" s="186" t="n"/>
+      <c r="K59" s="186" t="n"/>
       <c r="L59" s="237" t="n"/>
       <c r="M59" s="243" t="n"/>
     </row>
@@ -5599,9 +5531,9 @@
       <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
-      <c r="I60" s="218" t="n"/>
-      <c r="J60" s="218" t="n"/>
-      <c r="K60" s="218" t="n"/>
+      <c r="I60" s="186" t="n"/>
+      <c r="J60" s="186" t="n"/>
+      <c r="K60" s="186" t="n"/>
       <c r="L60" s="237" t="n"/>
       <c r="M60" s="243" t="n"/>
     </row>
@@ -5613,9 +5545,9 @@
       <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
-      <c r="I61" s="218" t="n"/>
-      <c r="J61" s="218" t="n"/>
-      <c r="K61" s="218" t="n"/>
+      <c r="I61" s="186" t="n"/>
+      <c r="J61" s="186" t="n"/>
+      <c r="K61" s="186" t="n"/>
       <c r="L61" s="237" t="n"/>
       <c r="M61" s="243" t="n"/>
     </row>
@@ -5627,9 +5559,9 @@
       <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
-      <c r="I62" s="218" t="n"/>
-      <c r="J62" s="218" t="n"/>
-      <c r="K62" s="218" t="n"/>
+      <c r="I62" s="186" t="n"/>
+      <c r="J62" s="186" t="n"/>
+      <c r="K62" s="186" t="n"/>
       <c r="L62" s="237" t="n"/>
       <c r="M62" s="243" t="n"/>
     </row>
@@ -5641,9 +5573,9 @@
       <c r="E63" s="239" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
-      <c r="I63" s="218" t="n"/>
-      <c r="J63" s="218" t="n"/>
-      <c r="K63" s="218" t="n"/>
+      <c r="I63" s="186" t="n"/>
+      <c r="J63" s="186" t="n"/>
+      <c r="K63" s="186" t="n"/>
       <c r="L63" s="237" t="n"/>
       <c r="M63" s="243" t="n"/>
     </row>
@@ -5655,9 +5587,9 @@
       <c r="E64" s="239" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
-      <c r="I64" s="218" t="n"/>
-      <c r="J64" s="218" t="n"/>
-      <c r="K64" s="218" t="n"/>
+      <c r="I64" s="186" t="n"/>
+      <c r="J64" s="186" t="n"/>
+      <c r="K64" s="186" t="n"/>
       <c r="L64" s="237" t="n"/>
       <c r="M64" s="243" t="n"/>
     </row>
@@ -5669,9 +5601,9 @@
       <c r="E65" s="239" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
-      <c r="I65" s="218" t="n"/>
-      <c r="J65" s="218" t="n"/>
-      <c r="K65" s="218" t="n"/>
+      <c r="I65" s="186" t="n"/>
+      <c r="J65" s="186" t="n"/>
+      <c r="K65" s="186" t="n"/>
       <c r="L65" s="237" t="n"/>
       <c r="M65" s="243" t="n"/>
     </row>
@@ -5683,9 +5615,9 @@
       <c r="E66" s="239" t="n"/>
       <c r="G66" s="241" t="n"/>
       <c r="H66" s="242" t="n"/>
-      <c r="I66" s="218" t="n"/>
-      <c r="J66" s="218" t="n"/>
-      <c r="K66" s="218" t="n"/>
+      <c r="I66" s="186" t="n"/>
+      <c r="J66" s="186" t="n"/>
+      <c r="K66" s="186" t="n"/>
       <c r="L66" s="237" t="n"/>
       <c r="M66" s="243" t="n"/>
     </row>
@@ -5696,9 +5628,9 @@
       <c r="F67" s="240" t="n"/>
       <c r="G67" s="241" t="n"/>
       <c r="H67" s="242" t="n"/>
-      <c r="I67" s="218" t="n"/>
-      <c r="J67" s="218" t="n"/>
-      <c r="K67" s="218" t="n"/>
+      <c r="I67" s="186" t="n"/>
+      <c r="J67" s="186" t="n"/>
+      <c r="K67" s="186" t="n"/>
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="237">
@@ -5708,9 +5640,9 @@
       <c r="F68" s="240" t="n"/>
       <c r="G68" s="241" t="n"/>
       <c r="H68" s="242" t="n"/>
-      <c r="I68" s="218" t="n"/>
-      <c r="J68" s="218" t="n"/>
-      <c r="K68" s="218" t="n"/>
+      <c r="I68" s="186" t="n"/>
+      <c r="J68" s="186" t="n"/>
+      <c r="K68" s="186" t="n"/>
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="237">
@@ -5720,13 +5652,19 @@
       <c r="F69" s="240" t="n"/>
       <c r="G69" s="241" t="n"/>
       <c r="H69" s="242" t="n"/>
-      <c r="I69" s="218" t="n"/>
-      <c r="J69" s="218" t="n"/>
-      <c r="K69" s="218" t="n"/>
+      <c r="I69" s="186" t="n"/>
+      <c r="J69" s="186" t="n"/>
+      <c r="K69" s="186" t="n"/>
       <c r="M69" s="243" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:H7"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A20:H20"/>
@@ -5735,12 +5673,6 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:H40"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:H7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
@@ -5757,7 +5689,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5770,9 +5702,9 @@
     <col customWidth="1" max="6" min="6" style="240" width="10.7109375"/>
     <col customWidth="1" max="7" min="7" style="241" width="10.7109375"/>
     <col customWidth="1" max="8" min="8" style="242" width="10.7109375"/>
-    <col customWidth="1" max="9" min="9" style="218" width="5.85546875"/>
-    <col customWidth="1" max="10" min="10" style="218" width="12.7109375"/>
-    <col customWidth="1" max="11" min="11" style="218" width="20"/>
+    <col customWidth="1" max="9" min="9" style="186" width="5.85546875"/>
+    <col customWidth="1" max="10" min="10" style="186" width="12.7109375"/>
+    <col customWidth="1" max="11" min="11" style="186" width="20"/>
     <col customWidth="1" max="12" min="12" style="237" width="21"/>
     <col customWidth="1" max="13" min="13" style="243" width="9.140625"/>
     <col customWidth="1" max="16384" min="14" style="243" width="9.140625"/>
@@ -6009,7 +5941,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="12" s="244">
+    <row customHeight="1" ht="0.75" r="12" s="244">
       <c r="A12" s="273">
         <f>J11</f>
         <v/>
@@ -6054,7 +5986,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="13" s="244">
+    <row customHeight="1" ht="0.75" r="13" s="244">
       <c r="A13" s="273">
         <f>J12</f>
         <v/>
@@ -6086,7 +6018,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="37" t="n">
-        <v>1.003472222222222</v>
+        <v>-1</v>
       </c>
       <c r="J13" s="36">
         <f>J12+I13</f>
@@ -6169,7 +6101,7 @@
       <c r="K15" s="36" t="n"/>
       <c r="L15" s="248" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="16" s="244">
+    <row customHeight="1" ht="0.75" r="16" s="244">
       <c r="A16" s="273">
         <f>J15</f>
         <v/>
@@ -6197,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="37" t="n">
-        <v>0.0006944444444444445</v>
+        <v>-1</v>
       </c>
       <c r="J16" s="36">
         <f>J15+I16</f>
@@ -6206,7 +6138,7 @@
       <c r="K16" s="36" t="n"/>
       <c r="L16" s="248" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="17" s="244">
+    <row customHeight="1" hidden="1" ht="24" r="17" s="244">
       <c r="A17" s="273">
         <f>J16</f>
         <v/>
@@ -6238,7 +6170,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="37" t="n">
-        <v>0.001388888888888889</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="36">
         <f>J16+I17</f>
@@ -6275,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="37" t="n">
-        <v>-1</v>
+        <v>0.0006944444444444445</v>
       </c>
       <c r="J18" s="36">
         <f>J17+I18</f>
@@ -6350,7 +6282,7 @@
       </c>
       <c r="C21" s="25" t="inlineStr">
         <is>
-          <t>Table Topics Session</t>
+          <t>Theme introduction &amp; Table Topics Session</t>
         </is>
       </c>
       <c r="D21" s="283">
@@ -6358,7 +6290,7 @@
         <v/>
       </c>
       <c r="E21" s="27" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F21" s="128" t="n">
         <v>1</v>
@@ -6370,7 +6302,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="37" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.01736111111111111</v>
       </c>
       <c r="J21" s="36">
         <f>J20+I21</f>
@@ -6831,7 +6763,7 @@
       <c r="K33" s="36" t="n"/>
       <c r="L33" s="248" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="34" s="244">
+    <row customHeight="1" ht="0.75" r="34" s="244">
       <c r="A34" s="273">
         <f>J33</f>
         <v/>
@@ -6863,7 +6795,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="37" t="n">
-        <v>0.001388888888888889</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="36">
         <f>J33+I34</f>
@@ -6872,7 +6804,7 @@
       <c r="K34" s="36" t="n"/>
       <c r="L34" s="290" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="35" s="244">
+    <row customHeight="1" hidden="1" ht="24" r="35" s="244">
       <c r="A35" s="273">
         <f>J34</f>
         <v/>
@@ -6906,7 +6838,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="37" t="n">
-        <v>0.002083333333333333</v>
+        <v>-1</v>
       </c>
       <c r="J35" s="36">
         <f>J34+I35</f>
@@ -6956,7 +6888,7 @@
       <c r="K36" s="36" t="n"/>
       <c r="L36" s="290" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="37" s="244">
+    <row customHeight="1" ht="0.75" r="37" s="244">
       <c r="A37" s="273">
         <f>J36</f>
         <v/>
@@ -6984,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="37" t="n">
-        <v>0.0006944444444444445</v>
+        <v>-1</v>
       </c>
       <c r="J37" s="36">
         <f>J36+I37</f>
@@ -7054,7 +6986,7 @@
       </c>
       <c r="C39" s="276" t="inlineStr">
         <is>
-          <t>Conclusion</t>
+          <t>Conclusion &amp; Meeting Closing</t>
         </is>
       </c>
       <c r="D39" s="278">
@@ -7091,7 +7023,7 @@
       <c r="K39" s="36" t="n"/>
       <c r="L39" s="290" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="40" s="244" thickBot="1">
+    <row customHeight="1" ht="0.75" r="40" s="244" thickBot="1">
       <c r="A40" s="291">
         <f>J39</f>
         <v/>
@@ -7211,21 +7143,21 @@
       <c r="B47" s="243" t="n"/>
       <c r="D47" s="310" t="n"/>
       <c r="E47" s="311" t="n"/>
-      <c r="L47" s="218" t="n"/>
+      <c r="L47" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
       <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="D48" s="310" t="n"/>
       <c r="E48" s="311" t="n"/>
-      <c r="L48" s="218" t="n"/>
+      <c r="L48" s="186" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="D49" s="310" t="n"/>
       <c r="E49" s="311" t="n"/>
-      <c r="L49" s="218" t="n"/>
+      <c r="L49" s="186" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="303" t="n"/>
@@ -7233,7 +7165,7 @@
       <c r="C50" s="243" t="n"/>
       <c r="D50" s="310" t="n"/>
       <c r="E50" s="311" t="n"/>
-      <c r="L50" s="218" t="n"/>
+      <c r="L50" s="186" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="303" t="n"/>
@@ -7241,14 +7173,14 @@
       <c r="C51" s="243" t="n"/>
       <c r="D51" s="310" t="n"/>
       <c r="E51" s="311" t="n"/>
-      <c r="L51" s="218" t="n"/>
+      <c r="L51" s="186" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="243" t="n"/>
       <c r="E52" s="311" t="n"/>
-      <c r="L52" s="218" t="n"/>
+      <c r="L52" s="186" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="303" t="n"/>
@@ -7264,9 +7196,9 @@
       <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
-      <c r="I54" s="218" t="n"/>
-      <c r="J54" s="218" t="n"/>
-      <c r="K54" s="218" t="n"/>
+      <c r="I54" s="186" t="n"/>
+      <c r="J54" s="186" t="n"/>
+      <c r="K54" s="186" t="n"/>
       <c r="L54" s="237" t="n"/>
       <c r="M54" s="243" t="n"/>
     </row>
@@ -7278,9 +7210,9 @@
       <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
-      <c r="I55" s="218" t="n"/>
-      <c r="J55" s="218" t="n"/>
-      <c r="K55" s="218" t="n"/>
+      <c r="I55" s="186" t="n"/>
+      <c r="J55" s="186" t="n"/>
+      <c r="K55" s="186" t="n"/>
       <c r="L55" s="237" t="n"/>
       <c r="M55" s="243" t="n"/>
     </row>
@@ -7292,9 +7224,9 @@
       <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
-      <c r="I56" s="218" t="n"/>
-      <c r="J56" s="218" t="n"/>
-      <c r="K56" s="218" t="n"/>
+      <c r="I56" s="186" t="n"/>
+      <c r="J56" s="186" t="n"/>
+      <c r="K56" s="186" t="n"/>
       <c r="L56" s="237" t="n"/>
       <c r="M56" s="243" t="n"/>
     </row>
@@ -7306,9 +7238,9 @@
       <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
-      <c r="I57" s="218" t="n"/>
-      <c r="J57" s="218" t="n"/>
-      <c r="K57" s="218" t="n"/>
+      <c r="I57" s="186" t="n"/>
+      <c r="J57" s="186" t="n"/>
+      <c r="K57" s="186" t="n"/>
       <c r="L57" s="237" t="n"/>
       <c r="M57" s="243" t="n"/>
     </row>
@@ -7320,9 +7252,9 @@
       <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
-      <c r="I58" s="218" t="n"/>
-      <c r="J58" s="218" t="n"/>
-      <c r="K58" s="218" t="n"/>
+      <c r="I58" s="186" t="n"/>
+      <c r="J58" s="186" t="n"/>
+      <c r="K58" s="186" t="n"/>
       <c r="L58" s="237" t="n"/>
       <c r="M58" s="243" t="n"/>
     </row>
@@ -7334,9 +7266,9 @@
       <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
-      <c r="I59" s="218" t="n"/>
-      <c r="J59" s="218" t="n"/>
-      <c r="K59" s="218" t="n"/>
+      <c r="I59" s="186" t="n"/>
+      <c r="J59" s="186" t="n"/>
+      <c r="K59" s="186" t="n"/>
       <c r="L59" s="237" t="n"/>
       <c r="M59" s="243" t="n"/>
     </row>
@@ -7348,9 +7280,9 @@
       <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
-      <c r="I60" s="218" t="n"/>
-      <c r="J60" s="218" t="n"/>
-      <c r="K60" s="218" t="n"/>
+      <c r="I60" s="186" t="n"/>
+      <c r="J60" s="186" t="n"/>
+      <c r="K60" s="186" t="n"/>
       <c r="L60" s="237" t="n"/>
       <c r="M60" s="243" t="n"/>
     </row>
@@ -7362,9 +7294,9 @@
       <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
-      <c r="I61" s="218" t="n"/>
-      <c r="J61" s="218" t="n"/>
-      <c r="K61" s="218" t="n"/>
+      <c r="I61" s="186" t="n"/>
+      <c r="J61" s="186" t="n"/>
+      <c r="K61" s="186" t="n"/>
       <c r="L61" s="237" t="n"/>
       <c r="M61" s="243" t="n"/>
     </row>
@@ -7376,9 +7308,9 @@
       <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
-      <c r="I62" s="218" t="n"/>
-      <c r="J62" s="218" t="n"/>
-      <c r="K62" s="218" t="n"/>
+      <c r="I62" s="186" t="n"/>
+      <c r="J62" s="186" t="n"/>
+      <c r="K62" s="186" t="n"/>
       <c r="L62" s="237" t="n"/>
       <c r="M62" s="243" t="n"/>
     </row>
@@ -7390,9 +7322,9 @@
       <c r="E63" s="311" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
-      <c r="I63" s="218" t="n"/>
-      <c r="J63" s="218" t="n"/>
-      <c r="K63" s="218" t="n"/>
+      <c r="I63" s="186" t="n"/>
+      <c r="J63" s="186" t="n"/>
+      <c r="K63" s="186" t="n"/>
       <c r="L63" s="237" t="n"/>
       <c r="M63" s="243" t="n"/>
     </row>
@@ -7404,9 +7336,9 @@
       <c r="E64" s="311" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
-      <c r="I64" s="218" t="n"/>
-      <c r="J64" s="218" t="n"/>
-      <c r="K64" s="218" t="n"/>
+      <c r="I64" s="186" t="n"/>
+      <c r="J64" s="186" t="n"/>
+      <c r="K64" s="186" t="n"/>
       <c r="L64" s="237" t="n"/>
       <c r="M64" s="243" t="n"/>
     </row>
@@ -7418,9 +7350,9 @@
       <c r="E65" s="311" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
-      <c r="I65" s="218" t="n"/>
-      <c r="J65" s="218" t="n"/>
-      <c r="K65" s="218" t="n"/>
+      <c r="I65" s="186" t="n"/>
+      <c r="J65" s="186" t="n"/>
+      <c r="K65" s="186" t="n"/>
       <c r="L65" s="237" t="n"/>
       <c r="M65" s="243" t="n"/>
     </row>
@@ -7432,9 +7364,9 @@
       <c r="E66" s="239" t="n"/>
       <c r="G66" s="241" t="n"/>
       <c r="H66" s="242" t="n"/>
-      <c r="I66" s="218" t="n"/>
-      <c r="J66" s="218" t="n"/>
-      <c r="K66" s="218" t="n"/>
+      <c r="I66" s="186" t="n"/>
+      <c r="J66" s="186" t="n"/>
+      <c r="K66" s="186" t="n"/>
       <c r="L66" s="237" t="n"/>
       <c r="M66" s="243" t="n"/>
     </row>
@@ -7446,9 +7378,9 @@
       <c r="E67" s="239" t="n"/>
       <c r="G67" s="241" t="n"/>
       <c r="H67" s="242" t="n"/>
-      <c r="I67" s="218" t="n"/>
-      <c r="J67" s="218" t="n"/>
-      <c r="K67" s="218" t="n"/>
+      <c r="I67" s="186" t="n"/>
+      <c r="J67" s="186" t="n"/>
+      <c r="K67" s="186" t="n"/>
       <c r="L67" s="237" t="n"/>
       <c r="M67" s="243" t="n"/>
     </row>
@@ -7460,9 +7392,9 @@
       <c r="E68" s="239" t="n"/>
       <c r="G68" s="241" t="n"/>
       <c r="H68" s="242" t="n"/>
-      <c r="I68" s="218" t="n"/>
-      <c r="J68" s="218" t="n"/>
-      <c r="K68" s="218" t="n"/>
+      <c r="I68" s="186" t="n"/>
+      <c r="J68" s="186" t="n"/>
+      <c r="K68" s="186" t="n"/>
       <c r="L68" s="237" t="n"/>
       <c r="M68" s="243" t="n"/>
     </row>
@@ -7474,9 +7406,9 @@
       <c r="E69" s="239" t="n"/>
       <c r="G69" s="241" t="n"/>
       <c r="H69" s="242" t="n"/>
-      <c r="I69" s="218" t="n"/>
-      <c r="J69" s="218" t="n"/>
-      <c r="K69" s="218" t="n"/>
+      <c r="I69" s="186" t="n"/>
+      <c r="J69" s="186" t="n"/>
+      <c r="K69" s="186" t="n"/>
       <c r="L69" s="237" t="n"/>
       <c r="M69" s="243" t="n"/>
     </row>
@@ -7487,9 +7419,9 @@
       <c r="F70" s="240" t="n"/>
       <c r="G70" s="241" t="n"/>
       <c r="H70" s="242" t="n"/>
-      <c r="I70" s="218" t="n"/>
-      <c r="J70" s="218" t="n"/>
-      <c r="K70" s="218" t="n"/>
+      <c r="I70" s="186" t="n"/>
+      <c r="J70" s="186" t="n"/>
+      <c r="K70" s="186" t="n"/>
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="237">
@@ -7499,9 +7431,9 @@
       <c r="F71" s="240" t="n"/>
       <c r="G71" s="241" t="n"/>
       <c r="H71" s="242" t="n"/>
-      <c r="I71" s="218" t="n"/>
-      <c r="J71" s="218" t="n"/>
-      <c r="K71" s="218" t="n"/>
+      <c r="I71" s="186" t="n"/>
+      <c r="J71" s="186" t="n"/>
+      <c r="K71" s="186" t="n"/>
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="237">
@@ -7511,13 +7443,19 @@
       <c r="F72" s="240" t="n"/>
       <c r="G72" s="241" t="n"/>
       <c r="H72" s="242" t="n"/>
-      <c r="I72" s="218" t="n"/>
-      <c r="J72" s="218" t="n"/>
-      <c r="K72" s="218" t="n"/>
+      <c r="I72" s="186" t="n"/>
+      <c r="J72" s="186" t="n"/>
+      <c r="K72" s="186" t="n"/>
       <c r="M72" s="243" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:H7"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A20:H20"/>
@@ -7526,12 +7464,6 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="D42:H43"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:H7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
@@ -7562,9 +7494,9 @@
     <col customWidth="1" max="6" min="6" style="240" width="10.7109375"/>
     <col customWidth="1" max="7" min="7" style="241" width="10.7109375"/>
     <col customWidth="1" max="8" min="8" style="242" width="10.7109375"/>
-    <col customWidth="1" max="9" min="9" style="218" width="5.85546875"/>
-    <col customWidth="1" max="10" min="10" style="218" width="12.7109375"/>
-    <col customWidth="1" max="11" min="11" style="218" width="20"/>
+    <col customWidth="1" max="9" min="9" style="186" width="5.85546875"/>
+    <col customWidth="1" max="10" min="10" style="186" width="12.7109375"/>
+    <col customWidth="1" max="11" min="11" style="186" width="20"/>
     <col customWidth="1" max="12" min="12" style="237" width="21"/>
     <col customWidth="1" max="13" min="13" style="243" width="9.140625"/>
     <col customWidth="1" max="16384" min="14" style="243" width="9.140625"/>
@@ -9128,21 +9060,21 @@
       <c r="B50" s="243" t="n"/>
       <c r="D50" s="310" t="n"/>
       <c r="E50" s="311" t="n"/>
-      <c r="L50" s="218" t="n"/>
+      <c r="L50" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="51" s="244">
       <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="D51" s="310" t="n"/>
       <c r="E51" s="311" t="n"/>
-      <c r="L51" s="218" t="n"/>
+      <c r="L51" s="186" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="D52" s="310" t="n"/>
       <c r="E52" s="311" t="n"/>
-      <c r="L52" s="218" t="n"/>
+      <c r="L52" s="186" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="303" t="n"/>
@@ -9150,7 +9082,7 @@
       <c r="C53" s="243" t="n"/>
       <c r="D53" s="310" t="n"/>
       <c r="E53" s="311" t="n"/>
-      <c r="L53" s="218" t="n"/>
+      <c r="L53" s="186" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="303" t="n"/>
@@ -9158,14 +9090,14 @@
       <c r="C54" s="243" t="n"/>
       <c r="D54" s="310" t="n"/>
       <c r="E54" s="311" t="n"/>
-      <c r="L54" s="218" t="n"/>
+      <c r="L54" s="186" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
       <c r="E55" s="311" t="n"/>
-      <c r="L55" s="218" t="n"/>
+      <c r="L55" s="186" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="303" t="n"/>
@@ -9181,9 +9113,9 @@
       <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
-      <c r="I57" s="218" t="n"/>
-      <c r="J57" s="218" t="n"/>
-      <c r="K57" s="218" t="n"/>
+      <c r="I57" s="186" t="n"/>
+      <c r="J57" s="186" t="n"/>
+      <c r="K57" s="186" t="n"/>
       <c r="L57" s="237" t="n"/>
       <c r="M57" s="243" t="n"/>
     </row>
@@ -9195,9 +9127,9 @@
       <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
-      <c r="I58" s="218" t="n"/>
-      <c r="J58" s="218" t="n"/>
-      <c r="K58" s="218" t="n"/>
+      <c r="I58" s="186" t="n"/>
+      <c r="J58" s="186" t="n"/>
+      <c r="K58" s="186" t="n"/>
       <c r="L58" s="237" t="n"/>
       <c r="M58" s="243" t="n"/>
     </row>
@@ -9209,9 +9141,9 @@
       <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
-      <c r="I59" s="218" t="n"/>
-      <c r="J59" s="218" t="n"/>
-      <c r="K59" s="218" t="n"/>
+      <c r="I59" s="186" t="n"/>
+      <c r="J59" s="186" t="n"/>
+      <c r="K59" s="186" t="n"/>
       <c r="L59" s="237" t="n"/>
       <c r="M59" s="243" t="n"/>
     </row>
@@ -9223,9 +9155,9 @@
       <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
-      <c r="I60" s="218" t="n"/>
-      <c r="J60" s="218" t="n"/>
-      <c r="K60" s="218" t="n"/>
+      <c r="I60" s="186" t="n"/>
+      <c r="J60" s="186" t="n"/>
+      <c r="K60" s="186" t="n"/>
       <c r="L60" s="237" t="n"/>
       <c r="M60" s="243" t="n"/>
     </row>
@@ -9237,9 +9169,9 @@
       <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
-      <c r="I61" s="218" t="n"/>
-      <c r="J61" s="218" t="n"/>
-      <c r="K61" s="218" t="n"/>
+      <c r="I61" s="186" t="n"/>
+      <c r="J61" s="186" t="n"/>
+      <c r="K61" s="186" t="n"/>
       <c r="L61" s="237" t="n"/>
       <c r="M61" s="243" t="n"/>
     </row>
@@ -9251,9 +9183,9 @@
       <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
-      <c r="I62" s="218" t="n"/>
-      <c r="J62" s="218" t="n"/>
-      <c r="K62" s="218" t="n"/>
+      <c r="I62" s="186" t="n"/>
+      <c r="J62" s="186" t="n"/>
+      <c r="K62" s="186" t="n"/>
       <c r="L62" s="237" t="n"/>
       <c r="M62" s="243" t="n"/>
     </row>
@@ -9265,9 +9197,9 @@
       <c r="E63" s="311" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
-      <c r="I63" s="218" t="n"/>
-      <c r="J63" s="218" t="n"/>
-      <c r="K63" s="218" t="n"/>
+      <c r="I63" s="186" t="n"/>
+      <c r="J63" s="186" t="n"/>
+      <c r="K63" s="186" t="n"/>
       <c r="L63" s="237" t="n"/>
       <c r="M63" s="243" t="n"/>
     </row>
@@ -9279,9 +9211,9 @@
       <c r="E64" s="311" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
-      <c r="I64" s="218" t="n"/>
-      <c r="J64" s="218" t="n"/>
-      <c r="K64" s="218" t="n"/>
+      <c r="I64" s="186" t="n"/>
+      <c r="J64" s="186" t="n"/>
+      <c r="K64" s="186" t="n"/>
       <c r="L64" s="237" t="n"/>
       <c r="M64" s="243" t="n"/>
     </row>
@@ -9293,9 +9225,9 @@
       <c r="E65" s="311" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
-      <c r="I65" s="218" t="n"/>
-      <c r="J65" s="218" t="n"/>
-      <c r="K65" s="218" t="n"/>
+      <c r="I65" s="186" t="n"/>
+      <c r="J65" s="186" t="n"/>
+      <c r="K65" s="186" t="n"/>
       <c r="L65" s="237" t="n"/>
       <c r="M65" s="243" t="n"/>
     </row>
@@ -9307,9 +9239,9 @@
       <c r="E66" s="311" t="n"/>
       <c r="G66" s="241" t="n"/>
       <c r="H66" s="242" t="n"/>
-      <c r="I66" s="218" t="n"/>
-      <c r="J66" s="218" t="n"/>
-      <c r="K66" s="218" t="n"/>
+      <c r="I66" s="186" t="n"/>
+      <c r="J66" s="186" t="n"/>
+      <c r="K66" s="186" t="n"/>
       <c r="L66" s="237" t="n"/>
       <c r="M66" s="243" t="n"/>
     </row>
@@ -9321,9 +9253,9 @@
       <c r="E67" s="311" t="n"/>
       <c r="G67" s="241" t="n"/>
       <c r="H67" s="242" t="n"/>
-      <c r="I67" s="218" t="n"/>
-      <c r="J67" s="218" t="n"/>
-      <c r="K67" s="218" t="n"/>
+      <c r="I67" s="186" t="n"/>
+      <c r="J67" s="186" t="n"/>
+      <c r="K67" s="186" t="n"/>
       <c r="L67" s="237" t="n"/>
       <c r="M67" s="243" t="n"/>
     </row>
@@ -9335,9 +9267,9 @@
       <c r="E68" s="311" t="n"/>
       <c r="G68" s="241" t="n"/>
       <c r="H68" s="242" t="n"/>
-      <c r="I68" s="218" t="n"/>
-      <c r="J68" s="218" t="n"/>
-      <c r="K68" s="218" t="n"/>
+      <c r="I68" s="186" t="n"/>
+      <c r="J68" s="186" t="n"/>
+      <c r="K68" s="186" t="n"/>
       <c r="L68" s="237" t="n"/>
       <c r="M68" s="243" t="n"/>
     </row>
@@ -9349,9 +9281,9 @@
       <c r="E69" s="239" t="n"/>
       <c r="G69" s="241" t="n"/>
       <c r="H69" s="242" t="n"/>
-      <c r="I69" s="218" t="n"/>
-      <c r="J69" s="218" t="n"/>
-      <c r="K69" s="218" t="n"/>
+      <c r="I69" s="186" t="n"/>
+      <c r="J69" s="186" t="n"/>
+      <c r="K69" s="186" t="n"/>
       <c r="L69" s="237" t="n"/>
       <c r="M69" s="243" t="n"/>
     </row>
@@ -9363,9 +9295,9 @@
       <c r="E70" s="239" t="n"/>
       <c r="G70" s="241" t="n"/>
       <c r="H70" s="242" t="n"/>
-      <c r="I70" s="218" t="n"/>
-      <c r="J70" s="218" t="n"/>
-      <c r="K70" s="218" t="n"/>
+      <c r="I70" s="186" t="n"/>
+      <c r="J70" s="186" t="n"/>
+      <c r="K70" s="186" t="n"/>
       <c r="L70" s="237" t="n"/>
       <c r="M70" s="243" t="n"/>
     </row>
@@ -9377,9 +9309,9 @@
       <c r="E71" s="239" t="n"/>
       <c r="G71" s="241" t="n"/>
       <c r="H71" s="242" t="n"/>
-      <c r="I71" s="218" t="n"/>
-      <c r="J71" s="218" t="n"/>
-      <c r="K71" s="218" t="n"/>
+      <c r="I71" s="186" t="n"/>
+      <c r="J71" s="186" t="n"/>
+      <c r="K71" s="186" t="n"/>
       <c r="L71" s="237" t="n"/>
       <c r="M71" s="243" t="n"/>
     </row>
@@ -9391,9 +9323,9 @@
       <c r="E72" s="239" t="n"/>
       <c r="G72" s="241" t="n"/>
       <c r="H72" s="242" t="n"/>
-      <c r="I72" s="218" t="n"/>
-      <c r="J72" s="218" t="n"/>
-      <c r="K72" s="218" t="n"/>
+      <c r="I72" s="186" t="n"/>
+      <c r="J72" s="186" t="n"/>
+      <c r="K72" s="186" t="n"/>
       <c r="L72" s="237" t="n"/>
       <c r="M72" s="243" t="n"/>
     </row>
@@ -9404,9 +9336,9 @@
       <c r="F73" s="240" t="n"/>
       <c r="G73" s="241" t="n"/>
       <c r="H73" s="242" t="n"/>
-      <c r="I73" s="218" t="n"/>
-      <c r="J73" s="218" t="n"/>
-      <c r="K73" s="218" t="n"/>
+      <c r="I73" s="186" t="n"/>
+      <c r="J73" s="186" t="n"/>
+      <c r="K73" s="186" t="n"/>
       <c r="M73" s="243" t="n"/>
     </row>
     <row customFormat="1" r="74" s="237">
@@ -9416,9 +9348,9 @@
       <c r="F74" s="240" t="n"/>
       <c r="G74" s="241" t="n"/>
       <c r="H74" s="242" t="n"/>
-      <c r="I74" s="218" t="n"/>
-      <c r="J74" s="218" t="n"/>
-      <c r="K74" s="218" t="n"/>
+      <c r="I74" s="186" t="n"/>
+      <c r="J74" s="186" t="n"/>
+      <c r="K74" s="186" t="n"/>
       <c r="M74" s="243" t="n"/>
     </row>
     <row customFormat="1" r="75" s="237">
@@ -9428,19 +9360,13 @@
       <c r="F75" s="240" t="n"/>
       <c r="G75" s="241" t="n"/>
       <c r="H75" s="242" t="n"/>
-      <c r="I75" s="218" t="n"/>
-      <c r="J75" s="218" t="n"/>
-      <c r="K75" s="218" t="n"/>
+      <c r="I75" s="186" t="n"/>
+      <c r="J75" s="186" t="n"/>
+      <c r="K75" s="186" t="n"/>
       <c r="M75" s="243" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:H7"/>
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A20:H20"/>
@@ -9449,6 +9375,12 @@
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="D45:H46"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:H7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
@@ -9478,9 +9410,9 @@
     <col customWidth="1" max="6" min="6" style="240" width="10.7109375"/>
     <col customWidth="1" max="7" min="7" style="241" width="10.7109375"/>
     <col customWidth="1" max="8" min="8" style="242" width="10.7109375"/>
-    <col customWidth="1" max="9" min="9" style="218" width="5.85546875"/>
-    <col customWidth="1" max="10" min="10" style="218" width="12.7109375"/>
-    <col customWidth="1" max="11" min="11" style="218" width="20"/>
+    <col customWidth="1" max="9" min="9" style="186" width="5.85546875"/>
+    <col customWidth="1" max="10" min="10" style="186" width="12.7109375"/>
+    <col customWidth="1" max="11" min="11" style="186" width="20"/>
     <col customWidth="1" max="12" min="12" style="237" width="21"/>
     <col customWidth="1" max="13" min="13" style="243" width="9.140625"/>
     <col customWidth="1" max="16384" min="14" style="243" width="9.140625"/>
@@ -10767,21 +10699,21 @@
       <c r="B44" s="243" t="n"/>
       <c r="D44" s="310" t="n"/>
       <c r="E44" s="311" t="n"/>
-      <c r="L44" s="218" t="n"/>
+      <c r="L44" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
       <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
       <c r="D45" s="310" t="n"/>
       <c r="E45" s="311" t="n"/>
-      <c r="L45" s="218" t="n"/>
+      <c r="L45" s="186" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
       <c r="D46" s="310" t="n"/>
       <c r="E46" s="311" t="n"/>
-      <c r="L46" s="218" t="n"/>
+      <c r="L46" s="186" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="303" t="n"/>
@@ -10789,7 +10721,7 @@
       <c r="C47" s="243" t="n"/>
       <c r="D47" s="310" t="n"/>
       <c r="E47" s="311" t="n"/>
-      <c r="L47" s="218" t="n"/>
+      <c r="L47" s="186" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="303" t="n"/>
@@ -10797,14 +10729,14 @@
       <c r="C48" s="243" t="n"/>
       <c r="D48" s="310" t="n"/>
       <c r="E48" s="311" t="n"/>
-      <c r="L48" s="218" t="n"/>
+      <c r="L48" s="186" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
       <c r="E49" s="311" t="n"/>
-      <c r="L49" s="218" t="n"/>
+      <c r="L49" s="186" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="303" t="n"/>
@@ -10820,9 +10752,9 @@
       <c r="E51" s="311" t="n"/>
       <c r="G51" s="241" t="n"/>
       <c r="H51" s="242" t="n"/>
-      <c r="I51" s="218" t="n"/>
-      <c r="J51" s="218" t="n"/>
-      <c r="K51" s="218" t="n"/>
+      <c r="I51" s="186" t="n"/>
+      <c r="J51" s="186" t="n"/>
+      <c r="K51" s="186" t="n"/>
       <c r="L51" s="237" t="n"/>
       <c r="M51" s="243" t="n"/>
     </row>
@@ -10834,9 +10766,9 @@
       <c r="E52" s="311" t="n"/>
       <c r="G52" s="241" t="n"/>
       <c r="H52" s="242" t="n"/>
-      <c r="I52" s="218" t="n"/>
-      <c r="J52" s="218" t="n"/>
-      <c r="K52" s="218" t="n"/>
+      <c r="I52" s="186" t="n"/>
+      <c r="J52" s="186" t="n"/>
+      <c r="K52" s="186" t="n"/>
       <c r="L52" s="237" t="n"/>
       <c r="M52" s="243" t="n"/>
     </row>
@@ -10848,9 +10780,9 @@
       <c r="E53" s="311" t="n"/>
       <c r="G53" s="241" t="n"/>
       <c r="H53" s="242" t="n"/>
-      <c r="I53" s="218" t="n"/>
-      <c r="J53" s="218" t="n"/>
-      <c r="K53" s="218" t="n"/>
+      <c r="I53" s="186" t="n"/>
+      <c r="J53" s="186" t="n"/>
+      <c r="K53" s="186" t="n"/>
       <c r="L53" s="237" t="n"/>
       <c r="M53" s="243" t="n"/>
     </row>
@@ -10862,9 +10794,9 @@
       <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
-      <c r="I54" s="218" t="n"/>
-      <c r="J54" s="218" t="n"/>
-      <c r="K54" s="218" t="n"/>
+      <c r="I54" s="186" t="n"/>
+      <c r="J54" s="186" t="n"/>
+      <c r="K54" s="186" t="n"/>
       <c r="L54" s="237" t="n"/>
       <c r="M54" s="243" t="n"/>
     </row>
@@ -10876,9 +10808,9 @@
       <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
-      <c r="I55" s="218" t="n"/>
-      <c r="J55" s="218" t="n"/>
-      <c r="K55" s="218" t="n"/>
+      <c r="I55" s="186" t="n"/>
+      <c r="J55" s="186" t="n"/>
+      <c r="K55" s="186" t="n"/>
       <c r="L55" s="237" t="n"/>
       <c r="M55" s="243" t="n"/>
     </row>
@@ -10890,9 +10822,9 @@
       <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
-      <c r="I56" s="218" t="n"/>
-      <c r="J56" s="218" t="n"/>
-      <c r="K56" s="218" t="n"/>
+      <c r="I56" s="186" t="n"/>
+      <c r="J56" s="186" t="n"/>
+      <c r="K56" s="186" t="n"/>
       <c r="L56" s="237" t="n"/>
       <c r="M56" s="243" t="n"/>
     </row>
@@ -10904,9 +10836,9 @@
       <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
-      <c r="I57" s="218" t="n"/>
-      <c r="J57" s="218" t="n"/>
-      <c r="K57" s="218" t="n"/>
+      <c r="I57" s="186" t="n"/>
+      <c r="J57" s="186" t="n"/>
+      <c r="K57" s="186" t="n"/>
       <c r="L57" s="237" t="n"/>
       <c r="M57" s="243" t="n"/>
     </row>
@@ -10918,9 +10850,9 @@
       <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
-      <c r="I58" s="218" t="n"/>
-      <c r="J58" s="218" t="n"/>
-      <c r="K58" s="218" t="n"/>
+      <c r="I58" s="186" t="n"/>
+      <c r="J58" s="186" t="n"/>
+      <c r="K58" s="186" t="n"/>
       <c r="L58" s="237" t="n"/>
       <c r="M58" s="243" t="n"/>
     </row>
@@ -10932,9 +10864,9 @@
       <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
-      <c r="I59" s="218" t="n"/>
-      <c r="J59" s="218" t="n"/>
-      <c r="K59" s="218" t="n"/>
+      <c r="I59" s="186" t="n"/>
+      <c r="J59" s="186" t="n"/>
+      <c r="K59" s="186" t="n"/>
       <c r="L59" s="237" t="n"/>
       <c r="M59" s="243" t="n"/>
     </row>
@@ -10946,9 +10878,9 @@
       <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
-      <c r="I60" s="218" t="n"/>
-      <c r="J60" s="218" t="n"/>
-      <c r="K60" s="218" t="n"/>
+      <c r="I60" s="186" t="n"/>
+      <c r="J60" s="186" t="n"/>
+      <c r="K60" s="186" t="n"/>
       <c r="L60" s="237" t="n"/>
       <c r="M60" s="243" t="n"/>
     </row>
@@ -10960,9 +10892,9 @@
       <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
-      <c r="I61" s="218" t="n"/>
-      <c r="J61" s="218" t="n"/>
-      <c r="K61" s="218" t="n"/>
+      <c r="I61" s="186" t="n"/>
+      <c r="J61" s="186" t="n"/>
+      <c r="K61" s="186" t="n"/>
       <c r="L61" s="237" t="n"/>
       <c r="M61" s="243" t="n"/>
     </row>
@@ -10974,9 +10906,9 @@
       <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
-      <c r="I62" s="218" t="n"/>
-      <c r="J62" s="218" t="n"/>
-      <c r="K62" s="218" t="n"/>
+      <c r="I62" s="186" t="n"/>
+      <c r="J62" s="186" t="n"/>
+      <c r="K62" s="186" t="n"/>
       <c r="L62" s="237" t="n"/>
       <c r="M62" s="243" t="n"/>
     </row>
@@ -10988,9 +10920,9 @@
       <c r="E63" s="239" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
-      <c r="I63" s="218" t="n"/>
-      <c r="J63" s="218" t="n"/>
-      <c r="K63" s="218" t="n"/>
+      <c r="I63" s="186" t="n"/>
+      <c r="J63" s="186" t="n"/>
+      <c r="K63" s="186" t="n"/>
       <c r="L63" s="237" t="n"/>
       <c r="M63" s="243" t="n"/>
     </row>
@@ -11002,9 +10934,9 @@
       <c r="E64" s="239" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
-      <c r="I64" s="218" t="n"/>
-      <c r="J64" s="218" t="n"/>
-      <c r="K64" s="218" t="n"/>
+      <c r="I64" s="186" t="n"/>
+      <c r="J64" s="186" t="n"/>
+      <c r="K64" s="186" t="n"/>
       <c r="L64" s="237" t="n"/>
       <c r="M64" s="243" t="n"/>
     </row>
@@ -11016,9 +10948,9 @@
       <c r="E65" s="239" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
-      <c r="I65" s="218" t="n"/>
-      <c r="J65" s="218" t="n"/>
-      <c r="K65" s="218" t="n"/>
+      <c r="I65" s="186" t="n"/>
+      <c r="J65" s="186" t="n"/>
+      <c r="K65" s="186" t="n"/>
       <c r="L65" s="237" t="n"/>
       <c r="M65" s="243" t="n"/>
     </row>
@@ -11030,9 +10962,9 @@
       <c r="E66" s="239" t="n"/>
       <c r="G66" s="241" t="n"/>
       <c r="H66" s="242" t="n"/>
-      <c r="I66" s="218" t="n"/>
-      <c r="J66" s="218" t="n"/>
-      <c r="K66" s="218" t="n"/>
+      <c r="I66" s="186" t="n"/>
+      <c r="J66" s="186" t="n"/>
+      <c r="K66" s="186" t="n"/>
       <c r="L66" s="237" t="n"/>
       <c r="M66" s="243" t="n"/>
     </row>
@@ -11043,9 +10975,9 @@
       <c r="F67" s="240" t="n"/>
       <c r="G67" s="241" t="n"/>
       <c r="H67" s="242" t="n"/>
-      <c r="I67" s="218" t="n"/>
-      <c r="J67" s="218" t="n"/>
-      <c r="K67" s="218" t="n"/>
+      <c r="I67" s="186" t="n"/>
+      <c r="J67" s="186" t="n"/>
+      <c r="K67" s="186" t="n"/>
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="237">
@@ -11055,9 +10987,9 @@
       <c r="F68" s="240" t="n"/>
       <c r="G68" s="241" t="n"/>
       <c r="H68" s="242" t="n"/>
-      <c r="I68" s="218" t="n"/>
-      <c r="J68" s="218" t="n"/>
-      <c r="K68" s="218" t="n"/>
+      <c r="I68" s="186" t="n"/>
+      <c r="J68" s="186" t="n"/>
+      <c r="K68" s="186" t="n"/>
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="237">
@@ -11067,13 +10999,20 @@
       <c r="F69" s="240" t="n"/>
       <c r="G69" s="241" t="n"/>
       <c r="H69" s="242" t="n"/>
-      <c r="I69" s="218" t="n"/>
-      <c r="J69" s="218" t="n"/>
-      <c r="K69" s="218" t="n"/>
+      <c r="I69" s="186" t="n"/>
+      <c r="J69" s="186" t="n"/>
+      <c r="K69" s="186" t="n"/>
       <c r="M69" s="243" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:H5"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:H40"/>
     <mergeCell ref="K39:K40"/>
@@ -11083,13 +11022,6 @@
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:H7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
@@ -11105,8 +11037,8 @@
   </sheetPr>
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11119,9 +11051,9 @@
     <col customWidth="1" max="6" min="6" style="240" width="10.7109375"/>
     <col customWidth="1" max="7" min="7" style="241" width="10.7109375"/>
     <col customWidth="1" max="8" min="8" style="242" width="10.7109375"/>
-    <col customWidth="1" max="9" min="9" style="218" width="5.85546875"/>
-    <col customWidth="1" max="10" min="10" style="218" width="12.7109375"/>
-    <col customWidth="1" max="11" min="11" style="218" width="20"/>
+    <col customWidth="1" max="9" min="9" style="186" width="5.85546875"/>
+    <col customWidth="1" max="10" min="10" style="186" width="12.7109375"/>
+    <col customWidth="1" max="11" min="11" style="186" width="20"/>
     <col customWidth="1" max="12" min="12" style="237" width="21"/>
     <col customWidth="1" max="13" min="13" style="243" width="9.140625"/>
     <col customWidth="1" max="16384" min="14" style="243" width="9.140625"/>
@@ -12540,21 +12472,21 @@
       <c r="B47" s="243" t="n"/>
       <c r="D47" s="310" t="n"/>
       <c r="E47" s="311" t="n"/>
-      <c r="L47" s="218" t="n"/>
+      <c r="L47" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
       <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="D48" s="310" t="n"/>
       <c r="E48" s="311" t="n"/>
-      <c r="L48" s="218" t="n"/>
+      <c r="L48" s="186" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="D49" s="310" t="n"/>
       <c r="E49" s="311" t="n"/>
-      <c r="L49" s="218" t="n"/>
+      <c r="L49" s="186" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="303" t="n"/>
@@ -12562,7 +12494,7 @@
       <c r="C50" s="243" t="n"/>
       <c r="D50" s="310" t="n"/>
       <c r="E50" s="311" t="n"/>
-      <c r="L50" s="218" t="n"/>
+      <c r="L50" s="186" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="303" t="n"/>
@@ -12570,14 +12502,14 @@
       <c r="C51" s="243" t="n"/>
       <c r="D51" s="310" t="n"/>
       <c r="E51" s="311" t="n"/>
-      <c r="L51" s="218" t="n"/>
+      <c r="L51" s="186" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="243" t="n"/>
       <c r="E52" s="311" t="n"/>
-      <c r="L52" s="218" t="n"/>
+      <c r="L52" s="186" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="303" t="n"/>
@@ -12593,9 +12525,9 @@
       <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
-      <c r="I54" s="218" t="n"/>
-      <c r="J54" s="218" t="n"/>
-      <c r="K54" s="218" t="n"/>
+      <c r="I54" s="186" t="n"/>
+      <c r="J54" s="186" t="n"/>
+      <c r="K54" s="186" t="n"/>
       <c r="L54" s="237" t="n"/>
       <c r="M54" s="243" t="n"/>
     </row>
@@ -12607,9 +12539,9 @@
       <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
-      <c r="I55" s="218" t="n"/>
-      <c r="J55" s="218" t="n"/>
-      <c r="K55" s="218" t="n"/>
+      <c r="I55" s="186" t="n"/>
+      <c r="J55" s="186" t="n"/>
+      <c r="K55" s="186" t="n"/>
       <c r="L55" s="237" t="n"/>
       <c r="M55" s="243" t="n"/>
     </row>
@@ -12621,9 +12553,9 @@
       <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
-      <c r="I56" s="218" t="n"/>
-      <c r="J56" s="218" t="n"/>
-      <c r="K56" s="218" t="n"/>
+      <c r="I56" s="186" t="n"/>
+      <c r="J56" s="186" t="n"/>
+      <c r="K56" s="186" t="n"/>
       <c r="L56" s="237" t="n"/>
       <c r="M56" s="243" t="n"/>
     </row>
@@ -12635,9 +12567,9 @@
       <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
-      <c r="I57" s="218" t="n"/>
-      <c r="J57" s="218" t="n"/>
-      <c r="K57" s="218" t="n"/>
+      <c r="I57" s="186" t="n"/>
+      <c r="J57" s="186" t="n"/>
+      <c r="K57" s="186" t="n"/>
       <c r="L57" s="237" t="n"/>
       <c r="M57" s="243" t="n"/>
     </row>
@@ -12649,9 +12581,9 @@
       <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
-      <c r="I58" s="218" t="n"/>
-      <c r="J58" s="218" t="n"/>
-      <c r="K58" s="218" t="n"/>
+      <c r="I58" s="186" t="n"/>
+      <c r="J58" s="186" t="n"/>
+      <c r="K58" s="186" t="n"/>
       <c r="L58" s="237" t="n"/>
       <c r="M58" s="243" t="n"/>
     </row>
@@ -12663,9 +12595,9 @@
       <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
-      <c r="I59" s="218" t="n"/>
-      <c r="J59" s="218" t="n"/>
-      <c r="K59" s="218" t="n"/>
+      <c r="I59" s="186" t="n"/>
+      <c r="J59" s="186" t="n"/>
+      <c r="K59" s="186" t="n"/>
       <c r="L59" s="237" t="n"/>
       <c r="M59" s="243" t="n"/>
     </row>
@@ -12677,9 +12609,9 @@
       <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
-      <c r="I60" s="218" t="n"/>
-      <c r="J60" s="218" t="n"/>
-      <c r="K60" s="218" t="n"/>
+      <c r="I60" s="186" t="n"/>
+      <c r="J60" s="186" t="n"/>
+      <c r="K60" s="186" t="n"/>
       <c r="L60" s="237" t="n"/>
       <c r="M60" s="243" t="n"/>
     </row>
@@ -12691,9 +12623,9 @@
       <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
-      <c r="I61" s="218" t="n"/>
-      <c r="J61" s="218" t="n"/>
-      <c r="K61" s="218" t="n"/>
+      <c r="I61" s="186" t="n"/>
+      <c r="J61" s="186" t="n"/>
+      <c r="K61" s="186" t="n"/>
       <c r="L61" s="237" t="n"/>
       <c r="M61" s="243" t="n"/>
     </row>
@@ -12705,9 +12637,9 @@
       <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
-      <c r="I62" s="218" t="n"/>
-      <c r="J62" s="218" t="n"/>
-      <c r="K62" s="218" t="n"/>
+      <c r="I62" s="186" t="n"/>
+      <c r="J62" s="186" t="n"/>
+      <c r="K62" s="186" t="n"/>
       <c r="L62" s="237" t="n"/>
       <c r="M62" s="243" t="n"/>
     </row>
@@ -12719,9 +12651,9 @@
       <c r="E63" s="311" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
-      <c r="I63" s="218" t="n"/>
-      <c r="J63" s="218" t="n"/>
-      <c r="K63" s="218" t="n"/>
+      <c r="I63" s="186" t="n"/>
+      <c r="J63" s="186" t="n"/>
+      <c r="K63" s="186" t="n"/>
       <c r="L63" s="237" t="n"/>
       <c r="M63" s="243" t="n"/>
     </row>
@@ -12733,9 +12665,9 @@
       <c r="E64" s="311" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
-      <c r="I64" s="218" t="n"/>
-      <c r="J64" s="218" t="n"/>
-      <c r="K64" s="218" t="n"/>
+      <c r="I64" s="186" t="n"/>
+      <c r="J64" s="186" t="n"/>
+      <c r="K64" s="186" t="n"/>
       <c r="L64" s="237" t="n"/>
       <c r="M64" s="243" t="n"/>
     </row>
@@ -12747,9 +12679,9 @@
       <c r="E65" s="311" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
-      <c r="I65" s="218" t="n"/>
-      <c r="J65" s="218" t="n"/>
-      <c r="K65" s="218" t="n"/>
+      <c r="I65" s="186" t="n"/>
+      <c r="J65" s="186" t="n"/>
+      <c r="K65" s="186" t="n"/>
       <c r="L65" s="237" t="n"/>
       <c r="M65" s="243" t="n"/>
     </row>
@@ -12761,9 +12693,9 @@
       <c r="E66" s="239" t="n"/>
       <c r="G66" s="241" t="n"/>
       <c r="H66" s="242" t="n"/>
-      <c r="I66" s="218" t="n"/>
-      <c r="J66" s="218" t="n"/>
-      <c r="K66" s="218" t="n"/>
+      <c r="I66" s="186" t="n"/>
+      <c r="J66" s="186" t="n"/>
+      <c r="K66" s="186" t="n"/>
       <c r="L66" s="237" t="n"/>
       <c r="M66" s="243" t="n"/>
     </row>
@@ -12775,9 +12707,9 @@
       <c r="E67" s="239" t="n"/>
       <c r="G67" s="241" t="n"/>
       <c r="H67" s="242" t="n"/>
-      <c r="I67" s="218" t="n"/>
-      <c r="J67" s="218" t="n"/>
-      <c r="K67" s="218" t="n"/>
+      <c r="I67" s="186" t="n"/>
+      <c r="J67" s="186" t="n"/>
+      <c r="K67" s="186" t="n"/>
       <c r="L67" s="237" t="n"/>
       <c r="M67" s="243" t="n"/>
     </row>
@@ -12789,9 +12721,9 @@
       <c r="E68" s="239" t="n"/>
       <c r="G68" s="241" t="n"/>
       <c r="H68" s="242" t="n"/>
-      <c r="I68" s="218" t="n"/>
-      <c r="J68" s="218" t="n"/>
-      <c r="K68" s="218" t="n"/>
+      <c r="I68" s="186" t="n"/>
+      <c r="J68" s="186" t="n"/>
+      <c r="K68" s="186" t="n"/>
       <c r="L68" s="237" t="n"/>
       <c r="M68" s="243" t="n"/>
     </row>
@@ -12803,9 +12735,9 @@
       <c r="E69" s="239" t="n"/>
       <c r="G69" s="241" t="n"/>
       <c r="H69" s="242" t="n"/>
-      <c r="I69" s="218" t="n"/>
-      <c r="J69" s="218" t="n"/>
-      <c r="K69" s="218" t="n"/>
+      <c r="I69" s="186" t="n"/>
+      <c r="J69" s="186" t="n"/>
+      <c r="K69" s="186" t="n"/>
       <c r="L69" s="237" t="n"/>
       <c r="M69" s="243" t="n"/>
     </row>
@@ -12816,9 +12748,9 @@
       <c r="F70" s="240" t="n"/>
       <c r="G70" s="241" t="n"/>
       <c r="H70" s="242" t="n"/>
-      <c r="I70" s="218" t="n"/>
-      <c r="J70" s="218" t="n"/>
-      <c r="K70" s="218" t="n"/>
+      <c r="I70" s="186" t="n"/>
+      <c r="J70" s="186" t="n"/>
+      <c r="K70" s="186" t="n"/>
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="237">
@@ -12828,9 +12760,9 @@
       <c r="F71" s="240" t="n"/>
       <c r="G71" s="241" t="n"/>
       <c r="H71" s="242" t="n"/>
-      <c r="I71" s="218" t="n"/>
-      <c r="J71" s="218" t="n"/>
-      <c r="K71" s="218" t="n"/>
+      <c r="I71" s="186" t="n"/>
+      <c r="J71" s="186" t="n"/>
+      <c r="K71" s="186" t="n"/>
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="237">
@@ -12840,13 +12772,20 @@
       <c r="F72" s="240" t="n"/>
       <c r="G72" s="241" t="n"/>
       <c r="H72" s="242" t="n"/>
-      <c r="I72" s="218" t="n"/>
-      <c r="J72" s="218" t="n"/>
-      <c r="K72" s="218" t="n"/>
+      <c r="I72" s="186" t="n"/>
+      <c r="J72" s="186" t="n"/>
+      <c r="K72" s="186" t="n"/>
       <c r="M72" s="243" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:H7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:H5"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A8:H8"/>
@@ -12856,13 +12795,6 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="D42:H43"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:H5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:H7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -3664,6 +3664,74 @@
     <cellStyle name="常规 3" xfId="348"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -16160,7 +16228,7 @@
       </c>
       <c r="B12" s="387" t="inlineStr">
         <is>
-          <t>Walter</t>
+          <t>Shuhan</t>
         </is>
       </c>
       <c r="C12" s="387" t="inlineStr">

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -13990,7 +13990,7 @@
       </c>
       <c r="B5" s="367" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>haha</t>
         </is>
       </c>
       <c r="C5" s="367" t="inlineStr"/>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -9503,7 +9503,7 @@
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
       <c r="A8" s="331" t="inlineStr">
         <is>
-          <t>本期主题:  “关系中的自我”</t>
+          <t>本期主题:  “Domestic”</t>
         </is>
       </c>
       <c r="B8" s="332" t="n"/>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="C27" s="349" t="inlineStr">
         <is>
-          <t>浪漫公式</t>
+          <t>Age is a matter</t>
         </is>
       </c>
       <c r="D27" s="288">
@@ -13070,7 +13070,7 @@
       </c>
       <c r="C2" s="367" t="inlineStr">
         <is>
-          <t>AC4</t>
+          <t>AC5</t>
         </is>
       </c>
       <c r="D2" s="367" t="inlineStr">
@@ -13678,15 +13678,19 @@
       </c>
       <c r="B4" s="367" t="inlineStr">
         <is>
-          <t>张醒之</t>
+          <t>宝妮</t>
         </is>
       </c>
       <c r="C4" s="367" t="inlineStr">
         <is>
-          <t>Level1-2-2</t>
-        </is>
-      </c>
-      <c r="D4" s="367" t="inlineStr"/>
+          <t>ACS12</t>
+        </is>
+      </c>
+      <c r="D4" s="367" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E4" s="367">
         <f>IFERROR(VLOOKUP($B15,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -14298,12 +14302,12 @@
       </c>
       <c r="B6" s="367" t="inlineStr">
         <is>
-          <t>Sawyer</t>
+          <t>Kay</t>
         </is>
       </c>
       <c r="C6" s="367" t="inlineStr">
         <is>
-          <t>Level2-2</t>
+          <t>Level2-1</t>
         </is>
       </c>
       <c r="D6" s="367" t="inlineStr"/>
@@ -14611,7 +14615,7 @@
       </c>
       <c r="B7" s="367" t="inlineStr">
         <is>
-          <t>宝妮</t>
+          <t>比尔</t>
         </is>
       </c>
       <c r="C7" s="367" t="inlineStr">
@@ -15828,19 +15832,15 @@
       </c>
       <c r="B11" s="384" t="inlineStr">
         <is>
-          <t>奥丽薇亚</t>
+          <t>Mengyun</t>
         </is>
       </c>
       <c r="C11" s="384" t="inlineStr">
         <is>
-          <t>AC4</t>
-        </is>
-      </c>
-      <c r="D11" s="384" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level1-1</t>
+        </is>
+      </c>
+      <c r="D11" s="384" t="inlineStr"/>
       <c r="E11" s="384">
         <f>IFERROR(VLOOKUP($B22,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16592,10 +16592,14 @@
       </c>
       <c r="B15" s="367" t="inlineStr">
         <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="C15" s="367" t="inlineStr"/>
+          <t>董伟</t>
+        </is>
+      </c>
+      <c r="C15" s="367" t="inlineStr">
+        <is>
+          <t>Level3-3-2</t>
+        </is>
+      </c>
       <c r="D15" s="367" t="inlineStr"/>
       <c r="E15" s="367">
         <f>IFERROR(VLOOKUP($B26,$A$24:$D$61,4,FALSE),"")</f>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -10174,7 +10174,7 @@
       </c>
       <c r="C27" s="349" t="inlineStr">
         <is>
-          <t>Age is a matter</t>
+          <t>Age is a matter.</t>
         </is>
       </c>
       <c r="D27" s="288">

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -9503,7 +9503,7 @@
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
       <c r="A8" s="331" t="inlineStr">
         <is>
-          <t>本期主题:  “Domestic”</t>
+          <t>本期主题:  “Your Teacher”</t>
         </is>
       </c>
       <c r="B8" s="332" t="n"/>
@@ -10172,32 +10172,28 @@
           <t>一号备稿演讲</t>
         </is>
       </c>
-      <c r="C27" s="349" t="inlineStr">
-        <is>
-          <t>Age is a matter</t>
-        </is>
-      </c>
+      <c r="C27" s="349" t="inlineStr"/>
       <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
       <c r="E27" s="72" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="F27" s="103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" s="104" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H27" s="105" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27" s="37" t="inlineStr">
         <is>
-          <t>0:07</t>
+          <t>0:08</t>
         </is>
       </c>
       <c r="J27" s="36">
@@ -13678,19 +13674,15 @@
       </c>
       <c r="B4" s="367" t="inlineStr">
         <is>
-          <t>宝妮</t>
+          <t>Kay</t>
         </is>
       </c>
       <c r="C4" s="367" t="inlineStr">
         <is>
-          <t>ACS12</t>
-        </is>
-      </c>
-      <c r="D4" s="367" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Level2-1</t>
+        </is>
+      </c>
+      <c r="D4" s="367" t="inlineStr"/>
       <c r="E4" s="367">
         <f>IFERROR(VLOOKUP($B15,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -13994,7 +13986,7 @@
       </c>
       <c r="B5" s="367" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Madision</t>
         </is>
       </c>
       <c r="C5" s="367" t="inlineStr"/>
@@ -14302,14 +14294,10 @@
       </c>
       <c r="B6" s="367" t="inlineStr">
         <is>
-          <t>Kay</t>
-        </is>
-      </c>
-      <c r="C6" s="367" t="inlineStr">
-        <is>
-          <t>Level2-1</t>
-        </is>
-      </c>
+          <t>雷曼</t>
+        </is>
+      </c>
+      <c r="C6" s="367" t="inlineStr"/>
       <c r="D6" s="367" t="inlineStr"/>
       <c r="E6" s="367">
         <f>IFERROR(VLOOKUP($B17,$A$24:$D$61,4,FALSE),"")</f>
@@ -14615,12 +14603,12 @@
       </c>
       <c r="B7" s="367" t="inlineStr">
         <is>
-          <t>比尔</t>
+          <t>张晓</t>
         </is>
       </c>
       <c r="C7" s="367" t="inlineStr">
         <is>
-          <t>ACS12</t>
+          <t>AC3</t>
         </is>
       </c>
       <c r="D7" s="367" t="inlineStr">
@@ -14927,14 +14915,10 @@
       </c>
       <c r="B8" s="367" t="inlineStr">
         <is>
-          <t>张醒之</t>
-        </is>
-      </c>
-      <c r="C8" s="367" t="inlineStr">
-        <is>
-          <t>Level1-2-2</t>
-        </is>
-      </c>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="C8" s="367" t="inlineStr"/>
       <c r="D8" s="367" t="inlineStr"/>
       <c r="E8" s="367">
         <f>IFERROR(VLOOKUP($B19,$A$24:$D$61,4,FALSE),"")</f>
@@ -15832,15 +15816,19 @@
       </c>
       <c r="B11" s="384" t="inlineStr">
         <is>
-          <t>Mengyun</t>
+          <t>宝妮</t>
         </is>
       </c>
       <c r="C11" s="384" t="inlineStr">
         <is>
-          <t>Level1-1</t>
-        </is>
-      </c>
-      <c r="D11" s="384" t="inlineStr"/>
+          <t>ACS12</t>
+        </is>
+      </c>
+      <c r="D11" s="384" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E11" s="384">
         <f>IFERROR(VLOOKUP($B22,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -17309,7 +17297,7 @@
       </c>
       <c r="C19" s="367" t="inlineStr">
         <is>
-          <t>ACS12</t>
+          <t>ACS13</t>
         </is>
       </c>
       <c r="D19" s="367" t="inlineStr">

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17640" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17640" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda-1" sheetId="1" state="visible" r:id="rId1"/>
@@ -598,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="110">
+  <borders count="109">
     <border>
       <left/>
       <right/>
@@ -1808,21 +1808,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color theme="0" tint="-0.1499374370555742"/>
       </right>
       <top style="medium">
@@ -1893,10 +1878,10 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color rgb="00000000"/>
@@ -2969,6 +2954,183 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="67" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="68" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="69" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="76" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2977,9 +3139,6 @@
     <xf applyAlignment="1" borderId="78" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="79" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
@@ -3009,16 +3168,6 @@
     <xf borderId="88" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="67" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="68" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="69" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="95" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3030,57 +3179,6 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="95" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3090,144 +3188,31 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="21" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="109" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="105" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="105" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="106" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="106" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="107" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="108" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="29" fillId="0" fontId="21" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="107" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
@@ -3679,74 +3664,6 @@
     <cellStyle name="常规 3" xfId="348"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -3806,7 +3723,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>41</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2057400" cy="2057400"/>
@@ -4175,7 +4092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4217,139 +4134,125 @@
       <c r="F1" s="246" t="n"/>
       <c r="G1" s="246" t="n"/>
       <c r="H1" s="246" t="n"/>
-      <c r="I1" s="246" t="n"/>
-      <c r="J1" s="247" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="248" t="inlineStr">
+      <c r="A2" s="247" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="250" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="251" t="inlineStr">
+      <c r="A3" s="249" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="B3" s="252" t="n"/>
-      <c r="C3" s="252" t="n"/>
-      <c r="D3" s="252" t="n"/>
-      <c r="E3" s="252" t="n"/>
-      <c r="F3" s="252" t="n"/>
-      <c r="G3" s="252" t="n"/>
-      <c r="H3" s="252" t="n"/>
-      <c r="I3" s="253" t="n"/>
-      <c r="J3" s="254" t="n"/>
+      <c r="I3" s="250" t="n"/>
+      <c r="J3" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="255" t="inlineStr">
+      <c r="A4" s="251" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="256" t="inlineStr">
+      <c r="B4" s="252" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="246" t="n"/>
-      <c r="D4" s="246" t="n"/>
-      <c r="E4" s="246" t="n"/>
-      <c r="F4" s="246" t="n"/>
-      <c r="G4" s="246" t="n"/>
-      <c r="H4" s="257" t="n"/>
-      <c r="I4" s="258" t="n"/>
-      <c r="J4" s="259" t="n"/>
+      <c r="C4" s="253" t="n"/>
+      <c r="D4" s="253" t="n"/>
+      <c r="E4" s="253" t="n"/>
+      <c r="F4" s="253" t="n"/>
+      <c r="G4" s="253" t="n"/>
+      <c r="H4" s="254" t="n"/>
+      <c r="I4" s="248" t="n"/>
+      <c r="J4" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="260" t="n"/>
-      <c r="B5" s="261" t="n"/>
-      <c r="C5" s="252" t="n"/>
-      <c r="D5" s="252" t="n"/>
-      <c r="E5" s="252" t="n"/>
-      <c r="F5" s="252" t="n"/>
-      <c r="G5" s="252" t="n"/>
-      <c r="H5" s="262" t="n"/>
-      <c r="I5" s="253" t="n"/>
-      <c r="J5" s="254" t="n"/>
+      <c r="A5" s="255" t="n"/>
+      <c r="B5" s="256" t="n"/>
+      <c r="H5" s="257" t="n"/>
+      <c r="I5" s="250" t="n"/>
+      <c r="J5" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="263" t="n"/>
-      <c r="B6" s="264" t="n"/>
-      <c r="H6" s="265" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="A6" s="255" t="n"/>
+      <c r="B6" s="256" t="n"/>
+      <c r="H6" s="257" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="267" t="n"/>
-      <c r="B7" s="268" t="n"/>
-      <c r="C7" s="269" t="n"/>
-      <c r="D7" s="269" t="n"/>
-      <c r="E7" s="269" t="n"/>
-      <c r="F7" s="269" t="n"/>
-      <c r="G7" s="269" t="n"/>
-      <c r="H7" s="270" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="A7" s="258" t="n"/>
+      <c r="B7" s="259" t="n"/>
+      <c r="C7" s="260" t="n"/>
+      <c r="D7" s="260" t="n"/>
+      <c r="E7" s="260" t="n"/>
+      <c r="F7" s="260" t="n"/>
+      <c r="G7" s="260" t="n"/>
+      <c r="H7" s="261" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="271" t="inlineStr">
-        <is>
-          <t>Theme Today: Your Teacher</t>
-        </is>
-      </c>
-      <c r="B8" s="272" t="n"/>
-      <c r="C8" s="272" t="n"/>
-      <c r="D8" s="272" t="n"/>
-      <c r="E8" s="272" t="n"/>
-      <c r="F8" s="272" t="n"/>
-      <c r="G8" s="272" t="n"/>
-      <c r="H8" s="273" t="n"/>
-      <c r="I8" s="274" t="n"/>
-      <c r="J8" s="275" t="n"/>
+      <c r="A8" s="262" t="inlineStr">
+        <is>
+          <t>Theme Today: sleepless in seattle</t>
+        </is>
+      </c>
+      <c r="B8" s="263" t="n"/>
+      <c r="C8" s="263" t="n"/>
+      <c r="D8" s="263" t="n"/>
+      <c r="E8" s="263" t="n"/>
+      <c r="F8" s="263" t="n"/>
+      <c r="G8" s="263" t="n"/>
+      <c r="H8" s="264" t="n"/>
+      <c r="I8" s="250" t="n"/>
+      <c r="J8" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="276" t="inlineStr">
+      <c r="A9" s="265" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="277" t="inlineStr">
+      <c r="B9" s="266" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="278" t="inlineStr">
+      <c r="C9" s="267" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -4362,21 +4265,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="285" t="inlineStr">
+      <c r="B10" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="285" t="inlineStr">
+      <c r="C10" s="274" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4395,21 +4298,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="287" t="inlineStr">
+      <c r="B11" s="276" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C11" s="288" t="inlineStr">
+      <c r="C11" s="277" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4436,21 +4339,21 @@
       </c>
     </row>
     <row customHeight="1" ht="23.25" r="12" s="244">
-      <c r="A12" s="284">
+      <c r="A12" s="273">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="285" t="inlineStr">
+      <c r="B12" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="290" t="inlineStr">
+      <c r="C12" s="279" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="289">
+      <c r="D12" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4481,10 +4384,10 @@
       </c>
     </row>
     <row customHeight="1" hidden="1" ht="4.5" r="13" s="244">
-      <c r="A13" s="284" t="n"/>
-      <c r="B13" s="287" t="n"/>
-      <c r="C13" s="287" t="n"/>
-      <c r="D13" s="289" t="n"/>
+      <c r="A13" s="273" t="n"/>
+      <c r="B13" s="276" t="n"/>
+      <c r="C13" s="276" t="n"/>
+      <c r="D13" s="278" t="n"/>
       <c r="E13" s="76" t="n"/>
       <c r="F13" s="151" t="n"/>
       <c r="G13" s="152" t="n"/>
@@ -4498,21 +4401,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="287" t="inlineStr">
+      <c r="B14" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="287" t="inlineStr">
+      <c r="C14" s="276" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4534,24 +4437,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="287" t="inlineStr">
+      <c r="B15" s="276" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="287" t="inlineStr">
+      <c r="C15" s="276" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -4571,24 +4474,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="287" t="inlineStr">
+      <c r="B16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="287" t="inlineStr">
+      <c r="C16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -4608,24 +4511,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="287" t="inlineStr">
+      <c r="B17" s="276" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="287" t="inlineStr">
+      <c r="C17" s="276" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -4649,24 +4552,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="287" t="inlineStr">
+      <c r="B18" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="287" t="inlineStr">
+      <c r="C18" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4687,11 +4590,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="292" t="inlineStr">
+      <c r="B19" s="281" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -4701,7 +4604,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4722,28 +4625,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="293" t="inlineStr">
+      <c r="A20" s="282" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="272" t="n"/>
-      <c r="C20" s="272" t="n"/>
-      <c r="D20" s="272" t="n"/>
-      <c r="E20" s="272" t="n"/>
-      <c r="F20" s="272" t="n"/>
-      <c r="G20" s="272" t="n"/>
-      <c r="H20" s="273" t="n"/>
-      <c r="I20" s="294" t="n">
+      <c r="B20" s="263" t="n"/>
+      <c r="C20" s="263" t="n"/>
+      <c r="D20" s="263" t="n"/>
+      <c r="E20" s="263" t="n"/>
+      <c r="F20" s="263" t="n"/>
+      <c r="G20" s="263" t="n"/>
+      <c r="H20" s="264" t="n"/>
+      <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="295">
+      <c r="J20" s="36">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -4757,7 +4660,7 @@
           <t>Theme Introduction &amp; Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -4782,21 +4685,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="290" t="inlineStr">
+      <c r="B22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="290" t="inlineStr">
+      <c r="C22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -4829,21 +4732,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="290" t="inlineStr">
+      <c r="B23" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="287" t="inlineStr">
+      <c r="C23" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4866,17 +4769,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="298" t="inlineStr">
+      <c r="B24" s="285" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4899,30 +4802,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="293" t="inlineStr">
+      <c r="A25" s="282" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="272" t="n"/>
-      <c r="C25" s="272" t="n"/>
-      <c r="D25" s="272" t="n"/>
-      <c r="E25" s="272" t="n"/>
-      <c r="F25" s="272" t="n"/>
-      <c r="G25" s="272" t="n"/>
-      <c r="H25" s="273" t="n"/>
-      <c r="I25" s="294" t="n">
+      <c r="B25" s="263" t="n"/>
+      <c r="C25" s="263" t="n"/>
+      <c r="D25" s="263" t="n"/>
+      <c r="E25" s="263" t="n"/>
+      <c r="F25" s="263" t="n"/>
+      <c r="G25" s="263" t="n"/>
+      <c r="H25" s="264" t="n"/>
+      <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="295">
+      <c r="J25" s="36">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -4936,7 +4839,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4958,111 +4861,119 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="287" t="inlineStr">
+      <c r="B27" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="300" t="inlineStr"/>
-      <c r="D27" s="301">
+      <c r="C27" s="287" t="inlineStr">
+        <is>
+          <t>Ice Breaker</t>
+        </is>
+      </c>
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
       <c r="E27" s="72" t="inlineStr">
         <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="F27" s="103" t="n">
-        <v>6</v>
-      </c>
-      <c r="G27" s="104" t="n">
-        <v>7</v>
-      </c>
-      <c r="H27" s="105" t="n">
-        <v>8</v>
-      </c>
-      <c r="I27" s="37" t="inlineStr">
-        <is>
-          <t>0:08</t>
-        </is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="F27" s="103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G27" s="104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H27" s="105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I27" s="37" t="n">
+        <v>0.004861111111111111</v>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244" thickBot="1">
-      <c r="A28" s="302" t="inlineStr">
+      <c r="A28" s="282" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B28" s="303" t="n"/>
-      <c r="C28" s="303" t="n"/>
-      <c r="D28" s="303" t="n"/>
-      <c r="E28" s="303" t="n"/>
-      <c r="F28" s="303" t="n"/>
-      <c r="G28" s="303" t="n"/>
-      <c r="H28" s="304" t="n"/>
+      <c r="B28" s="263" t="n"/>
+      <c r="C28" s="263" t="n"/>
+      <c r="D28" s="263" t="n"/>
+      <c r="E28" s="263" t="n"/>
+      <c r="F28" s="263" t="n"/>
+      <c r="G28" s="263" t="n"/>
+      <c r="H28" s="264" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="244">
-      <c r="A29" s="305">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="306" t="inlineStr">
+      <c r="B29" s="24" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C29" s="307" t="inlineStr">
+      <c r="C29" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D29" s="308">
+      <c r="D29" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
-      <c r="E29" s="309" t="n">
+      <c r="E29" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="310" t="n"/>
-      <c r="G29" s="311" t="n">
+      <c r="F29" s="148" t="n"/>
+      <c r="G29" s="149" t="n">
         <v>0.5</v>
       </c>
-      <c r="H29" s="312" t="n">
+      <c r="H29" s="150" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="294" t="n">
+      <c r="I29" s="37" t="n">
         <v>1.000694444444445</v>
       </c>
-      <c r="J29" s="295">
+      <c r="J29" s="36">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244">
-      <c r="A30" s="284">
+      <c r="A30" s="273">
         <f>J29</f>
         <v/>
       </c>
@@ -5076,11 +4987,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D30" s="296">
+      <c r="D30" s="283">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="313" t="inlineStr">
+      <c r="E30" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -5102,10 +5013,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="1.5" r="31" s="244">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -5119,7 +5030,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D31" s="289">
+      <c r="D31" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -5143,10 +5054,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="314" t="n"/>
+      <c r="L31" s="290" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="24" r="32" s="244">
-      <c r="A32" s="284">
+      <c r="A32" s="273">
         <f>J31</f>
         <v/>
       </c>
@@ -5160,7 +5071,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D32" s="289">
+      <c r="D32" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -5186,10 +5097,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="314" t="n"/>
+      <c r="L32" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J32</f>
         <v/>
       </c>
@@ -5203,7 +5114,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D33" s="289">
+      <c r="D33" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -5227,13 +5138,13 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="314" t="n"/>
+      <c r="L33" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="34" s="244">
-      <c r="A34" s="284" t="n"/>
-      <c r="B34" s="285" t="n"/>
+      <c r="A34" s="273" t="n"/>
+      <c r="B34" s="274" t="n"/>
       <c r="C34" s="157" t="n"/>
-      <c r="D34" s="289" t="n"/>
+      <c r="D34" s="278" t="n"/>
       <c r="E34" s="76" t="n"/>
       <c r="F34" s="151" t="n"/>
       <c r="G34" s="152" t="n"/>
@@ -5246,24 +5157,24 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="314" t="n"/>
+      <c r="L34" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
-      <c r="B35" s="287" t="inlineStr">
+      <c r="B35" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C35" s="287" t="inlineStr">
+      <c r="C35" s="276" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D35" s="289">
+      <c r="D35" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -5295,24 +5206,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="314" t="n"/>
+      <c r="L35" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244" thickBot="1">
-      <c r="A36" s="315">
+      <c r="A36" s="291">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="290" t="inlineStr">
+      <c r="B36" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C36" s="287" t="inlineStr">
+      <c r="C36" s="276" t="inlineStr">
         <is>
           <t>Conclusion &amp; Meeting Closing</t>
         </is>
       </c>
-      <c r="D36" s="289">
+      <c r="D36" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -5344,13 +5255,13 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="314" t="n"/>
+      <c r="L36" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="37" s="244" thickBot="1">
-      <c r="A37" s="315" t="n"/>
-      <c r="B37" s="316" t="n"/>
-      <c r="C37" s="317" t="n"/>
-      <c r="D37" s="289" t="n"/>
+      <c r="A37" s="291" t="n"/>
+      <c r="B37" s="292" t="n"/>
+      <c r="C37" s="293" t="n"/>
+      <c r="D37" s="278" t="n"/>
       <c r="E37" s="71" t="n"/>
       <c r="F37" s="109" t="n"/>
       <c r="G37" s="110" t="n"/>
@@ -5361,21 +5272,21 @@
       <c r="L37" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="244">
-      <c r="A38" s="318" t="n"/>
-      <c r="B38" s="319" t="n"/>
-      <c r="C38" s="319" t="n"/>
-      <c r="D38" s="319" t="n"/>
+      <c r="A38" s="294" t="n"/>
+      <c r="B38" s="246" t="n"/>
+      <c r="C38" s="246" t="n"/>
+      <c r="D38" s="246" t="n"/>
       <c r="E38" s="243" t="n"/>
-      <c r="F38" s="320" t="n"/>
-      <c r="G38" s="321" t="n"/>
-      <c r="H38" s="322" t="n"/>
+      <c r="F38" s="295" t="n"/>
+      <c r="G38" s="296" t="n"/>
+      <c r="H38" s="297" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
       <c r="L38" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="39" s="244">
-      <c r="A39" s="323" t="inlineStr">
+      <c r="A39" s="298" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -5385,18 +5296,18 @@
 </t>
         </is>
       </c>
-      <c r="D39" s="324" t="n"/>
+      <c r="D39" s="299" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="325" t="inlineStr">
+      <c r="J39" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="326" t="n"/>
+      <c r="K39" s="301" t="n"/>
       <c r="L39" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="244">
-      <c r="A40" s="327" t="inlineStr">
+      <c r="A40" s="302" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -5407,91 +5318,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="325" t="n"/>
+      <c r="J40" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="244">
-      <c r="A41" s="328" t="n"/>
+      <c r="A41" s="303" t="n"/>
       <c r="B41" s="243" t="n"/>
-      <c r="D41" s="329" t="n"/>
-      <c r="E41" s="330" t="n"/>
-      <c r="F41" s="330" t="n"/>
-      <c r="G41" s="330" t="n"/>
-      <c r="H41" s="330" t="n"/>
+      <c r="D41" s="304" t="n"/>
+      <c r="E41" s="305" t="n"/>
+      <c r="F41" s="305" t="n"/>
+      <c r="G41" s="305" t="n"/>
+      <c r="H41" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="244">
-      <c r="A42" s="328" t="n"/>
+      <c r="A42" s="303" t="n"/>
       <c r="B42" s="243" t="n"/>
       <c r="C42" s="243" t="n"/>
-      <c r="D42" s="329" t="n"/>
-      <c r="F42" s="330" t="n"/>
-      <c r="G42" s="330" t="n"/>
-      <c r="H42" s="330" t="n"/>
+      <c r="D42" s="304" t="n"/>
+      <c r="F42" s="305" t="n"/>
+      <c r="G42" s="305" t="n"/>
+      <c r="H42" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="244">
-      <c r="A43" s="328" t="n"/>
+      <c r="A43" s="303" t="n"/>
       <c r="B43" s="243" t="n"/>
       <c r="C43" s="243" t="n"/>
-      <c r="D43" s="331" t="n"/>
-      <c r="E43" s="332" t="n"/>
-      <c r="F43" s="333" t="n"/>
-      <c r="G43" s="334" t="n"/>
+      <c r="D43" s="306" t="n"/>
+      <c r="E43" s="307" t="n"/>
+      <c r="F43" s="308" t="n"/>
+      <c r="G43" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="328" t="n"/>
+      <c r="A44" s="303" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="335" t="n"/>
-      <c r="E44" s="336" t="n"/>
+      <c r="D44" s="310" t="n"/>
+      <c r="E44" s="311" t="n"/>
       <c r="L44" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="328" t="n"/>
+      <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
-      <c r="D45" s="335" t="n"/>
-      <c r="E45" s="336" t="n"/>
+      <c r="D45" s="310" t="n"/>
+      <c r="E45" s="311" t="n"/>
       <c r="L45" s="186" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="328" t="n"/>
+      <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
-      <c r="D46" s="335" t="n"/>
-      <c r="E46" s="336" t="n"/>
+      <c r="D46" s="310" t="n"/>
+      <c r="E46" s="311" t="n"/>
       <c r="L46" s="186" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
       <c r="C47" s="243" t="n"/>
-      <c r="D47" s="335" t="n"/>
-      <c r="E47" s="336" t="n"/>
+      <c r="D47" s="310" t="n"/>
+      <c r="E47" s="311" t="n"/>
       <c r="L47" s="186" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="335" t="n"/>
-      <c r="E48" s="336" t="n"/>
+      <c r="D48" s="310" t="n"/>
+      <c r="E48" s="311" t="n"/>
       <c r="L48" s="186" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="E49" s="336" t="n"/>
+      <c r="E49" s="311" t="n"/>
       <c r="L49" s="186" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
     </row>
     <row customFormat="1" r="51" s="240">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="G51" s="241" t="n"/>
       <c r="H51" s="242" t="n"/>
       <c r="I51" s="186" t="n"/>
@@ -5501,11 +5412,11 @@
       <c r="M51" s="243" t="n"/>
     </row>
     <row customFormat="1" r="52" s="240">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="237" t="n"/>
-      <c r="D52" s="335" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="D52" s="310" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="G52" s="241" t="n"/>
       <c r="H52" s="242" t="n"/>
       <c r="I52" s="186" t="n"/>
@@ -5515,11 +5426,11 @@
       <c r="M52" s="243" t="n"/>
     </row>
     <row customFormat="1" r="53" s="240">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
       <c r="G53" s="241" t="n"/>
       <c r="H53" s="242" t="n"/>
       <c r="I53" s="186" t="n"/>
@@ -5529,11 +5440,11 @@
       <c r="M53" s="243" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="186" t="n"/>
@@ -5543,11 +5454,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="D55" s="335" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="D55" s="310" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="186" t="n"/>
@@ -5557,11 +5468,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="186" t="n"/>
@@ -5571,11 +5482,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="186" t="n"/>
@@ -5585,11 +5496,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="186" t="n"/>
@@ -5599,11 +5510,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="237" t="n"/>
       <c r="C59" s="237" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="186" t="n"/>
@@ -5613,11 +5524,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="237" t="n"/>
       <c r="C60" s="237" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="186" t="n"/>
@@ -5627,11 +5538,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="237" t="n"/>
       <c r="C61" s="237" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="186" t="n"/>
@@ -5641,11 +5552,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="186" t="n"/>
@@ -5655,7 +5566,7 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
       <c r="D63" s="238" t="n"/>
@@ -5669,7 +5580,7 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
       <c r="D64" s="238" t="n"/>
@@ -5683,7 +5594,7 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
       <c r="D65" s="238" t="n"/>
@@ -5697,7 +5608,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -5711,7 +5622,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="237">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="D67" s="238" t="n"/>
       <c r="E67" s="239" t="n"/>
       <c r="F67" s="240" t="n"/>
@@ -5723,7 +5634,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="237">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="D68" s="238" t="n"/>
       <c r="E68" s="239" t="n"/>
       <c r="F68" s="240" t="n"/>
@@ -5735,7 +5646,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="237">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="D69" s="238" t="n"/>
       <c r="E69" s="239" t="n"/>
       <c r="F69" s="240" t="n"/>
@@ -5766,12 +5677,11 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5801,137 +5711,151 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="337" t="inlineStr">
+      <c r="A1" s="312" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="319" t="n"/>
-      <c r="C1" s="319" t="n"/>
-      <c r="D1" s="319" t="n"/>
-      <c r="E1" s="319" t="n"/>
-      <c r="F1" s="319" t="n"/>
-      <c r="G1" s="319" t="n"/>
-      <c r="H1" s="319" t="n"/>
+      <c r="B1" s="313" t="n"/>
+      <c r="C1" s="313" t="n"/>
+      <c r="D1" s="313" t="n"/>
+      <c r="E1" s="313" t="n"/>
+      <c r="F1" s="313" t="n"/>
+      <c r="G1" s="313" t="n"/>
+      <c r="H1" s="313" t="n"/>
+      <c r="I1" s="313" t="n"/>
+      <c r="J1" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="338" t="inlineStr">
+      <c r="A2" s="315" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="249" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="316" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="339" t="inlineStr">
+      <c r="A3" s="317" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="266" t="n"/>
-      <c r="J3" s="266" t="n"/>
+      <c r="B3" s="318" t="n"/>
+      <c r="C3" s="318" t="n"/>
+      <c r="D3" s="318" t="n"/>
+      <c r="E3" s="318" t="n"/>
+      <c r="F3" s="318" t="n"/>
+      <c r="G3" s="318" t="n"/>
+      <c r="H3" s="318" t="n"/>
+      <c r="I3" s="319" t="n"/>
+      <c r="J3" s="320" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="340" t="inlineStr">
+      <c r="A4" s="321" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="341" t="inlineStr">
+      <c r="B4" s="322" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="342" t="n"/>
-      <c r="D4" s="342" t="n"/>
-      <c r="E4" s="342" t="n"/>
-      <c r="F4" s="342" t="n"/>
-      <c r="G4" s="342" t="n"/>
-      <c r="H4" s="343" t="n"/>
-      <c r="I4" s="249" t="n"/>
-      <c r="J4" s="249" t="n"/>
+      <c r="C4" s="313" t="n"/>
+      <c r="D4" s="313" t="n"/>
+      <c r="E4" s="313" t="n"/>
+      <c r="F4" s="313" t="n"/>
+      <c r="G4" s="313" t="n"/>
+      <c r="H4" s="323" t="n"/>
+      <c r="I4" s="324" t="n"/>
+      <c r="J4" s="325" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="263" t="n"/>
-      <c r="B5" s="264" t="n"/>
-      <c r="H5" s="265" t="n"/>
-      <c r="I5" s="266" t="n"/>
-      <c r="J5" s="266" t="n"/>
+      <c r="A5" s="326" t="n"/>
+      <c r="B5" s="327" t="n"/>
+      <c r="C5" s="318" t="n"/>
+      <c r="D5" s="318" t="n"/>
+      <c r="E5" s="318" t="n"/>
+      <c r="F5" s="318" t="n"/>
+      <c r="G5" s="318" t="n"/>
+      <c r="H5" s="328" t="n"/>
+      <c r="I5" s="319" t="n"/>
+      <c r="J5" s="320" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="263" t="n"/>
-      <c r="B6" s="264" t="n"/>
-      <c r="H6" s="265" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="A6" s="255" t="n"/>
+      <c r="B6" s="256" t="n"/>
+      <c r="H6" s="257" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="267" t="n"/>
-      <c r="B7" s="268" t="n"/>
-      <c r="C7" s="269" t="n"/>
-      <c r="D7" s="269" t="n"/>
-      <c r="E7" s="269" t="n"/>
-      <c r="F7" s="269" t="n"/>
-      <c r="G7" s="269" t="n"/>
-      <c r="H7" s="270" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="A7" s="258" t="n"/>
+      <c r="B7" s="259" t="n"/>
+      <c r="C7" s="260" t="n"/>
+      <c r="D7" s="260" t="n"/>
+      <c r="E7" s="260" t="n"/>
+      <c r="F7" s="260" t="n"/>
+      <c r="G7" s="260" t="n"/>
+      <c r="H7" s="261" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="344" t="inlineStr">
-        <is>
-          <t>Theme Today: sleepless in seattle</t>
-        </is>
-      </c>
-      <c r="B8" s="303" t="n"/>
-      <c r="C8" s="303" t="n"/>
-      <c r="D8" s="303" t="n"/>
-      <c r="E8" s="303" t="n"/>
-      <c r="F8" s="303" t="n"/>
-      <c r="G8" s="303" t="n"/>
-      <c r="H8" s="304" t="n"/>
-      <c r="I8" s="266" t="n"/>
-      <c r="J8" s="266" t="n"/>
+      <c r="A8" s="329" t="inlineStr">
+        <is>
+          <t>Theme Today: Migration</t>
+        </is>
+      </c>
+      <c r="B8" s="330" t="n"/>
+      <c r="C8" s="330" t="n"/>
+      <c r="D8" s="330" t="n"/>
+      <c r="E8" s="330" t="n"/>
+      <c r="F8" s="330" t="n"/>
+      <c r="G8" s="330" t="n"/>
+      <c r="H8" s="331" t="n"/>
+      <c r="I8" s="332" t="n"/>
+      <c r="J8" s="333" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="276" t="inlineStr">
+      <c r="A9" s="265" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="277" t="inlineStr">
+      <c r="B9" s="266" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="278" t="inlineStr">
+      <c r="C9" s="267" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -5944,21 +5868,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="285" t="inlineStr">
+      <c r="B10" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="285" t="inlineStr">
+      <c r="C10" s="274" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -5977,21 +5901,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="287" t="inlineStr">
+      <c r="B11" s="276" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="288" t="inlineStr">
+      <c r="C11" s="277" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -6018,21 +5942,21 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="12" s="244">
-      <c r="A12" s="284">
+      <c r="A12" s="273">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="285" t="inlineStr">
+      <c r="B12" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="290" t="inlineStr">
+      <c r="C12" s="279" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="289">
+      <c r="D12" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -6063,21 +5987,21 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="13" s="244">
-      <c r="A13" s="284">
+      <c r="A13" s="273">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="287" t="inlineStr">
+      <c r="B13" s="276" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="287" t="inlineStr">
+      <c r="C13" s="276" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="289">
+      <c r="D13" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6102,21 +6026,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="287" t="inlineStr">
+      <c r="B14" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="287" t="inlineStr">
+      <c r="C14" s="276" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6138,24 +6062,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="287" t="inlineStr">
+      <c r="B15" s="276" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="287" t="inlineStr">
+      <c r="C15" s="276" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6175,24 +6099,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="287" t="inlineStr">
+      <c r="B16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="287" t="inlineStr">
+      <c r="C16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6212,24 +6136,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="24" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="287" t="inlineStr">
+      <c r="B17" s="276" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="287" t="inlineStr">
+      <c r="C17" s="276" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6253,24 +6177,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="287" t="inlineStr">
+      <c r="B18" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="287" t="inlineStr">
+      <c r="C18" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6291,11 +6215,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="292" t="inlineStr">
+      <c r="B19" s="281" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -6305,7 +6229,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6326,28 +6250,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="302" t="inlineStr">
+      <c r="A20" s="334" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="303" t="n"/>
-      <c r="C20" s="303" t="n"/>
-      <c r="D20" s="303" t="n"/>
-      <c r="E20" s="303" t="n"/>
-      <c r="F20" s="303" t="n"/>
-      <c r="G20" s="303" t="n"/>
-      <c r="H20" s="304" t="n"/>
-      <c r="I20" s="37" t="n">
+      <c r="B20" s="330" t="n"/>
+      <c r="C20" s="330" t="n"/>
+      <c r="D20" s="330" t="n"/>
+      <c r="E20" s="330" t="n"/>
+      <c r="F20" s="330" t="n"/>
+      <c r="G20" s="330" t="n"/>
+      <c r="H20" s="331" t="n"/>
+      <c r="I20" s="335" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="336">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -6361,7 +6285,7 @@
           <t>Theme introduction &amp; Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -6386,21 +6310,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="290" t="inlineStr">
+      <c r="B22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="290" t="inlineStr">
+      <c r="C22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -6433,21 +6357,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="290" t="inlineStr">
+      <c r="B23" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="287" t="inlineStr">
+      <c r="C23" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6470,17 +6394,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="298" t="inlineStr">
+      <c r="B24" s="285" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6503,30 +6427,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="302" t="inlineStr">
+      <c r="A25" s="334" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="303" t="n"/>
-      <c r="C25" s="303" t="n"/>
-      <c r="D25" s="303" t="n"/>
-      <c r="E25" s="303" t="n"/>
-      <c r="F25" s="303" t="n"/>
-      <c r="G25" s="303" t="n"/>
-      <c r="H25" s="304" t="n"/>
-      <c r="I25" s="37" t="n">
+      <c r="B25" s="330" t="n"/>
+      <c r="C25" s="330" t="n"/>
+      <c r="D25" s="330" t="n"/>
+      <c r="E25" s="330" t="n"/>
+      <c r="F25" s="330" t="n"/>
+      <c r="G25" s="330" t="n"/>
+      <c r="H25" s="331" t="n"/>
+      <c r="I25" s="335" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="336">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -6540,7 +6464,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6562,59 +6486,55 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="287" t="inlineStr">
+      <c r="B27" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="300" t="inlineStr">
+      <c r="C27" s="287" t="inlineStr">
         <is>
           <t>Ice Breaker</t>
         </is>
       </c>
-      <c r="D27" s="301">
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
       <c r="E27" s="72" t="inlineStr">
         <is>
-          <t>5-7</t>
-        </is>
-      </c>
-      <c r="F27" s="103" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G27" s="104" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H27" s="105" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I27" s="37" t="n">
-        <v>0.004861111111111111</v>
+          <t>6-8</t>
+        </is>
+      </c>
+      <c r="F27" s="103" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" s="104" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" s="105" t="n">
+        <v>8</v>
+      </c>
+      <c r="I27" s="37" t="inlineStr">
+        <is>
+          <t>0:08</t>
+        </is>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="284">
+      <c r="A28" s="273">
         <f>J27</f>
         <v/>
       </c>
@@ -6628,7 +6548,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="301">
+      <c r="D28" s="288">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6650,80 +6570,76 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="29" s="244" thickBot="1">
-      <c r="A29" s="284">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="287" t="inlineStr">
+      <c r="B29" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="300" t="inlineStr">
-        <is>
-          <t>Rice's Speech</t>
-        </is>
-      </c>
-      <c r="D29" s="345">
+      <c r="C29" s="287" t="inlineStr">
+        <is>
+          <t>Ice Breaker</t>
+        </is>
+      </c>
+      <c r="D29" s="337">
         <f>Roles!B12</f>
         <v/>
       </c>
       <c r="E29" s="72" t="inlineStr">
         <is>
-          <t>5-7</t>
-        </is>
-      </c>
-      <c r="F29" s="103" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G29" s="104" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H29" s="105" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I29" s="37" t="n">
-        <v>0.004861111111111111</v>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="F29" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" s="104" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="105" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" s="37" t="inlineStr">
+        <is>
+          <t>0:06</t>
+        </is>
       </c>
       <c r="J29" s="36">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244" thickBot="1">
-      <c r="A30" s="302" t="inlineStr">
+      <c r="A30" s="282" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B30" s="303" t="n"/>
-      <c r="C30" s="303" t="n"/>
-      <c r="D30" s="303" t="n"/>
-      <c r="E30" s="303" t="n"/>
-      <c r="F30" s="303" t="n"/>
-      <c r="G30" s="303" t="n"/>
-      <c r="H30" s="304" t="n"/>
+      <c r="B30" s="263" t="n"/>
+      <c r="C30" s="263" t="n"/>
+      <c r="D30" s="263" t="n"/>
+      <c r="E30" s="263" t="n"/>
+      <c r="F30" s="263" t="n"/>
+      <c r="G30" s="263" t="n"/>
+      <c r="H30" s="264" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J29+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="244">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -6737,7 +6653,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D31" s="296">
+      <c r="D31" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6759,53 +6675,53 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="249" t="n"/>
+      <c r="L31" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244">
-      <c r="A32" s="284">
+      <c r="A32" s="338">
         <f>J31</f>
         <v/>
       </c>
-      <c r="B32" s="55" t="inlineStr">
+      <c r="B32" s="339" t="inlineStr">
         <is>
           <t>Evaluator1</t>
         </is>
       </c>
-      <c r="C32" s="56" t="inlineStr">
+      <c r="C32" s="340" t="inlineStr">
         <is>
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D32" s="296">
+      <c r="D32" s="341">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="313" t="inlineStr">
+      <c r="E32" s="342" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
       </c>
-      <c r="F32" s="151" t="n">
+      <c r="F32" s="343" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="152" t="n">
+      <c r="G32" s="344" t="n">
         <v>2.5</v>
       </c>
-      <c r="H32" s="153" t="n">
+      <c r="H32" s="345" t="n">
         <v>3</v>
       </c>
-      <c r="I32" s="37" t="n">
+      <c r="I32" s="335" t="n">
         <v>0.002083333333333333</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="336">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="249" t="n"/>
+      <c r="L32" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J32</f>
         <v/>
       </c>
@@ -6819,11 +6735,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D33" s="296">
+      <c r="D33" s="283">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="313" t="inlineStr">
+      <c r="E33" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -6845,10 +6761,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="249" t="n"/>
+      <c r="L33" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="34" s="244">
-      <c r="A34" s="284">
+      <c r="A34" s="273">
         <f>J33</f>
         <v/>
       </c>
@@ -6862,7 +6778,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D34" s="289">
+      <c r="D34" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6886,10 +6802,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="314" t="n"/>
+      <c r="L34" s="290" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="24" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
@@ -6903,7 +6819,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D35" s="289">
+      <c r="D35" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6929,10 +6845,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="314" t="n"/>
+      <c r="L35" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="284">
+      <c r="A36" s="273">
         <f>J35</f>
         <v/>
       </c>
@@ -6946,7 +6862,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D36" s="289">
+      <c r="D36" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6970,14 +6886,14 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="314" t="n"/>
+      <c r="L36" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="37" s="244">
-      <c r="A37" s="284">
+      <c r="A37" s="273">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="285" t="inlineStr">
+      <c r="B37" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -6987,7 +6903,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D37" s="289">
+      <c r="D37" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7007,24 +6923,24 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="314" t="n"/>
+      <c r="L37" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="284">
+      <c r="A38" s="273">
         <f>J37</f>
         <v/>
       </c>
-      <c r="B38" s="287" t="inlineStr">
+      <c r="B38" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C38" s="287" t="inlineStr">
+      <c r="C38" s="276" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D38" s="289">
+      <c r="D38" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7056,24 +6972,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="314" t="n"/>
+      <c r="L38" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244" thickBot="1">
-      <c r="A39" s="315">
+      <c r="A39" s="291">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="290" t="inlineStr">
+      <c r="B39" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C39" s="287" t="inlineStr">
+      <c r="C39" s="276" t="inlineStr">
         <is>
           <t>Conclusion &amp; Meeting Closing</t>
         </is>
       </c>
-      <c r="D39" s="289">
+      <c r="D39" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7105,24 +7021,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="314" t="n"/>
+      <c r="L39" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="40" s="244" thickBot="1">
-      <c r="A40" s="315">
+      <c r="A40" s="291">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="316" t="inlineStr">
+      <c r="B40" s="292" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C40" s="317" t="inlineStr">
+      <c r="C40" s="293" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D40" s="289">
+      <c r="D40" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7147,21 +7063,21 @@
       <c r="L40" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="244">
-      <c r="A41" s="318" t="n"/>
-      <c r="B41" s="319" t="n"/>
-      <c r="C41" s="319" t="n"/>
-      <c r="D41" s="319" t="n"/>
+      <c r="A41" s="294" t="n"/>
+      <c r="B41" s="246" t="n"/>
+      <c r="C41" s="246" t="n"/>
+      <c r="D41" s="246" t="n"/>
       <c r="E41" s="243" t="n"/>
-      <c r="F41" s="320" t="n"/>
-      <c r="G41" s="321" t="n"/>
-      <c r="H41" s="322" t="n"/>
+      <c r="F41" s="295" t="n"/>
+      <c r="G41" s="296" t="n"/>
+      <c r="H41" s="297" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
       <c r="L41" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="42" s="244">
-      <c r="A42" s="323" t="inlineStr">
+      <c r="A42" s="298" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -7171,18 +7087,18 @@
 </t>
         </is>
       </c>
-      <c r="D42" s="324" t="n"/>
+      <c r="D42" s="299" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="325" t="inlineStr">
+      <c r="J42" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="326" t="n"/>
+      <c r="K42" s="301" t="n"/>
       <c r="L42" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="244">
-      <c r="A43" s="327" t="inlineStr">
+      <c r="A43" s="302" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -7193,91 +7109,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="325" t="n"/>
+      <c r="J43" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="328" t="n"/>
+      <c r="A44" s="303" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="329" t="n"/>
-      <c r="E44" s="330" t="n"/>
-      <c r="F44" s="330" t="n"/>
-      <c r="G44" s="330" t="n"/>
-      <c r="H44" s="330" t="n"/>
+      <c r="D44" s="304" t="n"/>
+      <c r="E44" s="305" t="n"/>
+      <c r="F44" s="305" t="n"/>
+      <c r="G44" s="305" t="n"/>
+      <c r="H44" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="328" t="n"/>
+      <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
       <c r="C45" s="243" t="n"/>
-      <c r="D45" s="329" t="n"/>
-      <c r="F45" s="330" t="n"/>
-      <c r="G45" s="330" t="n"/>
-      <c r="H45" s="330" t="n"/>
+      <c r="D45" s="304" t="n"/>
+      <c r="F45" s="305" t="n"/>
+      <c r="G45" s="305" t="n"/>
+      <c r="H45" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="244">
-      <c r="A46" s="328" t="n"/>
+      <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
       <c r="C46" s="243" t="n"/>
-      <c r="D46" s="331" t="n"/>
-      <c r="E46" s="332" t="n"/>
-      <c r="F46" s="333" t="n"/>
-      <c r="G46" s="334" t="n"/>
+      <c r="D46" s="306" t="n"/>
+      <c r="E46" s="307" t="n"/>
+      <c r="F46" s="308" t="n"/>
+      <c r="G46" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="335" t="n"/>
-      <c r="E47" s="336" t="n"/>
+      <c r="D47" s="310" t="n"/>
+      <c r="E47" s="311" t="n"/>
       <c r="L47" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
-      <c r="D48" s="335" t="n"/>
-      <c r="E48" s="336" t="n"/>
+      <c r="D48" s="310" t="n"/>
+      <c r="E48" s="311" t="n"/>
       <c r="L48" s="186" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
-      <c r="D49" s="335" t="n"/>
-      <c r="E49" s="336" t="n"/>
+      <c r="D49" s="310" t="n"/>
+      <c r="E49" s="311" t="n"/>
       <c r="L49" s="186" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
       <c r="C50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
       <c r="L50" s="186" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="L51" s="186" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="243" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="L52" s="186" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="186" t="n"/>
@@ -7287,11 +7203,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="237" t="n"/>
-      <c r="D55" s="335" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="D55" s="310" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="186" t="n"/>
@@ -7301,11 +7217,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="186" t="n"/>
@@ -7315,11 +7231,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="186" t="n"/>
@@ -7329,11 +7245,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="186" t="n"/>
@@ -7343,11 +7259,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="186" t="n"/>
@@ -7357,11 +7273,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="186" t="n"/>
@@ -7371,11 +7287,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="186" t="n"/>
@@ -7385,11 +7301,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="186" t="n"/>
@@ -7399,11 +7315,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
-      <c r="D63" s="335" t="n"/>
-      <c r="E63" s="336" t="n"/>
+      <c r="D63" s="310" t="n"/>
+      <c r="E63" s="311" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="186" t="n"/>
@@ -7413,11 +7329,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
-      <c r="D64" s="335" t="n"/>
-      <c r="E64" s="336" t="n"/>
+      <c r="D64" s="310" t="n"/>
+      <c r="E64" s="311" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="186" t="n"/>
@@ -7427,11 +7343,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="335" t="n"/>
-      <c r="E65" s="336" t="n"/>
+      <c r="D65" s="310" t="n"/>
+      <c r="E65" s="311" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="186" t="n"/>
@@ -7441,7 +7357,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -7455,7 +7371,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
       <c r="D67" s="238" t="n"/>
@@ -7469,7 +7385,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
       <c r="D68" s="238" t="n"/>
@@ -7483,7 +7399,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -7497,7 +7413,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="237">
-      <c r="A70" s="328" t="n"/>
+      <c r="A70" s="303" t="n"/>
       <c r="D70" s="238" t="n"/>
       <c r="E70" s="239" t="n"/>
       <c r="F70" s="240" t="n"/>
@@ -7509,7 +7425,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="237">
-      <c r="A71" s="328" t="n"/>
+      <c r="A71" s="303" t="n"/>
       <c r="D71" s="238" t="n"/>
       <c r="E71" s="239" t="n"/>
       <c r="F71" s="240" t="n"/>
@@ -7521,7 +7437,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="237">
-      <c r="A72" s="328" t="n"/>
+      <c r="A72" s="303" t="n"/>
       <c r="D72" s="238" t="n"/>
       <c r="E72" s="239" t="n"/>
       <c r="F72" s="240" t="n"/>
@@ -7552,6 +7468,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7586,137 +7503,137 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="337" t="inlineStr">
+      <c r="A1" s="245" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="319" t="n"/>
-      <c r="C1" s="319" t="n"/>
-      <c r="D1" s="319" t="n"/>
-      <c r="E1" s="319" t="n"/>
-      <c r="F1" s="319" t="n"/>
-      <c r="G1" s="319" t="n"/>
-      <c r="H1" s="319" t="n"/>
+      <c r="B1" s="246" t="n"/>
+      <c r="C1" s="246" t="n"/>
+      <c r="D1" s="246" t="n"/>
+      <c r="E1" s="246" t="n"/>
+      <c r="F1" s="246" t="n"/>
+      <c r="G1" s="246" t="n"/>
+      <c r="H1" s="246" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="338" t="inlineStr">
+      <c r="A2" s="247" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="249" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="339" t="inlineStr">
+      <c r="A3" s="249" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="266" t="n"/>
-      <c r="J3" s="266" t="n"/>
+      <c r="I3" s="250" t="n"/>
+      <c r="J3" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="340" t="inlineStr">
+      <c r="A4" s="251" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="341" t="inlineStr">
+      <c r="B4" s="252" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="342" t="n"/>
-      <c r="D4" s="342" t="n"/>
-      <c r="E4" s="342" t="n"/>
-      <c r="F4" s="342" t="n"/>
-      <c r="G4" s="342" t="n"/>
-      <c r="H4" s="343" t="n"/>
-      <c r="I4" s="249" t="n"/>
-      <c r="J4" s="249" t="n"/>
+      <c r="C4" s="253" t="n"/>
+      <c r="D4" s="253" t="n"/>
+      <c r="E4" s="253" t="n"/>
+      <c r="F4" s="253" t="n"/>
+      <c r="G4" s="253" t="n"/>
+      <c r="H4" s="254" t="n"/>
+      <c r="I4" s="248" t="n"/>
+      <c r="J4" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="263" t="n"/>
-      <c r="B5" s="264" t="n"/>
-      <c r="H5" s="265" t="n"/>
-      <c r="I5" s="266" t="n"/>
-      <c r="J5" s="266" t="n"/>
+      <c r="A5" s="255" t="n"/>
+      <c r="B5" s="256" t="n"/>
+      <c r="H5" s="257" t="n"/>
+      <c r="I5" s="250" t="n"/>
+      <c r="J5" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="263" t="n"/>
-      <c r="B6" s="264" t="n"/>
-      <c r="H6" s="265" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="A6" s="255" t="n"/>
+      <c r="B6" s="256" t="n"/>
+      <c r="H6" s="257" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="267" t="n"/>
-      <c r="B7" s="268" t="n"/>
-      <c r="C7" s="269" t="n"/>
-      <c r="D7" s="269" t="n"/>
-      <c r="E7" s="269" t="n"/>
-      <c r="F7" s="269" t="n"/>
-      <c r="G7" s="269" t="n"/>
-      <c r="H7" s="270" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="A7" s="258" t="n"/>
+      <c r="B7" s="259" t="n"/>
+      <c r="C7" s="260" t="n"/>
+      <c r="D7" s="260" t="n"/>
+      <c r="E7" s="260" t="n"/>
+      <c r="F7" s="260" t="n"/>
+      <c r="G7" s="260" t="n"/>
+      <c r="H7" s="261" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="344" t="inlineStr">
+      <c r="A8" s="262" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="303" t="n"/>
-      <c r="C8" s="303" t="n"/>
-      <c r="D8" s="303" t="n"/>
-      <c r="E8" s="303" t="n"/>
-      <c r="F8" s="303" t="n"/>
-      <c r="G8" s="303" t="n"/>
-      <c r="H8" s="304" t="n"/>
-      <c r="I8" s="266" t="n"/>
-      <c r="J8" s="266" t="n"/>
+      <c r="B8" s="263" t="n"/>
+      <c r="C8" s="263" t="n"/>
+      <c r="D8" s="263" t="n"/>
+      <c r="E8" s="263" t="n"/>
+      <c r="F8" s="263" t="n"/>
+      <c r="G8" s="263" t="n"/>
+      <c r="H8" s="264" t="n"/>
+      <c r="I8" s="250" t="n"/>
+      <c r="J8" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="276" t="inlineStr">
+      <c r="A9" s="265" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="277" t="inlineStr">
+      <c r="B9" s="266" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="278" t="inlineStr">
+      <c r="C9" s="267" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -7729,21 +7646,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="285" t="inlineStr">
+      <c r="B10" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="285" t="inlineStr">
+      <c r="C10" s="274" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7762,21 +7679,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="287" t="inlineStr">
+      <c r="B11" s="276" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="288" t="inlineStr">
+      <c r="C11" s="277" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7803,21 +7720,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="244">
-      <c r="A12" s="284">
+      <c r="A12" s="273">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="285" t="inlineStr">
+      <c r="B12" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="290" t="inlineStr">
+      <c r="C12" s="279" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="289">
+      <c r="D12" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7848,21 +7765,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="244">
-      <c r="A13" s="284">
+      <c r="A13" s="273">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="287" t="inlineStr">
+      <c r="B13" s="276" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="287" t="inlineStr">
+      <c r="C13" s="276" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="289">
+      <c r="D13" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7887,21 +7804,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="287" t="inlineStr">
+      <c r="B14" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="287" t="inlineStr">
+      <c r="C14" s="276" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7923,24 +7840,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="287" t="inlineStr">
+      <c r="B15" s="276" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="287" t="inlineStr">
+      <c r="C15" s="276" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -7960,24 +7877,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="287" t="inlineStr">
+      <c r="B16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="287" t="inlineStr">
+      <c r="C16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -7997,24 +7914,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="287" t="inlineStr">
+      <c r="B17" s="276" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="287" t="inlineStr">
+      <c r="C17" s="276" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -8038,24 +7955,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="287" t="inlineStr">
+      <c r="B18" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="287" t="inlineStr">
+      <c r="C18" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8076,11 +7993,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="292" t="inlineStr">
+      <c r="B19" s="281" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -8090,7 +8007,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8111,18 +8028,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="302" t="inlineStr">
+      <c r="A20" s="282" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="303" t="n"/>
-      <c r="C20" s="303" t="n"/>
-      <c r="D20" s="303" t="n"/>
-      <c r="E20" s="303" t="n"/>
-      <c r="F20" s="303" t="n"/>
-      <c r="G20" s="303" t="n"/>
-      <c r="H20" s="304" t="n"/>
+      <c r="B20" s="263" t="n"/>
+      <c r="C20" s="263" t="n"/>
+      <c r="D20" s="263" t="n"/>
+      <c r="E20" s="263" t="n"/>
+      <c r="F20" s="263" t="n"/>
+      <c r="G20" s="263" t="n"/>
+      <c r="H20" s="264" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -8132,7 +8049,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -8146,7 +8063,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -8171,21 +8088,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="290" t="inlineStr">
+      <c r="B22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="290" t="inlineStr">
+      <c r="C22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -8218,21 +8135,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="290" t="inlineStr">
+      <c r="B23" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="287" t="inlineStr">
+      <c r="C23" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8255,17 +8172,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="298" t="inlineStr">
+      <c r="B24" s="285" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8288,18 +8205,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="302" t="inlineStr">
+      <c r="A25" s="282" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="303" t="n"/>
-      <c r="C25" s="303" t="n"/>
-      <c r="D25" s="303" t="n"/>
-      <c r="E25" s="303" t="n"/>
-      <c r="F25" s="303" t="n"/>
-      <c r="G25" s="303" t="n"/>
-      <c r="H25" s="304" t="n"/>
+      <c r="B25" s="263" t="n"/>
+      <c r="C25" s="263" t="n"/>
+      <c r="D25" s="263" t="n"/>
+      <c r="E25" s="263" t="n"/>
+      <c r="F25" s="263" t="n"/>
+      <c r="G25" s="263" t="n"/>
+      <c r="H25" s="264" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -8308,10 +8225,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -8325,7 +8242,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8347,24 +8264,24 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="287" t="inlineStr">
+      <c r="B27" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="300" t="inlineStr">
+      <c r="C27" s="287" t="inlineStr">
         <is>
           <t>Ice Breaker</t>
         </is>
       </c>
-      <c r="D27" s="301">
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -8396,10 +8313,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="284">
+      <c r="A28" s="273">
         <f>J27</f>
         <v/>
       </c>
@@ -8413,7 +8330,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="301">
+      <c r="D28" s="288">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8435,24 +8352,24 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="29" s="244">
-      <c r="A29" s="284">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="287" t="inlineStr">
+      <c r="B29" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="300" t="inlineStr">
+      <c r="C29" s="287" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D29" s="345">
+      <c r="D29" s="337">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -8484,10 +8401,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="30" s="244">
-      <c r="A30" s="284">
+      <c r="A30" s="273">
         <f>J29</f>
         <v/>
       </c>
@@ -8501,7 +8418,7 @@
           <t>Introduce the 3nd Speaker</t>
         </is>
       </c>
-      <c r="D30" s="301">
+      <c r="D30" s="288">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8523,24 +8440,24 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="31" s="244" thickBot="1">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
-      <c r="B31" s="287" t="inlineStr">
+      <c r="B31" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker3</t>
         </is>
       </c>
-      <c r="C31" s="300" t="inlineStr">
+      <c r="C31" s="287" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D31" s="345">
+      <c r="D31" s="337">
         <f>Roles!B13</f>
         <v/>
       </c>
@@ -8572,31 +8489,31 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="249" t="n"/>
+      <c r="L31" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244" thickBot="1">
-      <c r="A32" s="302" t="inlineStr">
+      <c r="A32" s="282" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B32" s="303" t="n"/>
-      <c r="C32" s="303" t="n"/>
-      <c r="D32" s="303" t="n"/>
-      <c r="E32" s="303" t="n"/>
-      <c r="F32" s="303" t="n"/>
-      <c r="G32" s="303" t="n"/>
-      <c r="H32" s="304" t="n"/>
+      <c r="B32" s="263" t="n"/>
+      <c r="C32" s="263" t="n"/>
+      <c r="D32" s="263" t="n"/>
+      <c r="E32" s="263" t="n"/>
+      <c r="F32" s="263" t="n"/>
+      <c r="G32" s="263" t="n"/>
+      <c r="H32" s="264" t="n"/>
       <c r="I32" s="37" t="n"/>
       <c r="J32" s="36">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="249" t="n"/>
+      <c r="L32" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J32</f>
         <v/>
       </c>
@@ -8610,7 +8527,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D33" s="296">
+      <c r="D33" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8632,10 +8549,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="249" t="n"/>
+      <c r="L33" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="244">
-      <c r="A34" s="284">
+      <c r="A34" s="273">
         <f>J33</f>
         <v/>
       </c>
@@ -8649,11 +8566,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D34" s="296">
+      <c r="D34" s="283">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E34" s="313" t="inlineStr">
+      <c r="E34" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8675,10 +8592,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="249" t="n"/>
+      <c r="L34" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
@@ -8692,11 +8609,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D35" s="296">
+      <c r="D35" s="283">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E35" s="313" t="inlineStr">
+      <c r="E35" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8718,10 +8635,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="249" t="n"/>
+      <c r="L35" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="284">
+      <c r="A36" s="273">
         <f>J35</f>
         <v/>
       </c>
@@ -8735,11 +8652,11 @@
           <t>Evaluate the 3rd speaker</t>
         </is>
       </c>
-      <c r="D36" s="296">
+      <c r="D36" s="283">
         <f>Roles!B17</f>
         <v/>
       </c>
-      <c r="E36" s="313" t="inlineStr">
+      <c r="E36" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8761,10 +8678,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="249" t="n"/>
+      <c r="L36" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="244">
-      <c r="A37" s="284">
+      <c r="A37" s="273">
         <f>J36</f>
         <v/>
       </c>
@@ -8778,7 +8695,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D37" s="289">
+      <c r="D37" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -8802,10 +8719,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="314" t="n"/>
+      <c r="L37" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="284">
+      <c r="A38" s="273">
         <f>J37</f>
         <v/>
       </c>
@@ -8819,7 +8736,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D38" s="289">
+      <c r="D38" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -8845,10 +8762,10 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="314" t="n"/>
+      <c r="L38" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244">
-      <c r="A39" s="284">
+      <c r="A39" s="273">
         <f>J38</f>
         <v/>
       </c>
@@ -8862,7 +8779,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D39" s="289">
+      <c r="D39" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -8886,14 +8803,14 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="314" t="n"/>
+      <c r="L39" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="244">
-      <c r="A40" s="284">
+      <c r="A40" s="273">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="285" t="inlineStr">
+      <c r="B40" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -8903,7 +8820,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D40" s="289">
+      <c r="D40" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -8923,24 +8840,24 @@
         <v/>
       </c>
       <c r="K40" s="36" t="n"/>
-      <c r="L40" s="314" t="n"/>
+      <c r="L40" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="41" s="244">
-      <c r="A41" s="284">
+      <c r="A41" s="273">
         <f>J40</f>
         <v/>
       </c>
-      <c r="B41" s="287" t="inlineStr">
+      <c r="B41" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C41" s="287" t="inlineStr">
+      <c r="C41" s="276" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D41" s="289">
+      <c r="D41" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8972,24 +8889,24 @@
         <v/>
       </c>
       <c r="K41" s="36" t="n"/>
-      <c r="L41" s="314" t="n"/>
+      <c r="L41" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="42" s="244" thickBot="1">
-      <c r="A42" s="315">
+      <c r="A42" s="291">
         <f>J41</f>
         <v/>
       </c>
-      <c r="B42" s="290" t="inlineStr">
+      <c r="B42" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C42" s="287" t="inlineStr">
+      <c r="C42" s="276" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D42" s="289">
+      <c r="D42" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9021,24 +8938,24 @@
         <v/>
       </c>
       <c r="K42" s="36" t="n"/>
-      <c r="L42" s="314" t="n"/>
+      <c r="L42" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="43" s="244" thickBot="1">
-      <c r="A43" s="315">
+      <c r="A43" s="291">
         <f>J42</f>
         <v/>
       </c>
-      <c r="B43" s="316" t="inlineStr">
+      <c r="B43" s="292" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C43" s="317" t="inlineStr">
+      <c r="C43" s="293" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D43" s="289">
+      <c r="D43" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -9063,21 +8980,21 @@
       <c r="L43" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="44" s="244">
-      <c r="A44" s="318" t="n"/>
-      <c r="B44" s="319" t="n"/>
-      <c r="C44" s="319" t="n"/>
-      <c r="D44" s="319" t="n"/>
+      <c r="A44" s="294" t="n"/>
+      <c r="B44" s="246" t="n"/>
+      <c r="C44" s="246" t="n"/>
+      <c r="D44" s="246" t="n"/>
       <c r="E44" s="243" t="n"/>
-      <c r="F44" s="320" t="n"/>
-      <c r="G44" s="321" t="n"/>
-      <c r="H44" s="322" t="n"/>
+      <c r="F44" s="295" t="n"/>
+      <c r="G44" s="296" t="n"/>
+      <c r="H44" s="297" t="n"/>
       <c r="I44" s="39" t="n"/>
       <c r="J44" s="39" t="n"/>
       <c r="K44" s="39" t="n"/>
       <c r="L44" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="45" s="244">
-      <c r="A45" s="323" t="inlineStr">
+      <c r="A45" s="298" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -9087,18 +9004,18 @@
 </t>
         </is>
       </c>
-      <c r="D45" s="324" t="n"/>
+      <c r="D45" s="299" t="n"/>
       <c r="I45" s="39" t="n"/>
-      <c r="J45" s="325" t="inlineStr">
+      <c r="J45" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K45" s="326" t="n"/>
+      <c r="K45" s="301" t="n"/>
       <c r="L45" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="46" s="244">
-      <c r="A46" s="327" t="inlineStr">
+      <c r="A46" s="302" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -9109,91 +9026,91 @@
         </is>
       </c>
       <c r="I46" s="39" t="n"/>
-      <c r="J46" s="325" t="n"/>
+      <c r="J46" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="329" t="n"/>
-      <c r="E47" s="330" t="n"/>
-      <c r="F47" s="330" t="n"/>
-      <c r="G47" s="330" t="n"/>
-      <c r="H47" s="330" t="n"/>
+      <c r="D47" s="304" t="n"/>
+      <c r="E47" s="305" t="n"/>
+      <c r="F47" s="305" t="n"/>
+      <c r="G47" s="305" t="n"/>
+      <c r="H47" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="329" t="n"/>
-      <c r="F48" s="330" t="n"/>
-      <c r="G48" s="330" t="n"/>
-      <c r="H48" s="330" t="n"/>
+      <c r="D48" s="304" t="n"/>
+      <c r="F48" s="305" t="n"/>
+      <c r="G48" s="305" t="n"/>
+      <c r="H48" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="49" s="244">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="D49" s="331" t="n"/>
-      <c r="E49" s="332" t="n"/>
-      <c r="F49" s="333" t="n"/>
-      <c r="G49" s="334" t="n"/>
+      <c r="D49" s="306" t="n"/>
+      <c r="E49" s="307" t="n"/>
+      <c r="F49" s="308" t="n"/>
+      <c r="G49" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="50" s="244">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
       <c r="L50" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="51" s="244">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="L51" s="186" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
-      <c r="D52" s="335" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="D52" s="310" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="L52" s="186" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
       <c r="L53" s="186" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="L54" s="186" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="L55" s="186" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="186" t="n"/>
@@ -9203,11 +9120,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="237" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="186" t="n"/>
@@ -9217,11 +9134,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="186" t="n"/>
@@ -9231,11 +9148,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="186" t="n"/>
@@ -9245,11 +9162,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="186" t="n"/>
@@ -9259,11 +9176,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="243" t="n"/>
       <c r="C62" s="243" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="186" t="n"/>
@@ -9273,11 +9190,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="243" t="n"/>
       <c r="C63" s="243" t="n"/>
-      <c r="D63" s="335" t="n"/>
-      <c r="E63" s="336" t="n"/>
+      <c r="D63" s="310" t="n"/>
+      <c r="E63" s="311" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="186" t="n"/>
@@ -9287,11 +9204,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="243" t="n"/>
       <c r="C64" s="243" t="n"/>
-      <c r="D64" s="335" t="n"/>
-      <c r="E64" s="336" t="n"/>
+      <c r="D64" s="310" t="n"/>
+      <c r="E64" s="311" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="186" t="n"/>
@@ -9301,11 +9218,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="335" t="n"/>
-      <c r="E65" s="336" t="n"/>
+      <c r="D65" s="310" t="n"/>
+      <c r="E65" s="311" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="186" t="n"/>
@@ -9315,11 +9232,11 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
-      <c r="D66" s="335" t="n"/>
-      <c r="E66" s="336" t="n"/>
+      <c r="D66" s="310" t="n"/>
+      <c r="E66" s="311" t="n"/>
       <c r="G66" s="241" t="n"/>
       <c r="H66" s="242" t="n"/>
       <c r="I66" s="186" t="n"/>
@@ -9329,11 +9246,11 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
-      <c r="D67" s="335" t="n"/>
-      <c r="E67" s="336" t="n"/>
+      <c r="D67" s="310" t="n"/>
+      <c r="E67" s="311" t="n"/>
       <c r="G67" s="241" t="n"/>
       <c r="H67" s="242" t="n"/>
       <c r="I67" s="186" t="n"/>
@@ -9343,11 +9260,11 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
-      <c r="D68" s="335" t="n"/>
-      <c r="E68" s="336" t="n"/>
+      <c r="D68" s="310" t="n"/>
+      <c r="E68" s="311" t="n"/>
       <c r="G68" s="241" t="n"/>
       <c r="H68" s="242" t="n"/>
       <c r="I68" s="186" t="n"/>
@@ -9357,7 +9274,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -9371,7 +9288,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="240">
-      <c r="A70" s="328" t="n"/>
+      <c r="A70" s="303" t="n"/>
       <c r="B70" s="237" t="n"/>
       <c r="C70" s="237" t="n"/>
       <c r="D70" s="238" t="n"/>
@@ -9385,7 +9302,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="240">
-      <c r="A71" s="328" t="n"/>
+      <c r="A71" s="303" t="n"/>
       <c r="B71" s="237" t="n"/>
       <c r="C71" s="237" t="n"/>
       <c r="D71" s="238" t="n"/>
@@ -9399,7 +9316,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="240">
-      <c r="A72" s="328" t="n"/>
+      <c r="A72" s="303" t="n"/>
       <c r="B72" s="237" t="n"/>
       <c r="C72" s="237" t="n"/>
       <c r="D72" s="238" t="n"/>
@@ -9413,7 +9330,7 @@
       <c r="M72" s="243" t="n"/>
     </row>
     <row customFormat="1" r="73" s="237">
-      <c r="A73" s="328" t="n"/>
+      <c r="A73" s="303" t="n"/>
       <c r="D73" s="238" t="n"/>
       <c r="E73" s="239" t="n"/>
       <c r="F73" s="240" t="n"/>
@@ -9425,7 +9342,7 @@
       <c r="M73" s="243" t="n"/>
     </row>
     <row customFormat="1" r="74" s="237">
-      <c r="A74" s="328" t="n"/>
+      <c r="A74" s="303" t="n"/>
       <c r="D74" s="238" t="n"/>
       <c r="E74" s="239" t="n"/>
       <c r="F74" s="240" t="n"/>
@@ -9437,7 +9354,7 @@
       <c r="M74" s="243" t="n"/>
     </row>
     <row customFormat="1" r="75" s="237">
-      <c r="A75" s="328" t="n"/>
+      <c r="A75" s="303" t="n"/>
       <c r="D75" s="238" t="n"/>
       <c r="E75" s="239" t="n"/>
       <c r="F75" s="240" t="n"/>
@@ -9502,18 +9419,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="337" t="inlineStr">
+      <c r="A1" s="245" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="319" t="n"/>
-      <c r="C1" s="319" t="n"/>
-      <c r="D1" s="319" t="n"/>
-      <c r="E1" s="319" t="n"/>
-      <c r="F1" s="319" t="n"/>
-      <c r="G1" s="319" t="n"/>
-      <c r="H1" s="319" t="n"/>
+      <c r="B1" s="246" t="n"/>
+      <c r="C1" s="246" t="n"/>
+      <c r="D1" s="246" t="n"/>
+      <c r="E1" s="246" t="n"/>
+      <c r="F1" s="246" t="n"/>
+      <c r="G1" s="246" t="n"/>
+      <c r="H1" s="246" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
       <c r="A2" s="346" t="inlineStr">
@@ -9521,8 +9438,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="249" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
       <c r="A3" s="347" t="inlineStr">
@@ -9537,8 +9454,8 @@
       <c r="F3" s="348" t="n"/>
       <c r="G3" s="348" t="n"/>
       <c r="H3" s="348" t="n"/>
-      <c r="I3" s="266" t="n"/>
-      <c r="J3" s="266" t="n"/>
+      <c r="I3" s="250" t="n"/>
+      <c r="J3" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
       <c r="A4" s="349" t="inlineStr">
@@ -9557,13 +9474,13 @@
       <c r="F4" s="351" t="n"/>
       <c r="G4" s="351" t="n"/>
       <c r="H4" s="351" t="n"/>
-      <c r="I4" s="249" t="n"/>
-      <c r="J4" s="249" t="n"/>
+      <c r="I4" s="248" t="n"/>
+      <c r="J4" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
       <c r="A5" s="352" t="n"/>
-      <c r="I5" s="266" t="n"/>
-      <c r="J5" s="266" t="n"/>
+      <c r="I5" s="250" t="n"/>
+      <c r="J5" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
       <c r="A6" s="349" t="inlineStr">
@@ -9582,29 +9499,29 @@
       <c r="F6" s="351" t="n"/>
       <c r="G6" s="351" t="n"/>
       <c r="H6" s="351" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
       <c r="A7" s="352" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="344" t="inlineStr">
+      <c r="A8" s="262" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="303" t="n"/>
-      <c r="C8" s="303" t="n"/>
-      <c r="D8" s="303" t="n"/>
-      <c r="E8" s="303" t="n"/>
-      <c r="F8" s="303" t="n"/>
-      <c r="G8" s="303" t="n"/>
-      <c r="H8" s="304" t="n"/>
-      <c r="I8" s="266" t="n"/>
-      <c r="J8" s="266" t="n"/>
+      <c r="B8" s="263" t="n"/>
+      <c r="C8" s="263" t="n"/>
+      <c r="D8" s="263" t="n"/>
+      <c r="E8" s="263" t="n"/>
+      <c r="F8" s="263" t="n"/>
+      <c r="G8" s="263" t="n"/>
+      <c r="H8" s="264" t="n"/>
+      <c r="I8" s="250" t="n"/>
+      <c r="J8" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
       <c r="A9" s="353" t="inlineStr">
@@ -9622,28 +9539,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -9656,7 +9573,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
@@ -9670,7 +9587,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -9689,7 +9606,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
@@ -9703,7 +9620,7 @@
           <t>会议开场 &amp; 欢迎</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9730,10 +9647,10 @@
       </c>
     </row>
     <row customHeight="1" ht="1.5" r="12" s="244">
-      <c r="A12" s="284" t="n"/>
+      <c r="A12" s="273" t="n"/>
       <c r="B12" s="355" t="n"/>
       <c r="C12" s="358" t="n"/>
-      <c r="D12" s="289" t="n"/>
+      <c r="D12" s="278" t="n"/>
       <c r="E12" s="76" t="n"/>
       <c r="F12" s="151" t="n"/>
       <c r="G12" s="152" t="n"/>
@@ -9747,7 +9664,7 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="13" s="244">
-      <c r="A13" s="284">
+      <c r="A13" s="273">
         <f>J12</f>
         <v/>
       </c>
@@ -9761,7 +9678,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="289">
+      <c r="D13" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9786,7 +9703,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
@@ -9800,7 +9717,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9822,10 +9739,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
@@ -9839,7 +9756,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -9859,10 +9776,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
@@ -9876,7 +9793,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -9896,10 +9813,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
@@ -9913,7 +9830,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -9937,10 +9854,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
@@ -9954,7 +9871,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9975,7 +9892,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
@@ -9989,7 +9906,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10010,18 +9927,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="302" t="inlineStr">
+      <c r="A20" s="282" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="303" t="n"/>
-      <c r="C20" s="303" t="n"/>
-      <c r="D20" s="303" t="n"/>
-      <c r="E20" s="303" t="n"/>
-      <c r="F20" s="303" t="n"/>
-      <c r="G20" s="303" t="n"/>
-      <c r="H20" s="304" t="n"/>
+      <c r="B20" s="263" t="n"/>
+      <c r="C20" s="263" t="n"/>
+      <c r="D20" s="263" t="n"/>
+      <c r="E20" s="263" t="n"/>
+      <c r="F20" s="263" t="n"/>
+      <c r="G20" s="263" t="n"/>
+      <c r="H20" s="264" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -10031,7 +9948,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -10045,7 +9962,7 @@
           <t>主题介绍 &amp; 即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -10070,7 +9987,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
@@ -10084,7 +10001,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -10117,7 +10034,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
@@ -10131,7 +10048,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10154,7 +10071,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
@@ -10168,7 +10085,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10191,18 +10108,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="302" t="inlineStr">
+      <c r="A25" s="282" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="303" t="n"/>
-      <c r="C25" s="303" t="n"/>
-      <c r="D25" s="303" t="n"/>
-      <c r="E25" s="303" t="n"/>
-      <c r="F25" s="303" t="n"/>
-      <c r="G25" s="303" t="n"/>
-      <c r="H25" s="304" t="n"/>
+      <c r="B25" s="263" t="n"/>
+      <c r="C25" s="263" t="n"/>
+      <c r="D25" s="263" t="n"/>
+      <c r="E25" s="263" t="n"/>
+      <c r="F25" s="263" t="n"/>
+      <c r="G25" s="263" t="n"/>
+      <c r="H25" s="264" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -10211,10 +10128,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -10228,7 +10145,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10250,10 +10167,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
@@ -10268,7 +10185,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="301">
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -10300,31 +10217,31 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244" thickBot="1">
-      <c r="A28" s="302" t="inlineStr">
+      <c r="A28" s="282" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B28" s="303" t="n"/>
-      <c r="C28" s="303" t="n"/>
-      <c r="D28" s="303" t="n"/>
-      <c r="E28" s="303" t="n"/>
-      <c r="F28" s="303" t="n"/>
-      <c r="G28" s="303" t="n"/>
-      <c r="H28" s="304" t="n"/>
+      <c r="B28" s="263" t="n"/>
+      <c r="C28" s="263" t="n"/>
+      <c r="D28" s="263" t="n"/>
+      <c r="E28" s="263" t="n"/>
+      <c r="F28" s="263" t="n"/>
+      <c r="G28" s="263" t="n"/>
+      <c r="H28" s="264" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="244">
-      <c r="A29" s="284">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
@@ -10338,7 +10255,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D29" s="296">
+      <c r="D29" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10360,10 +10277,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244">
-      <c r="A30" s="284">
+      <c r="A30" s="273">
         <f>J29</f>
         <v/>
       </c>
@@ -10377,11 +10294,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D30" s="296">
+      <c r="D30" s="283">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="313" t="inlineStr">
+      <c r="E30" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -10403,10 +10320,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="31" s="244">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -10420,7 +10337,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D31" s="289">
+      <c r="D31" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -10444,10 +10361,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="314" t="n"/>
+      <c r="L31" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="32" s="244">
-      <c r="A32" s="284">
+      <c r="A32" s="273">
         <f>J31</f>
         <v/>
       </c>
@@ -10461,7 +10378,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D32" s="289">
+      <c r="D32" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -10487,10 +10404,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="314" t="n"/>
+      <c r="L32" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J32</f>
         <v/>
       </c>
@@ -10504,7 +10421,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D33" s="289">
+      <c r="D33" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -10528,10 +10445,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="314" t="n"/>
+      <c r="L33" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="34" s="244">
-      <c r="A34" s="284">
+      <c r="A34" s="273">
         <f>J33</f>
         <v/>
       </c>
@@ -10545,7 +10462,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D34" s="289">
+      <c r="D34" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -10565,10 +10482,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="314" t="n"/>
+      <c r="L34" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
@@ -10582,7 +10499,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D35" s="289">
+      <c r="D35" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10614,24 +10531,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="314" t="n"/>
+      <c r="L35" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="284">
+      <c r="A36" s="273">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="290" t="inlineStr">
+      <c r="B36" s="279" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C36" s="287" t="inlineStr">
+      <c r="C36" s="276" t="inlineStr">
         <is>
           <t>总结 &amp; 会议结束致辞</t>
         </is>
       </c>
-      <c r="D36" s="289">
+      <c r="D36" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10663,24 +10580,24 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="314" t="n"/>
+      <c r="L36" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="37" s="244" thickBot="1">
-      <c r="A37" s="315">
+      <c r="A37" s="291">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="316" t="inlineStr">
+      <c r="B37" s="292" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C37" s="317" t="inlineStr">
+      <c r="C37" s="293" t="inlineStr">
         <is>
           <t>颁奖</t>
         </is>
       </c>
-      <c r="D37" s="289">
+      <c r="D37" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -10705,14 +10622,14 @@
       <c r="L37" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="244">
-      <c r="A38" s="318" t="n"/>
-      <c r="B38" s="319" t="n"/>
-      <c r="C38" s="319" t="n"/>
-      <c r="D38" s="319" t="n"/>
+      <c r="A38" s="294" t="n"/>
+      <c r="B38" s="246" t="n"/>
+      <c r="C38" s="246" t="n"/>
+      <c r="D38" s="246" t="n"/>
       <c r="E38" s="243" t="n"/>
-      <c r="F38" s="320" t="n"/>
-      <c r="G38" s="321" t="n"/>
-      <c r="H38" s="322" t="n"/>
+      <c r="F38" s="295" t="n"/>
+      <c r="G38" s="296" t="n"/>
+      <c r="H38" s="297" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
@@ -10727,14 +10644,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D39" s="324" t="n"/>
+      <c r="D39" s="299" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="325" t="inlineStr">
+      <c r="J39" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="326" t="n"/>
+      <c r="K39" s="301" t="n"/>
       <c r="L39" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="244">
@@ -10748,91 +10665,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="325" t="n"/>
+      <c r="J40" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="244">
-      <c r="A41" s="328" t="n"/>
+      <c r="A41" s="303" t="n"/>
       <c r="B41" s="243" t="n"/>
-      <c r="D41" s="329" t="n"/>
-      <c r="E41" s="330" t="n"/>
-      <c r="F41" s="330" t="n"/>
-      <c r="G41" s="330" t="n"/>
-      <c r="H41" s="330" t="n"/>
+      <c r="D41" s="304" t="n"/>
+      <c r="E41" s="305" t="n"/>
+      <c r="F41" s="305" t="n"/>
+      <c r="G41" s="305" t="n"/>
+      <c r="H41" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="244">
-      <c r="A42" s="328" t="n"/>
+      <c r="A42" s="303" t="n"/>
       <c r="B42" s="243" t="n"/>
       <c r="C42" s="243" t="n"/>
-      <c r="D42" s="329" t="n"/>
-      <c r="F42" s="330" t="n"/>
-      <c r="G42" s="330" t="n"/>
-      <c r="H42" s="330" t="n"/>
+      <c r="D42" s="304" t="n"/>
+      <c r="F42" s="305" t="n"/>
+      <c r="G42" s="305" t="n"/>
+      <c r="H42" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="244">
-      <c r="A43" s="328" t="n"/>
+      <c r="A43" s="303" t="n"/>
       <c r="B43" s="243" t="n"/>
       <c r="C43" s="243" t="n"/>
-      <c r="D43" s="331" t="n"/>
-      <c r="E43" s="332" t="n"/>
-      <c r="F43" s="333" t="n"/>
-      <c r="G43" s="334" t="n"/>
+      <c r="D43" s="306" t="n"/>
+      <c r="E43" s="307" t="n"/>
+      <c r="F43" s="308" t="n"/>
+      <c r="G43" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="328" t="n"/>
+      <c r="A44" s="303" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="335" t="n"/>
-      <c r="E44" s="336" t="n"/>
+      <c r="D44" s="310" t="n"/>
+      <c r="E44" s="311" t="n"/>
       <c r="L44" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="328" t="n"/>
+      <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
-      <c r="D45" s="335" t="n"/>
-      <c r="E45" s="336" t="n"/>
+      <c r="D45" s="310" t="n"/>
+      <c r="E45" s="311" t="n"/>
       <c r="L45" s="186" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="328" t="n"/>
+      <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
-      <c r="D46" s="335" t="n"/>
-      <c r="E46" s="336" t="n"/>
+      <c r="D46" s="310" t="n"/>
+      <c r="E46" s="311" t="n"/>
       <c r="L46" s="186" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
       <c r="C47" s="243" t="n"/>
-      <c r="D47" s="335" t="n"/>
-      <c r="E47" s="336" t="n"/>
+      <c r="D47" s="310" t="n"/>
+      <c r="E47" s="311" t="n"/>
       <c r="L47" s="186" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="335" t="n"/>
-      <c r="E48" s="336" t="n"/>
+      <c r="D48" s="310" t="n"/>
+      <c r="E48" s="311" t="n"/>
       <c r="L48" s="186" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="E49" s="336" t="n"/>
+      <c r="E49" s="311" t="n"/>
       <c r="L49" s="186" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
     </row>
     <row customFormat="1" r="51" s="240">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="G51" s="241" t="n"/>
       <c r="H51" s="242" t="n"/>
       <c r="I51" s="186" t="n"/>
@@ -10842,11 +10759,11 @@
       <c r="M51" s="243" t="n"/>
     </row>
     <row customFormat="1" r="52" s="240">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="237" t="n"/>
-      <c r="D52" s="335" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="D52" s="310" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="G52" s="241" t="n"/>
       <c r="H52" s="242" t="n"/>
       <c r="I52" s="186" t="n"/>
@@ -10856,11 +10773,11 @@
       <c r="M52" s="243" t="n"/>
     </row>
     <row customFormat="1" r="53" s="240">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
       <c r="G53" s="241" t="n"/>
       <c r="H53" s="242" t="n"/>
       <c r="I53" s="186" t="n"/>
@@ -10870,11 +10787,11 @@
       <c r="M53" s="243" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="186" t="n"/>
@@ -10884,11 +10801,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="D55" s="335" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="D55" s="310" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="186" t="n"/>
@@ -10898,11 +10815,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="186" t="n"/>
@@ -10912,11 +10829,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="186" t="n"/>
@@ -10926,11 +10843,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="186" t="n"/>
@@ -10940,11 +10857,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="237" t="n"/>
       <c r="C59" s="237" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="186" t="n"/>
@@ -10954,11 +10871,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="237" t="n"/>
       <c r="C60" s="237" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="186" t="n"/>
@@ -10968,11 +10885,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="237" t="n"/>
       <c r="C61" s="237" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="186" t="n"/>
@@ -10982,11 +10899,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="186" t="n"/>
@@ -10996,7 +10913,7 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
       <c r="D63" s="238" t="n"/>
@@ -11010,7 +10927,7 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
       <c r="D64" s="238" t="n"/>
@@ -11024,7 +10941,7 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
       <c r="D65" s="238" t="n"/>
@@ -11038,7 +10955,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -11052,7 +10969,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="237">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="D67" s="238" t="n"/>
       <c r="E67" s="239" t="n"/>
       <c r="F67" s="240" t="n"/>
@@ -11064,7 +10981,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="237">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="D68" s="238" t="n"/>
       <c r="E68" s="239" t="n"/>
       <c r="F68" s="240" t="n"/>
@@ -11076,7 +10993,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="237">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="D69" s="238" t="n"/>
       <c r="E69" s="239" t="n"/>
       <c r="F69" s="240" t="n"/>
@@ -11143,18 +11060,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="337" t="inlineStr">
+      <c r="A1" s="245" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="319" t="n"/>
-      <c r="C1" s="319" t="n"/>
-      <c r="D1" s="319" t="n"/>
-      <c r="E1" s="319" t="n"/>
-      <c r="F1" s="319" t="n"/>
-      <c r="G1" s="319" t="n"/>
-      <c r="H1" s="319" t="n"/>
+      <c r="B1" s="246" t="n"/>
+      <c r="C1" s="246" t="n"/>
+      <c r="D1" s="246" t="n"/>
+      <c r="E1" s="246" t="n"/>
+      <c r="F1" s="246" t="n"/>
+      <c r="G1" s="246" t="n"/>
+      <c r="H1" s="246" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
       <c r="A2" s="346" t="inlineStr">
@@ -11162,8 +11079,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="249" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
       <c r="A3" s="347" t="inlineStr">
@@ -11178,8 +11095,8 @@
       <c r="F3" s="348" t="n"/>
       <c r="G3" s="348" t="n"/>
       <c r="H3" s="348" t="n"/>
-      <c r="I3" s="266" t="n"/>
-      <c r="J3" s="266" t="n"/>
+      <c r="I3" s="250" t="n"/>
+      <c r="J3" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
       <c r="A4" s="349" t="inlineStr">
@@ -11198,13 +11115,13 @@
       <c r="F4" s="351" t="n"/>
       <c r="G4" s="351" t="n"/>
       <c r="H4" s="351" t="n"/>
-      <c r="I4" s="249" t="n"/>
-      <c r="J4" s="249" t="n"/>
+      <c r="I4" s="248" t="n"/>
+      <c r="J4" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
       <c r="A5" s="352" t="n"/>
-      <c r="I5" s="266" t="n"/>
-      <c r="J5" s="266" t="n"/>
+      <c r="I5" s="250" t="n"/>
+      <c r="J5" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
       <c r="A6" s="349" t="inlineStr">
@@ -11223,29 +11140,29 @@
       <c r="F6" s="351" t="n"/>
       <c r="G6" s="351" t="n"/>
       <c r="H6" s="351" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
       <c r="A7" s="352" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="344" t="inlineStr">
+      <c r="A8" s="262" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="303" t="n"/>
-      <c r="C8" s="303" t="n"/>
-      <c r="D8" s="303" t="n"/>
-      <c r="E8" s="303" t="n"/>
-      <c r="F8" s="303" t="n"/>
-      <c r="G8" s="303" t="n"/>
-      <c r="H8" s="304" t="n"/>
-      <c r="I8" s="266" t="n"/>
-      <c r="J8" s="266" t="n"/>
+      <c r="B8" s="263" t="n"/>
+      <c r="C8" s="263" t="n"/>
+      <c r="D8" s="263" t="n"/>
+      <c r="E8" s="263" t="n"/>
+      <c r="F8" s="263" t="n"/>
+      <c r="G8" s="263" t="n"/>
+      <c r="H8" s="264" t="n"/>
+      <c r="I8" s="250" t="n"/>
+      <c r="J8" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
       <c r="A9" s="353" t="inlineStr">
@@ -11263,28 +11180,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -11297,7 +11214,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
@@ -11311,7 +11228,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -11330,7 +11247,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
@@ -11344,7 +11261,7 @@
           <t>会议开场 &amp; 欢迎</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11371,10 +11288,10 @@
       </c>
     </row>
     <row customHeight="1" ht="1.5" r="12" s="244">
-      <c r="A12" s="284" t="n"/>
+      <c r="A12" s="273" t="n"/>
       <c r="B12" s="355" t="n"/>
       <c r="C12" s="358" t="n"/>
-      <c r="D12" s="289" t="n"/>
+      <c r="D12" s="278" t="n"/>
       <c r="E12" s="76" t="n"/>
       <c r="F12" s="151" t="n"/>
       <c r="G12" s="152" t="n"/>
@@ -11388,7 +11305,7 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="13" s="244">
-      <c r="A13" s="284">
+      <c r="A13" s="273">
         <f>J12</f>
         <v/>
       </c>
@@ -11402,7 +11319,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="289">
+      <c r="D13" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11427,7 +11344,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
@@ -11441,7 +11358,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11463,10 +11380,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
@@ -11480,7 +11397,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -11500,10 +11417,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
@@ -11517,7 +11434,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -11537,10 +11454,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
@@ -11554,7 +11471,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -11578,10 +11495,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
@@ -11595,7 +11512,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11616,7 +11533,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
@@ -11630,7 +11547,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11651,18 +11568,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="302" t="inlineStr">
+      <c r="A20" s="282" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="303" t="n"/>
-      <c r="C20" s="303" t="n"/>
-      <c r="D20" s="303" t="n"/>
-      <c r="E20" s="303" t="n"/>
-      <c r="F20" s="303" t="n"/>
-      <c r="G20" s="303" t="n"/>
-      <c r="H20" s="304" t="n"/>
+      <c r="B20" s="263" t="n"/>
+      <c r="C20" s="263" t="n"/>
+      <c r="D20" s="263" t="n"/>
+      <c r="E20" s="263" t="n"/>
+      <c r="F20" s="263" t="n"/>
+      <c r="G20" s="263" t="n"/>
+      <c r="H20" s="264" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -11672,7 +11589,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -11686,7 +11603,7 @@
           <t>主题介绍 &amp; 即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -11711,7 +11628,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
@@ -11725,7 +11642,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -11758,7 +11675,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
@@ -11772,7 +11689,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11795,7 +11712,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
@@ -11809,7 +11726,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11832,18 +11749,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="302" t="inlineStr">
+      <c r="A25" s="282" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="303" t="n"/>
-      <c r="C25" s="303" t="n"/>
-      <c r="D25" s="303" t="n"/>
-      <c r="E25" s="303" t="n"/>
-      <c r="F25" s="303" t="n"/>
-      <c r="G25" s="303" t="n"/>
-      <c r="H25" s="304" t="n"/>
+      <c r="B25" s="263" t="n"/>
+      <c r="C25" s="263" t="n"/>
+      <c r="D25" s="263" t="n"/>
+      <c r="E25" s="263" t="n"/>
+      <c r="F25" s="263" t="n"/>
+      <c r="G25" s="263" t="n"/>
+      <c r="H25" s="264" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -11852,10 +11769,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -11869,7 +11786,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11891,10 +11808,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
@@ -11909,7 +11826,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="301">
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -11941,10 +11858,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="284">
+      <c r="A28" s="273">
         <f>J27</f>
         <v/>
       </c>
@@ -11958,7 +11875,7 @@
           <t>介绍二号备稿演讲者</t>
         </is>
       </c>
-      <c r="D28" s="296">
+      <c r="D28" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11980,10 +11897,10 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="29" s="244" thickBot="1">
-      <c r="A29" s="284">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
@@ -11998,7 +11915,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D29" s="301">
+      <c r="D29" s="288">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -12030,31 +11947,31 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244" thickBot="1">
-      <c r="A30" s="302" t="inlineStr">
+      <c r="A30" s="282" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B30" s="303" t="n"/>
-      <c r="C30" s="303" t="n"/>
-      <c r="D30" s="303" t="n"/>
-      <c r="E30" s="303" t="n"/>
-      <c r="F30" s="303" t="n"/>
-      <c r="G30" s="303" t="n"/>
-      <c r="H30" s="304" t="n"/>
+      <c r="B30" s="263" t="n"/>
+      <c r="C30" s="263" t="n"/>
+      <c r="D30" s="263" t="n"/>
+      <c r="E30" s="263" t="n"/>
+      <c r="F30" s="263" t="n"/>
+      <c r="G30" s="263" t="n"/>
+      <c r="H30" s="264" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J27+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="244">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -12068,7 +11985,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D31" s="296">
+      <c r="D31" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12090,10 +12007,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="249" t="n"/>
+      <c r="L31" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244">
-      <c r="A32" s="284">
+      <c r="A32" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -12107,11 +12024,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D32" s="296">
+      <c r="D32" s="283">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="313" t="inlineStr">
+      <c r="E32" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -12133,10 +12050,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="249" t="n"/>
+      <c r="L32" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J31</f>
         <v/>
       </c>
@@ -12150,11 +12067,11 @@
           <t>点评二号备稿演讲</t>
         </is>
       </c>
-      <c r="D33" s="296">
+      <c r="D33" s="283">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="313" t="inlineStr">
+      <c r="E33" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -12176,10 +12093,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="249" t="n"/>
+      <c r="L33" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="34" s="244">
-      <c r="A34" s="284">
+      <c r="A34" s="273">
         <f>J33</f>
         <v/>
       </c>
@@ -12193,7 +12110,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D34" s="289">
+      <c r="D34" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -12217,10 +12134,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="314" t="n"/>
+      <c r="L34" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
@@ -12234,7 +12151,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D35" s="289">
+      <c r="D35" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -12260,10 +12177,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="314" t="n"/>
+      <c r="L35" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="284">
+      <c r="A36" s="273">
         <f>J35</f>
         <v/>
       </c>
@@ -12277,7 +12194,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D36" s="289">
+      <c r="D36" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -12301,10 +12218,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="314" t="n"/>
+      <c r="L36" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="37" s="244">
-      <c r="A37" s="284">
+      <c r="A37" s="273">
         <f>J36</f>
         <v/>
       </c>
@@ -12318,7 +12235,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D37" s="289">
+      <c r="D37" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -12338,10 +12255,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="314" t="n"/>
+      <c r="L37" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="284">
+      <c r="A38" s="273">
         <f>J37</f>
         <v/>
       </c>
@@ -12355,7 +12272,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D38" s="289">
+      <c r="D38" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12387,24 +12304,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="314" t="n"/>
+      <c r="L38" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244">
-      <c r="A39" s="284">
+      <c r="A39" s="273">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="290" t="inlineStr">
+      <c r="B39" s="279" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C39" s="287" t="inlineStr">
+      <c r="C39" s="276" t="inlineStr">
         <is>
           <t>总结 &amp; 会议结束致辞</t>
         </is>
       </c>
-      <c r="D39" s="289">
+      <c r="D39" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -12436,24 +12353,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="314" t="n"/>
+      <c r="L39" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="40" s="244" thickBot="1">
-      <c r="A40" s="315">
+      <c r="A40" s="291">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="316" t="inlineStr">
+      <c r="B40" s="292" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C40" s="317" t="inlineStr">
+      <c r="C40" s="293" t="inlineStr">
         <is>
           <t>颁奖</t>
         </is>
       </c>
-      <c r="D40" s="289">
+      <c r="D40" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -12478,14 +12395,14 @@
       <c r="L40" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="244">
-      <c r="A41" s="318" t="n"/>
-      <c r="B41" s="319" t="n"/>
-      <c r="C41" s="319" t="n"/>
-      <c r="D41" s="319" t="n"/>
+      <c r="A41" s="294" t="n"/>
+      <c r="B41" s="246" t="n"/>
+      <c r="C41" s="246" t="n"/>
+      <c r="D41" s="246" t="n"/>
       <c r="E41" s="243" t="n"/>
-      <c r="F41" s="320" t="n"/>
-      <c r="G41" s="321" t="n"/>
-      <c r="H41" s="322" t="n"/>
+      <c r="F41" s="295" t="n"/>
+      <c r="G41" s="296" t="n"/>
+      <c r="H41" s="297" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
@@ -12500,14 +12417,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D42" s="324" t="n"/>
+      <c r="D42" s="299" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="325" t="inlineStr">
+      <c r="J42" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="326" t="n"/>
+      <c r="K42" s="301" t="n"/>
       <c r="L42" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="244">
@@ -12521,91 +12438,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="325" t="n"/>
+      <c r="J43" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="328" t="n"/>
+      <c r="A44" s="303" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="329" t="n"/>
-      <c r="E44" s="330" t="n"/>
-      <c r="F44" s="330" t="n"/>
-      <c r="G44" s="330" t="n"/>
-      <c r="H44" s="330" t="n"/>
+      <c r="D44" s="304" t="n"/>
+      <c r="E44" s="305" t="n"/>
+      <c r="F44" s="305" t="n"/>
+      <c r="G44" s="305" t="n"/>
+      <c r="H44" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="328" t="n"/>
+      <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
       <c r="C45" s="243" t="n"/>
-      <c r="D45" s="329" t="n"/>
-      <c r="F45" s="330" t="n"/>
-      <c r="G45" s="330" t="n"/>
-      <c r="H45" s="330" t="n"/>
+      <c r="D45" s="304" t="n"/>
+      <c r="F45" s="305" t="n"/>
+      <c r="G45" s="305" t="n"/>
+      <c r="H45" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="244">
-      <c r="A46" s="328" t="n"/>
+      <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
       <c r="C46" s="243" t="n"/>
-      <c r="D46" s="331" t="n"/>
-      <c r="E46" s="332" t="n"/>
-      <c r="F46" s="333" t="n"/>
-      <c r="G46" s="334" t="n"/>
+      <c r="D46" s="306" t="n"/>
+      <c r="E46" s="307" t="n"/>
+      <c r="F46" s="308" t="n"/>
+      <c r="G46" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="335" t="n"/>
-      <c r="E47" s="336" t="n"/>
+      <c r="D47" s="310" t="n"/>
+      <c r="E47" s="311" t="n"/>
       <c r="L47" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
-      <c r="D48" s="335" t="n"/>
-      <c r="E48" s="336" t="n"/>
+      <c r="D48" s="310" t="n"/>
+      <c r="E48" s="311" t="n"/>
       <c r="L48" s="186" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
-      <c r="D49" s="335" t="n"/>
-      <c r="E49" s="336" t="n"/>
+      <c r="D49" s="310" t="n"/>
+      <c r="E49" s="311" t="n"/>
       <c r="L49" s="186" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
       <c r="C50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
       <c r="L50" s="186" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="L51" s="186" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="243" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="L52" s="186" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="186" t="n"/>
@@ -12615,11 +12532,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="237" t="n"/>
-      <c r="D55" s="335" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="D55" s="310" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="186" t="n"/>
@@ -12629,11 +12546,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="186" t="n"/>
@@ -12643,11 +12560,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="186" t="n"/>
@@ -12657,11 +12574,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="186" t="n"/>
@@ -12671,11 +12588,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="186" t="n"/>
@@ -12685,11 +12602,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="186" t="n"/>
@@ -12699,11 +12616,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="186" t="n"/>
@@ -12713,11 +12630,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="186" t="n"/>
@@ -12727,11 +12644,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
-      <c r="D63" s="335" t="n"/>
-      <c r="E63" s="336" t="n"/>
+      <c r="D63" s="310" t="n"/>
+      <c r="E63" s="311" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="186" t="n"/>
@@ -12741,11 +12658,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
-      <c r="D64" s="335" t="n"/>
-      <c r="E64" s="336" t="n"/>
+      <c r="D64" s="310" t="n"/>
+      <c r="E64" s="311" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="186" t="n"/>
@@ -12755,11 +12672,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="335" t="n"/>
-      <c r="E65" s="336" t="n"/>
+      <c r="D65" s="310" t="n"/>
+      <c r="E65" s="311" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="186" t="n"/>
@@ -12769,7 +12686,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -12783,7 +12700,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
       <c r="D67" s="238" t="n"/>
@@ -12797,7 +12714,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
       <c r="D68" s="238" t="n"/>
@@ -12811,7 +12728,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -12825,7 +12742,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="237">
-      <c r="A70" s="328" t="n"/>
+      <c r="A70" s="303" t="n"/>
       <c r="D70" s="238" t="n"/>
       <c r="E70" s="239" t="n"/>
       <c r="F70" s="240" t="n"/>
@@ -12837,7 +12754,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="237">
-      <c r="A71" s="328" t="n"/>
+      <c r="A71" s="303" t="n"/>
       <c r="D71" s="238" t="n"/>
       <c r="E71" s="239" t="n"/>
       <c r="F71" s="240" t="n"/>
@@ -12849,7 +12766,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="237">
-      <c r="A72" s="328" t="n"/>
+      <c r="A72" s="303" t="n"/>
       <c r="D72" s="238" t="n"/>
       <c r="E72" s="239" t="n"/>
       <c r="F72" s="240" t="n"/>
@@ -13772,12 +13689,12 @@
       </c>
       <c r="B4" s="370" t="inlineStr">
         <is>
-          <t>Kay</t>
+          <t>Elliot Zhang</t>
         </is>
       </c>
       <c r="C4" s="370" t="inlineStr">
         <is>
-          <t>Level2-1</t>
+          <t>Level1-2-2</t>
         </is>
       </c>
       <c r="D4" s="370" t="inlineStr"/>
@@ -14084,10 +14001,14 @@
       </c>
       <c r="B5" s="370" t="inlineStr">
         <is>
-          <t>Madision</t>
-        </is>
-      </c>
-      <c r="C5" s="370" t="inlineStr"/>
+          <t>Alicia Guo</t>
+        </is>
+      </c>
+      <c r="C5" s="370" t="inlineStr">
+        <is>
+          <t>CC5</t>
+        </is>
+      </c>
       <c r="D5" s="370" t="inlineStr"/>
       <c r="E5" s="370">
         <f>IFERROR(VLOOKUP($B16,$A$24:$D$61,4,FALSE),"")</f>
@@ -14392,10 +14313,14 @@
       </c>
       <c r="B6" s="370" t="inlineStr">
         <is>
-          <t>Raymond Lu</t>
-        </is>
-      </c>
-      <c r="C6" s="370" t="inlineStr"/>
+          <t>Elliot Zhang</t>
+        </is>
+      </c>
+      <c r="C6" s="370" t="inlineStr">
+        <is>
+          <t>Level1-2-2</t>
+        </is>
+      </c>
       <c r="D6" s="370" t="inlineStr"/>
       <c r="E6" s="370">
         <f>IFERROR(VLOOKUP($B17,$A$24:$D$61,4,FALSE),"")</f>
@@ -14701,19 +14626,11 @@
       </c>
       <c r="B7" s="370" t="inlineStr">
         <is>
-          <t>Harper</t>
-        </is>
-      </c>
-      <c r="C7" s="370" t="inlineStr">
-        <is>
-          <t>AC3</t>
-        </is>
-      </c>
-      <c r="D7" s="370" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="C7" s="370" t="inlineStr"/>
+      <c r="D7" s="370" t="inlineStr"/>
       <c r="E7" s="370">
         <f>IFERROR(VLOOKUP($B18,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -15914,7 +15831,7 @@
       </c>
       <c r="B11" s="387" t="inlineStr">
         <is>
-          <t>Bonnie Wang</t>
+          <t>Bill Lin</t>
         </is>
       </c>
       <c r="C11" s="387" t="inlineStr">
@@ -16235,7 +16152,7 @@
       </c>
       <c r="B12" s="387" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Marrisa</t>
         </is>
       </c>
       <c r="C12" s="387" t="inlineStr"/>
@@ -16978,11 +16895,19 @@
       </c>
       <c r="B16" s="370" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C16" s="370" t="inlineStr"/>
-      <c r="D16" s="370" t="inlineStr"/>
+          <t>Bill Lin</t>
+        </is>
+      </c>
+      <c r="C16" s="370" t="inlineStr">
+        <is>
+          <t>ACS13</t>
+        </is>
+      </c>
+      <c r="D16" s="370" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E16" s="370">
         <f>IFERROR(VLOOKUP($B27,$A$24:$D$61,4,FALSE),"")</f>
         <v/>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -4970,7 +4970,11 @@
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="300" t="inlineStr"/>
+      <c r="C27" s="300" t="inlineStr">
+        <is>
+          <t>Kids know everything</t>
+        </is>
+      </c>
       <c r="D27" s="301">
         <f>Roles!B11</f>
         <v/>
@@ -14084,11 +14088,19 @@
       </c>
       <c r="B5" s="370" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C5" s="370" t="inlineStr"/>
-      <c r="D5" s="370" t="inlineStr"/>
+          <t>Bill Lin</t>
+        </is>
+      </c>
+      <c r="C5" s="370" t="inlineStr">
+        <is>
+          <t>Level1-1</t>
+        </is>
+      </c>
+      <c r="D5" s="370" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E5" s="370">
         <f>IFERROR(VLOOKUP($B16,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -14705,10 +14717,14 @@
       </c>
       <c r="B7" s="370" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C7" s="370" t="inlineStr"/>
+          <t>Elliot Zhang</t>
+        </is>
+      </c>
+      <c r="C7" s="370" t="inlineStr">
+        <is>
+          <t>Level1-2-2</t>
+        </is>
+      </c>
       <c r="D7" s="370" t="inlineStr"/>
       <c r="E7" s="370">
         <f>IFERROR(VLOOKUP($B18,$A$24:$D$61,4,FALSE),"")</f>
@@ -15009,11 +15025,19 @@
       </c>
       <c r="B8" s="370" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C8" s="370" t="inlineStr"/>
-      <c r="D8" s="370" t="inlineStr"/>
+          <t>Bonnie Wang</t>
+        </is>
+      </c>
+      <c r="C8" s="370" t="inlineStr">
+        <is>
+          <t>Level1-2-2</t>
+        </is>
+      </c>
+      <c r="D8" s="370" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E8" s="370">
         <f>IFERROR(VLOOKUP($B19,$A$24:$D$61,4,FALSE),"")</f>
         <v/>
@@ -16666,11 +16690,19 @@
       </c>
       <c r="B15" s="370" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C15" s="370" t="inlineStr"/>
-      <c r="D15" s="370" t="inlineStr"/>
+          <t>Bonnie Wang</t>
+        </is>
+      </c>
+      <c r="C15" s="370" t="inlineStr">
+        <is>
+          <t>Level1-2-2</t>
+        </is>
+      </c>
+      <c r="D15" s="370" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
       <c r="E15" s="370">
         <f>IFERROR(VLOOKUP($B26,$A$24:$D$61,4,FALSE),"")</f>
         <v/>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -13776,12 +13776,12 @@
       </c>
       <c r="B4" s="370" t="inlineStr">
         <is>
-          <t>Davie</t>
+          <t>Elliot Zhang</t>
         </is>
       </c>
       <c r="C4" s="370" t="inlineStr">
         <is>
-          <t>Level3-3-2</t>
+          <t>Level1-2-2</t>
         </is>
       </c>
       <c r="D4" s="370" t="inlineStr"/>

--- a/agenda_generator/output/agenda.xlsx
+++ b/agenda_generator/output/agenda.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17640" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17640" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda-1" sheetId="1" state="visible" r:id="rId1"/>
@@ -598,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="110">
+  <borders count="109">
     <border>
       <left/>
       <right/>
@@ -1808,21 +1808,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color theme="0" tint="-0.1499374370555742"/>
       </right>
       <top style="medium">
@@ -1893,10 +1878,10 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color rgb="00000000"/>
@@ -2969,6 +2954,183 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="67" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="68" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="69" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="76" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2977,9 +3139,6 @@
     <xf applyAlignment="1" borderId="78" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="79" fillId="0" fontId="21" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
@@ -3009,16 +3168,6 @@
     <xf borderId="88" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="67" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="64" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="68" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="69" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="95" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3030,57 +3179,6 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="5" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="6" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="95" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3090,144 +3188,31 @@
     <xf applyAlignment="1" borderId="96" fillId="0" fontId="23" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="21" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="103" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="109" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="105" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="17" numFmtId="18" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="105" fillId="0" fontId="20" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="20" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="106" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="106" fillId="0" fontId="13" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="107" fillId="0" fontId="14" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="108" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="20" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="24" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="25" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="47" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="48" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="46" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="18" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="65" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="66" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="60" fillId="3" fontId="19" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="29" fillId="0" fontId="21" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
+    <xf applyAlignment="1" borderId="107" fillId="0" fontId="15" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="20">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="50" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="20">
@@ -3806,7 +3791,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>41</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2057400" cy="2057400"/>
@@ -4175,7 +4160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4217,139 +4202,125 @@
       <c r="F1" s="246" t="n"/>
       <c r="G1" s="246" t="n"/>
       <c r="H1" s="246" t="n"/>
-      <c r="I1" s="246" t="n"/>
-      <c r="J1" s="247" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="248" t="inlineStr">
+      <c r="A2" s="247" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="250" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="251" t="inlineStr">
+      <c r="A3" s="249" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="B3" s="252" t="n"/>
-      <c r="C3" s="252" t="n"/>
-      <c r="D3" s="252" t="n"/>
-      <c r="E3" s="252" t="n"/>
-      <c r="F3" s="252" t="n"/>
-      <c r="G3" s="252" t="n"/>
-      <c r="H3" s="252" t="n"/>
-      <c r="I3" s="253" t="n"/>
-      <c r="J3" s="254" t="n"/>
+      <c r="I3" s="250" t="n"/>
+      <c r="J3" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="255" t="inlineStr">
+      <c r="A4" s="251" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="256" t="inlineStr">
+      <c r="B4" s="252" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="246" t="n"/>
-      <c r="D4" s="246" t="n"/>
-      <c r="E4" s="246" t="n"/>
-      <c r="F4" s="246" t="n"/>
-      <c r="G4" s="246" t="n"/>
-      <c r="H4" s="257" t="n"/>
-      <c r="I4" s="258" t="n"/>
-      <c r="J4" s="259" t="n"/>
+      <c r="C4" s="253" t="n"/>
+      <c r="D4" s="253" t="n"/>
+      <c r="E4" s="253" t="n"/>
+      <c r="F4" s="253" t="n"/>
+      <c r="G4" s="253" t="n"/>
+      <c r="H4" s="254" t="n"/>
+      <c r="I4" s="248" t="n"/>
+      <c r="J4" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="260" t="n"/>
-      <c r="B5" s="261" t="n"/>
-      <c r="C5" s="252" t="n"/>
-      <c r="D5" s="252" t="n"/>
-      <c r="E5" s="252" t="n"/>
-      <c r="F5" s="252" t="n"/>
-      <c r="G5" s="252" t="n"/>
-      <c r="H5" s="262" t="n"/>
-      <c r="I5" s="253" t="n"/>
-      <c r="J5" s="254" t="n"/>
+      <c r="A5" s="255" t="n"/>
+      <c r="B5" s="256" t="n"/>
+      <c r="H5" s="257" t="n"/>
+      <c r="I5" s="250" t="n"/>
+      <c r="J5" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="263" t="n"/>
-      <c r="B6" s="264" t="n"/>
-      <c r="H6" s="265" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="A6" s="255" t="n"/>
+      <c r="B6" s="256" t="n"/>
+      <c r="H6" s="257" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="267" t="n"/>
-      <c r="B7" s="268" t="n"/>
-      <c r="C7" s="269" t="n"/>
-      <c r="D7" s="269" t="n"/>
-      <c r="E7" s="269" t="n"/>
-      <c r="F7" s="269" t="n"/>
-      <c r="G7" s="269" t="n"/>
-      <c r="H7" s="270" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="A7" s="258" t="n"/>
+      <c r="B7" s="259" t="n"/>
+      <c r="C7" s="260" t="n"/>
+      <c r="D7" s="260" t="n"/>
+      <c r="E7" s="260" t="n"/>
+      <c r="F7" s="260" t="n"/>
+      <c r="G7" s="260" t="n"/>
+      <c r="H7" s="261" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="271" t="inlineStr">
-        <is>
-          <t>Theme Today: Entertainment During Mid-autumn Festival &amp; National Holiday</t>
-        </is>
-      </c>
-      <c r="B8" s="272" t="n"/>
-      <c r="C8" s="272" t="n"/>
-      <c r="D8" s="272" t="n"/>
-      <c r="E8" s="272" t="n"/>
-      <c r="F8" s="272" t="n"/>
-      <c r="G8" s="272" t="n"/>
-      <c r="H8" s="273" t="n"/>
-      <c r="I8" s="274" t="n"/>
-      <c r="J8" s="275" t="n"/>
+      <c r="A8" s="262" t="inlineStr">
+        <is>
+          <t>Theme Today: sleepless in seattle</t>
+        </is>
+      </c>
+      <c r="B8" s="263" t="n"/>
+      <c r="C8" s="263" t="n"/>
+      <c r="D8" s="263" t="n"/>
+      <c r="E8" s="263" t="n"/>
+      <c r="F8" s="263" t="n"/>
+      <c r="G8" s="263" t="n"/>
+      <c r="H8" s="264" t="n"/>
+      <c r="I8" s="250" t="n"/>
+      <c r="J8" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="276" t="inlineStr">
+      <c r="A9" s="265" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="277" t="inlineStr">
+      <c r="B9" s="266" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="278" t="inlineStr">
+      <c r="C9" s="267" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -4362,21 +4333,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="285" t="inlineStr">
+      <c r="B10" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="285" t="inlineStr">
+      <c r="C10" s="274" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4395,21 +4366,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="287" t="inlineStr">
+      <c r="B11" s="276" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C11" s="288" t="inlineStr">
+      <c r="C11" s="277" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4436,21 +4407,21 @@
       </c>
     </row>
     <row customHeight="1" ht="23.25" r="12" s="244">
-      <c r="A12" s="284">
+      <c r="A12" s="273">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="285" t="inlineStr">
+      <c r="B12" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="290" t="inlineStr">
+      <c r="C12" s="279" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="289">
+      <c r="D12" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -4481,10 +4452,10 @@
       </c>
     </row>
     <row customHeight="1" hidden="1" ht="4.5" r="13" s="244">
-      <c r="A13" s="284" t="n"/>
-      <c r="B13" s="287" t="n"/>
-      <c r="C13" s="287" t="n"/>
-      <c r="D13" s="289" t="n"/>
+      <c r="A13" s="273" t="n"/>
+      <c r="B13" s="276" t="n"/>
+      <c r="C13" s="276" t="n"/>
+      <c r="D13" s="278" t="n"/>
       <c r="E13" s="76" t="n"/>
       <c r="F13" s="151" t="n"/>
       <c r="G13" s="152" t="n"/>
@@ -4498,21 +4469,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="287" t="inlineStr">
+      <c r="B14" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="287" t="inlineStr">
+      <c r="C14" s="276" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4534,24 +4505,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="287" t="inlineStr">
+      <c r="B15" s="276" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="287" t="inlineStr">
+      <c r="C15" s="276" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -4571,24 +4542,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="287" t="inlineStr">
+      <c r="B16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="287" t="inlineStr">
+      <c r="C16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -4608,24 +4579,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="287" t="inlineStr">
+      <c r="B17" s="276" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="287" t="inlineStr">
+      <c r="C17" s="276" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -4649,24 +4620,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="287" t="inlineStr">
+      <c r="B18" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="287" t="inlineStr">
+      <c r="C18" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -4687,11 +4658,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="292" t="inlineStr">
+      <c r="B19" s="281" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -4701,7 +4672,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4722,28 +4693,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="293" t="inlineStr">
+      <c r="A20" s="282" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="272" t="n"/>
-      <c r="C20" s="272" t="n"/>
-      <c r="D20" s="272" t="n"/>
-      <c r="E20" s="272" t="n"/>
-      <c r="F20" s="272" t="n"/>
-      <c r="G20" s="272" t="n"/>
-      <c r="H20" s="273" t="n"/>
-      <c r="I20" s="294" t="n">
+      <c r="B20" s="263" t="n"/>
+      <c r="C20" s="263" t="n"/>
+      <c r="D20" s="263" t="n"/>
+      <c r="E20" s="263" t="n"/>
+      <c r="F20" s="263" t="n"/>
+      <c r="G20" s="263" t="n"/>
+      <c r="H20" s="264" t="n"/>
+      <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="295">
+      <c r="J20" s="36">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -4757,7 +4728,7 @@
           <t>Theme Introduction &amp; Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -4782,21 +4753,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="290" t="inlineStr">
+      <c r="B22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="290" t="inlineStr">
+      <c r="C22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -4829,21 +4800,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="290" t="inlineStr">
+      <c r="B23" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="287" t="inlineStr">
+      <c r="C23" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4866,17 +4837,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="298" t="inlineStr">
+      <c r="B24" s="285" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4899,30 +4870,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="293" t="inlineStr">
+      <c r="A25" s="282" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="272" t="n"/>
-      <c r="C25" s="272" t="n"/>
-      <c r="D25" s="272" t="n"/>
-      <c r="E25" s="272" t="n"/>
-      <c r="F25" s="272" t="n"/>
-      <c r="G25" s="272" t="n"/>
-      <c r="H25" s="273" t="n"/>
-      <c r="I25" s="294" t="n">
+      <c r="B25" s="263" t="n"/>
+      <c r="C25" s="263" t="n"/>
+      <c r="D25" s="263" t="n"/>
+      <c r="E25" s="263" t="n"/>
+      <c r="F25" s="263" t="n"/>
+      <c r="G25" s="263" t="n"/>
+      <c r="H25" s="264" t="n"/>
+      <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="295">
+      <c r="J25" s="36">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -4936,7 +4907,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -4958,115 +4929,119 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="287" t="inlineStr">
+      <c r="B27" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="300" t="inlineStr">
-        <is>
-          <t>Kids know everything</t>
-        </is>
-      </c>
-      <c r="D27" s="301">
+      <c r="C27" s="287" t="inlineStr">
+        <is>
+          <t>Ice Breaker</t>
+        </is>
+      </c>
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
       <c r="E27" s="72" t="inlineStr">
         <is>
-          <t>4-6</t>
-        </is>
-      </c>
-      <c r="F27" s="103" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" s="104" t="n">
-        <v>5</v>
-      </c>
-      <c r="H27" s="105" t="n">
-        <v>6</v>
-      </c>
-      <c r="I27" s="37" t="inlineStr">
-        <is>
-          <t>0:06</t>
-        </is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="F27" s="103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G27" s="104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H27" s="105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I27" s="37" t="n">
+        <v>0.004861111111111111</v>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244" thickBot="1">
-      <c r="A28" s="302" t="inlineStr">
+      <c r="A28" s="282" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B28" s="303" t="n"/>
-      <c r="C28" s="303" t="n"/>
-      <c r="D28" s="303" t="n"/>
-      <c r="E28" s="303" t="n"/>
-      <c r="F28" s="303" t="n"/>
-      <c r="G28" s="303" t="n"/>
-      <c r="H28" s="304" t="n"/>
+      <c r="B28" s="263" t="n"/>
+      <c r="C28" s="263" t="n"/>
+      <c r="D28" s="263" t="n"/>
+      <c r="E28" s="263" t="n"/>
+      <c r="F28" s="263" t="n"/>
+      <c r="G28" s="263" t="n"/>
+      <c r="H28" s="264" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="244">
-      <c r="A29" s="305">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="306" t="inlineStr">
+      <c r="B29" s="24" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C29" s="307" t="inlineStr">
+      <c r="C29" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D29" s="308">
+      <c r="D29" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
-      <c r="E29" s="309" t="n">
+      <c r="E29" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="310" t="n"/>
-      <c r="G29" s="311" t="n">
+      <c r="F29" s="148" t="n"/>
+      <c r="G29" s="149" t="n">
         <v>0.5</v>
       </c>
-      <c r="H29" s="312" t="n">
+      <c r="H29" s="150" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="294" t="n">
+      <c r="I29" s="37" t="n">
         <v>1.000694444444445</v>
       </c>
-      <c r="J29" s="295">
+      <c r="J29" s="36">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244">
-      <c r="A30" s="284">
+      <c r="A30" s="273">
         <f>J29</f>
         <v/>
       </c>
@@ -5080,11 +5055,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D30" s="296">
+      <c r="D30" s="283">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="313" t="inlineStr">
+      <c r="E30" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -5106,10 +5081,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="1.5" r="31" s="244">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -5123,7 +5098,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D31" s="289">
+      <c r="D31" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -5147,10 +5122,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="314" t="n"/>
+      <c r="L31" s="290" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="24" r="32" s="244">
-      <c r="A32" s="284">
+      <c r="A32" s="273">
         <f>J31</f>
         <v/>
       </c>
@@ -5164,7 +5139,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D32" s="289">
+      <c r="D32" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -5190,10 +5165,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="314" t="n"/>
+      <c r="L32" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J32</f>
         <v/>
       </c>
@@ -5207,7 +5182,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D33" s="289">
+      <c r="D33" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -5231,13 +5206,13 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="314" t="n"/>
+      <c r="L33" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="34" s="244">
-      <c r="A34" s="284" t="n"/>
-      <c r="B34" s="285" t="n"/>
+      <c r="A34" s="273" t="n"/>
+      <c r="B34" s="274" t="n"/>
       <c r="C34" s="157" t="n"/>
-      <c r="D34" s="289" t="n"/>
+      <c r="D34" s="278" t="n"/>
       <c r="E34" s="76" t="n"/>
       <c r="F34" s="151" t="n"/>
       <c r="G34" s="152" t="n"/>
@@ -5250,24 +5225,24 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="314" t="n"/>
+      <c r="L34" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
-      <c r="B35" s="287" t="inlineStr">
+      <c r="B35" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C35" s="287" t="inlineStr">
+      <c r="C35" s="276" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D35" s="289">
+      <c r="D35" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -5299,24 +5274,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="314" t="n"/>
+      <c r="L35" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244" thickBot="1">
-      <c r="A36" s="315">
+      <c r="A36" s="291">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="290" t="inlineStr">
+      <c r="B36" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C36" s="287" t="inlineStr">
+      <c r="C36" s="276" t="inlineStr">
         <is>
           <t>Conclusion &amp; Meeting Closing</t>
         </is>
       </c>
-      <c r="D36" s="289">
+      <c r="D36" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -5348,13 +5323,13 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="314" t="n"/>
+      <c r="L36" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="37" s="244" thickBot="1">
-      <c r="A37" s="315" t="n"/>
-      <c r="B37" s="316" t="n"/>
-      <c r="C37" s="317" t="n"/>
-      <c r="D37" s="289" t="n"/>
+      <c r="A37" s="291" t="n"/>
+      <c r="B37" s="292" t="n"/>
+      <c r="C37" s="293" t="n"/>
+      <c r="D37" s="278" t="n"/>
       <c r="E37" s="71" t="n"/>
       <c r="F37" s="109" t="n"/>
       <c r="G37" s="110" t="n"/>
@@ -5365,21 +5340,21 @@
       <c r="L37" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="244">
-      <c r="A38" s="318" t="n"/>
-      <c r="B38" s="319" t="n"/>
-      <c r="C38" s="319" t="n"/>
-      <c r="D38" s="319" t="n"/>
+      <c r="A38" s="294" t="n"/>
+      <c r="B38" s="246" t="n"/>
+      <c r="C38" s="246" t="n"/>
+      <c r="D38" s="246" t="n"/>
       <c r="E38" s="243" t="n"/>
-      <c r="F38" s="320" t="n"/>
-      <c r="G38" s="321" t="n"/>
-      <c r="H38" s="322" t="n"/>
+      <c r="F38" s="295" t="n"/>
+      <c r="G38" s="296" t="n"/>
+      <c r="H38" s="297" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
       <c r="L38" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="39" s="244">
-      <c r="A39" s="323" t="inlineStr">
+      <c r="A39" s="298" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -5389,18 +5364,18 @@
 </t>
         </is>
       </c>
-      <c r="D39" s="324" t="n"/>
+      <c r="D39" s="299" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="325" t="inlineStr">
+      <c r="J39" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="326" t="n"/>
+      <c r="K39" s="301" t="n"/>
       <c r="L39" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="244">
-      <c r="A40" s="327" t="inlineStr">
+      <c r="A40" s="302" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -5411,91 +5386,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="325" t="n"/>
+      <c r="J40" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="244">
-      <c r="A41" s="328" t="n"/>
+      <c r="A41" s="303" t="n"/>
       <c r="B41" s="243" t="n"/>
-      <c r="D41" s="329" t="n"/>
-      <c r="E41" s="330" t="n"/>
-      <c r="F41" s="330" t="n"/>
-      <c r="G41" s="330" t="n"/>
-      <c r="H41" s="330" t="n"/>
+      <c r="D41" s="304" t="n"/>
+      <c r="E41" s="305" t="n"/>
+      <c r="F41" s="305" t="n"/>
+      <c r="G41" s="305" t="n"/>
+      <c r="H41" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="244">
-      <c r="A42" s="328" t="n"/>
+      <c r="A42" s="303" t="n"/>
       <c r="B42" s="243" t="n"/>
       <c r="C42" s="243" t="n"/>
-      <c r="D42" s="329" t="n"/>
-      <c r="F42" s="330" t="n"/>
-      <c r="G42" s="330" t="n"/>
-      <c r="H42" s="330" t="n"/>
+      <c r="D42" s="304" t="n"/>
+      <c r="F42" s="305" t="n"/>
+      <c r="G42" s="305" t="n"/>
+      <c r="H42" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="244">
-      <c r="A43" s="328" t="n"/>
+      <c r="A43" s="303" t="n"/>
       <c r="B43" s="243" t="n"/>
       <c r="C43" s="243" t="n"/>
-      <c r="D43" s="331" t="n"/>
-      <c r="E43" s="332" t="n"/>
-      <c r="F43" s="333" t="n"/>
-      <c r="G43" s="334" t="n"/>
+      <c r="D43" s="306" t="n"/>
+      <c r="E43" s="307" t="n"/>
+      <c r="F43" s="308" t="n"/>
+      <c r="G43" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="328" t="n"/>
+      <c r="A44" s="303" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="335" t="n"/>
-      <c r="E44" s="336" t="n"/>
+      <c r="D44" s="310" t="n"/>
+      <c r="E44" s="311" t="n"/>
       <c r="L44" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="328" t="n"/>
+      <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
-      <c r="D45" s="335" t="n"/>
-      <c r="E45" s="336" t="n"/>
+      <c r="D45" s="310" t="n"/>
+      <c r="E45" s="311" t="n"/>
       <c r="L45" s="186" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="328" t="n"/>
+      <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
-      <c r="D46" s="335" t="n"/>
-      <c r="E46" s="336" t="n"/>
+      <c r="D46" s="310" t="n"/>
+      <c r="E46" s="311" t="n"/>
       <c r="L46" s="186" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
       <c r="C47" s="243" t="n"/>
-      <c r="D47" s="335" t="n"/>
-      <c r="E47" s="336" t="n"/>
+      <c r="D47" s="310" t="n"/>
+      <c r="E47" s="311" t="n"/>
       <c r="L47" s="186" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="335" t="n"/>
-      <c r="E48" s="336" t="n"/>
+      <c r="D48" s="310" t="n"/>
+      <c r="E48" s="311" t="n"/>
       <c r="L48" s="186" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="E49" s="336" t="n"/>
+      <c r="E49" s="311" t="n"/>
       <c r="L49" s="186" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
     </row>
     <row customFormat="1" r="51" s="240">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="G51" s="241" t="n"/>
       <c r="H51" s="242" t="n"/>
       <c r="I51" s="186" t="n"/>
@@ -5505,11 +5480,11 @@
       <c r="M51" s="243" t="n"/>
     </row>
     <row customFormat="1" r="52" s="240">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="237" t="n"/>
-      <c r="D52" s="335" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="D52" s="310" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="G52" s="241" t="n"/>
       <c r="H52" s="242" t="n"/>
       <c r="I52" s="186" t="n"/>
@@ -5519,11 +5494,11 @@
       <c r="M52" s="243" t="n"/>
     </row>
     <row customFormat="1" r="53" s="240">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
       <c r="G53" s="241" t="n"/>
       <c r="H53" s="242" t="n"/>
       <c r="I53" s="186" t="n"/>
@@ -5533,11 +5508,11 @@
       <c r="M53" s="243" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="186" t="n"/>
@@ -5547,11 +5522,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="D55" s="335" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="D55" s="310" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="186" t="n"/>
@@ -5561,11 +5536,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="186" t="n"/>
@@ -5575,11 +5550,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="186" t="n"/>
@@ -5589,11 +5564,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="186" t="n"/>
@@ -5603,11 +5578,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="237" t="n"/>
       <c r="C59" s="237" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="186" t="n"/>
@@ -5617,11 +5592,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="237" t="n"/>
       <c r="C60" s="237" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="186" t="n"/>
@@ -5631,11 +5606,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="237" t="n"/>
       <c r="C61" s="237" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="186" t="n"/>
@@ -5645,11 +5620,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="186" t="n"/>
@@ -5659,7 +5634,7 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
       <c r="D63" s="238" t="n"/>
@@ -5673,7 +5648,7 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
       <c r="D64" s="238" t="n"/>
@@ -5687,7 +5662,7 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
       <c r="D65" s="238" t="n"/>
@@ -5701,7 +5676,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -5715,7 +5690,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="237">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="D67" s="238" t="n"/>
       <c r="E67" s="239" t="n"/>
       <c r="F67" s="240" t="n"/>
@@ -5727,7 +5702,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="237">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="D68" s="238" t="n"/>
       <c r="E68" s="239" t="n"/>
       <c r="F68" s="240" t="n"/>
@@ -5739,7 +5714,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="237">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="D69" s="238" t="n"/>
       <c r="E69" s="239" t="n"/>
       <c r="F69" s="240" t="n"/>
@@ -5770,12 +5745,11 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5805,137 +5779,151 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="337" t="inlineStr">
+      <c r="A1" s="312" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="319" t="n"/>
-      <c r="C1" s="319" t="n"/>
-      <c r="D1" s="319" t="n"/>
-      <c r="E1" s="319" t="n"/>
-      <c r="F1" s="319" t="n"/>
-      <c r="G1" s="319" t="n"/>
-      <c r="H1" s="319" t="n"/>
+      <c r="B1" s="313" t="n"/>
+      <c r="C1" s="313" t="n"/>
+      <c r="D1" s="313" t="n"/>
+      <c r="E1" s="313" t="n"/>
+      <c r="F1" s="313" t="n"/>
+      <c r="G1" s="313" t="n"/>
+      <c r="H1" s="313" t="n"/>
+      <c r="I1" s="313" t="n"/>
+      <c r="J1" s="314" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="338" t="inlineStr">
+      <c r="A2" s="315" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="249" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="316" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="339" t="inlineStr">
+      <c r="A3" s="317" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="266" t="n"/>
-      <c r="J3" s="266" t="n"/>
+      <c r="B3" s="318" t="n"/>
+      <c r="C3" s="318" t="n"/>
+      <c r="D3" s="318" t="n"/>
+      <c r="E3" s="318" t="n"/>
+      <c r="F3" s="318" t="n"/>
+      <c r="G3" s="318" t="n"/>
+      <c r="H3" s="318" t="n"/>
+      <c r="I3" s="319" t="n"/>
+      <c r="J3" s="320" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="340" t="inlineStr">
+      <c r="A4" s="321" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="341" t="inlineStr">
+      <c r="B4" s="322" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="342" t="n"/>
-      <c r="D4" s="342" t="n"/>
-      <c r="E4" s="342" t="n"/>
-      <c r="F4" s="342" t="n"/>
-      <c r="G4" s="342" t="n"/>
-      <c r="H4" s="343" t="n"/>
-      <c r="I4" s="249" t="n"/>
-      <c r="J4" s="249" t="n"/>
+      <c r="C4" s="313" t="n"/>
+      <c r="D4" s="313" t="n"/>
+      <c r="E4" s="313" t="n"/>
+      <c r="F4" s="313" t="n"/>
+      <c r="G4" s="313" t="n"/>
+      <c r="H4" s="323" t="n"/>
+      <c r="I4" s="324" t="n"/>
+      <c r="J4" s="325" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="263" t="n"/>
-      <c r="B5" s="264" t="n"/>
-      <c r="H5" s="265" t="n"/>
-      <c r="I5" s="266" t="n"/>
-      <c r="J5" s="266" t="n"/>
+      <c r="A5" s="326" t="n"/>
+      <c r="B5" s="327" t="n"/>
+      <c r="C5" s="318" t="n"/>
+      <c r="D5" s="318" t="n"/>
+      <c r="E5" s="318" t="n"/>
+      <c r="F5" s="318" t="n"/>
+      <c r="G5" s="318" t="n"/>
+      <c r="H5" s="328" t="n"/>
+      <c r="I5" s="319" t="n"/>
+      <c r="J5" s="320" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="263" t="n"/>
-      <c r="B6" s="264" t="n"/>
-      <c r="H6" s="265" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="A6" s="255" t="n"/>
+      <c r="B6" s="256" t="n"/>
+      <c r="H6" s="257" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="267" t="n"/>
-      <c r="B7" s="268" t="n"/>
-      <c r="C7" s="269" t="n"/>
-      <c r="D7" s="269" t="n"/>
-      <c r="E7" s="269" t="n"/>
-      <c r="F7" s="269" t="n"/>
-      <c r="G7" s="269" t="n"/>
-      <c r="H7" s="270" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="A7" s="258" t="n"/>
+      <c r="B7" s="259" t="n"/>
+      <c r="C7" s="260" t="n"/>
+      <c r="D7" s="260" t="n"/>
+      <c r="E7" s="260" t="n"/>
+      <c r="F7" s="260" t="n"/>
+      <c r="G7" s="260" t="n"/>
+      <c r="H7" s="261" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="344" t="inlineStr">
-        <is>
-          <t>Theme Today: sleepless in seattle</t>
-        </is>
-      </c>
-      <c r="B8" s="303" t="n"/>
-      <c r="C8" s="303" t="n"/>
-      <c r="D8" s="303" t="n"/>
-      <c r="E8" s="303" t="n"/>
-      <c r="F8" s="303" t="n"/>
-      <c r="G8" s="303" t="n"/>
-      <c r="H8" s="304" t="n"/>
-      <c r="I8" s="266" t="n"/>
-      <c r="J8" s="266" t="n"/>
+      <c r="A8" s="329" t="inlineStr">
+        <is>
+          <t>Theme Today: super daddy</t>
+        </is>
+      </c>
+      <c r="B8" s="330" t="n"/>
+      <c r="C8" s="330" t="n"/>
+      <c r="D8" s="330" t="n"/>
+      <c r="E8" s="330" t="n"/>
+      <c r="F8" s="330" t="n"/>
+      <c r="G8" s="330" t="n"/>
+      <c r="H8" s="331" t="n"/>
+      <c r="I8" s="332" t="n"/>
+      <c r="J8" s="333" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="276" t="inlineStr">
+      <c r="A9" s="265" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="277" t="inlineStr">
+      <c r="B9" s="266" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="278" t="inlineStr">
+      <c r="C9" s="267" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -5948,21 +5936,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="285" t="inlineStr">
+      <c r="B10" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="285" t="inlineStr">
+      <c r="C10" s="274" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -5981,21 +5969,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="287" t="inlineStr">
+      <c r="B11" s="276" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="288" t="inlineStr">
+      <c r="C11" s="277" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -6022,21 +6010,21 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="12" s="244">
-      <c r="A12" s="284">
+      <c r="A12" s="273">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="285" t="inlineStr">
+      <c r="B12" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="290" t="inlineStr">
+      <c r="C12" s="279" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="289">
+      <c r="D12" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -6067,21 +6055,21 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="13" s="244">
-      <c r="A13" s="284">
+      <c r="A13" s="273">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="287" t="inlineStr">
+      <c r="B13" s="276" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="287" t="inlineStr">
+      <c r="C13" s="276" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="289">
+      <c r="D13" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6106,21 +6094,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="287" t="inlineStr">
+      <c r="B14" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="287" t="inlineStr">
+      <c r="C14" s="276" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6142,24 +6130,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="287" t="inlineStr">
+      <c r="B15" s="276" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="287" t="inlineStr">
+      <c r="C15" s="276" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6179,24 +6167,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="287" t="inlineStr">
+      <c r="B16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="287" t="inlineStr">
+      <c r="C16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6216,24 +6204,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="24" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="287" t="inlineStr">
+      <c r="B17" s="276" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="287" t="inlineStr">
+      <c r="C17" s="276" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6257,24 +6245,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="287" t="inlineStr">
+      <c r="B18" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="287" t="inlineStr">
+      <c r="C18" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6295,11 +6283,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="292" t="inlineStr">
+      <c r="B19" s="281" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -6309,7 +6297,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6330,28 +6318,28 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="302" t="inlineStr">
+      <c r="A20" s="334" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="303" t="n"/>
-      <c r="C20" s="303" t="n"/>
-      <c r="D20" s="303" t="n"/>
-      <c r="E20" s="303" t="n"/>
-      <c r="F20" s="303" t="n"/>
-      <c r="G20" s="303" t="n"/>
-      <c r="H20" s="304" t="n"/>
-      <c r="I20" s="37" t="n">
+      <c r="B20" s="330" t="n"/>
+      <c r="C20" s="330" t="n"/>
+      <c r="D20" s="330" t="n"/>
+      <c r="E20" s="330" t="n"/>
+      <c r="F20" s="330" t="n"/>
+      <c r="G20" s="330" t="n"/>
+      <c r="H20" s="331" t="n"/>
+      <c r="I20" s="335" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="336">
         <f>J19+I20</f>
         <v/>
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -6365,7 +6353,7 @@
           <t>Theme introduction &amp; Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -6390,21 +6378,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="290" t="inlineStr">
+      <c r="B22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="290" t="inlineStr">
+      <c r="C22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -6437,21 +6425,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="290" t="inlineStr">
+      <c r="B23" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="287" t="inlineStr">
+      <c r="C23" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6474,17 +6462,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="298" t="inlineStr">
+      <c r="B24" s="285" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6507,30 +6495,30 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="302" t="inlineStr">
+      <c r="A25" s="334" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="303" t="n"/>
-      <c r="C25" s="303" t="n"/>
-      <c r="D25" s="303" t="n"/>
-      <c r="E25" s="303" t="n"/>
-      <c r="F25" s="303" t="n"/>
-      <c r="G25" s="303" t="n"/>
-      <c r="H25" s="304" t="n"/>
-      <c r="I25" s="37" t="n">
+      <c r="B25" s="330" t="n"/>
+      <c r="C25" s="330" t="n"/>
+      <c r="D25" s="330" t="n"/>
+      <c r="E25" s="330" t="n"/>
+      <c r="F25" s="330" t="n"/>
+      <c r="G25" s="330" t="n"/>
+      <c r="H25" s="331" t="n"/>
+      <c r="I25" s="335" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="336">
         <f>J24+I25</f>
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -6544,7 +6532,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6566,24 +6554,24 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="287" t="inlineStr">
+      <c r="B27" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="300" t="inlineStr">
-        <is>
-          <t>Ice Breaker</t>
-        </is>
-      </c>
-      <c r="D27" s="301">
+      <c r="C27" s="287" t="inlineStr">
+        <is>
+          <t>Some reading thoughts about“Principles”</t>
+        </is>
+      </c>
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -6592,33 +6580,29 @@
           <t>5-7</t>
         </is>
       </c>
-      <c r="F27" s="103" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G27" s="104" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H27" s="105" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I27" s="37" t="n">
-        <v>0.004861111111111111</v>
+      <c r="F27" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="104" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" s="105" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" s="37" t="inlineStr">
+        <is>
+          <t>0:07</t>
+        </is>
       </c>
       <c r="J27" s="36">
         <f>J26+I27</f>
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="284">
+      <c r="A28" s="273">
         <f>J27</f>
         <v/>
       </c>
@@ -6632,7 +6616,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="301">
+      <c r="D28" s="288">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -6654,24 +6638,24 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="29" s="244" thickBot="1">
-      <c r="A29" s="284">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="287" t="inlineStr">
+      <c r="B29" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="300" t="inlineStr">
-        <is>
-          <t>Rice's Speech</t>
-        </is>
-      </c>
-      <c r="D29" s="345">
+      <c r="C29" s="287" t="inlineStr">
+        <is>
+          <t>look up</t>
+        </is>
+      </c>
+      <c r="D29" s="337">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -6680,54 +6664,50 @@
           <t>5-7</t>
         </is>
       </c>
-      <c r="F29" s="103" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G29" s="104" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H29" s="105" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I29" s="37" t="n">
-        <v>0.004861111111111111</v>
+      <c r="F29" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="104" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" s="105" t="n">
+        <v>7</v>
+      </c>
+      <c r="I29" s="37" t="inlineStr">
+        <is>
+          <t>0:07</t>
+        </is>
       </c>
       <c r="J29" s="36">
         <f>J28+I29</f>
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244" thickBot="1">
-      <c r="A30" s="302" t="inlineStr">
+      <c r="A30" s="282" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B30" s="303" t="n"/>
-      <c r="C30" s="303" t="n"/>
-      <c r="D30" s="303" t="n"/>
-      <c r="E30" s="303" t="n"/>
-      <c r="F30" s="303" t="n"/>
-      <c r="G30" s="303" t="n"/>
-      <c r="H30" s="304" t="n"/>
+      <c r="B30" s="263" t="n"/>
+      <c r="C30" s="263" t="n"/>
+      <c r="D30" s="263" t="n"/>
+      <c r="E30" s="263" t="n"/>
+      <c r="F30" s="263" t="n"/>
+      <c r="G30" s="263" t="n"/>
+      <c r="H30" s="264" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J29+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="244">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -6741,7 +6721,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D31" s="296">
+      <c r="D31" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -6763,53 +6743,53 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="249" t="n"/>
+      <c r="L31" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244">
-      <c r="A32" s="284">
+      <c r="A32" s="338">
         <f>J31</f>
         <v/>
       </c>
-      <c r="B32" s="55" t="inlineStr">
+      <c r="B32" s="339" t="inlineStr">
         <is>
           <t>Evaluator1</t>
         </is>
       </c>
-      <c r="C32" s="56" t="inlineStr">
+      <c r="C32" s="340" t="inlineStr">
         <is>
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D32" s="296">
+      <c r="D32" s="341">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="313" t="inlineStr">
+      <c r="E32" s="342" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
       </c>
-      <c r="F32" s="151" t="n">
+      <c r="F32" s="343" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="152" t="n">
+      <c r="G32" s="344" t="n">
         <v>2.5</v>
       </c>
-      <c r="H32" s="153" t="n">
+      <c r="H32" s="345" t="n">
         <v>3</v>
       </c>
-      <c r="I32" s="37" t="n">
+      <c r="I32" s="335" t="n">
         <v>0.002083333333333333</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="336">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="249" t="n"/>
+      <c r="L32" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J32</f>
         <v/>
       </c>
@@ -6823,11 +6803,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D33" s="296">
+      <c r="D33" s="283">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="313" t="inlineStr">
+      <c r="E33" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -6849,10 +6829,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="249" t="n"/>
+      <c r="L33" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="34" s="244">
-      <c r="A34" s="284">
+      <c r="A34" s="273">
         <f>J33</f>
         <v/>
       </c>
@@ -6866,7 +6846,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D34" s="289">
+      <c r="D34" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -6890,10 +6870,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="314" t="n"/>
+      <c r="L34" s="290" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="24" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
@@ -6907,7 +6887,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D35" s="289">
+      <c r="D35" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -6933,10 +6913,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="314" t="n"/>
+      <c r="L35" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="284">
+      <c r="A36" s="273">
         <f>J35</f>
         <v/>
       </c>
@@ -6950,7 +6930,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D36" s="289">
+      <c r="D36" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -6974,14 +6954,14 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="314" t="n"/>
+      <c r="L36" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="37" s="244">
-      <c r="A37" s="284">
+      <c r="A37" s="273">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="285" t="inlineStr">
+      <c r="B37" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -6991,7 +6971,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D37" s="289">
+      <c r="D37" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7011,24 +6991,24 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="314" t="n"/>
+      <c r="L37" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="284">
+      <c r="A38" s="273">
         <f>J37</f>
         <v/>
       </c>
-      <c r="B38" s="287" t="inlineStr">
+      <c r="B38" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C38" s="287" t="inlineStr">
+      <c r="C38" s="276" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D38" s="289">
+      <c r="D38" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7060,24 +7040,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="314" t="n"/>
+      <c r="L38" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244" thickBot="1">
-      <c r="A39" s="315">
+      <c r="A39" s="291">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="290" t="inlineStr">
+      <c r="B39" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C39" s="287" t="inlineStr">
+      <c r="C39" s="276" t="inlineStr">
         <is>
           <t>Conclusion &amp; Meeting Closing</t>
         </is>
       </c>
-      <c r="D39" s="289">
+      <c r="D39" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7109,24 +7089,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="314" t="n"/>
+      <c r="L39" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="40" s="244" thickBot="1">
-      <c r="A40" s="315">
+      <c r="A40" s="291">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="316" t="inlineStr">
+      <c r="B40" s="292" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C40" s="317" t="inlineStr">
+      <c r="C40" s="293" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D40" s="289">
+      <c r="D40" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7151,21 +7131,21 @@
       <c r="L40" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="244">
-      <c r="A41" s="318" t="n"/>
-      <c r="B41" s="319" t="n"/>
-      <c r="C41" s="319" t="n"/>
-      <c r="D41" s="319" t="n"/>
+      <c r="A41" s="294" t="n"/>
+      <c r="B41" s="246" t="n"/>
+      <c r="C41" s="246" t="n"/>
+      <c r="D41" s="246" t="n"/>
       <c r="E41" s="243" t="n"/>
-      <c r="F41" s="320" t="n"/>
-      <c r="G41" s="321" t="n"/>
-      <c r="H41" s="322" t="n"/>
+      <c r="F41" s="295" t="n"/>
+      <c r="G41" s="296" t="n"/>
+      <c r="H41" s="297" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
       <c r="L41" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="42" s="244">
-      <c r="A42" s="323" t="inlineStr">
+      <c r="A42" s="298" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -7175,18 +7155,18 @@
 </t>
         </is>
       </c>
-      <c r="D42" s="324" t="n"/>
+      <c r="D42" s="299" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="325" t="inlineStr">
+      <c r="J42" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="326" t="n"/>
+      <c r="K42" s="301" t="n"/>
       <c r="L42" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="244">
-      <c r="A43" s="327" t="inlineStr">
+      <c r="A43" s="302" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -7197,91 +7177,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="325" t="n"/>
+      <c r="J43" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="328" t="n"/>
+      <c r="A44" s="303" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="329" t="n"/>
-      <c r="E44" s="330" t="n"/>
-      <c r="F44" s="330" t="n"/>
-      <c r="G44" s="330" t="n"/>
-      <c r="H44" s="330" t="n"/>
+      <c r="D44" s="304" t="n"/>
+      <c r="E44" s="305" t="n"/>
+      <c r="F44" s="305" t="n"/>
+      <c r="G44" s="305" t="n"/>
+      <c r="H44" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="328" t="n"/>
+      <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
       <c r="C45" s="243" t="n"/>
-      <c r="D45" s="329" t="n"/>
-      <c r="F45" s="330" t="n"/>
-      <c r="G45" s="330" t="n"/>
-      <c r="H45" s="330" t="n"/>
+      <c r="D45" s="304" t="n"/>
+      <c r="F45" s="305" t="n"/>
+      <c r="G45" s="305" t="n"/>
+      <c r="H45" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="244">
-      <c r="A46" s="328" t="n"/>
+      <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
       <c r="C46" s="243" t="n"/>
-      <c r="D46" s="331" t="n"/>
-      <c r="E46" s="332" t="n"/>
-      <c r="F46" s="333" t="n"/>
-      <c r="G46" s="334" t="n"/>
+      <c r="D46" s="306" t="n"/>
+      <c r="E46" s="307" t="n"/>
+      <c r="F46" s="308" t="n"/>
+      <c r="G46" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="335" t="n"/>
-      <c r="E47" s="336" t="n"/>
+      <c r="D47" s="310" t="n"/>
+      <c r="E47" s="311" t="n"/>
       <c r="L47" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
-      <c r="D48" s="335" t="n"/>
-      <c r="E48" s="336" t="n"/>
+      <c r="D48" s="310" t="n"/>
+      <c r="E48" s="311" t="n"/>
       <c r="L48" s="186" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
-      <c r="D49" s="335" t="n"/>
-      <c r="E49" s="336" t="n"/>
+      <c r="D49" s="310" t="n"/>
+      <c r="E49" s="311" t="n"/>
       <c r="L49" s="186" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
       <c r="C50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
       <c r="L50" s="186" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="L51" s="186" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="243" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="L52" s="186" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="186" t="n"/>
@@ -7291,11 +7271,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="237" t="n"/>
-      <c r="D55" s="335" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="D55" s="310" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="186" t="n"/>
@@ -7305,11 +7285,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="186" t="n"/>
@@ -7319,11 +7299,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="186" t="n"/>
@@ -7333,11 +7313,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="186" t="n"/>
@@ -7347,11 +7327,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="186" t="n"/>
@@ -7361,11 +7341,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="186" t="n"/>
@@ -7375,11 +7355,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="186" t="n"/>
@@ -7389,11 +7369,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="186" t="n"/>
@@ -7403,11 +7383,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
-      <c r="D63" s="335" t="n"/>
-      <c r="E63" s="336" t="n"/>
+      <c r="D63" s="310" t="n"/>
+      <c r="E63" s="311" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="186" t="n"/>
@@ -7417,11 +7397,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
-      <c r="D64" s="335" t="n"/>
-      <c r="E64" s="336" t="n"/>
+      <c r="D64" s="310" t="n"/>
+      <c r="E64" s="311" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="186" t="n"/>
@@ -7431,11 +7411,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="335" t="n"/>
-      <c r="E65" s="336" t="n"/>
+      <c r="D65" s="310" t="n"/>
+      <c r="E65" s="311" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="186" t="n"/>
@@ -7445,7 +7425,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -7459,7 +7439,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
       <c r="D67" s="238" t="n"/>
@@ -7473,7 +7453,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
       <c r="D68" s="238" t="n"/>
@@ -7487,7 +7467,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -7501,7 +7481,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="237">
-      <c r="A70" s="328" t="n"/>
+      <c r="A70" s="303" t="n"/>
       <c r="D70" s="238" t="n"/>
       <c r="E70" s="239" t="n"/>
       <c r="F70" s="240" t="n"/>
@@ -7513,7 +7493,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="237">
-      <c r="A71" s="328" t="n"/>
+      <c r="A71" s="303" t="n"/>
       <c r="D71" s="238" t="n"/>
       <c r="E71" s="239" t="n"/>
       <c r="F71" s="240" t="n"/>
@@ -7525,7 +7505,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="237">
-      <c r="A72" s="328" t="n"/>
+      <c r="A72" s="303" t="n"/>
       <c r="D72" s="238" t="n"/>
       <c r="E72" s="239" t="n"/>
       <c r="F72" s="240" t="n"/>
@@ -7556,6 +7536,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" scale="50"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7590,137 +7571,137 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="337" t="inlineStr">
+      <c r="A1" s="245" t="inlineStr">
         <is>
           <t>Welcome to Microsoft Beijing Toastmasters Club</t>
         </is>
       </c>
-      <c r="B1" s="319" t="n"/>
-      <c r="C1" s="319" t="n"/>
-      <c r="D1" s="319" t="n"/>
-      <c r="E1" s="319" t="n"/>
-      <c r="F1" s="319" t="n"/>
-      <c r="G1" s="319" t="n"/>
-      <c r="H1" s="319" t="n"/>
+      <c r="B1" s="246" t="n"/>
+      <c r="C1" s="246" t="n"/>
+      <c r="D1" s="246" t="n"/>
+      <c r="E1" s="246" t="n"/>
+      <c r="F1" s="246" t="n"/>
+      <c r="G1" s="246" t="n"/>
+      <c r="H1" s="246" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
-      <c r="A2" s="338" t="inlineStr">
+      <c r="A2" s="247" t="inlineStr">
         <is>
           <t>Time: 19:00~21:00, every Wednesday night</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="249" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
-      <c r="A3" s="339" t="inlineStr">
+      <c r="A3" s="249" t="inlineStr">
         <is>
           <t>Venue: Room Gu Gong, F1, Microsoft Build 1, Danling St. Zhongguancun West Zone Haidian Dist.</t>
         </is>
       </c>
-      <c r="I3" s="266" t="n"/>
-      <c r="J3" s="266" t="n"/>
+      <c r="I3" s="250" t="n"/>
+      <c r="J3" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
-      <c r="A4" s="340" t="inlineStr">
+      <c r="A4" s="251" t="inlineStr">
         <is>
           <t>Mission</t>
         </is>
       </c>
-      <c r="B4" s="341" t="inlineStr">
+      <c r="B4" s="252" t="inlineStr">
         <is>
           <t>We provide a supportive and positive learning experience in which members are empowered to develop communication and leadership skills, resulting in greater self-confidence and personal growth.</t>
         </is>
       </c>
-      <c r="C4" s="342" t="n"/>
-      <c r="D4" s="342" t="n"/>
-      <c r="E4" s="342" t="n"/>
-      <c r="F4" s="342" t="n"/>
-      <c r="G4" s="342" t="n"/>
-      <c r="H4" s="343" t="n"/>
-      <c r="I4" s="249" t="n"/>
-      <c r="J4" s="249" t="n"/>
+      <c r="C4" s="253" t="n"/>
+      <c r="D4" s="253" t="n"/>
+      <c r="E4" s="253" t="n"/>
+      <c r="F4" s="253" t="n"/>
+      <c r="G4" s="253" t="n"/>
+      <c r="H4" s="254" t="n"/>
+      <c r="I4" s="248" t="n"/>
+      <c r="J4" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
-      <c r="A5" s="263" t="n"/>
-      <c r="B5" s="264" t="n"/>
-      <c r="H5" s="265" t="n"/>
-      <c r="I5" s="266" t="n"/>
-      <c r="J5" s="266" t="n"/>
+      <c r="A5" s="255" t="n"/>
+      <c r="B5" s="256" t="n"/>
+      <c r="H5" s="257" t="n"/>
+      <c r="I5" s="250" t="n"/>
+      <c r="J5" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
-      <c r="A6" s="263" t="n"/>
-      <c r="B6" s="264" t="n"/>
-      <c r="H6" s="265" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="A6" s="255" t="n"/>
+      <c r="B6" s="256" t="n"/>
+      <c r="H6" s="257" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
-      <c r="A7" s="267" t="n"/>
-      <c r="B7" s="268" t="n"/>
-      <c r="C7" s="269" t="n"/>
-      <c r="D7" s="269" t="n"/>
-      <c r="E7" s="269" t="n"/>
-      <c r="F7" s="269" t="n"/>
-      <c r="G7" s="269" t="n"/>
-      <c r="H7" s="270" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="A7" s="258" t="n"/>
+      <c r="B7" s="259" t="n"/>
+      <c r="C7" s="260" t="n"/>
+      <c r="D7" s="260" t="n"/>
+      <c r="E7" s="260" t="n"/>
+      <c r="F7" s="260" t="n"/>
+      <c r="G7" s="260" t="n"/>
+      <c r="H7" s="261" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="344" t="inlineStr">
+      <c r="A8" s="262" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="303" t="n"/>
-      <c r="C8" s="303" t="n"/>
-      <c r="D8" s="303" t="n"/>
-      <c r="E8" s="303" t="n"/>
-      <c r="F8" s="303" t="n"/>
-      <c r="G8" s="303" t="n"/>
-      <c r="H8" s="304" t="n"/>
-      <c r="I8" s="266" t="n"/>
-      <c r="J8" s="266" t="n"/>
+      <c r="B8" s="263" t="n"/>
+      <c r="C8" s="263" t="n"/>
+      <c r="D8" s="263" t="n"/>
+      <c r="E8" s="263" t="n"/>
+      <c r="F8" s="263" t="n"/>
+      <c r="G8" s="263" t="n"/>
+      <c r="H8" s="264" t="n"/>
+      <c r="I8" s="250" t="n"/>
+      <c r="J8" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
-      <c r="A9" s="276" t="inlineStr">
+      <c r="A9" s="265" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B9" s="277" t="inlineStr">
+      <c r="B9" s="266" t="inlineStr">
         <is>
           <t>Meeting Role</t>
         </is>
       </c>
-      <c r="C9" s="278" t="inlineStr">
+      <c r="C9" s="267" t="inlineStr">
         <is>
           <t>Program Event</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>Member</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -7733,21 +7714,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
-      <c r="B10" s="285" t="inlineStr">
+      <c r="B10" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C10" s="285" t="inlineStr">
+      <c r="C10" s="274" t="inlineStr">
         <is>
           <t>Registration/Greeting</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7766,21 +7747,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
-      <c r="B11" s="287" t="inlineStr">
+      <c r="B11" s="276" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C11" s="288" t="inlineStr">
+      <c r="C11" s="277" t="inlineStr">
         <is>
           <t>Meeting Opening &amp; Welcome Guests  (20s/P)</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -7807,21 +7788,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="12" s="244">
-      <c r="A12" s="284">
+      <c r="A12" s="273">
         <f>J11</f>
         <v/>
       </c>
-      <c r="B12" s="285" t="inlineStr">
+      <c r="B12" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
       </c>
-      <c r="C12" s="290" t="inlineStr">
+      <c r="C12" s="279" t="inlineStr">
         <is>
           <t>Welcome Guests</t>
         </is>
       </c>
-      <c r="D12" s="289">
+      <c r="D12" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -7852,21 +7833,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="13" s="244">
-      <c r="A13" s="284">
+      <c r="A13" s="273">
         <f>J12</f>
         <v/>
       </c>
-      <c r="B13" s="287" t="inlineStr">
+      <c r="B13" s="276" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C13" s="287" t="inlineStr">
+      <c r="C13" s="276" t="inlineStr">
         <is>
           <t>Today's Theme, Program and Introduction of Evaluator Roles</t>
         </is>
       </c>
-      <c r="D13" s="289">
+      <c r="D13" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -7891,21 +7872,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
-      <c r="B14" s="287" t="inlineStr">
+      <c r="B14" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C14" s="287" t="inlineStr">
+      <c r="C14" s="276" t="inlineStr">
         <is>
           <t>Evaluation Team: Purposes and Members</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -7927,24 +7908,24 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
-      <c r="B15" s="287" t="inlineStr">
+      <c r="B15" s="276" t="inlineStr">
         <is>
           <t>Timer</t>
         </is>
       </c>
-      <c r="C15" s="287" t="inlineStr">
+      <c r="C15" s="276" t="inlineStr">
         <is>
           <t>Timing Guidelines</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -7964,24 +7945,24 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
-      <c r="B16" s="287" t="inlineStr">
+      <c r="B16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter</t>
         </is>
       </c>
-      <c r="C16" s="287" t="inlineStr">
+      <c r="C16" s="276" t="inlineStr">
         <is>
           <t>Ah-Counter Guidelines</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -8001,24 +7982,24 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
-      <c r="B17" s="287" t="inlineStr">
+      <c r="B17" s="276" t="inlineStr">
         <is>
           <t>WordSmith</t>
         </is>
       </c>
-      <c r="C17" s="287" t="inlineStr">
+      <c r="C17" s="276" t="inlineStr">
         <is>
           <t>WordSmith Guidelines</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -8042,24 +8023,24 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
-      <c r="B18" s="287" t="inlineStr">
+      <c r="B18" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C18" s="287" t="inlineStr">
+      <c r="C18" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8080,11 +8061,11 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
-      <c r="B19" s="292" t="inlineStr">
+      <c r="B19" s="281" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
@@ -8094,7 +8075,7 @@
           <t>Introduce The Table Topic Master</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8115,18 +8096,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="302" t="inlineStr">
+      <c r="A20" s="282" t="inlineStr">
         <is>
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="B20" s="303" t="n"/>
-      <c r="C20" s="303" t="n"/>
-      <c r="D20" s="303" t="n"/>
-      <c r="E20" s="303" t="n"/>
-      <c r="F20" s="303" t="n"/>
-      <c r="G20" s="303" t="n"/>
-      <c r="H20" s="304" t="n"/>
+      <c r="B20" s="263" t="n"/>
+      <c r="C20" s="263" t="n"/>
+      <c r="D20" s="263" t="n"/>
+      <c r="E20" s="263" t="n"/>
+      <c r="F20" s="263" t="n"/>
+      <c r="G20" s="263" t="n"/>
+      <c r="H20" s="264" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -8136,7 +8117,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -8150,7 +8131,7 @@
           <t>Table Topics Session</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -8175,21 +8156,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
-      <c r="B22" s="290" t="inlineStr">
+      <c r="B22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluator</t>
         </is>
       </c>
-      <c r="C22" s="290" t="inlineStr">
+      <c r="C22" s="279" t="inlineStr">
         <is>
           <t>Table Topics Evaluation</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -8222,21 +8203,21 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
-      <c r="B23" s="290" t="inlineStr">
+      <c r="B23" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C23" s="287" t="inlineStr">
+      <c r="C23" s="276" t="inlineStr">
         <is>
           <t>Return control to Toastmaster</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8259,17 +8240,17 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
-      <c r="B24" s="298" t="inlineStr">
+      <c r="B24" s="285" t="inlineStr">
         <is>
           <t>Break</t>
         </is>
       </c>
       <c r="C24" s="131" t="n"/>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8292,18 +8273,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="302" t="inlineStr">
+      <c r="A25" s="282" t="inlineStr">
         <is>
           <t>Prepared Speech Session</t>
         </is>
       </c>
-      <c r="B25" s="303" t="n"/>
-      <c r="C25" s="303" t="n"/>
-      <c r="D25" s="303" t="n"/>
-      <c r="E25" s="303" t="n"/>
-      <c r="F25" s="303" t="n"/>
-      <c r="G25" s="303" t="n"/>
-      <c r="H25" s="304" t="n"/>
+      <c r="B25" s="263" t="n"/>
+      <c r="C25" s="263" t="n"/>
+      <c r="D25" s="263" t="n"/>
+      <c r="E25" s="263" t="n"/>
+      <c r="F25" s="263" t="n"/>
+      <c r="G25" s="263" t="n"/>
+      <c r="H25" s="264" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -8312,10 +8293,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -8329,7 +8310,7 @@
           <t>Introduce the 1st speaker</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8351,24 +8332,24 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
-      <c r="B27" s="287" t="inlineStr">
+      <c r="B27" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker1</t>
         </is>
       </c>
-      <c r="C27" s="300" t="inlineStr">
+      <c r="C27" s="287" t="inlineStr">
         <is>
           <t>Ice Breaker</t>
         </is>
       </c>
-      <c r="D27" s="301">
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -8400,10 +8381,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="284">
+      <c r="A28" s="273">
         <f>J27</f>
         <v/>
       </c>
@@ -8417,7 +8398,7 @@
           <t>Introduce the 2nd Speaker</t>
         </is>
       </c>
-      <c r="D28" s="301">
+      <c r="D28" s="288">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8439,24 +8420,24 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="29" s="244">
-      <c r="A29" s="284">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
-      <c r="B29" s="287" t="inlineStr">
+      <c r="B29" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker2</t>
         </is>
       </c>
-      <c r="C29" s="300" t="inlineStr">
+      <c r="C29" s="287" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D29" s="345">
+      <c r="D29" s="337">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -8488,10 +8469,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="30" s="244">
-      <c r="A30" s="284">
+      <c r="A30" s="273">
         <f>J29</f>
         <v/>
       </c>
@@ -8505,7 +8486,7 @@
           <t>Introduce the 3nd Speaker</t>
         </is>
       </c>
-      <c r="D30" s="301">
+      <c r="D30" s="288">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -8527,24 +8508,24 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="18.75" r="31" s="244" thickBot="1">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
-      <c r="B31" s="287" t="inlineStr">
+      <c r="B31" s="276" t="inlineStr">
         <is>
           <t>Prepared Speaker3</t>
         </is>
       </c>
-      <c r="C31" s="300" t="inlineStr">
+      <c r="C31" s="287" t="inlineStr">
         <is>
           <t>Rice's Speech</t>
         </is>
       </c>
-      <c r="D31" s="345">
+      <c r="D31" s="337">
         <f>Roles!B13</f>
         <v/>
       </c>
@@ -8576,31 +8557,31 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="249" t="n"/>
+      <c r="L31" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244" thickBot="1">
-      <c r="A32" s="302" t="inlineStr">
+      <c r="A32" s="282" t="inlineStr">
         <is>
           <t>Evaluation Session</t>
         </is>
       </c>
-      <c r="B32" s="303" t="n"/>
-      <c r="C32" s="303" t="n"/>
-      <c r="D32" s="303" t="n"/>
-      <c r="E32" s="303" t="n"/>
-      <c r="F32" s="303" t="n"/>
-      <c r="G32" s="303" t="n"/>
-      <c r="H32" s="304" t="n"/>
+      <c r="B32" s="263" t="n"/>
+      <c r="C32" s="263" t="n"/>
+      <c r="D32" s="263" t="n"/>
+      <c r="E32" s="263" t="n"/>
+      <c r="F32" s="263" t="n"/>
+      <c r="G32" s="263" t="n"/>
+      <c r="H32" s="264" t="n"/>
       <c r="I32" s="37" t="n"/>
       <c r="J32" s="36">
         <f>J31+I32</f>
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="249" t="n"/>
+      <c r="L32" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J32</f>
         <v/>
       </c>
@@ -8614,7 +8595,7 @@
           <t xml:space="preserve">Evaluation Session </t>
         </is>
       </c>
-      <c r="D33" s="296">
+      <c r="D33" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8636,10 +8617,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="249" t="n"/>
+      <c r="L33" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="34" s="244">
-      <c r="A34" s="284">
+      <c r="A34" s="273">
         <f>J33</f>
         <v/>
       </c>
@@ -8653,11 +8634,11 @@
           <t>Evaluate the 1st speaker</t>
         </is>
       </c>
-      <c r="D34" s="296">
+      <c r="D34" s="283">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E34" s="313" t="inlineStr">
+      <c r="E34" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8679,10 +8660,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="249" t="n"/>
+      <c r="L34" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
@@ -8696,11 +8677,11 @@
           <t>Evaluate the 2nd speaker</t>
         </is>
       </c>
-      <c r="D35" s="296">
+      <c r="D35" s="283">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E35" s="313" t="inlineStr">
+      <c r="E35" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8722,10 +8703,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="249" t="n"/>
+      <c r="L35" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="284">
+      <c r="A36" s="273">
         <f>J35</f>
         <v/>
       </c>
@@ -8739,11 +8720,11 @@
           <t>Evaluate the 3rd speaker</t>
         </is>
       </c>
-      <c r="D36" s="296">
+      <c r="D36" s="283">
         <f>Roles!B17</f>
         <v/>
       </c>
-      <c r="E36" s="313" t="inlineStr">
+      <c r="E36" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -8765,10 +8746,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="249" t="n"/>
+      <c r="L36" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="37" s="244">
-      <c r="A37" s="284">
+      <c r="A37" s="273">
         <f>J36</f>
         <v/>
       </c>
@@ -8782,7 +8763,7 @@
           <t>Ah-Counter's report</t>
         </is>
       </c>
-      <c r="D37" s="289">
+      <c r="D37" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -8806,10 +8787,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="314" t="n"/>
+      <c r="L37" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="284">
+      <c r="A38" s="273">
         <f>J37</f>
         <v/>
       </c>
@@ -8823,7 +8804,7 @@
           <t>Word Smith's report</t>
         </is>
       </c>
-      <c r="D38" s="289">
+      <c r="D38" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -8849,10 +8830,10 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="314" t="n"/>
+      <c r="L38" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244">
-      <c r="A39" s="284">
+      <c r="A39" s="273">
         <f>J38</f>
         <v/>
       </c>
@@ -8866,7 +8847,7 @@
           <t>Timer's Report</t>
         </is>
       </c>
-      <c r="D39" s="289">
+      <c r="D39" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -8890,14 +8871,14 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="314" t="n"/>
+      <c r="L39" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="40" s="244">
-      <c r="A40" s="284">
+      <c r="A40" s="273">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="285" t="inlineStr">
+      <c r="B40" s="274" t="inlineStr">
         <is>
           <t>Sergeant at Arms (SAA)</t>
         </is>
@@ -8907,7 +8888,7 @@
           <t>Feedback &amp; Voting by scaning QR code</t>
         </is>
       </c>
-      <c r="D40" s="289">
+      <c r="D40" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -8927,24 +8908,24 @@
         <v/>
       </c>
       <c r="K40" s="36" t="n"/>
-      <c r="L40" s="314" t="n"/>
+      <c r="L40" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="41" s="244">
-      <c r="A41" s="284">
+      <c r="A41" s="273">
         <f>J40</f>
         <v/>
       </c>
-      <c r="B41" s="287" t="inlineStr">
+      <c r="B41" s="276" t="inlineStr">
         <is>
           <t>General Evaluator</t>
         </is>
       </c>
-      <c r="C41" s="287" t="inlineStr">
+      <c r="C41" s="276" t="inlineStr">
         <is>
           <t>General Evaluator's report</t>
         </is>
       </c>
-      <c r="D41" s="289">
+      <c r="D41" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -8976,24 +8957,24 @@
         <v/>
       </c>
       <c r="K41" s="36" t="n"/>
-      <c r="L41" s="314" t="n"/>
+      <c r="L41" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="42" s="244" thickBot="1">
-      <c r="A42" s="315">
+      <c r="A42" s="291">
         <f>J41</f>
         <v/>
       </c>
-      <c r="B42" s="290" t="inlineStr">
+      <c r="B42" s="279" t="inlineStr">
         <is>
           <t>Toastmaster</t>
         </is>
       </c>
-      <c r="C42" s="287" t="inlineStr">
+      <c r="C42" s="276" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="D42" s="289">
+      <c r="D42" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9025,24 +9006,24 @@
         <v/>
       </c>
       <c r="K42" s="36" t="n"/>
-      <c r="L42" s="314" t="n"/>
+      <c r="L42" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="43" s="244" thickBot="1">
-      <c r="A43" s="315">
+      <c r="A43" s="291">
         <f>J42</f>
         <v/>
       </c>
-      <c r="B43" s="316" t="inlineStr">
+      <c r="B43" s="292" t="inlineStr">
         <is>
           <t>President</t>
         </is>
       </c>
-      <c r="C43" s="317" t="inlineStr">
+      <c r="C43" s="293" t="inlineStr">
         <is>
           <t>Award and Meeting Closing</t>
         </is>
       </c>
-      <c r="D43" s="289">
+      <c r="D43" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -9067,21 +9048,21 @@
       <c r="L43" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="44" s="244">
-      <c r="A44" s="318" t="n"/>
-      <c r="B44" s="319" t="n"/>
-      <c r="C44" s="319" t="n"/>
-      <c r="D44" s="319" t="n"/>
+      <c r="A44" s="294" t="n"/>
+      <c r="B44" s="246" t="n"/>
+      <c r="C44" s="246" t="n"/>
+      <c r="D44" s="246" t="n"/>
       <c r="E44" s="243" t="n"/>
-      <c r="F44" s="320" t="n"/>
-      <c r="G44" s="321" t="n"/>
-      <c r="H44" s="322" t="n"/>
+      <c r="F44" s="295" t="n"/>
+      <c r="G44" s="296" t="n"/>
+      <c r="H44" s="297" t="n"/>
       <c r="I44" s="39" t="n"/>
       <c r="J44" s="39" t="n"/>
       <c r="K44" s="39" t="n"/>
       <c r="L44" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="101.25" r="45" s="244">
-      <c r="A45" s="323" t="inlineStr">
+      <c r="A45" s="298" t="inlineStr">
         <is>
           <t xml:space="preserve">How to join our club?
 Step 1: Inform our VPM asap, and attend at least three meetings of this Club as a guest.
@@ -9091,18 +9072,18 @@
 </t>
         </is>
       </c>
-      <c r="D45" s="324" t="n"/>
+      <c r="D45" s="299" t="n"/>
       <c r="I45" s="39" t="n"/>
-      <c r="J45" s="325" t="inlineStr">
+      <c r="J45" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K45" s="326" t="n"/>
+      <c r="K45" s="301" t="n"/>
       <c r="L45" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="46" s="244">
-      <c r="A46" s="327" t="inlineStr">
+      <c r="A46" s="302" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting Manners &amp; Etiquettes
 1. Mobile: Please turn mobile phone to vibration
@@ -9113,91 +9094,91 @@
         </is>
       </c>
       <c r="I46" s="39" t="n"/>
-      <c r="J46" s="325" t="n"/>
+      <c r="J46" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="329" t="n"/>
-      <c r="E47" s="330" t="n"/>
-      <c r="F47" s="330" t="n"/>
-      <c r="G47" s="330" t="n"/>
-      <c r="H47" s="330" t="n"/>
+      <c r="D47" s="304" t="n"/>
+      <c r="E47" s="305" t="n"/>
+      <c r="F47" s="305" t="n"/>
+      <c r="G47" s="305" t="n"/>
+      <c r="H47" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="329" t="n"/>
-      <c r="F48" s="330" t="n"/>
-      <c r="G48" s="330" t="n"/>
-      <c r="H48" s="330" t="n"/>
+      <c r="D48" s="304" t="n"/>
+      <c r="F48" s="305" t="n"/>
+      <c r="G48" s="305" t="n"/>
+      <c r="H48" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="49" s="244">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="D49" s="331" t="n"/>
-      <c r="E49" s="332" t="n"/>
-      <c r="F49" s="333" t="n"/>
-      <c r="G49" s="334" t="n"/>
+      <c r="D49" s="306" t="n"/>
+      <c r="E49" s="307" t="n"/>
+      <c r="F49" s="308" t="n"/>
+      <c r="G49" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="50" s="244">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
       <c r="L50" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="51" s="244">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="L51" s="186" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
-      <c r="D52" s="335" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="D52" s="310" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="L52" s="186" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
       <c r="L53" s="186" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="L54" s="186" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="L55" s="186" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="186" t="n"/>
@@ -9207,11 +9188,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="237" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="186" t="n"/>
@@ -9221,11 +9202,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="186" t="n"/>
@@ -9235,11 +9216,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="186" t="n"/>
@@ -9249,11 +9230,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="186" t="n"/>
@@ -9263,11 +9244,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="243" t="n"/>
       <c r="C62" s="243" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="186" t="n"/>
@@ -9277,11 +9258,11 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="243" t="n"/>
       <c r="C63" s="243" t="n"/>
-      <c r="D63" s="335" t="n"/>
-      <c r="E63" s="336" t="n"/>
+      <c r="D63" s="310" t="n"/>
+      <c r="E63" s="311" t="n"/>
       <c r="G63" s="241" t="n"/>
       <c r="H63" s="242" t="n"/>
       <c r="I63" s="186" t="n"/>
@@ -9291,11 +9272,11 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="243" t="n"/>
       <c r="C64" s="243" t="n"/>
-      <c r="D64" s="335" t="n"/>
-      <c r="E64" s="336" t="n"/>
+      <c r="D64" s="310" t="n"/>
+      <c r="E64" s="311" t="n"/>
       <c r="G64" s="241" t="n"/>
       <c r="H64" s="242" t="n"/>
       <c r="I64" s="186" t="n"/>
@@ -9305,11 +9286,11 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
-      <c r="D65" s="335" t="n"/>
-      <c r="E65" s="336" t="n"/>
+      <c r="D65" s="310" t="n"/>
+      <c r="E65" s="311" t="n"/>
       <c r="G65" s="241" t="n"/>
       <c r="H65" s="242" t="n"/>
       <c r="I65" s="186" t="n"/>
@@ -9319,11 +9300,11 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
-      <c r="D66" s="335" t="n"/>
-      <c r="E66" s="336" t="n"/>
+      <c r="D66" s="310" t="n"/>
+      <c r="E66" s="311" t="n"/>
       <c r="G66" s="241" t="n"/>
       <c r="H66" s="242" t="n"/>
       <c r="I66" s="186" t="n"/>
@@ -9333,11 +9314,11 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="240">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="B67" s="237" t="n"/>
       <c r="C67" s="237" t="n"/>
-      <c r="D67" s="335" t="n"/>
-      <c r="E67" s="336" t="n"/>
+      <c r="D67" s="310" t="n"/>
+      <c r="E67" s="311" t="n"/>
       <c r="G67" s="241" t="n"/>
       <c r="H67" s="242" t="n"/>
       <c r="I67" s="186" t="n"/>
@@ -9347,11 +9328,11 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="240">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="B68" s="237" t="n"/>
       <c r="C68" s="237" t="n"/>
-      <c r="D68" s="335" t="n"/>
-      <c r="E68" s="336" t="n"/>
+      <c r="D68" s="310" t="n"/>
+      <c r="E68" s="311" t="n"/>
       <c r="G68" s="241" t="n"/>
       <c r="H68" s="242" t="n"/>
       <c r="I68" s="186" t="n"/>
@@ -9361,7 +9342,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="240">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="B69" s="237" t="n"/>
       <c r="C69" s="237" t="n"/>
       <c r="D69" s="238" t="n"/>
@@ -9375,7 +9356,7 @@
       <c r="M69" s="243" t="n"/>
     </row>
     <row customFormat="1" r="70" s="240">
-      <c r="A70" s="328" t="n"/>
+      <c r="A70" s="303" t="n"/>
       <c r="B70" s="237" t="n"/>
       <c r="C70" s="237" t="n"/>
       <c r="D70" s="238" t="n"/>
@@ -9389,7 +9370,7 @@
       <c r="M70" s="243" t="n"/>
     </row>
     <row customFormat="1" r="71" s="240">
-      <c r="A71" s="328" t="n"/>
+      <c r="A71" s="303" t="n"/>
       <c r="B71" s="237" t="n"/>
       <c r="C71" s="237" t="n"/>
       <c r="D71" s="238" t="n"/>
@@ -9403,7 +9384,7 @@
       <c r="M71" s="243" t="n"/>
     </row>
     <row customFormat="1" r="72" s="240">
-      <c r="A72" s="328" t="n"/>
+      <c r="A72" s="303" t="n"/>
       <c r="B72" s="237" t="n"/>
       <c r="C72" s="237" t="n"/>
       <c r="D72" s="238" t="n"/>
@@ -9417,7 +9398,7 @@
       <c r="M72" s="243" t="n"/>
     </row>
     <row customFormat="1" r="73" s="237">
-      <c r="A73" s="328" t="n"/>
+      <c r="A73" s="303" t="n"/>
       <c r="D73" s="238" t="n"/>
       <c r="E73" s="239" t="n"/>
       <c r="F73" s="240" t="n"/>
@@ -9429,7 +9410,7 @@
       <c r="M73" s="243" t="n"/>
     </row>
     <row customFormat="1" r="74" s="237">
-      <c r="A74" s="328" t="n"/>
+      <c r="A74" s="303" t="n"/>
       <c r="D74" s="238" t="n"/>
       <c r="E74" s="239" t="n"/>
       <c r="F74" s="240" t="n"/>
@@ -9441,7 +9422,7 @@
       <c r="M74" s="243" t="n"/>
     </row>
     <row customFormat="1" r="75" s="237">
-      <c r="A75" s="328" t="n"/>
+      <c r="A75" s="303" t="n"/>
       <c r="D75" s="238" t="n"/>
       <c r="E75" s="239" t="n"/>
       <c r="F75" s="240" t="n"/>
@@ -9506,18 +9487,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="337" t="inlineStr">
+      <c r="A1" s="245" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="319" t="n"/>
-      <c r="C1" s="319" t="n"/>
-      <c r="D1" s="319" t="n"/>
-      <c r="E1" s="319" t="n"/>
-      <c r="F1" s="319" t="n"/>
-      <c r="G1" s="319" t="n"/>
-      <c r="H1" s="319" t="n"/>
+      <c r="B1" s="246" t="n"/>
+      <c r="C1" s="246" t="n"/>
+      <c r="D1" s="246" t="n"/>
+      <c r="E1" s="246" t="n"/>
+      <c r="F1" s="246" t="n"/>
+      <c r="G1" s="246" t="n"/>
+      <c r="H1" s="246" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
       <c r="A2" s="346" t="inlineStr">
@@ -9525,8 +9506,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="249" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
       <c r="A3" s="347" t="inlineStr">
@@ -9541,8 +9522,8 @@
       <c r="F3" s="348" t="n"/>
       <c r="G3" s="348" t="n"/>
       <c r="H3" s="348" t="n"/>
-      <c r="I3" s="266" t="n"/>
-      <c r="J3" s="266" t="n"/>
+      <c r="I3" s="250" t="n"/>
+      <c r="J3" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
       <c r="A4" s="349" t="inlineStr">
@@ -9561,13 +9542,13 @@
       <c r="F4" s="351" t="n"/>
       <c r="G4" s="351" t="n"/>
       <c r="H4" s="351" t="n"/>
-      <c r="I4" s="249" t="n"/>
-      <c r="J4" s="249" t="n"/>
+      <c r="I4" s="248" t="n"/>
+      <c r="J4" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
       <c r="A5" s="352" t="n"/>
-      <c r="I5" s="266" t="n"/>
-      <c r="J5" s="266" t="n"/>
+      <c r="I5" s="250" t="n"/>
+      <c r="J5" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
       <c r="A6" s="349" t="inlineStr">
@@ -9586,29 +9567,29 @@
       <c r="F6" s="351" t="n"/>
       <c r="G6" s="351" t="n"/>
       <c r="H6" s="351" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
       <c r="A7" s="352" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="344" t="inlineStr">
+      <c r="A8" s="262" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="303" t="n"/>
-      <c r="C8" s="303" t="n"/>
-      <c r="D8" s="303" t="n"/>
-      <c r="E8" s="303" t="n"/>
-      <c r="F8" s="303" t="n"/>
-      <c r="G8" s="303" t="n"/>
-      <c r="H8" s="304" t="n"/>
-      <c r="I8" s="266" t="n"/>
-      <c r="J8" s="266" t="n"/>
+      <c r="B8" s="263" t="n"/>
+      <c r="C8" s="263" t="n"/>
+      <c r="D8" s="263" t="n"/>
+      <c r="E8" s="263" t="n"/>
+      <c r="F8" s="263" t="n"/>
+      <c r="G8" s="263" t="n"/>
+      <c r="H8" s="264" t="n"/>
+      <c r="I8" s="250" t="n"/>
+      <c r="J8" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
       <c r="A9" s="353" t="inlineStr">
@@ -9626,28 +9607,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -9660,7 +9641,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
@@ -9674,7 +9655,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -9693,7 +9674,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
@@ -9707,7 +9688,7 @@
           <t>会议开场 &amp; 欢迎</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9734,10 +9715,10 @@
       </c>
     </row>
     <row customHeight="1" ht="1.5" r="12" s="244">
-      <c r="A12" s="284" t="n"/>
+      <c r="A12" s="273" t="n"/>
       <c r="B12" s="355" t="n"/>
       <c r="C12" s="358" t="n"/>
-      <c r="D12" s="289" t="n"/>
+      <c r="D12" s="278" t="n"/>
       <c r="E12" s="76" t="n"/>
       <c r="F12" s="151" t="n"/>
       <c r="G12" s="152" t="n"/>
@@ -9751,7 +9732,7 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="13" s="244">
-      <c r="A13" s="284">
+      <c r="A13" s="273">
         <f>J12</f>
         <v/>
       </c>
@@ -9765,7 +9746,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="289">
+      <c r="D13" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -9790,7 +9771,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
@@ -9804,7 +9785,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9826,10 +9807,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
@@ -9843,7 +9824,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -9863,10 +9844,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
@@ -9880,7 +9861,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -9900,10 +9881,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
@@ -9917,7 +9898,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -9941,10 +9922,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
@@ -9958,7 +9939,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -9979,7 +9960,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
@@ -9993,7 +9974,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10014,18 +9995,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="302" t="inlineStr">
+      <c r="A20" s="282" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="303" t="n"/>
-      <c r="C20" s="303" t="n"/>
-      <c r="D20" s="303" t="n"/>
-      <c r="E20" s="303" t="n"/>
-      <c r="F20" s="303" t="n"/>
-      <c r="G20" s="303" t="n"/>
-      <c r="H20" s="304" t="n"/>
+      <c r="B20" s="263" t="n"/>
+      <c r="C20" s="263" t="n"/>
+      <c r="D20" s="263" t="n"/>
+      <c r="E20" s="263" t="n"/>
+      <c r="F20" s="263" t="n"/>
+      <c r="G20" s="263" t="n"/>
+      <c r="H20" s="264" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -10035,7 +10016,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -10049,7 +10030,7 @@
           <t>主题介绍 &amp; 即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -10074,7 +10055,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
@@ -10088,7 +10069,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -10121,7 +10102,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
@@ -10135,7 +10116,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10158,7 +10139,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
@@ -10172,7 +10153,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10195,18 +10176,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="302" t="inlineStr">
+      <c r="A25" s="282" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="303" t="n"/>
-      <c r="C25" s="303" t="n"/>
-      <c r="D25" s="303" t="n"/>
-      <c r="E25" s="303" t="n"/>
-      <c r="F25" s="303" t="n"/>
-      <c r="G25" s="303" t="n"/>
-      <c r="H25" s="304" t="n"/>
+      <c r="B25" s="263" t="n"/>
+      <c r="C25" s="263" t="n"/>
+      <c r="D25" s="263" t="n"/>
+      <c r="E25" s="263" t="n"/>
+      <c r="F25" s="263" t="n"/>
+      <c r="G25" s="263" t="n"/>
+      <c r="H25" s="264" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -10215,10 +10196,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -10232,7 +10213,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10254,10 +10235,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
@@ -10272,7 +10253,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="301">
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -10304,31 +10285,31 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244" thickBot="1">
-      <c r="A28" s="302" t="inlineStr">
+      <c r="A28" s="282" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B28" s="303" t="n"/>
-      <c r="C28" s="303" t="n"/>
-      <c r="D28" s="303" t="n"/>
-      <c r="E28" s="303" t="n"/>
-      <c r="F28" s="303" t="n"/>
-      <c r="G28" s="303" t="n"/>
-      <c r="H28" s="304" t="n"/>
+      <c r="B28" s="263" t="n"/>
+      <c r="C28" s="263" t="n"/>
+      <c r="D28" s="263" t="n"/>
+      <c r="E28" s="263" t="n"/>
+      <c r="F28" s="263" t="n"/>
+      <c r="G28" s="263" t="n"/>
+      <c r="H28" s="264" t="n"/>
       <c r="I28" s="37" t="n"/>
       <c r="J28" s="36">
         <f>J27+I28</f>
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="29" s="244">
-      <c r="A29" s="284">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
@@ -10342,7 +10323,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D29" s="296">
+      <c r="D29" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10364,10 +10345,10 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244">
-      <c r="A30" s="284">
+      <c r="A30" s="273">
         <f>J29</f>
         <v/>
       </c>
@@ -10381,11 +10362,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D30" s="296">
+      <c r="D30" s="283">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E30" s="313" t="inlineStr">
+      <c r="E30" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -10407,10 +10388,10 @@
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="31" s="244">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -10424,7 +10405,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D31" s="289">
+      <c r="D31" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -10448,10 +10429,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="314" t="n"/>
+      <c r="L31" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="32" s="244">
-      <c r="A32" s="284">
+      <c r="A32" s="273">
         <f>J31</f>
         <v/>
       </c>
@@ -10465,7 +10446,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D32" s="289">
+      <c r="D32" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -10491,10 +10472,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="314" t="n"/>
+      <c r="L32" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J32</f>
         <v/>
       </c>
@@ -10508,7 +10489,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D33" s="289">
+      <c r="D33" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -10532,10 +10513,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="314" t="n"/>
+      <c r="L33" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="34" s="244">
-      <c r="A34" s="284">
+      <c r="A34" s="273">
         <f>J33</f>
         <v/>
       </c>
@@ -10549,7 +10530,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D34" s="289">
+      <c r="D34" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -10569,10 +10550,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="314" t="n"/>
+      <c r="L34" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
@@ -10586,7 +10567,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D35" s="289">
+      <c r="D35" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -10618,24 +10599,24 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="314" t="n"/>
+      <c r="L35" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="284">
+      <c r="A36" s="273">
         <f>J35</f>
         <v/>
       </c>
-      <c r="B36" s="290" t="inlineStr">
+      <c r="B36" s="279" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C36" s="287" t="inlineStr">
+      <c r="C36" s="276" t="inlineStr">
         <is>
           <t>总结 &amp; 会议结束致辞</t>
         </is>
       </c>
-      <c r="D36" s="289">
+      <c r="D36" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -10667,24 +10648,24 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="314" t="n"/>
+      <c r="L36" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="37" s="244" thickBot="1">
-      <c r="A37" s="315">
+      <c r="A37" s="291">
         <f>J36</f>
         <v/>
       </c>
-      <c r="B37" s="316" t="inlineStr">
+      <c r="B37" s="292" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C37" s="317" t="inlineStr">
+      <c r="C37" s="293" t="inlineStr">
         <is>
           <t>颁奖</t>
         </is>
       </c>
-      <c r="D37" s="289">
+      <c r="D37" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -10709,14 +10690,14 @@
       <c r="L37" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="38" s="244">
-      <c r="A38" s="318" t="n"/>
-      <c r="B38" s="319" t="n"/>
-      <c r="C38" s="319" t="n"/>
-      <c r="D38" s="319" t="n"/>
+      <c r="A38" s="294" t="n"/>
+      <c r="B38" s="246" t="n"/>
+      <c r="C38" s="246" t="n"/>
+      <c r="D38" s="246" t="n"/>
       <c r="E38" s="243" t="n"/>
-      <c r="F38" s="320" t="n"/>
-      <c r="G38" s="321" t="n"/>
-      <c r="H38" s="322" t="n"/>
+      <c r="F38" s="295" t="n"/>
+      <c r="G38" s="296" t="n"/>
+      <c r="H38" s="297" t="n"/>
       <c r="I38" s="39" t="n"/>
       <c r="J38" s="39" t="n"/>
       <c r="K38" s="39" t="n"/>
@@ -10731,14 +10712,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D39" s="324" t="n"/>
+      <c r="D39" s="299" t="n"/>
       <c r="I39" s="39" t="n"/>
-      <c r="J39" s="325" t="inlineStr">
+      <c r="J39" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K39" s="326" t="n"/>
+      <c r="K39" s="301" t="n"/>
       <c r="L39" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="40" s="244">
@@ -10752,91 +10733,91 @@
         </is>
       </c>
       <c r="I40" s="39" t="n"/>
-      <c r="J40" s="325" t="n"/>
+      <c r="J40" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="41" s="244">
-      <c r="A41" s="328" t="n"/>
+      <c r="A41" s="303" t="n"/>
       <c r="B41" s="243" t="n"/>
-      <c r="D41" s="329" t="n"/>
-      <c r="E41" s="330" t="n"/>
-      <c r="F41" s="330" t="n"/>
-      <c r="G41" s="330" t="n"/>
-      <c r="H41" s="330" t="n"/>
+      <c r="D41" s="304" t="n"/>
+      <c r="E41" s="305" t="n"/>
+      <c r="F41" s="305" t="n"/>
+      <c r="G41" s="305" t="n"/>
+      <c r="H41" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="42" s="244">
-      <c r="A42" s="328" t="n"/>
+      <c r="A42" s="303" t="n"/>
       <c r="B42" s="243" t="n"/>
       <c r="C42" s="243" t="n"/>
-      <c r="D42" s="329" t="n"/>
-      <c r="F42" s="330" t="n"/>
-      <c r="G42" s="330" t="n"/>
-      <c r="H42" s="330" t="n"/>
+      <c r="D42" s="304" t="n"/>
+      <c r="F42" s="305" t="n"/>
+      <c r="G42" s="305" t="n"/>
+      <c r="H42" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="43" s="244">
-      <c r="A43" s="328" t="n"/>
+      <c r="A43" s="303" t="n"/>
       <c r="B43" s="243" t="n"/>
       <c r="C43" s="243" t="n"/>
-      <c r="D43" s="331" t="n"/>
-      <c r="E43" s="332" t="n"/>
-      <c r="F43" s="333" t="n"/>
-      <c r="G43" s="334" t="n"/>
+      <c r="D43" s="306" t="n"/>
+      <c r="E43" s="307" t="n"/>
+      <c r="F43" s="308" t="n"/>
+      <c r="G43" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="328" t="n"/>
+      <c r="A44" s="303" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="335" t="n"/>
-      <c r="E44" s="336" t="n"/>
+      <c r="D44" s="310" t="n"/>
+      <c r="E44" s="311" t="n"/>
       <c r="L44" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="328" t="n"/>
+      <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
-      <c r="D45" s="335" t="n"/>
-      <c r="E45" s="336" t="n"/>
+      <c r="D45" s="310" t="n"/>
+      <c r="E45" s="311" t="n"/>
       <c r="L45" s="186" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="328" t="n"/>
+      <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
-      <c r="D46" s="335" t="n"/>
-      <c r="E46" s="336" t="n"/>
+      <c r="D46" s="310" t="n"/>
+      <c r="E46" s="311" t="n"/>
       <c r="L46" s="186" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
       <c r="C47" s="243" t="n"/>
-      <c r="D47" s="335" t="n"/>
-      <c r="E47" s="336" t="n"/>
+      <c r="D47" s="310" t="n"/>
+      <c r="E47" s="311" t="n"/>
       <c r="L47" s="186" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
       <c r="C48" s="243" t="n"/>
-      <c r="D48" s="335" t="n"/>
-      <c r="E48" s="336" t="n"/>
+      <c r="D48" s="310" t="n"/>
+      <c r="E48" s="311" t="n"/>
       <c r="L48" s="186" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
       <c r="C49" s="243" t="n"/>
-      <c r="E49" s="336" t="n"/>
+      <c r="E49" s="311" t="n"/>
       <c r="L49" s="186" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
     </row>
     <row customFormat="1" r="51" s="240">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="G51" s="241" t="n"/>
       <c r="H51" s="242" t="n"/>
       <c r="I51" s="186" t="n"/>
@@ -10846,11 +10827,11 @@
       <c r="M51" s="243" t="n"/>
     </row>
     <row customFormat="1" r="52" s="240">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="237" t="n"/>
-      <c r="D52" s="335" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="D52" s="310" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="G52" s="241" t="n"/>
       <c r="H52" s="242" t="n"/>
       <c r="I52" s="186" t="n"/>
@@ -10860,11 +10841,11 @@
       <c r="M52" s="243" t="n"/>
     </row>
     <row customFormat="1" r="53" s="240">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
       <c r="C53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
       <c r="G53" s="241" t="n"/>
       <c r="H53" s="242" t="n"/>
       <c r="I53" s="186" t="n"/>
@@ -10874,11 +10855,11 @@
       <c r="M53" s="243" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="186" t="n"/>
@@ -10888,11 +10869,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="243" t="n"/>
-      <c r="D55" s="335" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="D55" s="310" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="186" t="n"/>
@@ -10902,11 +10883,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="186" t="n"/>
@@ -10916,11 +10897,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="186" t="n"/>
@@ -10930,11 +10911,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="186" t="n"/>
@@ -10944,11 +10925,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="237" t="n"/>
       <c r="C59" s="237" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="186" t="n"/>
@@ -10958,11 +10939,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="237" t="n"/>
       <c r="C60" s="237" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="186" t="n"/>
@@ -10972,11 +10953,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="237" t="n"/>
       <c r="C61" s="237" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="186" t="n"/>
@@ -10986,11 +10967,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-      <c r="D62" s="335" t="n"/>
-      <c r="E62" s="336" t="n"/>
+      <c r="D62" s="310" t="n"/>
+      <c r="E62" s="311" t="n"/>
       <c r="G62" s="241" t="n"/>
       <c r="H62" s="242" t="n"/>
       <c r="I62" s="186" t="n"/>
@@ -11000,7 +10981,7 @@
       <c r="M62" s="243" t="n"/>
     </row>
     <row customFormat="1" r="63" s="240">
-      <c r="A63" s="328" t="n"/>
+      <c r="A63" s="303" t="n"/>
       <c r="B63" s="237" t="n"/>
       <c r="C63" s="237" t="n"/>
       <c r="D63" s="238" t="n"/>
@@ -11014,7 +10995,7 @@
       <c r="M63" s="243" t="n"/>
     </row>
     <row customFormat="1" r="64" s="240">
-      <c r="A64" s="328" t="n"/>
+      <c r="A64" s="303" t="n"/>
       <c r="B64" s="237" t="n"/>
       <c r="C64" s="237" t="n"/>
       <c r="D64" s="238" t="n"/>
@@ -11028,7 +11009,7 @@
       <c r="M64" s="243" t="n"/>
     </row>
     <row customFormat="1" r="65" s="240">
-      <c r="A65" s="328" t="n"/>
+      <c r="A65" s="303" t="n"/>
       <c r="B65" s="237" t="n"/>
       <c r="C65" s="237" t="n"/>
       <c r="D65" s="238" t="n"/>
@@ -11042,7 +11023,7 @@
       <c r="M65" s="243" t="n"/>
     </row>
     <row customFormat="1" r="66" s="240">
-      <c r="A66" s="328" t="n"/>
+      <c r="A66" s="303" t="n"/>
       <c r="B66" s="237" t="n"/>
       <c r="C66" s="237" t="n"/>
       <c r="D66" s="238" t="n"/>
@@ -11056,7 +11037,7 @@
       <c r="M66" s="243" t="n"/>
     </row>
     <row customFormat="1" r="67" s="237">
-      <c r="A67" s="328" t="n"/>
+      <c r="A67" s="303" t="n"/>
       <c r="D67" s="238" t="n"/>
       <c r="E67" s="239" t="n"/>
       <c r="F67" s="240" t="n"/>
@@ -11068,7 +11049,7 @@
       <c r="M67" s="243" t="n"/>
     </row>
     <row customFormat="1" r="68" s="237">
-      <c r="A68" s="328" t="n"/>
+      <c r="A68" s="303" t="n"/>
       <c r="D68" s="238" t="n"/>
       <c r="E68" s="239" t="n"/>
       <c r="F68" s="240" t="n"/>
@@ -11080,7 +11061,7 @@
       <c r="M68" s="243" t="n"/>
     </row>
     <row customFormat="1" r="69" s="237">
-      <c r="A69" s="328" t="n"/>
+      <c r="A69" s="303" t="n"/>
       <c r="D69" s="238" t="n"/>
       <c r="E69" s="239" t="n"/>
       <c r="F69" s="240" t="n"/>
@@ -11147,18 +11128,18 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="71.25" r="1" s="244">
-      <c r="A1" s="337" t="inlineStr">
+      <c r="A1" s="245" t="inlineStr">
         <is>
           <t>欢迎来到微软头马俱乐部</t>
         </is>
       </c>
-      <c r="B1" s="319" t="n"/>
-      <c r="C1" s="319" t="n"/>
-      <c r="D1" s="319" t="n"/>
-      <c r="E1" s="319" t="n"/>
-      <c r="F1" s="319" t="n"/>
-      <c r="G1" s="319" t="n"/>
-      <c r="H1" s="319" t="n"/>
+      <c r="B1" s="246" t="n"/>
+      <c r="C1" s="246" t="n"/>
+      <c r="D1" s="246" t="n"/>
+      <c r="E1" s="246" t="n"/>
+      <c r="F1" s="246" t="n"/>
+      <c r="G1" s="246" t="n"/>
+      <c r="H1" s="246" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="2" s="244">
       <c r="A2" s="346" t="inlineStr">
@@ -11166,8 +11147,8 @@
           <t>时间：每周三晚19:00~21:00 (每月最后一次为中文会议，其他时间为英文会议)</t>
         </is>
       </c>
-      <c r="I2" s="249" t="n"/>
-      <c r="J2" s="249" t="n"/>
+      <c r="I2" s="248" t="n"/>
+      <c r="J2" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="3" s="244">
       <c r="A3" s="347" t="inlineStr">
@@ -11182,8 +11163,8 @@
       <c r="F3" s="348" t="n"/>
       <c r="G3" s="348" t="n"/>
       <c r="H3" s="348" t="n"/>
-      <c r="I3" s="266" t="n"/>
-      <c r="J3" s="266" t="n"/>
+      <c r="I3" s="250" t="n"/>
+      <c r="J3" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="4" s="244">
       <c r="A4" s="349" t="inlineStr">
@@ -11202,13 +11183,13 @@
       <c r="F4" s="351" t="n"/>
       <c r="G4" s="351" t="n"/>
       <c r="H4" s="351" t="n"/>
-      <c r="I4" s="249" t="n"/>
-      <c r="J4" s="249" t="n"/>
+      <c r="I4" s="248" t="n"/>
+      <c r="J4" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="22.5" r="5" s="244" thickBot="1">
       <c r="A5" s="352" t="n"/>
-      <c r="I5" s="266" t="n"/>
-      <c r="J5" s="266" t="n"/>
+      <c r="I5" s="250" t="n"/>
+      <c r="J5" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="22.5" r="6" s="244">
       <c r="A6" s="349" t="inlineStr">
@@ -11227,29 +11208,29 @@
       <c r="F6" s="351" t="n"/>
       <c r="G6" s="351" t="n"/>
       <c r="H6" s="351" t="n"/>
-      <c r="I6" s="266" t="n"/>
-      <c r="J6" s="266" t="n"/>
+      <c r="I6" s="250" t="n"/>
+      <c r="J6" s="250" t="n"/>
     </row>
     <row customHeight="1" hidden="1" ht="10.5" r="7" s="244">
       <c r="A7" s="352" t="n"/>
-      <c r="I7" s="266" t="n"/>
-      <c r="J7" s="266" t="n"/>
+      <c r="I7" s="250" t="n"/>
+      <c r="J7" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="33.75" r="8" s="244" thickBot="1">
-      <c r="A8" s="344" t="inlineStr">
+      <c r="A8" s="262" t="inlineStr">
         <is>
           <t>Theme Today: sleepless in seattle</t>
         </is>
       </c>
-      <c r="B8" s="303" t="n"/>
-      <c r="C8" s="303" t="n"/>
-      <c r="D8" s="303" t="n"/>
-      <c r="E8" s="303" t="n"/>
-      <c r="F8" s="303" t="n"/>
-      <c r="G8" s="303" t="n"/>
-      <c r="H8" s="304" t="n"/>
-      <c r="I8" s="266" t="n"/>
-      <c r="J8" s="266" t="n"/>
+      <c r="B8" s="263" t="n"/>
+      <c r="C8" s="263" t="n"/>
+      <c r="D8" s="263" t="n"/>
+      <c r="E8" s="263" t="n"/>
+      <c r="F8" s="263" t="n"/>
+      <c r="G8" s="263" t="n"/>
+      <c r="H8" s="264" t="n"/>
+      <c r="I8" s="250" t="n"/>
+      <c r="J8" s="250" t="n"/>
     </row>
     <row customHeight="1" ht="42.75" r="9" s="244" thickBot="1">
       <c r="A9" s="353" t="inlineStr">
@@ -11267,28 +11248,28 @@
           <t>内容</t>
         </is>
       </c>
-      <c r="D9" s="279" t="inlineStr">
+      <c r="D9" s="268" t="inlineStr">
         <is>
           <t>成员</t>
         </is>
       </c>
-      <c r="E9" s="280" t="inlineStr">
+      <c r="E9" s="269" t="inlineStr">
         <is>
           <t>Duration
 (mins)</t>
         </is>
       </c>
-      <c r="F9" s="281" t="inlineStr">
+      <c r="F9" s="270" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="G9" s="282" t="inlineStr">
+      <c r="G9" s="271" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H9" s="283" t="inlineStr">
+      <c r="H9" s="272" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -11301,7 +11282,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="10" s="244">
-      <c r="A10" s="284">
+      <c r="A10" s="273">
         <f>J9</f>
         <v/>
       </c>
@@ -11315,7 +11296,7 @@
           <t>会前欢迎</t>
         </is>
       </c>
-      <c r="D10" s="286">
+      <c r="D10" s="275">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -11334,7 +11315,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="11" s="244">
-      <c r="A11" s="284">
+      <c r="A11" s="273">
         <f>J10</f>
         <v/>
       </c>
@@ -11348,7 +11329,7 @@
           <t>会议开场 &amp; 欢迎</t>
         </is>
       </c>
-      <c r="D11" s="289">
+      <c r="D11" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11375,10 +11356,10 @@
       </c>
     </row>
     <row customHeight="1" ht="1.5" r="12" s="244">
-      <c r="A12" s="284" t="n"/>
+      <c r="A12" s="273" t="n"/>
       <c r="B12" s="355" t="n"/>
       <c r="C12" s="358" t="n"/>
-      <c r="D12" s="289" t="n"/>
+      <c r="D12" s="278" t="n"/>
       <c r="E12" s="76" t="n"/>
       <c r="F12" s="151" t="n"/>
       <c r="G12" s="152" t="n"/>
@@ -11392,7 +11373,7 @@
       </c>
     </row>
     <row customHeight="1" ht="0.75" r="13" s="244">
-      <c r="A13" s="284">
+      <c r="A13" s="273">
         <f>J12</f>
         <v/>
       </c>
@@ -11406,7 +11387,7 @@
           <t>主题介绍</t>
         </is>
       </c>
-      <c r="D13" s="289">
+      <c r="D13" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11431,7 +11412,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="14" s="244">
-      <c r="A14" s="284">
+      <c r="A14" s="273">
         <f>J13</f>
         <v/>
       </c>
@@ -11445,7 +11426,7 @@
           <t>点评团队介绍</t>
         </is>
       </c>
-      <c r="D14" s="289">
+      <c r="D14" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11467,10 +11448,10 @@
         <v/>
       </c>
       <c r="K14" s="36" t="n"/>
-      <c r="L14" s="249" t="n"/>
+      <c r="L14" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24.75" r="15" s="244">
-      <c r="A15" s="284">
+      <c r="A15" s="273">
         <f>J14</f>
         <v/>
       </c>
@@ -11484,7 +11465,7 @@
           <t>时间官介绍</t>
         </is>
       </c>
-      <c r="D15" s="289">
+      <c r="D15" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -11504,10 +11485,10 @@
         <v/>
       </c>
       <c r="K15" s="36" t="n"/>
-      <c r="L15" s="249" t="n"/>
+      <c r="L15" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="16" s="244">
-      <c r="A16" s="284">
+      <c r="A16" s="273">
         <f>J15</f>
         <v/>
       </c>
@@ -11521,7 +11502,7 @@
           <t>哼哈官介绍</t>
         </is>
       </c>
-      <c r="D16" s="289">
+      <c r="D16" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -11541,10 +11522,10 @@
         <v/>
       </c>
       <c r="K16" s="36" t="n"/>
-      <c r="L16" s="249" t="n"/>
+      <c r="L16" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="1.5" r="17" s="244">
-      <c r="A17" s="284">
+      <c r="A17" s="273">
         <f>J16</f>
         <v/>
       </c>
@@ -11558,7 +11539,7 @@
           <t>词酱介绍</t>
         </is>
       </c>
-      <c r="D17" s="289">
+      <c r="D17" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -11582,10 +11563,10 @@
         <v/>
       </c>
       <c r="K17" s="36" t="n"/>
-      <c r="L17" s="249" t="n"/>
+      <c r="L17" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="18" s="244">
-      <c r="A18" s="284">
+      <c r="A18" s="273">
         <f>J17</f>
         <v/>
       </c>
@@ -11599,7 +11580,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11620,7 +11601,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="19" s="244" thickBot="1">
-      <c r="A19" s="291">
+      <c r="A19" s="280">
         <f>J18</f>
         <v/>
       </c>
@@ -11634,7 +11615,7 @@
           <t>介绍即兴演讲主持人</t>
         </is>
       </c>
-      <c r="D19" s="289">
+      <c r="D19" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11655,18 +11636,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="20" s="244" thickBot="1">
-      <c r="A20" s="302" t="inlineStr">
+      <c r="A20" s="282" t="inlineStr">
         <is>
           <t>即兴演讲环节</t>
         </is>
       </c>
-      <c r="B20" s="303" t="n"/>
-      <c r="C20" s="303" t="n"/>
-      <c r="D20" s="303" t="n"/>
-      <c r="E20" s="303" t="n"/>
-      <c r="F20" s="303" t="n"/>
-      <c r="G20" s="303" t="n"/>
-      <c r="H20" s="304" t="n"/>
+      <c r="B20" s="263" t="n"/>
+      <c r="C20" s="263" t="n"/>
+      <c r="D20" s="263" t="n"/>
+      <c r="E20" s="263" t="n"/>
+      <c r="F20" s="263" t="n"/>
+      <c r="G20" s="263" t="n"/>
+      <c r="H20" s="264" t="n"/>
       <c r="I20" s="37" t="n">
         <v>-1</v>
       </c>
@@ -11676,7 +11657,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="21" s="244">
-      <c r="A21" s="284">
+      <c r="A21" s="273">
         <f>J20</f>
         <v/>
       </c>
@@ -11690,7 +11671,7 @@
           <t>主题介绍 &amp; 即兴演讲环节</t>
         </is>
       </c>
-      <c r="D21" s="296">
+      <c r="D21" s="283">
         <f>Roles!B6</f>
         <v/>
       </c>
@@ -11715,7 +11696,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="22" s="244">
-      <c r="A22" s="284">
+      <c r="A22" s="273">
         <f>J21</f>
         <v/>
       </c>
@@ -11729,7 +11710,7 @@
           <t>即兴演讲点评</t>
         </is>
       </c>
-      <c r="D22" s="289">
+      <c r="D22" s="278">
         <f>Roles!B7</f>
         <v/>
       </c>
@@ -11762,7 +11743,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="23" s="244">
-      <c r="A23" s="284">
+      <c r="A23" s="273">
         <f>J22</f>
         <v/>
       </c>
@@ -11776,7 +11757,7 @@
           <t>将控制权交由主持人</t>
         </is>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11799,7 +11780,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="24" s="244" thickBot="1">
-      <c r="A24" s="297">
+      <c r="A24" s="284">
         <f>J23</f>
         <v/>
       </c>
@@ -11813,7 +11794,7 @@
           <t>休息环节，合影并召集下周会议角色</t>
         </is>
       </c>
-      <c r="D24" s="299">
+      <c r="D24" s="286">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11836,18 +11817,18 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="25" s="244" thickBot="1">
-      <c r="A25" s="302" t="inlineStr">
+      <c r="A25" s="282" t="inlineStr">
         <is>
           <t>备稿演讲环节</t>
         </is>
       </c>
-      <c r="B25" s="303" t="n"/>
-      <c r="C25" s="303" t="n"/>
-      <c r="D25" s="303" t="n"/>
-      <c r="E25" s="303" t="n"/>
-      <c r="F25" s="303" t="n"/>
-      <c r="G25" s="303" t="n"/>
-      <c r="H25" s="304" t="n"/>
+      <c r="B25" s="263" t="n"/>
+      <c r="C25" s="263" t="n"/>
+      <c r="D25" s="263" t="n"/>
+      <c r="E25" s="263" t="n"/>
+      <c r="F25" s="263" t="n"/>
+      <c r="G25" s="263" t="n"/>
+      <c r="H25" s="264" t="n"/>
       <c r="I25" s="37" t="n">
         <v>0</v>
       </c>
@@ -11856,10 +11837,10 @@
         <v/>
       </c>
       <c r="K25" s="36" t="n"/>
-      <c r="L25" s="249" t="n"/>
+      <c r="L25" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="26" s="244">
-      <c r="A26" s="284">
+      <c r="A26" s="273">
         <f>J25</f>
         <v/>
       </c>
@@ -11873,7 +11854,7 @@
           <t>介绍一号备稿演讲者</t>
         </is>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="283">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -11895,10 +11876,10 @@
         <v/>
       </c>
       <c r="K26" s="36" t="n"/>
-      <c r="L26" s="249" t="n"/>
+      <c r="L26" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="27" s="244" thickBot="1">
-      <c r="A27" s="284">
+      <c r="A27" s="273">
         <f>J26</f>
         <v/>
       </c>
@@ -11913,7 +11894,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D27" s="301">
+      <c r="D27" s="288">
         <f>Roles!B11</f>
         <v/>
       </c>
@@ -11945,10 +11926,10 @@
         <v/>
       </c>
       <c r="K27" s="36" t="n"/>
-      <c r="L27" s="249" t="n"/>
+      <c r="L27" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="28" s="244">
-      <c r="A28" s="284">
+      <c r="A28" s="273">
         <f>J27</f>
         <v/>
       </c>
@@ -11962,7 +11943,7 @@
           <t>介绍二号备稿演讲者</t>
         </is>
       </c>
-      <c r="D28" s="296">
+      <c r="D28" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -11984,10 +11965,10 @@
         <v/>
       </c>
       <c r="K28" s="36" t="n"/>
-      <c r="L28" s="249" t="n"/>
+      <c r="L28" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="47.25" r="29" s="244" thickBot="1">
-      <c r="A29" s="284">
+      <c r="A29" s="273">
         <f>J28</f>
         <v/>
       </c>
@@ -12002,7 +11983,7 @@
 最美人间四月天 </t>
         </is>
       </c>
-      <c r="D29" s="301">
+      <c r="D29" s="288">
         <f>Roles!B12</f>
         <v/>
       </c>
@@ -12034,31 +12015,31 @@
         <v/>
       </c>
       <c r="K29" s="36" t="n"/>
-      <c r="L29" s="249" t="n"/>
+      <c r="L29" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="30" s="244" thickBot="1">
-      <c r="A30" s="302" t="inlineStr">
+      <c r="A30" s="282" t="inlineStr">
         <is>
           <t>点评环境</t>
         </is>
       </c>
-      <c r="B30" s="303" t="n"/>
-      <c r="C30" s="303" t="n"/>
-      <c r="D30" s="303" t="n"/>
-      <c r="E30" s="303" t="n"/>
-      <c r="F30" s="303" t="n"/>
-      <c r="G30" s="303" t="n"/>
-      <c r="H30" s="304" t="n"/>
+      <c r="B30" s="263" t="n"/>
+      <c r="C30" s="263" t="n"/>
+      <c r="D30" s="263" t="n"/>
+      <c r="E30" s="263" t="n"/>
+      <c r="F30" s="263" t="n"/>
+      <c r="G30" s="263" t="n"/>
+      <c r="H30" s="264" t="n"/>
       <c r="I30" s="37" t="n"/>
       <c r="J30" s="36">
         <f>J27+I30</f>
         <v/>
       </c>
       <c r="K30" s="36" t="n"/>
-      <c r="L30" s="249" t="n"/>
+      <c r="L30" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="31" s="244">
-      <c r="A31" s="284">
+      <c r="A31" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -12072,7 +12053,7 @@
           <t>点评环节</t>
         </is>
       </c>
-      <c r="D31" s="296">
+      <c r="D31" s="283">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12094,10 +12075,10 @@
         <v/>
       </c>
       <c r="K31" s="36" t="n"/>
-      <c r="L31" s="249" t="n"/>
+      <c r="L31" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="32" s="244">
-      <c r="A32" s="284">
+      <c r="A32" s="273">
         <f>J30</f>
         <v/>
       </c>
@@ -12111,11 +12092,11 @@
           <t>点评一号备稿演讲</t>
         </is>
       </c>
-      <c r="D32" s="296">
+      <c r="D32" s="283">
         <f>Roles!B15</f>
         <v/>
       </c>
-      <c r="E32" s="313" t="inlineStr">
+      <c r="E32" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -12137,10 +12118,10 @@
         <v/>
       </c>
       <c r="K32" s="36" t="n"/>
-      <c r="L32" s="249" t="n"/>
+      <c r="L32" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="33" s="244">
-      <c r="A33" s="284">
+      <c r="A33" s="273">
         <f>J31</f>
         <v/>
       </c>
@@ -12154,11 +12135,11 @@
           <t>点评二号备稿演讲</t>
         </is>
       </c>
-      <c r="D33" s="296">
+      <c r="D33" s="283">
         <f>Roles!B16</f>
         <v/>
       </c>
-      <c r="E33" s="313" t="inlineStr">
+      <c r="E33" s="289" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2-3</t>
         </is>
@@ -12180,10 +12161,10 @@
         <v/>
       </c>
       <c r="K33" s="36" t="n"/>
-      <c r="L33" s="249" t="n"/>
+      <c r="L33" s="248" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="34" s="244">
-      <c r="A34" s="284">
+      <c r="A34" s="273">
         <f>J33</f>
         <v/>
       </c>
@@ -12197,7 +12178,7 @@
           <t>哼哈官报告</t>
         </is>
       </c>
-      <c r="D34" s="289">
+      <c r="D34" s="278">
         <f>Roles!B9</f>
         <v/>
       </c>
@@ -12221,10 +12202,10 @@
         <v/>
       </c>
       <c r="K34" s="36" t="n"/>
-      <c r="L34" s="314" t="n"/>
+      <c r="L34" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="35" s="244">
-      <c r="A35" s="284">
+      <c r="A35" s="273">
         <f>J34</f>
         <v/>
       </c>
@@ -12238,7 +12219,7 @@
           <t>语法官报告</t>
         </is>
       </c>
-      <c r="D35" s="289">
+      <c r="D35" s="278">
         <f>Roles!B10</f>
         <v/>
       </c>
@@ -12264,10 +12245,10 @@
         <v/>
       </c>
       <c r="K35" s="36" t="n"/>
-      <c r="L35" s="314" t="n"/>
+      <c r="L35" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="36" s="244">
-      <c r="A36" s="284">
+      <c r="A36" s="273">
         <f>J35</f>
         <v/>
       </c>
@@ -12281,7 +12262,7 @@
           <t>时间官报告</t>
         </is>
       </c>
-      <c r="D36" s="289">
+      <c r="D36" s="278">
         <f>Roles!B8</f>
         <v/>
       </c>
@@ -12305,10 +12286,10 @@
         <v/>
       </c>
       <c r="K36" s="36" t="n"/>
-      <c r="L36" s="314" t="n"/>
+      <c r="L36" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="37" s="244">
-      <c r="A37" s="284">
+      <c r="A37" s="273">
         <f>J36</f>
         <v/>
       </c>
@@ -12322,7 +12303,7 @@
           <t>收集反馈和选票</t>
         </is>
       </c>
-      <c r="D37" s="289">
+      <c r="D37" s="278">
         <f>Roles!B2</f>
         <v/>
       </c>
@@ -12342,10 +12323,10 @@
         <v/>
       </c>
       <c r="K37" s="36" t="n"/>
-      <c r="L37" s="314" t="n"/>
+      <c r="L37" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="38" s="244">
-      <c r="A38" s="284">
+      <c r="A38" s="273">
         <f>J37</f>
         <v/>
       </c>
@@ -12359,7 +12340,7 @@
           <t>总点评官报告</t>
         </is>
       </c>
-      <c r="D38" s="289">
+      <c r="D38" s="278">
         <f>Roles!B5</f>
         <v/>
       </c>
@@ -12391,24 +12372,24 @@
         <v/>
       </c>
       <c r="K38" s="36" t="n"/>
-      <c r="L38" s="314" t="n"/>
+      <c r="L38" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="24" r="39" s="244">
-      <c r="A39" s="284">
+      <c r="A39" s="273">
         <f>J38</f>
         <v/>
       </c>
-      <c r="B39" s="290" t="inlineStr">
+      <c r="B39" s="279" t="inlineStr">
         <is>
           <t>主持人</t>
         </is>
       </c>
-      <c r="C39" s="287" t="inlineStr">
+      <c r="C39" s="276" t="inlineStr">
         <is>
           <t>总结 &amp; 会议结束致辞</t>
         </is>
       </c>
-      <c r="D39" s="289">
+      <c r="D39" s="278">
         <f>Roles!B4</f>
         <v/>
       </c>
@@ -12440,24 +12421,24 @@
         <v/>
       </c>
       <c r="K39" s="36" t="n"/>
-      <c r="L39" s="314" t="n"/>
+      <c r="L39" s="290" t="n"/>
     </row>
     <row customHeight="1" ht="0.75" r="40" s="244" thickBot="1">
-      <c r="A40" s="315">
+      <c r="A40" s="291">
         <f>J39</f>
         <v/>
       </c>
-      <c r="B40" s="316" t="inlineStr">
+      <c r="B40" s="292" t="inlineStr">
         <is>
           <t>主席</t>
         </is>
       </c>
-      <c r="C40" s="317" t="inlineStr">
+      <c r="C40" s="293" t="inlineStr">
         <is>
           <t>颁奖</t>
         </is>
       </c>
-      <c r="D40" s="289">
+      <c r="D40" s="278">
         <f>Roles!B3</f>
         <v/>
       </c>
@@ -12482,14 +12463,14 @@
       <c r="L40" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="21" r="41" s="244">
-      <c r="A41" s="318" t="n"/>
-      <c r="B41" s="319" t="n"/>
-      <c r="C41" s="319" t="n"/>
-      <c r="D41" s="319" t="n"/>
+      <c r="A41" s="294" t="n"/>
+      <c r="B41" s="246" t="n"/>
+      <c r="C41" s="246" t="n"/>
+      <c r="D41" s="246" t="n"/>
       <c r="E41" s="243" t="n"/>
-      <c r="F41" s="320" t="n"/>
-      <c r="G41" s="321" t="n"/>
-      <c r="H41" s="322" t="n"/>
+      <c r="F41" s="295" t="n"/>
+      <c r="G41" s="296" t="n"/>
+      <c r="H41" s="297" t="n"/>
       <c r="I41" s="39" t="n"/>
       <c r="J41" s="39" t="n"/>
       <c r="K41" s="39" t="n"/>
@@ -12504,14 +12485,14 @@
 3. 禁忌话题：政治、宗教、种族、性。</t>
         </is>
       </c>
-      <c r="D42" s="324" t="n"/>
+      <c r="D42" s="299" t="n"/>
       <c r="I42" s="39" t="n"/>
-      <c r="J42" s="325" t="inlineStr">
+      <c r="J42" s="300" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="K42" s="326" t="n"/>
+      <c r="K42" s="301" t="n"/>
       <c r="L42" s="243" t="n"/>
     </row>
     <row customHeight="1" ht="145.5" r="43" s="244">
@@ -12525,91 +12506,91 @@
         </is>
       </c>
       <c r="I43" s="39" t="n"/>
-      <c r="J43" s="325" t="n"/>
+      <c r="J43" s="300" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="44" s="244">
-      <c r="A44" s="328" t="n"/>
+      <c r="A44" s="303" t="n"/>
       <c r="B44" s="243" t="n"/>
-      <c r="D44" s="329" t="n"/>
-      <c r="E44" s="330" t="n"/>
-      <c r="F44" s="330" t="n"/>
-      <c r="G44" s="330" t="n"/>
-      <c r="H44" s="330" t="n"/>
+      <c r="D44" s="304" t="n"/>
+      <c r="E44" s="305" t="n"/>
+      <c r="F44" s="305" t="n"/>
+      <c r="G44" s="305" t="n"/>
+      <c r="H44" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="45" s="244">
-      <c r="A45" s="328" t="n"/>
+      <c r="A45" s="303" t="n"/>
       <c r="B45" s="243" t="n"/>
       <c r="C45" s="243" t="n"/>
-      <c r="D45" s="329" t="n"/>
-      <c r="F45" s="330" t="n"/>
-      <c r="G45" s="330" t="n"/>
-      <c r="H45" s="330" t="n"/>
+      <c r="D45" s="304" t="n"/>
+      <c r="F45" s="305" t="n"/>
+      <c r="G45" s="305" t="n"/>
+      <c r="H45" s="305" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="46" s="244">
-      <c r="A46" s="328" t="n"/>
+      <c r="A46" s="303" t="n"/>
       <c r="B46" s="243" t="n"/>
       <c r="C46" s="243" t="n"/>
-      <c r="D46" s="331" t="n"/>
-      <c r="E46" s="332" t="n"/>
-      <c r="F46" s="333" t="n"/>
-      <c r="G46" s="334" t="n"/>
+      <c r="D46" s="306" t="n"/>
+      <c r="E46" s="307" t="n"/>
+      <c r="F46" s="308" t="n"/>
+      <c r="G46" s="309" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="47" s="244">
-      <c r="A47" s="328" t="n"/>
+      <c r="A47" s="303" t="n"/>
       <c r="B47" s="243" t="n"/>
-      <c r="D47" s="335" t="n"/>
-      <c r="E47" s="336" t="n"/>
+      <c r="D47" s="310" t="n"/>
+      <c r="E47" s="311" t="n"/>
       <c r="L47" s="186" t="n"/>
     </row>
     <row customHeight="1" ht="12.75" r="48" s="244">
-      <c r="A48" s="328" t="n"/>
+      <c r="A48" s="303" t="n"/>
       <c r="B48" s="243" t="n"/>
-      <c r="D48" s="335" t="n"/>
-      <c r="E48" s="336" t="n"/>
+      <c r="D48" s="310" t="n"/>
+      <c r="E48" s="311" t="n"/>
       <c r="L48" s="186" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="328" t="n"/>
+      <c r="A49" s="303" t="n"/>
       <c r="B49" s="243" t="n"/>
-      <c r="D49" s="335" t="n"/>
-      <c r="E49" s="336" t="n"/>
+      <c r="D49" s="310" t="n"/>
+      <c r="E49" s="311" t="n"/>
       <c r="L49" s="186" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="328" t="n"/>
+      <c r="A50" s="303" t="n"/>
       <c r="B50" s="243" t="n"/>
       <c r="C50" s="243" t="n"/>
-      <c r="D50" s="335" t="n"/>
-      <c r="E50" s="336" t="n"/>
+      <c r="D50" s="310" t="n"/>
+      <c r="E50" s="311" t="n"/>
       <c r="L50" s="186" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="328" t="n"/>
+      <c r="A51" s="303" t="n"/>
       <c r="B51" s="243" t="n"/>
       <c r="C51" s="243" t="n"/>
-      <c r="D51" s="335" t="n"/>
-      <c r="E51" s="336" t="n"/>
+      <c r="D51" s="310" t="n"/>
+      <c r="E51" s="311" t="n"/>
       <c r="L51" s="186" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="328" t="n"/>
+      <c r="A52" s="303" t="n"/>
       <c r="B52" s="243" t="n"/>
       <c r="C52" s="243" t="n"/>
-      <c r="E52" s="336" t="n"/>
+      <c r="E52" s="311" t="n"/>
       <c r="L52" s="186" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="328" t="n"/>
+      <c r="A53" s="303" t="n"/>
       <c r="B53" s="243" t="n"/>
-      <c r="D53" s="335" t="n"/>
-      <c r="E53" s="336" t="n"/>
+      <c r="D53" s="310" t="n"/>
+      <c r="E53" s="311" t="n"/>
     </row>
     <row customFormat="1" r="54" s="240">
-      <c r="A54" s="328" t="n"/>
+      <c r="A54" s="303" t="n"/>
       <c r="B54" s="243" t="n"/>
       <c r="C54" s="243" t="n"/>
-      <c r="D54" s="335" t="n"/>
-      <c r="E54" s="336" t="n"/>
+      <c r="D54" s="310" t="n"/>
+      <c r="E54" s="311" t="n"/>
       <c r="G54" s="241" t="n"/>
       <c r="H54" s="242" t="n"/>
       <c r="I54" s="186" t="n"/>
@@ -12619,11 +12600,11 @@
       <c r="M54" s="243" t="n"/>
     </row>
     <row customFormat="1" r="55" s="240">
-      <c r="A55" s="328" t="n"/>
+      <c r="A55" s="303" t="n"/>
       <c r="B55" s="243" t="n"/>
       <c r="C55" s="237" t="n"/>
-      <c r="D55" s="335" t="n"/>
-      <c r="E55" s="336" t="n"/>
+      <c r="D55" s="310" t="n"/>
+      <c r="E55" s="311" t="n"/>
       <c r="G55" s="241" t="n"/>
       <c r="H55" s="242" t="n"/>
       <c r="I55" s="186" t="n"/>
@@ -12633,11 +12614,11 @@
       <c r="M55" s="243" t="n"/>
     </row>
     <row customFormat="1" r="56" s="240">
-      <c r="A56" s="328" t="n"/>
+      <c r="A56" s="303" t="n"/>
       <c r="B56" s="243" t="n"/>
       <c r="C56" s="243" t="n"/>
-      <c r="D56" s="335" t="n"/>
-      <c r="E56" s="336" t="n"/>
+      <c r="D56" s="310" t="n"/>
+      <c r="E56" s="311" t="n"/>
       <c r="G56" s="241" t="n"/>
       <c r="H56" s="242" t="n"/>
       <c r="I56" s="186" t="n"/>
@@ -12647,11 +12628,11 @@
       <c r="M56" s="243" t="n"/>
     </row>
     <row customFormat="1" r="57" s="240">
-      <c r="A57" s="328" t="n"/>
+      <c r="A57" s="303" t="n"/>
       <c r="B57" s="243" t="n"/>
       <c r="C57" s="243" t="n"/>
-      <c r="D57" s="335" t="n"/>
-      <c r="E57" s="336" t="n"/>
+      <c r="D57" s="310" t="n"/>
+      <c r="E57" s="311" t="n"/>
       <c r="G57" s="241" t="n"/>
       <c r="H57" s="242" t="n"/>
       <c r="I57" s="186" t="n"/>
@@ -12661,11 +12642,11 @@
       <c r="M57" s="243" t="n"/>
     </row>
     <row customFormat="1" r="58" s="240">
-      <c r="A58" s="328" t="n"/>
+      <c r="A58" s="303" t="n"/>
       <c r="B58" s="243" t="n"/>
       <c r="C58" s="243" t="n"/>
-      <c r="D58" s="335" t="n"/>
-      <c r="E58" s="336" t="n"/>
+      <c r="D58" s="310" t="n"/>
+      <c r="E58" s="311" t="n"/>
       <c r="G58" s="241" t="n"/>
       <c r="H58" s="242" t="n"/>
       <c r="I58" s="186" t="n"/>
@@ -12675,11 +12656,11 @@
       <c r="M58" s="243" t="n"/>
     </row>
     <row customFormat="1" r="59" s="240">
-      <c r="A59" s="328" t="n"/>
+      <c r="A59" s="303" t="n"/>
       <c r="B59" s="243" t="n"/>
       <c r="C59" s="243" t="n"/>
-      <c r="D59" s="335" t="n"/>
-      <c r="E59" s="336" t="n"/>
+      <c r="D59" s="310" t="n"/>
+      <c r="E59" s="311" t="n"/>
       <c r="G59" s="241" t="n"/>
       <c r="H59" s="242" t="n"/>
       <c r="I59" s="186" t="n"/>
@@ -12689,11 +12670,11 @@
       <c r="M59" s="243" t="n"/>
     </row>
     <row customFormat="1" r="60" s="240">
-      <c r="A60" s="328" t="n"/>
+      <c r="A60" s="303" t="n"/>
       <c r="B60" s="243" t="n"/>
       <c r="C60" s="243" t="n"/>
-      <c r="D60" s="335" t="n"/>
-      <c r="E60" s="336" t="n"/>
+      <c r="D60" s="310" t="n"/>
+      <c r="E60" s="311" t="n"/>
       <c r="G60" s="241" t="n"/>
       <c r="H60" s="242" t="n"/>
       <c r="I60" s="186" t="n"/>
@@ -12703,11 +12684,11 @@
       <c r="M60" s="243" t="n"/>
     </row>
     <row customFormat="1" r="61" s="240">
-      <c r="A61" s="328" t="n"/>
+      <c r="A61" s="303" t="n"/>
       <c r="B61" s="243" t="n"/>
       <c r="C61" s="243" t="n"/>
-      <c r="D61" s="335" t="n"/>
-      <c r="E61" s="336" t="n"/>
+      <c r="D61" s="310" t="n"/>
+      <c r="E61" s="311" t="n"/>
       <c r="G61" s="241" t="n"/>
       <c r="H61" s="242" t="n"/>
       <c r="I61" s="186" t="n"/>
@@ -12717,11 +12698,11 @@
       <c r="M61" s="243" t="n"/>
     </row>
     <row customFormat="1" r="62" s="240">
-      <c r="A62" s="328" t="n"/>
+      <c r="A62" s="303" t="n"/>
       <c r="B62" s="237" t="n"/>
       <c r="C62" s="237" t="n"/>
-